--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -8750,16 +8750,16 @@
         <v>6</v>
       </c>
       <c r="F20" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -9014,16 +9014,16 @@
         <v>0</v>
       </c>
       <c r="CP20" s="1">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="CQ20" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CR20" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CS20" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:97">
@@ -11692,16 +11692,16 @@
         <v>2</v>
       </c>
       <c r="J30" s="1">
-        <v>1152</v>
+        <v>1169</v>
       </c>
       <c r="K30" s="2">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="L30" s="2">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="M30" s="2">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="N30" s="1">
         <v>1711</v>
@@ -11944,16 +11944,16 @@
         <v>0</v>
       </c>
       <c r="CP30" s="1">
-        <v>4885</v>
+        <v>4902</v>
       </c>
       <c r="CQ30" s="1">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="CR30" s="1">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="CS30" s="1">
-        <v>329</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:97">
@@ -15501,16 +15501,16 @@
         <v>1</v>
       </c>
       <c r="J43" s="1">
-        <v>1044</v>
+        <v>1072</v>
       </c>
       <c r="K43" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L43" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="M43" s="2">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="N43" s="1">
         <v>1458</v>
@@ -15753,16 +15753,16 @@
         <v>0</v>
       </c>
       <c r="CP43" s="1">
-        <v>43885</v>
+        <v>43913</v>
       </c>
       <c r="CQ43" s="1">
-        <v>2043</v>
+        <v>2071</v>
       </c>
       <c r="CR43" s="1">
-        <v>2094</v>
+        <v>2122</v>
       </c>
       <c r="CS43" s="1">
-        <v>3085</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="44" spans="1:97">
@@ -22826,16 +22826,16 @@
         <v>1</v>
       </c>
       <c r="J68" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M68" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N68" s="1">
         <v>1176</v>
@@ -23078,16 +23078,16 @@
         <v>0</v>
       </c>
       <c r="CP68" s="1">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="CQ68" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CR68" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CS68" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:97">
@@ -26683,16 +26683,16 @@
         <v>0</v>
       </c>
       <c r="Z81" s="1">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AA81" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB81" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC81" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD81" s="1">
         <v>313806</v>
@@ -26887,16 +26887,16 @@
         <v>0</v>
       </c>
       <c r="CP81" s="1">
-        <v>378731</v>
+        <v>378733</v>
       </c>
       <c r="CQ81" s="1">
-        <v>2404</v>
+        <v>2406</v>
       </c>
       <c r="CR81" s="1">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="CS81" s="1">
-        <v>33045</v>
+        <v>33047</v>
       </c>
     </row>
     <row r="82" spans="1:97">
@@ -28621,16 +28621,16 @@
         <v>7</v>
       </c>
       <c r="CH87" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CI87" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ87" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CK87" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CL87" s="1">
         <v>0</v>
@@ -28645,16 +28645,16 @@
         <v>0</v>
       </c>
       <c r="CP87" s="1">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="CQ87" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CR87" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="CS87" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:97">
@@ -33590,16 +33590,16 @@
         <v>0</v>
       </c>
       <c r="CD104" s="1">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="CE104" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CF104" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CG104" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CH104" s="1">
         <v>25</v>
@@ -33626,16 +33626,16 @@
         <v>0</v>
       </c>
       <c r="CP104" s="1">
-        <v>6584</v>
+        <v>6586</v>
       </c>
       <c r="CQ104" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="CR104" s="1">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="CS104" s="1">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="105" spans="1:97">
@@ -43091,16 +43091,16 @@
         <v>0</v>
       </c>
       <c r="Z137" s="1">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AA137" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB137" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC137" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AD137" s="1">
         <v>68541</v>
@@ -43295,16 +43295,16 @@
         <v>0</v>
       </c>
       <c r="CP137" s="1">
-        <v>117969</v>
+        <v>117973</v>
       </c>
       <c r="CQ137" s="1">
-        <v>2627</v>
+        <v>2631</v>
       </c>
       <c r="CR137" s="1">
-        <v>2668</v>
+        <v>2672</v>
       </c>
       <c r="CS137" s="1">
-        <v>5241</v>
+        <v>5245</v>
       </c>
     </row>
     <row r="138" spans="1:97">
@@ -44263,16 +44263,16 @@
         <v>0</v>
       </c>
       <c r="Z141" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AA141" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB141" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC141" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AD141" s="1">
         <v>0</v>
@@ -44467,16 +44467,16 @@
         <v>0</v>
       </c>
       <c r="CP141" s="1">
-        <v>3654</v>
+        <v>3657</v>
       </c>
       <c r="CQ141" s="1">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="CR141" s="1">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="CS141" s="1">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="142" spans="1:97">
@@ -52760,16 +52760,16 @@
         <v>0</v>
       </c>
       <c r="Z170" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AA170" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB170" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC170" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD170" s="1">
         <v>0</v>
@@ -52964,16 +52964,16 @@
         <v>0</v>
       </c>
       <c r="CP170" s="1">
-        <v>4200</v>
+        <v>4202</v>
       </c>
       <c r="CQ170" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="CR170" s="1">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="CS170" s="1">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="171" spans="1:97">
@@ -56790,16 +56790,16 @@
         <v>279</v>
       </c>
       <c r="B184" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C184" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D184" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E184" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F184" s="1">
         <v>14</v>
@@ -57066,16 +57066,16 @@
         <v>0</v>
       </c>
       <c r="CP184" s="1">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="CQ184" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CR184" s="1">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="CS184" s="1">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="185" spans="1:97">

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AB2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="2">
         <v>3</v>
@@ -3632,7 +3632,7 @@
         <v>225</v>
       </c>
       <c r="BG2" s="2">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="BH2" s="2">
         <v>65</v>
@@ -3743,10 +3743,10 @@
         <v>39944</v>
       </c>
       <c r="CU2" s="1">
-        <v>1131</v>
+        <v>1066</v>
       </c>
       <c r="CV2" s="1">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="CW2" s="1">
         <v>2773</v>
@@ -3760,7 +3760,7 @@
         <v>1759</v>
       </c>
       <c r="C3" s="2">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>41</v>
@@ -3928,7 +3928,7 @@
         <v>391</v>
       </c>
       <c r="BG3" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="BH3" s="2">
         <v>31</v>
@@ -4039,7 +4039,7 @@
         <v>38977</v>
       </c>
       <c r="CU3" s="1">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="CV3" s="1">
         <v>656</v>
@@ -8538,7 +8538,7 @@
         <v>187</v>
       </c>
       <c r="Q19" s="2">
-        <v>562</v>
+        <v>388</v>
       </c>
       <c r="R19" s="1">
         <v>0</v>
@@ -8622,7 +8622,7 @@
         <v>1</v>
       </c>
       <c r="AS19" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -8745,7 +8745,7 @@
         <v>15</v>
       </c>
       <c r="CK19" s="2">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="CL19" s="1">
         <v>23</v>
@@ -8781,7 +8781,7 @@
         <v>307</v>
       </c>
       <c r="CW19" s="1">
-        <v>805</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:101">
@@ -9423,7 +9423,7 @@
         <v>4</v>
       </c>
       <c r="P22" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="2">
         <v>13</v>
@@ -9666,7 +9666,7 @@
         <v>7</v>
       </c>
       <c r="CV22" s="1">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="CW22" s="1">
         <v>43</v>
@@ -12954,7 +12954,7 @@
         <v>4</v>
       </c>
       <c r="I34" s="2">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
@@ -13221,7 +13221,7 @@
         <v>4</v>
       </c>
       <c r="CW34" s="1">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:101">
@@ -14584,7 +14584,7 @@
         <v>232</v>
       </c>
       <c r="BG39" s="2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="BH39" s="2">
         <v>37</v>
@@ -14695,7 +14695,7 @@
         <v>51797</v>
       </c>
       <c r="CU39" s="1">
-        <v>637</v>
+        <v>600</v>
       </c>
       <c r="CV39" s="1">
         <v>973</v>
@@ -15014,7 +15014,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1">
         <v>23</v>
@@ -15026,7 +15026,7 @@
         <v>4</v>
       </c>
       <c r="I41" s="2">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J41" s="1">
         <v>0</v>
@@ -15293,7 +15293,7 @@
         <v>4</v>
       </c>
       <c r="CW41" s="1">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:101">
@@ -20043,7 +20043,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E58" s="2">
         <v>13</v>
@@ -20322,7 +20322,7 @@
         <v>2</v>
       </c>
       <c r="CV58" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CW58" s="1">
         <v>14</v>
@@ -21308,7 +21308,7 @@
         <v>1535</v>
       </c>
       <c r="AE62" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF62" s="2">
         <v>22</v>
@@ -21347,10 +21347,10 @@
         <v>0</v>
       </c>
       <c r="AR62" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS62" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>
@@ -21470,10 +21470,10 @@
         <v>5</v>
       </c>
       <c r="CJ62" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="CK62" s="2">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="CL62" s="1">
         <v>10</v>
@@ -21503,13 +21503,13 @@
         <v>6617</v>
       </c>
       <c r="CU62" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CV62" s="1">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="CW62" s="1">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:101">
@@ -21523,7 +21523,7 @@
         <v>55</v>
       </c>
       <c r="D63" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="E63" s="2">
         <v>156</v>
@@ -21802,7 +21802,7 @@
         <v>1190</v>
       </c>
       <c r="CV63" s="1">
-        <v>1308</v>
+        <v>1283</v>
       </c>
       <c r="CW63" s="1">
         <v>2533</v>
@@ -24818,7 +24818,7 @@
         <v>2558</v>
       </c>
       <c r="Q74" s="2">
-        <v>6274</v>
+        <v>6210</v>
       </c>
       <c r="R74" s="1">
         <v>1</v>
@@ -25061,7 +25061,7 @@
         <v>3372</v>
       </c>
       <c r="CW74" s="1">
-        <v>8013</v>
+        <v>7949</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25183,7 +25183,7 @@
         <v>15</v>
       </c>
       <c r="AN75" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AO75" s="2">
         <v>91</v>
@@ -25318,10 +25318,10 @@
         <v>66</v>
       </c>
       <c r="CJ75" s="2">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="CK75" s="2">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="CL75" s="1">
         <v>96</v>
@@ -25354,10 +25354,10 @@
         <v>4510</v>
       </c>
       <c r="CV75" s="1">
-        <v>5097</v>
+        <v>5082</v>
       </c>
       <c r="CW75" s="1">
-        <v>11172</v>
+        <v>11162</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -25536,7 +25536,7 @@
         <v>144</v>
       </c>
       <c r="BG76" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH76" s="2">
         <v>2</v>
@@ -25647,7 +25647,7 @@
         <v>84737</v>
       </c>
       <c r="CU76" s="1">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="CV76" s="1">
         <v>1171</v>
@@ -25778,7 +25778,7 @@
         <v>79</v>
       </c>
       <c r="AO77" s="2">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="AP77" s="1">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>94</v>
       </c>
       <c r="CK77" s="2">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="CL77" s="1">
         <v>0</v>
@@ -25949,7 +25949,7 @@
         <v>175</v>
       </c>
       <c r="CW77" s="1">
-        <v>303</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:101">
@@ -25960,7 +25960,7 @@
         <v>754</v>
       </c>
       <c r="C78" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D78" s="2">
         <v>5</v>
@@ -26239,7 +26239,7 @@
         <v>5287</v>
       </c>
       <c r="CU78" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="CV78" s="1">
         <v>125</v>
@@ -26720,7 +26720,7 @@
         <v>598</v>
       </c>
       <c r="BG80" s="2">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="BH80" s="2">
         <v>91</v>
@@ -26831,7 +26831,7 @@
         <v>378734</v>
       </c>
       <c r="CU80" s="1">
-        <v>2325</v>
+        <v>2259</v>
       </c>
       <c r="CV80" s="1">
         <v>2939</v>
@@ -29088,7 +29088,7 @@
         <v>18</v>
       </c>
       <c r="BG88" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH88" s="2">
         <v>2</v>
@@ -29199,7 +29199,7 @@
         <v>22993</v>
       </c>
       <c r="CU88" s="1">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CV88" s="1">
         <v>447</v>
@@ -30942,7 +30942,7 @@
         <v>1</v>
       </c>
       <c r="CJ94" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CK94" s="2">
         <v>8</v>
@@ -30978,7 +30978,7 @@
         <v>4</v>
       </c>
       <c r="CV94" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CW94" s="1">
         <v>40</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="AT99" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AU99" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV99" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW99" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX99" s="1">
         <v>12</v>
@@ -32452,16 +32452,16 @@
         <v>0</v>
       </c>
       <c r="CT99" s="1">
-        <v>37118</v>
+        <v>37119</v>
       </c>
       <c r="CU99" s="1">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="CV99" s="1">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="CW99" s="1">
-        <v>1921</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="100" spans="1:101">
@@ -33067,7 +33067,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E102" s="2">
         <v>5</v>
@@ -33091,7 +33091,7 @@
         <v>0</v>
       </c>
       <c r="L102" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M102" s="2">
         <v>73</v>
@@ -33346,7 +33346,7 @@
         <v>103</v>
       </c>
       <c r="CV102" s="1">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="CW102" s="1">
         <v>512</v>
@@ -33671,7 +33671,7 @@
         <v>1</v>
       </c>
       <c r="H104" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" s="2">
         <v>4</v>
@@ -33938,7 +33938,7 @@
         <v>1</v>
       </c>
       <c r="CV104" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW104" s="1">
         <v>5</v>
@@ -34571,7 +34571,7 @@
         <v>47</v>
       </c>
       <c r="L107" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M107" s="2">
         <v>256</v>
@@ -34826,7 +34826,7 @@
         <v>240</v>
       </c>
       <c r="CV107" s="1">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="CW107" s="1">
         <v>759</v>
@@ -34852,7 +34852,7 @@
         <v>55</v>
       </c>
       <c r="G108" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" s="2">
         <v>1</v>
@@ -35119,7 +35119,7 @@
         <v>543</v>
       </c>
       <c r="CU108" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="CV108" s="1">
         <v>50</v>
@@ -35432,7 +35432,7 @@
         <v>1611</v>
       </c>
       <c r="C110" s="2">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2">
         <v>70</v>
@@ -35711,7 +35711,7 @@
         <v>140613</v>
       </c>
       <c r="CU110" s="1">
-        <v>5117</v>
+        <v>5084</v>
       </c>
       <c r="CV110" s="1">
         <v>5323</v>
@@ -36652,7 +36652,7 @@
         <v>2238</v>
       </c>
       <c r="O114" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P114" s="2">
         <v>67</v>
@@ -36895,7 +36895,7 @@
         <v>10035</v>
       </c>
       <c r="CU114" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="CV114" s="1">
         <v>480</v>
@@ -41071,7 +41071,7 @@
         <v>0</v>
       </c>
       <c r="H129" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I129" s="2">
         <v>4</v>
@@ -41338,7 +41338,7 @@
         <v>0</v>
       </c>
       <c r="CV129" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CW129" s="1">
         <v>4</v>
@@ -42243,7 +42243,7 @@
         <v>60</v>
       </c>
       <c r="D133" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E133" s="2">
         <v>354</v>
@@ -42522,7 +42522,7 @@
         <v>1080</v>
       </c>
       <c r="CV133" s="1">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="CW133" s="1">
         <v>2665</v>
@@ -43278,7 +43278,7 @@
         <v>11</v>
       </c>
       <c r="BA136" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BB136" s="1">
         <v>86</v>
@@ -43413,7 +43413,7 @@
         <v>123</v>
       </c>
       <c r="CW136" s="1">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="137" spans="1:101">
@@ -44127,7 +44127,7 @@
         <v>3</v>
       </c>
       <c r="AN139" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO139" s="2">
         <v>7</v>
@@ -44262,7 +44262,7 @@
         <v>1</v>
       </c>
       <c r="CJ139" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CK139" s="2">
         <v>2</v>
@@ -44298,7 +44298,7 @@
         <v>10</v>
       </c>
       <c r="CV139" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="CW139" s="1">
         <v>29</v>
@@ -44910,7 +44910,7 @@
         <v>6</v>
       </c>
       <c r="E142" s="2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F142" s="1">
         <v>8</v>
@@ -45189,7 +45189,7 @@
         <v>25</v>
       </c>
       <c r="CW142" s="1">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="143" spans="1:101">
@@ -48755,7 +48755,7 @@
         <v>69</v>
       </c>
       <c r="D155" s="2">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="E155" s="2">
         <v>249</v>
@@ -48920,7 +48920,7 @@
         <v>718</v>
       </c>
       <c r="BG155" s="2">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="BH155" s="2">
         <v>75</v>
@@ -49031,10 +49031,10 @@
         <v>145458</v>
       </c>
       <c r="CU155" s="1">
-        <v>2045</v>
+        <v>1994</v>
       </c>
       <c r="CV155" s="1">
-        <v>2358</v>
+        <v>2297</v>
       </c>
       <c r="CW155" s="1">
         <v>4317</v>
@@ -49051,7 +49051,7 @@
         <v>43</v>
       </c>
       <c r="D156" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E156" s="2">
         <v>358</v>
@@ -49330,7 +49330,7 @@
         <v>797</v>
       </c>
       <c r="CV156" s="1">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="CW156" s="1">
         <v>1869</v>
@@ -51132,7 +51132,7 @@
         <v>41</v>
       </c>
       <c r="G163" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H163" s="2">
         <v>4</v>
@@ -51399,7 +51399,7 @@
         <v>642</v>
       </c>
       <c r="CU163" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CV163" s="1">
         <v>28</v>
@@ -51431,7 +51431,7 @@
         <v>1</v>
       </c>
       <c r="H164" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" s="2">
         <v>4</v>
@@ -51698,7 +51698,7 @@
         <v>1</v>
       </c>
       <c r="CV164" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW164" s="1">
         <v>5</v>
@@ -52472,7 +52472,7 @@
         <v>24</v>
       </c>
       <c r="BG167" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BH167" s="2">
         <v>4</v>
@@ -52583,7 +52583,7 @@
         <v>4548</v>
       </c>
       <c r="CU167" s="1">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="CV167" s="1">
         <v>198</v>
@@ -53219,7 +53219,7 @@
         <v>0</v>
       </c>
       <c r="L170" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M170" s="2">
         <v>17</v>
@@ -53474,7 +53474,7 @@
         <v>29</v>
       </c>
       <c r="CV170" s="1">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="CW170" s="1">
         <v>76</v>
@@ -55300,7 +55300,7 @@
         <v>61850</v>
       </c>
       <c r="O177" s="2">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="P177" s="2">
         <v>2512</v>
@@ -55543,7 +55543,7 @@
         <v>72079</v>
       </c>
       <c r="CU177" s="1">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="CV177" s="1">
         <v>2793</v>
@@ -55859,7 +55859,7 @@
         <v>122</v>
       </c>
       <c r="D179" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E179" s="2">
         <v>475</v>
@@ -55994,7 +55994,7 @@
         <v>-6</v>
       </c>
       <c r="AW179" s="2">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="AX179" s="1">
         <v>25</v>
@@ -56138,10 +56138,10 @@
         <v>1230</v>
       </c>
       <c r="CV179" s="1">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="CW179" s="1">
-        <v>2924</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="180" spans="1:101">
@@ -59740,10 +59740,10 @@
         <v>25662</v>
       </c>
       <c r="O192" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P192" s="2">
-        <v>722</v>
+        <v>675</v>
       </c>
       <c r="Q192" s="2">
         <v>1314</v>
@@ -59983,10 +59983,10 @@
         <v>28818</v>
       </c>
       <c r="CU192" s="1">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="CV192" s="1">
-        <v>793</v>
+        <v>746</v>
       </c>
       <c r="CW192" s="1">
         <v>1499</v>
@@ -62963,7 +62963,7 @@
         <v>0</v>
       </c>
       <c r="D203" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E203" s="2">
         <v>2</v>
@@ -62975,7 +62975,7 @@
         <v>0</v>
       </c>
       <c r="H203" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" s="2">
         <v>3</v>
@@ -63242,7 +63242,7 @@
         <v>0</v>
       </c>
       <c r="CV203" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CW203" s="1">
         <v>5</v>
@@ -63720,7 +63720,7 @@
         <v>230</v>
       </c>
       <c r="BG205" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BH205" s="2">
         <v>12</v>
@@ -63831,7 +63831,7 @@
         <v>12416</v>
       </c>
       <c r="CU205" s="1">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="CV205" s="1">
         <v>191</v>
@@ -63866,7 +63866,7 @@
         <v>0</v>
       </c>
       <c r="I206" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J206" s="1">
         <v>0</v>
@@ -64133,7 +64133,7 @@
         <v>8</v>
       </c>
       <c r="CW206" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:101">

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -9510,7 +9510,7 @@
         <v>3</v>
       </c>
       <c r="AS22" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT22" s="1">
         <v>0</v>
@@ -9669,7 +9669,7 @@
         <v>20</v>
       </c>
       <c r="CW22" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:101">
@@ -10990,7 +10990,7 @@
         <v>3</v>
       </c>
       <c r="AS27" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT27" s="1">
         <v>1</v>
@@ -11095,7 +11095,7 @@
         <v>13</v>
       </c>
       <c r="CE27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF27" s="2">
         <v>1</v>
@@ -11113,7 +11113,7 @@
         <v>10</v>
       </c>
       <c r="CK27" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="CL27" s="1">
         <v>20</v>
@@ -11143,13 +11143,13 @@
         <v>22369</v>
       </c>
       <c r="CU27" s="1">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="CV27" s="1">
         <v>216</v>
       </c>
       <c r="CW27" s="1">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" spans="1:101">
@@ -11836,7 +11836,7 @@
         <v>605</v>
       </c>
       <c r="AE30" s="2">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="2">
         <v>87</v>
@@ -12031,7 +12031,7 @@
         <v>4902</v>
       </c>
       <c r="CU30" s="1">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="CV30" s="1">
         <v>233</v>
@@ -14422,7 +14422,7 @@
         <v>343</v>
       </c>
       <c r="E39" s="2">
-        <v>662</v>
+        <v>530</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -14701,7 +14701,7 @@
         <v>973</v>
       </c>
       <c r="CW39" s="1">
-        <v>1877</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="40" spans="1:101">
@@ -18390,7 +18390,7 @@
         <v>1</v>
       </c>
       <c r="AS52" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT52" s="1">
         <v>0</v>
@@ -18513,7 +18513,7 @@
         <v>9</v>
       </c>
       <c r="CK52" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="CL52" s="1">
         <v>2</v>
@@ -18549,7 +18549,7 @@
         <v>17</v>
       </c>
       <c r="CW52" s="1">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:101">
@@ -24298,7 +24298,7 @@
         <v>184</v>
       </c>
       <c r="AO72" s="2">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="AP72" s="1">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>15153</v>
       </c>
       <c r="CI72" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CJ72" s="2">
         <v>253</v>
@@ -24463,13 +24463,13 @@
         <v>156846</v>
       </c>
       <c r="CU72" s="1">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="CV72" s="1">
         <v>2828</v>
       </c>
       <c r="CW72" s="1">
-        <v>5965</v>
+        <v>5951</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -24818,7 +24818,7 @@
         <v>2558</v>
       </c>
       <c r="Q74" s="2">
-        <v>6210</v>
+        <v>6067</v>
       </c>
       <c r="R74" s="1">
         <v>1</v>
@@ -25061,7 +25061,7 @@
         <v>3372</v>
       </c>
       <c r="CW74" s="1">
-        <v>7949</v>
+        <v>7806</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25186,7 +25186,7 @@
         <v>54</v>
       </c>
       <c r="AO75" s="2">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AP75" s="1">
         <v>71</v>
@@ -25321,7 +25321,7 @@
         <v>252</v>
       </c>
       <c r="CK75" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="CL75" s="1">
         <v>96</v>
@@ -25357,7 +25357,7 @@
         <v>5082</v>
       </c>
       <c r="CW75" s="1">
-        <v>11162</v>
+        <v>11156</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -25966,7 +25966,7 @@
         <v>5</v>
       </c>
       <c r="E78" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F78" s="1">
         <v>4</v>
@@ -25996,7 +25996,7 @@
         <v>3029</v>
       </c>
       <c r="O78" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P78" s="2">
         <v>43</v>
@@ -26239,13 +26239,13 @@
         <v>5287</v>
       </c>
       <c r="CU78" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CV78" s="1">
         <v>125</v>
       </c>
       <c r="CW78" s="1">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79" spans="1:101">
@@ -26558,7 +26558,7 @@
         <v>132</v>
       </c>
       <c r="E80" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -26837,7 +26837,7 @@
         <v>2939</v>
       </c>
       <c r="CW80" s="1">
-        <v>33047</v>
+        <v>33048</v>
       </c>
     </row>
     <row r="81" spans="1:101">
@@ -30945,7 +30945,7 @@
         <v>5</v>
       </c>
       <c r="CK94" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CL94" s="1">
         <v>31</v>
@@ -30981,7 +30981,7 @@
         <v>11</v>
       </c>
       <c r="CW94" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:101">
@@ -32344,7 +32344,7 @@
         <v>592</v>
       </c>
       <c r="BG99" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH99" s="2">
         <v>5</v>
@@ -32455,7 +32455,7 @@
         <v>37119</v>
       </c>
       <c r="CU99" s="1">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="CV99" s="1">
         <v>1061</v>
@@ -33528,7 +33528,7 @@
         <v>213</v>
       </c>
       <c r="BG103" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH103" s="2">
         <v>40</v>
@@ -33639,7 +33639,7 @@
         <v>78394</v>
       </c>
       <c r="CU103" s="1">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="CV103" s="1">
         <v>6779</v>
@@ -35746,7 +35746,7 @@
         <v>3</v>
       </c>
       <c r="I111" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J111" s="1">
         <v>0</v>
@@ -36013,7 +36013,7 @@
         <v>3</v>
       </c>
       <c r="CW111" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:101">
@@ -36326,7 +36326,7 @@
         <v>52</v>
       </c>
       <c r="E113" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F113" s="1">
         <v>0</v>
@@ -36605,7 +36605,7 @@
         <v>518</v>
       </c>
       <c r="CW113" s="1">
-        <v>1008</v>
+        <v>999</v>
       </c>
     </row>
     <row r="114" spans="1:101">
@@ -36736,7 +36736,7 @@
         <v>49</v>
       </c>
       <c r="AQ114" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR114" s="2">
         <v>3</v>
@@ -36859,7 +36859,7 @@
         <v>126</v>
       </c>
       <c r="CI114" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CJ114" s="2">
         <v>9</v>
@@ -36895,7 +36895,7 @@
         <v>10035</v>
       </c>
       <c r="CU114" s="1">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="CV114" s="1">
         <v>480</v>
@@ -38398,7 +38398,7 @@
         <v>5</v>
       </c>
       <c r="E120" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F120" s="1">
         <v>13</v>
@@ -38410,7 +38410,7 @@
         <v>1</v>
       </c>
       <c r="I120" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" s="1">
         <v>0</v>
@@ -38677,7 +38677,7 @@
         <v>6</v>
       </c>
       <c r="CW120" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:101">
@@ -44034,7 +44034,7 @@
         <v>3</v>
       </c>
       <c r="I139" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J139" s="1">
         <v>24</v>
@@ -44052,7 +44052,7 @@
         <v>156</v>
       </c>
       <c r="O139" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P139" s="2">
         <v>3</v>
@@ -44124,7 +44124,7 @@
         <v>23</v>
       </c>
       <c r="AM139" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN139" s="2">
         <v>4</v>
@@ -44259,7 +44259,7 @@
         <v>10</v>
       </c>
       <c r="CI139" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ139" s="2">
         <v>1</v>
@@ -44295,13 +44295,13 @@
         <v>486</v>
       </c>
       <c r="CU139" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="CV139" s="1">
         <v>17</v>
       </c>
       <c r="CW139" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140" spans="1:101">
@@ -44626,7 +44626,7 @@
         <v>1</v>
       </c>
       <c r="I141" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J141" s="1">
         <v>0</v>
@@ -44734,7 +44734,7 @@
         <v>3</v>
       </c>
       <c r="AS141" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT141" s="1">
         <v>0</v>
@@ -44869,7 +44869,7 @@
         <v>2</v>
       </c>
       <c r="CO141" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CP141" s="1">
         <v>0</v>
@@ -44893,7 +44893,7 @@
         <v>13</v>
       </c>
       <c r="CW141" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:101">
@@ -48824,7 +48824,7 @@
         <v>70</v>
       </c>
       <c r="AA155" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB155" s="2">
         <v>3</v>
@@ -49031,7 +49031,7 @@
         <v>145458</v>
       </c>
       <c r="CU155" s="1">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="CV155" s="1">
         <v>2297</v>
@@ -49156,7 +49156,7 @@
         <v>262</v>
       </c>
       <c r="AM156" s="2">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AN156" s="2">
         <v>26</v>
@@ -49291,7 +49291,7 @@
         <v>1576</v>
       </c>
       <c r="CI156" s="2">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="CJ156" s="2">
         <v>310</v>
@@ -49327,7 +49327,7 @@
         <v>17754</v>
       </c>
       <c r="CU156" s="1">
-        <v>797</v>
+        <v>761</v>
       </c>
       <c r="CV156" s="1">
         <v>1190</v>
@@ -50636,7 +50636,7 @@
         <v>116</v>
       </c>
       <c r="AM161" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN161" s="2">
         <v>4</v>
@@ -50771,7 +50771,7 @@
         <v>2590</v>
       </c>
       <c r="CI161" s="2">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="CJ161" s="2">
         <v>296</v>
@@ -50807,7 +50807,7 @@
         <v>2714</v>
       </c>
       <c r="CU161" s="1">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="CV161" s="1">
         <v>300</v>
@@ -59373,7 +59373,7 @@
         <v>2</v>
       </c>
       <c r="CO190" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CP190" s="1">
         <v>0</v>
@@ -59397,7 +59397,7 @@
         <v>10</v>
       </c>
       <c r="CW190" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="191" spans="1:101">
@@ -60296,7 +60296,7 @@
         <v>572</v>
       </c>
       <c r="C194" s="2">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D194" s="2">
         <v>32</v>
@@ -60308,7 +60308,7 @@
         <v>2</v>
       </c>
       <c r="G194" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194" s="2">
         <v>1</v>
@@ -60332,7 +60332,7 @@
         <v>2966</v>
       </c>
       <c r="O194" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P194" s="2">
         <v>422</v>
@@ -60575,7 +60575,7 @@
         <v>4751</v>
       </c>
       <c r="CU194" s="1">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="CV194" s="1">
         <v>507</v>
@@ -62019,7 +62019,7 @@
         <v>3180</v>
       </c>
       <c r="CI199" s="2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="CJ199" s="2">
         <v>66</v>
@@ -62055,7 +62055,7 @@
         <v>78070</v>
       </c>
       <c r="CU199" s="1">
-        <v>3567</v>
+        <v>3561</v>
       </c>
       <c r="CV199" s="1">
         <v>3780</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3461,16 +3461,16 @@
         <v>101</v>
       </c>
       <c r="B2" s="1">
-        <v>1380</v>
+        <v>1386</v>
       </c>
       <c r="C2" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -3740,16 +3740,16 @@
         <v>0</v>
       </c>
       <c r="CT2" s="1">
-        <v>39944</v>
+        <v>39950</v>
       </c>
       <c r="CU2" s="1">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="CV2" s="1">
-        <v>1323</v>
+        <v>1329</v>
       </c>
       <c r="CW2" s="1">
-        <v>2773</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="3" spans="1:101">
@@ -4305,7 +4305,7 @@
         <v>58</v>
       </c>
       <c r="CK4" s="2">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="CL4" s="1">
         <v>0</v>
@@ -4341,7 +4341,7 @@
         <v>139</v>
       </c>
       <c r="CW4" s="1">
-        <v>608</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -4358,7 +4358,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
         <v>33</v>
@@ -4637,7 +4637,7 @@
         <v>3</v>
       </c>
       <c r="CW5" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:101">
@@ -7309,16 +7309,16 @@
         <v>114</v>
       </c>
       <c r="B15" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" s="1">
         <v>45</v>
@@ -7588,16 +7588,16 @@
         <v>0</v>
       </c>
       <c r="CT15" s="1">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="CU15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CV15" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CW15" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:101">
@@ -7722,7 +7722,7 @@
         <v>14</v>
       </c>
       <c r="AO16" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AP16" s="1">
         <v>24</v>
@@ -7857,7 +7857,7 @@
         <v>26</v>
       </c>
       <c r="CK16" s="2">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="CL16" s="1">
         <v>27</v>
@@ -7893,7 +7893,7 @@
         <v>43</v>
       </c>
       <c r="CW16" s="1">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:101">
@@ -8574,7 +8574,7 @@
         <v>4</v>
       </c>
       <c r="AC19" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AD19" s="1">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>307</v>
       </c>
       <c r="CW19" s="1">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="20" spans="1:101">
@@ -11779,7 +11779,7 @@
         <v>26</v>
       </c>
       <c r="L30" s="2">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="M30" s="2">
         <v>102</v>
@@ -11971,7 +11971,7 @@
         <v>2</v>
       </c>
       <c r="CA30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB30" s="2">
         <v>1</v>
@@ -12031,10 +12031,10 @@
         <v>4902</v>
       </c>
       <c r="CU30" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="CV30" s="1">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="CW30" s="1">
         <v>346</v>
@@ -21114,7 +21114,7 @@
         <v>0</v>
       </c>
       <c r="BP61" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BQ61" s="2">
         <v>4</v>
@@ -21210,7 +21210,7 @@
         <v>59</v>
       </c>
       <c r="CV61" s="1">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="CW61" s="1">
         <v>190</v>
@@ -22713,16 +22713,16 @@
         <v>0</v>
       </c>
       <c r="F67" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J67" s="1">
         <v>0</v>
@@ -22980,16 +22980,16 @@
         <v>0</v>
       </c>
       <c r="CT67" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CU67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV67" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW67" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:101">
@@ -24295,7 +24295,7 @@
         <v>28</v>
       </c>
       <c r="AN72" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AO72" s="2">
         <v>285</v>
@@ -24430,7 +24430,7 @@
         <v>57</v>
       </c>
       <c r="CJ72" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="CK72" s="2">
         <v>392</v>
@@ -24466,7 +24466,7 @@
         <v>1715</v>
       </c>
       <c r="CV72" s="1">
-        <v>2828</v>
+        <v>2826</v>
       </c>
       <c r="CW72" s="1">
         <v>5951</v>
@@ -24815,10 +24815,10 @@
         <v>2503</v>
       </c>
       <c r="P74" s="2">
-        <v>2558</v>
+        <v>2553</v>
       </c>
       <c r="Q74" s="2">
-        <v>6067</v>
+        <v>6008</v>
       </c>
       <c r="R74" s="1">
         <v>1</v>
@@ -25058,10 +25058,10 @@
         <v>3042</v>
       </c>
       <c r="CV74" s="1">
-        <v>3372</v>
+        <v>3367</v>
       </c>
       <c r="CW74" s="1">
-        <v>7806</v>
+        <v>7747</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25318,7 +25318,7 @@
         <v>66</v>
       </c>
       <c r="CJ75" s="2">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="CK75" s="2">
         <v>513</v>
@@ -25354,7 +25354,7 @@
         <v>4510</v>
       </c>
       <c r="CV75" s="1">
-        <v>5082</v>
+        <v>5066</v>
       </c>
       <c r="CW75" s="1">
         <v>11156</v>
@@ -25957,16 +25957,16 @@
         <v>177</v>
       </c>
       <c r="B78" s="1">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C78" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D78" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E78" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F78" s="1">
         <v>4</v>
@@ -26236,16 +26236,16 @@
         <v>0</v>
       </c>
       <c r="CT78" s="1">
-        <v>5287</v>
+        <v>5289</v>
       </c>
       <c r="CU78" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="CV78" s="1">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="CW78" s="1">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:101">
@@ -26265,16 +26265,16 @@
         <v>1</v>
       </c>
       <c r="F79" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G79" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J79" s="1">
         <v>0</v>
@@ -26373,16 +26373,16 @@
         <v>0</v>
       </c>
       <c r="AP79" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ79" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR79" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS79" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT79" s="1">
         <v>0</v>
@@ -26508,16 +26508,16 @@
         <v>1</v>
       </c>
       <c r="CL79" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CM79" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN79" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CO79" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CP79" s="1">
         <v>0</v>
@@ -26532,16 +26532,16 @@
         <v>0</v>
       </c>
       <c r="CT79" s="1">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="CU79" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="CV79" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CW79" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:101">
@@ -26549,16 +26549,16 @@
         <v>179</v>
       </c>
       <c r="B80" s="1">
-        <v>2210</v>
+        <v>2235</v>
       </c>
       <c r="C80" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E80" s="2">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -26591,7 +26591,7 @@
         <v>432</v>
       </c>
       <c r="P80" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q80" s="2">
         <v>903</v>
@@ -26828,16 +26828,16 @@
         <v>0</v>
       </c>
       <c r="CT80" s="1">
-        <v>378734</v>
+        <v>378759</v>
       </c>
       <c r="CU80" s="1">
-        <v>2259</v>
+        <v>2284</v>
       </c>
       <c r="CV80" s="1">
-        <v>2939</v>
+        <v>2929</v>
       </c>
       <c r="CW80" s="1">
-        <v>33048</v>
+        <v>33073</v>
       </c>
     </row>
     <row r="81" spans="1:101">
@@ -27393,7 +27393,7 @@
         <v>41</v>
       </c>
       <c r="CK82" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="CL82" s="1">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>53</v>
       </c>
       <c r="CW82" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:101">
@@ -30822,7 +30822,7 @@
         <v>2</v>
       </c>
       <c r="AS94" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT94" s="1">
         <v>0</v>
@@ -30957,7 +30957,7 @@
         <v>0</v>
       </c>
       <c r="CO94" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CP94" s="1">
         <v>0</v>
@@ -30981,7 +30981,7 @@
         <v>11</v>
       </c>
       <c r="CW94" s="1">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:101">
@@ -33265,7 +33265,7 @@
         <v>1</v>
       </c>
       <c r="BU102" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BV102" s="1">
         <v>2</v>
@@ -33349,7 +33349,7 @@
         <v>277</v>
       </c>
       <c r="CW102" s="1">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="103" spans="1:101">
@@ -33393,16 +33393,16 @@
         <v>886</v>
       </c>
       <c r="N103" s="1">
-        <v>14977</v>
+        <v>19756</v>
       </c>
       <c r="O103" s="2">
-        <v>-21</v>
+        <v>4758</v>
       </c>
       <c r="P103" s="2">
-        <v>4022</v>
+        <v>8801</v>
       </c>
       <c r="Q103" s="2">
-        <v>4022</v>
+        <v>8801</v>
       </c>
       <c r="R103" s="1">
         <v>0</v>
@@ -33636,16 +33636,16 @@
         <v>0</v>
       </c>
       <c r="CT103" s="1">
-        <v>78394</v>
+        <v>83173</v>
       </c>
       <c r="CU103" s="1">
-        <v>2054</v>
+        <v>6833</v>
       </c>
       <c r="CV103" s="1">
-        <v>6779</v>
+        <v>11558</v>
       </c>
       <c r="CW103" s="1">
-        <v>8789</v>
+        <v>13568</v>
       </c>
     </row>
     <row r="104" spans="1:101">
@@ -34547,7 +34547,7 @@
         <v>7</v>
       </c>
       <c r="D107" s="2">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E107" s="2">
         <v>68</v>
@@ -34826,7 +34826,7 @@
         <v>240</v>
       </c>
       <c r="CV107" s="1">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="CW107" s="1">
         <v>759</v>
@@ -35462,7 +35462,7 @@
         <v>182</v>
       </c>
       <c r="M110" s="2">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="N110" s="1">
         <v>6754</v>
@@ -35717,7 +35717,7 @@
         <v>5323</v>
       </c>
       <c r="CW110" s="1">
-        <v>10668</v>
+        <v>10623</v>
       </c>
     </row>
     <row r="111" spans="1:101">
@@ -37519,7 +37519,7 @@
         <v>0</v>
       </c>
       <c r="H117" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" s="2">
         <v>4</v>
@@ -37786,7 +37786,7 @@
         <v>8</v>
       </c>
       <c r="CV117" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="CW117" s="1">
         <v>29</v>
@@ -38685,16 +38685,16 @@
         <v>220</v>
       </c>
       <c r="B121" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C121" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E121" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F121" s="1">
         <v>31</v>
@@ -38964,16 +38964,16 @@
         <v>0</v>
       </c>
       <c r="CT121" s="1">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="CU121" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CV121" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CW121" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:101">
@@ -39869,16 +39869,16 @@
         <v>224</v>
       </c>
       <c r="B125" s="1">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="C125" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D125" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E125" s="2">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F125" s="1">
         <v>1</v>
@@ -40148,16 +40148,16 @@
         <v>0</v>
       </c>
       <c r="CT125" s="1">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="CU125" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="CV125" s="1">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="CW125" s="1">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126" spans="1:101">
@@ -41950,7 +41950,7 @@
         <v>9</v>
       </c>
       <c r="E132" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F132" s="1">
         <v>0</v>
@@ -42229,7 +42229,7 @@
         <v>2672</v>
       </c>
       <c r="CW132" s="1">
-        <v>5245</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="133" spans="1:101">
@@ -42949,13 +42949,13 @@
         <v>0</v>
       </c>
       <c r="AP135" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AQ135" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR135" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS135" s="2">
         <v>4</v>
@@ -43081,19 +43081,19 @@
         <v>1</v>
       </c>
       <c r="CK135" s="2">
+        <v>1</v>
+      </c>
+      <c r="CL135" s="1">
+        <v>28</v>
+      </c>
+      <c r="CM135" s="2">
+        <v>1</v>
+      </c>
+      <c r="CN135" s="2">
         <v>2</v>
       </c>
-      <c r="CL135" s="1">
-        <v>27</v>
-      </c>
-      <c r="CM135" s="2">
-        <v>0</v>
-      </c>
-      <c r="CN135" s="2">
-        <v>1</v>
-      </c>
       <c r="CO135" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CP135" s="1">
         <v>0</v>
@@ -43108,13 +43108,13 @@
         <v>0</v>
       </c>
       <c r="CT135" s="1">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="CU135" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CV135" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CW135" s="1">
         <v>36</v>
@@ -43278,7 +43278,7 @@
         <v>11</v>
       </c>
       <c r="BA136" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB136" s="1">
         <v>86</v>
@@ -43413,7 +43413,7 @@
         <v>123</v>
       </c>
       <c r="CW136" s="1">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="137" spans="1:101">
@@ -43921,7 +43921,7 @@
         <v>1</v>
       </c>
       <c r="BU138" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BV138" s="1">
         <v>0</v>
@@ -44005,7 +44005,7 @@
         <v>23</v>
       </c>
       <c r="CW138" s="1">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139" spans="1:101">
@@ -44429,16 +44429,16 @@
         <v>8</v>
       </c>
       <c r="AP140" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ140" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR140" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS140" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT140" s="1">
         <v>0</v>
@@ -44564,16 +44564,16 @@
         <v>10</v>
       </c>
       <c r="CL140" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CM140" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN140" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CO140" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CP140" s="1">
         <v>0</v>
@@ -44588,16 +44588,16 @@
         <v>0</v>
       </c>
       <c r="CT140" s="1">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="CU140" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CV140" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="CW140" s="1">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141" spans="1:101">
@@ -45344,7 +45344,7 @@
         <v>25</v>
       </c>
       <c r="AY143" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ143" s="2">
         <v>2</v>
@@ -45479,7 +45479,7 @@
         <v>2109</v>
       </c>
       <c r="CU143" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CV143" s="1">
         <v>66</v>
@@ -52618,7 +52618,7 @@
         <v>3</v>
       </c>
       <c r="I168" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J168" s="1">
         <v>0</v>
@@ -52885,7 +52885,7 @@
         <v>36</v>
       </c>
       <c r="CW168" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="169" spans="1:101">
@@ -53198,7 +53198,7 @@
         <v>9</v>
       </c>
       <c r="E170" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F170" s="1">
         <v>12</v>
@@ -53477,7 +53477,7 @@
         <v>60</v>
       </c>
       <c r="CW170" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="171" spans="1:101">
@@ -54786,7 +54786,7 @@
         <v>96</v>
       </c>
       <c r="AO175" s="2">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="AP175" s="1">
         <v>0</v>
@@ -54921,7 +54921,7 @@
         <v>216</v>
       </c>
       <c r="CK175" s="2">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="CL175" s="1">
         <v>0</v>
@@ -54957,7 +54957,7 @@
         <v>341</v>
       </c>
       <c r="CW175" s="1">
-        <v>431</v>
+        <v>404</v>
       </c>
     </row>
     <row r="176" spans="1:101">
@@ -55991,19 +55991,19 @@
         <v>0</v>
       </c>
       <c r="AV179" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW179" s="2">
         <v>-6</v>
-      </c>
-      <c r="AW179" s="2">
-        <v>-5</v>
       </c>
       <c r="AX179" s="1">
         <v>25</v>
       </c>
       <c r="AY179" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ179" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="BA179" s="2">
         <v>13</v>
@@ -56090,7 +56090,7 @@
         <v>0</v>
       </c>
       <c r="CF179" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG179" s="2">
         <v>1</v>
@@ -56135,13 +56135,13 @@
         <v>42714</v>
       </c>
       <c r="CU179" s="1">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="CV179" s="1">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="CW179" s="1">
-        <v>2920</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="180" spans="1:101">
@@ -59238,7 +59238,7 @@
         <v>2</v>
       </c>
       <c r="AS190" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT190" s="1">
         <v>0</v>
@@ -59373,7 +59373,7 @@
         <v>2</v>
       </c>
       <c r="CO190" s="2">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="CP190" s="1">
         <v>0</v>
@@ -59397,7 +59397,7 @@
         <v>10</v>
       </c>
       <c r="CW190" s="1">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="191" spans="1:101">
@@ -60009,16 +60009,16 @@
         <v>11</v>
       </c>
       <c r="F193" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G193" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J193" s="1">
         <v>123</v>
@@ -60276,16 +60276,16 @@
         <v>0</v>
       </c>
       <c r="CT193" s="1">
-        <v>57490</v>
+        <v>57491</v>
       </c>
       <c r="CU193" s="1">
-        <v>3831</v>
+        <v>3832</v>
       </c>
       <c r="CV193" s="1">
-        <v>3864</v>
+        <v>3865</v>
       </c>
       <c r="CW193" s="1">
-        <v>4903</v>
+        <v>4904</v>
       </c>
     </row>
     <row r="194" spans="1:101">
@@ -60329,16 +60329,16 @@
         <v>43</v>
       </c>
       <c r="N194" s="1">
-        <v>2966</v>
+        <v>2964</v>
       </c>
       <c r="O194" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P194" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="Q194" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="R194" s="1">
         <v>0</v>
@@ -60572,16 +60572,16 @@
         <v>0</v>
       </c>
       <c r="CT194" s="1">
-        <v>4751</v>
+        <v>4749</v>
       </c>
       <c r="CU194" s="1">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="CV194" s="1">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="CW194" s="1">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="195" spans="1:101">
@@ -67368,7 +67368,7 @@
         <v>589</v>
       </c>
       <c r="D72">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="E72" t="s">
         <v>709</v>
@@ -68597,7 +68597,7 @@
         <v>641</v>
       </c>
       <c r="D133">
-        <v>10142</v>
+        <v>10143</v>
       </c>
       <c r="E133" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3533,16 +3533,16 @@
         <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AA2" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB2" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC2" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AD2" s="1">
         <v>15675</v>
@@ -3740,16 +3740,16 @@
         <v>0</v>
       </c>
       <c r="CT2" s="1">
-        <v>39950</v>
+        <v>39953</v>
       </c>
       <c r="CU2" s="1">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="CV2" s="1">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="CW2" s="1">
-        <v>2779</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="3" spans="1:101">
@@ -4645,16 +4645,16 @@
         <v>105</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>24</v>
@@ -4924,16 +4924,16 @@
         <v>0</v>
       </c>
       <c r="CT6" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CU6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CV6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CW6" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:101">
@@ -12231,7 +12231,7 @@
         <v>15</v>
       </c>
       <c r="BO31" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BP31" s="2">
         <v>7</v>
@@ -12327,7 +12327,7 @@
         <v>9417</v>
       </c>
       <c r="CU31" s="1">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="CV31" s="1">
         <v>329</v>
@@ -14413,16 +14413,16 @@
         <v>138</v>
       </c>
       <c r="B39" s="1">
-        <v>12039</v>
+        <v>12157</v>
       </c>
       <c r="C39" s="2">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="D39" s="2">
-        <v>343</v>
+        <v>461</v>
       </c>
       <c r="E39" s="2">
-        <v>530</v>
+        <v>648</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -14692,16 +14692,16 @@
         <v>1</v>
       </c>
       <c r="CT39" s="1">
-        <v>51797</v>
+        <v>51915</v>
       </c>
       <c r="CU39" s="1">
-        <v>600</v>
+        <v>718</v>
       </c>
       <c r="CV39" s="1">
-        <v>973</v>
+        <v>1091</v>
       </c>
       <c r="CW39" s="1">
-        <v>1745</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="40" spans="1:101">
@@ -19762,7 +19762,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J57" s="1">
         <v>22</v>
@@ -20029,7 +20029,7 @@
         <v>23</v>
       </c>
       <c r="CW57" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:101">
@@ -22534,7 +22534,7 @@
         <v>2</v>
       </c>
       <c r="AS66" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT66" s="1">
         <v>0</v>
@@ -22657,7 +22657,7 @@
         <v>12</v>
       </c>
       <c r="CK66" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="CL66" s="1">
         <v>26</v>
@@ -22693,7 +22693,7 @@
         <v>56</v>
       </c>
       <c r="CW66" s="1">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:101">
@@ -24433,7 +24433,7 @@
         <v>252</v>
       </c>
       <c r="CK72" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="CL72" s="1">
         <v>0</v>
@@ -24469,7 +24469,7 @@
         <v>2826</v>
       </c>
       <c r="CW72" s="1">
-        <v>5951</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -24594,7 +24594,7 @@
         <v>7</v>
       </c>
       <c r="AO73" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP73" s="1">
         <v>3</v>
@@ -24765,7 +24765,7 @@
         <v>16</v>
       </c>
       <c r="CW73" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:101">
@@ -25312,28 +25312,28 @@
         <v>0</v>
       </c>
       <c r="CH75" s="1">
-        <v>5620</v>
+        <v>5632</v>
       </c>
       <c r="CI75" s="2">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="CJ75" s="2">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="CK75" s="2">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="CL75" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="CM75" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CN75" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CO75" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CP75" s="1">
         <v>12</v>
@@ -25348,16 +25348,16 @@
         <v>6</v>
       </c>
       <c r="CT75" s="1">
-        <v>345726</v>
+        <v>345739</v>
       </c>
       <c r="CU75" s="1">
-        <v>4510</v>
+        <v>4523</v>
       </c>
       <c r="CV75" s="1">
-        <v>5066</v>
+        <v>5077</v>
       </c>
       <c r="CW75" s="1">
-        <v>11156</v>
+        <v>11163</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -25398,7 +25398,7 @@
         <v>154</v>
       </c>
       <c r="M76" s="2">
-        <v>326</v>
+        <v>259</v>
       </c>
       <c r="N76" s="1">
         <v>65769</v>
@@ -25653,7 +25653,7 @@
         <v>1171</v>
       </c>
       <c r="CW76" s="1">
-        <v>2285</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="77" spans="1:101">
@@ -25990,7 +25990,7 @@
         <v>68</v>
       </c>
       <c r="M78" s="2">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="N78" s="1">
         <v>3029</v>
@@ -26245,7 +26245,7 @@
         <v>127</v>
       </c>
       <c r="CW78" s="1">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="1:101">
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="AN83" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO83" s="2">
         <v>1</v>
@@ -27686,7 +27686,7 @@
         <v>3</v>
       </c>
       <c r="CJ83" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="CK83" s="2">
         <v>16</v>
@@ -27722,7 +27722,7 @@
         <v>32</v>
       </c>
       <c r="CV83" s="1">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="CW83" s="1">
         <v>99</v>
@@ -29626,7 +29626,7 @@
         <v>1</v>
       </c>
       <c r="AO90" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP90" s="1">
         <v>28</v>
@@ -29761,7 +29761,7 @@
         <v>6</v>
       </c>
       <c r="CK90" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CL90" s="1">
         <v>30</v>
@@ -29797,7 +29797,7 @@
         <v>40</v>
       </c>
       <c r="CW90" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:101">
@@ -33070,7 +33070,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F102" s="1">
         <v>4</v>
@@ -33181,13 +33181,13 @@
         <v>3</v>
       </c>
       <c r="AP102" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AQ102" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR102" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS102" s="2">
         <v>4</v>
@@ -33340,16 +33340,16 @@
         <v>0</v>
       </c>
       <c r="CT102" s="1">
-        <v>6586</v>
+        <v>6587</v>
       </c>
       <c r="CU102" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="CV102" s="1">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="CW102" s="1">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="103" spans="1:101">
@@ -34954,7 +34954,7 @@
         <v>10</v>
       </c>
       <c r="AO108" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP108" s="1">
         <v>41</v>
@@ -35089,7 +35089,7 @@
         <v>37</v>
       </c>
       <c r="CK108" s="2">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="CL108" s="1">
         <v>26</v>
@@ -35125,7 +35125,7 @@
         <v>50</v>
       </c>
       <c r="CW108" s="1">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:101">
@@ -35459,7 +35459,7 @@
         <v>59</v>
       </c>
       <c r="L110" s="2">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="M110" s="2">
         <v>303</v>
@@ -35714,7 +35714,7 @@
         <v>5084</v>
       </c>
       <c r="CV110" s="1">
-        <v>5323</v>
+        <v>5264</v>
       </c>
       <c r="CW110" s="1">
         <v>10623</v>
@@ -40183,7 +40183,7 @@
         <v>1</v>
       </c>
       <c r="H126" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I126" s="2">
         <v>6</v>
@@ -40450,7 +40450,7 @@
         <v>3</v>
       </c>
       <c r="CV126" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CW126" s="1">
         <v>18</v>
@@ -41666,7 +41666,7 @@
         <v>4</v>
       </c>
       <c r="I131" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J131" s="1">
         <v>0</v>
@@ -41933,7 +41933,7 @@
         <v>5</v>
       </c>
       <c r="CW131" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:101">
@@ -42246,7 +42246,7 @@
         <v>175</v>
       </c>
       <c r="E133" s="2">
-        <v>354</v>
+        <v>287</v>
       </c>
       <c r="F133" s="1">
         <v>0</v>
@@ -42525,7 +42525,7 @@
         <v>1433</v>
       </c>
       <c r="CW133" s="1">
-        <v>2665</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="134" spans="1:101">
@@ -43203,7 +43203,7 @@
         <v>3</v>
       </c>
       <c r="AB136" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AC136" s="2">
         <v>6</v>
@@ -43410,7 +43410,7 @@
         <v>69</v>
       </c>
       <c r="CV136" s="1">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="CW136" s="1">
         <v>230</v>
@@ -50857,16 +50857,16 @@
         <v>66</v>
       </c>
       <c r="N162" s="1">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O162" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P162" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q162" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R162" s="1">
         <v>1</v>
@@ -51100,16 +51100,16 @@
         <v>0</v>
       </c>
       <c r="CT162" s="1">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="CU162" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CV162" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CW162" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="163" spans="1:101">
@@ -52334,7 +52334,7 @@
         <v>65</v>
       </c>
       <c r="M167" s="2">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="N167" s="1">
         <v>320</v>
@@ -52589,7 +52589,7 @@
         <v>198</v>
       </c>
       <c r="CW167" s="1">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="168" spans="1:101">
@@ -52893,16 +52893,16 @@
         <v>268</v>
       </c>
       <c r="B169" s="1">
-        <v>3887</v>
+        <v>3938</v>
       </c>
       <c r="C169" s="2">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D169" s="2">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="E169" s="2">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="F169" s="1">
         <v>0</v>
@@ -52917,16 +52917,16 @@
         <v>0</v>
       </c>
       <c r="J169" s="1">
-        <v>5202</v>
+        <v>5201</v>
       </c>
       <c r="K169" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L169" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M169" s="2">
-        <v>542</v>
+        <v>447</v>
       </c>
       <c r="N169" s="1">
         <v>2358</v>
@@ -53172,16 +53172,16 @@
         <v>0</v>
       </c>
       <c r="CT169" s="1">
-        <v>15911</v>
+        <v>15961</v>
       </c>
       <c r="CU169" s="1">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="CV169" s="1">
-        <v>601</v>
+        <v>651</v>
       </c>
       <c r="CW169" s="1">
-        <v>1172</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="170" spans="1:101">
@@ -55270,7 +55270,7 @@
         <v>93</v>
       </c>
       <c r="E177" s="2">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="F177" s="1">
         <v>0</v>
@@ -55549,7 +55549,7 @@
         <v>2793</v>
       </c>
       <c r="CW177" s="1">
-        <v>4665</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="178" spans="1:101">
@@ -55557,16 +55557,16 @@
         <v>277</v>
       </c>
       <c r="B178" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C178" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D178" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E178" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F178" s="1">
         <v>14</v>
@@ -55836,16 +55836,16 @@
         <v>0</v>
       </c>
       <c r="CT178" s="1">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="CU178" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CV178" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CW178" s="1">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="179" spans="1:101">
@@ -59779,7 +59779,7 @@
         <v>5</v>
       </c>
       <c r="AB192" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AC192" s="2">
         <v>9</v>
@@ -59821,16 +59821,16 @@
         <v>2</v>
       </c>
       <c r="AP192" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AQ192" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR192" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS192" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT192" s="1">
         <v>2</v>
@@ -59893,7 +59893,7 @@
         <v>0</v>
       </c>
       <c r="BQ192" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BR192" s="1">
         <v>14</v>
@@ -59944,16 +59944,16 @@
         <v>1</v>
       </c>
       <c r="CH192" s="1">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="CI192" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="CJ192" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="CK192" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="CL192" s="1">
         <v>25</v>
@@ -59980,16 +59980,16 @@
         <v>0</v>
       </c>
       <c r="CT192" s="1">
-        <v>28818</v>
+        <v>28824</v>
       </c>
       <c r="CU192" s="1">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="CV192" s="1">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="CW192" s="1">
-        <v>1499</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="193" spans="1:101">
@@ -61866,7 +61866,7 @@
         <v>2952</v>
       </c>
       <c r="AG199" s="2">
-        <v>6503</v>
+        <v>6390</v>
       </c>
       <c r="AH199" s="1">
         <v>0</v>
@@ -62061,7 +62061,7 @@
         <v>3780</v>
       </c>
       <c r="CW199" s="1">
-        <v>7949</v>
+        <v>7836</v>
       </c>
     </row>
     <row r="200" spans="1:101">
@@ -63558,7 +63558,7 @@
         <v>17</v>
       </c>
       <c r="E205" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F205" s="1">
         <v>1</v>
@@ -63582,7 +63582,7 @@
         <v>31</v>
       </c>
       <c r="M205" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="N205" s="1">
         <v>4799</v>
@@ -63837,7 +63837,7 @@
         <v>191</v>
       </c>
       <c r="CW205" s="1">
-        <v>416</v>
+        <v>390</v>
       </c>
     </row>
     <row r="206" spans="1:101">
@@ -67108,7 +67108,7 @@
         <v>576</v>
       </c>
       <c r="D59">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E59" t="s">
         <v>709</v>
@@ -67368,7 +67368,7 @@
         <v>589</v>
       </c>
       <c r="D72">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="E72" t="s">
         <v>709</v>
@@ -69826,7 +69826,7 @@
         <v>693</v>
       </c>
       <c r="D194">
-        <v>9673</v>
+        <v>9676</v>
       </c>
       <c r="E194" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3467,7 +3467,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="2">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2">
         <v>70</v>
@@ -3503,7 +3503,7 @@
         <v>446</v>
       </c>
       <c r="P2" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q2" s="2">
         <v>783</v>
@@ -3578,7 +3578,7 @@
         <v>1</v>
       </c>
       <c r="AO2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP2" s="1">
         <v>59</v>
@@ -3713,7 +3713,7 @@
         <v>63</v>
       </c>
       <c r="CK2" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="CL2" s="1">
         <v>3</v>
@@ -3746,10 +3746,10 @@
         <v>1075</v>
       </c>
       <c r="CV2" s="1">
-        <v>1332</v>
+        <v>1321</v>
       </c>
       <c r="CW2" s="1">
-        <v>2782</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="3" spans="1:101">
@@ -7605,16 +7605,16 @@
         <v>115</v>
       </c>
       <c r="B16" s="1">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>-169</v>
       </c>
       <c r="D16" s="2">
-        <v>1</v>
+        <v>-169</v>
       </c>
       <c r="E16" s="2">
-        <v>2</v>
+        <v>-168</v>
       </c>
       <c r="F16" s="1">
         <v>35</v>
@@ -7884,16 +7884,16 @@
         <v>0</v>
       </c>
       <c r="CT16" s="1">
-        <v>1870</v>
+        <v>1700</v>
       </c>
       <c r="CU16" s="1">
-        <v>6</v>
+        <v>-164</v>
       </c>
       <c r="CV16" s="1">
-        <v>43</v>
+        <v>-127</v>
       </c>
       <c r="CW16" s="1">
-        <v>54</v>
+        <v>-116</v>
       </c>
     </row>
     <row r="17" spans="1:101">
@@ -9543,7 +9543,7 @@
         <v>0</v>
       </c>
       <c r="BD22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE22" s="2">
         <v>6</v>
@@ -9666,7 +9666,7 @@
         <v>7</v>
       </c>
       <c r="CV22" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="CW22" s="1">
         <v>42</v>
@@ -10682,19 +10682,19 @@
         <v>5</v>
       </c>
       <c r="AO26" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AP26" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS26" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT26" s="1">
         <v>0</v>
@@ -10808,28 +10808,28 @@
         <v>1</v>
       </c>
       <c r="CH26" s="1">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="CI26" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="CJ26" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="CK26" s="2">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="CL26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP26" s="1">
         <v>0</v>
@@ -10844,16 +10844,16 @@
         <v>0</v>
       </c>
       <c r="CT26" s="1">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="CU26" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="CV26" s="1">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="CW26" s="1">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:101">
@@ -11776,7 +11776,7 @@
         <v>1169</v>
       </c>
       <c r="K30" s="2">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="L30" s="2">
         <v>43</v>
@@ -12031,7 +12031,7 @@
         <v>4902</v>
       </c>
       <c r="CU30" s="1">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="CV30" s="1">
         <v>208</v>
@@ -12087,7 +12087,7 @@
         <v>239</v>
       </c>
       <c r="P31" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q31" s="2">
         <v>363</v>
@@ -12330,7 +12330,7 @@
         <v>265</v>
       </c>
       <c r="CV31" s="1">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="CW31" s="1">
         <v>555</v>
@@ -14413,16 +14413,16 @@
         <v>138</v>
       </c>
       <c r="B39" s="1">
-        <v>12157</v>
+        <v>12156</v>
       </c>
       <c r="C39" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D39" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E39" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -14692,16 +14692,16 @@
         <v>1</v>
       </c>
       <c r="CT39" s="1">
-        <v>51915</v>
+        <v>51914</v>
       </c>
       <c r="CU39" s="1">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="CV39" s="1">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="CW39" s="1">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="40" spans="1:101">
@@ -14715,7 +14715,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40" s="2">
         <v>5</v>
@@ -14823,7 +14823,7 @@
         <v>2</v>
       </c>
       <c r="AN40" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AO40" s="2">
         <v>15</v>
@@ -14958,7 +14958,7 @@
         <v>37</v>
       </c>
       <c r="CJ40" s="2">
-        <v>-138</v>
+        <v>-275</v>
       </c>
       <c r="CK40" s="2">
         <v>-46</v>
@@ -14994,7 +14994,7 @@
         <v>43</v>
       </c>
       <c r="CV40" s="1">
-        <v>-120</v>
+        <v>-269</v>
       </c>
       <c r="CW40" s="1">
         <v>-23</v>
@@ -15421,16 +15421,16 @@
         <v>2</v>
       </c>
       <c r="AP42" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ42" s="2">
         <v>1</v>
       </c>
       <c r="AR42" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS42" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT42" s="1">
         <v>0</v>
@@ -15556,16 +15556,16 @@
         <v>2</v>
       </c>
       <c r="CL42" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CM42" s="2">
         <v>1</v>
       </c>
       <c r="CN42" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CO42" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CP42" s="1">
         <v>0</v>
@@ -15580,16 +15580,16 @@
         <v>0</v>
       </c>
       <c r="CT42" s="1">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="CU42" s="1">
         <v>10</v>
       </c>
       <c r="CV42" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CW42" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:101">
@@ -15714,7 +15714,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP43" s="1">
         <v>50</v>
@@ -15885,7 +15885,7 @@
         <v>2122</v>
       </c>
       <c r="CW43" s="1">
-        <v>3113</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="44" spans="1:101">
@@ -17980,7 +17980,7 @@
         <v>57</v>
       </c>
       <c r="G51" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H51" s="2">
         <v>4</v>
@@ -18247,7 +18247,7 @@
         <v>176</v>
       </c>
       <c r="CU51" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CV51" s="1">
         <v>46</v>
@@ -19864,7 +19864,7 @@
         <v>56</v>
       </c>
       <c r="AQ57" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR57" s="2">
         <v>2</v>
@@ -19939,7 +19939,7 @@
         <v>23</v>
       </c>
       <c r="BS57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT57" s="2">
         <v>1</v>
@@ -19999,7 +19999,7 @@
         <v>52</v>
       </c>
       <c r="CM57" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CN57" s="2">
         <v>3</v>
@@ -20023,7 +20023,7 @@
         <v>705</v>
       </c>
       <c r="CU57" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="CV57" s="1">
         <v>23</v>
@@ -21168,16 +21168,16 @@
         <v>1</v>
       </c>
       <c r="CH61" s="1">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="CI61" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="CJ61" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="CK61" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="CL61" s="1">
         <v>22</v>
@@ -21204,16 +21204,16 @@
         <v>0</v>
       </c>
       <c r="CT61" s="1">
-        <v>2231</v>
+        <v>2234</v>
       </c>
       <c r="CU61" s="1">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="CV61" s="1">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="CW61" s="1">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:101">
@@ -21308,7 +21308,7 @@
         <v>1535</v>
       </c>
       <c r="AE62" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF62" s="2">
         <v>22</v>
@@ -21503,7 +21503,7 @@
         <v>6617</v>
       </c>
       <c r="CU62" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="CV62" s="1">
         <v>76</v>
@@ -21550,7 +21550,7 @@
         <v>61</v>
       </c>
       <c r="M63" s="2">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="N63" s="1">
         <v>50397</v>
@@ -21637,16 +21637,16 @@
         <v>6</v>
       </c>
       <c r="AP63" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AQ63" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR63" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS63" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT63" s="1">
         <v>0</v>
@@ -21760,28 +21760,28 @@
         <v>1</v>
       </c>
       <c r="CH63" s="1">
-        <v>1673</v>
+        <v>1683</v>
       </c>
       <c r="CI63" s="2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="CJ63" s="2">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="CK63" s="2">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="CL63" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CM63" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CN63" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CO63" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CP63" s="1">
         <v>0</v>
@@ -21796,16 +21796,16 @@
         <v>0</v>
       </c>
       <c r="CT63" s="1">
-        <v>57540</v>
+        <v>57552</v>
       </c>
       <c r="CU63" s="1">
-        <v>1190</v>
+        <v>1202</v>
       </c>
       <c r="CV63" s="1">
-        <v>1283</v>
+        <v>1295</v>
       </c>
       <c r="CW63" s="1">
-        <v>2533</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="64" spans="1:101">
@@ -21837,16 +21837,16 @@
         <v>0</v>
       </c>
       <c r="J64" s="1">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="K64" s="2">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L64" s="2">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="M64" s="2">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="N64" s="1">
         <v>0</v>
@@ -22092,16 +22092,16 @@
         <v>0</v>
       </c>
       <c r="CT64" s="1">
-        <v>1260</v>
+        <v>1277</v>
       </c>
       <c r="CU64" s="1">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="CV64" s="1">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="CW64" s="1">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:101">
@@ -22603,7 +22603,7 @@
         <v>18</v>
       </c>
       <c r="BS66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT66" s="2">
         <v>1</v>
@@ -22687,7 +22687,7 @@
         <v>1878</v>
       </c>
       <c r="CU66" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="CV66" s="1">
         <v>56</v>
@@ -24214,7 +24214,7 @@
         <v>217</v>
       </c>
       <c r="M72" s="2">
-        <v>405</v>
+        <v>351</v>
       </c>
       <c r="N72" s="1">
         <v>71851</v>
@@ -24295,7 +24295,7 @@
         <v>28</v>
       </c>
       <c r="AN72" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO72" s="2">
         <v>285</v>
@@ -24433,7 +24433,7 @@
         <v>252</v>
       </c>
       <c r="CK72" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="CL72" s="1">
         <v>0</v>
@@ -24466,10 +24466,10 @@
         <v>1715</v>
       </c>
       <c r="CV72" s="1">
-        <v>2826</v>
+        <v>2827</v>
       </c>
       <c r="CW72" s="1">
-        <v>5950</v>
+        <v>5895</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -24773,16 +24773,16 @@
         <v>173</v>
       </c>
       <c r="B74" s="1">
-        <v>4425</v>
+        <v>4462</v>
       </c>
       <c r="C74" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="D74" s="2">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="E74" s="2">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -24812,7 +24812,7 @@
         <v>107722</v>
       </c>
       <c r="O74" s="2">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="P74" s="2">
         <v>2553</v>
@@ -24902,7 +24902,7 @@
         <v>1</v>
       </c>
       <c r="AS74" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT74" s="1">
         <v>20</v>
@@ -25052,16 +25052,16 @@
         <v>0</v>
       </c>
       <c r="CT74" s="1">
-        <v>136849</v>
+        <v>136886</v>
       </c>
       <c r="CU74" s="1">
-        <v>3042</v>
+        <v>3080</v>
       </c>
       <c r="CV74" s="1">
-        <v>3367</v>
+        <v>3404</v>
       </c>
       <c r="CW74" s="1">
-        <v>7747</v>
+        <v>7783</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25186,7 +25186,7 @@
         <v>54</v>
       </c>
       <c r="AO75" s="2">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AP75" s="1">
         <v>71</v>
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="CH75" s="1">
-        <v>5632</v>
+        <v>5636</v>
       </c>
       <c r="CI75" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="CJ75" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="CK75" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="CL75" s="1">
         <v>97</v>
@@ -25348,16 +25348,16 @@
         <v>6</v>
       </c>
       <c r="CT75" s="1">
-        <v>345739</v>
+        <v>345743</v>
       </c>
       <c r="CU75" s="1">
-        <v>4523</v>
+        <v>4527</v>
       </c>
       <c r="CV75" s="1">
-        <v>5077</v>
+        <v>5073</v>
       </c>
       <c r="CW75" s="1">
-        <v>11163</v>
+        <v>11156</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -26555,7 +26555,7 @@
         <v>25</v>
       </c>
       <c r="D80" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2">
         <v>247</v>
@@ -26588,7 +26588,7 @@
         <v>37304</v>
       </c>
       <c r="O80" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="P80" s="2">
         <v>440</v>
@@ -26831,10 +26831,10 @@
         <v>378759</v>
       </c>
       <c r="CU80" s="1">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="CV80" s="1">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="CW80" s="1">
         <v>33073</v>
@@ -27476,7 +27476,7 @@
         <v>1454</v>
       </c>
       <c r="O83" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P83" s="2">
         <v>34</v>
@@ -27683,7 +27683,7 @@
         <v>569</v>
       </c>
       <c r="CI83" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CJ83" s="2">
         <v>7</v>
@@ -27719,7 +27719,7 @@
         <v>2561</v>
       </c>
       <c r="CU83" s="1">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="CV83" s="1">
         <v>56</v>
@@ -28155,7 +28155,7 @@
         <v>1</v>
       </c>
       <c r="AR85" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS85" s="2">
         <v>5</v>
@@ -28278,7 +28278,7 @@
         <v>16</v>
       </c>
       <c r="CJ85" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="CK85" s="2">
         <v>67</v>
@@ -28314,7 +28314,7 @@
         <v>89</v>
       </c>
       <c r="CV85" s="1">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="CW85" s="1">
         <v>351</v>
@@ -28328,7 +28328,7 @@
         <v>3</v>
       </c>
       <c r="C86" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" s="2">
         <v>1</v>
@@ -28346,13 +28346,13 @@
         <v>2</v>
       </c>
       <c r="I86" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J86" s="1">
         <v>251</v>
       </c>
       <c r="K86" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L86" s="2">
         <v>20</v>
@@ -28607,13 +28607,13 @@
         <v>1443</v>
       </c>
       <c r="CU86" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="CV86" s="1">
         <v>48</v>
       </c>
       <c r="CW86" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:101">
@@ -29548,7 +29548,7 @@
         <v>741</v>
       </c>
       <c r="O90" s="2">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="P90" s="2">
         <v>26</v>
@@ -29632,7 +29632,7 @@
         <v>28</v>
       </c>
       <c r="AQ90" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR90" s="2">
         <v>4</v>
@@ -29767,7 +29767,7 @@
         <v>30</v>
       </c>
       <c r="CM90" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN90" s="2">
         <v>1</v>
@@ -29791,7 +29791,7 @@
         <v>983</v>
       </c>
       <c r="CU90" s="1">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="CV90" s="1">
         <v>40</v>
@@ -30822,7 +30822,7 @@
         <v>2</v>
       </c>
       <c r="AS94" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AT94" s="1">
         <v>0</v>
@@ -30981,7 +30981,7 @@
         <v>11</v>
       </c>
       <c r="CW94" s="1">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:101">
@@ -31297,16 +31297,16 @@
         <v>0</v>
       </c>
       <c r="F96" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G96" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I96" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J96" s="1">
         <v>0</v>
@@ -31564,16 +31564,16 @@
         <v>0</v>
       </c>
       <c r="CT96" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CU96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV96" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CW96" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:101">
@@ -32206,7 +32206,7 @@
         <v>224</v>
       </c>
       <c r="M99" s="2">
-        <v>416</v>
+        <v>352</v>
       </c>
       <c r="N99" s="1">
         <v>13077</v>
@@ -32290,7 +32290,7 @@
         <v>8</v>
       </c>
       <c r="AO99" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP99" s="1">
         <v>29</v>
@@ -32425,7 +32425,7 @@
         <v>76</v>
       </c>
       <c r="CK99" s="2">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="CL99" s="1">
         <v>9</v>
@@ -32461,7 +32461,7 @@
         <v>1061</v>
       </c>
       <c r="CW99" s="1">
-        <v>1922</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="100" spans="1:101">
@@ -33151,7 +33151,7 @@
         <v>96</v>
       </c>
       <c r="AF102" s="2">
-        <v>228</v>
+        <v>96</v>
       </c>
       <c r="AG102" s="2">
         <v>338</v>
@@ -33223,7 +33223,7 @@
         <v>0</v>
       </c>
       <c r="BD102" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE102" s="2">
         <v>2</v>
@@ -33346,7 +33346,7 @@
         <v>104</v>
       </c>
       <c r="CV102" s="1">
-        <v>278</v>
+        <v>144</v>
       </c>
       <c r="CW102" s="1">
         <v>510</v>
@@ -33390,7 +33390,7 @@
         <v>534</v>
       </c>
       <c r="M103" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="N103" s="1">
         <v>19756</v>
@@ -33645,7 +33645,7 @@
         <v>11558</v>
       </c>
       <c r="CW103" s="1">
-        <v>13568</v>
+        <v>13567</v>
       </c>
     </row>
     <row r="104" spans="1:101">
@@ -36658,7 +36658,7 @@
         <v>67</v>
       </c>
       <c r="Q114" s="2">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="R114" s="1">
         <v>0</v>
@@ -36901,7 +36901,7 @@
         <v>480</v>
       </c>
       <c r="CW114" s="1">
-        <v>801</v>
+        <v>821</v>
       </c>
     </row>
     <row r="115" spans="1:101">
@@ -37522,7 +37522,7 @@
         <v>1</v>
       </c>
       <c r="I117" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J117" s="1">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>263</v>
       </c>
       <c r="O117" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P117" s="2">
         <v>5</v>
@@ -37783,13 +37783,13 @@
         <v>756</v>
       </c>
       <c r="CU117" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="CV117" s="1">
         <v>15</v>
       </c>
       <c r="CW117" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:101">
@@ -38105,16 +38105,16 @@
         <v>1</v>
       </c>
       <c r="F119" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G119" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J119" s="1">
         <v>0</v>
@@ -38372,16 +38372,16 @@
         <v>0</v>
       </c>
       <c r="CT119" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CU119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV119" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CW119" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:101">
@@ -42324,7 +42324,7 @@
         <v>9248</v>
       </c>
       <c r="AE133" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF133" s="2">
         <v>369</v>
@@ -42519,7 +42519,7 @@
         <v>54314</v>
       </c>
       <c r="CU133" s="1">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="CV133" s="1">
         <v>1433</v>
@@ -43275,7 +43275,7 @@
         <v>8</v>
       </c>
       <c r="AZ136" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA136" s="2">
         <v>11</v>
@@ -43410,7 +43410,7 @@
         <v>69</v>
       </c>
       <c r="CV136" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CW136" s="1">
         <v>230</v>
@@ -45024,7 +45024,7 @@
         <v>48</v>
       </c>
       <c r="AQ142" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR142" s="2">
         <v>3</v>
@@ -45159,7 +45159,7 @@
         <v>54</v>
       </c>
       <c r="CM142" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN142" s="2">
         <v>2</v>
@@ -45183,7 +45183,7 @@
         <v>997</v>
       </c>
       <c r="CU142" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="CV142" s="1">
         <v>25</v>
@@ -45197,40 +45197,40 @@
         <v>242</v>
       </c>
       <c r="B143" s="1">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C143" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D143" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E143" s="2">
+        <v>29</v>
+      </c>
+      <c r="F143" s="1">
+        <v>1</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0</v>
+      </c>
+      <c r="H143" s="2">
+        <v>0</v>
+      </c>
+      <c r="I143" s="2">
+        <v>0</v>
+      </c>
+      <c r="J143" s="1">
+        <v>416</v>
+      </c>
+      <c r="K143" s="2">
+        <v>8</v>
+      </c>
+      <c r="L143" s="2">
         <v>26</v>
       </c>
-      <c r="F143" s="1">
-        <v>1</v>
-      </c>
-      <c r="G143" s="2">
-        <v>0</v>
-      </c>
-      <c r="H143" s="2">
-        <v>0</v>
-      </c>
-      <c r="I143" s="2">
-        <v>0</v>
-      </c>
-      <c r="J143" s="1">
-        <v>413</v>
-      </c>
-      <c r="K143" s="2">
-        <v>5</v>
-      </c>
-      <c r="L143" s="2">
-        <v>23</v>
-      </c>
       <c r="M143" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N143" s="1">
         <v>719</v>
@@ -45317,16 +45317,16 @@
         <v>3</v>
       </c>
       <c r="AP143" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AQ143" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR143" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS143" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT143" s="1">
         <v>0</v>
@@ -45440,16 +45440,16 @@
         <v>1</v>
       </c>
       <c r="CH143" s="1">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="CI143" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CJ143" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CK143" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CL143" s="1">
         <v>32</v>
@@ -45476,16 +45476,16 @@
         <v>0</v>
       </c>
       <c r="CT143" s="1">
-        <v>2109</v>
+        <v>2118</v>
       </c>
       <c r="CU143" s="1">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="CV143" s="1">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="CW143" s="1">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="1:101">
@@ -45828,7 +45828,7 @@
         <v>8</v>
       </c>
       <c r="O145" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P145" s="2">
         <v>1</v>
@@ -46071,7 +46071,7 @@
         <v>120</v>
       </c>
       <c r="CU145" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CV145" s="1">
         <v>12</v>
@@ -49282,22 +49282,22 @@
         <v>0</v>
       </c>
       <c r="CF156" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG156" s="2">
         <v>1</v>
       </c>
       <c r="CH156" s="1">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="CI156" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="CJ156" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="CK156" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="CL156" s="1">
         <v>15</v>
@@ -49324,16 +49324,16 @@
         <v>0</v>
       </c>
       <c r="CT156" s="1">
-        <v>17754</v>
+        <v>17755</v>
       </c>
       <c r="CU156" s="1">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CV156" s="1">
         <v>1190</v>
       </c>
       <c r="CW156" s="1">
-        <v>1869</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="157" spans="1:101">
@@ -50050,7 +50050,7 @@
         <v>3</v>
       </c>
       <c r="AO159" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AP159" s="1">
         <v>30</v>
@@ -50185,7 +50185,7 @@
         <v>40</v>
       </c>
       <c r="CK159" s="2">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="CL159" s="1">
         <v>14</v>
@@ -50221,7 +50221,7 @@
         <v>668</v>
       </c>
       <c r="CW159" s="1">
-        <v>1156</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="160" spans="1:101">
@@ -51413,16 +51413,16 @@
         <v>263</v>
       </c>
       <c r="B164" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C164" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D164" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E164" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F164" s="1">
         <v>42</v>
@@ -51692,16 +51692,16 @@
         <v>0</v>
       </c>
       <c r="CT164" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="CU164" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CV164" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CW164" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:101">
@@ -51739,7 +51739,7 @@
         <v>23</v>
       </c>
       <c r="L165" s="2">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="M165" s="2">
         <v>118</v>
@@ -51994,7 +51994,7 @@
         <v>62</v>
       </c>
       <c r="CV165" s="1">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="CW165" s="1">
         <v>212</v>
@@ -52899,7 +52899,7 @@
         <v>51</v>
       </c>
       <c r="D169" s="2">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="E169" s="2">
         <v>212</v>
@@ -52923,7 +52923,7 @@
         <v>60</v>
       </c>
       <c r="L169" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M169" s="2">
         <v>447</v>
@@ -52938,7 +52938,7 @@
         <v>62</v>
       </c>
       <c r="Q169" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R169" s="1">
         <v>0</v>
@@ -53178,10 +53178,10 @@
         <v>286</v>
       </c>
       <c r="CV169" s="1">
-        <v>651</v>
+        <v>616</v>
       </c>
       <c r="CW169" s="1">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="170" spans="1:101">
@@ -55267,7 +55267,7 @@
         <v>38</v>
       </c>
       <c r="D177" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="E177" s="2">
         <v>154</v>
@@ -55546,7 +55546,7 @@
         <v>1916</v>
       </c>
       <c r="CV177" s="1">
-        <v>2793</v>
+        <v>2773</v>
       </c>
       <c r="CW177" s="1">
         <v>4630</v>
@@ -58529,16 +58529,16 @@
         <v>0</v>
       </c>
       <c r="F188" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G188" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I188" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J188" s="1">
         <v>0</v>
@@ -58796,16 +58796,16 @@
         <v>0</v>
       </c>
       <c r="CT188" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CU188" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV188" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CW188" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:101">
@@ -59238,7 +59238,7 @@
         <v>2</v>
       </c>
       <c r="AS190" s="2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AT190" s="1">
         <v>0</v>
@@ -59397,7 +59397,7 @@
         <v>10</v>
       </c>
       <c r="CW190" s="1">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191" spans="1:101">
@@ -61663,7 +61663,7 @@
         <v>63</v>
       </c>
       <c r="BO198" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BP198" s="2">
         <v>2</v>
@@ -61759,7 +61759,7 @@
         <v>14665</v>
       </c>
       <c r="CU198" s="1">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CV198" s="1">
         <v>324</v>
@@ -61866,7 +61866,7 @@
         <v>2952</v>
       </c>
       <c r="AG199" s="2">
-        <v>6390</v>
+        <v>5819</v>
       </c>
       <c r="AH199" s="1">
         <v>0</v>
@@ -62061,7 +62061,7 @@
         <v>3780</v>
       </c>
       <c r="CW199" s="1">
-        <v>7836</v>
+        <v>7265</v>
       </c>
     </row>
     <row r="200" spans="1:101">
@@ -63382,7 +63382,7 @@
         <v>2</v>
       </c>
       <c r="AS204" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT204" s="1">
         <v>0</v>
@@ -63505,7 +63505,7 @@
         <v>14</v>
       </c>
       <c r="CK204" s="2">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="CL204" s="1">
         <v>28</v>
@@ -63541,7 +63541,7 @@
         <v>31</v>
       </c>
       <c r="CW204" s="1">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="205" spans="1:101">
@@ -63630,7 +63630,7 @@
         <v>3</v>
       </c>
       <c r="AC205" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AD205" s="1">
         <v>1675</v>
@@ -63837,7 +63837,7 @@
         <v>191</v>
       </c>
       <c r="CW205" s="1">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="206" spans="1:101">
@@ -63851,7 +63851,7 @@
         <v>3</v>
       </c>
       <c r="D206" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E206" s="2">
         <v>9</v>
@@ -64130,7 +64130,7 @@
         <v>3</v>
       </c>
       <c r="CV206" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CW206" s="1">
         <v>10</v>
@@ -65445,16 +65445,16 @@
         <v>37</v>
       </c>
       <c r="AP211" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ211" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR211" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS211" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT211" s="1">
         <v>0</v>
@@ -65568,16 +65568,16 @@
         <v>0</v>
       </c>
       <c r="CH211" s="1">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="CI211" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="CJ211" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="CK211" s="2">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="CL211" s="1">
         <v>0</v>
@@ -65604,16 +65604,16 @@
         <v>0</v>
       </c>
       <c r="CT211" s="1">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="CU211" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="CV211" s="1">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="CW211" s="1">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="212" spans="1:101">
@@ -66585,7 +66585,7 @@
         <v>557</v>
       </c>
       <c r="D33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
         <v>709</v>
@@ -66785,7 +66785,7 @@
         <v>563</v>
       </c>
       <c r="D43">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
         <v>709</v>
@@ -66885,7 +66885,7 @@
         <v>565</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E48" t="s">
         <v>709</v>
@@ -67005,7 +67005,7 @@
         <v>571</v>
       </c>
       <c r="D54">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E54" t="s">
         <v>709</v>
@@ -67368,7 +67368,7 @@
         <v>589</v>
       </c>
       <c r="D72">
-        <v>883</v>
+        <v>903</v>
       </c>
       <c r="E72" t="s">
         <v>709</v>
@@ -67714,7 +67714,7 @@
         <v>604</v>
       </c>
       <c r="D89">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E89" t="s">
         <v>709</v>
@@ -68194,7 +68194,7 @@
         <v>623</v>
       </c>
       <c r="D113">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E113" t="s">
         <v>709</v>
@@ -69346,7 +69346,7 @@
         <v>672</v>
       </c>
       <c r="D170">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E170" t="s">
         <v>709</v>
@@ -69826,7 +69826,7 @@
         <v>693</v>
       </c>
       <c r="D194">
-        <v>9676</v>
+        <v>9681</v>
       </c>
       <c r="E194" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -5483,7 +5483,7 @@
         <v>468</v>
       </c>
       <c r="CI8" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CJ8" s="2">
         <v>7</v>
@@ -5519,7 +5519,7 @@
         <v>2554</v>
       </c>
       <c r="CU8" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="CV8" s="1">
         <v>48</v>
@@ -6436,7 +6436,7 @@
         <v>23</v>
       </c>
       <c r="G12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="2">
         <v>3</v>
@@ -6703,7 +6703,7 @@
         <v>25</v>
       </c>
       <c r="CU12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CV12" s="1">
         <v>4</v>
@@ -7259,7 +7259,7 @@
         <v>327</v>
       </c>
       <c r="CI14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ14" s="2">
         <v>7</v>
@@ -7295,7 +7295,7 @@
         <v>2991</v>
       </c>
       <c r="CU14" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CV14" s="1">
         <v>148</v>
@@ -10676,7 +10676,7 @@
         <v>42</v>
       </c>
       <c r="AM26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN26" s="2">
         <v>5</v>
@@ -10688,7 +10688,7 @@
         <v>9</v>
       </c>
       <c r="AQ26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR26" s="2">
         <v>3</v>
@@ -10811,7 +10811,7 @@
         <v>222</v>
       </c>
       <c r="CI26" s="2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="CJ26" s="2">
         <v>37</v>
@@ -10847,7 +10847,7 @@
         <v>361</v>
       </c>
       <c r="CU26" s="1">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="CV26" s="1">
         <v>49</v>
@@ -10873,16 +10873,16 @@
         <v>3</v>
       </c>
       <c r="F27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J27" s="1">
         <v>726</v>
@@ -11140,16 +11140,16 @@
         <v>0</v>
       </c>
       <c r="CT27" s="1">
-        <v>22369</v>
+        <v>22370</v>
       </c>
       <c r="CU27" s="1">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="CV27" s="1">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="CW27" s="1">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28" spans="1:101">
@@ -11788,7 +11788,7 @@
         <v>1711</v>
       </c>
       <c r="O30" s="2">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="P30" s="2">
         <v>28</v>
@@ -12031,7 +12031,7 @@
         <v>4902</v>
       </c>
       <c r="CU30" s="1">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="CV30" s="1">
         <v>208</v>
@@ -13848,7 +13848,7 @@
         <v>298</v>
       </c>
       <c r="K37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="2">
         <v>12</v>
@@ -14103,7 +14103,7 @@
         <v>1648</v>
       </c>
       <c r="CU37" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="CV37" s="1">
         <v>40</v>
@@ -14416,7 +14416,7 @@
         <v>12156</v>
       </c>
       <c r="C39" s="2">
-        <v>241</v>
+        <v>117</v>
       </c>
       <c r="D39" s="2">
         <v>460</v>
@@ -14695,7 +14695,7 @@
         <v>51914</v>
       </c>
       <c r="CU39" s="1">
-        <v>717</v>
+        <v>593</v>
       </c>
       <c r="CV39" s="1">
         <v>1090</v>
@@ -15729,16 +15729,16 @@
         <v>5</v>
       </c>
       <c r="AT43" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU43" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV43" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW43" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX43" s="1">
         <v>1</v>
@@ -15876,16 +15876,16 @@
         <v>0</v>
       </c>
       <c r="CT43" s="1">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="CU43" s="1">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="CV43" s="1">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="CW43" s="1">
-        <v>3112</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="44" spans="1:101">
@@ -17233,16 +17233,16 @@
         <v>0</v>
       </c>
       <c r="BB48" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC48" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD48" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BE48" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF48" s="1">
         <v>0</v>
@@ -17356,16 +17356,16 @@
         <v>0</v>
       </c>
       <c r="CT48" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="CU48" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CV48" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CW48" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:101">
@@ -18853,16 +18853,16 @@
         <v>153</v>
       </c>
       <c r="B54" s="1">
-        <v>1864</v>
+        <v>1871</v>
       </c>
       <c r="C54" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E54" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -18925,16 +18925,16 @@
         <v>0</v>
       </c>
       <c r="Z54" s="1">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="AA54" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AB54" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC54" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AD54" s="1">
         <v>889</v>
@@ -19132,16 +19132,16 @@
         <v>0</v>
       </c>
       <c r="CT54" s="1">
-        <v>6575</v>
+        <v>6601</v>
       </c>
       <c r="CU54" s="1">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="CV54" s="1">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="CW54" s="1">
-        <v>437</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55" spans="1:101">
@@ -19460,7 +19460,7 @@
         <v>20</v>
       </c>
       <c r="G56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="2">
         <v>4</v>
@@ -19556,7 +19556,7 @@
         <v>13</v>
       </c>
       <c r="AM56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN56" s="2">
         <v>3</v>
@@ -19691,7 +19691,7 @@
         <v>28</v>
       </c>
       <c r="CI56" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CJ56" s="2">
         <v>13</v>
@@ -19727,7 +19727,7 @@
         <v>75</v>
       </c>
       <c r="CU56" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CV56" s="1">
         <v>20</v>
@@ -20955,7 +20955,7 @@
         <v>2</v>
       </c>
       <c r="L61" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M61" s="2">
         <v>18</v>
@@ -21210,7 +21210,7 @@
         <v>62</v>
       </c>
       <c r="CV61" s="1">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="CW61" s="1">
         <v>193</v>
@@ -21520,7 +21520,7 @@
         <v>3353</v>
       </c>
       <c r="C63" s="2">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2">
         <v>72</v>
@@ -21799,7 +21799,7 @@
         <v>57552</v>
       </c>
       <c r="CU63" s="1">
-        <v>1202</v>
+        <v>1176</v>
       </c>
       <c r="CV63" s="1">
         <v>1295</v>
@@ -22713,283 +22713,283 @@
         <v>0</v>
       </c>
       <c r="F67" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G67" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" s="2">
+        <v>3</v>
+      </c>
+      <c r="I67" s="2">
+        <v>6</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2">
+        <v>0</v>
+      </c>
+      <c r="M67" s="2">
+        <v>0</v>
+      </c>
+      <c r="N67" s="1">
+        <v>0</v>
+      </c>
+      <c r="O67" s="2">
+        <v>0</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>0</v>
+      </c>
+      <c r="R67" s="1">
+        <v>0</v>
+      </c>
+      <c r="S67" s="2">
+        <v>0</v>
+      </c>
+      <c r="T67" s="2">
+        <v>0</v>
+      </c>
+      <c r="U67" s="2">
+        <v>0</v>
+      </c>
+      <c r="V67" s="1">
+        <v>0</v>
+      </c>
+      <c r="W67" s="2">
+        <v>0</v>
+      </c>
+      <c r="X67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB67" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF67" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ67" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN67" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR67" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV67" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ67" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD67" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH67" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL67" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP67" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT67" s="1">
+        <v>87</v>
+      </c>
+      <c r="CU67" s="1">
         <v>2</v>
       </c>
-      <c r="I67" s="2">
-        <v>5</v>
-      </c>
-      <c r="J67" s="1">
-        <v>0</v>
-      </c>
-      <c r="K67" s="2">
-        <v>0</v>
-      </c>
-      <c r="L67" s="2">
-        <v>0</v>
-      </c>
-      <c r="M67" s="2">
-        <v>0</v>
-      </c>
-      <c r="N67" s="1">
-        <v>0</v>
-      </c>
-      <c r="O67" s="2">
-        <v>0</v>
-      </c>
-      <c r="P67" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="2">
-        <v>0</v>
-      </c>
-      <c r="R67" s="1">
-        <v>0</v>
-      </c>
-      <c r="S67" s="2">
-        <v>0</v>
-      </c>
-      <c r="T67" s="2">
-        <v>0</v>
-      </c>
-      <c r="U67" s="2">
-        <v>0</v>
-      </c>
-      <c r="V67" s="1">
-        <v>0</v>
-      </c>
-      <c r="W67" s="2">
-        <v>0</v>
-      </c>
-      <c r="X67" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB67" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF67" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ67" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN67" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR67" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV67" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ67" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD67" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH67" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CL67" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CN67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CO67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP67" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CS67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CT67" s="1">
-        <v>86</v>
-      </c>
-      <c r="CU67" s="1">
-        <v>1</v>
-      </c>
       <c r="CV67" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CW67" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:101">
@@ -23787,7 +23787,7 @@
         <v>1</v>
       </c>
       <c r="BS70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT70" s="2">
         <v>1</v>
@@ -23871,7 +23871,7 @@
         <v>111</v>
       </c>
       <c r="CU70" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="CV70" s="1">
         <v>110</v>
@@ -24211,7 +24211,7 @@
         <v>83</v>
       </c>
       <c r="L72" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M72" s="2">
         <v>351</v>
@@ -24313,16 +24313,16 @@
         <v>0</v>
       </c>
       <c r="AT72" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AU72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW72" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX72" s="1">
         <v>7</v>
@@ -24427,7 +24427,7 @@
         <v>15153</v>
       </c>
       <c r="CI72" s="2">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="CJ72" s="2">
         <v>252</v>
@@ -24460,16 +24460,16 @@
         <v>1</v>
       </c>
       <c r="CT72" s="1">
-        <v>156846</v>
+        <v>156847</v>
       </c>
       <c r="CU72" s="1">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="CV72" s="1">
-        <v>2827</v>
+        <v>2829</v>
       </c>
       <c r="CW72" s="1">
-        <v>5895</v>
+        <v>5896</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -24812,7 +24812,7 @@
         <v>107722</v>
       </c>
       <c r="O74" s="2">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="P74" s="2">
         <v>2553</v>
@@ -24893,16 +24893,16 @@
         <v>10</v>
       </c>
       <c r="AP74" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AQ74" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR74" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS74" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT74" s="1">
         <v>20</v>
@@ -25016,16 +25016,16 @@
         <v>0</v>
       </c>
       <c r="CH74" s="1">
-        <v>1957</v>
+        <v>1969</v>
       </c>
       <c r="CI74" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="CJ74" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="CK74" s="2">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="CL74" s="1">
         <v>7</v>
@@ -25052,16 +25052,16 @@
         <v>0</v>
       </c>
       <c r="CT74" s="1">
-        <v>136886</v>
+        <v>136899</v>
       </c>
       <c r="CU74" s="1">
-        <v>3080</v>
+        <v>3092</v>
       </c>
       <c r="CV74" s="1">
-        <v>3404</v>
+        <v>3417</v>
       </c>
       <c r="CW74" s="1">
-        <v>7783</v>
+        <v>7796</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25093,16 +25093,16 @@
         <v>0</v>
       </c>
       <c r="J75" s="1">
-        <v>4048</v>
+        <v>4046</v>
       </c>
       <c r="K75" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L75" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M75" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N75" s="1">
         <v>318332</v>
@@ -25177,16 +25177,16 @@
         <v>0</v>
       </c>
       <c r="AL75" s="1">
-        <v>1626</v>
+        <v>1633</v>
       </c>
       <c r="AM75" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AN75" s="2">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="AO75" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="AP75" s="1">
         <v>71</v>
@@ -25318,7 +25318,7 @@
         <v>82</v>
       </c>
       <c r="CJ75" s="2">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="CK75" s="2">
         <v>515</v>
@@ -25348,16 +25348,16 @@
         <v>6</v>
       </c>
       <c r="CT75" s="1">
-        <v>345743</v>
+        <v>345748</v>
       </c>
       <c r="CU75" s="1">
-        <v>4527</v>
+        <v>4532</v>
       </c>
       <c r="CV75" s="1">
-        <v>5073</v>
+        <v>5040</v>
       </c>
       <c r="CW75" s="1">
-        <v>11156</v>
+        <v>11161</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -25401,16 +25401,16 @@
         <v>259</v>
       </c>
       <c r="N76" s="1">
-        <v>65769</v>
+        <v>65752</v>
       </c>
       <c r="O76" s="2">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="P76" s="2">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="Q76" s="2">
-        <v>1346</v>
+        <v>1329</v>
       </c>
       <c r="R76" s="1">
         <v>0</v>
@@ -25644,16 +25644,16 @@
         <v>0</v>
       </c>
       <c r="CT76" s="1">
-        <v>84737</v>
+        <v>84720</v>
       </c>
       <c r="CU76" s="1">
-        <v>1022</v>
+        <v>1005</v>
       </c>
       <c r="CV76" s="1">
-        <v>1171</v>
+        <v>1154</v>
       </c>
       <c r="CW76" s="1">
-        <v>2218</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="77" spans="1:101">
@@ -26591,7 +26591,7 @@
         <v>430</v>
       </c>
       <c r="P80" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="Q80" s="2">
         <v>903</v>
@@ -26834,7 +26834,7 @@
         <v>2282</v>
       </c>
       <c r="CV80" s="1">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="CW80" s="1">
         <v>33073</v>
@@ -29225,16 +29225,16 @@
         <v>10</v>
       </c>
       <c r="F89" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G89" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J89" s="1">
         <v>139</v>
@@ -29357,16 +29357,16 @@
         <v>0</v>
       </c>
       <c r="AX89" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY89" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ89" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA89" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB89" s="1">
         <v>7</v>
@@ -29492,16 +29492,16 @@
         <v>0</v>
       </c>
       <c r="CT89" s="1">
-        <v>3463</v>
+        <v>3465</v>
       </c>
       <c r="CU89" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="CV89" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="CW89" s="1">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90" spans="1:101">
@@ -29635,7 +29635,7 @@
         <v>2</v>
       </c>
       <c r="AR90" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS90" s="2">
         <v>4</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="CJ90" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CK90" s="2">
         <v>8</v>
@@ -29794,7 +29794,7 @@
         <v>3</v>
       </c>
       <c r="CV90" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="CW90" s="1">
         <v>64</v>
@@ -31587,7 +31587,7 @@
         <v>0</v>
       </c>
       <c r="D97" s="2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E97" s="2">
         <v>0</v>
@@ -31599,7 +31599,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I97" s="2">
         <v>4</v>
@@ -31866,7 +31866,7 @@
         <v>1</v>
       </c>
       <c r="CV97" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CW97" s="1">
         <v>4</v>
@@ -33085,16 +33085,16 @@
         <v>1</v>
       </c>
       <c r="J102" s="1">
-        <v>797</v>
+        <v>808</v>
       </c>
       <c r="K102" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L102" s="2">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="M102" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="N102" s="1">
         <v>1278</v>
@@ -33340,16 +33340,16 @@
         <v>0</v>
       </c>
       <c r="CT102" s="1">
-        <v>6587</v>
+        <v>6598</v>
       </c>
       <c r="CU102" s="1">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="CV102" s="1">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="CW102" s="1">
-        <v>510</v>
+        <v>521</v>
       </c>
     </row>
     <row r="103" spans="1:101">
@@ -33363,7 +33363,7 @@
         <v>44</v>
       </c>
       <c r="D103" s="2">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2">
         <v>380</v>
@@ -33381,16 +33381,16 @@
         <v>0</v>
       </c>
       <c r="J103" s="1">
-        <v>7740</v>
+        <v>7739</v>
       </c>
       <c r="K103" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L103" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M103" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="N103" s="1">
         <v>19756</v>
@@ -33636,16 +33636,16 @@
         <v>0</v>
       </c>
       <c r="CT103" s="1">
-        <v>83173</v>
+        <v>83172</v>
       </c>
       <c r="CU103" s="1">
-        <v>6833</v>
+        <v>6832</v>
       </c>
       <c r="CV103" s="1">
-        <v>11558</v>
+        <v>11487</v>
       </c>
       <c r="CW103" s="1">
-        <v>13567</v>
+        <v>13566</v>
       </c>
     </row>
     <row r="104" spans="1:101">
@@ -35737,16 +35737,16 @@
         <v>0</v>
       </c>
       <c r="F111" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G111" s="2">
         <v>1</v>
       </c>
       <c r="H111" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I111" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J111" s="1">
         <v>0</v>
@@ -36004,16 +36004,16 @@
         <v>0</v>
       </c>
       <c r="CT111" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="CU111" s="1">
         <v>1</v>
       </c>
       <c r="CV111" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CW111" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:101">
@@ -37501,16 +37501,16 @@
         <v>216</v>
       </c>
       <c r="B117" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C117" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E117" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F117" s="1">
         <v>50</v>
@@ -37780,16 +37780,16 @@
         <v>0</v>
       </c>
       <c r="CT117" s="1">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CU117" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CV117" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CW117" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118" spans="1:101">
@@ -37905,16 +37905,16 @@
         <v>0</v>
       </c>
       <c r="AL118" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM118" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN118" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO118" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP118" s="1">
         <v>0</v>
@@ -38040,16 +38040,16 @@
         <v>0</v>
       </c>
       <c r="CH118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI118" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ118" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK118" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL118" s="1">
         <v>0</v>
@@ -38076,16 +38076,16 @@
         <v>0</v>
       </c>
       <c r="CT118" s="1">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="CU118" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CV118" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="CW118" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:101">
@@ -42536,7 +42536,7 @@
         <v>109</v>
       </c>
       <c r="C134" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D134" s="2">
         <v>3</v>
@@ -42815,7 +42815,7 @@
         <v>138001</v>
       </c>
       <c r="CU134" s="1">
-        <v>3906</v>
+        <v>3904</v>
       </c>
       <c r="CV134" s="1">
         <v>3924</v>
@@ -42832,7 +42832,7 @@
         <v>53</v>
       </c>
       <c r="C135" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D135" s="2">
         <v>7</v>
@@ -43111,7 +43111,7 @@
         <v>456</v>
       </c>
       <c r="CU135" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CV135" s="1">
         <v>18</v>
@@ -45009,16 +45009,16 @@
         <v>0</v>
       </c>
       <c r="AL142" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AM142" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN142" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO142" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP142" s="1">
         <v>48</v>
@@ -45027,7 +45027,7 @@
         <v>0</v>
       </c>
       <c r="AR142" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS142" s="2">
         <v>5</v>
@@ -45150,22 +45150,22 @@
         <v>0</v>
       </c>
       <c r="CJ142" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CK142" s="2">
         <v>2</v>
       </c>
       <c r="CL142" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CM142" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN142" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CO142" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CP142" s="1">
         <v>0</v>
@@ -45180,16 +45180,16 @@
         <v>0</v>
       </c>
       <c r="CT142" s="1">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="CU142" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CV142" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="CW142" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:101">
@@ -45912,10 +45912,10 @@
         <v>27</v>
       </c>
       <c r="AQ145" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR145" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS145" s="2">
         <v>6</v>
@@ -45987,7 +45987,7 @@
         <v>10</v>
       </c>
       <c r="BS145" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT145" s="2">
         <v>1</v>
@@ -46071,10 +46071,10 @@
         <v>120</v>
       </c>
       <c r="CU145" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CV145" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CW145" s="1">
         <v>23</v>
@@ -50824,7 +50824,7 @@
         <v>197</v>
       </c>
       <c r="C162" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D162" s="2">
         <v>1</v>
@@ -51103,7 +51103,7 @@
         <v>961</v>
       </c>
       <c r="CU162" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV162" s="1">
         <v>73</v>
@@ -51709,16 +51709,16 @@
         <v>264</v>
       </c>
       <c r="B165" s="1">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C165" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D165" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E165" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F165" s="1">
         <v>5</v>
@@ -51829,16 +51829,16 @@
         <v>0</v>
       </c>
       <c r="AP165" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AQ165" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR165" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS165" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT165" s="1">
         <v>0</v>
@@ -51964,16 +51964,16 @@
         <v>9</v>
       </c>
       <c r="CL165" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CM165" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN165" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO165" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CP165" s="1">
         <v>0</v>
@@ -51988,16 +51988,16 @@
         <v>0</v>
       </c>
       <c r="CT165" s="1">
-        <v>4202</v>
+        <v>4206</v>
       </c>
       <c r="CU165" s="1">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="CV165" s="1">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="CW165" s="1">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="166" spans="1:101">
@@ -52331,7 +52331,7 @@
         <v>21</v>
       </c>
       <c r="L167" s="2">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="M167" s="2">
         <v>104</v>
@@ -52586,7 +52586,7 @@
         <v>122</v>
       </c>
       <c r="CV167" s="1">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="CW167" s="1">
         <v>325</v>
@@ -52615,7 +52615,7 @@
         <v>1</v>
       </c>
       <c r="H168" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" s="2">
         <v>5</v>
@@ -52882,7 +52882,7 @@
         <v>34</v>
       </c>
       <c r="CV168" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="CW168" s="1">
         <v>77</v>
@@ -53195,7 +53195,7 @@
         <v>5</v>
       </c>
       <c r="D170" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E170" s="2">
         <v>10</v>
@@ -53219,7 +53219,7 @@
         <v>0</v>
       </c>
       <c r="L170" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="M170" s="2">
         <v>17</v>
@@ -53432,16 +53432,16 @@
         <v>0</v>
       </c>
       <c r="CH170" s="1">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="CI170" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CJ170" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CK170" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CL170" s="1">
         <v>6</v>
@@ -53468,16 +53468,16 @@
         <v>0</v>
       </c>
       <c r="CT170" s="1">
-        <v>5492</v>
+        <v>5494</v>
       </c>
       <c r="CU170" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CV170" s="1">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="CW170" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="171" spans="1:101">
@@ -55264,7 +55264,7 @@
         <v>7228</v>
       </c>
       <c r="C177" s="2">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D177" s="2">
         <v>73</v>
@@ -55543,7 +55543,7 @@
         <v>72079</v>
       </c>
       <c r="CU177" s="1">
-        <v>1916</v>
+        <v>1878</v>
       </c>
       <c r="CV177" s="1">
         <v>2773</v>
@@ -58837,16 +58837,16 @@
         <v>4</v>
       </c>
       <c r="J189" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K189" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L189" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M189" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N189" s="1">
         <v>7</v>
@@ -59092,16 +59092,16 @@
         <v>0</v>
       </c>
       <c r="CT189" s="1">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="CU189" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="CV189" s="1">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="CW189" s="1">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="190" spans="1:101">
@@ -60087,7 +60087,7 @@
         <v>3754</v>
       </c>
       <c r="AF193" s="2">
-        <v>3771</v>
+        <v>3772</v>
       </c>
       <c r="AG193" s="2">
         <v>5675</v>
@@ -60282,7 +60282,7 @@
         <v>3832</v>
       </c>
       <c r="CV193" s="1">
-        <v>3865</v>
+        <v>3866</v>
       </c>
       <c r="CW193" s="1">
         <v>4904</v>
@@ -63588,7 +63588,7 @@
         <v>4799</v>
       </c>
       <c r="O205" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P205" s="2">
         <v>37</v>
@@ -63831,7 +63831,7 @@
         <v>12416</v>
       </c>
       <c r="CU205" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="CV205" s="1">
         <v>191</v>
@@ -64476,7 +64476,7 @@
         <v>138</v>
       </c>
       <c r="O208" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P208" s="2">
         <v>6</v>
@@ -64557,16 +64557,16 @@
         <v>1</v>
       </c>
       <c r="AP208" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AQ208" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR208" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS208" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT208" s="1">
         <v>0</v>
@@ -64635,7 +64635,7 @@
         <v>27</v>
       </c>
       <c r="BS208" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT208" s="2">
         <v>1</v>
@@ -64680,16 +64680,16 @@
         <v>0</v>
       </c>
       <c r="CH208" s="1">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="CI208" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CJ208" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="CK208" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="CL208" s="1">
         <v>20</v>
@@ -64716,16 +64716,16 @@
         <v>0</v>
       </c>
       <c r="CT208" s="1">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="CU208" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="CV208" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="CW208" s="1">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="209" spans="1:101">
@@ -65436,7 +65436,7 @@
         <v>37</v>
       </c>
       <c r="AM211" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN211" s="2">
         <v>8</v>
@@ -65571,7 +65571,7 @@
         <v>67</v>
       </c>
       <c r="CI211" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="CJ211" s="2">
         <v>28</v>
@@ -65607,7 +65607,7 @@
         <v>156</v>
       </c>
       <c r="CU211" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CV211" s="1">
         <v>43</v>
@@ -67368,7 +67368,7 @@
         <v>589</v>
       </c>
       <c r="D72">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="E72" t="s">
         <v>709</v>
@@ -68194,7 +68194,7 @@
         <v>623</v>
       </c>
       <c r="D113">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E113" t="s">
         <v>709</v>
@@ -69283,7 +69283,7 @@
         <v>669</v>
       </c>
       <c r="D167">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E167" t="s">
         <v>732</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3943,7 +3943,7 @@
         <v>98</v>
       </c>
       <c r="BO3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP3" s="2">
         <v>1</v>
@@ -4039,7 +4039,7 @@
         <v>38977</v>
       </c>
       <c r="CU3" s="1">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="CV3" s="1">
         <v>656</v>
@@ -5276,7 +5276,7 @@
         <v>1424</v>
       </c>
       <c r="O8" s="2">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2">
         <v>27</v>
@@ -5423,7 +5423,7 @@
         <v>167</v>
       </c>
       <c r="BO8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP8" s="2">
         <v>1</v>
@@ -5519,7 +5519,7 @@
         <v>2554</v>
       </c>
       <c r="CU8" s="1">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="CV8" s="1">
         <v>48</v>
@@ -7256,16 +7256,16 @@
         <v>0</v>
       </c>
       <c r="CH14" s="1">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="CI14" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="CJ14" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CK14" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CL14" s="1">
         <v>2</v>
@@ -7292,16 +7292,16 @@
         <v>0</v>
       </c>
       <c r="CT14" s="1">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="CU14" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="CV14" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="CW14" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:101">
@@ -20372,7 +20372,7 @@
         <v>42074</v>
       </c>
       <c r="O59" s="2">
-        <v>813</v>
+        <v>220</v>
       </c>
       <c r="P59" s="2">
         <v>813</v>
@@ -20615,7 +20615,7 @@
         <v>61665</v>
       </c>
       <c r="CU59" s="1">
-        <v>2257</v>
+        <v>1664</v>
       </c>
       <c r="CV59" s="1">
         <v>2462</v>
@@ -21308,7 +21308,7 @@
         <v>1535</v>
       </c>
       <c r="AE62" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AF62" s="2">
         <v>22</v>
@@ -21503,7 +21503,7 @@
         <v>6617</v>
       </c>
       <c r="CU62" s="1">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="CV62" s="1">
         <v>76</v>
@@ -22651,7 +22651,7 @@
         <v>154</v>
       </c>
       <c r="CI66" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CJ66" s="2">
         <v>12</v>
@@ -22663,7 +22663,7 @@
         <v>26</v>
       </c>
       <c r="CM66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN66" s="2">
         <v>1</v>
@@ -22687,7 +22687,7 @@
         <v>1878</v>
       </c>
       <c r="CU66" s="1">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="CV66" s="1">
         <v>56</v>
@@ -24292,7 +24292,7 @@
         <v>35232</v>
       </c>
       <c r="AM72" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN72" s="2">
         <v>184</v>
@@ -24463,7 +24463,7 @@
         <v>156847</v>
       </c>
       <c r="CU72" s="1">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="CV72" s="1">
         <v>2829</v>
@@ -24812,7 +24812,7 @@
         <v>107722</v>
       </c>
       <c r="O74" s="2">
-        <v>2503</v>
+        <v>2474</v>
       </c>
       <c r="P74" s="2">
         <v>2553</v>
@@ -25055,7 +25055,7 @@
         <v>136899</v>
       </c>
       <c r="CU74" s="1">
-        <v>3092</v>
+        <v>3063</v>
       </c>
       <c r="CV74" s="1">
         <v>3417</v>
@@ -25177,28 +25177,28 @@
         <v>0</v>
       </c>
       <c r="AL75" s="1">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="AM75" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN75" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AO75" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AP75" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AQ75" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR75" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS75" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT75" s="1">
         <v>25</v>
@@ -25348,16 +25348,16 @@
         <v>6</v>
       </c>
       <c r="CT75" s="1">
-        <v>345748</v>
+        <v>345750</v>
       </c>
       <c r="CU75" s="1">
-        <v>4532</v>
+        <v>4534</v>
       </c>
       <c r="CV75" s="1">
-        <v>5040</v>
+        <v>5042</v>
       </c>
       <c r="CW75" s="1">
-        <v>11161</v>
+        <v>11163</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -25551,7 +25551,7 @@
         <v>1006</v>
       </c>
       <c r="BO76" s="2">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="BP76" s="2">
         <v>48</v>
@@ -25647,7 +25647,7 @@
         <v>84720</v>
       </c>
       <c r="CU76" s="1">
-        <v>1005</v>
+        <v>957</v>
       </c>
       <c r="CV76" s="1">
         <v>1154</v>
@@ -27461,16 +27461,16 @@
         <v>3</v>
       </c>
       <c r="J83" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K83" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M83" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N83" s="1">
         <v>1454</v>
@@ -27716,16 +27716,16 @@
         <v>0</v>
       </c>
       <c r="CT83" s="1">
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="CU83" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CV83" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CW83" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:101">
@@ -29632,7 +29632,7 @@
         <v>28</v>
       </c>
       <c r="AQ90" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR90" s="2">
         <v>3</v>
@@ -29791,7 +29791,7 @@
         <v>983</v>
       </c>
       <c r="CU90" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CV90" s="1">
         <v>36</v>
@@ -32311,7 +32311,7 @@
         <v>2</v>
       </c>
       <c r="AV99" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW99" s="2">
         <v>8</v>
@@ -32458,7 +32458,7 @@
         <v>579</v>
       </c>
       <c r="CV99" s="1">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="CW99" s="1">
         <v>1834</v>
@@ -33097,16 +33097,16 @@
         <v>84</v>
       </c>
       <c r="N102" s="1">
-        <v>1278</v>
+        <v>1315</v>
       </c>
       <c r="O102" s="2">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="P102" s="2">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q102" s="2">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="R102" s="1">
         <v>0</v>
@@ -33304,16 +33304,16 @@
         <v>0</v>
       </c>
       <c r="CH102" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="CI102" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CJ102" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CK102" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CL102" s="1">
         <v>25</v>
@@ -33340,16 +33340,16 @@
         <v>0</v>
       </c>
       <c r="CT102" s="1">
-        <v>6598</v>
+        <v>6636</v>
       </c>
       <c r="CU102" s="1">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="CV102" s="1">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="CW102" s="1">
-        <v>521</v>
+        <v>559</v>
       </c>
     </row>
     <row r="103" spans="1:101">
@@ -36449,16 +36449,16 @@
         <v>0</v>
       </c>
       <c r="AT113" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AU113" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV113" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW113" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AX113" s="1">
         <v>3</v>
@@ -36596,16 +36596,16 @@
         <v>0</v>
       </c>
       <c r="CT113" s="1">
-        <v>18398</v>
+        <v>18399</v>
       </c>
       <c r="CU113" s="1">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="CV113" s="1">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="CW113" s="1">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="114" spans="1:101">
@@ -36640,7 +36640,7 @@
         <v>265</v>
       </c>
       <c r="K114" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L114" s="2">
         <v>7</v>
@@ -36895,7 +36895,7 @@
         <v>10035</v>
       </c>
       <c r="CU114" s="1">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="CV114" s="1">
         <v>480</v>
@@ -42049,16 +42049,16 @@
         <v>0</v>
       </c>
       <c r="AL132" s="1">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="AM132" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AN132" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AO132" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AP132" s="1">
         <v>33</v>
@@ -42184,16 +42184,16 @@
         <v>0</v>
       </c>
       <c r="CH132" s="1">
-        <v>2522</v>
+        <v>2525</v>
       </c>
       <c r="CI132" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CJ132" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="CK132" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="CL132" s="1">
         <v>9</v>
@@ -42220,16 +42220,16 @@
         <v>0</v>
       </c>
       <c r="CT132" s="1">
-        <v>117973</v>
+        <v>117979</v>
       </c>
       <c r="CU132" s="1">
-        <v>2631</v>
+        <v>2637</v>
       </c>
       <c r="CV132" s="1">
-        <v>2672</v>
+        <v>2678</v>
       </c>
       <c r="CW132" s="1">
-        <v>5242</v>
+        <v>5248</v>
       </c>
     </row>
     <row r="133" spans="1:101">
@@ -42423,7 +42423,7 @@
         <v>213</v>
       </c>
       <c r="BO133" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BP133" s="2">
         <v>7</v>
@@ -42519,7 +42519,7 @@
         <v>54314</v>
       </c>
       <c r="CU133" s="1">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="CV133" s="1">
         <v>1433</v>
@@ -44163,7 +44163,7 @@
         <v>0</v>
       </c>
       <c r="AZ139" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA139" s="2">
         <v>1</v>
@@ -44298,7 +44298,7 @@
         <v>5</v>
       </c>
       <c r="CV139" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="CW139" s="1">
         <v>27</v>
@@ -45909,16 +45909,16 @@
         <v>0</v>
       </c>
       <c r="AP145" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ145" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR145" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS145" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT145" s="1">
         <v>0</v>
@@ -46032,16 +46032,16 @@
         <v>1</v>
       </c>
       <c r="CH145" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CI145" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CJ145" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CK145" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CL145" s="1">
         <v>17</v>
@@ -46068,16 +46068,16 @@
         <v>0</v>
       </c>
       <c r="CT145" s="1">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="CU145" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CV145" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CW145" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:101">
@@ -46501,16 +46501,16 @@
         <v>1</v>
       </c>
       <c r="AP147" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AQ147" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR147" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS147" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT147" s="1">
         <v>0</v>
@@ -46624,16 +46624,16 @@
         <v>0</v>
       </c>
       <c r="CH147" s="1">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="CI147" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CJ147" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="CK147" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="CL147" s="1">
         <v>33</v>
@@ -46660,16 +46660,16 @@
         <v>0</v>
       </c>
       <c r="CT147" s="1">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="CU147" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="CV147" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="CW147" s="1">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="148" spans="1:101">
@@ -47171,7 +47171,7 @@
         <v>23</v>
       </c>
       <c r="BS149" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT149" s="2">
         <v>1</v>
@@ -47255,7 +47255,7 @@
         <v>352</v>
       </c>
       <c r="CU149" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CV149" s="1">
         <v>27</v>
@@ -49291,7 +49291,7 @@
         <v>1577</v>
       </c>
       <c r="CI156" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="CJ156" s="2">
         <v>311</v>
@@ -49327,7 +49327,7 @@
         <v>17755</v>
       </c>
       <c r="CU156" s="1">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CV156" s="1">
         <v>1190</v>
@@ -51733,16 +51733,16 @@
         <v>0</v>
       </c>
       <c r="J165" s="1">
-        <v>1308</v>
+        <v>1327</v>
       </c>
       <c r="K165" s="2">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="L165" s="2">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="M165" s="2">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="N165" s="1">
         <v>1877</v>
@@ -51988,16 +51988,16 @@
         <v>0</v>
       </c>
       <c r="CT165" s="1">
-        <v>4206</v>
+        <v>4225</v>
       </c>
       <c r="CU165" s="1">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="CV165" s="1">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="CW165" s="1">
-        <v>216</v>
+        <v>235</v>
       </c>
     </row>
     <row r="166" spans="1:101">
@@ -52445,16 +52445,16 @@
         <v>0</v>
       </c>
       <c r="AX167" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY167" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ167" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA167" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB167" s="1">
         <v>0</v>
@@ -52580,16 +52580,16 @@
         <v>0</v>
       </c>
       <c r="CT167" s="1">
-        <v>4548</v>
+        <v>4549</v>
       </c>
       <c r="CU167" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="CV167" s="1">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="CW167" s="1">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="168" spans="1:101">
@@ -53192,7 +53192,7 @@
         <v>475</v>
       </c>
       <c r="C170" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D170" s="2">
         <v>7</v>
@@ -53339,7 +53339,7 @@
         <v>0</v>
       </c>
       <c r="AZ170" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA170" s="2">
         <v>1</v>
@@ -53471,10 +53471,10 @@
         <v>5494</v>
       </c>
       <c r="CU170" s="1">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="CV170" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="CW170" s="1">
         <v>77</v>
@@ -57040,7 +57040,7 @@
         <v>20</v>
       </c>
       <c r="C183" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D183" s="2">
         <v>2</v>
@@ -57052,7 +57052,7 @@
         <v>47</v>
       </c>
       <c r="G183" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H183" s="2">
         <v>4</v>
@@ -57319,7 +57319,7 @@
         <v>67</v>
       </c>
       <c r="CU183" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CV183" s="1">
         <v>6</v>
@@ -59417,16 +59417,16 @@
         <v>0</v>
       </c>
       <c r="F191" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G191" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I191" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J191" s="1">
         <v>0</v>
@@ -59684,16 +59684,16 @@
         <v>0</v>
       </c>
       <c r="CT191" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CU191" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV191" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CW191" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:101">
@@ -60329,16 +60329,16 @@
         <v>43</v>
       </c>
       <c r="N194" s="1">
-        <v>2964</v>
+        <v>2966</v>
       </c>
       <c r="O194" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P194" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q194" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="R194" s="1">
         <v>0</v>
@@ -60572,16 +60572,16 @@
         <v>0</v>
       </c>
       <c r="CT194" s="1">
-        <v>4749</v>
+        <v>4751</v>
       </c>
       <c r="CU194" s="1">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="CV194" s="1">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="CW194" s="1">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="195" spans="1:101">
@@ -63588,7 +63588,7 @@
         <v>4799</v>
       </c>
       <c r="O205" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P205" s="2">
         <v>37</v>
@@ -63735,7 +63735,7 @@
         <v>479</v>
       </c>
       <c r="BO205" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BP205" s="2">
         <v>5</v>
@@ -63831,7 +63831,7 @@
         <v>12416</v>
       </c>
       <c r="CU205" s="1">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="CV205" s="1">
         <v>191</v>
@@ -67005,7 +67005,7 @@
         <v>571</v>
       </c>
       <c r="D54">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E54" t="s">
         <v>709</v>
@@ -67268,7 +67268,7 @@
         <v>584</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E67" t="s">
         <v>709</v>
@@ -67368,7 +67368,7 @@
         <v>589</v>
       </c>
       <c r="D72">
-        <v>906</v>
+        <v>926</v>
       </c>
       <c r="E72" t="s">
         <v>709</v>
@@ -67914,7 +67914,7 @@
         <v>613</v>
       </c>
       <c r="D99">
-        <v>2950</v>
+        <v>2951</v>
       </c>
       <c r="E99" t="s">
         <v>709</v>
@@ -69486,7 +69486,7 @@
         <v>679</v>
       </c>
       <c r="D177">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E177" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3760,7 +3760,7 @@
         <v>1759</v>
       </c>
       <c r="C3" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
         <v>41</v>
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
         <v>-11</v>
@@ -4039,7 +4039,7 @@
         <v>38977</v>
       </c>
       <c r="CU3" s="1">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="CV3" s="1">
         <v>656</v>
@@ -6134,7 +6134,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1">
         <v>15</v>
@@ -6413,7 +6413,7 @@
         <v>7</v>
       </c>
       <c r="CW11" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:101">
@@ -7052,7 +7052,7 @@
         <v>2433</v>
       </c>
       <c r="O14" s="2">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="P14" s="2">
         <v>138</v>
@@ -7295,7 +7295,7 @@
         <v>2990</v>
       </c>
       <c r="CU14" s="1">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="CV14" s="1">
         <v>147</v>
@@ -8568,7 +8568,7 @@
         <v>92</v>
       </c>
       <c r="AA19" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="2">
         <v>4</v>
@@ -8775,7 +8775,7 @@
         <v>18124</v>
       </c>
       <c r="CU19" s="1">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="CV19" s="1">
         <v>307</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="AN26" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AO26" s="2">
         <v>5</v>
@@ -10814,7 +10814,7 @@
         <v>5</v>
       </c>
       <c r="CJ26" s="2">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="CK26" s="2">
         <v>45</v>
@@ -10850,7 +10850,7 @@
         <v>8</v>
       </c>
       <c r="CV26" s="1">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="CW26" s="1">
         <v>68</v>
@@ -10870,7 +10870,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" s="1">
         <v>26</v>
@@ -11149,7 +11149,7 @@
         <v>217</v>
       </c>
       <c r="CW27" s="1">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" spans="1:101">
@@ -11794,7 +11794,7 @@
         <v>28</v>
       </c>
       <c r="Q30" s="2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="R30" s="1">
         <v>1</v>
@@ -11866,7 +11866,7 @@
         <v>22</v>
       </c>
       <c r="AO30" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP30" s="1">
         <v>18</v>
@@ -12001,7 +12001,7 @@
         <v>21</v>
       </c>
       <c r="CK30" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="CL30" s="1">
         <v>19</v>
@@ -12037,7 +12037,7 @@
         <v>208</v>
       </c>
       <c r="CW30" s="1">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:101">
@@ -12075,7 +12075,7 @@
         <v>5</v>
       </c>
       <c r="L31" s="2">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M31" s="2">
         <v>57</v>
@@ -12330,7 +12330,7 @@
         <v>265</v>
       </c>
       <c r="CV31" s="1">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="CW31" s="1">
         <v>555</v>
@@ -19870,7 +19870,7 @@
         <v>2</v>
       </c>
       <c r="AS57" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -20005,7 +20005,7 @@
         <v>3</v>
       </c>
       <c r="CO57" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CP57" s="1">
         <v>0</v>
@@ -20029,7 +20029,7 @@
         <v>23</v>
       </c>
       <c r="CW57" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:101">
@@ -20046,7 +20046,7 @@
         <v>4</v>
       </c>
       <c r="E58" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F58" s="1">
         <v>4</v>
@@ -20325,7 +20325,7 @@
         <v>4</v>
       </c>
       <c r="CW58" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:101">
@@ -21308,7 +21308,7 @@
         <v>1535</v>
       </c>
       <c r="AE62" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF62" s="2">
         <v>22</v>
@@ -21503,7 +21503,7 @@
         <v>6617</v>
       </c>
       <c r="CU62" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="CV62" s="1">
         <v>76</v>
@@ -21562,7 +21562,7 @@
         <v>1087</v>
       </c>
       <c r="Q63" s="2">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="R63" s="1">
         <v>0</v>
@@ -21805,7 +21805,7 @@
         <v>1295</v>
       </c>
       <c r="CW63" s="1">
-        <v>2509</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="64" spans="1:101">
@@ -22444,7 +22444,7 @@
         <v>922</v>
       </c>
       <c r="O66" s="2">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="P66" s="2">
         <v>27</v>
@@ -22687,7 +22687,7 @@
         <v>1878</v>
       </c>
       <c r="CU66" s="1">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="CV66" s="1">
         <v>56</v>
@@ -24268,7 +24268,7 @@
         <v>13085</v>
       </c>
       <c r="AE72" s="2">
-        <v>343</v>
+        <v>124</v>
       </c>
       <c r="AF72" s="2">
         <v>777</v>
@@ -24463,7 +24463,7 @@
         <v>156847</v>
       </c>
       <c r="CU72" s="1">
-        <v>1710</v>
+        <v>1491</v>
       </c>
       <c r="CV72" s="1">
         <v>2829</v>
@@ -24812,7 +24812,7 @@
         <v>107722</v>
       </c>
       <c r="O74" s="2">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="P74" s="2">
         <v>2553</v>
@@ -25025,7 +25025,7 @@
         <v>85</v>
       </c>
       <c r="CK74" s="2">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="CL74" s="1">
         <v>7</v>
@@ -25055,13 +25055,13 @@
         <v>136899</v>
       </c>
       <c r="CU74" s="1">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="CV74" s="1">
         <v>3417</v>
       </c>
       <c r="CW74" s="1">
-        <v>7796</v>
+        <v>7770</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25321,7 +25321,7 @@
         <v>204</v>
       </c>
       <c r="CK75" s="2">
-        <v>515</v>
+        <v>477</v>
       </c>
       <c r="CL75" s="1">
         <v>97</v>
@@ -25357,7 +25357,7 @@
         <v>5042</v>
       </c>
       <c r="CW75" s="1">
-        <v>11163</v>
+        <v>11125</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -26594,7 +26594,7 @@
         <v>438</v>
       </c>
       <c r="Q80" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="R80" s="1">
         <v>0</v>
@@ -26837,7 +26837,7 @@
         <v>2928</v>
       </c>
       <c r="CW80" s="1">
-        <v>33073</v>
+        <v>33071</v>
       </c>
     </row>
     <row r="81" spans="1:101">
@@ -27446,7 +27446,7 @@
         <v>5</v>
       </c>
       <c r="E83" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F83" s="1">
         <v>33</v>
@@ -27725,7 +27725,7 @@
         <v>57</v>
       </c>
       <c r="CW83" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:101">
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="AO85" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP85" s="1">
         <v>43</v>
@@ -28281,7 +28281,7 @@
         <v>28</v>
       </c>
       <c r="CK85" s="2">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="CL85" s="1">
         <v>21</v>
@@ -28317,7 +28317,7 @@
         <v>124</v>
       </c>
       <c r="CW85" s="1">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="86" spans="1:101">
@@ -31892,10 +31892,10 @@
         <v>57</v>
       </c>
       <c r="G98" s="2">
+        <v>1</v>
+      </c>
+      <c r="H98" s="2">
         <v>3</v>
-      </c>
-      <c r="H98" s="2">
-        <v>5</v>
       </c>
       <c r="I98" s="2">
         <v>7</v>
@@ -32159,10 +32159,10 @@
         <v>75</v>
       </c>
       <c r="CU98" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV98" s="1">
         <v>3</v>
-      </c>
-      <c r="CV98" s="1">
-        <v>5</v>
       </c>
       <c r="CW98" s="1">
         <v>7</v>
@@ -32780,7 +32780,7 @@
         <v>20</v>
       </c>
       <c r="G101" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" s="2">
         <v>2</v>
@@ -33047,7 +33047,7 @@
         <v>21</v>
       </c>
       <c r="CU101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV101" s="1">
         <v>2</v>
@@ -33064,7 +33064,7 @@
         <v>431</v>
       </c>
       <c r="C102" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" s="2">
         <v>1</v>
@@ -33343,7 +33343,7 @@
         <v>6636</v>
       </c>
       <c r="CU102" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="CV102" s="1">
         <v>193</v>
@@ -34616,7 +34616,7 @@
         <v>107</v>
       </c>
       <c r="AA107" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB107" s="2">
         <v>5</v>
@@ -34823,7 +34823,7 @@
         <v>10387</v>
       </c>
       <c r="CU107" s="1">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="CV107" s="1">
         <v>437</v>
@@ -35142,7 +35142,7 @@
         <v>23</v>
       </c>
       <c r="E109" s="2">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F109" s="1">
         <v>0</v>
@@ -35256,13 +35256,13 @@
         <v>54</v>
       </c>
       <c r="AQ109" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR109" s="2">
         <v>3</v>
       </c>
       <c r="AS109" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT109" s="1">
         <v>0</v>
@@ -35379,13 +35379,13 @@
         <v>202</v>
       </c>
       <c r="CI109" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CJ109" s="2">
         <v>16</v>
       </c>
       <c r="CK109" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="CL109" s="1">
         <v>25</v>
@@ -35415,13 +35415,13 @@
         <v>6336</v>
       </c>
       <c r="CU109" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="CV109" s="1">
         <v>323</v>
       </c>
       <c r="CW109" s="1">
-        <v>645</v>
+        <v>636</v>
       </c>
     </row>
     <row r="110" spans="1:101">
@@ -35432,7 +35432,7 @@
         <v>1611</v>
       </c>
       <c r="C110" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D110" s="2">
         <v>70</v>
@@ -35711,7 +35711,7 @@
         <v>140613</v>
       </c>
       <c r="CU110" s="1">
-        <v>5084</v>
+        <v>5075</v>
       </c>
       <c r="CV110" s="1">
         <v>5264</v>
@@ -35743,7 +35743,7 @@
         <v>1</v>
       </c>
       <c r="H111" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I111" s="2">
         <v>6</v>
@@ -36010,7 +36010,7 @@
         <v>1</v>
       </c>
       <c r="CV111" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CW111" s="1">
         <v>6</v>
@@ -36503,7 +36503,7 @@
         <v>924</v>
       </c>
       <c r="BO113" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP113" s="2">
         <v>1</v>
@@ -36599,7 +36599,7 @@
         <v>18399</v>
       </c>
       <c r="CU113" s="1">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="CV113" s="1">
         <v>519</v>
@@ -36646,7 +36646,7 @@
         <v>7</v>
       </c>
       <c r="M114" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N114" s="1">
         <v>2238</v>
@@ -36901,7 +36901,7 @@
         <v>480</v>
       </c>
       <c r="CW114" s="1">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="115" spans="1:101">
@@ -39594,7 +39594,7 @@
         <v>3</v>
       </c>
       <c r="I124" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J124" s="1">
         <v>0</v>
@@ -39861,7 +39861,7 @@
         <v>4</v>
       </c>
       <c r="CW124" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:101">
@@ -42058,7 +42058,7 @@
         <v>10</v>
       </c>
       <c r="AO132" s="2">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="AP132" s="1">
         <v>33</v>
@@ -42193,7 +42193,7 @@
         <v>41</v>
       </c>
       <c r="CK132" s="2">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="CL132" s="1">
         <v>9</v>
@@ -42229,7 +42229,7 @@
         <v>2678</v>
       </c>
       <c r="CW132" s="1">
-        <v>5248</v>
+        <v>5225</v>
       </c>
     </row>
     <row r="133" spans="1:101">
@@ -44327,7 +44327,7 @@
         <v>1</v>
       </c>
       <c r="H140" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I140" s="2">
         <v>5</v>
@@ -44594,7 +44594,7 @@
         <v>14</v>
       </c>
       <c r="CV140" s="1">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="CW140" s="1">
         <v>136</v>
@@ -45206,7 +45206,7 @@
         <v>16</v>
       </c>
       <c r="E143" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F143" s="1">
         <v>1</v>
@@ -45230,7 +45230,7 @@
         <v>26</v>
       </c>
       <c r="M143" s="2">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N143" s="1">
         <v>719</v>
@@ -45314,7 +45314,7 @@
         <v>2</v>
       </c>
       <c r="AO143" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP143" s="1">
         <v>68</v>
@@ -45449,7 +45449,7 @@
         <v>10</v>
       </c>
       <c r="CK143" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="CL143" s="1">
         <v>32</v>
@@ -45485,7 +45485,7 @@
         <v>75</v>
       </c>
       <c r="CW143" s="1">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:101">
@@ -46035,10 +46035,10 @@
         <v>16</v>
       </c>
       <c r="CI145" s="2">
+        <v>1</v>
+      </c>
+      <c r="CJ145" s="2">
         <v>3</v>
-      </c>
-      <c r="CJ145" s="2">
-        <v>4</v>
       </c>
       <c r="CK145" s="2">
         <v>4</v>
@@ -46071,10 +46071,10 @@
         <v>122</v>
       </c>
       <c r="CU145" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CV145" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CW145" s="1">
         <v>25</v>
@@ -47219,7 +47219,7 @@
         <v>100</v>
       </c>
       <c r="CI149" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CJ149" s="2">
         <v>14</v>
@@ -47255,7 +47255,7 @@
         <v>352</v>
       </c>
       <c r="CU149" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="CV149" s="1">
         <v>27</v>
@@ -48456,7 +48456,7 @@
         <v>1783</v>
       </c>
       <c r="C154" s="2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D154" s="2">
         <v>38</v>
@@ -48735,7 +48735,7 @@
         <v>64548</v>
       </c>
       <c r="CU154" s="1">
-        <v>886</v>
+        <v>863</v>
       </c>
       <c r="CV154" s="1">
         <v>1016</v>
@@ -48779,7 +48779,7 @@
         <v>52</v>
       </c>
       <c r="L155" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="M155" s="2">
         <v>262</v>
@@ -49034,7 +49034,7 @@
         <v>1991</v>
       </c>
       <c r="CV155" s="1">
-        <v>2297</v>
+        <v>2240</v>
       </c>
       <c r="CW155" s="1">
         <v>4317</v>
@@ -50938,7 +50938,7 @@
         <v>0</v>
       </c>
       <c r="AO162" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP162" s="1">
         <v>128</v>
@@ -50950,7 +50950,7 @@
         <v>0</v>
       </c>
       <c r="AS162" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT162" s="1">
         <v>0</v>
@@ -51109,7 +51109,7 @@
         <v>73</v>
       </c>
       <c r="CW162" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="163" spans="1:101">
@@ -51369,7 +51369,7 @@
         <v>16</v>
       </c>
       <c r="CK163" s="2">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="CL163" s="1">
         <v>2</v>
@@ -51405,7 +51405,7 @@
         <v>28</v>
       </c>
       <c r="CW163" s="1">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="164" spans="1:101">
@@ -51715,10 +51715,10 @@
         <v>2</v>
       </c>
       <c r="D165" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E165" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F165" s="1">
         <v>5</v>
@@ -51736,7 +51736,7 @@
         <v>1327</v>
       </c>
       <c r="K165" s="2">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="L165" s="2">
         <v>68</v>
@@ -51991,13 +51991,13 @@
         <v>4225</v>
       </c>
       <c r="CU165" s="1">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="CV165" s="1">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="CW165" s="1">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="166" spans="1:101">
@@ -52328,7 +52328,7 @@
         <v>906</v>
       </c>
       <c r="K167" s="2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L167" s="2">
         <v>44</v>
@@ -52415,7 +52415,7 @@
         <v>0</v>
       </c>
       <c r="AN167" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO167" s="2">
         <v>3</v>
@@ -52550,7 +52550,7 @@
         <v>4</v>
       </c>
       <c r="CJ167" s="2">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="CK167" s="2">
         <v>44</v>
@@ -52583,10 +52583,10 @@
         <v>4549</v>
       </c>
       <c r="CU167" s="1">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="CV167" s="1">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="CW167" s="1">
         <v>326</v>
@@ -55859,7 +55859,7 @@
         <v>122</v>
       </c>
       <c r="D179" s="2">
-        <v>244</v>
+        <v>177</v>
       </c>
       <c r="E179" s="2">
         <v>475</v>
@@ -55886,7 +55886,7 @@
         <v>56</v>
       </c>
       <c r="M179" s="2">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="N179" s="1">
         <v>30628</v>
@@ -56138,10 +56138,10 @@
         <v>1229</v>
       </c>
       <c r="CV179" s="1">
-        <v>1454</v>
+        <v>1387</v>
       </c>
       <c r="CW179" s="1">
-        <v>2919</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="180" spans="1:101">
@@ -59707,7 +59707,7 @@
         <v>7</v>
       </c>
       <c r="D192" s="2">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E192" s="2">
         <v>93</v>
@@ -59746,7 +59746,7 @@
         <v>675</v>
       </c>
       <c r="Q192" s="2">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="R192" s="1">
         <v>0</v>
@@ -59824,13 +59824,13 @@
         <v>53</v>
       </c>
       <c r="AQ192" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR192" s="2">
         <v>2</v>
       </c>
       <c r="AS192" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT192" s="1">
         <v>2</v>
@@ -59947,13 +59947,13 @@
         <v>410</v>
       </c>
       <c r="CI192" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="CJ192" s="2">
         <v>16</v>
       </c>
       <c r="CK192" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="CL192" s="1">
         <v>25</v>
@@ -59983,13 +59983,13 @@
         <v>28824</v>
       </c>
       <c r="CU192" s="1">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="CV192" s="1">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="CW192" s="1">
-        <v>1504</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="193" spans="1:101">
@@ -60332,7 +60332,7 @@
         <v>2966</v>
       </c>
       <c r="O194" s="2">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="P194" s="2">
         <v>422</v>
@@ -60371,7 +60371,7 @@
         <v>3</v>
       </c>
       <c r="AB194" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AC194" s="2">
         <v>9</v>
@@ -60575,10 +60575,10 @@
         <v>4751</v>
       </c>
       <c r="CU194" s="1">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="CV194" s="1">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="CW194" s="1">
         <v>835</v>
@@ -61884,7 +61884,7 @@
         <v>301</v>
       </c>
       <c r="AM199" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN199" s="2">
         <v>8</v>
@@ -62055,7 +62055,7 @@
         <v>78070</v>
       </c>
       <c r="CU199" s="1">
-        <v>3561</v>
+        <v>3562</v>
       </c>
       <c r="CV199" s="1">
         <v>3780</v>
@@ -63636,7 +63636,7 @@
         <v>1675</v>
       </c>
       <c r="AE205" s="2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AF205" s="2">
         <v>22</v>
@@ -63795,7 +63795,7 @@
         <v>2997</v>
       </c>
       <c r="CI205" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CJ205" s="2">
         <v>62</v>
@@ -63831,7 +63831,7 @@
         <v>12416</v>
       </c>
       <c r="CU205" s="1">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="CV205" s="1">
         <v>191</v>
@@ -64742,7 +64742,7 @@
         <v>7</v>
       </c>
       <c r="E209" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F209" s="1">
         <v>8</v>
@@ -64766,7 +64766,7 @@
         <v>37</v>
       </c>
       <c r="M209" s="2">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="N209" s="1">
         <v>701</v>
@@ -65021,7 +65021,7 @@
         <v>196</v>
       </c>
       <c r="CW209" s="1">
-        <v>547</v>
+        <v>533</v>
       </c>
     </row>
     <row r="210" spans="1:101">

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3464,7 +3464,7 @@
         <v>1386</v>
       </c>
       <c r="C2" s="2">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
         <v>25</v>
@@ -3500,7 +3500,7 @@
         <v>16988</v>
       </c>
       <c r="O2" s="2">
-        <v>446</v>
+        <v>1</v>
       </c>
       <c r="P2" s="2">
         <v>446</v>
@@ -3743,7 +3743,7 @@
         <v>39953</v>
       </c>
       <c r="CU2" s="1">
-        <v>1075</v>
+        <v>619</v>
       </c>
       <c r="CV2" s="1">
         <v>1321</v>
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1">
         <v>856</v>
@@ -4341,7 +4341,7 @@
         <v>139</v>
       </c>
       <c r="CW4" s="1">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -8918,7 +8918,7 @@
         <v>1</v>
       </c>
       <c r="AS20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT20" s="1">
         <v>0</v>
@@ -9041,7 +9041,7 @@
         <v>22</v>
       </c>
       <c r="CK20" s="2">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="CL20" s="1">
         <v>1</v>
@@ -9077,7 +9077,7 @@
         <v>32</v>
       </c>
       <c r="CW20" s="1">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:101">
@@ -9390,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>46</v>
@@ -9504,7 +9504,7 @@
         <v>69</v>
       </c>
       <c r="AQ22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR22" s="2">
         <v>3</v>
@@ -9627,7 +9627,7 @@
         <v>146</v>
       </c>
       <c r="CI22" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CJ22" s="2">
         <v>8</v>
@@ -9663,13 +9663,13 @@
         <v>595</v>
       </c>
       <c r="CU22" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="CV22" s="1">
         <v>19</v>
       </c>
       <c r="CW22" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:101">
@@ -10900,7 +10900,7 @@
         <v>1968</v>
       </c>
       <c r="O27" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P27" s="2">
         <v>8</v>
@@ -11143,7 +11143,7 @@
         <v>22370</v>
       </c>
       <c r="CU27" s="1">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="CV27" s="1">
         <v>217</v>
@@ -11860,7 +11860,7 @@
         <v>242</v>
       </c>
       <c r="AM30" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AN30" s="2">
         <v>22</v>
@@ -11995,7 +11995,7 @@
         <v>413</v>
       </c>
       <c r="CI30" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="CJ30" s="2">
         <v>21</v>
@@ -12031,7 +12031,7 @@
         <v>4902</v>
       </c>
       <c r="CU30" s="1">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="CV30" s="1">
         <v>208</v>
@@ -12054,7 +12054,7 @@
         <v>42</v>
       </c>
       <c r="E31" s="2">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -12333,7 +12333,7 @@
         <v>319</v>
       </c>
       <c r="CW31" s="1">
-        <v>555</v>
+        <v>539</v>
       </c>
     </row>
     <row r="32" spans="1:101">
@@ -15340,7 +15340,7 @@
         <v>277</v>
       </c>
       <c r="O42" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P42" s="2">
         <v>8</v>
@@ -15583,7 +15583,7 @@
         <v>455</v>
       </c>
       <c r="CU42" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="CV42" s="1">
         <v>16</v>
@@ -15738,7 +15738,7 @@
         <v>4</v>
       </c>
       <c r="AW43" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX43" s="1">
         <v>1</v>
@@ -15885,7 +15885,7 @@
         <v>2123</v>
       </c>
       <c r="CW43" s="1">
-        <v>3113</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="44" spans="1:101">
@@ -17786,7 +17786,7 @@
         <v>19</v>
       </c>
       <c r="AO50" s="2">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="AP50" s="1">
         <v>0</v>
@@ -17921,7 +17921,7 @@
         <v>19</v>
       </c>
       <c r="CK50" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="CL50" s="1">
         <v>0</v>
@@ -17957,7 +17957,7 @@
         <v>42</v>
       </c>
       <c r="CW50" s="1">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:101">
@@ -18566,7 +18566,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" s="1">
         <v>47</v>
@@ -18578,7 +18578,7 @@
         <v>4</v>
       </c>
       <c r="I53" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J53" s="1">
         <v>0</v>
@@ -18845,7 +18845,7 @@
         <v>5</v>
       </c>
       <c r="CW53" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:101">
@@ -18886,7 +18886,7 @@
         <v>56</v>
       </c>
       <c r="M54" s="2">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="N54" s="1">
         <v>1845</v>
@@ -19141,7 +19141,7 @@
         <v>223</v>
       </c>
       <c r="CW54" s="1">
-        <v>463</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55" spans="1:101">
@@ -20040,7 +20040,7 @@
         <v>142</v>
       </c>
       <c r="C58" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D58" s="2">
         <v>4</v>
@@ -20319,7 +20319,7 @@
         <v>146</v>
       </c>
       <c r="CU58" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CV58" s="1">
         <v>4</v>
@@ -20450,7 +20450,7 @@
         <v>4</v>
       </c>
       <c r="AO59" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AP59" s="1">
         <v>28</v>
@@ -20585,7 +20585,7 @@
         <v>98</v>
       </c>
       <c r="CK59" s="2">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="CL59" s="1">
         <v>7</v>
@@ -20621,7 +20621,7 @@
         <v>2462</v>
       </c>
       <c r="CW59" s="1">
-        <v>3234</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="60" spans="1:101">
@@ -20958,7 +20958,7 @@
         <v>6</v>
       </c>
       <c r="M61" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N61" s="1">
         <v>908</v>
@@ -21213,7 +21213,7 @@
         <v>114</v>
       </c>
       <c r="CW61" s="1">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:101">
@@ -21822,7 +21822,7 @@
         <v>12</v>
       </c>
       <c r="E64" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F64" s="1">
         <v>12</v>
@@ -22101,7 +22101,7 @@
         <v>80</v>
       </c>
       <c r="CW64" s="1">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:101">
@@ -23628,7 +23628,7 @@
         <v>13</v>
       </c>
       <c r="O70" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="P70" s="2">
         <v>13</v>
@@ -23676,7 +23676,7 @@
         <v>66</v>
       </c>
       <c r="AE70" s="2">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="AF70" s="2">
         <v>66</v>
@@ -23712,7 +23712,7 @@
         <v>3</v>
       </c>
       <c r="AQ70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR70" s="2">
         <v>3</v>
@@ -23835,7 +23835,7 @@
         <v>4</v>
       </c>
       <c r="CI70" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CJ70" s="2">
         <v>4</v>
@@ -23871,7 +23871,7 @@
         <v>111</v>
       </c>
       <c r="CU70" s="1">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="CV70" s="1">
         <v>110</v>
@@ -23906,7 +23906,7 @@
         <v>2</v>
       </c>
       <c r="I71" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J71" s="1">
         <v>0</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="AS71" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT71" s="1">
         <v>0</v>
@@ -24137,7 +24137,7 @@
         <v>16</v>
       </c>
       <c r="CK71" s="2">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="CL71" s="1">
         <v>5</v>
@@ -24173,7 +24173,7 @@
         <v>20</v>
       </c>
       <c r="CW71" s="1">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:101">
@@ -24427,7 +24427,7 @@
         <v>15153</v>
       </c>
       <c r="CI72" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="CJ72" s="2">
         <v>252</v>
@@ -24463,7 +24463,7 @@
         <v>156847</v>
       </c>
       <c r="CU72" s="1">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="CV72" s="1">
         <v>2829</v>
@@ -24812,13 +24812,13 @@
         <v>107722</v>
       </c>
       <c r="O74" s="2">
-        <v>2475</v>
+        <v>2470</v>
       </c>
       <c r="P74" s="2">
         <v>2553</v>
       </c>
       <c r="Q74" s="2">
-        <v>6008</v>
+        <v>5554</v>
       </c>
       <c r="R74" s="1">
         <v>1</v>
@@ -24908,7 +24908,7 @@
         <v>20</v>
       </c>
       <c r="AU74" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV74" s="2">
         <v>1</v>
@@ -25055,13 +25055,13 @@
         <v>136899</v>
       </c>
       <c r="CU74" s="1">
-        <v>3064</v>
+        <v>3058</v>
       </c>
       <c r="CV74" s="1">
         <v>3417</v>
       </c>
       <c r="CW74" s="1">
-        <v>7770</v>
+        <v>7316</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25321,7 +25321,7 @@
         <v>204</v>
       </c>
       <c r="CK75" s="2">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="CL75" s="1">
         <v>97</v>
@@ -25357,7 +25357,7 @@
         <v>5042</v>
       </c>
       <c r="CW75" s="1">
-        <v>11125</v>
+        <v>11101</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -25368,7 +25368,7 @@
         <v>4057</v>
       </c>
       <c r="C76" s="2">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D76" s="2">
         <v>40</v>
@@ -25647,7 +25647,7 @@
         <v>84720</v>
       </c>
       <c r="CU76" s="1">
-        <v>957</v>
+        <v>941</v>
       </c>
       <c r="CV76" s="1">
         <v>1154</v>
@@ -26074,7 +26074,7 @@
         <v>1</v>
       </c>
       <c r="AO78" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP78" s="1">
         <v>48</v>
@@ -26209,7 +26209,7 @@
         <v>5</v>
       </c>
       <c r="CK78" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="CL78" s="1">
         <v>26</v>
@@ -26245,7 +26245,7 @@
         <v>127</v>
       </c>
       <c r="CW78" s="1">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:101">
@@ -27850,7 +27850,7 @@
         <v>34</v>
       </c>
       <c r="AO84" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AP84" s="1">
         <v>24</v>
@@ -27985,7 +27985,7 @@
         <v>216</v>
       </c>
       <c r="CK84" s="2">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="CL84" s="1">
         <v>15</v>
@@ -28021,7 +28021,7 @@
         <v>251</v>
       </c>
       <c r="CW84" s="1">
-        <v>499</v>
+        <v>480</v>
       </c>
     </row>
     <row r="85" spans="1:101">
@@ -28068,7 +28068,7 @@
         <v>998</v>
       </c>
       <c r="O85" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P85" s="2">
         <v>9</v>
@@ -28215,7 +28215,7 @@
         <v>22</v>
       </c>
       <c r="BO85" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP85" s="2">
         <v>1</v>
@@ -28311,7 +28311,7 @@
         <v>8706</v>
       </c>
       <c r="CU85" s="1">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="CV85" s="1">
         <v>124</v>
@@ -29222,7 +29222,7 @@
         <v>4</v>
       </c>
       <c r="E89" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" s="1">
         <v>12</v>
@@ -29501,7 +29501,7 @@
         <v>97</v>
       </c>
       <c r="CW89" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:101">
@@ -29707,7 +29707,7 @@
         <v>20</v>
       </c>
       <c r="BS90" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT90" s="2">
         <v>1</v>
@@ -29791,7 +29791,7 @@
         <v>983</v>
       </c>
       <c r="CU90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV90" s="1">
         <v>36</v>
@@ -30418,7 +30418,7 @@
         <v>2</v>
       </c>
       <c r="I93" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J93" s="1">
         <v>5</v>
@@ -30685,7 +30685,7 @@
         <v>39</v>
       </c>
       <c r="CW93" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:101">
@@ -32260,7 +32260,7 @@
         <v>1795</v>
       </c>
       <c r="AE99" s="2">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AF99" s="2">
         <v>85</v>
@@ -32455,7 +32455,7 @@
         <v>37119</v>
       </c>
       <c r="CU99" s="1">
-        <v>579</v>
+        <v>494</v>
       </c>
       <c r="CV99" s="1">
         <v>1060</v>
@@ -32786,7 +32786,7 @@
         <v>2</v>
       </c>
       <c r="I101" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J101" s="1">
         <v>0</v>
@@ -33053,7 +33053,7 @@
         <v>2</v>
       </c>
       <c r="CW101" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:101">
@@ -33390,7 +33390,7 @@
         <v>533</v>
       </c>
       <c r="M103" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="N103" s="1">
         <v>19756</v>
@@ -33645,7 +33645,7 @@
         <v>11487</v>
       </c>
       <c r="CW103" s="1">
-        <v>13566</v>
+        <v>13567</v>
       </c>
     </row>
     <row r="104" spans="1:101">
@@ -33668,7 +33668,7 @@
         <v>53</v>
       </c>
       <c r="G104" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104" s="2">
         <v>2</v>
@@ -33935,7 +33935,7 @@
         <v>84</v>
       </c>
       <c r="CU104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV104" s="1">
         <v>2</v>
@@ -34658,7 +34658,7 @@
         <v>7</v>
       </c>
       <c r="AO107" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AP107" s="1">
         <v>0</v>
@@ -34793,7 +34793,7 @@
         <v>89</v>
       </c>
       <c r="CK107" s="2">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="CL107" s="1">
         <v>0</v>
@@ -34829,7 +34829,7 @@
         <v>437</v>
       </c>
       <c r="CW107" s="1">
-        <v>759</v>
+        <v>736</v>
       </c>
     </row>
     <row r="108" spans="1:101">
@@ -35675,7 +35675,7 @@
         <v>1060</v>
       </c>
       <c r="CI110" s="2">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="CJ110" s="2">
         <v>76</v>
@@ -35711,7 +35711,7 @@
         <v>140613</v>
       </c>
       <c r="CU110" s="1">
-        <v>5075</v>
+        <v>5063</v>
       </c>
       <c r="CV110" s="1">
         <v>5264</v>
@@ -36320,7 +36320,7 @@
         <v>4017</v>
       </c>
       <c r="C113" s="2">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D113" s="2">
         <v>52</v>
@@ -36599,7 +36599,7 @@
         <v>18399</v>
       </c>
       <c r="CU113" s="1">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="CV113" s="1">
         <v>519</v>
@@ -36658,7 +36658,7 @@
         <v>67</v>
       </c>
       <c r="Q114" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R114" s="1">
         <v>0</v>
@@ -36901,7 +36901,7 @@
         <v>480</v>
       </c>
       <c r="CW114" s="1">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="115" spans="1:101">
@@ -42324,7 +42324,7 @@
         <v>9248</v>
       </c>
       <c r="AE133" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF133" s="2">
         <v>369</v>
@@ -42519,7 +42519,7 @@
         <v>54314</v>
       </c>
       <c r="CU133" s="1">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="CV133" s="1">
         <v>1433</v>
@@ -42785,7 +42785,7 @@
         <v>10</v>
       </c>
       <c r="CK134" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="CL134" s="1">
         <v>13</v>
@@ -42821,7 +42821,7 @@
         <v>3924</v>
       </c>
       <c r="CW134" s="1">
-        <v>9805</v>
+        <v>9801</v>
       </c>
     </row>
     <row r="135" spans="1:101">
@@ -43242,7 +43242,7 @@
         <v>12</v>
       </c>
       <c r="AO136" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP136" s="1">
         <v>14</v>
@@ -43377,7 +43377,7 @@
         <v>14</v>
       </c>
       <c r="CK136" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="CL136" s="1">
         <v>2</v>
@@ -43413,7 +43413,7 @@
         <v>119</v>
       </c>
       <c r="CW136" s="1">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="137" spans="1:101">
@@ -46806,7 +46806,7 @@
         <v>3</v>
       </c>
       <c r="AS148" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT148" s="1">
         <v>0</v>
@@ -46929,7 +46929,7 @@
         <v>5</v>
       </c>
       <c r="CK148" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="CL148" s="1">
         <v>42</v>
@@ -46965,7 +46965,7 @@
         <v>9</v>
       </c>
       <c r="CW148" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:101">
@@ -47102,7 +47102,7 @@
         <v>1</v>
       </c>
       <c r="AS149" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT149" s="1">
         <v>0</v>
@@ -47225,7 +47225,7 @@
         <v>14</v>
       </c>
       <c r="CK149" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="CL149" s="1">
         <v>24</v>
@@ -47261,7 +47261,7 @@
         <v>27</v>
       </c>
       <c r="CW149" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="150" spans="1:101">
@@ -48409,7 +48409,7 @@
         <v>13</v>
       </c>
       <c r="CK153" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CL153" s="1">
         <v>0</v>
@@ -48445,7 +48445,7 @@
         <v>54</v>
       </c>
       <c r="CW153" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="154" spans="1:101">
@@ -48486,7 +48486,7 @@
         <v>101</v>
       </c>
       <c r="M154" s="2">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="N154" s="1">
         <v>55935</v>
@@ -48588,7 +48588,7 @@
         <v>2</v>
       </c>
       <c r="AU154" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV154" s="2">
         <v>2</v>
@@ -48735,13 +48735,13 @@
         <v>64548</v>
       </c>
       <c r="CU154" s="1">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="CV154" s="1">
         <v>1016</v>
       </c>
       <c r="CW154" s="1">
-        <v>2134</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="155" spans="1:101">
@@ -52418,7 +52418,7 @@
         <v>0</v>
       </c>
       <c r="AO167" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP167" s="1">
         <v>23</v>
@@ -52553,7 +52553,7 @@
         <v>14</v>
       </c>
       <c r="CK167" s="2">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="CL167" s="1">
         <v>4</v>
@@ -52589,7 +52589,7 @@
         <v>164</v>
       </c>
       <c r="CW167" s="1">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="168" spans="1:101">
@@ -53506,7 +53506,7 @@
         <v>2</v>
       </c>
       <c r="I171" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J171" s="1">
         <v>0</v>
@@ -53773,7 +53773,7 @@
         <v>4</v>
       </c>
       <c r="CW171" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:101">
@@ -55970,7 +55970,7 @@
         <v>8</v>
       </c>
       <c r="AO179" s="2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AP179" s="1">
         <v>6</v>
@@ -56105,7 +56105,7 @@
         <v>84</v>
       </c>
       <c r="CK179" s="2">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="CL179" s="1">
         <v>3</v>
@@ -56141,7 +56141,7 @@
         <v>1387</v>
       </c>
       <c r="CW179" s="1">
-        <v>2893</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="180" spans="1:101">
@@ -58924,7 +58924,7 @@
         <v>242</v>
       </c>
       <c r="AM189" s="2">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="AN189" s="2">
         <v>35</v>
@@ -59095,7 +59095,7 @@
         <v>586</v>
       </c>
       <c r="CU189" s="1">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="CV189" s="1">
         <v>44</v>
@@ -59710,7 +59710,7 @@
         <v>19</v>
       </c>
       <c r="E192" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F192" s="1">
         <v>0</v>
@@ -59734,7 +59734,7 @@
         <v>22</v>
       </c>
       <c r="M192" s="2">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N192" s="1">
         <v>25662</v>
@@ -59989,7 +59989,7 @@
         <v>742</v>
       </c>
       <c r="CW192" s="1">
-        <v>1498</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="193" spans="1:101">
@@ -60006,7 +60006,7 @@
         <v>5</v>
       </c>
       <c r="E193" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F193" s="1">
         <v>14</v>
@@ -60249,7 +60249,7 @@
         <v>13</v>
       </c>
       <c r="CK193" s="2">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="CL193" s="1">
         <v>9</v>
@@ -60285,7 +60285,7 @@
         <v>3866</v>
       </c>
       <c r="CW193" s="1">
-        <v>4904</v>
+        <v>4892</v>
       </c>
     </row>
     <row r="194" spans="1:101">
@@ -61782,7 +61782,7 @@
         <v>131</v>
       </c>
       <c r="E199" s="2">
-        <v>263</v>
+        <v>210</v>
       </c>
       <c r="F199" s="1">
         <v>0</v>
@@ -61848,7 +61848,7 @@
         <v>72</v>
       </c>
       <c r="AA199" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB199" s="2">
         <v>4</v>
@@ -61866,7 +61866,7 @@
         <v>2952</v>
       </c>
       <c r="AG199" s="2">
-        <v>5819</v>
+        <v>5548</v>
       </c>
       <c r="AH199" s="1">
         <v>0</v>
@@ -62055,13 +62055,13 @@
         <v>78070</v>
       </c>
       <c r="CU199" s="1">
-        <v>3562</v>
+        <v>3558</v>
       </c>
       <c r="CV199" s="1">
         <v>3780</v>
       </c>
       <c r="CW199" s="1">
-        <v>7265</v>
+        <v>6941</v>
       </c>
     </row>
     <row r="200" spans="1:101">
@@ -63376,7 +63376,7 @@
         <v>68</v>
       </c>
       <c r="AQ204" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR204" s="2">
         <v>2</v>
@@ -63499,7 +63499,7 @@
         <v>174</v>
       </c>
       <c r="CI204" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CJ204" s="2">
         <v>14</v>
@@ -63535,7 +63535,7 @@
         <v>1298</v>
       </c>
       <c r="CU204" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CV204" s="1">
         <v>31</v>
@@ -63666,7 +63666,7 @@
         <v>0</v>
       </c>
       <c r="AO205" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP205" s="1">
         <v>47</v>
@@ -63801,7 +63801,7 @@
         <v>62</v>
       </c>
       <c r="CK205" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="CL205" s="1">
         <v>12</v>
@@ -63837,7 +63837,7 @@
         <v>191</v>
       </c>
       <c r="CW205" s="1">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="206" spans="1:101">

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3575,22 +3575,22 @@
         <v>0</v>
       </c>
       <c r="AN2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="2">
         <v>1</v>
       </c>
       <c r="AP2" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS2" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -3704,16 +3704,16 @@
         <v>1</v>
       </c>
       <c r="CH2" s="1">
-        <v>1762</v>
+        <v>1768</v>
       </c>
       <c r="CI2" s="2">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="CJ2" s="2">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="CK2" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="CL2" s="1">
         <v>3</v>
@@ -3740,16 +3740,16 @@
         <v>0</v>
       </c>
       <c r="CT2" s="1">
-        <v>39953</v>
+        <v>39960</v>
       </c>
       <c r="CU2" s="1">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="CV2" s="1">
-        <v>1321</v>
+        <v>1295</v>
       </c>
       <c r="CW2" s="1">
-        <v>2764</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="3" spans="1:101">
@@ -3790,7 +3790,7 @@
         <v>294</v>
       </c>
       <c r="M3" s="2">
-        <v>549</v>
+        <v>463</v>
       </c>
       <c r="N3" s="1">
         <v>8678</v>
@@ -3874,7 +3874,7 @@
         <v>7</v>
       </c>
       <c r="AO3" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AP3" s="1">
         <v>0</v>
@@ -4009,7 +4009,7 @@
         <v>80</v>
       </c>
       <c r="CK3" s="2">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="CL3" s="1">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>656</v>
       </c>
       <c r="CW3" s="1">
-        <v>1263</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="4" spans="1:101">
@@ -5486,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="CJ8" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CK8" s="2">
         <v>9</v>
@@ -5522,7 +5522,7 @@
         <v>3</v>
       </c>
       <c r="CV8" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CW8" s="1">
         <v>82</v>
@@ -6750,7 +6750,7 @@
         <v>8</v>
       </c>
       <c r="M13" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N13" s="1">
         <v>88</v>
@@ -6894,7 +6894,7 @@
         <v>4</v>
       </c>
       <c r="BI13" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BJ13" s="1">
         <v>0</v>
@@ -7005,7 +7005,7 @@
         <v>56</v>
       </c>
       <c r="CW13" s="1">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:101">
@@ -7262,7 +7262,7 @@
         <v>-1</v>
       </c>
       <c r="CJ14" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CK14" s="2">
         <v>9</v>
@@ -7298,7 +7298,7 @@
         <v>57</v>
       </c>
       <c r="CV14" s="1">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="CW14" s="1">
         <v>211</v>
@@ -7417,28 +7417,28 @@
         <v>0</v>
       </c>
       <c r="AL15" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AQ15" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR15" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS15" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -7552,28 +7552,28 @@
         <v>0</v>
       </c>
       <c r="CH15" s="1">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="CI15" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CJ15" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CK15" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CL15" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CM15" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CN15" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CO15" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CP15" s="1">
         <v>0</v>
@@ -7588,16 +7588,16 @@
         <v>0</v>
       </c>
       <c r="CT15" s="1">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="CU15" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="CV15" s="1">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="CW15" s="1">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:101">
@@ -8502,7 +8502,7 @@
         <v>65</v>
       </c>
       <c r="E19" s="2">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -8526,7 +8526,7 @@
         <v>25</v>
       </c>
       <c r="M19" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="N19" s="1">
         <v>11143</v>
@@ -8781,7 +8781,7 @@
         <v>307</v>
       </c>
       <c r="CW19" s="1">
-        <v>598</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:101">
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="AR22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS22" s="2">
         <v>5</v>
@@ -9630,7 +9630,7 @@
         <v>0</v>
       </c>
       <c r="CJ22" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="CK22" s="2">
         <v>8</v>
@@ -9666,7 +9666,7 @@
         <v>4</v>
       </c>
       <c r="CV22" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="CW22" s="1">
         <v>41</v>
@@ -12117,16 +12117,16 @@
         <v>0</v>
       </c>
       <c r="Z31" s="1">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AA31" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB31" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC31" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AD31" s="1">
         <v>49</v>
@@ -12162,7 +12162,7 @@
         <v>2</v>
       </c>
       <c r="AO31" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP31" s="1">
         <v>35</v>
@@ -12297,7 +12297,7 @@
         <v>13</v>
       </c>
       <c r="CK31" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="CL31" s="1">
         <v>23</v>
@@ -12324,16 +12324,16 @@
         <v>0</v>
       </c>
       <c r="CT31" s="1">
-        <v>9417</v>
+        <v>9423</v>
       </c>
       <c r="CU31" s="1">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="CV31" s="1">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="CW31" s="1">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="32" spans="1:101">
@@ -12347,7 +12347,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2">
         <v>8</v>
@@ -12626,7 +12626,7 @@
         <v>0</v>
       </c>
       <c r="CV32" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CW32" s="1">
         <v>9</v>
@@ -13851,7 +13851,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M37" s="2">
         <v>18</v>
@@ -14106,7 +14106,7 @@
         <v>24</v>
       </c>
       <c r="CV37" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="CW37" s="1">
         <v>59</v>
@@ -14369,7 +14369,7 @@
         <v>35</v>
       </c>
       <c r="CK38" s="2">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="CL38" s="1">
         <v>2</v>
@@ -14405,7 +14405,7 @@
         <v>44</v>
       </c>
       <c r="CW38" s="1">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:101">
@@ -14686,7 +14686,7 @@
         <v>0</v>
       </c>
       <c r="CR39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS39" s="2">
         <v>1</v>
@@ -14698,7 +14698,7 @@
         <v>593</v>
       </c>
       <c r="CV39" s="1">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="CW39" s="1">
         <v>1862</v>
@@ -15717,16 +15717,16 @@
         <v>0</v>
       </c>
       <c r="AP43" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ43" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR43" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS43" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT43" s="1">
         <v>29</v>
@@ -15840,16 +15840,16 @@
         <v>1</v>
       </c>
       <c r="CH43" s="1">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="CI43" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CJ43" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CK43" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CL43" s="1">
         <v>32</v>
@@ -15876,16 +15876,16 @@
         <v>0</v>
       </c>
       <c r="CT43" s="1">
-        <v>43914</v>
+        <v>43917</v>
       </c>
       <c r="CU43" s="1">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="CV43" s="1">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="CW43" s="1">
-        <v>3112</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="44" spans="1:101">
@@ -17777,16 +17777,16 @@
         <v>0</v>
       </c>
       <c r="AL50" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AM50" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN50" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO50" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AP50" s="1">
         <v>0</v>
@@ -17948,16 +17948,16 @@
         <v>0</v>
       </c>
       <c r="CT50" s="1">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="CU50" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CV50" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="CW50" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:101">
@@ -20366,7 +20366,7 @@
         <v>71</v>
       </c>
       <c r="M59" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="N59" s="1">
         <v>42074</v>
@@ -20621,7 +20621,7 @@
         <v>2462</v>
       </c>
       <c r="CW59" s="1">
-        <v>3200</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="60" spans="1:101">
@@ -21054,7 +21054,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -21177,7 +21177,7 @@
         <v>54</v>
       </c>
       <c r="CK61" s="2">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="CL61" s="1">
         <v>22</v>
@@ -21213,7 +21213,7 @@
         <v>114</v>
       </c>
       <c r="CW61" s="1">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:101">
@@ -21254,7 +21254,7 @@
         <v>15</v>
       </c>
       <c r="M62" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N62" s="1">
         <v>3647</v>
@@ -21509,7 +21509,7 @@
         <v>76</v>
       </c>
       <c r="CW62" s="1">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63" spans="1:101">
@@ -22648,16 +22648,16 @@
         <v>0</v>
       </c>
       <c r="CH66" s="1">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="CI66" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CJ66" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="CK66" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="CL66" s="1">
         <v>26</v>
@@ -22684,16 +22684,16 @@
         <v>0</v>
       </c>
       <c r="CT66" s="1">
-        <v>1878</v>
+        <v>1882</v>
       </c>
       <c r="CU66" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CV66" s="1">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="CW66" s="1">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:101">
@@ -23030,19 +23030,19 @@
         <v>3</v>
       </c>
       <c r="M68" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N68" s="1">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="O68" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P68" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q68" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R68" s="1">
         <v>0</v>
@@ -23117,13 +23117,13 @@
         <v>1</v>
       </c>
       <c r="AP68" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AQ68" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR68" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS68" s="2">
         <v>5</v>
@@ -23249,43 +23249,43 @@
         <v>2</v>
       </c>
       <c r="CK68" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CL68" s="1">
+        <v>35</v>
+      </c>
+      <c r="CM68" s="2">
+        <v>1</v>
+      </c>
+      <c r="CN68" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO68" s="2">
+        <v>5</v>
+      </c>
+      <c r="CP68" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ68" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR68" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS68" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT68" s="1">
+        <v>2055</v>
+      </c>
+      <c r="CU68" s="1">
+        <v>25</v>
+      </c>
+      <c r="CV68" s="1">
         <v>34</v>
       </c>
-      <c r="CM68" s="2">
-        <v>0</v>
-      </c>
-      <c r="CN68" s="2">
-        <v>2</v>
-      </c>
-      <c r="CO68" s="2">
-        <v>4</v>
-      </c>
-      <c r="CP68" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ68" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR68" s="2">
-        <v>0</v>
-      </c>
-      <c r="CS68" s="2">
-        <v>0</v>
-      </c>
-      <c r="CT68" s="1">
-        <v>2054</v>
-      </c>
-      <c r="CU68" s="1">
-        <v>24</v>
-      </c>
-      <c r="CV68" s="1">
-        <v>33</v>
-      </c>
       <c r="CW68" s="1">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:101">
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="AR70" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS70" s="2">
         <v>3</v>
@@ -23838,7 +23838,7 @@
         <v>0</v>
       </c>
       <c r="CJ70" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CK70" s="2">
         <v>4</v>
@@ -23874,7 +23874,7 @@
         <v>11</v>
       </c>
       <c r="CV70" s="1">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="CW70" s="1">
         <v>110</v>
@@ -24187,7 +24187,7 @@
         <v>88</v>
       </c>
       <c r="D72" s="2">
-        <v>276</v>
+        <v>169</v>
       </c>
       <c r="E72" s="2">
         <v>480</v>
@@ -24211,7 +24211,7 @@
         <v>83</v>
       </c>
       <c r="L72" s="2">
-        <v>218</v>
+        <v>148</v>
       </c>
       <c r="M72" s="2">
         <v>351</v>
@@ -24298,7 +24298,7 @@
         <v>184</v>
       </c>
       <c r="AO72" s="2">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="AP72" s="1">
         <v>0</v>
@@ -24424,16 +24424,16 @@
         <v>1</v>
       </c>
       <c r="CH72" s="1">
-        <v>15153</v>
+        <v>15159</v>
       </c>
       <c r="CI72" s="2">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="CJ72" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="CK72" s="2">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="CL72" s="1">
         <v>0</v>
@@ -24460,16 +24460,16 @@
         <v>1</v>
       </c>
       <c r="CT72" s="1">
-        <v>156847</v>
+        <v>156853</v>
       </c>
       <c r="CU72" s="1">
-        <v>1490</v>
+        <v>1496</v>
       </c>
       <c r="CV72" s="1">
-        <v>2829</v>
+        <v>2643</v>
       </c>
       <c r="CW72" s="1">
-        <v>5896</v>
+        <v>5841</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -24591,7 +24591,7 @@
         <v>1</v>
       </c>
       <c r="AN73" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AO73" s="2">
         <v>11</v>
@@ -24726,7 +24726,7 @@
         <v>3</v>
       </c>
       <c r="CJ73" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CK73" s="2">
         <v>12</v>
@@ -24762,7 +24762,7 @@
         <v>4</v>
       </c>
       <c r="CV73" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="CW73" s="1">
         <v>31</v>
@@ -24806,7 +24806,7 @@
         <v>200</v>
       </c>
       <c r="M74" s="2">
-        <v>403</v>
+        <v>318</v>
       </c>
       <c r="N74" s="1">
         <v>107722</v>
@@ -25061,7 +25061,7 @@
         <v>3417</v>
       </c>
       <c r="CW74" s="1">
-        <v>7316</v>
+        <v>7231</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25216,7 +25216,7 @@
         <v>1</v>
       </c>
       <c r="AY75" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ75" s="2">
         <v>1</v>
@@ -25321,7 +25321,7 @@
         <v>204</v>
       </c>
       <c r="CK75" s="2">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="CL75" s="1">
         <v>97</v>
@@ -25333,7 +25333,7 @@
         <v>4</v>
       </c>
       <c r="CO75" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CP75" s="1">
         <v>12</v>
@@ -25351,13 +25351,13 @@
         <v>345750</v>
       </c>
       <c r="CU75" s="1">
-        <v>4534</v>
+        <v>4533</v>
       </c>
       <c r="CV75" s="1">
         <v>5042</v>
       </c>
       <c r="CW75" s="1">
-        <v>11101</v>
+        <v>11080</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -25775,7 +25775,7 @@
         <v>20</v>
       </c>
       <c r="AN77" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="AO77" s="2">
         <v>113</v>
@@ -25910,7 +25910,7 @@
         <v>30</v>
       </c>
       <c r="CJ77" s="2">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="CK77" s="2">
         <v>137</v>
@@ -25946,7 +25946,7 @@
         <v>50</v>
       </c>
       <c r="CV77" s="1">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="CW77" s="1">
         <v>255</v>
@@ -26065,16 +26065,16 @@
         <v>0</v>
       </c>
       <c r="AL78" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM78" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN78" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO78" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP78" s="1">
         <v>48</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="AR78" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS78" s="2">
         <v>3</v>
@@ -26206,22 +26206,22 @@
         <v>3</v>
       </c>
       <c r="CJ78" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CK78" s="2">
         <v>6</v>
       </c>
       <c r="CL78" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CM78" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN78" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO78" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CP78" s="1">
         <v>0</v>
@@ -26236,16 +26236,16 @@
         <v>0</v>
       </c>
       <c r="CT78" s="1">
-        <v>5289</v>
+        <v>5291</v>
       </c>
       <c r="CU78" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="CV78" s="1">
         <v>127</v>
       </c>
       <c r="CW78" s="1">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:101">
@@ -26582,7 +26582,7 @@
         <v>360</v>
       </c>
       <c r="M80" s="2">
-        <v>643</v>
+        <v>556</v>
       </c>
       <c r="N80" s="1">
         <v>37304</v>
@@ -26591,7 +26591,7 @@
         <v>430</v>
       </c>
       <c r="P80" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q80" s="2">
         <v>901</v>
@@ -26666,7 +26666,7 @@
         <v>3</v>
       </c>
       <c r="AO80" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AP80" s="1">
         <v>0</v>
@@ -26801,7 +26801,7 @@
         <v>255</v>
       </c>
       <c r="CK80" s="2">
-        <v>467</v>
+        <v>378</v>
       </c>
       <c r="CL80" s="1">
         <v>0</v>
@@ -26834,10 +26834,10 @@
         <v>2282</v>
       </c>
       <c r="CV80" s="1">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="CW80" s="1">
-        <v>33071</v>
+        <v>32890</v>
       </c>
     </row>
     <row r="81" spans="1:101">
@@ -27162,7 +27162,7 @@
         <v>2</v>
       </c>
       <c r="I82" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J82" s="1">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>13</v>
       </c>
       <c r="CJ82" s="2">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="CK82" s="2">
         <v>69</v>
@@ -27426,10 +27426,10 @@
         <v>23</v>
       </c>
       <c r="CV82" s="1">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="CW82" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:101">
@@ -27473,16 +27473,16 @@
         <v>4</v>
       </c>
       <c r="N83" s="1">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="O83" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P83" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q83" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R83" s="1">
         <v>0</v>
@@ -27545,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="AL83" s="1">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM83" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN83" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO83" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP83" s="1">
         <v>45</v>
@@ -27680,16 +27680,16 @@
         <v>1</v>
       </c>
       <c r="CH83" s="1">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="CI83" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CJ83" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="CK83" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="CL83" s="1">
         <v>35</v>
@@ -27716,16 +27716,16 @@
         <v>0</v>
       </c>
       <c r="CT83" s="1">
-        <v>2562</v>
+        <v>2571</v>
       </c>
       <c r="CU83" s="1">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="CV83" s="1">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="CW83" s="1">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:101">
@@ -27850,7 +27850,7 @@
         <v>34</v>
       </c>
       <c r="AO84" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP84" s="1">
         <v>24</v>
@@ -27985,7 +27985,7 @@
         <v>216</v>
       </c>
       <c r="CK84" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="CL84" s="1">
         <v>15</v>
@@ -28021,7 +28021,7 @@
         <v>251</v>
       </c>
       <c r="CW84" s="1">
-        <v>480</v>
+        <v>491</v>
       </c>
     </row>
     <row r="85" spans="1:101">
@@ -28926,7 +28926,7 @@
         <v>149</v>
       </c>
       <c r="E88" s="2">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="F88" s="1">
         <v>2</v>
@@ -28950,7 +28950,7 @@
         <v>185</v>
       </c>
       <c r="M88" s="2">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="N88" s="1">
         <v>4215</v>
@@ -29205,7 +29205,7 @@
         <v>447</v>
       </c>
       <c r="CW88" s="1">
-        <v>862</v>
+        <v>762</v>
       </c>
     </row>
     <row r="89" spans="1:101">
@@ -29231,7 +29231,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" s="2">
         <v>3</v>
@@ -29243,7 +29243,7 @@
         <v>1</v>
       </c>
       <c r="L89" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M89" s="2">
         <v>13</v>
@@ -29498,7 +29498,7 @@
         <v>49</v>
       </c>
       <c r="CV89" s="1">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="CW89" s="1">
         <v>125</v>
@@ -32287,7 +32287,7 @@
         <v>2</v>
       </c>
       <c r="AN99" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AO99" s="2">
         <v>10</v>
@@ -32422,7 +32422,7 @@
         <v>33</v>
       </c>
       <c r="CJ99" s="2">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="CK99" s="2">
         <v>132</v>
@@ -32458,7 +32458,7 @@
         <v>494</v>
       </c>
       <c r="CV99" s="1">
-        <v>1060</v>
+        <v>1036</v>
       </c>
       <c r="CW99" s="1">
         <v>1834</v>
@@ -33366,7 +33366,7 @@
         <v>109</v>
       </c>
       <c r="E103" s="2">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="F103" s="1">
         <v>0</v>
@@ -33390,19 +33390,19 @@
         <v>533</v>
       </c>
       <c r="M103" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="N103" s="1">
-        <v>19756</v>
+        <v>19737</v>
       </c>
       <c r="O103" s="2">
-        <v>4758</v>
+        <v>4739</v>
       </c>
       <c r="P103" s="2">
-        <v>8801</v>
+        <v>8782</v>
       </c>
       <c r="Q103" s="2">
-        <v>8801</v>
+        <v>8782</v>
       </c>
       <c r="R103" s="1">
         <v>0</v>
@@ -33447,7 +33447,7 @@
         <v>1805</v>
       </c>
       <c r="AF103" s="2">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="AG103" s="2">
         <v>3104</v>
@@ -33474,7 +33474,7 @@
         <v>1</v>
       </c>
       <c r="AO103" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AP103" s="1">
         <v>7</v>
@@ -33609,7 +33609,7 @@
         <v>196</v>
       </c>
       <c r="CK103" s="2">
-        <v>343</v>
+        <v>278</v>
       </c>
       <c r="CL103" s="1">
         <v>0</v>
@@ -33636,16 +33636,16 @@
         <v>0</v>
       </c>
       <c r="CT103" s="1">
-        <v>83172</v>
+        <v>83153</v>
       </c>
       <c r="CU103" s="1">
-        <v>6832</v>
+        <v>6813</v>
       </c>
       <c r="CV103" s="1">
-        <v>11487</v>
+        <v>11470</v>
       </c>
       <c r="CW103" s="1">
-        <v>13567</v>
+        <v>13421</v>
       </c>
     </row>
     <row r="104" spans="1:101">
@@ -34574,7 +34574,7 @@
         <v>145</v>
       </c>
       <c r="M107" s="2">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="N107" s="1">
         <v>1099</v>
@@ -34829,7 +34829,7 @@
         <v>437</v>
       </c>
       <c r="CW107" s="1">
-        <v>736</v>
+        <v>700</v>
       </c>
     </row>
     <row r="108" spans="1:101">
@@ -35139,7 +35139,7 @@
         <v>8</v>
       </c>
       <c r="D109" s="2">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E109" s="2">
         <v>33</v>
@@ -35166,7 +35166,7 @@
         <v>32</v>
       </c>
       <c r="M109" s="2">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="N109" s="1">
         <v>4185</v>
@@ -35418,10 +35418,10 @@
         <v>15</v>
       </c>
       <c r="CV109" s="1">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="CW109" s="1">
-        <v>636</v>
+        <v>625</v>
       </c>
     </row>
     <row r="110" spans="1:101">
@@ -35546,7 +35546,7 @@
         <v>5</v>
       </c>
       <c r="AO110" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP110" s="1">
         <v>0</v>
@@ -35681,7 +35681,7 @@
         <v>76</v>
       </c>
       <c r="CK110" s="2">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="CL110" s="1">
         <v>1</v>
@@ -35717,7 +35717,7 @@
         <v>5264</v>
       </c>
       <c r="CW110" s="1">
-        <v>10623</v>
+        <v>10614</v>
       </c>
     </row>
     <row r="111" spans="1:101">
@@ -36341,16 +36341,16 @@
         <v>0</v>
       </c>
       <c r="J113" s="1">
-        <v>4117</v>
+        <v>4166</v>
       </c>
       <c r="K113" s="2">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="L113" s="2">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="M113" s="2">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="N113" s="1">
         <v>3882</v>
@@ -36434,7 +36434,7 @@
         <v>11</v>
       </c>
       <c r="AO113" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AP113" s="1">
         <v>26</v>
@@ -36569,7 +36569,7 @@
         <v>49</v>
       </c>
       <c r="CK113" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="CL113" s="1">
         <v>11</v>
@@ -36596,16 +36596,16 @@
         <v>0</v>
       </c>
       <c r="CT113" s="1">
-        <v>18399</v>
+        <v>18448</v>
       </c>
       <c r="CU113" s="1">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="CV113" s="1">
-        <v>519</v>
+        <v>568</v>
       </c>
       <c r="CW113" s="1">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="114" spans="1:101">
@@ -36658,7 +36658,7 @@
         <v>67</v>
       </c>
       <c r="Q114" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="R114" s="1">
         <v>0</v>
@@ -36742,7 +36742,7 @@
         <v>3</v>
       </c>
       <c r="AS114" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT114" s="1">
         <v>0</v>
@@ -36865,7 +36865,7 @@
         <v>9</v>
       </c>
       <c r="CK114" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CL114" s="1">
         <v>24</v>
@@ -36901,7 +36901,7 @@
         <v>480</v>
       </c>
       <c r="CW114" s="1">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="115" spans="1:101">
@@ -39579,7 +39579,7 @@
         <v>0</v>
       </c>
       <c r="D124" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" s="2">
         <v>1</v>
@@ -39858,7 +39858,7 @@
         <v>1</v>
       </c>
       <c r="CV124" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CW124" s="1">
         <v>6</v>
@@ -41941,16 +41941,16 @@
         <v>231</v>
       </c>
       <c r="B132" s="1">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C132" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F132" s="1">
         <v>0</v>
@@ -41974,7 +41974,7 @@
         <v>4</v>
       </c>
       <c r="M132" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N132" s="1">
         <v>45112</v>
@@ -42220,16 +42220,16 @@
         <v>0</v>
       </c>
       <c r="CT132" s="1">
-        <v>117979</v>
+        <v>117980</v>
       </c>
       <c r="CU132" s="1">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="CV132" s="1">
-        <v>2678</v>
+        <v>2679</v>
       </c>
       <c r="CW132" s="1">
-        <v>5225</v>
+        <v>5224</v>
       </c>
     </row>
     <row r="133" spans="1:101">
@@ -42270,7 +42270,7 @@
         <v>257</v>
       </c>
       <c r="M133" s="2">
-        <v>472</v>
+        <v>395</v>
       </c>
       <c r="N133" s="1">
         <v>29067</v>
@@ -42354,7 +42354,7 @@
         <v>7</v>
       </c>
       <c r="AO133" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AP133" s="1">
         <v>23</v>
@@ -42489,7 +42489,7 @@
         <v>49</v>
       </c>
       <c r="CK133" s="2">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="CL133" s="1">
         <v>13</v>
@@ -42525,7 +42525,7 @@
         <v>1433</v>
       </c>
       <c r="CW133" s="1">
-        <v>2598</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="134" spans="1:101">
@@ -42566,7 +42566,7 @@
         <v>6</v>
       </c>
       <c r="M134" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N134" s="1">
         <v>1283</v>
@@ -42782,7 +42782,7 @@
         <v>2</v>
       </c>
       <c r="CJ134" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="CK134" s="2">
         <v>18</v>
@@ -42818,10 +42818,10 @@
         <v>3904</v>
       </c>
       <c r="CV134" s="1">
-        <v>3924</v>
+        <v>3920</v>
       </c>
       <c r="CW134" s="1">
-        <v>9801</v>
+        <v>9798</v>
       </c>
     </row>
     <row r="135" spans="1:101">
@@ -43233,16 +43233,16 @@
         <v>0</v>
       </c>
       <c r="AL136" s="1">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AM136" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AN136" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO136" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AP136" s="1">
         <v>14</v>
@@ -43272,7 +43272,7 @@
         <v>129</v>
       </c>
       <c r="AY136" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ136" s="2">
         <v>10</v>
@@ -43368,16 +43368,16 @@
         <v>0</v>
       </c>
       <c r="CH136" s="1">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="CI136" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CJ136" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CK136" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CL136" s="1">
         <v>2</v>
@@ -43404,16 +43404,16 @@
         <v>0</v>
       </c>
       <c r="CT136" s="1">
-        <v>3657</v>
+        <v>3662</v>
       </c>
       <c r="CU136" s="1">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="CV136" s="1">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="CW136" s="1">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="137" spans="1:101">
@@ -46507,7 +46507,7 @@
         <v>3</v>
       </c>
       <c r="AR147" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS147" s="2">
         <v>8</v>
@@ -46666,7 +46666,7 @@
         <v>27</v>
       </c>
       <c r="CV147" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="CW147" s="1">
         <v>53</v>
@@ -47521,7 +47521,7 @@
         <v>11</v>
       </c>
       <c r="CK150" s="2">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="CL150" s="1">
         <v>9</v>
@@ -47557,7 +47557,7 @@
         <v>94</v>
       </c>
       <c r="CW150" s="1">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="151" spans="1:101">
@@ -48187,7 +48187,7 @@
         <v>10</v>
       </c>
       <c r="L153" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M153" s="2">
         <v>44</v>
@@ -48442,7 +48442,7 @@
         <v>24</v>
       </c>
       <c r="CV153" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="CW153" s="1">
         <v>101</v>
@@ -48462,7 +48462,7 @@
         <v>38</v>
       </c>
       <c r="E154" s="2">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F154" s="1">
         <v>0</v>
@@ -48741,7 +48741,7 @@
         <v>1016</v>
       </c>
       <c r="CW154" s="1">
-        <v>2100</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="155" spans="1:101">
@@ -49649,283 +49649,283 @@
         <v>4</v>
       </c>
       <c r="F158" s="1">
+        <v>7</v>
+      </c>
+      <c r="G158" s="2">
+        <v>2</v>
+      </c>
+      <c r="H158" s="2">
         <v>5</v>
       </c>
-      <c r="G158" s="2">
-        <v>0</v>
-      </c>
-      <c r="H158" s="2">
-        <v>3</v>
-      </c>
       <c r="I158" s="2">
+        <v>7</v>
+      </c>
+      <c r="J158" s="1">
+        <v>0</v>
+      </c>
+      <c r="K158" s="2">
+        <v>0</v>
+      </c>
+      <c r="L158" s="2">
+        <v>0</v>
+      </c>
+      <c r="M158" s="2">
+        <v>0</v>
+      </c>
+      <c r="N158" s="1">
+        <v>0</v>
+      </c>
+      <c r="O158" s="2">
+        <v>0</v>
+      </c>
+      <c r="P158" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q158" s="2">
+        <v>0</v>
+      </c>
+      <c r="R158" s="1">
+        <v>0</v>
+      </c>
+      <c r="S158" s="2">
+        <v>0</v>
+      </c>
+      <c r="T158" s="2">
+        <v>0</v>
+      </c>
+      <c r="U158" s="2">
+        <v>0</v>
+      </c>
+      <c r="V158" s="1">
+        <v>0</v>
+      </c>
+      <c r="W158" s="2">
+        <v>0</v>
+      </c>
+      <c r="X158" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y158" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z158" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD158" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH158" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL158" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP158" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT158" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX158" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ158" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA158" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB158" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC158" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD158" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE158" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF158" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG158" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH158" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI158" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ158" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN158" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO158" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP158" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ158" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR158" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS158" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT158" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU158" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV158" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW158" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX158" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY158" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ158" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA158" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB158" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC158" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD158" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE158" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF158" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG158" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH158" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI158" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ158" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK158" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL158" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM158" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN158" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO158" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP158" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ158" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR158" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS158" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT158" s="1">
+        <v>31</v>
+      </c>
+      <c r="CU158" s="1">
+        <v>2</v>
+      </c>
+      <c r="CV158" s="1">
         <v>5</v>
       </c>
-      <c r="J158" s="1">
-        <v>0</v>
-      </c>
-      <c r="K158" s="2">
-        <v>0</v>
-      </c>
-      <c r="L158" s="2">
-        <v>0</v>
-      </c>
-      <c r="M158" s="2">
-        <v>0</v>
-      </c>
-      <c r="N158" s="1">
-        <v>0</v>
-      </c>
-      <c r="O158" s="2">
-        <v>0</v>
-      </c>
-      <c r="P158" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q158" s="2">
-        <v>0</v>
-      </c>
-      <c r="R158" s="1">
-        <v>0</v>
-      </c>
-      <c r="S158" s="2">
-        <v>0</v>
-      </c>
-      <c r="T158" s="2">
-        <v>0</v>
-      </c>
-      <c r="U158" s="2">
-        <v>0</v>
-      </c>
-      <c r="V158" s="1">
-        <v>0</v>
-      </c>
-      <c r="W158" s="2">
-        <v>0</v>
-      </c>
-      <c r="X158" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y158" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z158" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA158" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB158" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC158" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD158" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE158" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF158" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG158" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH158" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI158" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ158" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK158" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL158" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM158" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN158" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO158" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP158" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ158" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR158" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS158" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT158" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU158" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV158" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW158" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX158" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY158" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ158" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA158" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB158" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC158" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD158" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE158" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF158" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG158" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH158" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI158" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ158" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN158" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO158" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP158" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ158" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR158" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS158" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT158" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU158" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV158" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW158" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX158" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY158" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ158" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA158" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB158" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC158" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD158" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE158" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF158" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG158" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH158" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI158" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ158" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK158" s="2">
-        <v>0</v>
-      </c>
-      <c r="CL158" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM158" s="2">
-        <v>0</v>
-      </c>
-      <c r="CN158" s="2">
-        <v>0</v>
-      </c>
-      <c r="CO158" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP158" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ158" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR158" s="2">
-        <v>0</v>
-      </c>
-      <c r="CS158" s="2">
-        <v>0</v>
-      </c>
-      <c r="CT158" s="1">
-        <v>29</v>
-      </c>
-      <c r="CU158" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV158" s="1">
-        <v>3</v>
-      </c>
       <c r="CW158" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:101">
@@ -49966,7 +49966,7 @@
         <v>116</v>
       </c>
       <c r="M159" s="2">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="N159" s="1">
         <v>8663</v>
@@ -50047,7 +50047,7 @@
         <v>1</v>
       </c>
       <c r="AN159" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO159" s="2">
         <v>6</v>
@@ -50182,7 +50182,7 @@
         <v>10</v>
       </c>
       <c r="CJ159" s="2">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="CK159" s="2">
         <v>63</v>
@@ -50218,10 +50218,10 @@
         <v>518</v>
       </c>
       <c r="CV159" s="1">
-        <v>668</v>
+        <v>650</v>
       </c>
       <c r="CW159" s="1">
-        <v>1133</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="160" spans="1:101">
@@ -51162,7 +51162,7 @@
         <v>0</v>
       </c>
       <c r="Q163" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="R163" s="1">
         <v>1</v>
@@ -51234,7 +51234,7 @@
         <v>2</v>
       </c>
       <c r="AO163" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AP163" s="1">
         <v>9</v>
@@ -51405,7 +51405,7 @@
         <v>28</v>
       </c>
       <c r="CW163" s="1">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="164" spans="1:101">
@@ -52325,16 +52325,16 @@
         <v>2</v>
       </c>
       <c r="J167" s="1">
-        <v>906</v>
+        <v>926</v>
       </c>
       <c r="K167" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L167" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="M167" s="2">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="N167" s="1">
         <v>320</v>
@@ -52580,16 +52580,16 @@
         <v>0</v>
       </c>
       <c r="CT167" s="1">
-        <v>4549</v>
+        <v>4569</v>
       </c>
       <c r="CU167" s="1">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="CV167" s="1">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="CW167" s="1">
-        <v>313</v>
+        <v>333</v>
       </c>
     </row>
     <row r="168" spans="1:101">
@@ -55294,7 +55294,7 @@
         <v>61</v>
       </c>
       <c r="M177" s="2">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="N177" s="1">
         <v>61850</v>
@@ -55378,7 +55378,7 @@
         <v>8</v>
       </c>
       <c r="AO177" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AP177" s="1">
         <v>30</v>
@@ -55513,7 +55513,7 @@
         <v>82</v>
       </c>
       <c r="CK177" s="2">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="CL177" s="1">
         <v>7</v>
@@ -55549,7 +55549,7 @@
         <v>2773</v>
       </c>
       <c r="CW177" s="1">
-        <v>4630</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="178" spans="1:101">
@@ -56003,7 +56003,7 @@
         <v>0</v>
       </c>
       <c r="AZ179" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA179" s="2">
         <v>13</v>
@@ -56138,7 +56138,7 @@
         <v>1229</v>
       </c>
       <c r="CV179" s="1">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="CW179" s="1">
         <v>2866</v>
@@ -57354,7 +57354,7 @@
         <v>3</v>
       </c>
       <c r="I184" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J184" s="1">
         <v>0</v>
@@ -57450,7 +57450,7 @@
         <v>0</v>
       </c>
       <c r="AO184" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP184" s="1">
         <v>3</v>
@@ -57462,7 +57462,7 @@
         <v>0</v>
       </c>
       <c r="AS184" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT184" s="1">
         <v>0</v>
@@ -57582,7 +57582,7 @@
         <v>0</v>
       </c>
       <c r="CJ184" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CK184" s="2">
         <v>2</v>
@@ -57618,10 +57618,10 @@
         <v>1</v>
       </c>
       <c r="CV184" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CW184" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:101">
@@ -60246,7 +60246,7 @@
         <v>7</v>
       </c>
       <c r="CJ193" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="CK193" s="2">
         <v>15</v>
@@ -60282,7 +60282,7 @@
         <v>3832</v>
       </c>
       <c r="CV193" s="1">
-        <v>3866</v>
+        <v>3863</v>
       </c>
       <c r="CW193" s="1">
         <v>4892</v>
@@ -60335,7 +60335,7 @@
         <v>242</v>
       </c>
       <c r="P194" s="2">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="Q194" s="2">
         <v>713</v>
@@ -60578,7 +60578,7 @@
         <v>259</v>
       </c>
       <c r="CV194" s="1">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="CW194" s="1">
         <v>835</v>
@@ -61866,7 +61866,7 @@
         <v>2952</v>
       </c>
       <c r="AG199" s="2">
-        <v>5548</v>
+        <v>5545</v>
       </c>
       <c r="AH199" s="1">
         <v>0</v>
@@ -61890,7 +61890,7 @@
         <v>8</v>
       </c>
       <c r="AO199" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AP199" s="1">
         <v>20</v>
@@ -62025,7 +62025,7 @@
         <v>66</v>
       </c>
       <c r="CK199" s="2">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="CL199" s="1">
         <v>5</v>
@@ -62061,7 +62061,7 @@
         <v>3780</v>
       </c>
       <c r="CW199" s="1">
-        <v>6941</v>
+        <v>6914</v>
       </c>
     </row>
     <row r="200" spans="1:101">
@@ -67488,7 +67488,7 @@
         <v>594</v>
       </c>
       <c r="D78">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E78" t="s">
         <v>709</v>
@@ -67528,7 +67528,7 @@
         <v>541</v>
       </c>
       <c r="D80">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E80" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3494,7 +3494,7 @@
         <v>160</v>
       </c>
       <c r="M2" s="2">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="N2" s="1">
         <v>16988</v>
@@ -3749,7 +3749,7 @@
         <v>1295</v>
       </c>
       <c r="CW2" s="1">
-        <v>2771</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="3" spans="1:101">
@@ -4086,7 +4086,7 @@
         <v>56</v>
       </c>
       <c r="M4" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="N4" s="1">
         <v>2857</v>
@@ -4341,7 +4341,7 @@
         <v>139</v>
       </c>
       <c r="CW4" s="1">
-        <v>588</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
         <v>5</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="CV7" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CW7" s="1">
         <v>6</v>
@@ -6439,7 +6439,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" s="2">
         <v>5</v>
@@ -6706,7 +6706,7 @@
         <v>1</v>
       </c>
       <c r="CV12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CW12" s="1">
         <v>6</v>
@@ -7256,16 +7256,16 @@
         <v>0</v>
       </c>
       <c r="CH14" s="1">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="CI14" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="CJ14" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CK14" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CL14" s="1">
         <v>2</v>
@@ -7292,16 +7292,16 @@
         <v>0</v>
       </c>
       <c r="CT14" s="1">
-        <v>2990</v>
+        <v>2992</v>
       </c>
       <c r="CU14" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="CV14" s="1">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="CW14" s="1">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:101">
@@ -8733,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="CG19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH19" s="1">
         <v>864</v>
@@ -8781,7 +8781,7 @@
         <v>307</v>
       </c>
       <c r="CW19" s="1">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:101">
@@ -8798,7 +8798,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F20" s="1">
         <v>10</v>
@@ -9077,7 +9077,7 @@
         <v>32</v>
       </c>
       <c r="CW20" s="1">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:101">
@@ -10894,7 +10894,7 @@
         <v>24</v>
       </c>
       <c r="M27" s="2">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N27" s="1">
         <v>1968</v>
@@ -11149,7 +11149,7 @@
         <v>217</v>
       </c>
       <c r="CW27" s="1">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:101">
@@ -11863,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="AN30" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AO30" s="2">
         <v>22</v>
@@ -12034,7 +12034,7 @@
         <v>18</v>
       </c>
       <c r="CV30" s="1">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="CW30" s="1">
         <v>343</v>
@@ -12051,7 +12051,7 @@
         <v>14</v>
       </c>
       <c r="D31" s="2">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E31" s="2">
         <v>68</v>
@@ -12330,7 +12330,7 @@
         <v>271</v>
       </c>
       <c r="CV31" s="1">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="CW31" s="1">
         <v>538</v>
@@ -12646,7 +12646,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="1">
         <v>50</v>
@@ -12658,7 +12658,7 @@
         <v>5</v>
       </c>
       <c r="I33" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J33" s="1">
         <v>378</v>
@@ -12763,7 +12763,7 @@
         <v>0</v>
       </c>
       <c r="AR33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS33" s="2">
         <v>2</v>
@@ -12886,7 +12886,7 @@
         <v>7</v>
       </c>
       <c r="CJ33" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="CK33" s="2">
         <v>25</v>
@@ -12922,10 +12922,10 @@
         <v>41</v>
       </c>
       <c r="CV33" s="1">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="CW33" s="1">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:101">
@@ -14446,7 +14446,7 @@
         <v>121</v>
       </c>
       <c r="M39" s="2">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="N39" s="1">
         <v>15005</v>
@@ -14521,16 +14521,16 @@
         <v>0</v>
       </c>
       <c r="AL39" s="1">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AM39" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN39" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO39" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP39" s="1">
         <v>27</v>
@@ -14656,16 +14656,16 @@
         <v>0</v>
       </c>
       <c r="CH39" s="1">
-        <v>2108</v>
+        <v>2129</v>
       </c>
       <c r="CI39" s="2">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="CJ39" s="2">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="CK39" s="2">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="CL39" s="1">
         <v>13</v>
@@ -14692,16 +14692,16 @@
         <v>1</v>
       </c>
       <c r="CT39" s="1">
-        <v>51914</v>
+        <v>51936</v>
       </c>
       <c r="CU39" s="1">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="CV39" s="1">
-        <v>1089</v>
+        <v>1111</v>
       </c>
       <c r="CW39" s="1">
-        <v>1862</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="40" spans="1:101">
@@ -15723,7 +15723,7 @@
         <v>2</v>
       </c>
       <c r="AR43" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS43" s="2">
         <v>6</v>
@@ -15738,7 +15738,7 @@
         <v>4</v>
       </c>
       <c r="AW43" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX43" s="1">
         <v>1</v>
@@ -15846,7 +15846,7 @@
         <v>9</v>
       </c>
       <c r="CJ43" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="CK43" s="2">
         <v>15</v>
@@ -15882,10 +15882,10 @@
         <v>2074</v>
       </c>
       <c r="CV43" s="1">
-        <v>2126</v>
+        <v>2123</v>
       </c>
       <c r="CW43" s="1">
-        <v>3115</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="44" spans="1:101">
@@ -19170,7 +19170,7 @@
         <v>2</v>
       </c>
       <c r="I55" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J55" s="1">
         <v>0</v>
@@ -19437,7 +19437,7 @@
         <v>2</v>
       </c>
       <c r="CW55" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:101">
@@ -19858,7 +19858,7 @@
         <v>1</v>
       </c>
       <c r="AO57" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP57" s="1">
         <v>56</v>
@@ -20029,7 +20029,7 @@
         <v>23</v>
       </c>
       <c r="CW57" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:101">
@@ -20037,16 +20037,16 @@
         <v>157</v>
       </c>
       <c r="B58" s="1">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C58" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D58" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E58" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F58" s="1">
         <v>4</v>
@@ -20316,16 +20316,16 @@
         <v>0</v>
       </c>
       <c r="CT58" s="1">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="CU58" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CV58" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CW58" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:101">
@@ -20441,16 +20441,16 @@
         <v>0</v>
       </c>
       <c r="AL59" s="1">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="AM59" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN59" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AO59" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AP59" s="1">
         <v>28</v>
@@ -20576,16 +20576,16 @@
         <v>1</v>
       </c>
       <c r="CH59" s="1">
-        <v>5008</v>
+        <v>5019</v>
       </c>
       <c r="CI59" s="2">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="CJ59" s="2">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="CK59" s="2">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="CL59" s="1">
         <v>7</v>
@@ -20612,16 +20612,16 @@
         <v>0</v>
       </c>
       <c r="CT59" s="1">
-        <v>61665</v>
+        <v>61679</v>
       </c>
       <c r="CU59" s="1">
-        <v>1664</v>
+        <v>1678</v>
       </c>
       <c r="CV59" s="1">
-        <v>2462</v>
+        <v>2476</v>
       </c>
       <c r="CW59" s="1">
-        <v>3183</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="60" spans="1:101">
@@ -20925,16 +20925,16 @@
         <v>160</v>
       </c>
       <c r="B61" s="1">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="C61" s="2">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E61" s="2">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F61" s="1">
         <v>2</v>
@@ -20949,16 +20949,16 @@
         <v>0</v>
       </c>
       <c r="J61" s="1">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K61" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L61" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M61" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N61" s="1">
         <v>908</v>
@@ -21204,16 +21204,16 @@
         <v>0</v>
       </c>
       <c r="CT61" s="1">
-        <v>2234</v>
+        <v>2251</v>
       </c>
       <c r="CU61" s="1">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="CV61" s="1">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="CW61" s="1">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:101">
@@ -21239,7 +21239,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" s="2">
         <v>3</v>
@@ -21506,7 +21506,7 @@
         <v>21</v>
       </c>
       <c r="CV62" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CW62" s="1">
         <v>247</v>
@@ -21634,7 +21634,7 @@
         <v>3</v>
       </c>
       <c r="AO63" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AP63" s="1">
         <v>47</v>
@@ -21643,7 +21643,7 @@
         <v>2</v>
       </c>
       <c r="AR63" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS63" s="2">
         <v>6</v>
@@ -21679,7 +21679,7 @@
         <v>0</v>
       </c>
       <c r="BD63" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE63" s="2">
         <v>4</v>
@@ -21766,10 +21766,10 @@
         <v>21</v>
       </c>
       <c r="CJ63" s="2">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="CK63" s="2">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="CL63" s="1">
         <v>22</v>
@@ -21778,7 +21778,7 @@
         <v>2</v>
       </c>
       <c r="CN63" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CO63" s="2">
         <v>4</v>
@@ -21802,10 +21802,10 @@
         <v>1176</v>
       </c>
       <c r="CV63" s="1">
-        <v>1295</v>
+        <v>1282</v>
       </c>
       <c r="CW63" s="1">
-        <v>2511</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="64" spans="1:101">
@@ -22423,7 +22423,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" s="2">
         <v>1</v>
@@ -22690,7 +22690,7 @@
         <v>5</v>
       </c>
       <c r="CV66" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="CW66" s="1">
         <v>95</v>
@@ -22713,283 +22713,283 @@
         <v>0</v>
       </c>
       <c r="F67" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G67" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H67" s="2">
+        <v>4</v>
+      </c>
+      <c r="I67" s="2">
+        <v>7</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2">
+        <v>0</v>
+      </c>
+      <c r="M67" s="2">
+        <v>0</v>
+      </c>
+      <c r="N67" s="1">
+        <v>0</v>
+      </c>
+      <c r="O67" s="2">
+        <v>0</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>0</v>
+      </c>
+      <c r="R67" s="1">
+        <v>0</v>
+      </c>
+      <c r="S67" s="2">
+        <v>0</v>
+      </c>
+      <c r="T67" s="2">
+        <v>0</v>
+      </c>
+      <c r="U67" s="2">
+        <v>0</v>
+      </c>
+      <c r="V67" s="1">
+        <v>0</v>
+      </c>
+      <c r="W67" s="2">
+        <v>0</v>
+      </c>
+      <c r="X67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB67" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF67" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ67" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN67" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR67" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV67" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ67" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD67" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH67" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL67" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP67" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT67" s="1">
+        <v>88</v>
+      </c>
+      <c r="CU67" s="1">
         <v>3</v>
       </c>
-      <c r="I67" s="2">
-        <v>6</v>
-      </c>
-      <c r="J67" s="1">
-        <v>0</v>
-      </c>
-      <c r="K67" s="2">
-        <v>0</v>
-      </c>
-      <c r="L67" s="2">
-        <v>0</v>
-      </c>
-      <c r="M67" s="2">
-        <v>0</v>
-      </c>
-      <c r="N67" s="1">
-        <v>0</v>
-      </c>
-      <c r="O67" s="2">
-        <v>0</v>
-      </c>
-      <c r="P67" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="2">
-        <v>0</v>
-      </c>
-      <c r="R67" s="1">
-        <v>0</v>
-      </c>
-      <c r="S67" s="2">
-        <v>0</v>
-      </c>
-      <c r="T67" s="2">
-        <v>0</v>
-      </c>
-      <c r="U67" s="2">
-        <v>0</v>
-      </c>
-      <c r="V67" s="1">
-        <v>0</v>
-      </c>
-      <c r="W67" s="2">
-        <v>0</v>
-      </c>
-      <c r="X67" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB67" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF67" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ67" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN67" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR67" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV67" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY67" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ67" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD67" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH67" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CL67" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CN67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CO67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP67" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CS67" s="2">
-        <v>0</v>
-      </c>
-      <c r="CT67" s="1">
-        <v>87</v>
-      </c>
-      <c r="CU67" s="1">
-        <v>2</v>
-      </c>
       <c r="CV67" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CW67" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:101">
@@ -23308,7 +23308,7 @@
         <v>56</v>
       </c>
       <c r="G69" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H69" s="2">
         <v>3</v>
@@ -23575,7 +23575,7 @@
         <v>72</v>
       </c>
       <c r="CU69" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CV69" s="1">
         <v>3</v>
@@ -23595,7 +23595,7 @@
         <v>0</v>
       </c>
       <c r="D70" s="2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E70" s="2">
         <v>0</v>
@@ -23613,16 +23613,16 @@
         <v>4</v>
       </c>
       <c r="J70" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K70" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L70" s="2">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M70" s="2">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N70" s="1">
         <v>13</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="AP70" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ70" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR70" s="2">
         <v>3</v>
       </c>
-      <c r="AQ70" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR70" s="2">
-        <v>2</v>
-      </c>
       <c r="AS70" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT70" s="1">
         <v>0</v>
@@ -23832,16 +23832,16 @@
         <v>0</v>
       </c>
       <c r="CH70" s="1">
+        <v>5</v>
+      </c>
+      <c r="CI70" s="2">
+        <v>1</v>
+      </c>
+      <c r="CJ70" s="2">
         <v>4</v>
       </c>
-      <c r="CI70" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ70" s="2">
-        <v>3</v>
-      </c>
       <c r="CK70" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CL70" s="1">
         <v>0</v>
@@ -23868,16 +23868,16 @@
         <v>0</v>
       </c>
       <c r="CT70" s="1">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="CU70" s="1">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="CV70" s="1">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="CW70" s="1">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:101">
@@ -23885,16 +23885,16 @@
         <v>170</v>
       </c>
       <c r="B71" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F71" s="1">
         <v>40</v>
@@ -24005,16 +24005,16 @@
         <v>12</v>
       </c>
       <c r="AP71" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT71" s="1">
         <v>0</v>
@@ -24128,16 +24128,16 @@
         <v>0</v>
       </c>
       <c r="CH71" s="1">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="CI71" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="CJ71" s="2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="CK71" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="CL71" s="1">
         <v>5</v>
@@ -24164,16 +24164,16 @@
         <v>0</v>
       </c>
       <c r="CT71" s="1">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="CU71" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="CV71" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="CW71" s="1">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:101">
@@ -24205,16 +24205,16 @@
         <v>0</v>
       </c>
       <c r="J72" s="1">
-        <v>9226</v>
+        <v>9304</v>
       </c>
       <c r="K72" s="2">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="L72" s="2">
-        <v>148</v>
+        <v>226</v>
       </c>
       <c r="M72" s="2">
-        <v>351</v>
+        <v>429</v>
       </c>
       <c r="N72" s="1">
         <v>71851</v>
@@ -24298,7 +24298,7 @@
         <v>184</v>
       </c>
       <c r="AO72" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AP72" s="1">
         <v>0</v>
@@ -24460,16 +24460,16 @@
         <v>1</v>
       </c>
       <c r="CT72" s="1">
-        <v>156853</v>
+        <v>156931</v>
       </c>
       <c r="CU72" s="1">
-        <v>1496</v>
+        <v>1574</v>
       </c>
       <c r="CV72" s="1">
-        <v>2643</v>
+        <v>2721</v>
       </c>
       <c r="CW72" s="1">
-        <v>5841</v>
+        <v>5911</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -24815,7 +24815,7 @@
         <v>2470</v>
       </c>
       <c r="P74" s="2">
-        <v>2553</v>
+        <v>2561</v>
       </c>
       <c r="Q74" s="2">
         <v>5554</v>
@@ -25058,7 +25058,7 @@
         <v>3058</v>
       </c>
       <c r="CV74" s="1">
-        <v>3417</v>
+        <v>3425</v>
       </c>
       <c r="CW74" s="1">
         <v>7231</v>
@@ -25102,7 +25102,7 @@
         <v>135</v>
       </c>
       <c r="M75" s="2">
-        <v>288</v>
+        <v>219</v>
       </c>
       <c r="N75" s="1">
         <v>318332</v>
@@ -25177,28 +25177,28 @@
         <v>0</v>
       </c>
       <c r="AL75" s="1">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="AM75" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN75" s="2">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="AO75" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AP75" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ75" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR75" s="2">
         <v>4</v>
       </c>
       <c r="AS75" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT75" s="1">
         <v>25</v>
@@ -25348,16 +25348,16 @@
         <v>6</v>
       </c>
       <c r="CT75" s="1">
-        <v>345750</v>
+        <v>345752</v>
       </c>
       <c r="CU75" s="1">
-        <v>4533</v>
+        <v>4535</v>
       </c>
       <c r="CV75" s="1">
-        <v>5042</v>
+        <v>5029</v>
       </c>
       <c r="CW75" s="1">
-        <v>11080</v>
+        <v>11013</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -25614,10 +25614,10 @@
         <v>19</v>
       </c>
       <c r="CJ76" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="CK76" s="2">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="CL76" s="1">
         <v>2</v>
@@ -25650,10 +25650,10 @@
         <v>941</v>
       </c>
       <c r="CV76" s="1">
-        <v>1154</v>
+        <v>1161</v>
       </c>
       <c r="CW76" s="1">
-        <v>2201</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="77" spans="1:101">
@@ -26573,16 +26573,16 @@
         <v>0</v>
       </c>
       <c r="J80" s="1">
-        <v>7146</v>
+        <v>7247</v>
       </c>
       <c r="K80" s="2">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="L80" s="2">
-        <v>360</v>
+        <v>461</v>
       </c>
       <c r="M80" s="2">
-        <v>556</v>
+        <v>657</v>
       </c>
       <c r="N80" s="1">
         <v>37304</v>
@@ -26828,16 +26828,16 @@
         <v>0</v>
       </c>
       <c r="CT80" s="1">
-        <v>378759</v>
+        <v>378860</v>
       </c>
       <c r="CU80" s="1">
-        <v>2282</v>
+        <v>2383</v>
       </c>
       <c r="CV80" s="1">
-        <v>2927</v>
+        <v>3028</v>
       </c>
       <c r="CW80" s="1">
-        <v>32890</v>
+        <v>32991</v>
       </c>
     </row>
     <row r="81" spans="1:101">
@@ -27482,7 +27482,7 @@
         <v>36</v>
       </c>
       <c r="Q83" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R83" s="1">
         <v>0</v>
@@ -27725,7 +27725,7 @@
         <v>66</v>
       </c>
       <c r="CW83" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:101">
@@ -28038,7 +28038,7 @@
         <v>2</v>
       </c>
       <c r="E85" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F85" s="1">
         <v>10</v>
@@ -28062,7 +28062,7 @@
         <v>28</v>
       </c>
       <c r="M85" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N85" s="1">
         <v>998</v>
@@ -28317,7 +28317,7 @@
         <v>124</v>
       </c>
       <c r="CW85" s="1">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="86" spans="1:101">
@@ -29034,7 +29034,7 @@
         <v>3</v>
       </c>
       <c r="AO88" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AP88" s="1">
         <v>22</v>
@@ -29169,7 +29169,7 @@
         <v>70</v>
       </c>
       <c r="CK88" s="2">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="CL88" s="1">
         <v>5</v>
@@ -29205,7 +29205,7 @@
         <v>447</v>
       </c>
       <c r="CW88" s="1">
-        <v>762</v>
+        <v>749</v>
       </c>
     </row>
     <row r="89" spans="1:101">
@@ -29222,7 +29222,7 @@
         <v>4</v>
       </c>
       <c r="E89" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F89" s="1">
         <v>12</v>
@@ -29330,7 +29330,7 @@
         <v>3</v>
       </c>
       <c r="AO89" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP89" s="1">
         <v>32</v>
@@ -29465,7 +29465,7 @@
         <v>16</v>
       </c>
       <c r="CK89" s="2">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="CL89" s="1">
         <v>24</v>
@@ -29501,7 +29501,7 @@
         <v>94</v>
       </c>
       <c r="CW89" s="1">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:101">
@@ -32233,16 +32233,16 @@
         <v>0</v>
       </c>
       <c r="V99" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W99" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X99" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y99" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z99" s="1">
         <v>105</v>
@@ -32293,16 +32293,16 @@
         <v>10</v>
       </c>
       <c r="AP99" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ99" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR99" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS99" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT99" s="1">
         <v>52</v>
@@ -32416,16 +32416,16 @@
         <v>0</v>
       </c>
       <c r="CH99" s="1">
-        <v>1468</v>
+        <v>1478</v>
       </c>
       <c r="CI99" s="2">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="CJ99" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="CK99" s="2">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="CL99" s="1">
         <v>9</v>
@@ -32452,16 +32452,16 @@
         <v>0</v>
       </c>
       <c r="CT99" s="1">
-        <v>37119</v>
+        <v>37131</v>
       </c>
       <c r="CU99" s="1">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="CV99" s="1">
-        <v>1036</v>
+        <v>1048</v>
       </c>
       <c r="CW99" s="1">
-        <v>1834</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="100" spans="1:101">
@@ -32777,16 +32777,16 @@
         <v>1</v>
       </c>
       <c r="F101" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G101" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I101" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J101" s="1">
         <v>0</v>
@@ -33044,16 +33044,16 @@
         <v>0</v>
       </c>
       <c r="CT101" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CU101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV101" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CW101" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:101">
@@ -33390,7 +33390,7 @@
         <v>533</v>
       </c>
       <c r="M103" s="2">
-        <v>886</v>
+        <v>762</v>
       </c>
       <c r="N103" s="1">
         <v>19737</v>
@@ -33645,7 +33645,7 @@
         <v>11470</v>
       </c>
       <c r="CW103" s="1">
-        <v>13421</v>
+        <v>13297</v>
       </c>
     </row>
     <row r="104" spans="1:101">
@@ -34066,7 +34066,7 @@
         <v>4</v>
       </c>
       <c r="AO105" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP105" s="1">
         <v>13</v>
@@ -34201,7 +34201,7 @@
         <v>24</v>
       </c>
       <c r="CK105" s="2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="CL105" s="1">
         <v>7</v>
@@ -34237,7 +34237,7 @@
         <v>48</v>
       </c>
       <c r="CW105" s="1">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" spans="1:101">
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="AL108" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AM108" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN108" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO108" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AP108" s="1">
         <v>41</v>
@@ -35080,16 +35080,16 @@
         <v>0</v>
       </c>
       <c r="CH108" s="1">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="CI108" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="CJ108" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="CK108" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="CL108" s="1">
         <v>26</v>
@@ -35116,16 +35116,16 @@
         <v>0</v>
       </c>
       <c r="CT108" s="1">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="CU108" s="1">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="CV108" s="1">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="CW108" s="1">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:101">
@@ -35157,16 +35157,16 @@
         <v>0</v>
       </c>
       <c r="J109" s="1">
-        <v>874</v>
+        <v>886</v>
       </c>
       <c r="K109" s="2">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="L109" s="2">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M109" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="N109" s="1">
         <v>4185</v>
@@ -35253,16 +35253,16 @@
         <v>2</v>
       </c>
       <c r="AP109" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ109" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR109" s="2">
         <v>3</v>
       </c>
       <c r="AS109" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT109" s="1">
         <v>0</v>
@@ -35376,16 +35376,16 @@
         <v>0</v>
       </c>
       <c r="CH109" s="1">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="CI109" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CJ109" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="CK109" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="CL109" s="1">
         <v>25</v>
@@ -35412,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="CT109" s="1">
-        <v>6336</v>
+        <v>6352</v>
       </c>
       <c r="CU109" s="1">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="CV109" s="1">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="CW109" s="1">
-        <v>625</v>
+        <v>641</v>
       </c>
     </row>
     <row r="110" spans="1:101">
@@ -35507,7 +35507,7 @@
         <v>4</v>
       </c>
       <c r="AB110" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AC110" s="2">
         <v>14</v>
@@ -35714,7 +35714,7 @@
         <v>5063</v>
       </c>
       <c r="CV110" s="1">
-        <v>5264</v>
+        <v>5260</v>
       </c>
       <c r="CW110" s="1">
         <v>10614</v>
@@ -36431,7 +36431,7 @@
         <v>6</v>
       </c>
       <c r="AN113" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AO113" s="2">
         <v>15</v>
@@ -36566,7 +36566,7 @@
         <v>17</v>
       </c>
       <c r="CJ113" s="2">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="CK113" s="2">
         <v>123</v>
@@ -36602,7 +36602,7 @@
         <v>363</v>
       </c>
       <c r="CV113" s="1">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="CW113" s="1">
         <v>980</v>
@@ -36622,7 +36622,7 @@
         <v>323</v>
       </c>
       <c r="E114" s="2">
-        <v>610</v>
+        <v>517</v>
       </c>
       <c r="F114" s="1">
         <v>0</v>
@@ -36901,7 +36901,7 @@
         <v>480</v>
       </c>
       <c r="CW114" s="1">
-        <v>812</v>
+        <v>719</v>
       </c>
     </row>
     <row r="115" spans="1:101">
@@ -38114,7 +38114,7 @@
         <v>2</v>
       </c>
       <c r="I119" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J119" s="1">
         <v>0</v>
@@ -38381,7 +38381,7 @@
         <v>3</v>
       </c>
       <c r="CW119" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:101">
@@ -39002,7 +39002,7 @@
         <v>2</v>
       </c>
       <c r="I122" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J122" s="1">
         <v>0</v>
@@ -39269,7 +39269,7 @@
         <v>2</v>
       </c>
       <c r="CW122" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:101">
@@ -39977,16 +39977,16 @@
         <v>0</v>
       </c>
       <c r="AL125" s="1">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AM125" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AN125" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AO125" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AP125" s="1">
         <v>0</v>
@@ -40112,16 +40112,16 @@
         <v>0</v>
       </c>
       <c r="CH125" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="CI125" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="CJ125" s="2">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="CK125" s="2">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="CL125" s="1">
         <v>0</v>
@@ -40148,16 +40148,16 @@
         <v>0</v>
       </c>
       <c r="CT125" s="1">
-        <v>1015</v>
+        <v>1035</v>
       </c>
       <c r="CU125" s="1">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="CV125" s="1">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="CW125" s="1">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="126" spans="1:101">
@@ -40578,7 +40578,7 @@
         <v>18</v>
       </c>
       <c r="AO127" s="2">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AP127" s="1">
         <v>29</v>
@@ -40713,7 +40713,7 @@
         <v>12</v>
       </c>
       <c r="CK127" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="CL127" s="1">
         <v>31</v>
@@ -40749,7 +40749,7 @@
         <v>87</v>
       </c>
       <c r="CW127" s="1">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128" spans="1:101">
@@ -40874,7 +40874,7 @@
         <v>22</v>
       </c>
       <c r="AO128" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AP128" s="1">
         <v>0</v>
@@ -41009,7 +41009,7 @@
         <v>33</v>
       </c>
       <c r="CK128" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="CL128" s="1">
         <v>0</v>
@@ -41045,7 +41045,7 @@
         <v>107</v>
       </c>
       <c r="CW128" s="1">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="129" spans="1:101">
@@ -41965,13 +41965,13 @@
         <v>0</v>
       </c>
       <c r="J132" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K132" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L132" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M132" s="2">
         <v>9</v>
@@ -41986,7 +41986,7 @@
         <v>860</v>
       </c>
       <c r="Q132" s="2">
-        <v>1773</v>
+        <v>1537</v>
       </c>
       <c r="R132" s="1">
         <v>0</v>
@@ -42220,16 +42220,16 @@
         <v>0</v>
       </c>
       <c r="CT132" s="1">
-        <v>117980</v>
+        <v>117981</v>
       </c>
       <c r="CU132" s="1">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="CV132" s="1">
-        <v>2679</v>
+        <v>2680</v>
       </c>
       <c r="CW132" s="1">
-        <v>5224</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="133" spans="1:101">
@@ -42578,7 +42578,7 @@
         <v>29</v>
       </c>
       <c r="Q134" s="2">
-        <v>-497</v>
+        <v>38</v>
       </c>
       <c r="R134" s="1">
         <v>10</v>
@@ -42776,16 +42776,16 @@
         <v>1</v>
       </c>
       <c r="CH134" s="1">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CI134" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CJ134" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="CK134" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="CL134" s="1">
         <v>13</v>
@@ -42812,16 +42812,16 @@
         <v>0</v>
       </c>
       <c r="CT134" s="1">
-        <v>138001</v>
+        <v>138005</v>
       </c>
       <c r="CU134" s="1">
-        <v>3904</v>
+        <v>3908</v>
       </c>
       <c r="CV134" s="1">
-        <v>3920</v>
+        <v>3924</v>
       </c>
       <c r="CW134" s="1">
-        <v>9798</v>
+        <v>10337</v>
       </c>
     </row>
     <row r="135" spans="1:101">
@@ -43158,7 +43158,7 @@
         <v>33</v>
       </c>
       <c r="M136" s="2">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="N136" s="1">
         <v>1886</v>
@@ -43413,7 +43413,7 @@
         <v>124</v>
       </c>
       <c r="CW136" s="1">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="137" spans="1:101">
@@ -44426,7 +44426,7 @@
         <v>5</v>
       </c>
       <c r="AO140" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AP140" s="1">
         <v>41</v>
@@ -44561,7 +44561,7 @@
         <v>5</v>
       </c>
       <c r="CK140" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CL140" s="1">
         <v>38</v>
@@ -44597,7 +44597,7 @@
         <v>56</v>
       </c>
       <c r="CW140" s="1">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="141" spans="1:101">
@@ -45203,7 +45203,7 @@
         <v>6</v>
       </c>
       <c r="D143" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E143" s="2">
         <v>27</v>
@@ -45227,7 +45227,7 @@
         <v>8</v>
       </c>
       <c r="L143" s="2">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M143" s="2">
         <v>51</v>
@@ -45311,7 +45311,7 @@
         <v>1</v>
       </c>
       <c r="AN143" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO143" s="2">
         <v>2</v>
@@ -45350,7 +45350,7 @@
         <v>2</v>
       </c>
       <c r="BA143" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB143" s="1">
         <v>0</v>
@@ -45446,7 +45446,7 @@
         <v>6</v>
       </c>
       <c r="CJ143" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CK143" s="2">
         <v>11</v>
@@ -45482,10 +45482,10 @@
         <v>38</v>
       </c>
       <c r="CV143" s="1">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="CW143" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144" spans="1:101">
@@ -46094,7 +46094,7 @@
         <v>4</v>
       </c>
       <c r="E146" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F146" s="1">
         <v>4</v>
@@ -46118,7 +46118,7 @@
         <v>36</v>
       </c>
       <c r="M146" s="2">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="N146" s="1">
         <v>2882</v>
@@ -46202,7 +46202,7 @@
         <v>11</v>
       </c>
       <c r="AO146" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP146" s="1">
         <v>26</v>
@@ -46337,7 +46337,7 @@
         <v>41</v>
       </c>
       <c r="CK146" s="2">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="CL146" s="1">
         <v>16</v>
@@ -46373,7 +46373,7 @@
         <v>163</v>
       </c>
       <c r="CW146" s="1">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="147" spans="1:101">
@@ -46797,16 +46797,16 @@
         <v>0</v>
       </c>
       <c r="AP148" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AQ148" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR148" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS148" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT148" s="1">
         <v>0</v>
@@ -46920,16 +46920,16 @@
         <v>1</v>
       </c>
       <c r="CH148" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="CI148" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CJ148" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CK148" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CL148" s="1">
         <v>42</v>
@@ -46956,16 +46956,16 @@
         <v>0</v>
       </c>
       <c r="CT148" s="1">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="CU148" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CV148" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CW148" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:101">
@@ -47389,16 +47389,16 @@
         <v>0</v>
       </c>
       <c r="AP150" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AQ150" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR150" s="2">
         <v>3</v>
       </c>
       <c r="AS150" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT150" s="1">
         <v>0</v>
@@ -47512,16 +47512,16 @@
         <v>1</v>
       </c>
       <c r="CH150" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="CI150" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CJ150" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CK150" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CL150" s="1">
         <v>9</v>
@@ -47548,16 +47548,16 @@
         <v>0</v>
       </c>
       <c r="CT150" s="1">
-        <v>2042</v>
+        <v>2045</v>
       </c>
       <c r="CU150" s="1">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="CV150" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="CW150" s="1">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="151" spans="1:101">
@@ -48190,7 +48190,7 @@
         <v>22</v>
       </c>
       <c r="M153" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N153" s="1">
         <v>1134</v>
@@ -48445,7 +48445,7 @@
         <v>52</v>
       </c>
       <c r="CW153" s="1">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="154" spans="1:101">
@@ -48453,16 +48453,16 @@
         <v>253</v>
       </c>
       <c r="B154" s="1">
-        <v>1783</v>
+        <v>1827</v>
       </c>
       <c r="C154" s="2">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D154" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="E154" s="2">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="F154" s="1">
         <v>0</v>
@@ -48570,19 +48570,19 @@
         <v>2</v>
       </c>
       <c r="AO154" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP154" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AQ154" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR154" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS154" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT154" s="1">
         <v>2</v>
@@ -48696,16 +48696,16 @@
         <v>7</v>
       </c>
       <c r="CH154" s="1">
-        <v>2549</v>
+        <v>2555</v>
       </c>
       <c r="CI154" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="CJ154" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="CK154" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="CL154" s="1">
         <v>13</v>
@@ -48732,16 +48732,16 @@
         <v>0</v>
       </c>
       <c r="CT154" s="1">
-        <v>64548</v>
+        <v>64599</v>
       </c>
       <c r="CU154" s="1">
-        <v>862</v>
+        <v>913</v>
       </c>
       <c r="CV154" s="1">
-        <v>1016</v>
+        <v>1067</v>
       </c>
       <c r="CW154" s="1">
-        <v>2082</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="155" spans="1:101">
@@ -48773,16 +48773,16 @@
         <v>0</v>
       </c>
       <c r="J155" s="1">
-        <v>2741</v>
+        <v>2769</v>
       </c>
       <c r="K155" s="2">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="L155" s="2">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="M155" s="2">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="N155" s="1">
         <v>11311</v>
@@ -49028,16 +49028,16 @@
         <v>0</v>
       </c>
       <c r="CT155" s="1">
-        <v>145458</v>
+        <v>145486</v>
       </c>
       <c r="CU155" s="1">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="CV155" s="1">
-        <v>2240</v>
+        <v>2268</v>
       </c>
       <c r="CW155" s="1">
-        <v>4317</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="156" spans="1:101">
@@ -49054,7 +49054,7 @@
         <v>153</v>
       </c>
       <c r="E156" s="2">
-        <v>358</v>
+        <v>296</v>
       </c>
       <c r="F156" s="1">
         <v>2</v>
@@ -49078,7 +49078,7 @@
         <v>629</v>
       </c>
       <c r="M156" s="2">
-        <v>886</v>
+        <v>802</v>
       </c>
       <c r="N156" s="1">
         <v>2601</v>
@@ -49162,7 +49162,7 @@
         <v>26</v>
       </c>
       <c r="AO156" s="2">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="AP156" s="1">
         <v>18</v>
@@ -49297,7 +49297,7 @@
         <v>311</v>
       </c>
       <c r="CK156" s="2">
-        <v>450</v>
+        <v>376</v>
       </c>
       <c r="CL156" s="1">
         <v>15</v>
@@ -49333,7 +49333,7 @@
         <v>1190</v>
       </c>
       <c r="CW156" s="1">
-        <v>1870</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="157" spans="1:101">
@@ -49963,7 +49963,7 @@
         <v>32</v>
       </c>
       <c r="L159" s="2">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="M159" s="2">
         <v>178</v>
@@ -49993,16 +49993,16 @@
         <v>0</v>
       </c>
       <c r="V159" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W159" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X159" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y159" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z159" s="1">
         <v>96</v>
@@ -50041,16 +50041,16 @@
         <v>0</v>
       </c>
       <c r="AL159" s="1">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM159" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN159" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO159" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP159" s="1">
         <v>30</v>
@@ -50176,16 +50176,16 @@
         <v>1</v>
       </c>
       <c r="CH159" s="1">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="CI159" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="CJ159" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="CK159" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="CL159" s="1">
         <v>14</v>
@@ -50212,16 +50212,16 @@
         <v>0</v>
       </c>
       <c r="CT159" s="1">
-        <v>18821</v>
+        <v>18828</v>
       </c>
       <c r="CU159" s="1">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="CV159" s="1">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="CW159" s="1">
-        <v>1084</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="160" spans="1:101">
@@ -50642,7 +50642,7 @@
         <v>4</v>
       </c>
       <c r="AO161" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AP161" s="1">
         <v>5</v>
@@ -50777,7 +50777,7 @@
         <v>296</v>
       </c>
       <c r="CK161" s="2">
-        <v>541</v>
+        <v>454</v>
       </c>
       <c r="CL161" s="1">
         <v>3</v>
@@ -50813,7 +50813,7 @@
         <v>300</v>
       </c>
       <c r="CW161" s="1">
-        <v>551</v>
+        <v>458</v>
       </c>
     </row>
     <row r="162" spans="1:101">
@@ -51153,16 +51153,16 @@
         <v>4</v>
       </c>
       <c r="N163" s="1">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="O163" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P163" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q163" s="2">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="R163" s="1">
         <v>1</v>
@@ -51396,16 +51396,16 @@
         <v>0</v>
       </c>
       <c r="CT163" s="1">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="CU163" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="CV163" s="1">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="CW163" s="1">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="164" spans="1:101">
@@ -51937,7 +51937,7 @@
         <v>0</v>
       </c>
       <c r="CC165" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD165" s="1">
         <v>14</v>
@@ -51997,7 +51997,7 @@
         <v>120</v>
       </c>
       <c r="CW165" s="1">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="166" spans="1:101">
@@ -52409,16 +52409,16 @@
         <v>0</v>
       </c>
       <c r="AL167" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AM167" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN167" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AO167" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AP167" s="1">
         <v>23</v>
@@ -52580,16 +52580,16 @@
         <v>0</v>
       </c>
       <c r="CT167" s="1">
-        <v>4569</v>
+        <v>4574</v>
       </c>
       <c r="CU167" s="1">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="CV167" s="1">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="CW167" s="1">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="168" spans="1:101">
@@ -53010,7 +53010,7 @@
         <v>10</v>
       </c>
       <c r="AO169" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP169" s="1">
         <v>34</v>
@@ -53145,7 +53145,7 @@
         <v>87</v>
       </c>
       <c r="CK169" s="2">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="CL169" s="1">
         <v>17</v>
@@ -53181,7 +53181,7 @@
         <v>616</v>
       </c>
       <c r="CW169" s="1">
-        <v>1127</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="170" spans="1:101">
@@ -55261,16 +55261,16 @@
         <v>276</v>
       </c>
       <c r="B177" s="1">
-        <v>7228</v>
+        <v>7261</v>
       </c>
       <c r="C177" s="2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D177" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="E177" s="2">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="F177" s="1">
         <v>0</v>
@@ -55369,16 +55369,16 @@
         <v>2</v>
       </c>
       <c r="AL177" s="1">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AM177" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AN177" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AO177" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AP177" s="1">
         <v>30</v>
@@ -55504,16 +55504,16 @@
         <v>1</v>
       </c>
       <c r="CH177" s="1">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="CI177" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="CJ177" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="CK177" s="2">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="CL177" s="1">
         <v>7</v>
@@ -55540,16 +55540,16 @@
         <v>0</v>
       </c>
       <c r="CT177" s="1">
-        <v>72079</v>
+        <v>72130</v>
       </c>
       <c r="CU177" s="1">
-        <v>1878</v>
+        <v>1929</v>
       </c>
       <c r="CV177" s="1">
-        <v>2773</v>
+        <v>2824</v>
       </c>
       <c r="CW177" s="1">
-        <v>4580</v>
+        <v>4631</v>
       </c>
     </row>
     <row r="178" spans="1:101">
@@ -60042,7 +60042,7 @@
         <v>70</v>
       </c>
       <c r="Q193" s="2">
-        <v>-824</v>
+        <v>95</v>
       </c>
       <c r="R193" s="1">
         <v>9</v>
@@ -60240,16 +60240,16 @@
         <v>1</v>
       </c>
       <c r="CH193" s="1">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="CI193" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CJ193" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CK193" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CL193" s="1">
         <v>9</v>
@@ -60276,16 +60276,16 @@
         <v>0</v>
       </c>
       <c r="CT193" s="1">
-        <v>57491</v>
+        <v>57492</v>
       </c>
       <c r="CU193" s="1">
-        <v>3832</v>
+        <v>3833</v>
       </c>
       <c r="CV193" s="1">
-        <v>3863</v>
+        <v>3864</v>
       </c>
       <c r="CW193" s="1">
-        <v>4892</v>
+        <v>5812</v>
       </c>
     </row>
     <row r="194" spans="1:101">
@@ -60326,19 +60326,19 @@
         <v>25</v>
       </c>
       <c r="M194" s="2">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N194" s="1">
-        <v>2966</v>
+        <v>2967</v>
       </c>
       <c r="O194" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P194" s="2">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="Q194" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="R194" s="1">
         <v>0</v>
@@ -60410,7 +60410,7 @@
         <v>2</v>
       </c>
       <c r="AO194" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP194" s="1">
         <v>9</v>
@@ -60545,7 +60545,7 @@
         <v>17</v>
       </c>
       <c r="CK194" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="CL194" s="1">
         <v>1</v>
@@ -60572,16 +60572,16 @@
         <v>0</v>
       </c>
       <c r="CT194" s="1">
-        <v>4751</v>
+        <v>4752</v>
       </c>
       <c r="CU194" s="1">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CV194" s="1">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="CW194" s="1">
-        <v>835</v>
+        <v>816</v>
       </c>
     </row>
     <row r="195" spans="1:101">
@@ -61486,7 +61486,7 @@
         <v>84</v>
       </c>
       <c r="E198" s="2">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F198" s="1">
         <v>0</v>
@@ -61510,7 +61510,7 @@
         <v>72</v>
       </c>
       <c r="M198" s="2">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="N198" s="1">
         <v>7756</v>
@@ -61594,7 +61594,7 @@
         <v>7</v>
       </c>
       <c r="AO198" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP198" s="1">
         <v>24</v>
@@ -61729,7 +61729,7 @@
         <v>71</v>
       </c>
       <c r="CK198" s="2">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="CL198" s="1">
         <v>9</v>
@@ -61765,7 +61765,7 @@
         <v>324</v>
       </c>
       <c r="CW198" s="1">
-        <v>542</v>
+        <v>477</v>
       </c>
     </row>
     <row r="199" spans="1:101">
@@ -61806,7 +61806,7 @@
         <v>132</v>
       </c>
       <c r="M199" s="2">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="N199" s="1">
         <v>22479</v>
@@ -61815,10 +61815,10 @@
         <v>477</v>
       </c>
       <c r="P199" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="Q199" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="R199" s="1">
         <v>0</v>
@@ -62058,10 +62058,10 @@
         <v>3558</v>
       </c>
       <c r="CV199" s="1">
-        <v>3780</v>
+        <v>3776</v>
       </c>
       <c r="CW199" s="1">
-        <v>6914</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="200" spans="1:101">
@@ -65870,7 +65870,7 @@
         <v>9</v>
       </c>
       <c r="CJ212" s="2">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="CK212" s="2">
         <v>38</v>
@@ -65882,7 +65882,7 @@
         <v>1</v>
       </c>
       <c r="CN212" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CO212" s="2">
         <v>5</v>
@@ -65906,7 +65906,7 @@
         <v>12</v>
       </c>
       <c r="CV212" s="1">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="CW212" s="1">
         <v>55</v>
@@ -66585,7 +66585,7 @@
         <v>557</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
         <v>709</v>
@@ -67368,7 +67368,7 @@
         <v>589</v>
       </c>
       <c r="D72">
-        <v>926</v>
+        <v>945</v>
       </c>
       <c r="E72" t="s">
         <v>709</v>
@@ -67428,7 +67428,7 @@
         <v>592</v>
       </c>
       <c r="D75">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E75" t="s">
         <v>709</v>
@@ -69826,7 +69826,7 @@
         <v>693</v>
       </c>
       <c r="D194">
-        <v>9681</v>
+        <v>9685</v>
       </c>
       <c r="E194" t="s">
         <v>709</v>
@@ -70109,7 +70109,7 @@
         <v>705</v>
       </c>
       <c r="D208">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E208" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -4006,7 +4006,7 @@
         <v>26</v>
       </c>
       <c r="CJ3" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="CK3" s="2">
         <v>148</v>
@@ -4042,7 +4042,7 @@
         <v>305</v>
       </c>
       <c r="CV3" s="1">
-        <v>656</v>
+        <v>627</v>
       </c>
       <c r="CW3" s="1">
         <v>1132</v>
@@ -4059,7 +4059,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2">
         <v>4</v>
@@ -4083,7 +4083,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="2">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M4" s="2">
         <v>98</v>
@@ -4161,16 +4161,16 @@
         <v>0</v>
       </c>
       <c r="AL4" s="1">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP4" s="1">
         <v>0</v>
@@ -4296,16 +4296,16 @@
         <v>4</v>
       </c>
       <c r="CH4" s="1">
-        <v>2962</v>
+        <v>2967</v>
       </c>
       <c r="CI4" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="CJ4" s="2">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="CK4" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="CL4" s="1">
         <v>0</v>
@@ -4332,16 +4332,16 @@
         <v>0</v>
       </c>
       <c r="CT4" s="1">
-        <v>35830</v>
+        <v>35836</v>
       </c>
       <c r="CU4" s="1">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="CV4" s="1">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="CW4" s="1">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -5841,16 +5841,16 @@
         <v>2</v>
       </c>
       <c r="F10" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -6108,16 +6108,16 @@
         <v>0</v>
       </c>
       <c r="CT10" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CU10" s="1">
         <v>1</v>
       </c>
       <c r="CV10" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CW10" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:101">
@@ -6125,16 +6125,16 @@
         <v>110</v>
       </c>
       <c r="B11" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1">
         <v>15</v>
@@ -6404,16 +6404,16 @@
         <v>0</v>
       </c>
       <c r="CT11" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="CU11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CV11" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CW11" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:101">
@@ -8613,16 +8613,16 @@
         <v>0</v>
       </c>
       <c r="AP19" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AQ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS19" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -8736,16 +8736,16 @@
         <v>0</v>
       </c>
       <c r="CH19" s="1">
-        <v>864</v>
+        <v>895</v>
       </c>
       <c r="CI19" s="2">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="CJ19" s="2">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="CK19" s="2">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="CL19" s="1">
         <v>23</v>
@@ -8772,16 +8772,16 @@
         <v>0</v>
       </c>
       <c r="CT19" s="1">
-        <v>18124</v>
+        <v>18156</v>
       </c>
       <c r="CU19" s="1">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="CV19" s="1">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="CW19" s="1">
-        <v>579</v>
+        <v>611</v>
       </c>
     </row>
     <row r="20" spans="1:101">
@@ -8897,16 +8897,16 @@
         <v>0</v>
       </c>
       <c r="AL20" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN20" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO20" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP20" s="1">
         <v>7</v>
@@ -9032,16 +9032,16 @@
         <v>0</v>
       </c>
       <c r="CH20" s="1">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="CI20" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="CJ20" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="CK20" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="CL20" s="1">
         <v>1</v>
@@ -9068,16 +9068,16 @@
         <v>0</v>
       </c>
       <c r="CT20" s="1">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="CU20" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="CV20" s="1">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="CW20" s="1">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:101">
@@ -10885,16 +10885,16 @@
         <v>4</v>
       </c>
       <c r="J27" s="1">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="K27" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L27" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M27" s="2">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="N27" s="1">
         <v>1968</v>
@@ -11140,16 +11140,16 @@
         <v>0</v>
       </c>
       <c r="CT27" s="1">
-        <v>22370</v>
+        <v>22377</v>
       </c>
       <c r="CU27" s="1">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="CV27" s="1">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="CW27" s="1">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28" spans="1:101">
@@ -12069,16 +12069,16 @@
         <v>0</v>
       </c>
       <c r="J31" s="1">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="K31" s="2">
         <v>5</v>
       </c>
       <c r="L31" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M31" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="N31" s="1">
         <v>5583</v>
@@ -12129,16 +12129,16 @@
         <v>13</v>
       </c>
       <c r="AD31" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AE31" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF31" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG31" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH31" s="1">
         <v>17</v>
@@ -12171,7 +12171,7 @@
         <v>1</v>
       </c>
       <c r="AR31" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS31" s="2">
         <v>3</v>
@@ -12294,7 +12294,7 @@
         <v>3</v>
       </c>
       <c r="CJ31" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="CK31" s="2">
         <v>17</v>
@@ -12324,16 +12324,16 @@
         <v>0</v>
       </c>
       <c r="CT31" s="1">
-        <v>9423</v>
+        <v>9429</v>
       </c>
       <c r="CU31" s="1">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="CV31" s="1">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="CW31" s="1">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:101">
@@ -12745,16 +12745,16 @@
         <v>0</v>
       </c>
       <c r="AL33" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM33" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN33" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO33" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP33" s="1">
         <v>42</v>
@@ -12880,16 +12880,16 @@
         <v>4</v>
       </c>
       <c r="CH33" s="1">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="CI33" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="CJ33" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CK33" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="CL33" s="1">
         <v>24</v>
@@ -12916,16 +12916,16 @@
         <v>0</v>
       </c>
       <c r="CT33" s="1">
-        <v>2146</v>
+        <v>2152</v>
       </c>
       <c r="CU33" s="1">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="CV33" s="1">
         <v>66</v>
       </c>
       <c r="CW33" s="1">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:101">
@@ -13845,16 +13845,16 @@
         <v>3</v>
       </c>
       <c r="J37" s="1">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="K37" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L37" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M37" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N37" s="1">
         <v>737</v>
@@ -14067,7 +14067,7 @@
         <v>294</v>
       </c>
       <c r="CI37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ37" s="2">
         <v>2</v>
@@ -14100,16 +14100,16 @@
         <v>0</v>
       </c>
       <c r="CT37" s="1">
-        <v>1648</v>
+        <v>1653</v>
       </c>
       <c r="CU37" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="CV37" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="CW37" s="1">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:101">
@@ -14419,7 +14419,7 @@
         <v>117</v>
       </c>
       <c r="D39" s="2">
-        <v>460</v>
+        <v>349</v>
       </c>
       <c r="E39" s="2">
         <v>647</v>
@@ -14698,7 +14698,7 @@
         <v>615</v>
       </c>
       <c r="CV39" s="1">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="CW39" s="1">
         <v>1831</v>
@@ -15427,7 +15427,7 @@
         <v>1</v>
       </c>
       <c r="AR42" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS42" s="2">
         <v>4</v>
@@ -15550,7 +15550,7 @@
         <v>0</v>
       </c>
       <c r="CJ42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK42" s="2">
         <v>2</v>
@@ -15586,7 +15586,7 @@
         <v>2</v>
       </c>
       <c r="CV42" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="CW42" s="1">
         <v>34</v>
@@ -18375,7 +18375,7 @@
         <v>4</v>
       </c>
       <c r="AN52" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO52" s="2">
         <v>6</v>
@@ -18522,7 +18522,7 @@
         <v>0</v>
       </c>
       <c r="CN52" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO52" s="2">
         <v>2</v>
@@ -18546,7 +18546,7 @@
         <v>13</v>
       </c>
       <c r="CV52" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="CW52" s="1">
         <v>34</v>
@@ -19078,7 +19078,7 @@
         <v>0</v>
       </c>
       <c r="CB54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC54" s="2">
         <v>1</v>
@@ -19138,7 +19138,7 @@
         <v>152</v>
       </c>
       <c r="CV54" s="1">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="CW54" s="1">
         <v>443</v>
@@ -20444,10 +20444,10 @@
         <v>1047</v>
       </c>
       <c r="AM59" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN59" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO59" s="2">
         <v>9</v>
@@ -20579,10 +20579,10 @@
         <v>5019</v>
       </c>
       <c r="CI59" s="2">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="CJ59" s="2">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="CK59" s="2">
         <v>143</v>
@@ -20615,10 +20615,10 @@
         <v>61679</v>
       </c>
       <c r="CU59" s="1">
-        <v>1678</v>
+        <v>1650</v>
       </c>
       <c r="CV59" s="1">
-        <v>2476</v>
+        <v>2428</v>
       </c>
       <c r="CW59" s="1">
         <v>3197</v>
@@ -20931,10 +20931,10 @@
         <v>28</v>
       </c>
       <c r="D61" s="2">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E61" s="2">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F61" s="1">
         <v>2</v>
@@ -21210,10 +21210,10 @@
         <v>79</v>
       </c>
       <c r="CV61" s="1">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="CW61" s="1">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:101">
@@ -21224,7 +21224,7 @@
         <v>385</v>
       </c>
       <c r="C62" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D62" s="2">
         <v>3</v>
@@ -21245,28 +21245,28 @@
         <v>3</v>
       </c>
       <c r="J62" s="1">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K62" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L62" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M62" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N62" s="1">
-        <v>3647</v>
+        <v>3724</v>
       </c>
       <c r="O62" s="2">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="P62" s="2">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="Q62" s="2">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="R62" s="1">
         <v>0</v>
@@ -21311,7 +21311,7 @@
         <v>2</v>
       </c>
       <c r="AF62" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG62" s="2">
         <v>98</v>
@@ -21332,7 +21332,7 @@
         <v>76</v>
       </c>
       <c r="AM62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN62" s="2">
         <v>1</v>
@@ -21341,16 +21341,16 @@
         <v>1</v>
       </c>
       <c r="AP62" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AQ62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR62" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS62" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>
@@ -21464,16 +21464,16 @@
         <v>0</v>
       </c>
       <c r="CH62" s="1">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="CI62" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CJ62" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="CK62" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="CL62" s="1">
         <v>10</v>
@@ -21500,16 +21500,16 @@
         <v>0</v>
       </c>
       <c r="CT62" s="1">
-        <v>6617</v>
+        <v>6704</v>
       </c>
       <c r="CU62" s="1">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="CV62" s="1">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="CW62" s="1">
-        <v>247</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63" spans="1:101">
@@ -21541,16 +21541,16 @@
         <v>0</v>
       </c>
       <c r="J63" s="1">
-        <v>1427</v>
+        <v>1440</v>
       </c>
       <c r="K63" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L63" s="2">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="M63" s="2">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="N63" s="1">
         <v>50397</v>
@@ -21559,7 +21559,7 @@
         <v>1084</v>
       </c>
       <c r="P63" s="2">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="Q63" s="2">
         <v>2119</v>
@@ -21628,7 +21628,7 @@
         <v>84</v>
       </c>
       <c r="AM63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN63" s="2">
         <v>3</v>
@@ -21640,7 +21640,7 @@
         <v>47</v>
       </c>
       <c r="AQ63" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR63" s="2">
         <v>3</v>
@@ -21763,7 +21763,7 @@
         <v>1683</v>
       </c>
       <c r="CI63" s="2">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="CJ63" s="2">
         <v>33</v>
@@ -21775,7 +21775,7 @@
         <v>22</v>
       </c>
       <c r="CM63" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CN63" s="2">
         <v>3</v>
@@ -21796,16 +21796,16 @@
         <v>0</v>
       </c>
       <c r="CT63" s="1">
-        <v>57552</v>
+        <v>57565</v>
       </c>
       <c r="CU63" s="1">
-        <v>1176</v>
+        <v>1157</v>
       </c>
       <c r="CV63" s="1">
-        <v>1282</v>
+        <v>1300</v>
       </c>
       <c r="CW63" s="1">
-        <v>2494</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="64" spans="1:101">
@@ -22109,16 +22109,16 @@
         <v>164</v>
       </c>
       <c r="B65" s="1">
-        <v>2212</v>
+        <v>2220</v>
       </c>
       <c r="C65" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D65" s="2">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E65" s="2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -22388,16 +22388,16 @@
         <v>0</v>
       </c>
       <c r="CT65" s="1">
-        <v>3051</v>
+        <v>3059</v>
       </c>
       <c r="CU65" s="1">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="CV65" s="1">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="CW65" s="1">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:101">
@@ -22405,16 +22405,16 @@
         <v>165</v>
       </c>
       <c r="B66" s="1">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C66" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E66" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F66" s="1">
         <v>16</v>
@@ -22531,7 +22531,7 @@
         <v>0</v>
       </c>
       <c r="AR66" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS66" s="2">
         <v>4</v>
@@ -22654,7 +22654,7 @@
         <v>4</v>
       </c>
       <c r="CJ66" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="CK66" s="2">
         <v>17</v>
@@ -22684,16 +22684,16 @@
         <v>0</v>
       </c>
       <c r="CT66" s="1">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="CU66" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CV66" s="1">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="CW66" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:101">
@@ -23619,7 +23619,7 @@
         <v>16</v>
       </c>
       <c r="L70" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M70" s="2">
         <v>25</v>
@@ -23874,7 +23874,7 @@
         <v>19</v>
       </c>
       <c r="CV70" s="1">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="CW70" s="1">
         <v>118</v>
@@ -24292,7 +24292,7 @@
         <v>35232</v>
       </c>
       <c r="AM72" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN72" s="2">
         <v>184</v>
@@ -24424,16 +24424,16 @@
         <v>1</v>
       </c>
       <c r="CH72" s="1">
-        <v>15159</v>
+        <v>15160</v>
       </c>
       <c r="CI72" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="CJ72" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="CK72" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="CL72" s="1">
         <v>0</v>
@@ -24460,16 +24460,16 @@
         <v>1</v>
       </c>
       <c r="CT72" s="1">
-        <v>156931</v>
+        <v>156932</v>
       </c>
       <c r="CU72" s="1">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="CV72" s="1">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="CW72" s="1">
-        <v>5911</v>
+        <v>5912</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -24779,7 +24779,7 @@
         <v>85</v>
       </c>
       <c r="D74" s="2">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="E74" s="2">
         <v>258</v>
@@ -24809,16 +24809,16 @@
         <v>318</v>
       </c>
       <c r="N74" s="1">
-        <v>107722</v>
+        <v>107732</v>
       </c>
       <c r="O74" s="2">
-        <v>2470</v>
+        <v>2480</v>
       </c>
       <c r="P74" s="2">
         <v>2561</v>
       </c>
       <c r="Q74" s="2">
-        <v>5554</v>
+        <v>5564</v>
       </c>
       <c r="R74" s="1">
         <v>1</v>
@@ -25052,16 +25052,16 @@
         <v>0</v>
       </c>
       <c r="CT74" s="1">
-        <v>136899</v>
+        <v>136909</v>
       </c>
       <c r="CU74" s="1">
-        <v>3058</v>
+        <v>3068</v>
       </c>
       <c r="CV74" s="1">
-        <v>3425</v>
+        <v>3386</v>
       </c>
       <c r="CW74" s="1">
-        <v>7231</v>
+        <v>7241</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25075,7 +25075,7 @@
         <v>101</v>
       </c>
       <c r="D75" s="2">
-        <v>322</v>
+        <v>226</v>
       </c>
       <c r="E75" s="2">
         <v>586</v>
@@ -25093,16 +25093,16 @@
         <v>0</v>
       </c>
       <c r="J75" s="1">
-        <v>4046</v>
+        <v>4081</v>
       </c>
       <c r="K75" s="2">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="L75" s="2">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="M75" s="2">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="N75" s="1">
         <v>318332</v>
@@ -25177,22 +25177,22 @@
         <v>0</v>
       </c>
       <c r="AL75" s="1">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="AM75" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AN75" s="2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AO75" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AP75" s="1">
         <v>73</v>
       </c>
       <c r="AQ75" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR75" s="2">
         <v>4</v>
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="CH75" s="1">
-        <v>5636</v>
+        <v>5650</v>
       </c>
       <c r="CI75" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="CJ75" s="2">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="CK75" s="2">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="CL75" s="1">
         <v>97</v>
@@ -25348,16 +25348,16 @@
         <v>6</v>
       </c>
       <c r="CT75" s="1">
-        <v>345752</v>
+        <v>345804</v>
       </c>
       <c r="CU75" s="1">
-        <v>4535</v>
+        <v>4576</v>
       </c>
       <c r="CV75" s="1">
-        <v>5029</v>
+        <v>4985</v>
       </c>
       <c r="CW75" s="1">
-        <v>11013</v>
+        <v>11065</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -26573,16 +26573,16 @@
         <v>0</v>
       </c>
       <c r="J80" s="1">
-        <v>7247</v>
+        <v>7246</v>
       </c>
       <c r="K80" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L80" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M80" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N80" s="1">
         <v>37304</v>
@@ -26636,7 +26636,7 @@
         <v>313806</v>
       </c>
       <c r="AE80" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AF80" s="2">
         <v>616</v>
@@ -26798,7 +26798,7 @@
         <v>67</v>
       </c>
       <c r="CJ80" s="2">
-        <v>255</v>
+        <v>141</v>
       </c>
       <c r="CK80" s="2">
         <v>378</v>
@@ -26828,16 +26828,16 @@
         <v>0</v>
       </c>
       <c r="CT80" s="1">
-        <v>378860</v>
+        <v>378859</v>
       </c>
       <c r="CU80" s="1">
         <v>2383</v>
       </c>
       <c r="CV80" s="1">
-        <v>3028</v>
+        <v>2913</v>
       </c>
       <c r="CW80" s="1">
-        <v>32991</v>
+        <v>32990</v>
       </c>
     </row>
     <row r="81" spans="1:101">
@@ -27159,7 +27159,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" s="2">
         <v>3</v>
@@ -27426,7 +27426,7 @@
         <v>23</v>
       </c>
       <c r="CV82" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="CW82" s="1">
         <v>87</v>
@@ -27443,7 +27443,7 @@
         <v>2</v>
       </c>
       <c r="D83" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E83" s="2">
         <v>6</v>
@@ -27455,7 +27455,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" s="2">
         <v>3</v>
@@ -27722,7 +27722,7 @@
         <v>38</v>
       </c>
       <c r="CV83" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="CW83" s="1">
         <v>107</v>
@@ -27844,10 +27844,10 @@
         <v>310</v>
       </c>
       <c r="AM84" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AN84" s="2">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AO84" s="2">
         <v>77</v>
@@ -27856,7 +27856,7 @@
         <v>24</v>
       </c>
       <c r="AQ84" s="2">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="AR84" s="2">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>1490</v>
       </c>
       <c r="CI84" s="2">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="CJ84" s="2">
-        <v>216</v>
+        <v>125</v>
       </c>
       <c r="CK84" s="2">
         <v>410</v>
@@ -28015,10 +28015,10 @@
         <v>1869</v>
       </c>
       <c r="CU84" s="1">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="CV84" s="1">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="CW84" s="1">
         <v>491</v>
@@ -28029,16 +28029,16 @@
         <v>184</v>
       </c>
       <c r="B85" s="1">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C85" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E85" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F85" s="1">
         <v>10</v>
@@ -28053,16 +28053,16 @@
         <v>3</v>
       </c>
       <c r="J85" s="1">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="K85" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="L85" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M85" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N85" s="1">
         <v>998</v>
@@ -28149,16 +28149,16 @@
         <v>0</v>
       </c>
       <c r="AP85" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AQ85" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR85" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS85" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT85" s="1">
         <v>0</v>
@@ -28272,16 +28272,16 @@
         <v>1</v>
       </c>
       <c r="CH85" s="1">
-        <v>1891</v>
+        <v>1899</v>
       </c>
       <c r="CI85" s="2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="CJ85" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="CK85" s="2">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="CL85" s="1">
         <v>21</v>
@@ -28308,16 +28308,16 @@
         <v>0</v>
       </c>
       <c r="CT85" s="1">
-        <v>8706</v>
+        <v>8722</v>
       </c>
       <c r="CU85" s="1">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="CV85" s="1">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="CW85" s="1">
-        <v>331</v>
+        <v>347</v>
       </c>
     </row>
     <row r="86" spans="1:101">
@@ -28923,7 +28923,7 @@
         <v>39</v>
       </c>
       <c r="D88" s="2">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="E88" s="2">
         <v>237</v>
@@ -28953,16 +28953,16 @@
         <v>289</v>
       </c>
       <c r="N88" s="1">
-        <v>4215</v>
+        <v>4214</v>
       </c>
       <c r="O88" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P88" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q88" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R88" s="1">
         <v>0</v>
@@ -29196,16 +29196,16 @@
         <v>0</v>
       </c>
       <c r="CT88" s="1">
-        <v>22993</v>
+        <v>22992</v>
       </c>
       <c r="CU88" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="CV88" s="1">
-        <v>447</v>
+        <v>394</v>
       </c>
       <c r="CW88" s="1">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="89" spans="1:101">
@@ -29629,16 +29629,16 @@
         <v>3</v>
       </c>
       <c r="AP90" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ90" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR90" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS90" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT90" s="1">
         <v>0</v>
@@ -29764,40 +29764,40 @@
         <v>8</v>
       </c>
       <c r="CL90" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="CM90" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN90" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CO90" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP90" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ90" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR90" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS90" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT90" s="1">
+        <v>985</v>
+      </c>
+      <c r="CU90" s="1">
         <v>2</v>
       </c>
-      <c r="CP90" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ90" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR90" s="2">
-        <v>0</v>
-      </c>
-      <c r="CS90" s="2">
-        <v>0</v>
-      </c>
-      <c r="CT90" s="1">
-        <v>983</v>
-      </c>
-      <c r="CU90" s="1">
-        <v>0</v>
-      </c>
       <c r="CV90" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="CW90" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:101">
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="AN93" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO93" s="2">
         <v>3</v>
@@ -30646,7 +30646,7 @@
         <v>0</v>
       </c>
       <c r="CJ93" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="CK93" s="2">
         <v>58</v>
@@ -32176,7 +32176,7 @@
         <v>14914</v>
       </c>
       <c r="C99" s="2">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="D99" s="2">
         <v>373</v>
@@ -32200,7 +32200,7 @@
         <v>4324</v>
       </c>
       <c r="K99" s="2">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="L99" s="2">
         <v>224</v>
@@ -32284,7 +32284,7 @@
         <v>209</v>
       </c>
       <c r="AM99" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN99" s="2">
         <v>4</v>
@@ -32419,7 +32419,7 @@
         <v>1478</v>
       </c>
       <c r="CI99" s="2">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="CJ99" s="2">
         <v>66</v>
@@ -32455,7 +32455,7 @@
         <v>37131</v>
       </c>
       <c r="CU99" s="1">
-        <v>506</v>
+        <v>297</v>
       </c>
       <c r="CV99" s="1">
         <v>1048</v>
@@ -32583,7 +32583,7 @@
         <v>0</v>
       </c>
       <c r="AN100" s="2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AO100" s="2">
         <v>89</v>
@@ -32718,7 +32718,7 @@
         <v>14</v>
       </c>
       <c r="CJ100" s="2">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="CK100" s="2">
         <v>218</v>
@@ -32754,7 +32754,7 @@
         <v>14</v>
       </c>
       <c r="CV100" s="1">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="CW100" s="1">
         <v>307</v>
@@ -33357,16 +33357,16 @@
         <v>202</v>
       </c>
       <c r="B103" s="1">
-        <v>8038</v>
+        <v>8099</v>
       </c>
       <c r="C103" s="2">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D103" s="2">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="E103" s="2">
-        <v>320</v>
+        <v>381</v>
       </c>
       <c r="F103" s="1">
         <v>0</v>
@@ -33471,7 +33471,7 @@
         <v>-2</v>
       </c>
       <c r="AN103" s="2">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AO103" s="2">
         <v>3</v>
@@ -33606,7 +33606,7 @@
         <v>77</v>
       </c>
       <c r="CJ103" s="2">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="CK103" s="2">
         <v>278</v>
@@ -33636,16 +33636,16 @@
         <v>0</v>
       </c>
       <c r="CT103" s="1">
-        <v>83153</v>
+        <v>83214</v>
       </c>
       <c r="CU103" s="1">
-        <v>6813</v>
+        <v>6830</v>
       </c>
       <c r="CV103" s="1">
-        <v>11470</v>
+        <v>11480</v>
       </c>
       <c r="CW103" s="1">
-        <v>13297</v>
+        <v>13358</v>
       </c>
     </row>
     <row r="104" spans="1:101">
@@ -34571,7 +34571,7 @@
         <v>47</v>
       </c>
       <c r="L107" s="2">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="M107" s="2">
         <v>220</v>
@@ -34826,7 +34826,7 @@
         <v>235</v>
       </c>
       <c r="CV107" s="1">
-        <v>437</v>
+        <v>380</v>
       </c>
       <c r="CW107" s="1">
         <v>700</v>
@@ -34951,7 +34951,7 @@
         <v>8</v>
       </c>
       <c r="AN108" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AO108" s="2">
         <v>16</v>
@@ -35086,7 +35086,7 @@
         <v>29</v>
       </c>
       <c r="CJ108" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="CK108" s="2">
         <v>50</v>
@@ -35122,7 +35122,7 @@
         <v>37</v>
       </c>
       <c r="CV108" s="1">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="CW108" s="1">
         <v>73</v>
@@ -35163,7 +35163,7 @@
         <v>19</v>
       </c>
       <c r="L109" s="2">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M109" s="2">
         <v>69</v>
@@ -35418,7 +35418,7 @@
         <v>31</v>
       </c>
       <c r="CV109" s="1">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="CW109" s="1">
         <v>641</v>
@@ -35675,7 +35675,7 @@
         <v>1060</v>
       </c>
       <c r="CI110" s="2">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="CJ110" s="2">
         <v>76</v>
@@ -35711,7 +35711,7 @@
         <v>140613</v>
       </c>
       <c r="CU110" s="1">
-        <v>5063</v>
+        <v>5052</v>
       </c>
       <c r="CV110" s="1">
         <v>5260</v>
@@ -36347,7 +36347,7 @@
         <v>85</v>
       </c>
       <c r="L113" s="2">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="M113" s="2">
         <v>276</v>
@@ -36602,7 +36602,7 @@
         <v>363</v>
       </c>
       <c r="CV113" s="1">
-        <v>543</v>
+        <v>470</v>
       </c>
       <c r="CW113" s="1">
         <v>980</v>
@@ -36643,7 +36643,7 @@
         <v>0</v>
       </c>
       <c r="L114" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M114" s="2">
         <v>8</v>
@@ -36727,7 +36727,7 @@
         <v>0</v>
       </c>
       <c r="AN114" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO114" s="2">
         <v>2</v>
@@ -36862,7 +36862,7 @@
         <v>0</v>
       </c>
       <c r="CJ114" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CK114" s="2">
         <v>11</v>
@@ -36898,7 +36898,7 @@
         <v>158</v>
       </c>
       <c r="CV114" s="1">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="CW114" s="1">
         <v>719</v>
@@ -37699,7 +37699,7 @@
         <v>13</v>
       </c>
       <c r="BS117" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT117" s="2">
         <v>1</v>
@@ -37783,7 +37783,7 @@
         <v>757</v>
       </c>
       <c r="CU117" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CV117" s="1">
         <v>16</v>
@@ -39980,7 +39980,7 @@
         <v>35</v>
       </c>
       <c r="AM125" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AN125" s="2">
         <v>22</v>
@@ -40115,7 +40115,7 @@
         <v>34</v>
       </c>
       <c r="CI125" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="CJ125" s="2">
         <v>13</v>
@@ -40151,7 +40151,7 @@
         <v>1035</v>
       </c>
       <c r="CU125" s="1">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="CV125" s="1">
         <v>55</v>
@@ -40572,7 +40572,7 @@
         <v>348</v>
       </c>
       <c r="AM127" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AN127" s="2">
         <v>18</v>
@@ -40707,7 +40707,7 @@
         <v>436</v>
       </c>
       <c r="CI127" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CJ127" s="2">
         <v>12</v>
@@ -40743,7 +40743,7 @@
         <v>2828</v>
       </c>
       <c r="CU127" s="1">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="CV127" s="1">
         <v>87</v>
@@ -41657,16 +41657,16 @@
         <v>0</v>
       </c>
       <c r="F131" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G131" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H131" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I131" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J131" s="1">
         <v>0</v>
@@ -41924,16 +41924,16 @@
         <v>0</v>
       </c>
       <c r="CT131" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CU131" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CV131" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CW131" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:101">
@@ -42264,10 +42264,10 @@
         <v>5214</v>
       </c>
       <c r="K133" s="2">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="L133" s="2">
-        <v>257</v>
+        <v>152</v>
       </c>
       <c r="M133" s="2">
         <v>395</v>
@@ -42351,7 +42351,7 @@
         <v>1</v>
       </c>
       <c r="AN133" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AO133" s="2">
         <v>9</v>
@@ -42486,7 +42486,7 @@
         <v>14</v>
       </c>
       <c r="CJ133" s="2">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="CK133" s="2">
         <v>85</v>
@@ -42519,10 +42519,10 @@
         <v>54314</v>
       </c>
       <c r="CU133" s="1">
-        <v>1073</v>
+        <v>1012</v>
       </c>
       <c r="CV133" s="1">
-        <v>1433</v>
+        <v>1306</v>
       </c>
       <c r="CW133" s="1">
         <v>2491</v>
@@ -42620,7 +42620,7 @@
         <v>136034</v>
       </c>
       <c r="AE134" s="2">
-        <v>3872</v>
+        <v>0</v>
       </c>
       <c r="AF134" s="2">
         <v>3872</v>
@@ -42815,7 +42815,7 @@
         <v>138005</v>
       </c>
       <c r="CU134" s="1">
-        <v>3908</v>
+        <v>36</v>
       </c>
       <c r="CV134" s="1">
         <v>3924</v>
@@ -42868,7 +42868,7 @@
         <v>147</v>
       </c>
       <c r="O135" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P135" s="2">
         <v>6</v>
@@ -43111,7 +43111,7 @@
         <v>456</v>
       </c>
       <c r="CU135" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="CV135" s="1">
         <v>18</v>
@@ -43155,7 +43155,7 @@
         <v>7</v>
       </c>
       <c r="L136" s="2">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="M136" s="2">
         <v>68</v>
@@ -43236,7 +43236,7 @@
         <v>188</v>
       </c>
       <c r="AM136" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AN136" s="2">
         <v>16</v>
@@ -43371,7 +43371,7 @@
         <v>246</v>
       </c>
       <c r="CI136" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CJ136" s="2">
         <v>15</v>
@@ -43407,10 +43407,10 @@
         <v>3662</v>
       </c>
       <c r="CU136" s="1">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="CV136" s="1">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="CW136" s="1">
         <v>213</v>
@@ -43729,16 +43729,16 @@
         <v>3</v>
       </c>
       <c r="F138" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G138" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I138" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J138" s="1">
         <v>41</v>
@@ -43996,16 +43996,16 @@
         <v>0</v>
       </c>
       <c r="CT138" s="1">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="CU138" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CV138" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CW138" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="139" spans="1:101">
@@ -44423,7 +44423,7 @@
         <v>4</v>
       </c>
       <c r="AN140" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO140" s="2">
         <v>6</v>
@@ -44558,7 +44558,7 @@
         <v>3</v>
       </c>
       <c r="CJ140" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CK140" s="2">
         <v>9</v>
@@ -44594,7 +44594,7 @@
         <v>14</v>
       </c>
       <c r="CV140" s="1">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="CW140" s="1">
         <v>133</v>
@@ -46800,10 +46800,10 @@
         <v>68</v>
       </c>
       <c r="AQ148" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR148" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS148" s="2">
         <v>6</v>
@@ -46923,10 +46923,10 @@
         <v>113</v>
       </c>
       <c r="CI148" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CJ148" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CK148" s="2">
         <v>7</v>
@@ -46959,10 +46959,10 @@
         <v>265</v>
       </c>
       <c r="CU148" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CV148" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="CW148" s="1">
         <v>15</v>
@@ -47087,7 +47087,7 @@
         <v>0</v>
       </c>
       <c r="AN149" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO149" s="2">
         <v>1</v>
@@ -47222,7 +47222,7 @@
         <v>0</v>
       </c>
       <c r="CJ149" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="CK149" s="2">
         <v>18</v>
@@ -47258,7 +47258,7 @@
         <v>5</v>
       </c>
       <c r="CV149" s="1">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="CW149" s="1">
         <v>39</v>
@@ -48355,7 +48355,7 @@
         <v>21</v>
       </c>
       <c r="BS153" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT153" s="2">
         <v>1</v>
@@ -48439,7 +48439,7 @@
         <v>2334</v>
       </c>
       <c r="CU153" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CV153" s="1">
         <v>52</v>
@@ -48483,7 +48483,7 @@
         <v>27</v>
       </c>
       <c r="L154" s="2">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="M154" s="2">
         <v>157</v>
@@ -48576,7 +48576,7 @@
         <v>43</v>
       </c>
       <c r="AQ154" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR154" s="2">
         <v>3</v>
@@ -48606,7 +48606,7 @@
         <v>1</v>
       </c>
       <c r="BA154" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB154" s="1">
         <v>1</v>
@@ -48699,7 +48699,7 @@
         <v>2555</v>
       </c>
       <c r="CI154" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="CJ154" s="2">
         <v>47</v>
@@ -48735,13 +48735,13 @@
         <v>64599</v>
       </c>
       <c r="CU154" s="1">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="CV154" s="1">
-        <v>1067</v>
+        <v>1022</v>
       </c>
       <c r="CW154" s="1">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="155" spans="1:101">
@@ -48776,7 +48776,7 @@
         <v>2769</v>
       </c>
       <c r="K155" s="2">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="L155" s="2">
         <v>108</v>
@@ -49031,7 +49031,7 @@
         <v>145486</v>
       </c>
       <c r="CU155" s="1">
-        <v>2019</v>
+        <v>1967</v>
       </c>
       <c r="CV155" s="1">
         <v>2268</v>
@@ -49936,7 +49936,7 @@
         <v>1748</v>
       </c>
       <c r="C159" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D159" s="2">
         <v>44</v>
@@ -50044,7 +50044,7 @@
         <v>130</v>
       </c>
       <c r="AM159" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN159" s="2">
         <v>4</v>
@@ -50179,7 +50179,7 @@
         <v>685</v>
       </c>
       <c r="CI159" s="2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="CJ159" s="2">
         <v>27</v>
@@ -50215,7 +50215,7 @@
         <v>18828</v>
       </c>
       <c r="CU159" s="1">
-        <v>525</v>
+        <v>499</v>
       </c>
       <c r="CV159" s="1">
         <v>610</v>
@@ -51067,7 +51067,7 @@
         <v>123</v>
       </c>
       <c r="CI162" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ162" s="2">
         <v>2</v>
@@ -51103,7 +51103,7 @@
         <v>961</v>
       </c>
       <c r="CU162" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="CV162" s="1">
         <v>73</v>
@@ -52544,16 +52544,16 @@
         <v>1</v>
       </c>
       <c r="CH167" s="1">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="CI167" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="CJ167" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="CK167" s="2">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="CL167" s="1">
         <v>4</v>
@@ -52580,16 +52580,16 @@
         <v>0</v>
       </c>
       <c r="CT167" s="1">
-        <v>4574</v>
+        <v>4584</v>
       </c>
       <c r="CU167" s="1">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="CV167" s="1">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="CW167" s="1">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="168" spans="1:101">
@@ -52840,16 +52840,16 @@
         <v>0</v>
       </c>
       <c r="CH168" s="1">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="CI168" s="2">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="CJ168" s="2">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="CK168" s="2">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="CL168" s="1">
         <v>0</v>
@@ -52876,16 +52876,16 @@
         <v>0</v>
       </c>
       <c r="CT168" s="1">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="CU168" s="1">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="CV168" s="1">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="CW168" s="1">
-        <v>77</v>
+        <v>116</v>
       </c>
     </row>
     <row r="169" spans="1:101">
@@ -53189,16 +53189,16 @@
         <v>269</v>
       </c>
       <c r="B170" s="1">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C170" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D170" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E170" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F170" s="1">
         <v>12</v>
@@ -53468,16 +53468,16 @@
         <v>0</v>
       </c>
       <c r="CT170" s="1">
-        <v>5494</v>
+        <v>5497</v>
       </c>
       <c r="CU170" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="CV170" s="1">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="CW170" s="1">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="171" spans="1:101">
@@ -54783,7 +54783,7 @@
         <v>79</v>
       </c>
       <c r="AN175" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="AO175" s="2">
         <v>109</v>
@@ -54918,7 +54918,7 @@
         <v>178</v>
       </c>
       <c r="CJ175" s="2">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="CK175" s="2">
         <v>252</v>
@@ -54954,7 +54954,7 @@
         <v>257</v>
       </c>
       <c r="CV175" s="1">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="CW175" s="1">
         <v>404</v>
@@ -55291,7 +55291,7 @@
         <v>13</v>
       </c>
       <c r="L177" s="2">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="M177" s="2">
         <v>100</v>
@@ -55300,7 +55300,7 @@
         <v>61850</v>
       </c>
       <c r="O177" s="2">
-        <v>1833</v>
+        <v>1726</v>
       </c>
       <c r="P177" s="2">
         <v>2512</v>
@@ -55375,7 +55375,7 @@
         <v>9</v>
       </c>
       <c r="AN177" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AO177" s="2">
         <v>20</v>
@@ -55510,7 +55510,7 @@
         <v>40</v>
       </c>
       <c r="CJ177" s="2">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="CK177" s="2">
         <v>123</v>
@@ -55543,10 +55543,10 @@
         <v>72130</v>
       </c>
       <c r="CU177" s="1">
-        <v>1929</v>
+        <v>1822</v>
       </c>
       <c r="CV177" s="1">
-        <v>2824</v>
+        <v>2766</v>
       </c>
       <c r="CW177" s="1">
         <v>4631</v>
@@ -55892,7 +55892,7 @@
         <v>30628</v>
       </c>
       <c r="O179" s="2">
-        <v>1006</v>
+        <v>0</v>
       </c>
       <c r="P179" s="2">
         <v>1006</v>
@@ -55961,16 +55961,16 @@
         <v>0</v>
       </c>
       <c r="AL179" s="1">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="AM179" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AN179" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO179" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AP179" s="1">
         <v>6</v>
@@ -56039,7 +56039,7 @@
         <v>769</v>
       </c>
       <c r="BO179" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BP179" s="2">
         <v>30</v>
@@ -56051,7 +56051,7 @@
         <v>28</v>
       </c>
       <c r="BS179" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT179" s="2">
         <v>1</v>
@@ -56096,16 +56096,16 @@
         <v>1</v>
       </c>
       <c r="CH179" s="1">
-        <v>1664</v>
+        <v>1687</v>
       </c>
       <c r="CI179" s="2">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="CJ179" s="2">
         <v>84</v>
       </c>
       <c r="CK179" s="2">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="CL179" s="1">
         <v>3</v>
@@ -56132,16 +56132,16 @@
         <v>0</v>
       </c>
       <c r="CT179" s="1">
-        <v>42714</v>
+        <v>42741</v>
       </c>
       <c r="CU179" s="1">
-        <v>1229</v>
+        <v>219</v>
       </c>
       <c r="CV179" s="1">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="CW179" s="1">
-        <v>2866</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="180" spans="1:101">
@@ -56445,28 +56445,28 @@
         <v>280</v>
       </c>
       <c r="B181" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C181" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E181" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F181" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G181" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H181" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I181" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J181" s="1">
         <v>0</v>
@@ -56724,16 +56724,16 @@
         <v>0</v>
       </c>
       <c r="CT181" s="1">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="CU181" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CV181" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="CW181" s="1">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="182" spans="1:101">
@@ -57351,7 +57351,7 @@
         <v>1</v>
       </c>
       <c r="H184" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" s="2">
         <v>5</v>
@@ -57618,7 +57618,7 @@
         <v>1</v>
       </c>
       <c r="CV184" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CW184" s="1">
         <v>13</v>
@@ -60317,22 +60317,22 @@
         <v>1</v>
       </c>
       <c r="J194" s="1">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="K194" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="L194" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M194" s="2">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N194" s="1">
         <v>2967</v>
       </c>
       <c r="O194" s="2">
-        <v>243</v>
+        <v>86</v>
       </c>
       <c r="P194" s="2">
         <v>398</v>
@@ -60572,16 +60572,16 @@
         <v>0</v>
       </c>
       <c r="CT194" s="1">
-        <v>4752</v>
+        <v>4762</v>
       </c>
       <c r="CU194" s="1">
-        <v>260</v>
+        <v>113</v>
       </c>
       <c r="CV194" s="1">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="CW194" s="1">
-        <v>816</v>
+        <v>826</v>
       </c>
     </row>
     <row r="195" spans="1:101">
@@ -61519,7 +61519,7 @@
         <v>27</v>
       </c>
       <c r="P198" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q198" s="2">
         <v>59</v>
@@ -61762,7 +61762,7 @@
         <v>157</v>
       </c>
       <c r="CV198" s="1">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="CW198" s="1">
         <v>477</v>
@@ -61773,16 +61773,16 @@
         <v>298</v>
       </c>
       <c r="B199" s="1">
-        <v>7836</v>
+        <v>7884</v>
       </c>
       <c r="C199" s="2">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D199" s="2">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="E199" s="2">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="F199" s="1">
         <v>0</v>
@@ -61887,7 +61887,7 @@
         <v>1</v>
       </c>
       <c r="AN199" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AO199" s="2">
         <v>12</v>
@@ -62022,7 +62022,7 @@
         <v>24</v>
       </c>
       <c r="CJ199" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="CK199" s="2">
         <v>119</v>
@@ -62052,16 +62052,16 @@
         <v>0</v>
       </c>
       <c r="CT199" s="1">
-        <v>78070</v>
+        <v>78118</v>
       </c>
       <c r="CU199" s="1">
-        <v>3558</v>
+        <v>3542</v>
       </c>
       <c r="CV199" s="1">
-        <v>3776</v>
+        <v>3793</v>
       </c>
       <c r="CW199" s="1">
-        <v>6883</v>
+        <v>6931</v>
       </c>
     </row>
     <row r="200" spans="1:101">
@@ -63361,16 +63361,16 @@
         <v>0</v>
       </c>
       <c r="AL204" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM204" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN204" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO204" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP204" s="1">
         <v>68</v>
@@ -63502,22 +63502,22 @@
         <v>0</v>
       </c>
       <c r="CJ204" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="CK204" s="2">
         <v>19</v>
       </c>
       <c r="CL204" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CM204" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN204" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO204" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP204" s="1">
         <v>0</v>
@@ -63532,16 +63532,16 @@
         <v>0</v>
       </c>
       <c r="CT204" s="1">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="CU204" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CV204" s="1">
         <v>31</v>
       </c>
       <c r="CW204" s="1">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="205" spans="1:101">
@@ -63675,7 +63675,7 @@
         <v>0</v>
       </c>
       <c r="AR205" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS205" s="2">
         <v>4</v>
@@ -63798,7 +63798,7 @@
         <v>0</v>
       </c>
       <c r="CJ205" s="2">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="CK205" s="2">
         <v>99</v>
@@ -63834,7 +63834,7 @@
         <v>55</v>
       </c>
       <c r="CV205" s="1">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="CW205" s="1">
         <v>370</v>
@@ -64763,7 +64763,7 @@
         <v>14</v>
       </c>
       <c r="L209" s="2">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M209" s="2">
         <v>63</v>
@@ -65018,7 +65018,7 @@
         <v>151</v>
       </c>
       <c r="CV209" s="1">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="CW209" s="1">
         <v>533</v>
@@ -67408,7 +67408,7 @@
         <v>591</v>
       </c>
       <c r="D74">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="E74" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3491,7 +3491,7 @@
         <v>34</v>
       </c>
       <c r="L2" s="2">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="M2" s="2">
         <v>252</v>
@@ -3647,7 +3647,7 @@
         <v>305</v>
       </c>
       <c r="BO2" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BP2" s="2">
         <v>2</v>
@@ -3743,10 +3743,10 @@
         <v>39960</v>
       </c>
       <c r="CU2" s="1">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="CV2" s="1">
-        <v>1295</v>
+        <v>1218</v>
       </c>
       <c r="CW2" s="1">
         <v>2728</v>
@@ -3796,7 +3796,7 @@
         <v>8678</v>
       </c>
       <c r="O3" s="2">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="P3" s="2">
         <v>82</v>
@@ -4039,7 +4039,7 @@
         <v>38977</v>
       </c>
       <c r="CU3" s="1">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c r="CV3" s="1">
         <v>627</v>
@@ -4092,7 +4092,7 @@
         <v>2857</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P4" s="2">
         <v>16</v>
@@ -4239,7 +4239,7 @@
         <v>190</v>
       </c>
       <c r="BO4" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BP4" s="2">
         <v>3</v>
@@ -4302,7 +4302,7 @@
         <v>22</v>
       </c>
       <c r="CJ4" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="CK4" s="2">
         <v>101</v>
@@ -4335,10 +4335,10 @@
         <v>35836</v>
       </c>
       <c r="CU4" s="1">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="CV4" s="1">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="CW4" s="1">
         <v>556</v>
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2">
         <v>14</v>
@@ -7435,7 +7435,7 @@
         <v>2</v>
       </c>
       <c r="AR15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS15" s="2">
         <v>6</v>
@@ -7558,7 +7558,7 @@
         <v>2</v>
       </c>
       <c r="CJ15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CK15" s="2">
         <v>14</v>
@@ -7570,7 +7570,7 @@
         <v>2</v>
       </c>
       <c r="CN15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CO15" s="2">
         <v>3</v>
@@ -7594,7 +7594,7 @@
         <v>10</v>
       </c>
       <c r="CV15" s="1">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="CW15" s="1">
         <v>64</v>
@@ -7719,7 +7719,7 @@
         <v>3</v>
       </c>
       <c r="AN16" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AO16" s="2">
         <v>20</v>
@@ -7854,7 +7854,7 @@
         <v>2</v>
       </c>
       <c r="CJ16" s="2">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="CK16" s="2">
         <v>26</v>
@@ -7890,7 +7890,7 @@
         <v>-164</v>
       </c>
       <c r="CV16" s="1">
-        <v>-127</v>
+        <v>-150</v>
       </c>
       <c r="CW16" s="1">
         <v>-116</v>
@@ -7922,7 +7922,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -8189,7 +8189,7 @@
         <v>3</v>
       </c>
       <c r="CW17" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:101">
@@ -8493,16 +8493,16 @@
         <v>118</v>
       </c>
       <c r="B19" s="1">
-        <v>4471</v>
+        <v>4502</v>
       </c>
       <c r="C19" s="2">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D19" s="2">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E19" s="2">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -8517,16 +8517,16 @@
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K19" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L19" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M19" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N19" s="1">
         <v>11143</v>
@@ -8535,7 +8535,7 @@
         <v>186</v>
       </c>
       <c r="P19" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q19" s="2">
         <v>388</v>
@@ -8772,16 +8772,16 @@
         <v>0</v>
       </c>
       <c r="CT19" s="1">
-        <v>18156</v>
+        <v>18186</v>
       </c>
       <c r="CU19" s="1">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="CV19" s="1">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="CW19" s="1">
-        <v>611</v>
+        <v>641</v>
       </c>
     </row>
     <row r="20" spans="1:101">
@@ -8915,7 +8915,7 @@
         <v>0</v>
       </c>
       <c r="AR20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS20" s="2">
         <v>2</v>
@@ -9038,7 +9038,7 @@
         <v>17</v>
       </c>
       <c r="CJ20" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="CK20" s="2">
         <v>42</v>
@@ -9074,7 +9074,7 @@
         <v>20</v>
       </c>
       <c r="CV20" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="CW20" s="1">
         <v>58</v>
@@ -9393,13 +9393,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22" s="2">
         <v>5</v>
@@ -9501,16 +9501,16 @@
         <v>0</v>
       </c>
       <c r="AP22" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AQ22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS22" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT22" s="1">
         <v>0</v>
@@ -9624,16 +9624,16 @@
         <v>1</v>
       </c>
       <c r="CH22" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CI22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ22" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CK22" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CL22" s="1">
         <v>41</v>
@@ -9660,16 +9660,16 @@
         <v>0</v>
       </c>
       <c r="CT22" s="1">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="CU22" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CV22" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CW22" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:101">
@@ -10287,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
@@ -10554,7 +10554,7 @@
         <v>2</v>
       </c>
       <c r="CV25" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CW25" s="1">
         <v>9</v>
@@ -10891,7 +10891,7 @@
         <v>10</v>
       </c>
       <c r="L27" s="2">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M27" s="2">
         <v>59</v>
@@ -10975,22 +10975,22 @@
         <v>0</v>
       </c>
       <c r="AN27" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO27" s="2">
         <v>5</v>
       </c>
       <c r="AP27" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR27" s="2">
         <v>3</v>
       </c>
       <c r="AS27" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT27" s="1">
         <v>1</v>
@@ -11104,16 +11104,16 @@
         <v>1</v>
       </c>
       <c r="CH27" s="1">
-        <v>2931</v>
+        <v>2932</v>
       </c>
       <c r="CI27" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CJ27" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CK27" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CL27" s="1">
         <v>20</v>
@@ -11140,16 +11140,16 @@
         <v>0</v>
       </c>
       <c r="CT27" s="1">
-        <v>22377</v>
+        <v>22379</v>
       </c>
       <c r="CU27" s="1">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="CV27" s="1">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="CW27" s="1">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:101">
@@ -11175,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28" s="2">
         <v>6</v>
@@ -11442,7 +11442,7 @@
         <v>0</v>
       </c>
       <c r="CV28" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CW28" s="1">
         <v>6</v>
@@ -11471,7 +11471,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29" s="2">
         <v>6</v>
@@ -11738,7 +11738,7 @@
         <v>0</v>
       </c>
       <c r="CV29" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CW29" s="1">
         <v>6</v>
@@ -12045,16 +12045,16 @@
         <v>130</v>
       </c>
       <c r="B31" s="1">
-        <v>2279</v>
+        <v>2290</v>
       </c>
       <c r="C31" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E31" s="2">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -12078,7 +12078,7 @@
         <v>15</v>
       </c>
       <c r="M31" s="2">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="N31" s="1">
         <v>5583</v>
@@ -12324,16 +12324,16 @@
         <v>0</v>
       </c>
       <c r="CT31" s="1">
-        <v>9429</v>
+        <v>9440</v>
       </c>
       <c r="CU31" s="1">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="CV31" s="1">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="CW31" s="1">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="32" spans="1:101">
@@ -12350,7 +12350,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" s="1">
         <v>31</v>
@@ -12362,7 +12362,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -12629,7 +12629,7 @@
         <v>0</v>
       </c>
       <c r="CW32" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:101">
@@ -12886,7 +12886,7 @@
         <v>12</v>
       </c>
       <c r="CJ33" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="CK33" s="2">
         <v>30</v>
@@ -12922,7 +12922,7 @@
         <v>47</v>
       </c>
       <c r="CV33" s="1">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="CW33" s="1">
         <v>339</v>
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I34" s="2">
         <v>6</v>
@@ -13218,7 +13218,7 @@
         <v>0</v>
       </c>
       <c r="CV34" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CW34" s="1">
         <v>6</v>
@@ -13543,7 +13543,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I36" s="2">
         <v>6</v>
@@ -13810,7 +13810,7 @@
         <v>0</v>
       </c>
       <c r="CV36" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CW36" s="1">
         <v>6</v>
@@ -13827,7 +13827,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E37" s="2">
         <v>8</v>
@@ -13860,7 +13860,7 @@
         <v>737</v>
       </c>
       <c r="O37" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P37" s="2">
         <v>18</v>
@@ -14019,7 +14019,7 @@
         <v>17</v>
       </c>
       <c r="BS37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT37" s="2">
         <v>1</v>
@@ -14103,10 +14103,10 @@
         <v>1653</v>
       </c>
       <c r="CU37" s="1">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="CV37" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="CW37" s="1">
         <v>64</v>
@@ -14413,16 +14413,16 @@
         <v>138</v>
       </c>
       <c r="B39" s="1">
-        <v>12156</v>
+        <v>12154</v>
       </c>
       <c r="C39" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E39" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -14443,7 +14443,7 @@
         <v>43</v>
       </c>
       <c r="L39" s="2">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="M39" s="2">
         <v>190</v>
@@ -14530,7 +14530,7 @@
         <v>5</v>
       </c>
       <c r="AO39" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AP39" s="1">
         <v>27</v>
@@ -14665,7 +14665,7 @@
         <v>80</v>
       </c>
       <c r="CK39" s="2">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="CL39" s="1">
         <v>13</v>
@@ -14692,16 +14692,16 @@
         <v>1</v>
       </c>
       <c r="CT39" s="1">
-        <v>51936</v>
+        <v>51934</v>
       </c>
       <c r="CU39" s="1">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="CV39" s="1">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="CW39" s="1">
-        <v>1831</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="40" spans="1:101">
@@ -15023,7 +15023,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I41" s="2">
         <v>6</v>
@@ -15290,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="CV41" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CW41" s="1">
         <v>6</v>
@@ -15684,7 +15684,7 @@
         <v>39768</v>
       </c>
       <c r="AE43" s="2">
-        <v>1997</v>
+        <v>0</v>
       </c>
       <c r="AF43" s="2">
         <v>1997</v>
@@ -15720,7 +15720,7 @@
         <v>51</v>
       </c>
       <c r="AQ43" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR43" s="2">
         <v>3</v>
@@ -15732,7 +15732,7 @@
         <v>29</v>
       </c>
       <c r="AU43" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV43" s="2">
         <v>4</v>
@@ -15843,7 +15843,7 @@
         <v>809</v>
       </c>
       <c r="CI43" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="CJ43" s="2">
         <v>12</v>
@@ -15879,7 +15879,7 @@
         <v>43917</v>
       </c>
       <c r="CU43" s="1">
-        <v>2074</v>
+        <v>68</v>
       </c>
       <c r="CV43" s="1">
         <v>2123</v>
@@ -17098,7 +17098,7 @@
         <v>2</v>
       </c>
       <c r="I48" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J48" s="1">
         <v>0</v>
@@ -17365,7 +17365,7 @@
         <v>6</v>
       </c>
       <c r="CW48" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:101">
@@ -17625,7 +17625,7 @@
         <v>110</v>
       </c>
       <c r="CK49" s="2">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="CL49" s="1">
         <v>0</v>
@@ -17661,7 +17661,7 @@
         <v>136</v>
       </c>
       <c r="CW49" s="1">
-        <v>228</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:101">
@@ -18073,28 +18073,28 @@
         <v>0</v>
       </c>
       <c r="AL51" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AM51" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN51" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO51" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT51" s="1">
         <v>0</v>
@@ -18208,16 +18208,16 @@
         <v>0</v>
       </c>
       <c r="CH51" s="1">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="CI51" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CJ51" s="2">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="CK51" s="2">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="CL51" s="1">
         <v>1</v>
@@ -18244,16 +18244,16 @@
         <v>0</v>
       </c>
       <c r="CT51" s="1">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="CU51" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CV51" s="1">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="CW51" s="1">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:101">
@@ -18372,7 +18372,7 @@
         <v>21</v>
       </c>
       <c r="AM52" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN52" s="2">
         <v>4</v>
@@ -18507,7 +18507,7 @@
         <v>72</v>
       </c>
       <c r="CI52" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CJ52" s="2">
         <v>9</v>
@@ -18543,7 +18543,7 @@
         <v>165</v>
       </c>
       <c r="CU52" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="CV52" s="1">
         <v>15</v>
@@ -19102,7 +19102,7 @@
         <v>9</v>
       </c>
       <c r="CJ54" s="2">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="CK54" s="2">
         <v>37</v>
@@ -19138,7 +19138,7 @@
         <v>152</v>
       </c>
       <c r="CV54" s="1">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="CW54" s="1">
         <v>443</v>
@@ -19747,7 +19747,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E57" s="2">
         <v>5</v>
@@ -19780,7 +19780,7 @@
         <v>276</v>
       </c>
       <c r="O57" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P57" s="2">
         <v>9</v>
@@ -20023,10 +20023,10 @@
         <v>705</v>
       </c>
       <c r="CU57" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="CV57" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="CW57" s="1">
         <v>40</v>
@@ -20357,16 +20357,16 @@
         <v>0</v>
       </c>
       <c r="J59" s="1">
-        <v>1722</v>
+        <v>1741</v>
       </c>
       <c r="K59" s="2">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="L59" s="2">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="M59" s="2">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="N59" s="1">
         <v>42074</v>
@@ -20612,16 +20612,16 @@
         <v>0</v>
       </c>
       <c r="CT59" s="1">
-        <v>61679</v>
+        <v>61698</v>
       </c>
       <c r="CU59" s="1">
-        <v>1650</v>
+        <v>1669</v>
       </c>
       <c r="CV59" s="1">
-        <v>2428</v>
+        <v>2415</v>
       </c>
       <c r="CW59" s="1">
-        <v>3197</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="60" spans="1:101">
@@ -20928,7 +20928,7 @@
         <v>415</v>
       </c>
       <c r="C61" s="2">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D61" s="2">
         <v>32</v>
@@ -20952,7 +20952,7 @@
         <v>268</v>
       </c>
       <c r="K61" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L61" s="2">
         <v>7</v>
@@ -20964,7 +20964,7 @@
         <v>908</v>
       </c>
       <c r="O61" s="2">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="P61" s="2">
         <v>29</v>
@@ -21171,10 +21171,10 @@
         <v>495</v>
       </c>
       <c r="CI61" s="2">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="CJ61" s="2">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="CK61" s="2">
         <v>59</v>
@@ -21207,10 +21207,10 @@
         <v>2251</v>
       </c>
       <c r="CU61" s="1">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="CV61" s="1">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="CW61" s="1">
         <v>197</v>
@@ -21308,7 +21308,7 @@
         <v>1535</v>
       </c>
       <c r="AE62" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF62" s="2">
         <v>21</v>
@@ -21503,7 +21503,7 @@
         <v>6704</v>
       </c>
       <c r="CU62" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="CV62" s="1">
         <v>161</v>
@@ -21843,7 +21843,7 @@
         <v>30</v>
       </c>
       <c r="L64" s="2">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="M64" s="2">
         <v>105</v>
@@ -22098,7 +22098,7 @@
         <v>35</v>
       </c>
       <c r="CV64" s="1">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="CW64" s="1">
         <v>121</v>
@@ -22112,7 +22112,7 @@
         <v>2220</v>
       </c>
       <c r="C65" s="2">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D65" s="2">
         <v>52</v>
@@ -22391,7 +22391,7 @@
         <v>3059</v>
       </c>
       <c r="CU65" s="1">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="CV65" s="1">
         <v>79</v>
@@ -22722,7 +22722,7 @@
         <v>4</v>
       </c>
       <c r="I67" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J67" s="1">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>4</v>
       </c>
       <c r="CW67" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:101">
@@ -23111,7 +23111,7 @@
         <v>0</v>
       </c>
       <c r="AN68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO68" s="2">
         <v>1</v>
@@ -23123,7 +23123,7 @@
         <v>2</v>
       </c>
       <c r="AR68" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS68" s="2">
         <v>5</v>
@@ -23258,7 +23258,7 @@
         <v>1</v>
       </c>
       <c r="CN68" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CO68" s="2">
         <v>5</v>
@@ -23282,7 +23282,7 @@
         <v>25</v>
       </c>
       <c r="CV68" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="CW68" s="1">
         <v>69</v>
@@ -24208,7 +24208,7 @@
         <v>9304</v>
       </c>
       <c r="K72" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="L72" s="2">
         <v>226</v>
@@ -24268,7 +24268,7 @@
         <v>13085</v>
       </c>
       <c r="AE72" s="2">
-        <v>124</v>
+        <v>-39</v>
       </c>
       <c r="AF72" s="2">
         <v>777</v>
@@ -24289,16 +24289,16 @@
         <v>0</v>
       </c>
       <c r="AL72" s="1">
-        <v>35232</v>
+        <v>35236</v>
       </c>
       <c r="AM72" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AN72" s="2">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="AO72" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AP72" s="1">
         <v>0</v>
@@ -24424,16 +24424,16 @@
         <v>1</v>
       </c>
       <c r="CH72" s="1">
-        <v>15160</v>
+        <v>15172</v>
       </c>
       <c r="CI72" s="2">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="CJ72" s="2">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="CK72" s="2">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="CL72" s="1">
         <v>0</v>
@@ -24460,16 +24460,16 @@
         <v>1</v>
       </c>
       <c r="CT72" s="1">
-        <v>156932</v>
+        <v>156948</v>
       </c>
       <c r="CU72" s="1">
-        <v>1572</v>
+        <v>1342</v>
       </c>
       <c r="CV72" s="1">
-        <v>2722</v>
+        <v>2668</v>
       </c>
       <c r="CW72" s="1">
-        <v>5912</v>
+        <v>5928</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -24585,16 +24585,16 @@
         <v>0</v>
       </c>
       <c r="AL73" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AM73" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN73" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO73" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP73" s="1">
         <v>3</v>
@@ -24720,16 +24720,16 @@
         <v>1</v>
       </c>
       <c r="CH73" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="CI73" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CJ73" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CK73" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CL73" s="1">
         <v>3</v>
@@ -24756,16 +24756,16 @@
         <v>0</v>
       </c>
       <c r="CT73" s="1">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="CU73" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="CV73" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="CW73" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:101">
@@ -24773,16 +24773,16 @@
         <v>173</v>
       </c>
       <c r="B74" s="1">
-        <v>4462</v>
+        <v>4461</v>
       </c>
       <c r="C74" s="2">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="D74" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E74" s="2">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -24803,7 +24803,7 @@
         <v>69</v>
       </c>
       <c r="L74" s="2">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="M74" s="2">
         <v>318</v>
@@ -24815,7 +24815,7 @@
         <v>2480</v>
       </c>
       <c r="P74" s="2">
-        <v>2561</v>
+        <v>2544</v>
       </c>
       <c r="Q74" s="2">
         <v>5564</v>
@@ -24887,7 +24887,7 @@
         <v>2</v>
       </c>
       <c r="AN74" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO74" s="2">
         <v>10</v>
@@ -25022,7 +25022,7 @@
         <v>40</v>
       </c>
       <c r="CJ74" s="2">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="CK74" s="2">
         <v>126</v>
@@ -25052,16 +25052,16 @@
         <v>0</v>
       </c>
       <c r="CT74" s="1">
-        <v>136909</v>
+        <v>136908</v>
       </c>
       <c r="CU74" s="1">
-        <v>3068</v>
+        <v>3019</v>
       </c>
       <c r="CV74" s="1">
-        <v>3386</v>
+        <v>3266</v>
       </c>
       <c r="CW74" s="1">
-        <v>7241</v>
+        <v>7202</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25078,7 +25078,7 @@
         <v>226</v>
       </c>
       <c r="E75" s="2">
-        <v>586</v>
+        <v>501</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -25099,7 +25099,7 @@
         <v>65</v>
       </c>
       <c r="L75" s="2">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="M75" s="2">
         <v>254</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="CH75" s="1">
-        <v>5650</v>
+        <v>5667</v>
       </c>
       <c r="CI75" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="CJ75" s="2">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="CK75" s="2">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="CL75" s="1">
         <v>97</v>
       </c>
       <c r="CM75" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CN75" s="2">
         <v>4</v>
@@ -25348,16 +25348,16 @@
         <v>6</v>
       </c>
       <c r="CT75" s="1">
-        <v>345804</v>
+        <v>345821</v>
       </c>
       <c r="CU75" s="1">
         <v>4576</v>
       </c>
       <c r="CV75" s="1">
-        <v>4985</v>
+        <v>4947</v>
       </c>
       <c r="CW75" s="1">
-        <v>11065</v>
+        <v>10997</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -25395,7 +25395,7 @@
         <v>48</v>
       </c>
       <c r="L76" s="2">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="M76" s="2">
         <v>259</v>
@@ -25614,7 +25614,7 @@
         <v>19</v>
       </c>
       <c r="CJ76" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="CK76" s="2">
         <v>75</v>
@@ -25650,7 +25650,7 @@
         <v>941</v>
       </c>
       <c r="CV76" s="1">
-        <v>1161</v>
+        <v>1097</v>
       </c>
       <c r="CW76" s="1">
         <v>2186</v>
@@ -25772,7 +25772,7 @@
         <v>298</v>
       </c>
       <c r="AM77" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AN77" s="2">
         <v>40</v>
@@ -25907,7 +25907,7 @@
         <v>355</v>
       </c>
       <c r="CI77" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="CJ77" s="2">
         <v>66</v>
@@ -25943,7 +25943,7 @@
         <v>783</v>
       </c>
       <c r="CU77" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="CV77" s="1">
         <v>108</v>
@@ -25996,7 +25996,7 @@
         <v>3029</v>
       </c>
       <c r="O78" s="2">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="P78" s="2">
         <v>43</v>
@@ -26239,7 +26239,7 @@
         <v>5291</v>
       </c>
       <c r="CU78" s="1">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="CV78" s="1">
         <v>127</v>
@@ -26382,7 +26382,7 @@
         <v>3</v>
       </c>
       <c r="AS79" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT79" s="1">
         <v>0</v>
@@ -26517,7 +26517,7 @@
         <v>2</v>
       </c>
       <c r="CO79" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CP79" s="1">
         <v>0</v>
@@ -26541,7 +26541,7 @@
         <v>9</v>
       </c>
       <c r="CW79" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:101">
@@ -26579,7 +26579,7 @@
         <v>206</v>
       </c>
       <c r="L80" s="2">
-        <v>460</v>
+        <v>350</v>
       </c>
       <c r="M80" s="2">
         <v>656</v>
@@ -26588,7 +26588,7 @@
         <v>37304</v>
       </c>
       <c r="O80" s="2">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="P80" s="2">
         <v>437</v>
@@ -26792,16 +26792,16 @@
         <v>1</v>
       </c>
       <c r="CH80" s="1">
-        <v>12937</v>
+        <v>12975</v>
       </c>
       <c r="CI80" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="CJ80" s="2">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="CK80" s="2">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="CL80" s="1">
         <v>0</v>
@@ -26828,16 +26828,16 @@
         <v>0</v>
       </c>
       <c r="CT80" s="1">
-        <v>378859</v>
+        <v>378897</v>
       </c>
       <c r="CU80" s="1">
-        <v>2383</v>
+        <v>1991</v>
       </c>
       <c r="CV80" s="1">
-        <v>2913</v>
+        <v>2842</v>
       </c>
       <c r="CW80" s="1">
-        <v>32990</v>
+        <v>33028</v>
       </c>
     </row>
     <row r="81" spans="1:101">
@@ -27449,16 +27449,16 @@
         <v>6</v>
       </c>
       <c r="F83" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G83" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J83" s="1">
         <v>102</v>
@@ -27476,7 +27476,7 @@
         <v>1456</v>
       </c>
       <c r="O83" s="2">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="P83" s="2">
         <v>36</v>
@@ -27716,16 +27716,16 @@
         <v>0</v>
       </c>
       <c r="CT83" s="1">
-        <v>2571</v>
+        <v>2572</v>
       </c>
       <c r="CU83" s="1">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="CV83" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CW83" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:101">
@@ -27841,16 +27841,16 @@
         <v>0</v>
       </c>
       <c r="AL84" s="1">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AM84" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN84" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO84" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AP84" s="1">
         <v>24</v>
@@ -27976,16 +27976,16 @@
         <v>0</v>
       </c>
       <c r="CH84" s="1">
-        <v>1490</v>
+        <v>1515</v>
       </c>
       <c r="CI84" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CJ84" s="2">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="CK84" s="2">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="CL84" s="1">
         <v>15</v>
@@ -28012,16 +28012,16 @@
         <v>0</v>
       </c>
       <c r="CT84" s="1">
-        <v>1869</v>
+        <v>1898</v>
       </c>
       <c r="CU84" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="CV84" s="1">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="CW84" s="1">
-        <v>491</v>
+        <v>520</v>
       </c>
     </row>
     <row r="85" spans="1:101">
@@ -28047,7 +28047,7 @@
         <v>0</v>
       </c>
       <c r="H85" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" s="2">
         <v>3</v>
@@ -28059,7 +28059,7 @@
         <v>14</v>
       </c>
       <c r="L85" s="2">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M85" s="2">
         <v>45</v>
@@ -28314,7 +28314,7 @@
         <v>95</v>
       </c>
       <c r="CV85" s="1">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="CW85" s="1">
         <v>347</v>
@@ -28364,7 +28364,7 @@
         <v>31</v>
       </c>
       <c r="O86" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P86" s="2">
         <v>4</v>
@@ -28607,7 +28607,7 @@
         <v>1443</v>
       </c>
       <c r="CU86" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="CV86" s="1">
         <v>48</v>
@@ -28917,16 +28917,16 @@
         <v>187</v>
       </c>
       <c r="B88" s="1">
-        <v>6394</v>
+        <v>6441</v>
       </c>
       <c r="C88" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="D88" s="2">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="E88" s="2">
-        <v>237</v>
+        <v>284</v>
       </c>
       <c r="F88" s="1">
         <v>2</v>
@@ -28947,7 +28947,7 @@
         <v>48</v>
       </c>
       <c r="L88" s="2">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="M88" s="2">
         <v>289</v>
@@ -29031,7 +29031,7 @@
         <v>0</v>
       </c>
       <c r="AN88" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO88" s="2">
         <v>6</v>
@@ -29166,7 +29166,7 @@
         <v>21</v>
       </c>
       <c r="CJ88" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="CK88" s="2">
         <v>144</v>
@@ -29196,16 +29196,16 @@
         <v>0</v>
       </c>
       <c r="CT88" s="1">
-        <v>22992</v>
+        <v>23039</v>
       </c>
       <c r="CU88" s="1">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="CV88" s="1">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="CW88" s="1">
-        <v>748</v>
+        <v>795</v>
       </c>
     </row>
     <row r="89" spans="1:101">
@@ -29237,16 +29237,16 @@
         <v>3</v>
       </c>
       <c r="J89" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K89" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L89" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M89" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N89" s="1">
         <v>1627</v>
@@ -29462,7 +29462,7 @@
         <v>5</v>
       </c>
       <c r="CJ89" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="CK89" s="2">
         <v>18</v>
@@ -29492,16 +29492,16 @@
         <v>0</v>
       </c>
       <c r="CT89" s="1">
-        <v>3465</v>
+        <v>3467</v>
       </c>
       <c r="CU89" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="CV89" s="1">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="CW89" s="1">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:101">
@@ -30714,7 +30714,7 @@
         <v>3</v>
       </c>
       <c r="I94" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J94" s="1">
         <v>0</v>
@@ -30822,7 +30822,7 @@
         <v>2</v>
       </c>
       <c r="AS94" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AT94" s="1">
         <v>0</v>
@@ -30945,7 +30945,7 @@
         <v>5</v>
       </c>
       <c r="CK94" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CL94" s="1">
         <v>31</v>
@@ -30981,7 +30981,7 @@
         <v>11</v>
       </c>
       <c r="CW94" s="1">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:101">
@@ -32182,7 +32182,7 @@
         <v>373</v>
       </c>
       <c r="E99" s="2">
-        <v>671</v>
+        <v>571</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
@@ -32203,7 +32203,7 @@
         <v>0</v>
       </c>
       <c r="L99" s="2">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="M99" s="2">
         <v>352</v>
@@ -32458,10 +32458,10 @@
         <v>297</v>
       </c>
       <c r="CV99" s="1">
-        <v>1048</v>
+        <v>957</v>
       </c>
       <c r="CW99" s="1">
-        <v>1846</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="100" spans="1:101">
@@ -32577,16 +32577,16 @@
         <v>0</v>
       </c>
       <c r="AL100" s="1">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="AM100" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AN100" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AO100" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="AP100" s="1">
         <v>0</v>
@@ -32712,16 +32712,16 @@
         <v>0</v>
       </c>
       <c r="CH100" s="1">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="CI100" s="2">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="CJ100" s="2">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="CK100" s="2">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="CL100" s="1">
         <v>0</v>
@@ -32748,16 +32748,16 @@
         <v>0</v>
       </c>
       <c r="CT100" s="1">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="CU100" s="1">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="CV100" s="1">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="CW100" s="1">
-        <v>307</v>
+        <v>352</v>
       </c>
     </row>
     <row r="101" spans="1:101">
@@ -33310,7 +33310,7 @@
         <v>6</v>
       </c>
       <c r="CJ102" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="CK102" s="2">
         <v>27</v>
@@ -33346,7 +33346,7 @@
         <v>152</v>
       </c>
       <c r="CV102" s="1">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="CW102" s="1">
         <v>559</v>
@@ -33387,7 +33387,7 @@
         <v>149</v>
       </c>
       <c r="L103" s="2">
-        <v>533</v>
+        <v>373</v>
       </c>
       <c r="M103" s="2">
         <v>762</v>
@@ -33465,16 +33465,16 @@
         <v>0</v>
       </c>
       <c r="AL103" s="1">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AM103" s="2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN103" s="2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO103" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP103" s="1">
         <v>7</v>
@@ -33600,16 +33600,16 @@
         <v>1</v>
       </c>
       <c r="CH103" s="1">
-        <v>5539</v>
+        <v>5567</v>
       </c>
       <c r="CI103" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="CJ103" s="2">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="CK103" s="2">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="CL103" s="1">
         <v>0</v>
@@ -33636,16 +33636,16 @@
         <v>0</v>
       </c>
       <c r="CT103" s="1">
-        <v>83214</v>
+        <v>83244</v>
       </c>
       <c r="CU103" s="1">
-        <v>6830</v>
+        <v>6860</v>
       </c>
       <c r="CV103" s="1">
-        <v>11480</v>
+        <v>11350</v>
       </c>
       <c r="CW103" s="1">
-        <v>13358</v>
+        <v>13388</v>
       </c>
     </row>
     <row r="104" spans="1:101">
@@ -34284,7 +34284,7 @@
         <v>263</v>
       </c>
       <c r="O106" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P106" s="2">
         <v>16</v>
@@ -34356,7 +34356,7 @@
         <v>69</v>
       </c>
       <c r="AM106" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AN106" s="2">
         <v>17</v>
@@ -34491,7 +34491,7 @@
         <v>290</v>
       </c>
       <c r="CI106" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CJ106" s="2">
         <v>24</v>
@@ -34527,7 +34527,7 @@
         <v>625</v>
       </c>
       <c r="CU106" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="CV106" s="1">
         <v>57</v>
@@ -34655,7 +34655,7 @@
         <v>2</v>
       </c>
       <c r="AN107" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO107" s="2">
         <v>8</v>
@@ -34784,16 +34784,16 @@
         <v>1</v>
       </c>
       <c r="CH107" s="1">
-        <v>1489</v>
+        <v>1507</v>
       </c>
       <c r="CI107" s="2">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="CJ107" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="CK107" s="2">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="CL107" s="1">
         <v>0</v>
@@ -34820,16 +34820,16 @@
         <v>0</v>
       </c>
       <c r="CT107" s="1">
-        <v>10387</v>
+        <v>10405</v>
       </c>
       <c r="CU107" s="1">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="CV107" s="1">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="CW107" s="1">
-        <v>700</v>
+        <v>718</v>
       </c>
     </row>
     <row r="108" spans="1:101">
@@ -34849,16 +34849,16 @@
         <v>2</v>
       </c>
       <c r="F108" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G108" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J108" s="1">
         <v>0</v>
@@ -35116,16 +35116,16 @@
         <v>0</v>
       </c>
       <c r="CT108" s="1">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="CU108" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CV108" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="CW108" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="109" spans="1:101">
@@ -35615,7 +35615,7 @@
         <v>30</v>
       </c>
       <c r="BO110" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BP110" s="2">
         <v>7</v>
@@ -35678,7 +35678,7 @@
         <v>13</v>
       </c>
       <c r="CJ110" s="2">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="CK110" s="2">
         <v>101</v>
@@ -35711,10 +35711,10 @@
         <v>140613</v>
       </c>
       <c r="CU110" s="1">
-        <v>5052</v>
+        <v>5045</v>
       </c>
       <c r="CV110" s="1">
-        <v>5260</v>
+        <v>5253</v>
       </c>
       <c r="CW110" s="1">
         <v>10614</v>
@@ -36344,7 +36344,7 @@
         <v>4166</v>
       </c>
       <c r="K113" s="2">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="L113" s="2">
         <v>144</v>
@@ -36425,16 +36425,16 @@
         <v>0</v>
       </c>
       <c r="AL113" s="1">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="AM113" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AN113" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AO113" s="2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AP113" s="1">
         <v>26</v>
@@ -36560,16 +36560,16 @@
         <v>1</v>
       </c>
       <c r="CH113" s="1">
-        <v>992</v>
+        <v>1001</v>
       </c>
       <c r="CI113" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="CJ113" s="2">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="CK113" s="2">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="CL113" s="1">
         <v>11</v>
@@ -36596,16 +36596,16 @@
         <v>0</v>
       </c>
       <c r="CT113" s="1">
-        <v>18448</v>
+        <v>18463</v>
       </c>
       <c r="CU113" s="1">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="CV113" s="1">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="CW113" s="1">
-        <v>980</v>
+        <v>995</v>
       </c>
     </row>
     <row r="114" spans="1:101">
@@ -36613,16 +36613,16 @@
         <v>213</v>
       </c>
       <c r="B114" s="1">
-        <v>6824</v>
+        <v>6920</v>
       </c>
       <c r="C114" s="2">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="D114" s="2">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="E114" s="2">
-        <v>517</v>
+        <v>613</v>
       </c>
       <c r="F114" s="1">
         <v>0</v>
@@ -36637,16 +36637,16 @@
         <v>0</v>
       </c>
       <c r="J114" s="1">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K114" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L114" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M114" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N114" s="1">
         <v>2238</v>
@@ -36892,16 +36892,16 @@
         <v>0</v>
       </c>
       <c r="CT114" s="1">
-        <v>10035</v>
+        <v>10134</v>
       </c>
       <c r="CU114" s="1">
-        <v>158</v>
+        <v>257</v>
       </c>
       <c r="CV114" s="1">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="CW114" s="1">
-        <v>719</v>
+        <v>818</v>
       </c>
     </row>
     <row r="115" spans="1:101">
@@ -37630,7 +37630,7 @@
         <v>3</v>
       </c>
       <c r="AS117" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT117" s="1">
         <v>0</v>
@@ -37765,7 +37765,7 @@
         <v>3</v>
       </c>
       <c r="CO117" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CP117" s="1">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>16</v>
       </c>
       <c r="CW117" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" spans="1:101">
@@ -38395,7 +38395,7 @@
         <v>4</v>
       </c>
       <c r="D120" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E120" s="2">
         <v>13</v>
@@ -38407,7 +38407,7 @@
         <v>0</v>
       </c>
       <c r="H120" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" s="2">
         <v>1</v>
@@ -38674,7 +38674,7 @@
         <v>4</v>
       </c>
       <c r="CV120" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CW120" s="1">
         <v>14</v>
@@ -38706,7 +38706,7 @@
         <v>1</v>
       </c>
       <c r="I121" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J121" s="1">
         <v>140</v>
@@ -38973,7 +38973,7 @@
         <v>22</v>
       </c>
       <c r="CW121" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:101">
@@ -40028,7 +40028,7 @@
         <v>2</v>
       </c>
       <c r="BC125" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD125" s="2">
         <v>2</v>
@@ -40151,7 +40151,7 @@
         <v>1035</v>
       </c>
       <c r="CU125" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="CV125" s="1">
         <v>55</v>
@@ -40575,7 +40575,7 @@
         <v>0</v>
       </c>
       <c r="AN127" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AO127" s="2">
         <v>35</v>
@@ -40710,7 +40710,7 @@
         <v>0</v>
       </c>
       <c r="CJ127" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CK127" s="2">
         <v>29</v>
@@ -40746,7 +40746,7 @@
         <v>55</v>
       </c>
       <c r="CV127" s="1">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="CW127" s="1">
         <v>164</v>
@@ -40763,7 +40763,7 @@
         <v>0</v>
       </c>
       <c r="D128" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E128" s="2">
         <v>4</v>
@@ -40775,7 +40775,7 @@
         <v>0</v>
       </c>
       <c r="H128" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" s="2">
         <v>4</v>
@@ -40865,187 +40865,187 @@
         <v>0</v>
       </c>
       <c r="AL128" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AM128" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN128" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AO128" s="2">
+        <v>30</v>
+      </c>
+      <c r="AP128" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ128" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR128" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS128" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT128" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU128" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV128" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW128" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX128" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY128" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ128" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA128" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB128" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC128" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD128" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE128" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF128" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG128" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH128" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI128" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ128" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN128" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO128" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP128" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ128" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR128" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS128" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT128" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU128" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV128" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW128" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX128" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY128" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ128" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA128" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB128" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC128" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD128" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE128" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF128" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG128" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH128" s="1">
+        <v>100</v>
+      </c>
+      <c r="CI128" s="2">
+        <v>20</v>
+      </c>
+      <c r="CJ128" s="2">
         <v>28</v>
       </c>
-      <c r="AP128" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ128" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR128" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS128" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT128" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU128" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV128" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW128" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX128" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY128" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ128" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA128" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB128" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC128" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD128" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE128" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF128" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG128" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH128" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI128" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ128" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN128" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO128" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP128" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ128" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR128" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS128" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT128" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU128" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV128" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW128" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX128" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY128" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ128" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA128" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB128" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC128" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD128" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE128" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF128" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG128" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH128" s="1">
+      <c r="CK128" s="2">
+        <v>50</v>
+      </c>
+      <c r="CL128" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM128" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN128" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO128" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP128" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ128" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR128" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS128" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT128" s="1">
+        <v>485</v>
+      </c>
+      <c r="CU128" s="1">
+        <v>28</v>
+      </c>
+      <c r="CV128" s="1">
         <v>94</v>
       </c>
-      <c r="CI128" s="2">
-        <v>14</v>
-      </c>
-      <c r="CJ128" s="2">
-        <v>33</v>
-      </c>
-      <c r="CK128" s="2">
-        <v>44</v>
-      </c>
-      <c r="CL128" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM128" s="2">
-        <v>0</v>
-      </c>
-      <c r="CN128" s="2">
-        <v>0</v>
-      </c>
-      <c r="CO128" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP128" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ128" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR128" s="2">
-        <v>0</v>
-      </c>
-      <c r="CS128" s="2">
-        <v>0</v>
-      </c>
-      <c r="CT128" s="1">
-        <v>477</v>
-      </c>
-      <c r="CU128" s="1">
-        <v>20</v>
-      </c>
-      <c r="CV128" s="1">
-        <v>107</v>
-      </c>
       <c r="CW128" s="1">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="129" spans="1:101">
@@ -41065,16 +41065,16 @@
         <v>0</v>
       </c>
       <c r="F129" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G129" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H129" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J129" s="1">
         <v>0</v>
@@ -41332,16 +41332,16 @@
         <v>0</v>
       </c>
       <c r="CT129" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CU129" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CV129" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CW129" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:101">
@@ -42243,7 +42243,7 @@
         <v>60</v>
       </c>
       <c r="D133" s="2">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="E133" s="2">
         <v>287</v>
@@ -42261,16 +42261,16 @@
         <v>0</v>
       </c>
       <c r="J133" s="1">
-        <v>5214</v>
+        <v>5273</v>
       </c>
       <c r="K133" s="2">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="L133" s="2">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="M133" s="2">
-        <v>395</v>
+        <v>454</v>
       </c>
       <c r="N133" s="1">
         <v>29067</v>
@@ -42345,16 +42345,16 @@
         <v>0</v>
       </c>
       <c r="AL133" s="1">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="AM133" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN133" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO133" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP133" s="1">
         <v>23</v>
@@ -42480,16 +42480,16 @@
         <v>1</v>
       </c>
       <c r="CH133" s="1">
-        <v>2744</v>
+        <v>2755</v>
       </c>
       <c r="CI133" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="CJ133" s="2">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="CK133" s="2">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="CL133" s="1">
         <v>13</v>
@@ -42516,16 +42516,16 @@
         <v>0</v>
       </c>
       <c r="CT133" s="1">
-        <v>54314</v>
+        <v>54386</v>
       </c>
       <c r="CU133" s="1">
-        <v>1012</v>
+        <v>1084</v>
       </c>
       <c r="CV133" s="1">
-        <v>1306</v>
+        <v>1327</v>
       </c>
       <c r="CW133" s="1">
-        <v>2491</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="134" spans="1:101">
@@ -42563,7 +42563,7 @@
         <v>0</v>
       </c>
       <c r="L134" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M134" s="2">
         <v>6</v>
@@ -42578,7 +42578,7 @@
         <v>29</v>
       </c>
       <c r="Q134" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R134" s="1">
         <v>10</v>
@@ -42818,10 +42818,10 @@
         <v>36</v>
       </c>
       <c r="CV134" s="1">
-        <v>3924</v>
+        <v>3921</v>
       </c>
       <c r="CW134" s="1">
-        <v>10337</v>
+        <v>10338</v>
       </c>
     </row>
     <row r="135" spans="1:101">
@@ -43075,7 +43075,7 @@
         <v>110</v>
       </c>
       <c r="CI135" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ135" s="2">
         <v>1</v>
@@ -43111,7 +43111,7 @@
         <v>456</v>
       </c>
       <c r="CU135" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CV135" s="1">
         <v>18</v>
@@ -43149,16 +43149,16 @@
         <v>0</v>
       </c>
       <c r="J136" s="1">
-        <v>964</v>
+        <v>976</v>
       </c>
       <c r="K136" s="2">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="L136" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M136" s="2">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N136" s="1">
         <v>1886</v>
@@ -43239,7 +43239,7 @@
         <v>4</v>
       </c>
       <c r="AN136" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AO136" s="2">
         <v>16</v>
@@ -43272,7 +43272,7 @@
         <v>129</v>
       </c>
       <c r="AY136" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ136" s="2">
         <v>10</v>
@@ -43374,7 +43374,7 @@
         <v>1</v>
       </c>
       <c r="CJ136" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CK136" s="2">
         <v>21</v>
@@ -43404,16 +43404,16 @@
         <v>0</v>
       </c>
       <c r="CT136" s="1">
-        <v>3662</v>
+        <v>3674</v>
       </c>
       <c r="CU136" s="1">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="CV136" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="CW136" s="1">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="137" spans="1:101">
@@ -43726,7 +43726,7 @@
         <v>0</v>
       </c>
       <c r="E138" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F138" s="1">
         <v>36</v>
@@ -44005,7 +44005,7 @@
         <v>24</v>
       </c>
       <c r="CW138" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139" spans="1:101">
@@ -44028,10 +44028,10 @@
         <v>42</v>
       </c>
       <c r="G139" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I139" s="2">
         <v>4</v>
@@ -44211,10 +44211,10 @@
         <v>21</v>
       </c>
       <c r="BS139" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT139" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BU139" s="2">
         <v>2</v>
@@ -44295,10 +44295,10 @@
         <v>486</v>
       </c>
       <c r="CU139" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CV139" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="CW139" s="1">
         <v>27</v>
@@ -44309,16 +44309,16 @@
         <v>239</v>
       </c>
       <c r="B140" s="1">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C140" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D140" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E140" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F140" s="1">
         <v>5</v>
@@ -44588,16 +44588,16 @@
         <v>0</v>
       </c>
       <c r="CT140" s="1">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="CU140" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CV140" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="CW140" s="1">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="1:101">
@@ -44752,7 +44752,7 @@
         <v>3</v>
       </c>
       <c r="AY141" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ141" s="2">
         <v>1</v>
@@ -44887,7 +44887,7 @@
         <v>228</v>
       </c>
       <c r="CU141" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CV141" s="1">
         <v>13</v>
@@ -44901,16 +44901,16 @@
         <v>241</v>
       </c>
       <c r="B142" s="1">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C142" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D142" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E142" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F142" s="1">
         <v>8</v>
@@ -44940,7 +44940,7 @@
         <v>296</v>
       </c>
       <c r="O142" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P142" s="2">
         <v>11</v>
@@ -45180,16 +45180,16 @@
         <v>0</v>
       </c>
       <c r="CT142" s="1">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="CU142" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="CV142" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CW142" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143" spans="1:101">
@@ -45804,13 +45804,13 @@
         <v>29</v>
       </c>
       <c r="G145" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145" s="2">
         <v>3</v>
       </c>
       <c r="I145" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J145" s="1">
         <v>0</v>
@@ -46071,13 +46071,13 @@
         <v>122</v>
       </c>
       <c r="CU145" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CV145" s="1">
         <v>12</v>
       </c>
       <c r="CW145" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:101">
@@ -46109,16 +46109,16 @@
         <v>2</v>
       </c>
       <c r="J146" s="1">
-        <v>1128</v>
+        <v>1133</v>
       </c>
       <c r="K146" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L146" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M146" s="2">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="N146" s="1">
         <v>2882</v>
@@ -46193,16 +46193,16 @@
         <v>0</v>
       </c>
       <c r="AL146" s="1">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AM146" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AN146" s="2">
         <v>11</v>
       </c>
       <c r="AO146" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AP146" s="1">
         <v>26</v>
@@ -46328,16 +46328,16 @@
         <v>1</v>
       </c>
       <c r="CH146" s="1">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="CI146" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="CJ146" s="2">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="CK146" s="2">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="CL146" s="1">
         <v>16</v>
@@ -46364,16 +46364,16 @@
         <v>0</v>
       </c>
       <c r="CT146" s="1">
-        <v>4840</v>
+        <v>4858</v>
       </c>
       <c r="CU146" s="1">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="CV146" s="1">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="CW146" s="1">
-        <v>272</v>
+        <v>290</v>
       </c>
     </row>
     <row r="147" spans="1:101">
@@ -47093,16 +47093,16 @@
         <v>1</v>
       </c>
       <c r="AP149" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ149" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR149" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS149" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT149" s="1">
         <v>0</v>
@@ -47216,16 +47216,16 @@
         <v>0</v>
       </c>
       <c r="CH149" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CI149" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ149" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CK149" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CL149" s="1">
         <v>24</v>
@@ -47252,16 +47252,16 @@
         <v>0</v>
       </c>
       <c r="CT149" s="1">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="CU149" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CV149" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="CW149" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="150" spans="1:101">
@@ -47308,7 +47308,7 @@
         <v>105</v>
       </c>
       <c r="O150" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P150" s="2">
         <v>11</v>
@@ -47515,7 +47515,7 @@
         <v>102</v>
       </c>
       <c r="CI150" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="CJ150" s="2">
         <v>12</v>
@@ -47551,7 +47551,7 @@
         <v>2045</v>
       </c>
       <c r="CU150" s="1">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="CV150" s="1">
         <v>95</v>
@@ -48181,16 +48181,16 @@
         <v>2</v>
       </c>
       <c r="J153" s="1">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="K153" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L153" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M153" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N153" s="1">
         <v>1134</v>
@@ -48436,16 +48436,16 @@
         <v>0</v>
       </c>
       <c r="CT153" s="1">
-        <v>2334</v>
+        <v>2337</v>
       </c>
       <c r="CU153" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="CV153" s="1">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="CW153" s="1">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="154" spans="1:101">
@@ -48477,16 +48477,16 @@
         <v>0</v>
       </c>
       <c r="J154" s="1">
-        <v>1597</v>
+        <v>1630</v>
       </c>
       <c r="K154" s="2">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L154" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="M154" s="2">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="N154" s="1">
         <v>55935</v>
@@ -48567,7 +48567,7 @@
         <v>0</v>
       </c>
       <c r="AN154" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO154" s="2">
         <v>5</v>
@@ -48702,7 +48702,7 @@
         <v>6</v>
       </c>
       <c r="CJ154" s="2">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="CK154" s="2">
         <v>71</v>
@@ -48732,16 +48732,16 @@
         <v>0</v>
       </c>
       <c r="CT154" s="1">
-        <v>64599</v>
+        <v>64632</v>
       </c>
       <c r="CU154" s="1">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="CV154" s="1">
-        <v>1022</v>
+        <v>1033</v>
       </c>
       <c r="CW154" s="1">
-        <v>2117</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="155" spans="1:101">
@@ -48752,7 +48752,7 @@
         <v>4520</v>
       </c>
       <c r="C155" s="2">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="D155" s="2">
         <v>108</v>
@@ -48788,7 +48788,7 @@
         <v>11311</v>
       </c>
       <c r="O155" s="2">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="P155" s="2">
         <v>102</v>
@@ -48836,7 +48836,7 @@
         <v>120476</v>
       </c>
       <c r="AE155" s="2">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="AF155" s="2">
         <v>1750</v>
@@ -48863,10 +48863,10 @@
         <v>0</v>
       </c>
       <c r="AN155" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO155" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP155" s="1">
         <v>36</v>
@@ -48998,10 +48998,10 @@
         <v>15</v>
       </c>
       <c r="CJ155" s="2">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="CK155" s="2">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="CL155" s="1">
         <v>9</v>
@@ -49031,13 +49031,13 @@
         <v>145486</v>
       </c>
       <c r="CU155" s="1">
-        <v>1967</v>
+        <v>66</v>
       </c>
       <c r="CV155" s="1">
-        <v>2268</v>
+        <v>2241</v>
       </c>
       <c r="CW155" s="1">
-        <v>4300</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="156" spans="1:101">
@@ -49051,7 +49051,7 @@
         <v>43</v>
       </c>
       <c r="D156" s="2">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="E156" s="2">
         <v>296</v>
@@ -49075,7 +49075,7 @@
         <v>421</v>
       </c>
       <c r="L156" s="2">
-        <v>629</v>
+        <v>512</v>
       </c>
       <c r="M156" s="2">
         <v>802</v>
@@ -49159,7 +49159,7 @@
         <v>14</v>
       </c>
       <c r="AN156" s="2">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AO156" s="2">
         <v>34</v>
@@ -49294,7 +49294,7 @@
         <v>219</v>
       </c>
       <c r="CJ156" s="2">
-        <v>311</v>
+        <v>247</v>
       </c>
       <c r="CK156" s="2">
         <v>376</v>
@@ -49330,7 +49330,7 @@
         <v>763</v>
       </c>
       <c r="CV156" s="1">
-        <v>1190</v>
+        <v>961</v>
       </c>
       <c r="CW156" s="1">
         <v>1626</v>
@@ -49942,7 +49942,7 @@
         <v>44</v>
       </c>
       <c r="E159" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F159" s="1">
         <v>2</v>
@@ -49957,16 +49957,16 @@
         <v>0</v>
       </c>
       <c r="J159" s="1">
-        <v>2788</v>
+        <v>2817</v>
       </c>
       <c r="K159" s="2">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="L159" s="2">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="M159" s="2">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="N159" s="1">
         <v>8663</v>
@@ -50212,16 +50212,16 @@
         <v>0</v>
       </c>
       <c r="CT159" s="1">
-        <v>18828</v>
+        <v>18857</v>
       </c>
       <c r="CU159" s="1">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="CV159" s="1">
-        <v>610</v>
+        <v>639</v>
       </c>
       <c r="CW159" s="1">
-        <v>1091</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="160" spans="1:101">
@@ -50639,7 +50639,7 @@
         <v>0</v>
       </c>
       <c r="AN161" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO161" s="2">
         <v>4</v>
@@ -50774,7 +50774,7 @@
         <v>96</v>
       </c>
       <c r="CJ161" s="2">
-        <v>296</v>
+        <v>164</v>
       </c>
       <c r="CK161" s="2">
         <v>454</v>
@@ -50810,7 +50810,7 @@
         <v>96</v>
       </c>
       <c r="CV161" s="1">
-        <v>300</v>
+        <v>166</v>
       </c>
       <c r="CW161" s="1">
         <v>458</v>
@@ -50842,7 +50842,7 @@
         <v>2</v>
       </c>
       <c r="I162" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J162" s="1">
         <v>66</v>
@@ -50860,7 +50860,7 @@
         <v>219</v>
       </c>
       <c r="O162" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P162" s="2">
         <v>2</v>
@@ -51103,13 +51103,13 @@
         <v>961</v>
       </c>
       <c r="CU162" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="CV162" s="1">
         <v>73</v>
       </c>
       <c r="CW162" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="163" spans="1:101">
@@ -51204,7 +51204,7 @@
         <v>255</v>
       </c>
       <c r="AE163" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF163" s="2">
         <v>2</v>
@@ -51231,7 +51231,7 @@
         <v>0</v>
       </c>
       <c r="AN163" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO163" s="2">
         <v>2</v>
@@ -51243,7 +51243,7 @@
         <v>0</v>
       </c>
       <c r="AR163" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS163" s="2">
         <v>3</v>
@@ -51366,7 +51366,7 @@
         <v>6</v>
       </c>
       <c r="CJ163" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="CK163" s="2">
         <v>16</v>
@@ -51399,10 +51399,10 @@
         <v>651</v>
       </c>
       <c r="CU163" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="CV163" s="1">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="CW163" s="1">
         <v>69</v>
@@ -52917,16 +52917,16 @@
         <v>0</v>
       </c>
       <c r="J169" s="1">
-        <v>5201</v>
+        <v>5263</v>
       </c>
       <c r="K169" s="2">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="L169" s="2">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M169" s="2">
-        <v>447</v>
+        <v>509</v>
       </c>
       <c r="N169" s="1">
         <v>2358</v>
@@ -52968,7 +52968,7 @@
         <v>77</v>
       </c>
       <c r="AA169" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB169" s="2">
         <v>3</v>
@@ -53007,7 +53007,7 @@
         <v>4</v>
       </c>
       <c r="AN169" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AO169" s="2">
         <v>11</v>
@@ -53142,7 +53142,7 @@
         <v>28</v>
       </c>
       <c r="CJ169" s="2">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="CK169" s="2">
         <v>137</v>
@@ -53172,16 +53172,16 @@
         <v>0</v>
       </c>
       <c r="CT169" s="1">
-        <v>15961</v>
+        <v>16023</v>
       </c>
       <c r="CU169" s="1">
-        <v>286</v>
+        <v>345</v>
       </c>
       <c r="CV169" s="1">
-        <v>616</v>
+        <v>530</v>
       </c>
       <c r="CW169" s="1">
-        <v>1097</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="170" spans="1:101">
@@ -53375,7 +53375,7 @@
         <v>189</v>
       </c>
       <c r="BO170" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BP170" s="2">
         <v>2</v>
@@ -53471,7 +53471,7 @@
         <v>5497</v>
       </c>
       <c r="CU170" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="CV170" s="1">
         <v>54</v>
@@ -53506,7 +53506,7 @@
         <v>2</v>
       </c>
       <c r="I171" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J171" s="1">
         <v>0</v>
@@ -53773,7 +53773,7 @@
         <v>4</v>
       </c>
       <c r="CW171" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:101">
@@ -54777,16 +54777,16 @@
         <v>0</v>
       </c>
       <c r="AL175" s="1">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AM175" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN175" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AO175" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AP175" s="1">
         <v>0</v>
@@ -54912,16 +54912,16 @@
         <v>0</v>
       </c>
       <c r="CH175" s="1">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="CI175" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="CJ175" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="CK175" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="CL175" s="1">
         <v>0</v>
@@ -54948,16 +54948,16 @@
         <v>0</v>
       </c>
       <c r="CT175" s="1">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="CU175" s="1">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="CV175" s="1">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="CW175" s="1">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="176" spans="1:101">
@@ -55285,16 +55285,16 @@
         <v>0</v>
       </c>
       <c r="J177" s="1">
-        <v>1514</v>
+        <v>1530</v>
       </c>
       <c r="K177" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="L177" s="2">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="M177" s="2">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="N177" s="1">
         <v>61850</v>
@@ -55303,7 +55303,7 @@
         <v>1726</v>
       </c>
       <c r="P177" s="2">
-        <v>2512</v>
+        <v>1833</v>
       </c>
       <c r="Q177" s="2">
         <v>4163</v>
@@ -55540,16 +55540,16 @@
         <v>0</v>
       </c>
       <c r="CT177" s="1">
-        <v>72130</v>
+        <v>72146</v>
       </c>
       <c r="CU177" s="1">
-        <v>1822</v>
+        <v>1838</v>
       </c>
       <c r="CV177" s="1">
-        <v>2766</v>
+        <v>2103</v>
       </c>
       <c r="CW177" s="1">
-        <v>4631</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="178" spans="1:101">
@@ -55575,7 +55575,7 @@
         <v>0</v>
       </c>
       <c r="H178" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" s="2">
         <v>3</v>
@@ -55842,7 +55842,7 @@
         <v>6</v>
       </c>
       <c r="CV178" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="CW178" s="1">
         <v>381</v>
@@ -55877,16 +55877,16 @@
         <v>0</v>
       </c>
       <c r="J179" s="1">
-        <v>991</v>
+        <v>1013</v>
       </c>
       <c r="K179" s="2">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="L179" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M179" s="2">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="N179" s="1">
         <v>30628</v>
@@ -56132,16 +56132,16 @@
         <v>0</v>
       </c>
       <c r="CT179" s="1">
-        <v>42741</v>
+        <v>42763</v>
       </c>
       <c r="CU179" s="1">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="CV179" s="1">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="CW179" s="1">
-        <v>2893</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="180" spans="1:101">
@@ -56562,7 +56562,7 @@
         <v>2</v>
       </c>
       <c r="AO181" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP181" s="1">
         <v>0</v>
@@ -56685,7 +56685,7 @@
         <v>0</v>
       </c>
       <c r="CG181" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CH181" s="1">
         <v>105</v>
@@ -56697,7 +56697,7 @@
         <v>15</v>
       </c>
       <c r="CK181" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="CL181" s="1">
         <v>0</v>
@@ -56733,7 +56733,7 @@
         <v>26</v>
       </c>
       <c r="CW181" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="182" spans="1:101">
@@ -57943,7 +57943,7 @@
         <v>1</v>
       </c>
       <c r="H186" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" s="2">
         <v>5</v>
@@ -58210,7 +58210,7 @@
         <v>1</v>
       </c>
       <c r="CV186" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW186" s="1">
         <v>5</v>
@@ -59130,7 +59130,7 @@
         <v>3</v>
       </c>
       <c r="I190" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J190" s="1">
         <v>0</v>
@@ -59238,7 +59238,7 @@
         <v>2</v>
       </c>
       <c r="AS190" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT190" s="1">
         <v>0</v>
@@ -59373,7 +59373,7 @@
         <v>2</v>
       </c>
       <c r="CO190" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CP190" s="1">
         <v>0</v>
@@ -59397,7 +59397,7 @@
         <v>10</v>
       </c>
       <c r="CW190" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191" spans="1:101">
@@ -59725,28 +59725,28 @@
         <v>0</v>
       </c>
       <c r="J192" s="1">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="K192" s="2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L192" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M192" s="2">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="N192" s="1">
-        <v>25662</v>
+        <v>25661</v>
       </c>
       <c r="O192" s="2">
-        <v>595</v>
+        <v>-2</v>
       </c>
       <c r="P192" s="2">
-        <v>675</v>
+        <v>593</v>
       </c>
       <c r="Q192" s="2">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="R192" s="1">
         <v>0</v>
@@ -59980,16 +59980,16 @@
         <v>0</v>
       </c>
       <c r="CT192" s="1">
-        <v>28824</v>
+        <v>28830</v>
       </c>
       <c r="CU192" s="1">
-        <v>626</v>
+        <v>36</v>
       </c>
       <c r="CV192" s="1">
-        <v>742</v>
+        <v>664</v>
       </c>
       <c r="CW192" s="1">
-        <v>1466</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="193" spans="1:101">
@@ -60320,10 +60320,10 @@
         <v>600</v>
       </c>
       <c r="K194" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L194" s="2">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M194" s="2">
         <v>42</v>
@@ -60332,10 +60332,10 @@
         <v>2967</v>
       </c>
       <c r="O194" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="P194" s="2">
-        <v>398</v>
+        <v>346</v>
       </c>
       <c r="Q194" s="2">
         <v>714</v>
@@ -60401,16 +60401,16 @@
         <v>0</v>
       </c>
       <c r="AL194" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AM194" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN194" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO194" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP194" s="1">
         <v>9</v>
@@ -60536,16 +60536,16 @@
         <v>1</v>
       </c>
       <c r="CH194" s="1">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="CI194" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CJ194" s="2">
         <v>17</v>
       </c>
       <c r="CK194" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="CL194" s="1">
         <v>1</v>
@@ -60572,16 +60572,16 @@
         <v>0</v>
       </c>
       <c r="CT194" s="1">
-        <v>4762</v>
+        <v>4766</v>
       </c>
       <c r="CU194" s="1">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="CV194" s="1">
-        <v>490</v>
+        <v>427</v>
       </c>
       <c r="CW194" s="1">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="195" spans="1:101">
@@ -61483,7 +61483,7 @@
         <v>32</v>
       </c>
       <c r="D198" s="2">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="E198" s="2">
         <v>126</v>
@@ -61507,7 +61507,7 @@
         <v>21</v>
       </c>
       <c r="L198" s="2">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="M198" s="2">
         <v>110</v>
@@ -61585,16 +61585,16 @@
         <v>1</v>
       </c>
       <c r="AL198" s="1">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM198" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN198" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO198" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP198" s="1">
         <v>24</v>
@@ -61720,16 +61720,16 @@
         <v>1</v>
       </c>
       <c r="CH198" s="1">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="CI198" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="CJ198" s="2">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="CK198" s="2">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="CL198" s="1">
         <v>9</v>
@@ -61756,16 +61756,16 @@
         <v>0</v>
       </c>
       <c r="CT198" s="1">
-        <v>14665</v>
+        <v>14678</v>
       </c>
       <c r="CU198" s="1">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="CV198" s="1">
-        <v>325</v>
+        <v>242</v>
       </c>
       <c r="CW198" s="1">
-        <v>477</v>
+        <v>490</v>
       </c>
     </row>
     <row r="199" spans="1:101">
@@ -61779,7 +61779,7 @@
         <v>48</v>
       </c>
       <c r="D199" s="2">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E199" s="2">
         <v>258</v>
@@ -61803,7 +61803,7 @@
         <v>40</v>
       </c>
       <c r="L199" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="M199" s="2">
         <v>192</v>
@@ -62058,7 +62058,7 @@
         <v>3542</v>
       </c>
       <c r="CV199" s="1">
-        <v>3793</v>
+        <v>3698</v>
       </c>
       <c r="CW199" s="1">
         <v>6931</v>
@@ -62183,7 +62183,7 @@
         <v>25</v>
       </c>
       <c r="AN200" s="2">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="AO200" s="2">
         <v>80</v>
@@ -62318,7 +62318,7 @@
         <v>35</v>
       </c>
       <c r="CJ200" s="2">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="CK200" s="2">
         <v>84</v>
@@ -62354,7 +62354,7 @@
         <v>62</v>
       </c>
       <c r="CV200" s="1">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="CW200" s="1">
         <v>173</v>
@@ -62679,7 +62679,7 @@
         <v>0</v>
       </c>
       <c r="H202" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I202" s="2">
         <v>6</v>
@@ -62946,7 +62946,7 @@
         <v>0</v>
       </c>
       <c r="CV202" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CW202" s="1">
         <v>6</v>
@@ -63555,7 +63555,7 @@
         <v>7</v>
       </c>
       <c r="D205" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E205" s="2">
         <v>36</v>
@@ -63579,7 +63579,7 @@
         <v>7</v>
       </c>
       <c r="L205" s="2">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M205" s="2">
         <v>43</v>
@@ -63669,16 +63669,16 @@
         <v>0</v>
       </c>
       <c r="AP205" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AQ205" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR205" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS205" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT205" s="1">
         <v>0</v>
@@ -63792,16 +63792,16 @@
         <v>0</v>
       </c>
       <c r="CH205" s="1">
-        <v>2997</v>
+        <v>3002</v>
       </c>
       <c r="CI205" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CJ205" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="CK205" s="2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="CL205" s="1">
         <v>12</v>
@@ -63828,16 +63828,16 @@
         <v>0</v>
       </c>
       <c r="CT205" s="1">
-        <v>12416</v>
+        <v>12422</v>
       </c>
       <c r="CU205" s="1">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="CV205" s="1">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="CW205" s="1">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="206" spans="1:101">
@@ -64150,7 +64150,7 @@
         <v>0</v>
       </c>
       <c r="E207" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207" s="1">
         <v>0</v>
@@ -64429,7 +64429,7 @@
         <v>0</v>
       </c>
       <c r="CW207" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:101">
@@ -64739,7 +64739,7 @@
         <v>2</v>
       </c>
       <c r="D209" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E209" s="2">
         <v>13</v>
@@ -64760,7 +64760,7 @@
         <v>1050</v>
       </c>
       <c r="K209" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L209" s="2">
         <v>23</v>
@@ -64772,7 +64772,7 @@
         <v>701</v>
       </c>
       <c r="O209" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P209" s="2">
         <v>20</v>
@@ -64847,7 +64847,7 @@
         <v>0</v>
       </c>
       <c r="AN209" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO209" s="2">
         <v>1</v>
@@ -64862,7 +64862,7 @@
         <v>1</v>
       </c>
       <c r="AS209" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT209" s="1">
         <v>8</v>
@@ -64979,13 +64979,13 @@
         <v>446</v>
       </c>
       <c r="CI209" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CJ209" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="CK209" s="2">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="CL209" s="1">
         <v>12</v>
@@ -65015,13 +65015,13 @@
         <v>5035</v>
       </c>
       <c r="CU209" s="1">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="CV209" s="1">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="CW209" s="1">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="210" spans="1:101">
@@ -65334,7 +65334,7 @@
         <v>2</v>
       </c>
       <c r="E211" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F211" s="1">
         <v>29</v>
@@ -65346,7 +65346,7 @@
         <v>4</v>
       </c>
       <c r="I211" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J211" s="1">
         <v>0</v>
@@ -65613,7 +65613,7 @@
         <v>43</v>
       </c>
       <c r="CW211" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="212" spans="1:101">
@@ -65870,7 +65870,7 @@
         <v>9</v>
       </c>
       <c r="CJ212" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="CK212" s="2">
         <v>38</v>
@@ -65906,7 +65906,7 @@
         <v>12</v>
       </c>
       <c r="CV212" s="1">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="CW212" s="1">
         <v>55</v>
@@ -67408,7 +67408,7 @@
         <v>591</v>
       </c>
       <c r="D74">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E74" t="s">
         <v>709</v>
@@ -67428,7 +67428,7 @@
         <v>592</v>
       </c>
       <c r="D75">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E75" t="s">
         <v>709</v>
@@ -67528,7 +67528,7 @@
         <v>541</v>
       </c>
       <c r="D80">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E80" t="s">
         <v>709</v>
@@ -69526,7 +69526,7 @@
         <v>681</v>
       </c>
       <c r="D179">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E179" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3485,16 +3485,16 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>3417</v>
+        <v>3465</v>
       </c>
       <c r="K2" s="2">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="L2" s="2">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="M2" s="2">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="N2" s="1">
         <v>16988</v>
@@ -3584,7 +3584,7 @@
         <v>60</v>
       </c>
       <c r="AQ2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR2" s="2">
         <v>3</v>
@@ -3707,7 +3707,7 @@
         <v>1768</v>
       </c>
       <c r="CI2" s="2">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="CJ2" s="2">
         <v>37</v>
@@ -3740,16 +3740,16 @@
         <v>0</v>
       </c>
       <c r="CT2" s="1">
-        <v>39960</v>
+        <v>40008</v>
       </c>
       <c r="CU2" s="1">
-        <v>624</v>
+        <v>651</v>
       </c>
       <c r="CV2" s="1">
-        <v>1218</v>
+        <v>1266</v>
       </c>
       <c r="CW2" s="1">
-        <v>2728</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="3" spans="1:101">
@@ -3781,16 +3781,16 @@
         <v>-11</v>
       </c>
       <c r="J3" s="1">
-        <v>5780</v>
+        <v>5854</v>
       </c>
       <c r="K3" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="L3" s="2">
-        <v>294</v>
+        <v>368</v>
       </c>
       <c r="M3" s="2">
-        <v>463</v>
+        <v>537</v>
       </c>
       <c r="N3" s="1">
         <v>8678</v>
@@ -3868,7 +3868,7 @@
         <v>158</v>
       </c>
       <c r="AM3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN3" s="2">
         <v>7</v>
@@ -4003,7 +4003,7 @@
         <v>1734</v>
       </c>
       <c r="CI3" s="2">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="CJ3" s="2">
         <v>51</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="CT3" s="1">
-        <v>38977</v>
+        <v>39051</v>
       </c>
       <c r="CU3" s="1">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="CV3" s="1">
-        <v>627</v>
+        <v>701</v>
       </c>
       <c r="CW3" s="1">
-        <v>1132</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="4" spans="1:101">
@@ -4053,16 +4053,16 @@
         <v>103</v>
       </c>
       <c r="B4" s="1">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1">
         <v>11</v>
@@ -4077,16 +4077,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1">
-        <v>856</v>
+        <v>871</v>
       </c>
       <c r="K4" s="2">
         <v>15</v>
       </c>
       <c r="L4" s="2">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M4" s="2">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="N4" s="1">
         <v>2857</v>
@@ -4164,7 +4164,7 @@
         <v>225</v>
       </c>
       <c r="AM4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN4" s="2">
         <v>2</v>
@@ -4299,7 +4299,7 @@
         <v>2967</v>
       </c>
       <c r="CI4" s="2">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="CJ4" s="2">
         <v>40</v>
@@ -4332,16 +4332,16 @@
         <v>0</v>
       </c>
       <c r="CT4" s="1">
-        <v>35836</v>
+        <v>35852</v>
       </c>
       <c r="CU4" s="1">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="CV4" s="1">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="CW4" s="1">
-        <v>556</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -6128,7 +6128,7 @@
         <v>86</v>
       </c>
       <c r="C11" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2">
         <v>8</v>
@@ -6407,7 +6407,7 @@
         <v>103</v>
       </c>
       <c r="CU11" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV11" s="1">
         <v>8</v>
@@ -7345,16 +7345,16 @@
         <v>9</v>
       </c>
       <c r="N15" s="1">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="O15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -7588,16 +7588,16 @@
         <v>0</v>
       </c>
       <c r="CT15" s="1">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="CU15" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="CV15" s="1">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="CW15" s="1">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:101">
@@ -7725,16 +7725,16 @@
         <v>20</v>
       </c>
       <c r="AP16" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16" s="1">
         <v>0</v>
@@ -7848,16 +7848,16 @@
         <v>1</v>
       </c>
       <c r="CH16" s="1">
-        <v>1034</v>
+        <v>1042</v>
       </c>
       <c r="CI16" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="CJ16" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="CK16" s="2">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="CL16" s="1">
         <v>27</v>
@@ -7884,16 +7884,16 @@
         <v>0</v>
       </c>
       <c r="CT16" s="1">
-        <v>1700</v>
+        <v>1709</v>
       </c>
       <c r="CU16" s="1">
-        <v>-164</v>
+        <v>-155</v>
       </c>
       <c r="CV16" s="1">
-        <v>-150</v>
+        <v>-141</v>
       </c>
       <c r="CW16" s="1">
-        <v>-116</v>
+        <v>-107</v>
       </c>
     </row>
     <row r="17" spans="1:101">
@@ -8517,16 +8517,16 @@
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="K19" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L19" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M19" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N19" s="1">
         <v>11143</v>
@@ -8772,16 +8772,16 @@
         <v>0</v>
       </c>
       <c r="CT19" s="1">
-        <v>18186</v>
+        <v>18190</v>
       </c>
       <c r="CU19" s="1">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="CV19" s="1">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="CW19" s="1">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="20" spans="1:101">
@@ -10864,7 +10864,7 @@
         <v>286</v>
       </c>
       <c r="C27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -10888,7 +10888,7 @@
         <v>733</v>
       </c>
       <c r="K27" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L27" s="2">
         <v>17</v>
@@ -10984,7 +10984,7 @@
         <v>51</v>
       </c>
       <c r="AQ27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR27" s="2">
         <v>3</v>
@@ -11107,7 +11107,7 @@
         <v>2932</v>
       </c>
       <c r="CI27" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CJ27" s="2">
         <v>9</v>
@@ -11143,7 +11143,7 @@
         <v>22379</v>
       </c>
       <c r="CU27" s="1">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="CV27" s="1">
         <v>207</v>
@@ -12048,7 +12048,7 @@
         <v>2290</v>
       </c>
       <c r="C31" s="2">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D31" s="2">
         <v>44</v>
@@ -12084,7 +12084,7 @@
         <v>5583</v>
       </c>
       <c r="O31" s="2">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="P31" s="2">
         <v>239</v>
@@ -12144,7 +12144,7 @@
         <v>17</v>
       </c>
       <c r="AI31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ31" s="2">
         <v>1</v>
@@ -12153,16 +12153,16 @@
         <v>2</v>
       </c>
       <c r="AL31" s="1">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AM31" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN31" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO31" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP31" s="1">
         <v>35</v>
@@ -12300,16 +12300,16 @@
         <v>17</v>
       </c>
       <c r="CL31" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CM31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO31" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CP31" s="1">
         <v>0</v>
@@ -12324,16 +12324,16 @@
         <v>0</v>
       </c>
       <c r="CT31" s="1">
-        <v>9440</v>
+        <v>9443</v>
       </c>
       <c r="CU31" s="1">
-        <v>283</v>
+        <v>32</v>
       </c>
       <c r="CV31" s="1">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="CW31" s="1">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="32" spans="1:101">
@@ -12748,7 +12748,7 @@
         <v>56</v>
       </c>
       <c r="AM33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN33" s="2">
         <v>3</v>
@@ -12883,7 +12883,7 @@
         <v>177</v>
       </c>
       <c r="CI33" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="CJ33" s="2">
         <v>18</v>
@@ -12919,7 +12919,7 @@
         <v>2152</v>
       </c>
       <c r="CU33" s="1">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="CV33" s="1">
         <v>71</v>
@@ -14437,16 +14437,16 @@
         <v>0</v>
       </c>
       <c r="J39" s="1">
-        <v>3430</v>
+        <v>3469</v>
       </c>
       <c r="K39" s="2">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="L39" s="2">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="M39" s="2">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="N39" s="1">
         <v>15005</v>
@@ -14692,16 +14692,16 @@
         <v>1</v>
       </c>
       <c r="CT39" s="1">
-        <v>51934</v>
+        <v>51973</v>
       </c>
       <c r="CU39" s="1">
-        <v>613</v>
+        <v>652</v>
       </c>
       <c r="CV39" s="1">
-        <v>960</v>
+        <v>999</v>
       </c>
       <c r="CW39" s="1">
-        <v>1796</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="40" spans="1:101">
@@ -14820,7 +14820,7 @@
         <v>32</v>
       </c>
       <c r="AM40" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN40" s="2">
         <v>2</v>
@@ -14955,7 +14955,7 @@
         <v>383</v>
       </c>
       <c r="CI40" s="2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="CJ40" s="2">
         <v>-275</v>
@@ -14991,7 +14991,7 @@
         <v>466</v>
       </c>
       <c r="CU40" s="1">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="CV40" s="1">
         <v>-269</v>
@@ -17484,7 +17484,7 @@
         <v>22</v>
       </c>
       <c r="AM49" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN49" s="2">
         <v>4</v>
@@ -17619,7 +17619,7 @@
         <v>556</v>
       </c>
       <c r="CI49" s="2">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="CJ49" s="2">
         <v>110</v>
@@ -17655,7 +17655,7 @@
         <v>1186</v>
       </c>
       <c r="CU49" s="1">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="CV49" s="1">
         <v>136</v>
@@ -17780,7 +17780,7 @@
         <v>67</v>
       </c>
       <c r="AM50" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AN50" s="2">
         <v>21</v>
@@ -17915,7 +17915,7 @@
         <v>54</v>
       </c>
       <c r="CI50" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CJ50" s="2">
         <v>19</v>
@@ -17951,7 +17951,7 @@
         <v>173</v>
       </c>
       <c r="CU50" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="CV50" s="1">
         <v>44</v>
@@ -18516,16 +18516,16 @@
         <v>24</v>
       </c>
       <c r="CL52" s="1">
+        <v>3</v>
+      </c>
+      <c r="CM52" s="2">
+        <v>1</v>
+      </c>
+      <c r="CN52" s="2">
         <v>2</v>
       </c>
-      <c r="CM52" s="2">
-        <v>0</v>
-      </c>
-      <c r="CN52" s="2">
-        <v>1</v>
-      </c>
       <c r="CO52" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CP52" s="1">
         <v>0</v>
@@ -18540,16 +18540,16 @@
         <v>0</v>
       </c>
       <c r="CT52" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="CU52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV52" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CW52" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:101">
@@ -18892,7 +18892,7 @@
         <v>1845</v>
       </c>
       <c r="O54" s="2">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="P54" s="2">
         <v>44</v>
@@ -19135,7 +19135,7 @@
         <v>6601</v>
       </c>
       <c r="CU54" s="1">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="CV54" s="1">
         <v>211</v>
@@ -20360,7 +20360,7 @@
         <v>1741</v>
       </c>
       <c r="K59" s="2">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="L59" s="2">
         <v>58</v>
@@ -20615,7 +20615,7 @@
         <v>61698</v>
       </c>
       <c r="CU59" s="1">
-        <v>1669</v>
+        <v>1646</v>
       </c>
       <c r="CV59" s="1">
         <v>2415</v>
@@ -21251,7 +21251,7 @@
         <v>4</v>
       </c>
       <c r="L62" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M62" s="2">
         <v>27</v>
@@ -21506,7 +21506,7 @@
         <v>94</v>
       </c>
       <c r="CV62" s="1">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="CW62" s="1">
         <v>334</v>
@@ -21604,7 +21604,7 @@
         <v>268</v>
       </c>
       <c r="AE63" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AF63" s="2">
         <v>9</v>
@@ -21799,7 +21799,7 @@
         <v>57565</v>
       </c>
       <c r="CU63" s="1">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="CV63" s="1">
         <v>1300</v>
@@ -21813,16 +21813,16 @@
         <v>163</v>
       </c>
       <c r="B64" s="1">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C64" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D64" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E64" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F64" s="1">
         <v>12</v>
@@ -22092,16 +22092,16 @@
         <v>0</v>
       </c>
       <c r="CT64" s="1">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="CU64" s="1">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="CV64" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CW64" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:101">
@@ -24181,16 +24181,16 @@
         <v>171</v>
       </c>
       <c r="B72" s="1">
-        <v>11330</v>
+        <v>11410</v>
       </c>
       <c r="C72" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D72" s="2">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="E72" s="2">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -24292,10 +24292,10 @@
         <v>35236</v>
       </c>
       <c r="AM72" s="2">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="AN72" s="2">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="AO72" s="2">
         <v>236</v>
@@ -24424,16 +24424,16 @@
         <v>1</v>
       </c>
       <c r="CH72" s="1">
-        <v>15172</v>
+        <v>15179</v>
       </c>
       <c r="CI72" s="2">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="CJ72" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="CK72" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="CL72" s="1">
         <v>0</v>
@@ -24460,16 +24460,16 @@
         <v>1</v>
       </c>
       <c r="CT72" s="1">
-        <v>156948</v>
+        <v>157035</v>
       </c>
       <c r="CU72" s="1">
-        <v>1342</v>
+        <v>1290</v>
       </c>
       <c r="CV72" s="1">
-        <v>2668</v>
+        <v>2697</v>
       </c>
       <c r="CW72" s="1">
-        <v>5928</v>
+        <v>6015</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -24800,7 +24800,7 @@
         <v>4683</v>
       </c>
       <c r="K74" s="2">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="L74" s="2">
         <v>133</v>
@@ -24812,7 +24812,7 @@
         <v>107732</v>
       </c>
       <c r="O74" s="2">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="P74" s="2">
         <v>2544</v>
@@ -24860,7 +24860,7 @@
         <v>16529</v>
       </c>
       <c r="AE74" s="2">
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="AF74" s="2">
         <v>388</v>
@@ -25055,7 +25055,7 @@
         <v>136908</v>
       </c>
       <c r="CU74" s="1">
-        <v>3019</v>
+        <v>2561</v>
       </c>
       <c r="CV74" s="1">
         <v>3266</v>
@@ -25096,7 +25096,7 @@
         <v>4081</v>
       </c>
       <c r="K75" s="2">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="L75" s="2">
         <v>115</v>
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="CH75" s="1">
-        <v>5667</v>
+        <v>5669</v>
       </c>
       <c r="CI75" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="CJ75" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="CK75" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="CL75" s="1">
         <v>97</v>
@@ -25348,16 +25348,16 @@
         <v>6</v>
       </c>
       <c r="CT75" s="1">
-        <v>345821</v>
+        <v>345823</v>
       </c>
       <c r="CU75" s="1">
-        <v>4576</v>
+        <v>4526</v>
       </c>
       <c r="CV75" s="1">
-        <v>4947</v>
+        <v>4949</v>
       </c>
       <c r="CW75" s="1">
-        <v>10997</v>
+        <v>10999</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -25389,16 +25389,16 @@
         <v>0</v>
       </c>
       <c r="J76" s="1">
-        <v>3754</v>
+        <v>3791</v>
       </c>
       <c r="K76" s="2">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="L76" s="2">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="M76" s="2">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="N76" s="1">
         <v>65752</v>
@@ -25485,16 +25485,16 @@
         <v>3</v>
       </c>
       <c r="AP76" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS76" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT76" s="1">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>1</v>
       </c>
       <c r="CH76" s="1">
-        <v>1714</v>
+        <v>1737</v>
       </c>
       <c r="CI76" s="2">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="CJ76" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="CK76" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="CL76" s="1">
         <v>2</v>
@@ -25644,16 +25644,16 @@
         <v>0</v>
       </c>
       <c r="CT76" s="1">
-        <v>84720</v>
+        <v>84781</v>
       </c>
       <c r="CU76" s="1">
-        <v>941</v>
+        <v>1002</v>
       </c>
       <c r="CV76" s="1">
-        <v>1097</v>
+        <v>1158</v>
       </c>
       <c r="CW76" s="1">
-        <v>2186</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="77" spans="1:101">
@@ -26636,7 +26636,7 @@
         <v>313806</v>
       </c>
       <c r="AE80" s="2">
-        <v>617</v>
+        <v>32</v>
       </c>
       <c r="AF80" s="2">
         <v>616</v>
@@ -26660,7 +26660,7 @@
         <v>3354</v>
       </c>
       <c r="AM80" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN80" s="2">
         <v>3</v>
@@ -26681,16 +26681,16 @@
         <v>0</v>
       </c>
       <c r="AT80" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW80" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX80" s="1">
         <v>12</v>
@@ -26795,7 +26795,7 @@
         <v>12975</v>
       </c>
       <c r="CI80" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="CJ80" s="2">
         <v>180</v>
@@ -26828,16 +26828,16 @@
         <v>0</v>
       </c>
       <c r="CT80" s="1">
-        <v>378897</v>
+        <v>378898</v>
       </c>
       <c r="CU80" s="1">
-        <v>1991</v>
+        <v>1339</v>
       </c>
       <c r="CV80" s="1">
-        <v>2842</v>
+        <v>2843</v>
       </c>
       <c r="CW80" s="1">
-        <v>33028</v>
+        <v>33029</v>
       </c>
     </row>
     <row r="81" spans="1:101">
@@ -27141,16 +27141,16 @@
         <v>181</v>
       </c>
       <c r="B82" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C82" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F82" s="1">
         <v>55</v>
@@ -27420,16 +27420,16 @@
         <v>0</v>
       </c>
       <c r="CT82" s="1">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CU82" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CV82" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CW82" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:101">
@@ -27680,16 +27680,16 @@
         <v>1</v>
       </c>
       <c r="CH83" s="1">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="CI83" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CJ83" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CK83" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CL83" s="1">
         <v>35</v>
@@ -27716,16 +27716,16 @@
         <v>0</v>
       </c>
       <c r="CT83" s="1">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="CU83" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CV83" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CW83" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:101">
@@ -28032,7 +28032,7 @@
         <v>256</v>
       </c>
       <c r="C85" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" s="2">
         <v>4</v>
@@ -28056,7 +28056,7 @@
         <v>626</v>
       </c>
       <c r="K85" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="L85" s="2">
         <v>21</v>
@@ -28152,7 +28152,7 @@
         <v>44</v>
       </c>
       <c r="AQ85" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR85" s="2">
         <v>3</v>
@@ -28275,7 +28275,7 @@
         <v>1899</v>
       </c>
       <c r="CI85" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="CJ85" s="2">
         <v>36</v>
@@ -28311,7 +28311,7 @@
         <v>8722</v>
       </c>
       <c r="CU85" s="1">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="CV85" s="1">
         <v>127</v>
@@ -28920,7 +28920,7 @@
         <v>6441</v>
       </c>
       <c r="C88" s="2">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="D88" s="2">
         <v>144</v>
@@ -28941,22 +28941,22 @@
         <v>0</v>
       </c>
       <c r="J88" s="1">
-        <v>4082</v>
+        <v>4142</v>
       </c>
       <c r="K88" s="2">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="L88" s="2">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="M88" s="2">
-        <v>289</v>
+        <v>349</v>
       </c>
       <c r="N88" s="1">
         <v>4214</v>
       </c>
       <c r="O88" s="2">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="P88" s="2">
         <v>31</v>
@@ -29025,16 +29025,16 @@
         <v>0</v>
       </c>
       <c r="AL88" s="1">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="AM88" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN88" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AO88" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AP88" s="1">
         <v>22</v>
@@ -29160,16 +29160,16 @@
         <v>0</v>
       </c>
       <c r="CH88" s="1">
-        <v>7263</v>
+        <v>7287</v>
       </c>
       <c r="CI88" s="2">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="CJ88" s="2">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="CK88" s="2">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="CL88" s="1">
         <v>5</v>
@@ -29196,16 +29196,16 @@
         <v>0</v>
       </c>
       <c r="CT88" s="1">
-        <v>23039</v>
+        <v>23128</v>
       </c>
       <c r="CU88" s="1">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="CV88" s="1">
-        <v>342</v>
+        <v>431</v>
       </c>
       <c r="CW88" s="1">
-        <v>795</v>
+        <v>884</v>
       </c>
     </row>
     <row r="89" spans="1:101">
@@ -29321,16 +29321,16 @@
         <v>0</v>
       </c>
       <c r="AL89" s="1">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="AM89" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN89" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO89" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP89" s="1">
         <v>32</v>
@@ -29492,16 +29492,16 @@
         <v>0</v>
       </c>
       <c r="CT89" s="1">
-        <v>3467</v>
+        <v>3469</v>
       </c>
       <c r="CU89" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="CV89" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="CW89" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="90" spans="1:101">
@@ -32197,16 +32197,16 @@
         <v>0</v>
       </c>
       <c r="J99" s="1">
-        <v>4324</v>
+        <v>4386</v>
       </c>
       <c r="K99" s="2">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L99" s="2">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="M99" s="2">
-        <v>352</v>
+        <v>414</v>
       </c>
       <c r="N99" s="1">
         <v>13077</v>
@@ -32452,16 +32452,16 @@
         <v>0</v>
       </c>
       <c r="CT99" s="1">
-        <v>37131</v>
+        <v>37193</v>
       </c>
       <c r="CU99" s="1">
-        <v>297</v>
+        <v>359</v>
       </c>
       <c r="CV99" s="1">
-        <v>957</v>
+        <v>1019</v>
       </c>
       <c r="CW99" s="1">
-        <v>1746</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="100" spans="1:101">
@@ -33061,16 +33061,16 @@
         <v>201</v>
       </c>
       <c r="B102" s="1">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C102" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F102" s="1">
         <v>4</v>
@@ -33340,16 +33340,16 @@
         <v>0</v>
       </c>
       <c r="CT102" s="1">
-        <v>6636</v>
+        <v>6637</v>
       </c>
       <c r="CU102" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="CV102" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CW102" s="1">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="103" spans="1:101">
@@ -33381,16 +33381,16 @@
         <v>0</v>
       </c>
       <c r="J103" s="1">
-        <v>7739</v>
+        <v>7896</v>
       </c>
       <c r="K103" s="2">
-        <v>149</v>
+        <v>306</v>
       </c>
       <c r="L103" s="2">
-        <v>373</v>
+        <v>530</v>
       </c>
       <c r="M103" s="2">
-        <v>762</v>
+        <v>919</v>
       </c>
       <c r="N103" s="1">
         <v>19737</v>
@@ -33480,7 +33480,7 @@
         <v>7</v>
       </c>
       <c r="AQ103" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR103" s="2">
         <v>2</v>
@@ -33603,7 +33603,7 @@
         <v>5567</v>
       </c>
       <c r="CI103" s="2">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="CJ103" s="2">
         <v>176</v>
@@ -33636,16 +33636,16 @@
         <v>0</v>
       </c>
       <c r="CT103" s="1">
-        <v>83244</v>
+        <v>83401</v>
       </c>
       <c r="CU103" s="1">
-        <v>6860</v>
+        <v>6931</v>
       </c>
       <c r="CV103" s="1">
-        <v>11350</v>
+        <v>11507</v>
       </c>
       <c r="CW103" s="1">
-        <v>13388</v>
+        <v>13545</v>
       </c>
     </row>
     <row r="104" spans="1:101">
@@ -34057,16 +34057,16 @@
         <v>0</v>
       </c>
       <c r="AL105" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AM105" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN105" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO105" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP105" s="1">
         <v>13</v>
@@ -34192,16 +34192,16 @@
         <v>0</v>
       </c>
       <c r="CH105" s="1">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="CI105" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="CJ105" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="CK105" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="CL105" s="1">
         <v>7</v>
@@ -34228,16 +34228,16 @@
         <v>0</v>
       </c>
       <c r="CT105" s="1">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="CU105" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="CV105" s="1">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="CW105" s="1">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:101">
@@ -34565,22 +34565,22 @@
         <v>0</v>
       </c>
       <c r="J107" s="1">
-        <v>3727</v>
+        <v>3757</v>
       </c>
       <c r="K107" s="2">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="L107" s="2">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="M107" s="2">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N107" s="1">
         <v>1099</v>
       </c>
       <c r="O107" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="P107" s="2">
         <v>40</v>
@@ -34652,7 +34652,7 @@
         <v>114</v>
       </c>
       <c r="AM107" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN107" s="2">
         <v>5</v>
@@ -34727,7 +34727,7 @@
         <v>18</v>
       </c>
       <c r="BO107" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP107" s="2">
         <v>1</v>
@@ -34787,7 +34787,7 @@
         <v>1507</v>
       </c>
       <c r="CI107" s="2">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="CJ107" s="2">
         <v>73</v>
@@ -34820,16 +34820,16 @@
         <v>0</v>
       </c>
       <c r="CT107" s="1">
-        <v>10405</v>
+        <v>10435</v>
       </c>
       <c r="CU107" s="1">
-        <v>253</v>
+        <v>168</v>
       </c>
       <c r="CV107" s="1">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="CW107" s="1">
-        <v>718</v>
+        <v>748</v>
       </c>
     </row>
     <row r="108" spans="1:101">
@@ -34948,7 +34948,7 @@
         <v>78</v>
       </c>
       <c r="AM108" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AN108" s="2">
         <v>9</v>
@@ -35083,7 +35083,7 @@
         <v>324</v>
       </c>
       <c r="CI108" s="2">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="CJ108" s="2">
         <v>38</v>
@@ -35119,7 +35119,7 @@
         <v>551</v>
       </c>
       <c r="CU108" s="1">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="CV108" s="1">
         <v>51</v>
@@ -35133,16 +35133,16 @@
         <v>208</v>
       </c>
       <c r="B109" s="1">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="C109" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E109" s="2">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F109" s="1">
         <v>0</v>
@@ -35412,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="CT109" s="1">
-        <v>6352</v>
+        <v>6357</v>
       </c>
       <c r="CU109" s="1">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="CV109" s="1">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="CW109" s="1">
-        <v>641</v>
+        <v>646</v>
       </c>
     </row>
     <row r="110" spans="1:101">
@@ -35537,16 +35537,16 @@
         <v>0</v>
       </c>
       <c r="AL110" s="1">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AM110" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN110" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AO110" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AP110" s="1">
         <v>0</v>
@@ -35672,16 +35672,16 @@
         <v>0</v>
       </c>
       <c r="CH110" s="1">
-        <v>1060</v>
+        <v>1108</v>
       </c>
       <c r="CI110" s="2">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="CJ110" s="2">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="CK110" s="2">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="CL110" s="1">
         <v>1</v>
@@ -35708,16 +35708,16 @@
         <v>0</v>
       </c>
       <c r="CT110" s="1">
-        <v>140613</v>
+        <v>140664</v>
       </c>
       <c r="CU110" s="1">
-        <v>5045</v>
+        <v>5096</v>
       </c>
       <c r="CV110" s="1">
-        <v>5253</v>
+        <v>5304</v>
       </c>
       <c r="CW110" s="1">
-        <v>10614</v>
+        <v>10665</v>
       </c>
     </row>
     <row r="111" spans="1:101">
@@ -36404,7 +36404,7 @@
         <v>3941</v>
       </c>
       <c r="AE113" s="2">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="AF113" s="2">
         <v>125</v>
@@ -36599,7 +36599,7 @@
         <v>18463</v>
       </c>
       <c r="CU113" s="1">
-        <v>342</v>
+        <v>217</v>
       </c>
       <c r="CV113" s="1">
         <v>485</v>
@@ -40279,7 +40279,7 @@
         <v>0</v>
       </c>
       <c r="AN126" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AO126" s="2">
         <v>5</v>
@@ -40426,7 +40426,7 @@
         <v>1</v>
       </c>
       <c r="CN126" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO126" s="2">
         <v>3</v>
@@ -40450,7 +40450,7 @@
         <v>3</v>
       </c>
       <c r="CV126" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="CW126" s="1">
         <v>18</v>
@@ -40569,16 +40569,16 @@
         <v>0</v>
       </c>
       <c r="AL127" s="1">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="AM127" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AN127" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AO127" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AP127" s="1">
         <v>29</v>
@@ -40716,16 +40716,16 @@
         <v>29</v>
       </c>
       <c r="CL127" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CM127" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN127" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO127" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP127" s="1">
         <v>0</v>
@@ -40740,16 +40740,16 @@
         <v>0</v>
       </c>
       <c r="CT127" s="1">
-        <v>2828</v>
+        <v>2836</v>
       </c>
       <c r="CU127" s="1">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="CV127" s="1">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="CW127" s="1">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="128" spans="1:101">
@@ -41660,7 +41660,7 @@
         <v>58</v>
       </c>
       <c r="G131" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H131" s="2">
         <v>5</v>
@@ -41927,7 +41927,7 @@
         <v>75</v>
       </c>
       <c r="CU131" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CV131" s="1">
         <v>6</v>
@@ -42237,16 +42237,16 @@
         <v>232</v>
       </c>
       <c r="B133" s="1">
-        <v>6743</v>
+        <v>6797</v>
       </c>
       <c r="C133" s="2">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D133" s="2">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="E133" s="2">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="F133" s="1">
         <v>0</v>
@@ -42516,16 +42516,16 @@
         <v>0</v>
       </c>
       <c r="CT133" s="1">
-        <v>54386</v>
+        <v>54440</v>
       </c>
       <c r="CU133" s="1">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="CV133" s="1">
-        <v>1327</v>
+        <v>1381</v>
       </c>
       <c r="CW133" s="1">
-        <v>2563</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="134" spans="1:101">
@@ -42779,7 +42779,7 @@
         <v>323</v>
       </c>
       <c r="CI134" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CJ134" s="2">
         <v>10</v>
@@ -42815,7 +42815,7 @@
         <v>138005</v>
       </c>
       <c r="CU134" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="CV134" s="1">
         <v>3921</v>
@@ -42829,16 +42829,16 @@
         <v>234</v>
       </c>
       <c r="B135" s="1">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C135" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D135" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E135" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F135" s="1">
         <v>19</v>
@@ -43108,16 +43108,16 @@
         <v>0</v>
       </c>
       <c r="CT135" s="1">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="CU135" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CV135" s="1">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="CW135" s="1">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:101">
@@ -44025,16 +44025,16 @@
         <v>2</v>
       </c>
       <c r="F139" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G139" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J139" s="1">
         <v>24</v>
@@ -44292,16 +44292,16 @@
         <v>0</v>
       </c>
       <c r="CT139" s="1">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="CU139" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CV139" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CW139" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:101">
@@ -44420,7 +44420,7 @@
         <v>57</v>
       </c>
       <c r="AM140" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN140" s="2">
         <v>4</v>
@@ -44555,7 +44555,7 @@
         <v>102</v>
       </c>
       <c r="CI140" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CJ140" s="2">
         <v>3</v>
@@ -44591,7 +44591,7 @@
         <v>1377</v>
       </c>
       <c r="CU140" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="CV140" s="1">
         <v>55</v>
@@ -44608,7 +44608,7 @@
         <v>6</v>
       </c>
       <c r="C141" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D141" s="2">
         <v>2</v>
@@ -44617,16 +44617,16 @@
         <v>2</v>
       </c>
       <c r="F141" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G141" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J141" s="1">
         <v>0</v>
@@ -44656,7 +44656,7 @@
         <v>13</v>
       </c>
       <c r="S141" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T141" s="2">
         <v>2</v>
@@ -44725,16 +44725,16 @@
         <v>0</v>
       </c>
       <c r="AP141" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AQ141" s="2">
         <v>1</v>
       </c>
       <c r="AR141" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS141" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT141" s="1">
         <v>0</v>
@@ -44851,7 +44851,7 @@
         <v>5</v>
       </c>
       <c r="CI141" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ141" s="2">
         <v>1</v>
@@ -44860,16 +44860,16 @@
         <v>1</v>
       </c>
       <c r="CL141" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CM141" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN141" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CO141" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CP141" s="1">
         <v>0</v>
@@ -44884,16 +44884,16 @@
         <v>0</v>
       </c>
       <c r="CT141" s="1">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="CU141" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CV141" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="CW141" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142" spans="1:101">
@@ -45801,16 +45801,16 @@
         <v>0</v>
       </c>
       <c r="F145" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G145" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I145" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J145" s="1">
         <v>0</v>
@@ -46068,16 +46068,16 @@
         <v>0</v>
       </c>
       <c r="CT145" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="CU145" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CV145" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CW145" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:101">
@@ -47392,7 +47392,7 @@
         <v>33</v>
       </c>
       <c r="AQ150" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR150" s="2">
         <v>3</v>
@@ -47551,7 +47551,7 @@
         <v>2045</v>
       </c>
       <c r="CU150" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CV150" s="1">
         <v>95</v>
@@ -48184,7 +48184,7 @@
         <v>455</v>
       </c>
       <c r="K153" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="L153" s="2">
         <v>25</v>
@@ -48265,16 +48265,16 @@
         <v>0</v>
       </c>
       <c r="AL153" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AM153" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN153" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO153" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP153" s="1">
         <v>9</v>
@@ -48400,16 +48400,16 @@
         <v>1</v>
       </c>
       <c r="CH153" s="1">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="CI153" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="CJ153" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="CK153" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="CL153" s="1">
         <v>0</v>
@@ -48436,16 +48436,16 @@
         <v>0</v>
       </c>
       <c r="CT153" s="1">
-        <v>2337</v>
+        <v>2354</v>
       </c>
       <c r="CU153" s="1">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="CV153" s="1">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="CW153" s="1">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="154" spans="1:101">
@@ -48492,7 +48492,7 @@
         <v>55935</v>
       </c>
       <c r="O154" s="2">
-        <v>704</v>
+        <v>0</v>
       </c>
       <c r="P154" s="2">
         <v>704</v>
@@ -48735,7 +48735,7 @@
         <v>64632</v>
       </c>
       <c r="CU154" s="1">
-        <v>908</v>
+        <v>204</v>
       </c>
       <c r="CV154" s="1">
         <v>1033</v>
@@ -48869,16 +48869,16 @@
         <v>12</v>
       </c>
       <c r="AP155" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AQ155" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR155" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS155" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT155" s="1">
         <v>37</v>
@@ -48992,16 +48992,16 @@
         <v>1</v>
       </c>
       <c r="CH155" s="1">
-        <v>4339</v>
+        <v>4350</v>
       </c>
       <c r="CI155" s="2">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="CJ155" s="2">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="CK155" s="2">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="CL155" s="1">
         <v>9</v>
@@ -49028,16 +49028,16 @@
         <v>0</v>
       </c>
       <c r="CT155" s="1">
-        <v>145486</v>
+        <v>145498</v>
       </c>
       <c r="CU155" s="1">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="CV155" s="1">
-        <v>2241</v>
+        <v>2253</v>
       </c>
       <c r="CW155" s="1">
-        <v>4271</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="156" spans="1:101">
@@ -49069,16 +49069,16 @@
         <v>0</v>
       </c>
       <c r="J156" s="1">
-        <v>5539</v>
+        <v>5596</v>
       </c>
       <c r="K156" s="2">
-        <v>421</v>
+        <v>478</v>
       </c>
       <c r="L156" s="2">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="M156" s="2">
-        <v>802</v>
+        <v>859</v>
       </c>
       <c r="N156" s="1">
         <v>2601</v>
@@ -49153,16 +49153,16 @@
         <v>0</v>
       </c>
       <c r="AL156" s="1">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM156" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN156" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO156" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AP156" s="1">
         <v>18</v>
@@ -49288,16 +49288,16 @@
         <v>1</v>
       </c>
       <c r="CH156" s="1">
-        <v>1577</v>
+        <v>1628</v>
       </c>
       <c r="CI156" s="2">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="CJ156" s="2">
-        <v>247</v>
+        <v>298</v>
       </c>
       <c r="CK156" s="2">
-        <v>376</v>
+        <v>427</v>
       </c>
       <c r="CL156" s="1">
         <v>15</v>
@@ -49324,16 +49324,16 @@
         <v>0</v>
       </c>
       <c r="CT156" s="1">
-        <v>17755</v>
+        <v>17864</v>
       </c>
       <c r="CU156" s="1">
-        <v>763</v>
+        <v>872</v>
       </c>
       <c r="CV156" s="1">
-        <v>961</v>
+        <v>1070</v>
       </c>
       <c r="CW156" s="1">
-        <v>1626</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="157" spans="1:101">
@@ -50768,16 +50768,16 @@
         <v>0</v>
       </c>
       <c r="CH161" s="1">
-        <v>2590</v>
+        <v>2690</v>
       </c>
       <c r="CI161" s="2">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="CJ161" s="2">
-        <v>164</v>
+        <v>264</v>
       </c>
       <c r="CK161" s="2">
-        <v>454</v>
+        <v>554</v>
       </c>
       <c r="CL161" s="1">
         <v>3</v>
@@ -50804,16 +50804,16 @@
         <v>0</v>
       </c>
       <c r="CT161" s="1">
-        <v>2714</v>
+        <v>2814</v>
       </c>
       <c r="CU161" s="1">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="CV161" s="1">
-        <v>166</v>
+        <v>266</v>
       </c>
       <c r="CW161" s="1">
-        <v>458</v>
+        <v>558</v>
       </c>
     </row>
     <row r="162" spans="1:101">
@@ -50860,7 +50860,7 @@
         <v>219</v>
       </c>
       <c r="O162" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P162" s="2">
         <v>2</v>
@@ -51103,7 +51103,7 @@
         <v>961</v>
       </c>
       <c r="CU162" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="CV162" s="1">
         <v>73</v>
@@ -51363,7 +51363,7 @@
         <v>108</v>
       </c>
       <c r="CI163" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CJ163" s="2">
         <v>6</v>
@@ -51399,7 +51399,7 @@
         <v>651</v>
       </c>
       <c r="CU163" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="CV163" s="1">
         <v>22</v>
@@ -52547,7 +52547,7 @@
         <v>294</v>
       </c>
       <c r="CI167" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="CJ167" s="2">
         <v>24</v>
@@ -52583,7 +52583,7 @@
         <v>4584</v>
       </c>
       <c r="CU167" s="1">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="CV167" s="1">
         <v>199</v>
@@ -53001,16 +53001,16 @@
         <v>0</v>
       </c>
       <c r="AL169" s="1">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AM169" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AN169" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO169" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP169" s="1">
         <v>34</v>
@@ -53136,16 +53136,16 @@
         <v>0</v>
       </c>
       <c r="CH169" s="1">
-        <v>1042</v>
+        <v>1059</v>
       </c>
       <c r="CI169" s="2">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="CJ169" s="2">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="CK169" s="2">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="CL169" s="1">
         <v>17</v>
@@ -53172,16 +53172,16 @@
         <v>0</v>
       </c>
       <c r="CT169" s="1">
-        <v>16023</v>
+        <v>16042</v>
       </c>
       <c r="CU169" s="1">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="CV169" s="1">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="CW169" s="1">
-        <v>1159</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="170" spans="1:101">
@@ -54780,7 +54780,7 @@
         <v>201</v>
       </c>
       <c r="AM175" s="2">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="AN175" s="2">
         <v>85</v>
@@ -54915,7 +54915,7 @@
         <v>386</v>
       </c>
       <c r="CI175" s="2">
-        <v>184</v>
+        <v>8</v>
       </c>
       <c r="CJ175" s="2">
         <v>190</v>
@@ -54951,7 +54951,7 @@
         <v>729</v>
       </c>
       <c r="CU175" s="1">
-        <v>265</v>
+        <v>10</v>
       </c>
       <c r="CV175" s="1">
         <v>304</v>
@@ -55288,7 +55288,7 @@
         <v>1530</v>
       </c>
       <c r="K177" s="2">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="L177" s="2">
         <v>49</v>
@@ -55360,7 +55360,7 @@
         <v>19</v>
       </c>
       <c r="AI177" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ177" s="2">
         <v>1</v>
@@ -55372,7 +55372,7 @@
         <v>95</v>
       </c>
       <c r="AM177" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AN177" s="2">
         <v>9</v>
@@ -55507,7 +55507,7 @@
         <v>730</v>
       </c>
       <c r="CI177" s="2">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="CJ177" s="2">
         <v>69</v>
@@ -55543,7 +55543,7 @@
         <v>72146</v>
       </c>
       <c r="CU177" s="1">
-        <v>1838</v>
+        <v>1793</v>
       </c>
       <c r="CV177" s="1">
         <v>2103</v>
@@ -55880,7 +55880,7 @@
         <v>1013</v>
       </c>
       <c r="K179" s="2">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="L179" s="2">
         <v>58</v>
@@ -56135,7 +56135,7 @@
         <v>42763</v>
       </c>
       <c r="CU179" s="1">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="CV179" s="1">
         <v>1390</v>
@@ -57345,16 +57345,16 @@
         <v>0</v>
       </c>
       <c r="F184" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G184" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H184" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I184" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J184" s="1">
         <v>0</v>
@@ -57612,16 +57612,16 @@
         <v>0</v>
       </c>
       <c r="CT184" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CU184" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CV184" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CW184" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:101">
@@ -57937,16 +57937,16 @@
         <v>0</v>
       </c>
       <c r="F186" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G186" s="2">
         <v>1</v>
       </c>
       <c r="H186" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I186" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J186" s="1">
         <v>0</v>
@@ -58204,16 +58204,16 @@
         <v>0</v>
       </c>
       <c r="CT186" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CU186" s="1">
         <v>1</v>
       </c>
       <c r="CV186" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CW186" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:101">
@@ -59740,7 +59740,7 @@
         <v>25661</v>
       </c>
       <c r="O192" s="2">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P192" s="2">
         <v>593</v>
@@ -59983,7 +59983,7 @@
         <v>28830</v>
       </c>
       <c r="CU192" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CV192" s="1">
         <v>664</v>
@@ -60009,16 +60009,16 @@
         <v>8</v>
       </c>
       <c r="F193" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G193" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H193" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J193" s="1">
         <v>123</v>
@@ -60243,7 +60243,7 @@
         <v>415</v>
       </c>
       <c r="CI193" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="CJ193" s="2">
         <v>11</v>
@@ -60276,16 +60276,16 @@
         <v>0</v>
       </c>
       <c r="CT193" s="1">
-        <v>57492</v>
+        <v>57493</v>
       </c>
       <c r="CU193" s="1">
-        <v>3833</v>
+        <v>3827</v>
       </c>
       <c r="CV193" s="1">
-        <v>3864</v>
+        <v>3865</v>
       </c>
       <c r="CW193" s="1">
-        <v>5812</v>
+        <v>5813</v>
       </c>
     </row>
     <row r="194" spans="1:101">
@@ -60332,7 +60332,7 @@
         <v>2967</v>
       </c>
       <c r="O194" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P194" s="2">
         <v>346</v>
@@ -60575,7 +60575,7 @@
         <v>4766</v>
       </c>
       <c r="CU194" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CV194" s="1">
         <v>427</v>
@@ -61477,16 +61477,16 @@
         <v>297</v>
       </c>
       <c r="B198" s="1">
-        <v>3731</v>
+        <v>3759</v>
       </c>
       <c r="C198" s="2">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D198" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="E198" s="2">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="F198" s="1">
         <v>0</v>
@@ -61501,22 +61501,22 @@
         <v>0</v>
       </c>
       <c r="J198" s="1">
-        <v>1663</v>
+        <v>1687</v>
       </c>
       <c r="K198" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L198" s="2">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="M198" s="2">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="N198" s="1">
         <v>7756</v>
       </c>
       <c r="O198" s="2">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="P198" s="2">
         <v>27</v>
@@ -61756,16 +61756,16 @@
         <v>0</v>
       </c>
       <c r="CT198" s="1">
-        <v>14678</v>
+        <v>14730</v>
       </c>
       <c r="CU198" s="1">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="CV198" s="1">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="CW198" s="1">
-        <v>490</v>
+        <v>542</v>
       </c>
     </row>
     <row r="199" spans="1:101">
@@ -61797,16 +61797,16 @@
         <v>0</v>
       </c>
       <c r="J199" s="1">
-        <v>2814</v>
+        <v>2844</v>
       </c>
       <c r="K199" s="2">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="L199" s="2">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="M199" s="2">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="N199" s="1">
         <v>22479</v>
@@ -61860,7 +61860,7 @@
         <v>40757</v>
       </c>
       <c r="AE199" s="2">
-        <v>2952</v>
+        <v>0</v>
       </c>
       <c r="AF199" s="2">
         <v>2952</v>
@@ -61881,16 +61881,16 @@
         <v>0</v>
       </c>
       <c r="AL199" s="1">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AM199" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN199" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO199" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP199" s="1">
         <v>20</v>
@@ -62016,16 +62016,16 @@
         <v>1</v>
       </c>
       <c r="CH199" s="1">
-        <v>3180</v>
+        <v>3191</v>
       </c>
       <c r="CI199" s="2">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="CJ199" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="CK199" s="2">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="CL199" s="1">
         <v>5</v>
@@ -62052,16 +62052,16 @@
         <v>0</v>
       </c>
       <c r="CT199" s="1">
-        <v>78118</v>
+        <v>78161</v>
       </c>
       <c r="CU199" s="1">
-        <v>3542</v>
+        <v>608</v>
       </c>
       <c r="CV199" s="1">
-        <v>3698</v>
+        <v>3741</v>
       </c>
       <c r="CW199" s="1">
-        <v>6931</v>
+        <v>6974</v>
       </c>
     </row>
     <row r="200" spans="1:101">
@@ -62177,16 +62177,16 @@
         <v>0</v>
       </c>
       <c r="AL200" s="1">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AM200" s="2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AN200" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AO200" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AP200" s="1">
         <v>0</v>
@@ -62312,16 +62312,16 @@
         <v>0</v>
       </c>
       <c r="CH200" s="1">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="CI200" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="CJ200" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="CK200" s="2">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="CL200" s="1">
         <v>0</v>
@@ -62348,16 +62348,16 @@
         <v>0</v>
       </c>
       <c r="CT200" s="1">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="CU200" s="1">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="CV200" s="1">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="CW200" s="1">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="201" spans="1:101">
@@ -63585,16 +63585,16 @@
         <v>43</v>
       </c>
       <c r="N205" s="1">
-        <v>4799</v>
+        <v>4801</v>
       </c>
       <c r="O205" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P205" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q205" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R205" s="1">
         <v>0</v>
@@ -63828,16 +63828,16 @@
         <v>0</v>
       </c>
       <c r="CT205" s="1">
-        <v>12422</v>
+        <v>12424</v>
       </c>
       <c r="CU205" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="CV205" s="1">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="CW205" s="1">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="206" spans="1:101">
@@ -64733,16 +64733,16 @@
         <v>308</v>
       </c>
       <c r="B209" s="1">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C209" s="2">
         <v>2</v>
       </c>
       <c r="D209" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E209" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F209" s="1">
         <v>8</v>
@@ -64757,16 +64757,16 @@
         <v>0</v>
       </c>
       <c r="J209" s="1">
-        <v>1050</v>
+        <v>1071</v>
       </c>
       <c r="K209" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L209" s="2">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="M209" s="2">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="N209" s="1">
         <v>701</v>
@@ -64820,7 +64820,7 @@
         <v>2355</v>
       </c>
       <c r="AE209" s="2">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="AF209" s="2">
         <v>113</v>
@@ -65012,16 +65012,16 @@
         <v>0</v>
       </c>
       <c r="CT209" s="1">
-        <v>5035</v>
+        <v>5058</v>
       </c>
       <c r="CU209" s="1">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="CV209" s="1">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="CW209" s="1">
-        <v>521</v>
+        <v>544</v>
       </c>
     </row>
     <row r="210" spans="1:101">
@@ -67005,7 +67005,7 @@
         <v>571</v>
       </c>
       <c r="D54">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E54" t="s">
         <v>709</v>
@@ -67368,7 +67368,7 @@
         <v>589</v>
       </c>
       <c r="D72">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E72" t="s">
         <v>709</v>
@@ -67408,7 +67408,7 @@
         <v>591</v>
       </c>
       <c r="D74">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E74" t="s">
         <v>709</v>
@@ -67428,7 +67428,7 @@
         <v>592</v>
       </c>
       <c r="D75">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E75" t="s">
         <v>709</v>
@@ -68857,7 +68857,7 @@
         <v>653</v>
       </c>
       <c r="D146">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E146" t="s">
         <v>709</v>
@@ -69826,7 +69826,7 @@
         <v>693</v>
       </c>
       <c r="D194">
-        <v>9685</v>
+        <v>9712</v>
       </c>
       <c r="E194" t="s">
         <v>709</v>
@@ -70029,7 +70029,7 @@
         <v>701</v>
       </c>
       <c r="D204">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="E204" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3500,7 +3500,7 @@
         <v>16988</v>
       </c>
       <c r="O2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="2">
         <v>446</v>
@@ -3743,7 +3743,7 @@
         <v>40008</v>
       </c>
       <c r="CU2" s="1">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="CV2" s="1">
         <v>1266</v>
@@ -3784,7 +3784,7 @@
         <v>5854</v>
       </c>
       <c r="K3" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="L3" s="2">
         <v>368</v>
@@ -3844,7 +3844,7 @@
         <v>20240</v>
       </c>
       <c r="AE3" s="2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="2">
         <v>120</v>
@@ -3868,7 +3868,7 @@
         <v>158</v>
       </c>
       <c r="AM3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3" s="2">
         <v>7</v>
@@ -4003,7 +4003,7 @@
         <v>1734</v>
       </c>
       <c r="CI3" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CJ3" s="2">
         <v>51</v>
@@ -4039,7 +4039,7 @@
         <v>39051</v>
       </c>
       <c r="CU3" s="1">
-        <v>271</v>
+        <v>74</v>
       </c>
       <c r="CV3" s="1">
         <v>701</v>
@@ -7716,7 +7716,7 @@
         <v>536</v>
       </c>
       <c r="AM16" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN16" s="2">
         <v>8</v>
@@ -7851,7 +7851,7 @@
         <v>1042</v>
       </c>
       <c r="CI16" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="CJ16" s="2">
         <v>17</v>
@@ -7887,7 +7887,7 @@
         <v>1709</v>
       </c>
       <c r="CU16" s="1">
-        <v>-155</v>
+        <v>-160</v>
       </c>
       <c r="CV16" s="1">
         <v>-141</v>
@@ -8679,7 +8679,7 @@
         <v>387</v>
       </c>
       <c r="BO19" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BP19" s="2">
         <v>10</v>
@@ -8775,7 +8775,7 @@
         <v>18190</v>
       </c>
       <c r="CU19" s="1">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="CV19" s="1">
         <v>371</v>
@@ -8900,7 +8900,7 @@
         <v>13</v>
       </c>
       <c r="AM20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN20" s="2">
         <v>7</v>
@@ -9035,7 +9035,7 @@
         <v>92</v>
       </c>
       <c r="CI20" s="2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="CJ20" s="2">
         <v>25</v>
@@ -9071,7 +9071,7 @@
         <v>261</v>
       </c>
       <c r="CU20" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="CV20" s="1">
         <v>35</v>
@@ -10272,7 +10272,7 @@
         <v>79</v>
       </c>
       <c r="C25" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2">
         <v>4</v>
@@ -10551,7 +10551,7 @@
         <v>112</v>
       </c>
       <c r="CU25" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CV25" s="1">
         <v>4</v>
@@ -12673,16 +12673,16 @@
         <v>45</v>
       </c>
       <c r="N33" s="1">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="O33" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P33" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q33" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R33" s="1">
         <v>1</v>
@@ -12916,16 +12916,16 @@
         <v>0</v>
       </c>
       <c r="CT33" s="1">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="CU33" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="CV33" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="CW33" s="1">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="1:101">
@@ -14228,7 +14228,7 @@
         <v>19</v>
       </c>
       <c r="AM38" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="2">
         <v>2</v>
@@ -14363,7 +14363,7 @@
         <v>151</v>
       </c>
       <c r="CI38" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="CJ38" s="2">
         <v>35</v>
@@ -14399,7 +14399,7 @@
         <v>296</v>
       </c>
       <c r="CU38" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="CV38" s="1">
         <v>44</v>
@@ -14452,7 +14452,7 @@
         <v>15005</v>
       </c>
       <c r="O39" s="2">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="P39" s="2">
         <v>257</v>
@@ -14524,7 +14524,7 @@
         <v>582</v>
       </c>
       <c r="AM39" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AN39" s="2">
         <v>5</v>
@@ -14659,7 +14659,7 @@
         <v>2129</v>
       </c>
       <c r="CI39" s="2">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="CJ39" s="2">
         <v>80</v>
@@ -14695,7 +14695,7 @@
         <v>51973</v>
       </c>
       <c r="CU39" s="1">
-        <v>652</v>
+        <v>369</v>
       </c>
       <c r="CV39" s="1">
         <v>999</v>
@@ -15636,7 +15636,7 @@
         <v>1458</v>
       </c>
       <c r="O43" s="2">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="P43" s="2">
         <v>29</v>
@@ -15879,7 +15879,7 @@
         <v>43917</v>
       </c>
       <c r="CU43" s="1">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="CV43" s="1">
         <v>2123</v>
@@ -19744,7 +19744,7 @@
         <v>84</v>
       </c>
       <c r="C57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="2">
         <v>2</v>
@@ -20023,7 +20023,7 @@
         <v>705</v>
       </c>
       <c r="CU57" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CV57" s="1">
         <v>20</v>
@@ -20372,7 +20372,7 @@
         <v>42074</v>
       </c>
       <c r="O59" s="2">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="P59" s="2">
         <v>813</v>
@@ -20420,7 +20420,7 @@
         <v>5163</v>
       </c>
       <c r="AE59" s="2">
-        <v>1325</v>
+        <v>0</v>
       </c>
       <c r="AF59" s="2">
         <v>1325</v>
@@ -20531,7 +20531,7 @@
         <v>7</v>
       </c>
       <c r="BS59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT59" s="2">
         <v>1</v>
@@ -20615,7 +20615,7 @@
         <v>61698</v>
       </c>
       <c r="CU59" s="1">
-        <v>1646</v>
+        <v>100</v>
       </c>
       <c r="CV59" s="1">
         <v>2415</v>
@@ -21221,16 +21221,16 @@
         <v>161</v>
       </c>
       <c r="B62" s="1">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E62" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F62" s="1">
         <v>13</v>
@@ -21500,16 +21500,16 @@
         <v>0</v>
       </c>
       <c r="CT62" s="1">
-        <v>6704</v>
+        <v>6705</v>
       </c>
       <c r="CU62" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="CV62" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="CW62" s="1">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="1:101">
@@ -21556,7 +21556,7 @@
         <v>50397</v>
       </c>
       <c r="O63" s="2">
-        <v>1084</v>
+        <v>0</v>
       </c>
       <c r="P63" s="2">
         <v>1092</v>
@@ -21799,7 +21799,7 @@
         <v>57565</v>
       </c>
       <c r="CU63" s="1">
-        <v>1148</v>
+        <v>64</v>
       </c>
       <c r="CV63" s="1">
         <v>1300</v>
@@ -22408,7 +22408,7 @@
         <v>267</v>
       </c>
       <c r="C66" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" s="2">
         <v>9</v>
@@ -22687,7 +22687,7 @@
         <v>1883</v>
       </c>
       <c r="CU66" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CV66" s="1">
         <v>55</v>
@@ -23036,7 +23036,7 @@
         <v>1175</v>
       </c>
       <c r="O68" s="2">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="P68" s="2">
         <v>15</v>
@@ -23120,7 +23120,7 @@
         <v>63</v>
       </c>
       <c r="AQ68" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR68" s="2">
         <v>2</v>
@@ -23243,7 +23243,7 @@
         <v>148</v>
       </c>
       <c r="CI68" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CJ68" s="2">
         <v>2</v>
@@ -23279,7 +23279,7 @@
         <v>2055</v>
       </c>
       <c r="CU68" s="1">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="CV68" s="1">
         <v>31</v>
@@ -24220,7 +24220,7 @@
         <v>71851</v>
       </c>
       <c r="O72" s="2">
-        <v>1106</v>
+        <v>0</v>
       </c>
       <c r="P72" s="2">
         <v>1106</v>
@@ -24268,7 +24268,7 @@
         <v>13085</v>
       </c>
       <c r="AE72" s="2">
-        <v>-39</v>
+        <v>-23</v>
       </c>
       <c r="AF72" s="2">
         <v>777</v>
@@ -24289,16 +24289,16 @@
         <v>0</v>
       </c>
       <c r="AL72" s="1">
-        <v>35236</v>
+        <v>35260</v>
       </c>
       <c r="AM72" s="2">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="AN72" s="2">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="AO72" s="2">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="AP72" s="1">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>484</v>
       </c>
       <c r="BO72" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BP72" s="2">
         <v>6</v>
@@ -24424,16 +24424,16 @@
         <v>1</v>
       </c>
       <c r="CH72" s="1">
-        <v>15179</v>
+        <v>15194</v>
       </c>
       <c r="CI72" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="CJ72" s="2">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="CK72" s="2">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="CL72" s="1">
         <v>0</v>
@@ -24460,16 +24460,16 @@
         <v>1</v>
       </c>
       <c r="CT72" s="1">
-        <v>157035</v>
+        <v>157074</v>
       </c>
       <c r="CU72" s="1">
-        <v>1290</v>
+        <v>217</v>
       </c>
       <c r="CV72" s="1">
-        <v>2697</v>
+        <v>2733</v>
       </c>
       <c r="CW72" s="1">
-        <v>6015</v>
+        <v>6054</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -24812,7 +24812,7 @@
         <v>107732</v>
       </c>
       <c r="O74" s="2">
-        <v>2479</v>
+        <v>67</v>
       </c>
       <c r="P74" s="2">
         <v>2544</v>
@@ -24884,7 +24884,7 @@
         <v>305</v>
       </c>
       <c r="AM74" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN74" s="2">
         <v>2</v>
@@ -25019,7 +25019,7 @@
         <v>1969</v>
       </c>
       <c r="CI74" s="2">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="CJ74" s="2">
         <v>51</v>
@@ -25055,7 +25055,7 @@
         <v>136908</v>
       </c>
       <c r="CU74" s="1">
-        <v>2561</v>
+        <v>119</v>
       </c>
       <c r="CV74" s="1">
         <v>3266</v>
@@ -25069,16 +25069,16 @@
         <v>174</v>
       </c>
       <c r="B75" s="1">
-        <v>13621</v>
+        <v>13737</v>
       </c>
       <c r="C75" s="2">
-        <v>101</v>
+        <v>217</v>
       </c>
       <c r="D75" s="2">
-        <v>226</v>
+        <v>342</v>
       </c>
       <c r="E75" s="2">
-        <v>501</v>
+        <v>617</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -25108,7 +25108,7 @@
         <v>318332</v>
       </c>
       <c r="O75" s="2">
-        <v>4253</v>
+        <v>0</v>
       </c>
       <c r="P75" s="2">
         <v>4253</v>
@@ -25156,7 +25156,7 @@
         <v>761</v>
       </c>
       <c r="AE75" s="2">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AF75" s="2">
         <v>34</v>
@@ -25213,16 +25213,16 @@
         <v>1</v>
       </c>
       <c r="AX75" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY75" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ75" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA75" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB75" s="1">
         <v>6</v>
@@ -25315,7 +25315,7 @@
         <v>5669</v>
       </c>
       <c r="CI75" s="2">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="CJ75" s="2">
         <v>237</v>
@@ -25327,7 +25327,7 @@
         <v>97</v>
       </c>
       <c r="CM75" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CN75" s="2">
         <v>4</v>
@@ -25348,16 +25348,16 @@
         <v>6</v>
       </c>
       <c r="CT75" s="1">
-        <v>345823</v>
+        <v>345940</v>
       </c>
       <c r="CU75" s="1">
-        <v>4526</v>
+        <v>329</v>
       </c>
       <c r="CV75" s="1">
-        <v>4949</v>
+        <v>5066</v>
       </c>
       <c r="CW75" s="1">
-        <v>10999</v>
+        <v>11116</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -25404,7 +25404,7 @@
         <v>65752</v>
       </c>
       <c r="O76" s="2">
-        <v>696</v>
+        <v>-17</v>
       </c>
       <c r="P76" s="2">
         <v>696</v>
@@ -25452,7 +25452,7 @@
         <v>7848</v>
       </c>
       <c r="AE76" s="2">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="AF76" s="2">
         <v>167</v>
@@ -25647,7 +25647,7 @@
         <v>84781</v>
       </c>
       <c r="CU76" s="1">
-        <v>1002</v>
+        <v>123</v>
       </c>
       <c r="CV76" s="1">
         <v>1158</v>
@@ -26576,7 +26576,7 @@
         <v>7246</v>
       </c>
       <c r="K80" s="2">
-        <v>206</v>
+        <v>99</v>
       </c>
       <c r="L80" s="2">
         <v>350</v>
@@ -26831,7 +26831,7 @@
         <v>378898</v>
       </c>
       <c r="CU80" s="1">
-        <v>1339</v>
+        <v>1232</v>
       </c>
       <c r="CV80" s="1">
         <v>2843</v>
@@ -28116,7 +28116,7 @@
         <v>4603</v>
       </c>
       <c r="AE85" s="2">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AF85" s="2">
         <v>51</v>
@@ -28311,7 +28311,7 @@
         <v>8722</v>
       </c>
       <c r="CU85" s="1">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="CV85" s="1">
         <v>127</v>
@@ -29040,7 +29040,7 @@
         <v>22</v>
       </c>
       <c r="AQ88" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR88" s="2">
         <v>2</v>
@@ -29163,7 +29163,7 @@
         <v>7287</v>
       </c>
       <c r="CI88" s="2">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="CJ88" s="2">
         <v>74</v>
@@ -29199,7 +29199,7 @@
         <v>23128</v>
       </c>
       <c r="CU88" s="1">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="CV88" s="1">
         <v>431</v>
@@ -30804,7 +30804,7 @@
         <v>4</v>
       </c>
       <c r="AM94" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN94" s="2">
         <v>1</v>
@@ -30975,7 +30975,7 @@
         <v>166</v>
       </c>
       <c r="CU94" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CV94" s="1">
         <v>11</v>
@@ -32212,7 +32212,7 @@
         <v>13077</v>
       </c>
       <c r="O99" s="2">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="P99" s="2">
         <v>279</v>
@@ -32455,7 +32455,7 @@
         <v>37193</v>
       </c>
       <c r="CU99" s="1">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="CV99" s="1">
         <v>1019</v>
@@ -32715,7 +32715,7 @@
         <v>255</v>
       </c>
       <c r="CI100" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="CJ100" s="2">
         <v>87</v>
@@ -32751,7 +32751,7 @@
         <v>352</v>
       </c>
       <c r="CU100" s="1">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="CV100" s="1">
         <v>106</v>
@@ -33172,7 +33172,7 @@
         <v>36</v>
       </c>
       <c r="AM102" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN102" s="2">
         <v>3</v>
@@ -33307,7 +33307,7 @@
         <v>210</v>
       </c>
       <c r="CI102" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CJ102" s="2">
         <v>12</v>
@@ -33343,7 +33343,7 @@
         <v>6637</v>
       </c>
       <c r="CU102" s="1">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="CV102" s="1">
         <v>188</v>
@@ -33384,7 +33384,7 @@
         <v>7896</v>
       </c>
       <c r="K103" s="2">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="L103" s="2">
         <v>530</v>
@@ -33393,16 +33393,16 @@
         <v>919</v>
       </c>
       <c r="N103" s="1">
-        <v>19737</v>
+        <v>19978</v>
       </c>
       <c r="O103" s="2">
-        <v>4739</v>
+        <v>4980</v>
       </c>
       <c r="P103" s="2">
-        <v>8782</v>
+        <v>9023</v>
       </c>
       <c r="Q103" s="2">
-        <v>8782</v>
+        <v>9023</v>
       </c>
       <c r="R103" s="1">
         <v>0</v>
@@ -33444,7 +33444,7 @@
         <v>41009</v>
       </c>
       <c r="AE103" s="2">
-        <v>1805</v>
+        <v>0</v>
       </c>
       <c r="AF103" s="2">
         <v>1805</v>
@@ -33636,16 +33636,16 @@
         <v>0</v>
       </c>
       <c r="CT103" s="1">
-        <v>83401</v>
+        <v>83642</v>
       </c>
       <c r="CU103" s="1">
-        <v>6931</v>
+        <v>5217</v>
       </c>
       <c r="CV103" s="1">
-        <v>11507</v>
+        <v>11748</v>
       </c>
       <c r="CW103" s="1">
-        <v>13545</v>
+        <v>13786</v>
       </c>
     </row>
     <row r="104" spans="1:101">
@@ -33988,7 +33988,7 @@
         <v>409</v>
       </c>
       <c r="O105" s="2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="P105" s="2">
         <v>16</v>
@@ -34060,7 +34060,7 @@
         <v>63</v>
       </c>
       <c r="AM105" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AN105" s="2">
         <v>5</v>
@@ -34195,7 +34195,7 @@
         <v>207</v>
       </c>
       <c r="CI105" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="CJ105" s="2">
         <v>27</v>
@@ -34231,7 +34231,7 @@
         <v>747</v>
       </c>
       <c r="CU105" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="CV105" s="1">
         <v>52</v>
@@ -34628,7 +34628,7 @@
         <v>1503</v>
       </c>
       <c r="AE107" s="2">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="AF107" s="2">
         <v>113</v>
@@ -34823,7 +34823,7 @@
         <v>10435</v>
       </c>
       <c r="CU107" s="1">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="CV107" s="1">
         <v>392</v>
@@ -35516,7 +35516,7 @@
         <v>126957</v>
       </c>
       <c r="AE110" s="2">
-        <v>4736</v>
+        <v>0</v>
       </c>
       <c r="AF110" s="2">
         <v>4736</v>
@@ -35675,7 +35675,7 @@
         <v>1108</v>
       </c>
       <c r="CI110" s="2">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="CJ110" s="2">
         <v>117</v>
@@ -35711,7 +35711,7 @@
         <v>140664</v>
       </c>
       <c r="CU110" s="1">
-        <v>5096</v>
+        <v>354</v>
       </c>
       <c r="CV110" s="1">
         <v>5304</v>
@@ -36356,7 +36356,7 @@
         <v>3882</v>
       </c>
       <c r="O113" s="2">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="P113" s="2">
         <v>108</v>
@@ -36599,7 +36599,7 @@
         <v>18463</v>
       </c>
       <c r="CU113" s="1">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c r="CV113" s="1">
         <v>485</v>
@@ -40868,7 +40868,7 @@
         <v>67</v>
       </c>
       <c r="AM128" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AN128" s="2">
         <v>17</v>
@@ -41003,7 +41003,7 @@
         <v>100</v>
       </c>
       <c r="CI128" s="2">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="CJ128" s="2">
         <v>28</v>
@@ -41039,7 +41039,7 @@
         <v>485</v>
       </c>
       <c r="CU128" s="1">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="CV128" s="1">
         <v>94</v>
@@ -41980,7 +41980,7 @@
         <v>45112</v>
       </c>
       <c r="O132" s="2">
-        <v>860</v>
+        <v>0</v>
       </c>
       <c r="P132" s="2">
         <v>860</v>
@@ -42052,7 +42052,7 @@
         <v>1271</v>
       </c>
       <c r="AM132" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN132" s="2">
         <v>10</v>
@@ -42223,7 +42223,7 @@
         <v>117981</v>
       </c>
       <c r="CU132" s="1">
-        <v>2639</v>
+        <v>1777</v>
       </c>
       <c r="CV132" s="1">
         <v>2680</v>
@@ -42276,7 +42276,7 @@
         <v>29067</v>
       </c>
       <c r="O133" s="2">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="P133" s="2">
         <v>564</v>
@@ -42348,7 +42348,7 @@
         <v>812</v>
       </c>
       <c r="AM133" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN133" s="2">
         <v>6</v>
@@ -42483,7 +42483,7 @@
         <v>2755</v>
       </c>
       <c r="CI133" s="2">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="CJ133" s="2">
         <v>41</v>
@@ -42519,7 +42519,7 @@
         <v>54440</v>
       </c>
       <c r="CU133" s="1">
-        <v>1078</v>
+        <v>499</v>
       </c>
       <c r="CV133" s="1">
         <v>1381</v>
@@ -42572,7 +42572,7 @@
         <v>1283</v>
       </c>
       <c r="O134" s="2">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="P134" s="2">
         <v>29</v>
@@ -42815,7 +42815,7 @@
         <v>138005</v>
       </c>
       <c r="CU134" s="1">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="CV134" s="1">
         <v>3921</v>
@@ -43164,7 +43164,7 @@
         <v>1886</v>
       </c>
       <c r="O136" s="2">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="P136" s="2">
         <v>47</v>
@@ -43407,7 +43407,7 @@
         <v>3674</v>
       </c>
       <c r="CU136" s="1">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="CV136" s="1">
         <v>107</v>
@@ -43756,7 +43756,7 @@
         <v>73</v>
       </c>
       <c r="O138" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P138" s="2">
         <v>2</v>
@@ -43999,7 +43999,7 @@
         <v>457</v>
       </c>
       <c r="CU138" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="CV138" s="1">
         <v>24</v>
@@ -44324,7 +44324,7 @@
         <v>5</v>
       </c>
       <c r="G140" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140" s="2">
         <v>3</v>
@@ -44591,7 +44591,7 @@
         <v>1377</v>
       </c>
       <c r="CU140" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CV140" s="1">
         <v>55</v>
@@ -45200,7 +45200,7 @@
         <v>571</v>
       </c>
       <c r="C143" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D143" s="2">
         <v>8</v>
@@ -45224,7 +45224,7 @@
         <v>416</v>
       </c>
       <c r="K143" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L143" s="2">
         <v>16</v>
@@ -45236,7 +45236,7 @@
         <v>719</v>
       </c>
       <c r="O143" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P143" s="2">
         <v>14</v>
@@ -45296,7 +45296,7 @@
         <v>15</v>
       </c>
       <c r="AI143" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ143" s="2">
         <v>1</v>
@@ -45308,7 +45308,7 @@
         <v>21</v>
       </c>
       <c r="AM143" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN143" s="2">
         <v>1</v>
@@ -45383,7 +45383,7 @@
         <v>2</v>
       </c>
       <c r="BO143" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP143" s="2">
         <v>1</v>
@@ -45443,7 +45443,7 @@
         <v>122</v>
       </c>
       <c r="CI143" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CJ143" s="2">
         <v>7</v>
@@ -45479,7 +45479,7 @@
         <v>2118</v>
       </c>
       <c r="CU143" s="1">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="CV143" s="1">
         <v>53</v>
@@ -46112,7 +46112,7 @@
         <v>1133</v>
       </c>
       <c r="K146" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L146" s="2">
         <v>28</v>
@@ -46124,7 +46124,7 @@
         <v>2882</v>
       </c>
       <c r="O146" s="2">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="P146" s="2">
         <v>68</v>
@@ -46196,7 +46196,7 @@
         <v>72</v>
       </c>
       <c r="AM146" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AN146" s="2">
         <v>11</v>
@@ -46229,16 +46229,16 @@
         <v>0</v>
       </c>
       <c r="AX146" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY146" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ146" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA146" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB146" s="1">
         <v>13</v>
@@ -46331,7 +46331,7 @@
         <v>286</v>
       </c>
       <c r="CI146" s="2">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="CJ146" s="2">
         <v>31</v>
@@ -46364,16 +46364,16 @@
         <v>0</v>
       </c>
       <c r="CT146" s="1">
-        <v>4858</v>
+        <v>4859</v>
       </c>
       <c r="CU146" s="1">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="CV146" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CW146" s="1">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="147" spans="1:101">
@@ -46420,7 +46420,7 @@
         <v>499</v>
       </c>
       <c r="O147" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P147" s="2">
         <v>16</v>
@@ -46663,7 +46663,7 @@
         <v>754</v>
       </c>
       <c r="CU147" s="1">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="CV147" s="1">
         <v>33</v>
@@ -48947,7 +48947,7 @@
         <v>12</v>
       </c>
       <c r="BS155" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT155" s="2">
         <v>1</v>
@@ -49031,7 +49031,7 @@
         <v>145498</v>
       </c>
       <c r="CU155" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="CV155" s="1">
         <v>2253</v>
@@ -49048,7 +49048,7 @@
         <v>7136</v>
       </c>
       <c r="C156" s="2">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D156" s="2">
         <v>110</v>
@@ -49072,7 +49072,7 @@
         <v>5596</v>
       </c>
       <c r="K156" s="2">
-        <v>478</v>
+        <v>405</v>
       </c>
       <c r="L156" s="2">
         <v>569</v>
@@ -49327,7 +49327,7 @@
         <v>17864</v>
       </c>
       <c r="CU156" s="1">
-        <v>872</v>
+        <v>756</v>
       </c>
       <c r="CV156" s="1">
         <v>1070</v>
@@ -49960,7 +49960,7 @@
         <v>2817</v>
       </c>
       <c r="K159" s="2">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="L159" s="2">
         <v>98</v>
@@ -49972,7 +49972,7 @@
         <v>8663</v>
       </c>
       <c r="O159" s="2">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="P159" s="2">
         <v>254</v>
@@ -50020,7 +50020,7 @@
         <v>4486</v>
       </c>
       <c r="AE159" s="2">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="AF159" s="2">
         <v>202</v>
@@ -50215,7 +50215,7 @@
         <v>18857</v>
       </c>
       <c r="CU159" s="1">
-        <v>528</v>
+        <v>40</v>
       </c>
       <c r="CV159" s="1">
         <v>639</v>
@@ -51748,7 +51748,7 @@
         <v>1877</v>
       </c>
       <c r="O165" s="2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="P165" s="2">
         <v>35</v>
@@ -51991,7 +51991,7 @@
         <v>4225</v>
       </c>
       <c r="CU165" s="1">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="CV165" s="1">
         <v>120</v>
@@ -52708,7 +52708,7 @@
         <v>71</v>
       </c>
       <c r="AM168" s="2">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AN168" s="2">
         <v>32</v>
@@ -52879,7 +52879,7 @@
         <v>202</v>
       </c>
       <c r="CU168" s="1">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="CV168" s="1">
         <v>74</v>
@@ -52920,7 +52920,7 @@
         <v>5263</v>
       </c>
       <c r="K169" s="2">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="L169" s="2">
         <v>200</v>
@@ -52932,7 +52932,7 @@
         <v>2358</v>
       </c>
       <c r="O169" s="2">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="P169" s="2">
         <v>62</v>
@@ -52980,7 +52980,7 @@
         <v>2725</v>
       </c>
       <c r="AE169" s="2">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="AF169" s="2">
         <v>78</v>
@@ -53004,7 +53004,7 @@
         <v>209</v>
       </c>
       <c r="AM169" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AN169" s="2">
         <v>9</v>
@@ -53139,7 +53139,7 @@
         <v>1059</v>
       </c>
       <c r="CI169" s="2">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="CJ169" s="2">
         <v>71</v>
@@ -53175,7 +53175,7 @@
         <v>16042</v>
       </c>
       <c r="CU169" s="1">
-        <v>364</v>
+        <v>131</v>
       </c>
       <c r="CV169" s="1">
         <v>549</v>
@@ -54092,7 +54092,7 @@
         <v>20</v>
       </c>
       <c r="G173" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H173" s="2">
         <v>3</v>
@@ -54116,7 +54116,7 @@
         <v>167</v>
       </c>
       <c r="O173" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P173" s="2">
         <v>16</v>
@@ -54359,7 +54359,7 @@
         <v>396</v>
       </c>
       <c r="CU173" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="CV173" s="1">
         <v>27</v>
@@ -55940,7 +55940,7 @@
         <v>336</v>
       </c>
       <c r="AE179" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AF179" s="2">
         <v>11</v>
@@ -55964,7 +55964,7 @@
         <v>929</v>
       </c>
       <c r="AM179" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AN179" s="2">
         <v>10</v>
@@ -56099,7 +56099,7 @@
         <v>1687</v>
       </c>
       <c r="CI179" s="2">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="CJ179" s="2">
         <v>84</v>
@@ -56135,7 +56135,7 @@
         <v>42763</v>
       </c>
       <c r="CU179" s="1">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="CV179" s="1">
         <v>1390</v>
@@ -56939,7 +56939,7 @@
         <v>12</v>
       </c>
       <c r="BS182" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT182" s="2">
         <v>1</v>
@@ -57023,7 +57023,7 @@
         <v>53</v>
       </c>
       <c r="CU182" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV182" s="1">
         <v>1</v>
@@ -58816,7 +58816,7 @@
         <v>6</v>
       </c>
       <c r="C189" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189" s="2">
         <v>2</v>
@@ -59095,7 +59095,7 @@
         <v>586</v>
       </c>
       <c r="CU189" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CV189" s="1">
         <v>44</v>
@@ -59220,7 +59220,7 @@
         <v>15</v>
       </c>
       <c r="AM190" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN190" s="2">
         <v>1</v>
@@ -59391,7 +59391,7 @@
         <v>511</v>
       </c>
       <c r="CU190" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CV190" s="1">
         <v>10</v>
@@ -59728,7 +59728,7 @@
         <v>746</v>
       </c>
       <c r="K192" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="L192" s="2">
         <v>26</v>
@@ -59983,7 +59983,7 @@
         <v>28830</v>
       </c>
       <c r="CU192" s="1">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="CV192" s="1">
         <v>664</v>
@@ -60036,7 +60036,7 @@
         <v>830</v>
       </c>
       <c r="O193" s="2">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="P193" s="2">
         <v>70</v>
@@ -60084,7 +60084,7 @@
         <v>55808</v>
       </c>
       <c r="AE193" s="2">
-        <v>3754</v>
+        <v>0</v>
       </c>
       <c r="AF193" s="2">
         <v>3772</v>
@@ -60279,7 +60279,7 @@
         <v>57493</v>
       </c>
       <c r="CU193" s="1">
-        <v>3827</v>
+        <v>38</v>
       </c>
       <c r="CV193" s="1">
         <v>3865</v>
@@ -60332,7 +60332,7 @@
         <v>2967</v>
       </c>
       <c r="O194" s="2">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="P194" s="2">
         <v>346</v>
@@ -60404,7 +60404,7 @@
         <v>90</v>
       </c>
       <c r="AM194" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN194" s="2">
         <v>3</v>
@@ -60539,7 +60539,7 @@
         <v>339</v>
       </c>
       <c r="CI194" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="CJ194" s="2">
         <v>17</v>
@@ -60575,7 +60575,7 @@
         <v>4766</v>
       </c>
       <c r="CU194" s="1">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="CV194" s="1">
         <v>427</v>
@@ -61800,7 +61800,7 @@
         <v>2844</v>
       </c>
       <c r="K199" s="2">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="L199" s="2">
         <v>106</v>
@@ -61812,7 +61812,7 @@
         <v>22479</v>
       </c>
       <c r="O199" s="2">
-        <v>477</v>
+        <v>0</v>
       </c>
       <c r="P199" s="2">
         <v>477</v>
@@ -62055,7 +62055,7 @@
         <v>78161</v>
       </c>
       <c r="CU199" s="1">
-        <v>608</v>
+        <v>91</v>
       </c>
       <c r="CV199" s="1">
         <v>3741</v>
@@ -63552,7 +63552,7 @@
         <v>1236</v>
       </c>
       <c r="C205" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D205" s="2">
         <v>12</v>
@@ -63576,7 +63576,7 @@
         <v>410</v>
       </c>
       <c r="K205" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L205" s="2">
         <v>16</v>
@@ -63588,7 +63588,7 @@
         <v>4801</v>
       </c>
       <c r="O205" s="2">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="P205" s="2">
         <v>39</v>
@@ -63831,7 +63831,7 @@
         <v>12424</v>
       </c>
       <c r="CU205" s="1">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="CV205" s="1">
         <v>152</v>
@@ -64820,7 +64820,7 @@
         <v>2355</v>
       </c>
       <c r="AE209" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF209" s="2">
         <v>113</v>
@@ -65015,7 +65015,7 @@
         <v>5058</v>
       </c>
       <c r="CU209" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="CV209" s="1">
         <v>199</v>
@@ -65328,7 +65328,7 @@
         <v>22</v>
       </c>
       <c r="C211" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D211" s="2">
         <v>2</v>
@@ -65340,7 +65340,7 @@
         <v>29</v>
       </c>
       <c r="G211" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211" s="2">
         <v>4</v>
@@ -65607,7 +65607,7 @@
         <v>156</v>
       </c>
       <c r="CU211" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="CV211" s="1">
         <v>43</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3470,7 +3470,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="2">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -3488,7 +3488,7 @@
         <v>3465</v>
       </c>
       <c r="K2" s="2">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="L2" s="2">
         <v>131</v>
@@ -3548,7 +3548,7 @@
         <v>15675</v>
       </c>
       <c r="AE2" s="2">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="2">
         <v>552</v>
@@ -3743,13 +3743,13 @@
         <v>40008</v>
       </c>
       <c r="CU2" s="1">
-        <v>650</v>
+        <v>63</v>
       </c>
       <c r="CV2" s="1">
         <v>1266</v>
       </c>
       <c r="CW2" s="1">
-        <v>2776</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="3" spans="1:101">
@@ -3787,7 +3787,7 @@
         <v>74</v>
       </c>
       <c r="L3" s="2">
-        <v>368</v>
+        <v>249</v>
       </c>
       <c r="M3" s="2">
         <v>537</v>
@@ -4009,7 +4009,7 @@
         <v>51</v>
       </c>
       <c r="CK3" s="2">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="CL3" s="1">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>74</v>
       </c>
       <c r="CV3" s="1">
-        <v>701</v>
+        <v>582</v>
       </c>
       <c r="CW3" s="1">
-        <v>1206</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="4" spans="1:101">
@@ -6131,7 +6131,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" s="2">
         <v>8</v>
@@ -6410,7 +6410,7 @@
         <v>1</v>
       </c>
       <c r="CV11" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="CW11" s="1">
         <v>12</v>
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>13</v>
@@ -6804,7 +6804,7 @@
         <v>1753</v>
       </c>
       <c r="AE13" s="2">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="2">
         <v>44</v>
@@ -6999,10 +6999,10 @@
         <v>2565</v>
       </c>
       <c r="CU13" s="1">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="CV13" s="1">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="CW13" s="1">
         <v>133</v>
@@ -8496,10 +8496,10 @@
         <v>4502</v>
       </c>
       <c r="C19" s="2">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2">
         <v>124</v>
@@ -8532,7 +8532,7 @@
         <v>11143</v>
       </c>
       <c r="O19" s="2">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="P19" s="2">
         <v>188</v>
@@ -8739,7 +8739,7 @@
         <v>895</v>
       </c>
       <c r="CI19" s="2">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="CJ19" s="2">
         <v>46</v>
@@ -8775,10 +8775,10 @@
         <v>18190</v>
       </c>
       <c r="CU19" s="1">
-        <v>293</v>
+        <v>74</v>
       </c>
       <c r="CV19" s="1">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="CW19" s="1">
         <v>645</v>
@@ -10583,7 +10583,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" s="2">
         <v>6</v>
@@ -10850,7 +10850,7 @@
         <v>8</v>
       </c>
       <c r="CV26" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="CW26" s="1">
         <v>68</v>
@@ -10948,7 +10948,7 @@
         <v>15376</v>
       </c>
       <c r="AE27" s="2">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="2">
         <v>152</v>
@@ -11143,7 +11143,7 @@
         <v>22379</v>
       </c>
       <c r="CU27" s="1">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="CV27" s="1">
         <v>207</v>
@@ -12132,7 +12132,7 @@
         <v>50</v>
       </c>
       <c r="AE31" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF31" s="2">
         <v>3</v>
@@ -12168,7 +12168,7 @@
         <v>35</v>
       </c>
       <c r="AQ31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR31" s="2">
         <v>1</v>
@@ -12291,7 +12291,7 @@
         <v>420</v>
       </c>
       <c r="CI31" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CJ31" s="2">
         <v>9</v>
@@ -12327,7 +12327,7 @@
         <v>9443</v>
       </c>
       <c r="CU31" s="1">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="CV31" s="1">
         <v>331</v>
@@ -12676,7 +12676,7 @@
         <v>1250</v>
       </c>
       <c r="O33" s="2">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="P33" s="2">
         <v>25</v>
@@ -12919,7 +12919,7 @@
         <v>2151</v>
       </c>
       <c r="CU33" s="1">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="CV33" s="1">
         <v>70</v>
@@ -14440,7 +14440,7 @@
         <v>3469</v>
       </c>
       <c r="K39" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="L39" s="2">
         <v>122</v>
@@ -14695,7 +14695,7 @@
         <v>51973</v>
       </c>
       <c r="CU39" s="1">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="CV39" s="1">
         <v>999</v>
@@ -19099,7 +19099,7 @@
         <v>452</v>
       </c>
       <c r="CI54" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CJ54" s="2">
         <v>16</v>
@@ -19135,7 +19135,7 @@
         <v>6601</v>
       </c>
       <c r="CU54" s="1">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="CV54" s="1">
         <v>211</v>
@@ -19463,7 +19463,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I56" s="2">
         <v>6</v>
@@ -19559,7 +19559,7 @@
         <v>0</v>
       </c>
       <c r="AN56" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO56" s="2">
         <v>7</v>
@@ -19730,7 +19730,7 @@
         <v>0</v>
       </c>
       <c r="CV56" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="CW56" s="1">
         <v>34</v>
@@ -23616,7 +23616,7 @@
         <v>25</v>
       </c>
       <c r="K70" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="L70" s="2">
         <v>22</v>
@@ -23871,7 +23871,7 @@
         <v>119</v>
       </c>
       <c r="CU70" s="1">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="CV70" s="1">
         <v>110</v>
@@ -23900,7 +23900,7 @@
         <v>40</v>
       </c>
       <c r="G71" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" s="2">
         <v>2</v>
@@ -23996,7 +23996,7 @@
         <v>76</v>
       </c>
       <c r="AM71" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN71" s="2">
         <v>2</v>
@@ -24131,7 +24131,7 @@
         <v>317</v>
       </c>
       <c r="CI71" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="CJ71" s="2">
         <v>24</v>
@@ -24167,7 +24167,7 @@
         <v>476</v>
       </c>
       <c r="CU71" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="CV71" s="1">
         <v>30</v>
@@ -24190,7 +24190,7 @@
         <v>249</v>
       </c>
       <c r="E72" s="2">
-        <v>560</v>
+        <v>477</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -24292,13 +24292,13 @@
         <v>35260</v>
       </c>
       <c r="AM72" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN72" s="2">
         <v>128</v>
       </c>
       <c r="AO72" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AP72" s="1">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>15194</v>
       </c>
       <c r="CI72" s="2">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="CJ72" s="2">
         <v>231</v>
@@ -24463,13 +24463,13 @@
         <v>157074</v>
       </c>
       <c r="CU72" s="1">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="CV72" s="1">
         <v>2733</v>
       </c>
       <c r="CW72" s="1">
-        <v>6054</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -24588,7 +24588,7 @@
         <v>49</v>
       </c>
       <c r="AM73" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN73" s="2">
         <v>3</v>
@@ -24723,7 +24723,7 @@
         <v>44</v>
       </c>
       <c r="CI73" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CJ73" s="2">
         <v>7</v>
@@ -24759,7 +24759,7 @@
         <v>123</v>
       </c>
       <c r="CU73" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="CV73" s="1">
         <v>13</v>
@@ -24812,7 +24812,7 @@
         <v>107732</v>
       </c>
       <c r="O74" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P74" s="2">
         <v>2544</v>
@@ -25055,7 +25055,7 @@
         <v>136908</v>
       </c>
       <c r="CU74" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CV74" s="1">
         <v>3266</v>
@@ -25072,7 +25072,7 @@
         <v>13737</v>
       </c>
       <c r="C75" s="2">
-        <v>217</v>
+        <v>116</v>
       </c>
       <c r="D75" s="2">
         <v>342</v>
@@ -25183,7 +25183,7 @@
         <v>17</v>
       </c>
       <c r="AN75" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AO75" s="2">
         <v>95</v>
@@ -25318,7 +25318,7 @@
         <v>53</v>
       </c>
       <c r="CJ75" s="2">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="CK75" s="2">
         <v>466</v>
@@ -25351,10 +25351,10 @@
         <v>345940</v>
       </c>
       <c r="CU75" s="1">
-        <v>329</v>
+        <v>228</v>
       </c>
       <c r="CV75" s="1">
-        <v>5066</v>
+        <v>5041</v>
       </c>
       <c r="CW75" s="1">
         <v>11116</v>
@@ -25392,7 +25392,7 @@
         <v>3791</v>
       </c>
       <c r="K76" s="2">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="L76" s="2">
         <v>137</v>
@@ -25476,7 +25476,7 @@
         <v>284</v>
       </c>
       <c r="AM76" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN76" s="2">
         <v>2</v>
@@ -25611,13 +25611,13 @@
         <v>1737</v>
       </c>
       <c r="CI76" s="2">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="CJ76" s="2">
         <v>60</v>
       </c>
       <c r="CK76" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CL76" s="1">
         <v>2</v>
@@ -25647,13 +25647,13 @@
         <v>84781</v>
       </c>
       <c r="CU76" s="1">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="CV76" s="1">
         <v>1158</v>
       </c>
       <c r="CW76" s="1">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="77" spans="1:101">
@@ -26068,7 +26068,7 @@
         <v>30</v>
       </c>
       <c r="AM78" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN78" s="2">
         <v>2</v>
@@ -26203,7 +26203,7 @@
         <v>119</v>
       </c>
       <c r="CI78" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CJ78" s="2">
         <v>4</v>
@@ -26239,7 +26239,7 @@
         <v>5291</v>
       </c>
       <c r="CU78" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="CV78" s="1">
         <v>127</v>
@@ -27156,7 +27156,7 @@
         <v>55</v>
       </c>
       <c r="G82" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" s="2">
         <v>1</v>
@@ -27423,7 +27423,7 @@
         <v>203</v>
       </c>
       <c r="CU82" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CV82" s="1">
         <v>37</v>
@@ -27467,7 +27467,7 @@
         <v>1</v>
       </c>
       <c r="L83" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M83" s="2">
         <v>4</v>
@@ -27476,13 +27476,13 @@
         <v>1456</v>
       </c>
       <c r="O83" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P83" s="2">
         <v>36</v>
       </c>
       <c r="Q83" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R83" s="1">
         <v>0</v>
@@ -27719,13 +27719,13 @@
         <v>2573</v>
       </c>
       <c r="CU83" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="CV83" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CW83" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:101">
@@ -27751,7 +27751,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" s="2">
         <v>4</v>
@@ -28018,7 +28018,7 @@
         <v>29</v>
       </c>
       <c r="CV84" s="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="CW84" s="1">
         <v>520</v>
@@ -29034,7 +29034,7 @@
         <v>5</v>
       </c>
       <c r="AO88" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP88" s="1">
         <v>22</v>
@@ -29169,7 +29169,7 @@
         <v>74</v>
       </c>
       <c r="CK88" s="2">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="CL88" s="1">
         <v>5</v>
@@ -29205,7 +29205,7 @@
         <v>431</v>
       </c>
       <c r="CW88" s="1">
-        <v>884</v>
+        <v>856</v>
       </c>
     </row>
     <row r="89" spans="1:101">
@@ -29216,7 +29216,7 @@
         <v>224</v>
       </c>
       <c r="C89" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D89" s="2">
         <v>4</v>
@@ -29240,7 +29240,7 @@
         <v>141</v>
       </c>
       <c r="K89" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L89" s="2">
         <v>7</v>
@@ -29252,7 +29252,7 @@
         <v>1627</v>
       </c>
       <c r="O89" s="2">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="P89" s="2">
         <v>64</v>
@@ -29324,7 +29324,7 @@
         <v>776</v>
       </c>
       <c r="AM89" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN89" s="2">
         <v>5</v>
@@ -29459,7 +29459,7 @@
         <v>621</v>
       </c>
       <c r="CI89" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CJ89" s="2">
         <v>8</v>
@@ -29495,7 +29495,7 @@
         <v>3469</v>
       </c>
       <c r="CU89" s="1">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="CV89" s="1">
         <v>90</v>
@@ -29823,7 +29823,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" s="2">
         <v>7</v>
@@ -30090,7 +30090,7 @@
         <v>0</v>
       </c>
       <c r="CV91" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW91" s="1">
         <v>8</v>
@@ -30400,7 +30400,7 @@
         <v>12</v>
       </c>
       <c r="C93" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D93" s="2">
         <v>6</v>
@@ -30679,7 +30679,7 @@
         <v>728</v>
       </c>
       <c r="CU93" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CV93" s="1">
         <v>39</v>
@@ -30711,7 +30711,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" s="2">
         <v>5</v>
@@ -30978,7 +30978,7 @@
         <v>3</v>
       </c>
       <c r="CV94" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CW94" s="1">
         <v>17</v>
@@ -35160,7 +35160,7 @@
         <v>886</v>
       </c>
       <c r="K109" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L109" s="2">
         <v>31</v>
@@ -35415,7 +35415,7 @@
         <v>6357</v>
       </c>
       <c r="CU109" s="1">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="CV109" s="1">
         <v>309</v>
@@ -35468,7 +35468,7 @@
         <v>6754</v>
       </c>
       <c r="O110" s="2">
-        <v>233</v>
+        <v>-1</v>
       </c>
       <c r="P110" s="2">
         <v>233</v>
@@ -35711,7 +35711,7 @@
         <v>140664</v>
       </c>
       <c r="CU110" s="1">
-        <v>354</v>
+        <v>120</v>
       </c>
       <c r="CV110" s="1">
         <v>5304</v>
@@ -36428,7 +36428,7 @@
         <v>315</v>
       </c>
       <c r="AM113" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AN113" s="2">
         <v>14</v>
@@ -36563,13 +36563,13 @@
         <v>1001</v>
       </c>
       <c r="CI113" s="2">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="CJ113" s="2">
         <v>36</v>
       </c>
       <c r="CK113" s="2">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="CL113" s="1">
         <v>11</v>
@@ -36599,13 +36599,13 @@
         <v>18463</v>
       </c>
       <c r="CU113" s="1">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="CV113" s="1">
         <v>485</v>
       </c>
       <c r="CW113" s="1">
-        <v>995</v>
+        <v>973</v>
       </c>
     </row>
     <row r="114" spans="1:101">
@@ -36616,7 +36616,7 @@
         <v>6920</v>
       </c>
       <c r="C114" s="2">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="D114" s="2">
         <v>295</v>
@@ -36652,7 +36652,7 @@
         <v>2238</v>
       </c>
       <c r="O114" s="2">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="P114" s="2">
         <v>67</v>
@@ -36895,7 +36895,7 @@
         <v>10134</v>
       </c>
       <c r="CU114" s="1">
-        <v>257</v>
+        <v>103</v>
       </c>
       <c r="CV114" s="1">
         <v>450</v>
@@ -37627,7 +37627,7 @@
         <v>1</v>
       </c>
       <c r="AR117" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS117" s="2">
         <v>5</v>
@@ -37762,7 +37762,7 @@
         <v>1</v>
       </c>
       <c r="CN117" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CO117" s="2">
         <v>5</v>
@@ -37786,7 +37786,7 @@
         <v>3</v>
       </c>
       <c r="CV117" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="CW117" s="1">
         <v>27</v>
@@ -38718,7 +38718,7 @@
         <v>6</v>
       </c>
       <c r="M121" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N121" s="1">
         <v>223</v>
@@ -38814,7 +38814,7 @@
         <v>3</v>
       </c>
       <c r="AS121" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT121" s="1">
         <v>0</v>
@@ -38949,7 +38949,7 @@
         <v>2</v>
       </c>
       <c r="CO121" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CP121" s="1">
         <v>0</v>
@@ -38973,7 +38973,7 @@
         <v>22</v>
       </c>
       <c r="CW121" s="1">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:101">
@@ -40288,7 +40288,7 @@
         <v>55</v>
       </c>
       <c r="AQ126" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR126" s="2">
         <v>1</v>
@@ -40423,7 +40423,7 @@
         <v>50</v>
       </c>
       <c r="CM126" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN126" s="2">
         <v>1</v>
@@ -40447,7 +40447,7 @@
         <v>244</v>
       </c>
       <c r="CU126" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CV126" s="1">
         <v>5</v>
@@ -40479,7 +40479,7 @@
         <v>0</v>
       </c>
       <c r="H127" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" s="2">
         <v>2</v>
@@ -40500,7 +40500,7 @@
         <v>1773</v>
       </c>
       <c r="O127" s="2">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="P127" s="2">
         <v>54</v>
@@ -40743,10 +40743,10 @@
         <v>2836</v>
       </c>
       <c r="CU127" s="1">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="CV127" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="CW127" s="1">
         <v>172</v>
@@ -41367,7 +41367,7 @@
         <v>1</v>
       </c>
       <c r="H130" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" s="2">
         <v>6</v>
@@ -41634,7 +41634,7 @@
         <v>1</v>
       </c>
       <c r="CV130" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW130" s="1">
         <v>6</v>
@@ -42028,7 +42028,7 @@
         <v>68541</v>
       </c>
       <c r="AE132" s="2">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="AF132" s="2">
         <v>1750</v>
@@ -42187,7 +42187,7 @@
         <v>2525</v>
       </c>
       <c r="CI132" s="2">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="CJ132" s="2">
         <v>41</v>
@@ -42223,7 +42223,7 @@
         <v>117981</v>
       </c>
       <c r="CU132" s="1">
-        <v>1777</v>
+        <v>12</v>
       </c>
       <c r="CV132" s="1">
         <v>2680</v>
@@ -42324,7 +42324,7 @@
         <v>9248</v>
       </c>
       <c r="AE133" s="2">
-        <v>369</v>
+        <v>1</v>
       </c>
       <c r="AF133" s="2">
         <v>369</v>
@@ -42519,7 +42519,7 @@
         <v>54440</v>
       </c>
       <c r="CU133" s="1">
-        <v>499</v>
+        <v>131</v>
       </c>
       <c r="CV133" s="1">
         <v>1381</v>
@@ -43152,7 +43152,7 @@
         <v>976</v>
       </c>
       <c r="K136" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L136" s="2">
         <v>29</v>
@@ -43407,7 +43407,7 @@
         <v>3674</v>
       </c>
       <c r="CU136" s="1">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="CV136" s="1">
         <v>107</v>
@@ -43828,7 +43828,7 @@
         <v>22</v>
       </c>
       <c r="AM138" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN138" s="2">
         <v>4</v>
@@ -43840,7 +43840,7 @@
         <v>19</v>
       </c>
       <c r="AQ138" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AR138" s="2">
         <v>4</v>
@@ -43963,7 +43963,7 @@
         <v>125</v>
       </c>
       <c r="CI138" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CJ138" s="2">
         <v>8</v>
@@ -43975,7 +43975,7 @@
         <v>4</v>
       </c>
       <c r="CM138" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN138" s="2">
         <v>1</v>
@@ -43999,7 +43999,7 @@
         <v>457</v>
       </c>
       <c r="CU138" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="CV138" s="1">
         <v>24</v>
@@ -44904,7 +44904,7 @@
         <v>456</v>
       </c>
       <c r="C142" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D142" s="2">
         <v>8</v>
@@ -45183,7 +45183,7 @@
         <v>1001</v>
       </c>
       <c r="CU142" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="CV142" s="1">
         <v>26</v>
@@ -45807,7 +45807,7 @@
         <v>1</v>
       </c>
       <c r="H145" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I145" s="2">
         <v>6</v>
@@ -46074,7 +46074,7 @@
         <v>3</v>
       </c>
       <c r="CV145" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CW145" s="1">
         <v>25</v>
@@ -46504,7 +46504,7 @@
         <v>65</v>
       </c>
       <c r="AQ147" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR147" s="2">
         <v>5</v>
@@ -46663,7 +46663,7 @@
         <v>754</v>
       </c>
       <c r="CU147" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="CV147" s="1">
         <v>33</v>
@@ -47356,7 +47356,7 @@
         <v>1242</v>
       </c>
       <c r="AE150" s="2">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AF150" s="2">
         <v>58</v>
@@ -47551,7 +47551,7 @@
         <v>2045</v>
       </c>
       <c r="CU150" s="1">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="CV150" s="1">
         <v>95</v>
@@ -48540,7 +48540,7 @@
         <v>2210</v>
       </c>
       <c r="AE154" s="2">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="AF154" s="2">
         <v>118</v>
@@ -48735,7 +48735,7 @@
         <v>64632</v>
       </c>
       <c r="CU154" s="1">
-        <v>204</v>
+        <v>86</v>
       </c>
       <c r="CV154" s="1">
         <v>1033</v>
@@ -48758,7 +48758,7 @@
         <v>108</v>
       </c>
       <c r="E155" s="2">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="F155" s="1">
         <v>0</v>
@@ -48872,7 +48872,7 @@
         <v>37</v>
       </c>
       <c r="AQ155" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR155" s="2">
         <v>2</v>
@@ -48995,7 +48995,7 @@
         <v>4350</v>
       </c>
       <c r="CI155" s="2">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="CJ155" s="2">
         <v>74</v>
@@ -49031,13 +49031,13 @@
         <v>145498</v>
       </c>
       <c r="CU155" s="1">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="CV155" s="1">
         <v>2253</v>
       </c>
       <c r="CW155" s="1">
-        <v>4283</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="156" spans="1:101">
@@ -51898,7 +51898,7 @@
         <v>0</v>
       </c>
       <c r="BP165" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ165" s="2">
         <v>1</v>
@@ -51910,7 +51910,7 @@
         <v>0</v>
       </c>
       <c r="BT165" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BU165" s="2">
         <v>2</v>
@@ -51994,7 +51994,7 @@
         <v>25</v>
       </c>
       <c r="CV165" s="1">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="CW165" s="1">
         <v>231</v>
@@ -52388,7 +52388,7 @@
         <v>2790</v>
       </c>
       <c r="AE167" s="2">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="AF167" s="2">
         <v>89</v>
@@ -52583,7 +52583,7 @@
         <v>4584</v>
       </c>
       <c r="CU167" s="1">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="CV167" s="1">
         <v>199</v>
@@ -52615,7 +52615,7 @@
         <v>1</v>
       </c>
       <c r="H168" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" s="2">
         <v>5</v>
@@ -52882,7 +52882,7 @@
         <v>41</v>
       </c>
       <c r="CV168" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CW168" s="1">
         <v>116</v>
@@ -55300,7 +55300,7 @@
         <v>61850</v>
       </c>
       <c r="O177" s="2">
-        <v>1726</v>
+        <v>0</v>
       </c>
       <c r="P177" s="2">
         <v>1833</v>
@@ -55543,7 +55543,7 @@
         <v>72146</v>
       </c>
       <c r="CU177" s="1">
-        <v>1793</v>
+        <v>67</v>
       </c>
       <c r="CV177" s="1">
         <v>2103</v>
@@ -55856,7 +55856,7 @@
         <v>7227</v>
       </c>
       <c r="C179" s="2">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="D179" s="2">
         <v>177</v>
@@ -56135,7 +56135,7 @@
         <v>42763</v>
       </c>
       <c r="CU179" s="1">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="CV179" s="1">
         <v>1390</v>
@@ -57348,7 +57348,7 @@
         <v>59</v>
       </c>
       <c r="G184" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H184" s="2">
         <v>3</v>
@@ -57615,7 +57615,7 @@
         <v>86</v>
       </c>
       <c r="CU184" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CV184" s="1">
         <v>4</v>
@@ -59127,7 +59127,7 @@
         <v>1</v>
       </c>
       <c r="H190" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190" s="2">
         <v>5</v>
@@ -59394,7 +59394,7 @@
         <v>3</v>
       </c>
       <c r="CV190" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CW190" s="1">
         <v>16</v>
@@ -61588,7 +61588,7 @@
         <v>336</v>
       </c>
       <c r="AM198" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN198" s="2">
         <v>6</v>
@@ -61723,7 +61723,7 @@
         <v>792</v>
       </c>
       <c r="CI198" s="2">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="CJ198" s="2">
         <v>44</v>
@@ -61759,7 +61759,7 @@
         <v>14730</v>
       </c>
       <c r="CU198" s="1">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="CV198" s="1">
         <v>294</v>
@@ -62072,7 +62072,7 @@
         <v>16</v>
       </c>
       <c r="C200" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D200" s="2">
         <v>1</v>
@@ -62084,7 +62084,7 @@
         <v>15</v>
       </c>
       <c r="G200" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200" s="2">
         <v>2</v>
@@ -62351,7 +62351,7 @@
         <v>542</v>
       </c>
       <c r="CU200" s="1">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CV200" s="1">
         <v>95</v>
@@ -64455,7 +64455,7 @@
         <v>1</v>
       </c>
       <c r="H208" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" s="2">
         <v>5</v>
@@ -64722,7 +64722,7 @@
         <v>5</v>
       </c>
       <c r="CV208" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CW208" s="1">
         <v>47</v>
@@ -64820,7 +64820,7 @@
         <v>2355</v>
       </c>
       <c r="AE209" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF209" s="2">
         <v>113</v>
@@ -65015,7 +65015,7 @@
         <v>5058</v>
       </c>
       <c r="CU209" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CV209" s="1">
         <v>199</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="AB3" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="2">
         <v>10</v>
@@ -3865,16 +3865,16 @@
         <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN3" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO3" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP3" s="1">
         <v>0</v>
@@ -4000,16 +4000,16 @@
         <v>1</v>
       </c>
       <c r="CH3" s="1">
-        <v>1734</v>
+        <v>1758</v>
       </c>
       <c r="CI3" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="CJ3" s="2">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="CK3" s="2">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="CL3" s="1">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="CT3" s="1">
-        <v>39051</v>
+        <v>39076</v>
       </c>
       <c r="CU3" s="1">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="CV3" s="1">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="CW3" s="1">
-        <v>1193</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="4" spans="1:101">
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="AD4" s="1">
-        <v>28454</v>
+        <v>28802</v>
       </c>
       <c r="AE4" s="2">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="AF4" s="2">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="AG4" s="2">
-        <v>290</v>
+        <v>638</v>
       </c>
       <c r="AH4" s="1">
         <v>0</v>
@@ -4332,16 +4332,16 @@
         <v>0</v>
       </c>
       <c r="CT4" s="1">
-        <v>35852</v>
+        <v>36200</v>
       </c>
       <c r="CU4" s="1">
-        <v>22</v>
+        <v>370</v>
       </c>
       <c r="CV4" s="1">
-        <v>112</v>
+        <v>460</v>
       </c>
       <c r="CW4" s="1">
-        <v>572</v>
+        <v>920</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -4361,16 +4361,16 @@
         <v>2</v>
       </c>
       <c r="F5" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -4628,16 +4628,16 @@
         <v>0</v>
       </c>
       <c r="CT5" s="1">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="CU5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CV5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CW5" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:101">
@@ -4663,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" s="2">
         <v>6</v>
@@ -4930,7 +4930,7 @@
         <v>2</v>
       </c>
       <c r="CV6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CW6" s="1">
         <v>7</v>
@@ -5357,16 +5357,16 @@
         <v>0</v>
       </c>
       <c r="AP8" s="1">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AQ8" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AR8" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AS8" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -5492,16 +5492,16 @@
         <v>9</v>
       </c>
       <c r="CL8" s="1">
+        <v>4</v>
+      </c>
+      <c r="CM8" s="2">
         <v>2</v>
       </c>
-      <c r="CM8" s="2">
-        <v>0</v>
-      </c>
       <c r="CN8" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CO8" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CP8" s="1">
         <v>0</v>
@@ -5516,16 +5516,16 @@
         <v>0</v>
       </c>
       <c r="CT8" s="1">
-        <v>2554</v>
+        <v>2570</v>
       </c>
       <c r="CU8" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="CV8" s="1">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="CW8" s="1">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:101">
@@ -7623,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
         <v>3</v>
@@ -7890,7 +7890,7 @@
         <v>-160</v>
       </c>
       <c r="CV16" s="1">
-        <v>-141</v>
+        <v>-143</v>
       </c>
       <c r="CW16" s="1">
         <v>-107</v>
@@ -8538,7 +8538,7 @@
         <v>188</v>
       </c>
       <c r="Q19" s="2">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="R19" s="1">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>354</v>
       </c>
       <c r="CW19" s="1">
-        <v>645</v>
+        <v>633</v>
       </c>
     </row>
     <row r="20" spans="1:101">
@@ -8795,22 +8795,22 @@
         <v>0</v>
       </c>
       <c r="D20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2">
         <v>3</v>
       </c>
       <c r="F20" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -9068,16 +9068,16 @@
         <v>0</v>
       </c>
       <c r="CT20" s="1">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="CU20" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CV20" s="1">
         <v>35</v>
       </c>
       <c r="CW20" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:101">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" s="2">
         <v>5</v>
@@ -9666,7 +9666,7 @@
         <v>7</v>
       </c>
       <c r="CV22" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="CW22" s="1">
         <v>43</v>
@@ -10586,7 +10586,7 @@
         <v>2</v>
       </c>
       <c r="I26" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
@@ -10853,7 +10853,7 @@
         <v>32</v>
       </c>
       <c r="CW26" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:101">
@@ -10879,7 +10879,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" s="2">
         <v>4</v>
@@ -11146,7 +11146,7 @@
         <v>10</v>
       </c>
       <c r="CV27" s="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="CW27" s="1">
         <v>456</v>
@@ -11761,16 +11761,16 @@
         <v>6</v>
       </c>
       <c r="F30" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G30" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30" s="1">
         <v>1169</v>
@@ -12028,16 +12028,16 @@
         <v>0</v>
       </c>
       <c r="CT30" s="1">
-        <v>4902</v>
+        <v>4903</v>
       </c>
       <c r="CU30" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CV30" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="CW30" s="1">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:101">
@@ -12661,16 +12661,16 @@
         <v>6</v>
       </c>
       <c r="J33" s="1">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="K33" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L33" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M33" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N33" s="1">
         <v>1250</v>
@@ -12682,7 +12682,7 @@
         <v>25</v>
       </c>
       <c r="Q33" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R33" s="1">
         <v>1</v>
@@ -12766,7 +12766,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT33" s="1">
         <v>0</v>
@@ -12889,7 +12889,7 @@
         <v>18</v>
       </c>
       <c r="CK33" s="2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="CL33" s="1">
         <v>24</v>
@@ -12916,16 +12916,16 @@
         <v>0</v>
       </c>
       <c r="CT33" s="1">
-        <v>2151</v>
+        <v>2159</v>
       </c>
       <c r="CU33" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="CV33" s="1">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="CW33" s="1">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:101">
@@ -13247,7 +13247,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I35" s="2">
         <v>7</v>
@@ -13514,7 +13514,7 @@
         <v>1</v>
       </c>
       <c r="CV35" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CW35" s="1">
         <v>7</v>
@@ -13842,7 +13842,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J37" s="1">
         <v>303</v>
@@ -14109,7 +14109,7 @@
         <v>38</v>
       </c>
       <c r="CW37" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:101">
@@ -14243,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="AR38" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS38" s="2">
         <v>2</v>
@@ -14366,7 +14366,7 @@
         <v>0</v>
       </c>
       <c r="CJ38" s="2">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="CK38" s="2">
         <v>50</v>
@@ -14402,7 +14402,7 @@
         <v>2</v>
       </c>
       <c r="CV38" s="1">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="CW38" s="1">
         <v>66</v>
@@ -14709,16 +14709,16 @@
         <v>139</v>
       </c>
       <c r="B40" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F40" s="1">
         <v>35</v>
@@ -14988,16 +14988,16 @@
         <v>0</v>
       </c>
       <c r="CT40" s="1">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="CU40" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CV40" s="1">
-        <v>-269</v>
+        <v>-268</v>
       </c>
       <c r="CW40" s="1">
-        <v>-23</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="41" spans="1:101">
@@ -15606,7 +15606,7 @@
         <v>7</v>
       </c>
       <c r="E43" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F43" s="1">
         <v>11</v>
@@ -15732,7 +15732,7 @@
         <v>29</v>
       </c>
       <c r="AU43" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV43" s="2">
         <v>4</v>
@@ -15879,13 +15879,13 @@
         <v>43917</v>
       </c>
       <c r="CU43" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="CV43" s="1">
         <v>2123</v>
       </c>
       <c r="CW43" s="1">
-        <v>3114</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="44" spans="1:101">
@@ -17236,7 +17236,7 @@
         <v>3</v>
       </c>
       <c r="BC48" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD48" s="2">
         <v>3</v>
@@ -17359,7 +17359,7 @@
         <v>108</v>
       </c>
       <c r="CU48" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CV48" s="1">
         <v>6</v>
@@ -17687,7 +17687,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50" s="2">
         <v>5</v>
@@ -17783,7 +17783,7 @@
         <v>2</v>
       </c>
       <c r="AN50" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO50" s="2">
         <v>35</v>
@@ -17918,7 +17918,7 @@
         <v>0</v>
       </c>
       <c r="CJ50" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="CK50" s="2">
         <v>33</v>
@@ -17954,7 +17954,7 @@
         <v>4</v>
       </c>
       <c r="CV50" s="1">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="CW50" s="1">
         <v>76</v>
@@ -17986,7 +17986,7 @@
         <v>4</v>
       </c>
       <c r="I51" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J51" s="1">
         <v>0</v>
@@ -18253,7 +18253,7 @@
         <v>57</v>
       </c>
       <c r="CW51" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:101">
@@ -21263,7 +21263,7 @@
         <v>77</v>
       </c>
       <c r="P62" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q62" s="2">
         <v>150</v>
@@ -21506,7 +21506,7 @@
         <v>95</v>
       </c>
       <c r="CV62" s="1">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="CW62" s="1">
         <v>335</v>
@@ -21547,7 +21547,7 @@
         <v>13</v>
       </c>
       <c r="L63" s="2">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="M63" s="2">
         <v>133</v>
@@ -21802,7 +21802,7 @@
         <v>64</v>
       </c>
       <c r="CV63" s="1">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="CW63" s="1">
         <v>2507</v>
@@ -23123,7 +23123,7 @@
         <v>1</v>
       </c>
       <c r="AR68" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS68" s="2">
         <v>5</v>
@@ -23282,7 +23282,7 @@
         <v>6</v>
       </c>
       <c r="CV68" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CW68" s="1">
         <v>69</v>
@@ -24265,16 +24265,16 @@
         <v>8</v>
       </c>
       <c r="AD72" s="1">
-        <v>13085</v>
+        <v>13083</v>
       </c>
       <c r="AE72" s="2">
-        <v>-23</v>
+        <v>-25</v>
       </c>
       <c r="AF72" s="2">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="AG72" s="2">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="AH72" s="1">
         <v>0</v>
@@ -24289,16 +24289,16 @@
         <v>0</v>
       </c>
       <c r="AL72" s="1">
-        <v>35260</v>
+        <v>35266</v>
       </c>
       <c r="AM72" s="2">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AN72" s="2">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AO72" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AP72" s="1">
         <v>0</v>
@@ -24322,7 +24322,7 @@
         <v>1</v>
       </c>
       <c r="AW72" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX72" s="1">
         <v>7</v>
@@ -24424,16 +24424,16 @@
         <v>1</v>
       </c>
       <c r="CH72" s="1">
-        <v>15194</v>
+        <v>15195</v>
       </c>
       <c r="CI72" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="CJ72" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="CK72" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="CL72" s="1">
         <v>0</v>
@@ -24448,28 +24448,28 @@
         <v>0</v>
       </c>
       <c r="CP72" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CQ72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR72" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CS72" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CT72" s="1">
-        <v>157074</v>
+        <v>157080</v>
       </c>
       <c r="CU72" s="1">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="CV72" s="1">
-        <v>2733</v>
+        <v>2728</v>
       </c>
       <c r="CW72" s="1">
-        <v>5970</v>
+        <v>5975</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -24782,7 +24782,7 @@
         <v>116</v>
       </c>
       <c r="E74" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>68</v>
       </c>
       <c r="P74" s="2">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="Q74" s="2">
         <v>5564</v>
@@ -25058,10 +25058,10 @@
         <v>120</v>
       </c>
       <c r="CV74" s="1">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="CW74" s="1">
-        <v>7202</v>
+        <v>7203</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25321,7 +25321,7 @@
         <v>214</v>
       </c>
       <c r="CK75" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="CL75" s="1">
         <v>97</v>
@@ -25357,7 +25357,7 @@
         <v>5041</v>
       </c>
       <c r="CW75" s="1">
-        <v>11116</v>
+        <v>11113</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -25371,7 +25371,7 @@
         <v>7</v>
       </c>
       <c r="D76" s="2">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E76" s="2">
         <v>74</v>
@@ -25650,7 +25650,7 @@
         <v>55</v>
       </c>
       <c r="CV76" s="1">
-        <v>1158</v>
+        <v>1141</v>
       </c>
       <c r="CW76" s="1">
         <v>2246</v>
@@ -26594,7 +26594,7 @@
         <v>437</v>
       </c>
       <c r="Q80" s="2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="R80" s="1">
         <v>0</v>
@@ -26837,7 +26837,7 @@
         <v>2843</v>
       </c>
       <c r="CW80" s="1">
-        <v>33029</v>
+        <v>33031</v>
       </c>
     </row>
     <row r="81" spans="1:101">
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="AR86" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS86" s="2">
         <v>5</v>
@@ -28586,7 +28586,7 @@
         <v>1</v>
       </c>
       <c r="CN86" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CO86" s="2">
         <v>4</v>
@@ -28610,7 +28610,7 @@
         <v>12</v>
       </c>
       <c r="CV86" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="CW86" s="1">
         <v>119</v>
@@ -30705,16 +30705,16 @@
         <v>0</v>
       </c>
       <c r="F94" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G94" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I94" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J94" s="1">
         <v>0</v>
@@ -30972,16 +30972,16 @@
         <v>0</v>
       </c>
       <c r="CT94" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="CU94" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CV94" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CW94" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:101">
@@ -31590,19 +31590,19 @@
         <v>0</v>
       </c>
       <c r="E97" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F97" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G97" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I97" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J97" s="1">
         <v>0</v>
@@ -31860,13 +31860,13 @@
         <v>0</v>
       </c>
       <c r="CT97" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="CU97" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CV97" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CW97" s="1">
         <v>4</v>
@@ -32173,16 +32173,16 @@
         <v>198</v>
       </c>
       <c r="B99" s="1">
-        <v>14914</v>
+        <v>15101</v>
       </c>
       <c r="C99" s="2">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="D99" s="2">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="E99" s="2">
-        <v>571</v>
+        <v>758</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
@@ -32452,16 +32452,16 @@
         <v>0</v>
       </c>
       <c r="CT99" s="1">
-        <v>37193</v>
+        <v>37380</v>
       </c>
       <c r="CU99" s="1">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="CV99" s="1">
-        <v>1019</v>
+        <v>1072</v>
       </c>
       <c r="CW99" s="1">
-        <v>1808</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="100" spans="1:101">
@@ -33674,7 +33674,7 @@
         <v>2</v>
       </c>
       <c r="I104" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J104" s="1">
         <v>0</v>
@@ -33941,7 +33941,7 @@
         <v>2</v>
       </c>
       <c r="CW104" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:101">
@@ -35507,7 +35507,7 @@
         <v>4</v>
       </c>
       <c r="AB110" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AC110" s="2">
         <v>14</v>
@@ -35714,7 +35714,7 @@
         <v>120</v>
       </c>
       <c r="CV110" s="1">
-        <v>5304</v>
+        <v>5298</v>
       </c>
       <c r="CW110" s="1">
         <v>10665</v>
@@ -36326,7 +36326,7 @@
         <v>52</v>
       </c>
       <c r="E113" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F113" s="1">
         <v>0</v>
@@ -36605,7 +36605,7 @@
         <v>485</v>
       </c>
       <c r="CW113" s="1">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="114" spans="1:101">
@@ -36742,7 +36742,7 @@
         <v>3</v>
       </c>
       <c r="AS114" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT114" s="1">
         <v>0</v>
@@ -36877,7 +36877,7 @@
         <v>1</v>
       </c>
       <c r="CO114" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CP114" s="1">
         <v>0</v>
@@ -36901,7 +36901,7 @@
         <v>450</v>
       </c>
       <c r="CW114" s="1">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="115" spans="1:101">
@@ -37223,7 +37223,7 @@
         <v>1</v>
       </c>
       <c r="H116" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" s="2">
         <v>6</v>
@@ -37490,7 +37490,7 @@
         <v>1</v>
       </c>
       <c r="CV116" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW116" s="1">
         <v>6</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="AP117" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AQ117" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR117" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS117" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT117" s="1">
         <v>0</v>
@@ -37756,40 +37756,40 @@
         <v>0</v>
       </c>
       <c r="CL117" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="CM117" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CN117" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CO117" s="2">
+        <v>6</v>
+      </c>
+      <c r="CP117" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ117" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR117" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS117" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT117" s="1">
+        <v>759</v>
+      </c>
+      <c r="CU117" s="1">
         <v>5</v>
       </c>
-      <c r="CP117" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ117" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR117" s="2">
-        <v>0</v>
-      </c>
-      <c r="CS117" s="2">
-        <v>0</v>
-      </c>
-      <c r="CT117" s="1">
-        <v>757</v>
-      </c>
-      <c r="CU117" s="1">
-        <v>3</v>
-      </c>
       <c r="CV117" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CW117" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118" spans="1:101">
@@ -38697,28 +38697,28 @@
         <v>4</v>
       </c>
       <c r="F121" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G121" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J121" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K121" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L121" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M121" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N121" s="1">
         <v>223</v>
@@ -38964,16 +38964,16 @@
         <v>0</v>
       </c>
       <c r="CT121" s="1">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="CU121" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CV121" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="CW121" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:101">
@@ -38993,283 +38993,283 @@
         <v>0</v>
       </c>
       <c r="F122" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G122" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H122" s="2">
+        <v>4</v>
+      </c>
+      <c r="I122" s="2">
+        <v>7</v>
+      </c>
+      <c r="J122" s="1">
+        <v>0</v>
+      </c>
+      <c r="K122" s="2">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2">
+        <v>0</v>
+      </c>
+      <c r="M122" s="2">
+        <v>0</v>
+      </c>
+      <c r="N122" s="1">
+        <v>0</v>
+      </c>
+      <c r="O122" s="2">
+        <v>0</v>
+      </c>
+      <c r="P122" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="2">
+        <v>0</v>
+      </c>
+      <c r="R122" s="1">
+        <v>0</v>
+      </c>
+      <c r="S122" s="2">
+        <v>0</v>
+      </c>
+      <c r="T122" s="2">
+        <v>0</v>
+      </c>
+      <c r="U122" s="2">
+        <v>0</v>
+      </c>
+      <c r="V122" s="1">
+        <v>0</v>
+      </c>
+      <c r="W122" s="2">
+        <v>0</v>
+      </c>
+      <c r="X122" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y122" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z122" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA122" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB122" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC122" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD122" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE122" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF122" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG122" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH122" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI122" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ122" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK122" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL122" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM122" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN122" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO122" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP122" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ122" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR122" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS122" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT122" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU122" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV122" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW122" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX122" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY122" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ122" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA122" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB122" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC122" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD122" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE122" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF122" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG122" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH122" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI122" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ122" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN122" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO122" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP122" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ122" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR122" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS122" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT122" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU122" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV122" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW122" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX122" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY122" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ122" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA122" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB122" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC122" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD122" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE122" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF122" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG122" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH122" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI122" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ122" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK122" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL122" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM122" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN122" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO122" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP122" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ122" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR122" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS122" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT122" s="1">
+        <v>50</v>
+      </c>
+      <c r="CU122" s="1">
         <v>2</v>
       </c>
-      <c r="I122" s="2">
-        <v>5</v>
-      </c>
-      <c r="J122" s="1">
-        <v>0</v>
-      </c>
-      <c r="K122" s="2">
-        <v>0</v>
-      </c>
-      <c r="L122" s="2">
-        <v>0</v>
-      </c>
-      <c r="M122" s="2">
-        <v>0</v>
-      </c>
-      <c r="N122" s="1">
-        <v>0</v>
-      </c>
-      <c r="O122" s="2">
-        <v>0</v>
-      </c>
-      <c r="P122" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q122" s="2">
-        <v>0</v>
-      </c>
-      <c r="R122" s="1">
-        <v>0</v>
-      </c>
-      <c r="S122" s="2">
-        <v>0</v>
-      </c>
-      <c r="T122" s="2">
-        <v>0</v>
-      </c>
-      <c r="U122" s="2">
-        <v>0</v>
-      </c>
-      <c r="V122" s="1">
-        <v>0</v>
-      </c>
-      <c r="W122" s="2">
-        <v>0</v>
-      </c>
-      <c r="X122" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y122" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z122" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA122" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB122" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC122" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD122" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE122" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF122" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG122" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH122" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI122" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ122" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK122" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL122" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM122" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN122" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO122" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP122" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ122" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR122" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS122" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT122" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU122" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV122" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW122" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX122" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY122" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ122" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA122" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB122" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC122" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD122" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE122" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF122" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG122" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH122" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI122" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ122" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN122" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO122" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP122" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ122" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR122" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS122" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT122" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU122" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV122" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW122" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX122" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY122" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ122" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA122" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB122" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC122" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD122" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE122" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF122" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG122" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH122" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI122" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ122" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK122" s="2">
-        <v>0</v>
-      </c>
-      <c r="CL122" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM122" s="2">
-        <v>0</v>
-      </c>
-      <c r="CN122" s="2">
-        <v>0</v>
-      </c>
-      <c r="CO122" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP122" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ122" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR122" s="2">
-        <v>0</v>
-      </c>
-      <c r="CS122" s="2">
-        <v>0</v>
-      </c>
-      <c r="CT122" s="1">
-        <v>48</v>
-      </c>
-      <c r="CU122" s="1">
-        <v>0</v>
-      </c>
       <c r="CV122" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CW122" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:101">
@@ -40180,7 +40180,7 @@
         <v>22</v>
       </c>
       <c r="G126" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126" s="2">
         <v>3</v>
@@ -40447,7 +40447,7 @@
         <v>244</v>
       </c>
       <c r="CU126" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV126" s="1">
         <v>5</v>
@@ -40473,16 +40473,16 @@
         <v>5</v>
       </c>
       <c r="F127" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G127" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J127" s="1">
         <v>0</v>
@@ -40740,16 +40740,16 @@
         <v>0</v>
       </c>
       <c r="CT127" s="1">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="CU127" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CV127" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CW127" s="1">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="128" spans="1:101">
@@ -40757,28 +40757,28 @@
         <v>227</v>
       </c>
       <c r="B128" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C128" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F128" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G128" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J128" s="1">
         <v>0</v>
@@ -41036,16 +41036,16 @@
         <v>0</v>
       </c>
       <c r="CT128" s="1">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="CU128" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CV128" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="CW128" s="1">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="129" spans="1:101">
@@ -42533,16 +42533,16 @@
         <v>233</v>
       </c>
       <c r="B134" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C134" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E134" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F134" s="1">
         <v>13</v>
@@ -42551,7 +42551,7 @@
         <v>0</v>
       </c>
       <c r="H134" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" s="2">
         <v>2</v>
@@ -42812,16 +42812,16 @@
         <v>0</v>
       </c>
       <c r="CT134" s="1">
-        <v>138005</v>
+        <v>138006</v>
       </c>
       <c r="CU134" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CV134" s="1">
         <v>3921</v>
       </c>
       <c r="CW134" s="1">
-        <v>10338</v>
+        <v>10339</v>
       </c>
     </row>
     <row r="135" spans="1:101">
@@ -44623,7 +44623,7 @@
         <v>1</v>
       </c>
       <c r="H141" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" s="2">
         <v>4</v>
@@ -44659,7 +44659,7 @@
         <v>0</v>
       </c>
       <c r="T141" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U141" s="2">
         <v>2</v>
@@ -44731,7 +44731,7 @@
         <v>1</v>
       </c>
       <c r="AR141" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS141" s="2">
         <v>6</v>
@@ -44866,7 +44866,7 @@
         <v>1</v>
       </c>
       <c r="CN141" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CO141" s="2">
         <v>5</v>
@@ -44890,7 +44890,7 @@
         <v>3</v>
       </c>
       <c r="CV141" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="CW141" s="1">
         <v>22</v>
@@ -46501,16 +46501,16 @@
         <v>1</v>
       </c>
       <c r="AP147" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AQ147" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR147" s="2">
         <v>5</v>
       </c>
       <c r="AS147" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT147" s="1">
         <v>0</v>
@@ -46624,16 +46624,16 @@
         <v>0</v>
       </c>
       <c r="CH147" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CI147" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CJ147" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CK147" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CL147" s="1">
         <v>33</v>
@@ -46642,7 +46642,7 @@
         <v>0</v>
       </c>
       <c r="CN147" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO147" s="2">
         <v>2</v>
@@ -46660,16 +46660,16 @@
         <v>0</v>
       </c>
       <c r="CT147" s="1">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="CU147" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CV147" s="1">
         <v>33</v>
       </c>
       <c r="CW147" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="148" spans="1:101">
@@ -47577,16 +47577,16 @@
         <v>0</v>
       </c>
       <c r="F151" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G151" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H151" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I151" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J151" s="1">
         <v>0</v>
@@ -47844,16 +47844,16 @@
         <v>0</v>
       </c>
       <c r="CT151" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CU151" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CV151" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CW151" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152" spans="1:101">
@@ -48588,7 +48588,7 @@
         <v>2</v>
       </c>
       <c r="AU154" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV154" s="2">
         <v>2</v>
@@ -48600,7 +48600,7 @@
         <v>4</v>
       </c>
       <c r="AY154" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ154" s="2">
         <v>1</v>
@@ -48735,7 +48735,7 @@
         <v>64632</v>
       </c>
       <c r="CU154" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="CV154" s="1">
         <v>1033</v>
@@ -49933,16 +49933,16 @@
         <v>258</v>
       </c>
       <c r="B159" s="1">
-        <v>1748</v>
+        <v>1764</v>
       </c>
       <c r="C159" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D159" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E159" s="2">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F159" s="1">
         <v>2</v>
@@ -50050,7 +50050,7 @@
         <v>4</v>
       </c>
       <c r="AO159" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP159" s="1">
         <v>30</v>
@@ -50212,16 +50212,16 @@
         <v>0</v>
       </c>
       <c r="CT159" s="1">
-        <v>18857</v>
+        <v>18873</v>
       </c>
       <c r="CU159" s="1">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="CV159" s="1">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="CW159" s="1">
-        <v>1100</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="160" spans="1:101">
@@ -54675,7 +54675,7 @@
         <v>0</v>
       </c>
       <c r="D175" s="2">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E175" s="2">
         <v>40</v>
@@ -54954,7 +54954,7 @@
         <v>10</v>
       </c>
       <c r="CV175" s="1">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="CW175" s="1">
         <v>412</v>
@@ -55931,7 +55931,7 @@
         <v>0</v>
       </c>
       <c r="AB179" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AC179" s="2">
         <v>9</v>
@@ -56138,7 +56138,7 @@
         <v>123</v>
       </c>
       <c r="CV179" s="1">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="CW179" s="1">
         <v>2915</v>
@@ -56167,10 +56167,10 @@
         <v>1</v>
       </c>
       <c r="H180" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J180" s="1">
         <v>0</v>
@@ -56434,10 +56434,10 @@
         <v>1</v>
       </c>
       <c r="CV180" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW180" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:101">
@@ -56688,16 +56688,16 @@
         <v>0</v>
       </c>
       <c r="CH181" s="1">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="CI181" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="CJ181" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="CK181" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="CL181" s="1">
         <v>0</v>
@@ -56724,16 +56724,16 @@
         <v>0</v>
       </c>
       <c r="CT181" s="1">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="CU181" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="CV181" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="CW181" s="1">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="182" spans="1:101">
@@ -59121,16 +59121,16 @@
         <v>0</v>
       </c>
       <c r="F190" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G190" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H190" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I190" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J190" s="1">
         <v>0</v>
@@ -59388,16 +59388,16 @@
         <v>0</v>
       </c>
       <c r="CT190" s="1">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="CU190" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CV190" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CW190" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" spans="1:101">
@@ -59417,16 +59417,16 @@
         <v>0</v>
       </c>
       <c r="F191" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G191" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H191" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I191" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J191" s="1">
         <v>0</v>
@@ -59684,16 +59684,16 @@
         <v>0</v>
       </c>
       <c r="CT191" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CU191" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CV191" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CW191" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:101">
@@ -61687,7 +61687,7 @@
         <v>12</v>
       </c>
       <c r="BW198" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BX198" s="2">
         <v>12</v>
@@ -61759,7 +61759,7 @@
         <v>14730</v>
       </c>
       <c r="CU198" s="1">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="CV198" s="1">
         <v>294</v>
@@ -62087,7 +62087,7 @@
         <v>0</v>
       </c>
       <c r="H200" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" s="2">
         <v>5</v>
@@ -62354,7 +62354,7 @@
         <v>75</v>
       </c>
       <c r="CV200" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="CW200" s="1">
         <v>188</v>
@@ -63591,7 +63591,7 @@
         <v>2</v>
       </c>
       <c r="P205" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q205" s="2">
         <v>67</v>
@@ -63834,7 +63834,7 @@
         <v>11</v>
       </c>
       <c r="CV205" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="CW205" s="1">
         <v>378</v>
@@ -64458,7 +64458,7 @@
         <v>1</v>
       </c>
       <c r="I208" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J208" s="1">
         <v>1</v>
@@ -64725,7 +64725,7 @@
         <v>25</v>
       </c>
       <c r="CW208" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="209" spans="1:101">
@@ -64817,16 +64817,16 @@
         <v>0</v>
       </c>
       <c r="AD209" s="1">
-        <v>2355</v>
+        <v>2425</v>
       </c>
       <c r="AE209" s="2">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="AF209" s="2">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="AG209" s="2">
-        <v>378</v>
+        <v>448</v>
       </c>
       <c r="AH209" s="1">
         <v>3</v>
@@ -65012,16 +65012,16 @@
         <v>0</v>
       </c>
       <c r="CT209" s="1">
-        <v>5058</v>
+        <v>5128</v>
       </c>
       <c r="CU209" s="1">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="CV209" s="1">
-        <v>199</v>
+        <v>269</v>
       </c>
       <c r="CW209" s="1">
-        <v>544</v>
+        <v>614</v>
       </c>
     </row>
     <row r="210" spans="1:101">
@@ -65962,7 +65962,7 @@
         <v>529</v>
       </c>
       <c r="D2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E2" t="s">
         <v>709</v>
@@ -67428,7 +67428,7 @@
         <v>592</v>
       </c>
       <c r="D75">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E75" t="s">
         <v>709</v>
@@ -69826,7 +69826,7 @@
         <v>693</v>
       </c>
       <c r="D194">
-        <v>9712</v>
+        <v>9729</v>
       </c>
       <c r="E194" t="s">
         <v>709</v>
@@ -69909,7 +69909,7 @@
         <v>697</v>
       </c>
       <c r="D198">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E198" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3488,7 +3488,7 @@
         <v>3465</v>
       </c>
       <c r="K2" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2">
         <v>131</v>
@@ -3743,7 +3743,7 @@
         <v>40008</v>
       </c>
       <c r="CU2" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CV2" s="1">
         <v>1266</v>
@@ -5252,7 +5252,7 @@
         <v>29</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
         <v>3</v>
@@ -5519,7 +5519,7 @@
         <v>2570</v>
       </c>
       <c r="CU8" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="CV8" s="1">
         <v>62</v>
@@ -6427,7 +6427,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -6436,7 +6436,7 @@
         <v>23</v>
       </c>
       <c r="G12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
         <v>2</v>
@@ -6703,10 +6703,10 @@
         <v>25</v>
       </c>
       <c r="CU12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW12" s="1">
         <v>6</v>
@@ -7608,7 +7608,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="2">
-        <v>-169</v>
+        <v>-170</v>
       </c>
       <c r="D16" s="2">
         <v>-169</v>
@@ -7887,7 +7887,7 @@
         <v>1709</v>
       </c>
       <c r="CU16" s="1">
-        <v>-160</v>
+        <v>-161</v>
       </c>
       <c r="CV16" s="1">
         <v>-143</v>
@@ -8520,7 +8520,7 @@
         <v>751</v>
       </c>
       <c r="K19" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L19" s="2">
         <v>25</v>
@@ -8529,16 +8529,16 @@
         <v>45</v>
       </c>
       <c r="N19" s="1">
-        <v>11143</v>
+        <v>11146</v>
       </c>
       <c r="O19" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P19" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q19" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="R19" s="1">
         <v>0</v>
@@ -8772,16 +8772,16 @@
         <v>0</v>
       </c>
       <c r="CT19" s="1">
-        <v>18190</v>
+        <v>18193</v>
       </c>
       <c r="CU19" s="1">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="CV19" s="1">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="CW19" s="1">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="20" spans="1:101">
@@ -9420,7 +9420,7 @@
         <v>208</v>
       </c>
       <c r="O22" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P22" s="2">
         <v>4</v>
@@ -9663,7 +9663,7 @@
         <v>598</v>
       </c>
       <c r="CU22" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="CV22" s="1">
         <v>17</v>
@@ -10577,16 +10577,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
@@ -10844,16 +10844,16 @@
         <v>0</v>
       </c>
       <c r="CT26" s="1">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="CU26" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CV26" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CW26" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:101">
@@ -11755,7 +11755,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" s="2">
         <v>6</v>
@@ -11764,7 +11764,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="2">
         <v>2</v>
@@ -12031,10 +12031,10 @@
         <v>4903</v>
       </c>
       <c r="CU30" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="CV30" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CW30" s="1">
         <v>344</v>
@@ -12234,7 +12234,7 @@
         <v>0</v>
       </c>
       <c r="BP31" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BQ31" s="2">
         <v>7</v>
@@ -12330,7 +12330,7 @@
         <v>26</v>
       </c>
       <c r="CV31" s="1">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="CW31" s="1">
         <v>545</v>
@@ -12664,7 +12664,7 @@
         <v>386</v>
       </c>
       <c r="K33" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L33" s="2">
         <v>26</v>
@@ -12919,7 +12919,7 @@
         <v>2159</v>
       </c>
       <c r="CU33" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="CV33" s="1">
         <v>78</v>
@@ -13824,7 +13824,7 @@
         <v>202</v>
       </c>
       <c r="C37" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D37" s="2">
         <v>4</v>
@@ -14103,7 +14103,7 @@
         <v>1653</v>
       </c>
       <c r="CU37" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="CV37" s="1">
         <v>38</v>
@@ -14485,22 +14485,22 @@
         <v>0</v>
       </c>
       <c r="Z39" s="1">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AA39" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB39" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC39" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AD39" s="1">
         <v>16658</v>
       </c>
       <c r="AE39" s="2">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="2">
         <v>149</v>
@@ -14692,16 +14692,16 @@
         <v>1</v>
       </c>
       <c r="CT39" s="1">
-        <v>51973</v>
+        <v>51981</v>
       </c>
       <c r="CU39" s="1">
-        <v>326</v>
+        <v>185</v>
       </c>
       <c r="CV39" s="1">
-        <v>999</v>
+        <v>1007</v>
       </c>
       <c r="CW39" s="1">
-        <v>1835</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="40" spans="1:101">
@@ -15627,7 +15627,7 @@
         <v>28</v>
       </c>
       <c r="L43" s="2">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="M43" s="2">
         <v>120</v>
@@ -15672,7 +15672,7 @@
         <v>74</v>
       </c>
       <c r="AA43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="2">
         <v>1</v>
@@ -15879,10 +15879,10 @@
         <v>43917</v>
       </c>
       <c r="CU43" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="CV43" s="1">
-        <v>2123</v>
+        <v>2112</v>
       </c>
       <c r="CW43" s="1">
         <v>3112</v>
@@ -17089,16 +17089,16 @@
         <v>1</v>
       </c>
       <c r="F48" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G48" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J48" s="1">
         <v>0</v>
@@ -17356,16 +17356,16 @@
         <v>0</v>
       </c>
       <c r="CT48" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CU48" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CV48" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CW48" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:101">
@@ -17382,7 +17382,7 @@
         <v>22</v>
       </c>
       <c r="E49" s="2">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -17661,7 +17661,7 @@
         <v>136</v>
       </c>
       <c r="CW49" s="1">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:101">
@@ -18127,7 +18127,7 @@
         <v>0</v>
       </c>
       <c r="BD51" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE51" s="2">
         <v>2</v>
@@ -18250,7 +18250,7 @@
         <v>12</v>
       </c>
       <c r="CV51" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="CW51" s="1">
         <v>69</v>
@@ -19753,16 +19753,16 @@
         <v>5</v>
       </c>
       <c r="F57" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" s="1">
         <v>22</v>
@@ -20020,16 +20020,16 @@
         <v>0</v>
       </c>
       <c r="CT57" s="1">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="CU57" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CV57" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CW57" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:101">
@@ -22997,16 +22997,16 @@
         <v>167</v>
       </c>
       <c r="B68" s="1">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C68" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E68" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F68" s="1">
         <v>9</v>
@@ -23117,16 +23117,16 @@
         <v>1</v>
       </c>
       <c r="AP68" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AQ68" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR68" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS68" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT68" s="1">
         <v>0</v>
@@ -23252,16 +23252,16 @@
         <v>2</v>
       </c>
       <c r="CL68" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CM68" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CN68" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CO68" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CP68" s="1">
         <v>0</v>
@@ -23276,16 +23276,16 @@
         <v>0</v>
       </c>
       <c r="CT68" s="1">
-        <v>2055</v>
+        <v>2059</v>
       </c>
       <c r="CU68" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="CV68" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="CW68" s="1">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:101">
@@ -24265,16 +24265,16 @@
         <v>8</v>
       </c>
       <c r="AD72" s="1">
-        <v>13083</v>
+        <v>13081</v>
       </c>
       <c r="AE72" s="2">
-        <v>-25</v>
+        <v>-27</v>
       </c>
       <c r="AF72" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="AG72" s="2">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="AH72" s="1">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>15195</v>
       </c>
       <c r="CI72" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="CJ72" s="2">
         <v>232</v>
@@ -24460,16 +24460,16 @@
         <v>2</v>
       </c>
       <c r="CT72" s="1">
-        <v>157080</v>
+        <v>157078</v>
       </c>
       <c r="CU72" s="1">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="CV72" s="1">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="CW72" s="1">
-        <v>5975</v>
+        <v>5973</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -24809,16 +24809,16 @@
         <v>318</v>
       </c>
       <c r="N74" s="1">
-        <v>107732</v>
+        <v>107735</v>
       </c>
       <c r="O74" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P74" s="2">
-        <v>2545</v>
+        <v>2548</v>
       </c>
       <c r="Q74" s="2">
-        <v>5564</v>
+        <v>5567</v>
       </c>
       <c r="R74" s="1">
         <v>1</v>
@@ -25052,16 +25052,16 @@
         <v>0</v>
       </c>
       <c r="CT74" s="1">
-        <v>136908</v>
+        <v>136911</v>
       </c>
       <c r="CU74" s="1">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="CV74" s="1">
-        <v>3267</v>
+        <v>3270</v>
       </c>
       <c r="CW74" s="1">
-        <v>7203</v>
+        <v>7206</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25318,7 +25318,7 @@
         <v>53</v>
       </c>
       <c r="CJ75" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="CK75" s="2">
         <v>463</v>
@@ -25354,7 +25354,7 @@
         <v>228</v>
       </c>
       <c r="CV75" s="1">
-        <v>5041</v>
+        <v>5040</v>
       </c>
       <c r="CW75" s="1">
         <v>11113</v>
@@ -25440,7 +25440,7 @@
         <v>113</v>
       </c>
       <c r="AA76" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB76" s="2">
         <v>4</v>
@@ -25647,7 +25647,7 @@
         <v>84781</v>
       </c>
       <c r="CU76" s="1">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CV76" s="1">
         <v>1141</v>
@@ -27384,16 +27384,16 @@
         <v>0</v>
       </c>
       <c r="CH82" s="1">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="CI82" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="CJ82" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="CK82" s="2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="CL82" s="1">
         <v>0</v>
@@ -27420,16 +27420,16 @@
         <v>0</v>
       </c>
       <c r="CT82" s="1">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="CU82" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="CV82" s="1">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="CW82" s="1">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:101">
@@ -27440,7 +27440,7 @@
         <v>90</v>
       </c>
       <c r="C83" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D83" s="2">
         <v>4</v>
@@ -27719,7 +27719,7 @@
         <v>2573</v>
       </c>
       <c r="CU83" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="CV83" s="1">
         <v>65</v>
@@ -28621,28 +28621,28 @@
         <v>186</v>
       </c>
       <c r="B87" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C87" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D87" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E87" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F87" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G87" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H87" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J87" s="1">
         <v>0</v>
@@ -28900,16 +28900,16 @@
         <v>0</v>
       </c>
       <c r="CT87" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="CU87" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CV87" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CW87" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:101">
@@ -30113,16 +30113,16 @@
         <v>0</v>
       </c>
       <c r="F92" s="1">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G92" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H92" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I92" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J92" s="1">
         <v>0</v>
@@ -30380,16 +30380,16 @@
         <v>0</v>
       </c>
       <c r="CT92" s="1">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="CU92" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CV92" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CW92" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:101">
@@ -30708,7 +30708,7 @@
         <v>60</v>
       </c>
       <c r="G94" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94" s="2">
         <v>3</v>
@@ -30975,7 +30975,7 @@
         <v>167</v>
       </c>
       <c r="CU94" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CV94" s="1">
         <v>11</v>
@@ -31004,7 +31004,7 @@
         <v>57</v>
       </c>
       <c r="G95" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" s="2">
         <v>4</v>
@@ -31271,7 +31271,7 @@
         <v>62</v>
       </c>
       <c r="CU95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV95" s="1">
         <v>4</v>
@@ -31596,7 +31596,7 @@
         <v>34</v>
       </c>
       <c r="G97" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97" s="2">
         <v>5</v>
@@ -31863,7 +31863,7 @@
         <v>41</v>
       </c>
       <c r="CU97" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CV97" s="1">
         <v>5</v>
@@ -32215,7 +32215,7 @@
         <v>0</v>
       </c>
       <c r="P99" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q99" s="2">
         <v>525</v>
@@ -32287,7 +32287,7 @@
         <v>0</v>
       </c>
       <c r="AN99" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO99" s="2">
         <v>10</v>
@@ -32458,7 +32458,7 @@
         <v>266</v>
       </c>
       <c r="CV99" s="1">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="CW99" s="1">
         <v>1995</v>
@@ -32777,16 +32777,16 @@
         <v>1</v>
       </c>
       <c r="F101" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G101" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I101" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J101" s="1">
         <v>0</v>
@@ -33044,16 +33044,16 @@
         <v>0</v>
       </c>
       <c r="CT101" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CU101" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CV101" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CW101" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:101">
@@ -33961,16 +33961,16 @@
         <v>2</v>
       </c>
       <c r="F105" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G105" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I105" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J105" s="1">
         <v>0</v>
@@ -34228,16 +34228,16 @@
         <v>0</v>
       </c>
       <c r="CT105" s="1">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="CU105" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CV105" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="CW105" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:101">
@@ -34287,7 +34287,7 @@
         <v>0</v>
       </c>
       <c r="P106" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Q106" s="2">
         <v>16</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="AN106" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AO106" s="2">
         <v>17</v>
@@ -34494,7 +34494,7 @@
         <v>0</v>
       </c>
       <c r="CJ106" s="2">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="CK106" s="2">
         <v>24</v>
@@ -34530,7 +34530,7 @@
         <v>0</v>
       </c>
       <c r="CV106" s="1">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="CW106" s="1">
         <v>57</v>
@@ -34550,7 +34550,7 @@
         <v>33</v>
       </c>
       <c r="E107" s="2">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F107" s="1">
         <v>1</v>
@@ -34829,7 +34829,7 @@
         <v>392</v>
       </c>
       <c r="CW107" s="1">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="108" spans="1:101">
@@ -35178,7 +35178,7 @@
         <v>249</v>
       </c>
       <c r="Q109" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="R109" s="1">
         <v>0</v>
@@ -35421,7 +35421,7 @@
         <v>309</v>
       </c>
       <c r="CW109" s="1">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="110" spans="1:101">
@@ -36392,7 +36392,7 @@
         <v>82</v>
       </c>
       <c r="AA113" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB113" s="2">
         <v>3</v>
@@ -36599,7 +36599,7 @@
         <v>18463</v>
       </c>
       <c r="CU113" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="CV113" s="1">
         <v>485</v>
@@ -37220,7 +37220,7 @@
         <v>28</v>
       </c>
       <c r="G116" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116" s="2">
         <v>2</v>
@@ -37487,7 +37487,7 @@
         <v>84</v>
       </c>
       <c r="CU116" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV116" s="1">
         <v>2</v>
@@ -37624,7 +37624,7 @@
         <v>96</v>
       </c>
       <c r="AQ117" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR117" s="2">
         <v>3</v>
@@ -37729,7 +37729,7 @@
         <v>0</v>
       </c>
       <c r="CC117" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD117" s="1">
         <v>8</v>
@@ -37759,7 +37759,7 @@
         <v>73</v>
       </c>
       <c r="CM117" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CN117" s="2">
         <v>3</v>
@@ -37783,13 +37783,13 @@
         <v>759</v>
       </c>
       <c r="CU117" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CV117" s="1">
         <v>16</v>
       </c>
       <c r="CW117" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:101">
@@ -38999,7 +38999,7 @@
         <v>2</v>
       </c>
       <c r="H122" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I122" s="2">
         <v>7</v>
@@ -39266,7 +39266,7 @@
         <v>2</v>
       </c>
       <c r="CV122" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CW122" s="1">
         <v>7</v>
@@ -42554,7 +42554,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" s="1">
         <v>136</v>
@@ -42821,7 +42821,7 @@
         <v>3921</v>
       </c>
       <c r="CW134" s="1">
-        <v>10339</v>
+        <v>10338</v>
       </c>
     </row>
     <row r="135" spans="1:101">
@@ -43254,7 +43254,7 @@
         <v>0</v>
       </c>
       <c r="AS136" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT136" s="1">
         <v>0</v>
@@ -43413,7 +43413,7 @@
         <v>107</v>
       </c>
       <c r="CW136" s="1">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="137" spans="1:101">
@@ -47422,7 +47422,7 @@
         <v>0</v>
       </c>
       <c r="BA150" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB150" s="1">
         <v>0</v>
@@ -47557,7 +47557,7 @@
         <v>95</v>
       </c>
       <c r="CW150" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="151" spans="1:101">
@@ -47580,10 +47580,10 @@
         <v>16</v>
       </c>
       <c r="G151" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H151" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I151" s="2">
         <v>7</v>
@@ -47847,10 +47847,10 @@
         <v>89</v>
       </c>
       <c r="CU151" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CV151" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="CW151" s="1">
         <v>28</v>
@@ -48196,7 +48196,7 @@
         <v>1134</v>
       </c>
       <c r="O153" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P153" s="2">
         <v>11</v>
@@ -48406,7 +48406,7 @@
         <v>16</v>
       </c>
       <c r="CJ153" s="2">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="CK153" s="2">
         <v>29</v>
@@ -48439,10 +48439,10 @@
         <v>2354</v>
       </c>
       <c r="CU153" s="1">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="CV153" s="1">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="CW153" s="1">
         <v>115</v>
@@ -48453,16 +48453,16 @@
         <v>253</v>
       </c>
       <c r="B154" s="1">
-        <v>1827</v>
+        <v>1845</v>
       </c>
       <c r="C154" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D154" s="2">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E154" s="2">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="F154" s="1">
         <v>0</v>
@@ -48732,16 +48732,16 @@
         <v>0</v>
       </c>
       <c r="CT154" s="1">
-        <v>64632</v>
+        <v>64650</v>
       </c>
       <c r="CU154" s="1">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="CV154" s="1">
-        <v>1033</v>
+        <v>1051</v>
       </c>
       <c r="CW154" s="1">
-        <v>2150</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="155" spans="1:101">
@@ -48890,7 +48890,7 @@
         <v>1</v>
       </c>
       <c r="AW155" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX155" s="1">
         <v>4</v>
@@ -49037,7 +49037,7 @@
         <v>2253</v>
       </c>
       <c r="CW155" s="1">
-        <v>4270</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="156" spans="1:101">
@@ -49084,7 +49084,7 @@
         <v>2601</v>
       </c>
       <c r="O156" s="2">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="P156" s="2">
         <v>42</v>
@@ -49156,7 +49156,7 @@
         <v>263</v>
       </c>
       <c r="AM156" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AN156" s="2">
         <v>22</v>
@@ -49291,10 +49291,10 @@
         <v>1628</v>
       </c>
       <c r="CI156" s="2">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="CJ156" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="CK156" s="2">
         <v>427</v>
@@ -49327,10 +49327,10 @@
         <v>17864</v>
       </c>
       <c r="CU156" s="1">
-        <v>756</v>
+        <v>672</v>
       </c>
       <c r="CV156" s="1">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="CW156" s="1">
         <v>1735</v>
@@ -50771,7 +50771,7 @@
         <v>2690</v>
       </c>
       <c r="CI161" s="2">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="CJ161" s="2">
         <v>264</v>
@@ -50807,7 +50807,7 @@
         <v>2814</v>
       </c>
       <c r="CU161" s="1">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="CV161" s="1">
         <v>266</v>
@@ -50833,16 +50833,16 @@
         <v>1</v>
       </c>
       <c r="F162" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G162" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I162" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J162" s="1">
         <v>66</v>
@@ -51100,16 +51100,16 @@
         <v>0</v>
       </c>
       <c r="CT162" s="1">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="CU162" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CV162" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="CW162" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="163" spans="1:101">
@@ -51721,16 +51721,16 @@
         <v>11</v>
       </c>
       <c r="F165" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G165" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" s="1">
         <v>1327</v>
@@ -51988,16 +51988,16 @@
         <v>0</v>
       </c>
       <c r="CT165" s="1">
-        <v>4225</v>
+        <v>4226</v>
       </c>
       <c r="CU165" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CV165" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="CW165" s="1">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="166" spans="1:101">
@@ -52304,7 +52304,7 @@
         <v>148</v>
       </c>
       <c r="C167" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D167" s="2">
         <v>2</v>
@@ -52319,7 +52319,7 @@
         <v>0</v>
       </c>
       <c r="H167" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" s="2">
         <v>2</v>
@@ -52583,10 +52583,10 @@
         <v>4584</v>
       </c>
       <c r="CU167" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="CV167" s="1">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="CW167" s="1">
         <v>348</v>
@@ -53228,7 +53228,7 @@
         <v>2580</v>
       </c>
       <c r="O170" s="2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="P170" s="2">
         <v>22</v>
@@ -53471,7 +53471,7 @@
         <v>5497</v>
       </c>
       <c r="CU170" s="1">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="CV170" s="1">
         <v>54</v>
@@ -56015,7 +56015,7 @@
         <v>0</v>
       </c>
       <c r="BD179" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE179" s="2">
         <v>3</v>
@@ -56138,7 +56138,7 @@
         <v>123</v>
       </c>
       <c r="CV179" s="1">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="CW179" s="1">
         <v>2915</v>
@@ -57588,16 +57588,16 @@
         <v>2</v>
       </c>
       <c r="CL184" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CM184" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CN184" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CO184" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CP184" s="1">
         <v>0</v>
@@ -57612,16 +57612,16 @@
         <v>0</v>
       </c>
       <c r="CT184" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="CU184" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CV184" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CW184" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185" spans="1:101">
@@ -59124,7 +59124,7 @@
         <v>58</v>
       </c>
       <c r="G190" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H190" s="2">
         <v>3</v>
@@ -59391,7 +59391,7 @@
         <v>512</v>
       </c>
       <c r="CU190" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CV190" s="1">
         <v>10</v>
@@ -60338,7 +60338,7 @@
         <v>346</v>
       </c>
       <c r="Q194" s="2">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="R194" s="1">
         <v>0</v>
@@ -60581,7 +60581,7 @@
         <v>427</v>
       </c>
       <c r="CW194" s="1">
-        <v>830</v>
+        <v>809</v>
       </c>
     </row>
     <row r="195" spans="1:101">
@@ -62180,7 +62180,7 @@
         <v>240</v>
       </c>
       <c r="AM200" s="2">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="AN200" s="2">
         <v>47</v>
@@ -62315,7 +62315,7 @@
         <v>267</v>
       </c>
       <c r="CI200" s="2">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="CJ200" s="2">
         <v>45</v>
@@ -62351,7 +62351,7 @@
         <v>542</v>
       </c>
       <c r="CU200" s="1">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="CV200" s="1">
         <v>94</v>
@@ -63549,40 +63549,40 @@
         <v>304</v>
       </c>
       <c r="B205" s="1">
-        <v>1236</v>
+        <v>1244</v>
       </c>
       <c r="C205" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D205" s="2">
+        <v>20</v>
+      </c>
+      <c r="E205" s="2">
+        <v>44</v>
+      </c>
+      <c r="F205" s="1">
+        <v>1</v>
+      </c>
+      <c r="G205" s="2">
+        <v>0</v>
+      </c>
+      <c r="H205" s="2">
+        <v>0</v>
+      </c>
+      <c r="I205" s="2">
+        <v>0</v>
+      </c>
+      <c r="J205" s="1">
+        <v>422</v>
+      </c>
+      <c r="K205" s="2">
         <v>12</v>
       </c>
-      <c r="E205" s="2">
-        <v>36</v>
-      </c>
-      <c r="F205" s="1">
-        <v>1</v>
-      </c>
-      <c r="G205" s="2">
-        <v>0</v>
-      </c>
-      <c r="H205" s="2">
-        <v>0</v>
-      </c>
-      <c r="I205" s="2">
-        <v>0</v>
-      </c>
-      <c r="J205" s="1">
-        <v>410</v>
-      </c>
-      <c r="K205" s="2">
-        <v>0</v>
-      </c>
       <c r="L205" s="2">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M205" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="N205" s="1">
         <v>4801</v>
@@ -63828,16 +63828,16 @@
         <v>0</v>
       </c>
       <c r="CT205" s="1">
-        <v>12424</v>
+        <v>12444</v>
       </c>
       <c r="CU205" s="1">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="CV205" s="1">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="CW205" s="1">
-        <v>378</v>
+        <v>398</v>
       </c>
     </row>
     <row r="206" spans="1:101">
@@ -64443,22 +64443,22 @@
         <v>0</v>
       </c>
       <c r="D208" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E208" s="2">
         <v>2</v>
       </c>
       <c r="F208" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G208" s="2">
         <v>1</v>
       </c>
       <c r="H208" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I208" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J208" s="1">
         <v>1</v>
@@ -64566,7 +64566,7 @@
         <v>2</v>
       </c>
       <c r="AS208" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT208" s="1">
         <v>0</v>
@@ -64689,7 +64689,7 @@
         <v>12</v>
       </c>
       <c r="CK208" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CL208" s="1">
         <v>20</v>
@@ -64716,16 +64716,16 @@
         <v>0</v>
       </c>
       <c r="CT208" s="1">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="CU208" s="1">
         <v>5</v>
       </c>
       <c r="CV208" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="CW208" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="209" spans="1:101">
@@ -64817,16 +64817,16 @@
         <v>0</v>
       </c>
       <c r="AD209" s="1">
-        <v>2425</v>
+        <v>2365</v>
       </c>
       <c r="AE209" s="2">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="AF209" s="2">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="AG209" s="2">
-        <v>448</v>
+        <v>388</v>
       </c>
       <c r="AH209" s="1">
         <v>3</v>
@@ -65012,16 +65012,16 @@
         <v>0</v>
       </c>
       <c r="CT209" s="1">
-        <v>5128</v>
+        <v>5068</v>
       </c>
       <c r="CU209" s="1">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="CV209" s="1">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="CW209" s="1">
-        <v>614</v>
+        <v>554</v>
       </c>
     </row>
     <row r="210" spans="1:101">
@@ -67368,7 +67368,7 @@
         <v>589</v>
       </c>
       <c r="D72">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E72" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2">
         <v>85</v>
@@ -3829,16 +3829,16 @@
         <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AA3" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB3" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC3" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AD3" s="1">
         <v>20240</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="CT3" s="1">
-        <v>39076</v>
+        <v>39080</v>
       </c>
       <c r="CU3" s="1">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="CV3" s="1">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="CW3" s="1">
-        <v>1218</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="4" spans="1:101">
@@ -5255,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="2">
         <v>3</v>
@@ -5522,7 +5522,7 @@
         <v>18</v>
       </c>
       <c r="CV8" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CW8" s="1">
         <v>98</v>
@@ -11175,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" s="2">
         <v>6</v>
@@ -11442,7 +11442,7 @@
         <v>0</v>
       </c>
       <c r="CV28" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW28" s="1">
         <v>6</v>
@@ -11471,7 +11471,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" s="2">
         <v>6</v>
@@ -11738,7 +11738,7 @@
         <v>0</v>
       </c>
       <c r="CV29" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW29" s="1">
         <v>6</v>
@@ -12682,7 +12682,7 @@
         <v>25</v>
       </c>
       <c r="Q33" s="2">
-        <v>245</v>
+        <v>153</v>
       </c>
       <c r="R33" s="1">
         <v>1</v>
@@ -12925,7 +12925,7 @@
         <v>78</v>
       </c>
       <c r="CW33" s="1">
-        <v>342</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:101">
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" s="2">
         <v>6</v>
@@ -13218,7 +13218,7 @@
         <v>0</v>
       </c>
       <c r="CV34" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW34" s="1">
         <v>6</v>
@@ -13543,7 +13543,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" s="2">
         <v>6</v>
@@ -13810,7 +13810,7 @@
         <v>0</v>
       </c>
       <c r="CV36" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW36" s="1">
         <v>6</v>
@@ -14958,7 +14958,7 @@
         <v>0</v>
       </c>
       <c r="CJ40" s="2">
-        <v>-275</v>
+        <v>37</v>
       </c>
       <c r="CK40" s="2">
         <v>-46</v>
@@ -14994,7 +14994,7 @@
         <v>5</v>
       </c>
       <c r="CV40" s="1">
-        <v>-268</v>
+        <v>44</v>
       </c>
       <c r="CW40" s="1">
         <v>-22</v>
@@ -15023,7 +15023,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" s="2">
         <v>6</v>
@@ -15290,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="CV41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW41" s="1">
         <v>6</v>
@@ -17977,16 +17977,16 @@
         <v>1</v>
       </c>
       <c r="F51" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G51" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" s="2">
         <v>4</v>
       </c>
       <c r="I51" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J51" s="1">
         <v>0</v>
@@ -18244,16 +18244,16 @@
         <v>0</v>
       </c>
       <c r="CT51" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CU51" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CV51" s="1">
         <v>56</v>
       </c>
       <c r="CW51" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:101">
@@ -19457,16 +19457,16 @@
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="2">
         <v>2</v>
       </c>
       <c r="I56" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J56" s="1">
         <v>0</v>
@@ -19724,16 +19724,16 @@
         <v>0</v>
       </c>
       <c r="CT56" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CU56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV56" s="1">
         <v>17</v>
       </c>
       <c r="CW56" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:101">
@@ -20333,16 +20333,16 @@
         <v>158</v>
       </c>
       <c r="B59" s="1">
-        <v>6170</v>
+        <v>6171</v>
       </c>
       <c r="C59" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D59" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E59" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -20612,16 +20612,16 @@
         <v>0</v>
       </c>
       <c r="CT59" s="1">
-        <v>61698</v>
+        <v>61699</v>
       </c>
       <c r="CU59" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CV59" s="1">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="CW59" s="1">
-        <v>3216</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="60" spans="1:101">
@@ -21239,7 +21239,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" s="2">
         <v>3</v>
@@ -21506,7 +21506,7 @@
         <v>95</v>
       </c>
       <c r="CV62" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="CW62" s="1">
         <v>335</v>
@@ -23003,7 +23003,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E68" s="2">
         <v>11</v>
@@ -23282,7 +23282,7 @@
         <v>10</v>
       </c>
       <c r="CV68" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="CW68" s="1">
         <v>73</v>
@@ -24289,16 +24289,16 @@
         <v>0</v>
       </c>
       <c r="AL72" s="1">
-        <v>35266</v>
+        <v>35275</v>
       </c>
       <c r="AM72" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="AN72" s="2">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AO72" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="AP72" s="1">
         <v>0</v>
@@ -24424,16 +24424,16 @@
         <v>1</v>
       </c>
       <c r="CH72" s="1">
-        <v>15195</v>
+        <v>15200</v>
       </c>
       <c r="CI72" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="CJ72" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="CK72" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="CL72" s="1">
         <v>0</v>
@@ -24460,16 +24460,16 @@
         <v>2</v>
       </c>
       <c r="CT72" s="1">
-        <v>157078</v>
+        <v>157092</v>
       </c>
       <c r="CU72" s="1">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="CV72" s="1">
-        <v>2726</v>
+        <v>2740</v>
       </c>
       <c r="CW72" s="1">
-        <v>5973</v>
+        <v>5987</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -24495,7 +24495,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" s="2">
         <v>5</v>
@@ -24762,7 +24762,7 @@
         <v>4</v>
       </c>
       <c r="CV73" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="CW73" s="1">
         <v>35</v>
@@ -24773,16 +24773,16 @@
         <v>173</v>
       </c>
       <c r="B74" s="1">
-        <v>4461</v>
+        <v>4460</v>
       </c>
       <c r="C74" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D74" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E74" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -25052,16 +25052,16 @@
         <v>0</v>
       </c>
       <c r="CT74" s="1">
-        <v>136911</v>
+        <v>136910</v>
       </c>
       <c r="CU74" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CV74" s="1">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="CW74" s="1">
-        <v>7206</v>
+        <v>7205</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="CH75" s="1">
-        <v>5669</v>
+        <v>5670</v>
       </c>
       <c r="CI75" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="CJ75" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="CK75" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="CL75" s="1">
         <v>97</v>
@@ -25348,16 +25348,16 @@
         <v>6</v>
       </c>
       <c r="CT75" s="1">
-        <v>345940</v>
+        <v>345941</v>
       </c>
       <c r="CU75" s="1">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="CV75" s="1">
-        <v>5040</v>
+        <v>5041</v>
       </c>
       <c r="CW75" s="1">
-        <v>11113</v>
+        <v>11114</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -25401,16 +25401,16 @@
         <v>296</v>
       </c>
       <c r="N76" s="1">
-        <v>65752</v>
+        <v>65751</v>
       </c>
       <c r="O76" s="2">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="P76" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q76" s="2">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="R76" s="1">
         <v>0</v>
@@ -25644,16 +25644,16 @@
         <v>0</v>
       </c>
       <c r="CT76" s="1">
-        <v>84781</v>
+        <v>84780</v>
       </c>
       <c r="CU76" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="CV76" s="1">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="CW76" s="1">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="77" spans="1:101">
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" s="2">
         <v>3</v>
@@ -25946,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="CV77" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="CW77" s="1">
         <v>255</v>
@@ -26555,7 +26555,7 @@
         <v>25</v>
       </c>
       <c r="D80" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="E80" s="2">
         <v>247</v>
@@ -26756,16 +26756,16 @@
         <v>0</v>
       </c>
       <c r="BV80" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BW80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ80" s="1">
         <v>10</v>
@@ -26828,16 +26828,16 @@
         <v>0</v>
       </c>
       <c r="CT80" s="1">
-        <v>378898</v>
+        <v>378899</v>
       </c>
       <c r="CU80" s="1">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="CV80" s="1">
-        <v>2843</v>
+        <v>2804</v>
       </c>
       <c r="CW80" s="1">
-        <v>33031</v>
+        <v>33032</v>
       </c>
     </row>
     <row r="81" spans="1:101">
@@ -26863,7 +26863,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I81" s="2">
         <v>5</v>
@@ -27130,7 +27130,7 @@
         <v>0</v>
       </c>
       <c r="CV81" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CW81" s="1">
         <v>5</v>
@@ -28445,16 +28445,16 @@
         <v>2</v>
       </c>
       <c r="AP86" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ86" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR86" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS86" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT86" s="1">
         <v>0</v>
@@ -28580,16 +28580,16 @@
         <v>7</v>
       </c>
       <c r="CL86" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CM86" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CN86" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CO86" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CP86" s="1">
         <v>0</v>
@@ -28604,16 +28604,16 @@
         <v>0</v>
       </c>
       <c r="CT86" s="1">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="CU86" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CV86" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="CW86" s="1">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:101">
@@ -31007,7 +31007,7 @@
         <v>0</v>
       </c>
       <c r="H95" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I95" s="2">
         <v>6</v>
@@ -31274,7 +31274,7 @@
         <v>0</v>
       </c>
       <c r="CV95" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CW95" s="1">
         <v>6</v>
@@ -32783,7 +32783,7 @@
         <v>2</v>
       </c>
       <c r="H101" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I101" s="2">
         <v>6</v>
@@ -33050,7 +33050,7 @@
         <v>2</v>
       </c>
       <c r="CV101" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CW101" s="1">
         <v>7</v>
@@ -33079,7 +33079,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" s="2">
         <v>1</v>
@@ -33346,7 +33346,7 @@
         <v>149</v>
       </c>
       <c r="CV102" s="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="CW102" s="1">
         <v>560</v>
@@ -33967,7 +33967,7 @@
         <v>2</v>
       </c>
       <c r="H105" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" s="2">
         <v>5</v>
@@ -34063,7 +34063,7 @@
         <v>1</v>
       </c>
       <c r="AN105" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO105" s="2">
         <v>9</v>
@@ -34198,7 +34198,7 @@
         <v>3</v>
       </c>
       <c r="CJ105" s="2">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="CK105" s="2">
         <v>30</v>
@@ -34234,7 +34234,7 @@
         <v>6</v>
       </c>
       <c r="CV105" s="1">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="CW105" s="1">
         <v>72</v>
@@ -35435,7 +35435,7 @@
         <v>0</v>
       </c>
       <c r="D110" s="2">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E110" s="2">
         <v>114</v>
@@ -35714,7 +35714,7 @@
         <v>120</v>
       </c>
       <c r="CV110" s="1">
-        <v>5298</v>
+        <v>5270</v>
       </c>
       <c r="CW110" s="1">
         <v>10665</v>
@@ -41663,7 +41663,7 @@
         <v>1</v>
       </c>
       <c r="H131" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I131" s="2">
         <v>6</v>
@@ -41930,7 +41930,7 @@
         <v>1</v>
       </c>
       <c r="CV131" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CW131" s="1">
         <v>7</v>
@@ -43735,7 +43735,7 @@
         <v>1</v>
       </c>
       <c r="H138" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I138" s="2">
         <v>4</v>
@@ -44002,7 +44002,7 @@
         <v>1</v>
       </c>
       <c r="CV138" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CW138" s="1">
         <v>34</v>
@@ -46985,16 +46985,16 @@
         <v>0</v>
       </c>
       <c r="F149" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G149" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H149" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I149" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J149" s="1">
         <v>61</v>
@@ -47252,16 +47252,16 @@
         <v>0</v>
       </c>
       <c r="CT149" s="1">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="CU149" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CV149" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CW149" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="150" spans="1:101">
@@ -48163,7 +48163,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E153" s="2">
         <v>8</v>
@@ -48442,7 +48442,7 @@
         <v>22</v>
       </c>
       <c r="CV153" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CW153" s="1">
         <v>115</v>
@@ -48459,7 +48459,7 @@
         <v>62</v>
       </c>
       <c r="D154" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E154" s="2">
         <v>152</v>
@@ -48738,7 +48738,7 @@
         <v>102</v>
       </c>
       <c r="CV154" s="1">
-        <v>1051</v>
+        <v>1036</v>
       </c>
       <c r="CW154" s="1">
         <v>2168</v>
@@ -51135,7 +51135,7 @@
         <v>1</v>
       </c>
       <c r="H163" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I163" s="2">
         <v>5</v>
@@ -51147,7 +51147,7 @@
         <v>0</v>
       </c>
       <c r="L163" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M163" s="2">
         <v>4</v>
@@ -51402,7 +51402,7 @@
         <v>10</v>
       </c>
       <c r="CV163" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="CW163" s="1">
         <v>69</v>
@@ -54681,16 +54681,16 @@
         <v>40</v>
       </c>
       <c r="F175" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G175" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175" s="2">
         <v>1</v>
       </c>
       <c r="I175" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J175" s="1">
         <v>0</v>
@@ -54948,16 +54948,16 @@
         <v>0</v>
       </c>
       <c r="CT175" s="1">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="CU175" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CV175" s="1">
         <v>291</v>
       </c>
       <c r="CW175" s="1">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="176" spans="1:101">
@@ -55303,7 +55303,7 @@
         <v>0</v>
       </c>
       <c r="P177" s="2">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="Q177" s="2">
         <v>4163</v>
@@ -55546,7 +55546,7 @@
         <v>67</v>
       </c>
       <c r="CV177" s="1">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="CW177" s="1">
         <v>4647</v>
@@ -56161,283 +56161,283 @@
         <v>0</v>
       </c>
       <c r="F180" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G180" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H180" s="2">
+        <v>3</v>
+      </c>
+      <c r="I180" s="2">
+        <v>6</v>
+      </c>
+      <c r="J180" s="1">
+        <v>0</v>
+      </c>
+      <c r="K180" s="2">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2">
+        <v>0</v>
+      </c>
+      <c r="M180" s="2">
+        <v>0</v>
+      </c>
+      <c r="N180" s="1">
+        <v>0</v>
+      </c>
+      <c r="O180" s="2">
+        <v>0</v>
+      </c>
+      <c r="P180" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q180" s="2">
+        <v>0</v>
+      </c>
+      <c r="R180" s="1">
+        <v>0</v>
+      </c>
+      <c r="S180" s="2">
+        <v>0</v>
+      </c>
+      <c r="T180" s="2">
+        <v>0</v>
+      </c>
+      <c r="U180" s="2">
+        <v>0</v>
+      </c>
+      <c r="V180" s="1">
+        <v>0</v>
+      </c>
+      <c r="W180" s="2">
+        <v>0</v>
+      </c>
+      <c r="X180" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y180" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z180" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA180" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB180" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC180" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD180" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE180" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF180" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG180" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH180" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI180" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ180" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK180" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL180" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM180" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN180" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO180" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP180" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ180" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR180" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS180" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT180" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU180" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV180" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW180" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX180" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY180" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ180" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA180" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB180" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC180" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD180" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE180" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF180" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG180" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH180" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI180" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ180" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN180" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO180" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP180" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ180" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR180" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS180" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT180" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU180" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV180" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW180" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX180" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY180" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ180" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA180" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB180" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC180" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD180" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE180" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF180" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG180" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH180" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI180" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ180" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK180" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL180" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM180" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN180" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO180" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP180" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ180" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR180" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS180" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT180" s="1">
+        <v>61</v>
+      </c>
+      <c r="CU180" s="1">
         <v>2</v>
       </c>
-      <c r="I180" s="2">
-        <v>5</v>
-      </c>
-      <c r="J180" s="1">
-        <v>0</v>
-      </c>
-      <c r="K180" s="2">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2">
-        <v>0</v>
-      </c>
-      <c r="M180" s="2">
-        <v>0</v>
-      </c>
-      <c r="N180" s="1">
-        <v>0</v>
-      </c>
-      <c r="O180" s="2">
-        <v>0</v>
-      </c>
-      <c r="P180" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q180" s="2">
-        <v>0</v>
-      </c>
-      <c r="R180" s="1">
-        <v>0</v>
-      </c>
-      <c r="S180" s="2">
-        <v>0</v>
-      </c>
-      <c r="T180" s="2">
-        <v>0</v>
-      </c>
-      <c r="U180" s="2">
-        <v>0</v>
-      </c>
-      <c r="V180" s="1">
-        <v>0</v>
-      </c>
-      <c r="W180" s="2">
-        <v>0</v>
-      </c>
-      <c r="X180" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y180" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z180" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA180" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB180" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC180" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD180" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE180" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF180" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG180" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH180" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI180" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ180" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK180" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL180" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM180" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN180" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO180" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP180" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ180" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR180" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS180" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT180" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU180" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV180" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW180" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX180" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY180" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ180" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA180" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB180" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC180" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD180" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE180" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF180" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG180" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH180" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI180" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ180" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN180" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO180" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP180" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ180" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR180" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS180" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT180" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU180" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV180" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW180" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX180" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY180" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ180" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA180" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB180" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC180" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD180" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE180" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF180" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG180" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH180" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI180" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ180" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK180" s="2">
-        <v>0</v>
-      </c>
-      <c r="CL180" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM180" s="2">
-        <v>0</v>
-      </c>
-      <c r="CN180" s="2">
-        <v>0</v>
-      </c>
-      <c r="CO180" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP180" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ180" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR180" s="2">
-        <v>0</v>
-      </c>
-      <c r="CS180" s="2">
-        <v>0</v>
-      </c>
-      <c r="CT180" s="1">
-        <v>60</v>
-      </c>
-      <c r="CU180" s="1">
-        <v>1</v>
-      </c>
       <c r="CV180" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CW180" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:101">
@@ -56451,7 +56451,7 @@
         <v>1</v>
       </c>
       <c r="D181" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E181" s="2">
         <v>2</v>
@@ -56463,7 +56463,7 @@
         <v>2</v>
       </c>
       <c r="H181" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I181" s="2">
         <v>7</v>
@@ -56730,7 +56730,7 @@
         <v>10</v>
       </c>
       <c r="CV181" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="CW181" s="1">
         <v>43</v>
@@ -60021,16 +60021,16 @@
         <v>3</v>
       </c>
       <c r="J193" s="1">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K193" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L193" s="2">
         <v>2</v>
       </c>
       <c r="M193" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N193" s="1">
         <v>830</v>
@@ -60276,16 +60276,16 @@
         <v>0</v>
       </c>
       <c r="CT193" s="1">
-        <v>57493</v>
+        <v>57495</v>
       </c>
       <c r="CU193" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="CV193" s="1">
         <v>3865</v>
       </c>
       <c r="CW193" s="1">
-        <v>5813</v>
+        <v>5815</v>
       </c>
     </row>
     <row r="194" spans="1:101">
@@ -62679,7 +62679,7 @@
         <v>0</v>
       </c>
       <c r="H202" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I202" s="2">
         <v>6</v>
@@ -62946,7 +62946,7 @@
         <v>0</v>
       </c>
       <c r="CV202" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW202" s="1">
         <v>6</v>
@@ -65343,7 +65343,7 @@
         <v>0</v>
       </c>
       <c r="H211" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I211" s="2">
         <v>4</v>
@@ -65574,7 +65574,7 @@
         <v>5</v>
       </c>
       <c r="CJ211" s="2">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="CK211" s="2">
         <v>67</v>
@@ -65610,7 +65610,7 @@
         <v>6</v>
       </c>
       <c r="CV211" s="1">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="CW211" s="1">
         <v>111</v>
@@ -67528,7 +67528,7 @@
         <v>541</v>
       </c>
       <c r="D80">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E80" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3467,7 +3467,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2">
         <v>57</v>
@@ -3746,7 +3746,7 @@
         <v>64</v>
       </c>
       <c r="CV2" s="1">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="CW2" s="1">
         <v>2763</v>
@@ -3757,16 +3757,16 @@
         <v>102</v>
       </c>
       <c r="B3" s="1">
-        <v>1759</v>
+        <v>1768</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="CT3" s="1">
-        <v>39080</v>
+        <v>39089</v>
       </c>
       <c r="CU3" s="1">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="CV3" s="1">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="CW3" s="1">
-        <v>1222</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="4" spans="1:101">
@@ -4352,7 +4352,7 @@
         <v>349</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -4631,7 +4631,7 @@
         <v>1762</v>
       </c>
       <c r="CU5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CV5" s="1">
         <v>4</v>
@@ -4660,7 +4660,7 @@
         <v>24</v>
       </c>
       <c r="G6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -4927,7 +4927,7 @@
         <v>30</v>
       </c>
       <c r="CU6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CV6" s="1">
         <v>3</v>
@@ -7904,7 +7904,7 @@
         <v>95</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
@@ -8183,7 +8183,7 @@
         <v>152</v>
       </c>
       <c r="CU17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV17" s="1">
         <v>3</v>
@@ -10580,7 +10580,7 @@
         <v>52</v>
       </c>
       <c r="G26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" s="2">
         <v>3</v>
@@ -10847,7 +10847,7 @@
         <v>362</v>
       </c>
       <c r="CU26" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CV26" s="1">
         <v>33</v>
@@ -13244,7 +13244,7 @@
         <v>17</v>
       </c>
       <c r="G35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="2">
         <v>3</v>
@@ -13511,7 +13511,7 @@
         <v>19</v>
       </c>
       <c r="CU35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV35" s="1">
         <v>3</v>
@@ -14120,7 +14120,7 @@
         <v>93</v>
       </c>
       <c r="C38" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D38" s="2">
         <v>5</v>
@@ -14399,7 +14399,7 @@
         <v>296</v>
       </c>
       <c r="CU38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CV38" s="1">
         <v>37</v>
@@ -14599,7 +14599,7 @@
         <v>1601</v>
       </c>
       <c r="BO39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP39" s="2">
         <v>2</v>
@@ -14695,7 +14695,7 @@
         <v>51981</v>
       </c>
       <c r="CU39" s="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="CV39" s="1">
         <v>1007</v>
@@ -15597,16 +15597,16 @@
         <v>142</v>
       </c>
       <c r="B43" s="1">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C43" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E43" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F43" s="1">
         <v>11</v>
@@ -15876,16 +15876,16 @@
         <v>0</v>
       </c>
       <c r="CT43" s="1">
-        <v>43917</v>
+        <v>43922</v>
       </c>
       <c r="CU43" s="1">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="CV43" s="1">
-        <v>2112</v>
+        <v>2117</v>
       </c>
       <c r="CW43" s="1">
-        <v>3112</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="44" spans="1:101">
@@ -16500,7 +16500,7 @@
         <v>36</v>
       </c>
       <c r="G46" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2">
         <v>3</v>
@@ -16767,7 +16767,7 @@
         <v>56</v>
       </c>
       <c r="CU46" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CV46" s="1">
         <v>3</v>
@@ -16796,7 +16796,7 @@
         <v>49</v>
       </c>
       <c r="G47" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H47" s="2">
         <v>3</v>
@@ -17063,7 +17063,7 @@
         <v>58</v>
       </c>
       <c r="CU47" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CV47" s="1">
         <v>3</v>
@@ -17487,7 +17487,7 @@
         <v>0</v>
       </c>
       <c r="AN49" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO49" s="2">
         <v>6</v>
@@ -17616,16 +17616,16 @@
         <v>0</v>
       </c>
       <c r="CH49" s="1">
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="CI49" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="CJ49" s="2">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="CK49" s="2">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="CL49" s="1">
         <v>0</v>
@@ -17652,16 +17652,16 @@
         <v>0</v>
       </c>
       <c r="CT49" s="1">
-        <v>1186</v>
+        <v>1209</v>
       </c>
       <c r="CU49" s="1">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="CV49" s="1">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="CW49" s="1">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:101">
@@ -19553,16 +19553,16 @@
         <v>0</v>
       </c>
       <c r="AL56" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN56" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO56" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP56" s="1">
         <v>8</v>
@@ -19700,16 +19700,16 @@
         <v>18</v>
       </c>
       <c r="CL56" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CM56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO56" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CP56" s="1">
         <v>0</v>
@@ -19724,16 +19724,16 @@
         <v>0</v>
       </c>
       <c r="CT56" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="CU56" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CV56" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="CW56" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:101">
@@ -19771,7 +19771,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" s="2">
         <v>1</v>
@@ -20002,7 +20002,7 @@
         <v>1</v>
       </c>
       <c r="CN57" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CO57" s="2">
         <v>5</v>
@@ -20026,7 +20026,7 @@
         <v>3</v>
       </c>
       <c r="CV57" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CW57" s="1">
         <v>41</v>
@@ -21467,7 +21467,7 @@
         <v>565</v>
       </c>
       <c r="CI62" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CJ62" s="2">
         <v>25</v>
@@ -21503,7 +21503,7 @@
         <v>6705</v>
       </c>
       <c r="CU62" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="CV62" s="1">
         <v>151</v>
@@ -22136,7 +22136,7 @@
         <v>839</v>
       </c>
       <c r="K65" s="2">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="L65" s="2">
         <v>27</v>
@@ -22391,7 +22391,7 @@
         <v>3059</v>
       </c>
       <c r="CU65" s="1">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="CV65" s="1">
         <v>79</v>
@@ -22719,7 +22719,7 @@
         <v>3</v>
       </c>
       <c r="H67" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I67" s="2">
         <v>6</v>
@@ -22986,7 +22986,7 @@
         <v>3</v>
       </c>
       <c r="CV67" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CW67" s="1">
         <v>6</v>
@@ -23000,7 +23000,7 @@
         <v>306</v>
       </c>
       <c r="C68" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" s="2">
         <v>6</v>
@@ -23279,7 +23279,7 @@
         <v>2059</v>
       </c>
       <c r="CU68" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CV68" s="1">
         <v>35</v>
@@ -23595,7 +23595,7 @@
         <v>0</v>
       </c>
       <c r="D70" s="2">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E70" s="2">
         <v>0</v>
@@ -23604,7 +23604,7 @@
         <v>4</v>
       </c>
       <c r="G70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" s="2">
         <v>4</v>
@@ -23871,10 +23871,10 @@
         <v>119</v>
       </c>
       <c r="CU70" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CV70" s="1">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="CW70" s="1">
         <v>118</v>
@@ -24256,7 +24256,7 @@
         <v>103</v>
       </c>
       <c r="AA72" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB72" s="2">
         <v>4</v>
@@ -24268,7 +24268,7 @@
         <v>13081</v>
       </c>
       <c r="AE72" s="2">
-        <v>-27</v>
+        <v>-6</v>
       </c>
       <c r="AF72" s="2">
         <v>773</v>
@@ -24463,7 +24463,7 @@
         <v>157092</v>
       </c>
       <c r="CU72" s="1">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="CV72" s="1">
         <v>2740</v>
@@ -25318,7 +25318,7 @@
         <v>54</v>
       </c>
       <c r="CJ75" s="2">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="CK75" s="2">
         <v>464</v>
@@ -25354,7 +25354,7 @@
         <v>229</v>
       </c>
       <c r="CV75" s="1">
-        <v>5041</v>
+        <v>5032</v>
       </c>
       <c r="CW75" s="1">
         <v>11114</v>
@@ -26576,7 +26576,7 @@
         <v>7246</v>
       </c>
       <c r="K80" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L80" s="2">
         <v>350</v>
@@ -26591,7 +26591,7 @@
         <v>0</v>
       </c>
       <c r="P80" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Q80" s="2">
         <v>903</v>
@@ -26831,10 +26831,10 @@
         <v>378899</v>
       </c>
       <c r="CU80" s="1">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="CV80" s="1">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="CW80" s="1">
         <v>33032</v>
@@ -27479,7 +27479,7 @@
         <v>2</v>
       </c>
       <c r="P83" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q83" s="2">
         <v>57</v>
@@ -27722,7 +27722,7 @@
         <v>12</v>
       </c>
       <c r="CV83" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="CW83" s="1">
         <v>110</v>
@@ -33468,7 +33468,7 @@
         <v>495</v>
       </c>
       <c r="AM103" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN103" s="2">
         <v>0</v>
@@ -33639,7 +33639,7 @@
         <v>83642</v>
       </c>
       <c r="CU103" s="1">
-        <v>5217</v>
+        <v>5218</v>
       </c>
       <c r="CV103" s="1">
         <v>11748</v>
@@ -33964,7 +33964,7 @@
         <v>24</v>
       </c>
       <c r="G105" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" s="2">
         <v>2</v>
@@ -34231,7 +34231,7 @@
         <v>748</v>
       </c>
       <c r="CU105" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CV105" s="1">
         <v>39</v>
@@ -34541,16 +34541,16 @@
         <v>206</v>
       </c>
       <c r="B107" s="1">
-        <v>2196</v>
+        <v>2211</v>
       </c>
       <c r="C107" s="2">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D107" s="2">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E107" s="2">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F107" s="1">
         <v>1</v>
@@ -34820,16 +34820,16 @@
         <v>0</v>
       </c>
       <c r="CT107" s="1">
-        <v>10435</v>
+        <v>10450</v>
       </c>
       <c r="CU107" s="1">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="CV107" s="1">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="CW107" s="1">
-        <v>742</v>
+        <v>757</v>
       </c>
     </row>
     <row r="108" spans="1:101">
@@ -35136,7 +35136,7 @@
         <v>809</v>
       </c>
       <c r="C109" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D109" s="2">
         <v>14</v>
@@ -35415,7 +35415,7 @@
         <v>6357</v>
       </c>
       <c r="CU109" s="1">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="CV109" s="1">
         <v>309</v>
@@ -35429,16 +35429,16 @@
         <v>209</v>
       </c>
       <c r="B110" s="1">
-        <v>1611</v>
+        <v>1632</v>
       </c>
       <c r="C110" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D110" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E110" s="2">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="F110" s="1">
         <v>10</v>
@@ -35708,16 +35708,16 @@
         <v>0</v>
       </c>
       <c r="CT110" s="1">
-        <v>140664</v>
+        <v>140685</v>
       </c>
       <c r="CU110" s="1">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="CV110" s="1">
-        <v>5270</v>
+        <v>5291</v>
       </c>
       <c r="CW110" s="1">
-        <v>10665</v>
+        <v>10686</v>
       </c>
     </row>
     <row r="111" spans="1:101">
@@ -36323,7 +36323,7 @@
         <v>18</v>
       </c>
       <c r="D113" s="2">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E113" s="2">
         <v>75</v>
@@ -36602,7 +36602,7 @@
         <v>83</v>
       </c>
       <c r="CV113" s="1">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="CW113" s="1">
         <v>971</v>
@@ -36736,7 +36736,7 @@
         <v>49</v>
       </c>
       <c r="AQ114" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR114" s="2">
         <v>3</v>
@@ -36871,7 +36871,7 @@
         <v>24</v>
       </c>
       <c r="CM114" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN114" s="2">
         <v>1</v>
@@ -36895,7 +36895,7 @@
         <v>10134</v>
       </c>
       <c r="CU114" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="CV114" s="1">
         <v>450</v>
@@ -38811,7 +38811,7 @@
         <v>1</v>
       </c>
       <c r="AR121" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS121" s="2">
         <v>5</v>
@@ -38946,7 +38946,7 @@
         <v>1</v>
       </c>
       <c r="CN121" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO121" s="2">
         <v>4</v>
@@ -38970,7 +38970,7 @@
         <v>7</v>
       </c>
       <c r="CV121" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CW121" s="1">
         <v>41</v>
@@ -41364,7 +41364,7 @@
         <v>23</v>
       </c>
       <c r="G130" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130" s="2">
         <v>2</v>
@@ -41631,7 +41631,7 @@
         <v>26</v>
       </c>
       <c r="CU130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV130" s="1">
         <v>2</v>
@@ -42321,16 +42321,16 @@
         <v>8</v>
       </c>
       <c r="AD133" s="1">
-        <v>9248</v>
+        <v>9249</v>
       </c>
       <c r="AE133" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF133" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG133" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AH133" s="1">
         <v>0</v>
@@ -42516,16 +42516,16 @@
         <v>0</v>
       </c>
       <c r="CT133" s="1">
-        <v>54440</v>
+        <v>54441</v>
       </c>
       <c r="CU133" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CV133" s="1">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="CW133" s="1">
-        <v>2617</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="134" spans="1:101">
@@ -44333,16 +44333,16 @@
         <v>5</v>
       </c>
       <c r="J140" s="1">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K140" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L140" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M140" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N140" s="1">
         <v>489</v>
@@ -44588,16 +44588,16 @@
         <v>0</v>
       </c>
       <c r="CT140" s="1">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="CU140" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="CV140" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="CW140" s="1">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:101">
@@ -45496,7 +45496,7 @@
         <v>7</v>
       </c>
       <c r="C144" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D144" s="2">
         <v>2</v>
@@ -45508,7 +45508,7 @@
         <v>43</v>
       </c>
       <c r="G144" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144" s="2">
         <v>2</v>
@@ -45775,7 +45775,7 @@
         <v>50</v>
       </c>
       <c r="CU144" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CV144" s="1">
         <v>4</v>
@@ -46627,7 +46627,7 @@
         <v>141</v>
       </c>
       <c r="CI147" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CJ147" s="2">
         <v>12</v>
@@ -46663,7 +46663,7 @@
         <v>756</v>
       </c>
       <c r="CU147" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="CV147" s="1">
         <v>33</v>
@@ -49356,7 +49356,7 @@
         <v>48</v>
       </c>
       <c r="G157" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H157" s="2">
         <v>4</v>
@@ -49623,7 +49623,7 @@
         <v>49</v>
       </c>
       <c r="CU157" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CV157" s="1">
         <v>4</v>
@@ -51829,16 +51829,16 @@
         <v>0</v>
       </c>
       <c r="AP165" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AQ165" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR165" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS165" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT165" s="1">
         <v>0</v>
@@ -51964,16 +51964,16 @@
         <v>9</v>
       </c>
       <c r="CL165" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CM165" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CN165" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CO165" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CP165" s="1">
         <v>0</v>
@@ -51988,16 +51988,16 @@
         <v>0</v>
       </c>
       <c r="CT165" s="1">
-        <v>4226</v>
+        <v>4228</v>
       </c>
       <c r="CU165" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CV165" s="1">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="CW165" s="1">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="166" spans="1:101">
@@ -52301,16 +52301,16 @@
         <v>266</v>
       </c>
       <c r="B167" s="1">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C167" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D167" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E167" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F167" s="1">
         <v>10</v>
@@ -52580,16 +52580,16 @@
         <v>0</v>
       </c>
       <c r="CT167" s="1">
-        <v>4584</v>
+        <v>4589</v>
       </c>
       <c r="CU167" s="1">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="CV167" s="1">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="CW167" s="1">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="168" spans="1:101">
@@ -52893,16 +52893,16 @@
         <v>268</v>
       </c>
       <c r="B169" s="1">
-        <v>3938</v>
+        <v>3985</v>
       </c>
       <c r="C169" s="2">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="D169" s="2">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="E169" s="2">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="F169" s="1">
         <v>0</v>
@@ -53172,16 +53172,16 @@
         <v>0</v>
       </c>
       <c r="CT169" s="1">
-        <v>16042</v>
+        <v>16089</v>
       </c>
       <c r="CU169" s="1">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="CV169" s="1">
-        <v>549</v>
+        <v>596</v>
       </c>
       <c r="CW169" s="1">
-        <v>1178</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="170" spans="1:101">
@@ -56003,7 +56003,7 @@
         <v>0</v>
       </c>
       <c r="AZ179" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA179" s="2">
         <v>13</v>
@@ -56138,7 +56138,7 @@
         <v>123</v>
       </c>
       <c r="CV179" s="1">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="CW179" s="1">
         <v>2915</v>
@@ -58924,7 +58924,7 @@
         <v>242</v>
       </c>
       <c r="AM189" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN189" s="2">
         <v>35</v>
@@ -59095,7 +59095,7 @@
         <v>586</v>
       </c>
       <c r="CU189" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="CV189" s="1">
         <v>44</v>
@@ -60003,7 +60003,7 @@
         <v>0</v>
       </c>
       <c r="D193" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E193" s="2">
         <v>8</v>
@@ -60282,7 +60282,7 @@
         <v>40</v>
       </c>
       <c r="CV193" s="1">
-        <v>3865</v>
+        <v>3864</v>
       </c>
       <c r="CW193" s="1">
         <v>5815</v>
@@ -60368,7 +60368,7 @@
         <v>79</v>
       </c>
       <c r="AA194" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB194" s="2">
         <v>3</v>
@@ -60575,7 +60575,7 @@
         <v>4766</v>
       </c>
       <c r="CU194" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="CV194" s="1">
         <v>427</v>
@@ -62090,7 +62090,7 @@
         <v>1</v>
       </c>
       <c r="I200" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J200" s="1">
         <v>0</v>
@@ -62357,7 +62357,7 @@
         <v>94</v>
       </c>
       <c r="CW200" s="1">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="201" spans="1:101">
@@ -63845,16 +63845,16 @@
         <v>305</v>
       </c>
       <c r="B206" s="1">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C206" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D206" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E206" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F206" s="1">
         <v>13</v>
@@ -64124,16 +64124,16 @@
         <v>0</v>
       </c>
       <c r="CT206" s="1">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CU206" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CV206" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CW206" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:101">
@@ -64551,7 +64551,7 @@
         <v>0</v>
       </c>
       <c r="AN208" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO208" s="2">
         <v>1</v>
@@ -64686,7 +64686,7 @@
         <v>3</v>
       </c>
       <c r="CJ208" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CK208" s="2">
         <v>19</v>
@@ -64722,7 +64722,7 @@
         <v>5</v>
       </c>
       <c r="CV208" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="CW208" s="1">
         <v>44</v>
@@ -64853,16 +64853,16 @@
         <v>1</v>
       </c>
       <c r="AP209" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AQ209" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR209" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS209" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT209" s="1">
         <v>8</v>
@@ -64976,16 +64976,16 @@
         <v>1</v>
       </c>
       <c r="CH209" s="1">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="CI209" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="CJ209" s="2">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="CK209" s="2">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="CL209" s="1">
         <v>12</v>
@@ -65012,16 +65012,16 @@
         <v>0</v>
       </c>
       <c r="CT209" s="1">
-        <v>5068</v>
+        <v>5090</v>
       </c>
       <c r="CU209" s="1">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="CV209" s="1">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="CW209" s="1">
-        <v>554</v>
+        <v>576</v>
       </c>
     </row>
     <row r="210" spans="1:101">
@@ -65633,16 +65633,16 @@
         <v>3</v>
       </c>
       <c r="F212" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G212" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H212" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I212" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J212" s="1">
         <v>0</v>
@@ -65900,16 +65900,16 @@
         <v>0</v>
       </c>
       <c r="CT212" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU212" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CV212" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CW212" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -66665,7 +66665,7 @@
         <v>559</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E37" t="s">
         <v>709</v>
@@ -67448,7 +67448,7 @@
         <v>593</v>
       </c>
       <c r="D76">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="E76" t="s">
         <v>709</v>
@@ -68597,7 +68597,7 @@
         <v>641</v>
       </c>
       <c r="D133">
-        <v>10143</v>
+        <v>10144</v>
       </c>
       <c r="E133" t="s">
         <v>709</v>
@@ -69203,7 +69203,7 @@
         <v>665</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E163" t="s">
         <v>709</v>
@@ -69486,7 +69486,7 @@
         <v>679</v>
       </c>
       <c r="D177">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E177" t="s">
         <v>709</v>
@@ -69826,7 +69826,7 @@
         <v>693</v>
       </c>
       <c r="D194">
-        <v>9729</v>
+        <v>9733</v>
       </c>
       <c r="E194" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -4666,7 +4666,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -4933,7 +4933,7 @@
         <v>3</v>
       </c>
       <c r="CW6" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:101">
@@ -12682,7 +12682,7 @@
         <v>25</v>
       </c>
       <c r="Q33" s="2">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="R33" s="1">
         <v>1</v>
@@ -12925,7 +12925,7 @@
         <v>78</v>
       </c>
       <c r="CW33" s="1">
-        <v>250</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:101">
@@ -13854,7 +13854,7 @@
         <v>12</v>
       </c>
       <c r="M37" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N37" s="1">
         <v>737</v>
@@ -13965,16 +13965,16 @@
         <v>0</v>
       </c>
       <c r="AX37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB37" s="1">
         <v>2</v>
@@ -14100,16 +14100,16 @@
         <v>0</v>
       </c>
       <c r="CT37" s="1">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="CU37" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CV37" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="CW37" s="1">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:101">
@@ -17236,7 +17236,7 @@
         <v>3</v>
       </c>
       <c r="BC48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD48" s="2">
         <v>3</v>
@@ -17359,7 +17359,7 @@
         <v>109</v>
       </c>
       <c r="CU48" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CV48" s="1">
         <v>7</v>
@@ -17376,7 +17376,7 @@
         <v>608</v>
       </c>
       <c r="C49" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D49" s="2">
         <v>22</v>
@@ -17655,7 +17655,7 @@
         <v>1209</v>
       </c>
       <c r="CU49" s="1">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="CV49" s="1">
         <v>116</v>
@@ -17980,7 +17980,7 @@
         <v>58</v>
       </c>
       <c r="G51" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" s="2">
         <v>4</v>
@@ -18247,7 +18247,7 @@
         <v>188</v>
       </c>
       <c r="CU51" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CV51" s="1">
         <v>56</v>
@@ -18940,7 +18940,7 @@
         <v>889</v>
       </c>
       <c r="AE54" s="2">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AF54" s="2">
         <v>47</v>
@@ -19135,7 +19135,7 @@
         <v>6601</v>
       </c>
       <c r="CU54" s="1">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="CV54" s="1">
         <v>211</v>
@@ -21296,7 +21296,7 @@
         <v>81</v>
       </c>
       <c r="AA62" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB62" s="2">
         <v>5</v>
@@ -21503,7 +21503,7 @@
         <v>6705</v>
       </c>
       <c r="CU62" s="1">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="CV62" s="1">
         <v>151</v>
@@ -23006,7 +23006,7 @@
         <v>6</v>
       </c>
       <c r="E68" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F68" s="1">
         <v>9</v>
@@ -23285,7 +23285,7 @@
         <v>35</v>
       </c>
       <c r="CW68" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:101">
@@ -23308,7 +23308,7 @@
         <v>56</v>
       </c>
       <c r="G69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="2">
         <v>3</v>
@@ -23575,7 +23575,7 @@
         <v>72</v>
       </c>
       <c r="CU69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV69" s="1">
         <v>3</v>
@@ -24812,7 +24812,7 @@
         <v>107735</v>
       </c>
       <c r="O74" s="2">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="P74" s="2">
         <v>2548</v>
@@ -25055,7 +25055,7 @@
         <v>136910</v>
       </c>
       <c r="CU74" s="1">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="CV74" s="1">
         <v>3269</v>
@@ -25180,7 +25180,7 @@
         <v>1638</v>
       </c>
       <c r="AM75" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AN75" s="2">
         <v>50</v>
@@ -25315,7 +25315,7 @@
         <v>5670</v>
       </c>
       <c r="CI75" s="2">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="CJ75" s="2">
         <v>205</v>
@@ -25351,7 +25351,7 @@
         <v>345941</v>
       </c>
       <c r="CU75" s="1">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="CV75" s="1">
         <v>5032</v>
@@ -26499,7 +26499,7 @@
         <v>28</v>
       </c>
       <c r="CI79" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CJ79" s="2">
         <v>0</v>
@@ -26535,7 +26535,7 @@
         <v>257</v>
       </c>
       <c r="CU79" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CV79" s="1">
         <v>9</v>
@@ -26558,7 +26558,7 @@
         <v>82</v>
       </c>
       <c r="E80" s="2">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -26837,7 +26837,7 @@
         <v>2803</v>
       </c>
       <c r="CW80" s="1">
-        <v>33032</v>
+        <v>33006</v>
       </c>
     </row>
     <row r="81" spans="1:101">
@@ -28346,7 +28346,7 @@
         <v>2</v>
       </c>
       <c r="I86" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J86" s="1">
         <v>251</v>
@@ -28613,7 +28613,7 @@
         <v>48</v>
       </c>
       <c r="CW86" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:101">
@@ -28950,7 +28950,7 @@
         <v>169</v>
       </c>
       <c r="M88" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N88" s="1">
         <v>4214</v>
@@ -29205,7 +29205,7 @@
         <v>431</v>
       </c>
       <c r="CW88" s="1">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="89" spans="1:101">
@@ -30816,7 +30816,7 @@
         <v>45</v>
       </c>
       <c r="AQ94" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR94" s="2">
         <v>2</v>
@@ -30939,7 +30939,7 @@
         <v>25</v>
       </c>
       <c r="CI94" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ94" s="2">
         <v>5</v>
@@ -30975,7 +30975,7 @@
         <v>167</v>
       </c>
       <c r="CU94" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CV94" s="1">
         <v>11</v>
@@ -31306,7 +31306,7 @@
         <v>3</v>
       </c>
       <c r="I96" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J96" s="1">
         <v>0</v>
@@ -31573,7 +31573,7 @@
         <v>3</v>
       </c>
       <c r="CW96" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:101">
@@ -31892,7 +31892,7 @@
         <v>57</v>
       </c>
       <c r="G98" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" s="2">
         <v>3</v>
@@ -32159,7 +32159,7 @@
         <v>75</v>
       </c>
       <c r="CU98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV98" s="1">
         <v>3</v>
@@ -33148,7 +33148,7 @@
         <v>3627</v>
       </c>
       <c r="AE102" s="2">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="AF102" s="2">
         <v>96</v>
@@ -33343,7 +33343,7 @@
         <v>6637</v>
       </c>
       <c r="CU102" s="1">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="CV102" s="1">
         <v>187</v>
@@ -37226,7 +37226,7 @@
         <v>2</v>
       </c>
       <c r="I116" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J116" s="1">
         <v>0</v>
@@ -37493,7 +37493,7 @@
         <v>2</v>
       </c>
       <c r="CW116" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:101">
@@ -38712,7 +38712,7 @@
         <v>141</v>
       </c>
       <c r="K121" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L121" s="2">
         <v>4</v>
@@ -38967,7 +38967,7 @@
         <v>841</v>
       </c>
       <c r="CU121" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CV121" s="1">
         <v>19</v>
@@ -40417,7 +40417,7 @@
         <v>0</v>
       </c>
       <c r="CK126" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CL126" s="1">
         <v>50</v>
@@ -40453,7 +40453,7 @@
         <v>5</v>
       </c>
       <c r="CW126" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:101">
@@ -42369,16 +42369,16 @@
         <v>0</v>
       </c>
       <c r="AT133" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU133" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV133" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW133" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX133" s="1">
         <v>3</v>
@@ -42516,16 +42516,16 @@
         <v>0</v>
       </c>
       <c r="CT133" s="1">
-        <v>54441</v>
+        <v>54442</v>
       </c>
       <c r="CU133" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="CV133" s="1">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="CW133" s="1">
-        <v>2618</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="134" spans="1:101">
@@ -43272,7 +43272,7 @@
         <v>129</v>
       </c>
       <c r="AY136" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AZ136" s="2">
         <v>10</v>
@@ -43407,7 +43407,7 @@
         <v>3674</v>
       </c>
       <c r="CU136" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="CV136" s="1">
         <v>107</v>
@@ -45030,7 +45030,7 @@
         <v>2</v>
       </c>
       <c r="AS142" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT142" s="1">
         <v>0</v>
@@ -45165,7 +45165,7 @@
         <v>3</v>
       </c>
       <c r="CO142" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CP142" s="1">
         <v>0</v>
@@ -45189,7 +45189,7 @@
         <v>26</v>
       </c>
       <c r="CW142" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:101">
@@ -47269,16 +47269,16 @@
         <v>249</v>
       </c>
       <c r="B150" s="1">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C150" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D150" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E150" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F150" s="1">
         <v>17</v>
@@ -47548,16 +47548,16 @@
         <v>0</v>
       </c>
       <c r="CT150" s="1">
-        <v>2045</v>
+        <v>2053</v>
       </c>
       <c r="CU150" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="CV150" s="1">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="CW150" s="1">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="151" spans="1:101">
@@ -47811,7 +47811,7 @@
         <v>43</v>
       </c>
       <c r="CI151" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="CJ151" s="2">
         <v>17</v>
@@ -47823,7 +47823,7 @@
         <v>12</v>
       </c>
       <c r="CM151" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CN151" s="2">
         <v>4</v>
@@ -47847,7 +47847,7 @@
         <v>89</v>
       </c>
       <c r="CU151" s="1">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="CV151" s="1">
         <v>24</v>
@@ -48166,7 +48166,7 @@
         <v>2</v>
       </c>
       <c r="E153" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F153" s="1">
         <v>17</v>
@@ -48445,7 +48445,7 @@
         <v>58</v>
       </c>
       <c r="CW153" s="1">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="154" spans="1:101">
@@ -51085,7 +51085,7 @@
         <v>0</v>
       </c>
       <c r="CO162" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP162" s="1">
         <v>0</v>
@@ -51109,7 +51109,7 @@
         <v>74</v>
       </c>
       <c r="CW162" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="163" spans="1:101">
@@ -51324,16 +51324,16 @@
         <v>0</v>
       </c>
       <c r="BV163" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW163" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX163" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY163" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ163" s="1">
         <v>1</v>
@@ -51396,16 +51396,16 @@
         <v>0</v>
       </c>
       <c r="CT163" s="1">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="CU163" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CV163" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CW163" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="164" spans="1:101">
@@ -52340,7 +52340,7 @@
         <v>320</v>
       </c>
       <c r="O167" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P167" s="2">
         <v>6</v>
@@ -52583,7 +52583,7 @@
         <v>4589</v>
       </c>
       <c r="CU167" s="1">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="CV167" s="1">
         <v>203</v>
@@ -53441,7 +53441,7 @@
         <v>11</v>
       </c>
       <c r="CK170" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="CL170" s="1">
         <v>6</v>
@@ -53477,7 +53477,7 @@
         <v>54</v>
       </c>
       <c r="CW170" s="1">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="171" spans="1:101">
@@ -58538,7 +58538,7 @@
         <v>3</v>
       </c>
       <c r="I188" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J188" s="1">
         <v>0</v>
@@ -58805,7 +58805,7 @@
         <v>3</v>
       </c>
       <c r="CW188" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:101">
@@ -59232,7 +59232,7 @@
         <v>43</v>
       </c>
       <c r="AQ190" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR190" s="2">
         <v>2</v>
@@ -59367,7 +59367,7 @@
         <v>35</v>
       </c>
       <c r="CM190" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN190" s="2">
         <v>2</v>
@@ -59391,7 +59391,7 @@
         <v>512</v>
       </c>
       <c r="CU190" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CV190" s="1">
         <v>10</v>
@@ -59848,7 +59848,7 @@
         <v>6</v>
       </c>
       <c r="AY192" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ192" s="2">
         <v>2</v>
@@ -59983,7 +59983,7 @@
         <v>28830</v>
       </c>
       <c r="CU192" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="CV192" s="1">
         <v>664</v>
@@ -60036,7 +60036,7 @@
         <v>830</v>
       </c>
       <c r="O193" s="2">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P193" s="2">
         <v>70</v>
@@ -60279,7 +60279,7 @@
         <v>57495</v>
       </c>
       <c r="CU193" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="CV193" s="1">
         <v>3864</v>
@@ -61723,7 +61723,7 @@
         <v>792</v>
       </c>
       <c r="CI198" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CJ198" s="2">
         <v>44</v>
@@ -61759,7 +61759,7 @@
         <v>14730</v>
       </c>
       <c r="CU198" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="CV198" s="1">
         <v>294</v>
@@ -63475,7 +63475,7 @@
         <v>1</v>
       </c>
       <c r="CA204" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB204" s="2">
         <v>1</v>
@@ -63535,7 +63535,7 @@
         <v>1301</v>
       </c>
       <c r="CU204" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CV204" s="1">
         <v>31</v>
@@ -64820,7 +64820,7 @@
         <v>2365</v>
       </c>
       <c r="AE209" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AF209" s="2">
         <v>123</v>
@@ -65015,7 +65015,7 @@
         <v>5090</v>
       </c>
       <c r="CU209" s="1">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="CV209" s="1">
         <v>231</v>
@@ -66545,7 +66545,7 @@
         <v>555</v>
       </c>
       <c r="D31">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E31" t="s">
         <v>709</v>
@@ -67108,7 +67108,7 @@
         <v>576</v>
       </c>
       <c r="D59">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E59" t="s">
         <v>709</v>
@@ -67188,7 +67188,7 @@
         <v>580</v>
       </c>
       <c r="D63">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E63" t="s">
         <v>709</v>
@@ -68194,7 +68194,7 @@
         <v>623</v>
       </c>
       <c r="D113">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E113" t="s">
         <v>709</v>
@@ -69826,7 +69826,7 @@
         <v>693</v>
       </c>
       <c r="D194">
-        <v>9733</v>
+        <v>9734</v>
       </c>
       <c r="E194" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -5255,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2">
         <v>3</v>
@@ -5522,7 +5522,7 @@
         <v>18</v>
       </c>
       <c r="CV8" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="CW8" s="1">
         <v>98</v>
@@ -6969,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="CK13" s="2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="CL13" s="1">
         <v>27</v>
@@ -7005,7 +7005,7 @@
         <v>48</v>
       </c>
       <c r="CW13" s="1">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:101">
@@ -7907,7 +7907,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -8186,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="CV17" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW17" s="1">
         <v>5</v>
@@ -8535,7 +8535,7 @@
         <v>3</v>
       </c>
       <c r="P19" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q19" s="2">
         <v>370</v>
@@ -8778,7 +8778,7 @@
         <v>69</v>
       </c>
       <c r="CV19" s="1">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="CW19" s="1">
         <v>627</v>
@@ -12189,16 +12189,16 @@
         <v>0</v>
       </c>
       <c r="AX31" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA31" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB31" s="1">
         <v>3</v>
@@ -12324,16 +12324,16 @@
         <v>0</v>
       </c>
       <c r="CT31" s="1">
-        <v>9443</v>
+        <v>9444</v>
       </c>
       <c r="CU31" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CV31" s="1">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="CW31" s="1">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="32" spans="1:101">
@@ -12667,7 +12667,7 @@
         <v>8</v>
       </c>
       <c r="L33" s="2">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M33" s="2">
         <v>53</v>
@@ -12682,7 +12682,7 @@
         <v>25</v>
       </c>
       <c r="Q33" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R33" s="1">
         <v>1</v>
@@ -12922,10 +12922,10 @@
         <v>15</v>
       </c>
       <c r="CV33" s="1">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="CW33" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:101">
@@ -14061,7 +14061,7 @@
         <v>0</v>
       </c>
       <c r="CG37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH37" s="1">
         <v>294</v>
@@ -14109,7 +14109,7 @@
         <v>39</v>
       </c>
       <c r="CW37" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:101">
@@ -14123,7 +14123,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38" s="2">
         <v>8</v>
@@ -14402,7 +14402,7 @@
         <v>0</v>
       </c>
       <c r="CV38" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="CW38" s="1">
         <v>66</v>
@@ -17971,7 +17971,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" s="2">
         <v>1</v>
@@ -18250,7 +18250,7 @@
         <v>12</v>
       </c>
       <c r="CV51" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CW51" s="1">
         <v>70</v>
@@ -18856,7 +18856,7 @@
         <v>1871</v>
       </c>
       <c r="C54" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D54" s="2">
         <v>29</v>
@@ -18880,7 +18880,7 @@
         <v>1328</v>
       </c>
       <c r="K54" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L54" s="2">
         <v>56</v>
@@ -19135,7 +19135,7 @@
         <v>6601</v>
       </c>
       <c r="CU54" s="1">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="CV54" s="1">
         <v>211</v>
@@ -21419,7 +21419,7 @@
         <v>17</v>
       </c>
       <c r="BS62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT62" s="2">
         <v>1</v>
@@ -21503,7 +21503,7 @@
         <v>6705</v>
       </c>
       <c r="CU62" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="CV62" s="1">
         <v>151</v>
@@ -21661,16 +21661,16 @@
         <v>0</v>
       </c>
       <c r="AX63" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB63" s="1">
         <v>7</v>
@@ -21796,16 +21796,16 @@
         <v>0</v>
       </c>
       <c r="CT63" s="1">
-        <v>57565</v>
+        <v>57566</v>
       </c>
       <c r="CU63" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CV63" s="1">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="CW63" s="1">
-        <v>2507</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="64" spans="1:101">
@@ -21840,7 +21840,7 @@
         <v>688</v>
       </c>
       <c r="K64" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L64" s="2">
         <v>49</v>
@@ -22095,7 +22095,7 @@
         <v>1278</v>
       </c>
       <c r="CU64" s="1">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="CV64" s="1">
         <v>62</v>
@@ -24430,7 +24430,7 @@
         <v>47</v>
       </c>
       <c r="CJ72" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="CK72" s="2">
         <v>421</v>
@@ -24466,7 +24466,7 @@
         <v>244</v>
       </c>
       <c r="CV72" s="1">
-        <v>2740</v>
+        <v>2734</v>
       </c>
       <c r="CW72" s="1">
         <v>5987</v>
@@ -25099,7 +25099,7 @@
         <v>33</v>
       </c>
       <c r="L75" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M75" s="2">
         <v>254</v>
@@ -25186,7 +25186,7 @@
         <v>50</v>
       </c>
       <c r="AO75" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AP75" s="1">
         <v>73</v>
@@ -25354,10 +25354,10 @@
         <v>220</v>
       </c>
       <c r="CV75" s="1">
-        <v>5032</v>
+        <v>5033</v>
       </c>
       <c r="CW75" s="1">
-        <v>11114</v>
+        <v>11113</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -28340,7 +28340,7 @@
         <v>27</v>
       </c>
       <c r="G86" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" s="2">
         <v>2</v>
@@ -28352,7 +28352,7 @@
         <v>251</v>
       </c>
       <c r="K86" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L86" s="2">
         <v>20</v>
@@ -28607,7 +28607,7 @@
         <v>1445</v>
       </c>
       <c r="CU86" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="CV86" s="1">
         <v>48</v>
@@ -32308,7 +32308,7 @@
         <v>52</v>
       </c>
       <c r="AU99" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV99" s="2">
         <v>2</v>
@@ -32455,7 +32455,7 @@
         <v>37380</v>
       </c>
       <c r="CU99" s="1">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="CV99" s="1">
         <v>1070</v>
@@ -32786,7 +32786,7 @@
         <v>3</v>
       </c>
       <c r="I101" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J101" s="1">
         <v>0</v>
@@ -33053,7 +33053,7 @@
         <v>3</v>
       </c>
       <c r="CW101" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:101">
@@ -33094,7 +33094,7 @@
         <v>35</v>
       </c>
       <c r="M102" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="N102" s="1">
         <v>1315</v>
@@ -33349,7 +33349,7 @@
         <v>187</v>
       </c>
       <c r="CW102" s="1">
-        <v>560</v>
+        <v>550</v>
       </c>
     </row>
     <row r="103" spans="1:101">
@@ -37812,7 +37812,7 @@
         <v>33</v>
       </c>
       <c r="G118" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118" s="2">
         <v>3</v>
@@ -38079,7 +38079,7 @@
         <v>128</v>
       </c>
       <c r="CU118" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CV118" s="1">
         <v>7</v>
@@ -38808,7 +38808,7 @@
         <v>152</v>
       </c>
       <c r="AQ121" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR121" s="2">
         <v>2</v>
@@ -38943,7 +38943,7 @@
         <v>79</v>
       </c>
       <c r="CM121" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN121" s="2">
         <v>1</v>
@@ -38967,7 +38967,7 @@
         <v>841</v>
       </c>
       <c r="CU121" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CV121" s="1">
         <v>19</v>
@@ -43735,7 +43735,7 @@
         <v>1</v>
       </c>
       <c r="H138" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" s="2">
         <v>4</v>
@@ -44002,7 +44002,7 @@
         <v>1</v>
       </c>
       <c r="CV138" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CW138" s="1">
         <v>34</v>
@@ -46088,7 +46088,7 @@
         <v>321</v>
       </c>
       <c r="C146" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D146" s="2">
         <v>4</v>
@@ -46103,7 +46103,7 @@
         <v>0</v>
       </c>
       <c r="H146" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" s="2">
         <v>2</v>
@@ -46367,10 +46367,10 @@
         <v>4859</v>
       </c>
       <c r="CU146" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="CV146" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="CW146" s="1">
         <v>291</v>
@@ -48160,7 +48160,7 @@
         <v>236</v>
       </c>
       <c r="C153" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D153" s="2">
         <v>2</v>
@@ -48439,7 +48439,7 @@
         <v>2354</v>
       </c>
       <c r="CU153" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CV153" s="1">
         <v>58</v>
@@ -48462,7 +48462,7 @@
         <v>85</v>
       </c>
       <c r="E154" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F154" s="1">
         <v>0</v>
@@ -48741,7 +48741,7 @@
         <v>1036</v>
       </c>
       <c r="CW154" s="1">
-        <v>2168</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="155" spans="1:101">
@@ -48884,7 +48884,7 @@
         <v>37</v>
       </c>
       <c r="AU155" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV155" s="2">
         <v>1</v>
@@ -49031,7 +49031,7 @@
         <v>145498</v>
       </c>
       <c r="CU155" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="CV155" s="1">
         <v>2253</v>
@@ -54092,7 +54092,7 @@
         <v>20</v>
       </c>
       <c r="G173" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173" s="2">
         <v>3</v>
@@ -54359,7 +54359,7 @@
         <v>396</v>
       </c>
       <c r="CU173" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CV173" s="1">
         <v>27</v>
@@ -59776,7 +59776,7 @@
         <v>100</v>
       </c>
       <c r="AA192" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB192" s="2">
         <v>5</v>
@@ -59983,7 +59983,7 @@
         <v>28830</v>
       </c>
       <c r="CU192" s="1">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="CV192" s="1">
         <v>664</v>
@@ -60338,7 +60338,7 @@
         <v>346</v>
       </c>
       <c r="Q194" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="R194" s="1">
         <v>0</v>
@@ -60581,7 +60581,7 @@
         <v>427</v>
       </c>
       <c r="CW194" s="1">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="195" spans="1:101">
@@ -61558,7 +61558,7 @@
         <v>0</v>
       </c>
       <c r="AC198" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD198" s="1">
         <v>44</v>
@@ -61765,7 +61765,7 @@
         <v>294</v>
       </c>
       <c r="CW198" s="1">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="199" spans="1:101">
@@ -62186,7 +62186,7 @@
         <v>47</v>
       </c>
       <c r="AO200" s="2">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="AP200" s="1">
         <v>0</v>
@@ -62321,7 +62321,7 @@
         <v>45</v>
       </c>
       <c r="CK200" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="CL200" s="1">
         <v>0</v>
@@ -62357,7 +62357,7 @@
         <v>94</v>
       </c>
       <c r="CW200" s="1">
-        <v>187</v>
+        <v>155</v>
       </c>
     </row>
     <row r="201" spans="1:101">
@@ -64820,7 +64820,7 @@
         <v>2365</v>
       </c>
       <c r="AE209" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AF209" s="2">
         <v>123</v>
@@ -65015,7 +65015,7 @@
         <v>5090</v>
       </c>
       <c r="CU209" s="1">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="CV209" s="1">
         <v>231</v>
@@ -65439,7 +65439,7 @@
         <v>0</v>
       </c>
       <c r="AN211" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AO211" s="2">
         <v>37</v>
@@ -65610,7 +65610,7 @@
         <v>6</v>
       </c>
       <c r="CV211" s="1">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="CW211" s="1">
         <v>111</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -7052,7 +7052,7 @@
         <v>2433</v>
       </c>
       <c r="O14" s="2">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2">
         <v>138</v>
@@ -7295,7 +7295,7 @@
         <v>2992</v>
       </c>
       <c r="CU14" s="1">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="CV14" s="1">
         <v>146</v>
@@ -14126,7 +14126,7 @@
         <v>4</v>
       </c>
       <c r="E38" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F38" s="1">
         <v>25</v>
@@ -14405,7 +14405,7 @@
         <v>36</v>
       </c>
       <c r="CW38" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:101">
@@ -14718,7 +14718,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" s="1">
         <v>35</v>
@@ -14730,7 +14730,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J40" s="1">
         <v>0</v>
@@ -14997,7 +14997,7 @@
         <v>44</v>
       </c>
       <c r="CW40" s="1">
-        <v>-22</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="41" spans="1:101">
@@ -15630,7 +15630,7 @@
         <v>57</v>
       </c>
       <c r="M43" s="2">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="N43" s="1">
         <v>1458</v>
@@ -15885,7 +15885,7 @@
         <v>2117</v>
       </c>
       <c r="CW43" s="1">
-        <v>3117</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="44" spans="1:101">
@@ -20342,7 +20342,7 @@
         <v>146</v>
       </c>
       <c r="E59" s="2">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -20621,7 +20621,7 @@
         <v>2416</v>
       </c>
       <c r="CW59" s="1">
-        <v>3217</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="60" spans="1:101">
@@ -24818,7 +24818,7 @@
         <v>2548</v>
       </c>
       <c r="Q74" s="2">
-        <v>5567</v>
+        <v>5275</v>
       </c>
       <c r="R74" s="1">
         <v>1</v>
@@ -24848,7 +24848,7 @@
         <v>79</v>
       </c>
       <c r="AA74" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB74" s="2">
         <v>3</v>
@@ -25055,13 +25055,13 @@
         <v>136910</v>
       </c>
       <c r="CU74" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="CV74" s="1">
         <v>3269</v>
       </c>
       <c r="CW74" s="1">
-        <v>7205</v>
+        <v>6913</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -26558,7 +26558,7 @@
         <v>82</v>
       </c>
       <c r="E80" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -26837,7 +26837,7 @@
         <v>2803</v>
       </c>
       <c r="CW80" s="1">
-        <v>33006</v>
+        <v>33007</v>
       </c>
     </row>
     <row r="81" spans="1:101">
@@ -28565,7 +28565,7 @@
         <v>0</v>
       </c>
       <c r="CG86" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH86" s="1">
         <v>40</v>
@@ -28613,7 +28613,7 @@
         <v>48</v>
       </c>
       <c r="CW86" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:101">
@@ -33468,7 +33468,7 @@
         <v>495</v>
       </c>
       <c r="AM103" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN103" s="2">
         <v>0</v>
@@ -33603,7 +33603,7 @@
         <v>5567</v>
       </c>
       <c r="CI103" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="CJ103" s="2">
         <v>176</v>
@@ -33639,7 +33639,7 @@
         <v>83642</v>
       </c>
       <c r="CU103" s="1">
-        <v>5218</v>
+        <v>5226</v>
       </c>
       <c r="CV103" s="1">
         <v>11748</v>
@@ -36799,7 +36799,7 @@
         <v>173</v>
       </c>
       <c r="BO114" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BP114" s="2">
         <v>67</v>
@@ -36895,7 +36895,7 @@
         <v>10134</v>
       </c>
       <c r="CU114" s="1">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="CV114" s="1">
         <v>450</v>
@@ -36930,7 +36930,7 @@
         <v>2</v>
       </c>
       <c r="I115" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J115" s="1">
         <v>0</v>
@@ -37197,7 +37197,7 @@
         <v>2</v>
       </c>
       <c r="CW115" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:101">
@@ -42330,7 +42330,7 @@
         <v>370</v>
       </c>
       <c r="AG133" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="AH133" s="1">
         <v>0</v>
@@ -42525,7 +42525,7 @@
         <v>1383</v>
       </c>
       <c r="CW133" s="1">
-        <v>2619</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="134" spans="1:101">
@@ -46988,7 +46988,7 @@
         <v>53</v>
       </c>
       <c r="G149" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H149" s="2">
         <v>4</v>
@@ -47255,7 +47255,7 @@
         <v>355</v>
       </c>
       <c r="CU149" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="CV149" s="1">
         <v>23</v>
@@ -51434,7 +51434,7 @@
         <v>1</v>
       </c>
       <c r="I164" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J164" s="1">
         <v>0</v>
@@ -51701,7 +51701,7 @@
         <v>3</v>
       </c>
       <c r="CW164" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:101">
@@ -60296,7 +60296,7 @@
         <v>572</v>
       </c>
       <c r="C194" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D194" s="2">
         <v>32</v>
@@ -60332,7 +60332,7 @@
         <v>2967</v>
       </c>
       <c r="O194" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P194" s="2">
         <v>346</v>
@@ -60575,7 +60575,7 @@
         <v>4766</v>
       </c>
       <c r="CU194" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="CV194" s="1">
         <v>427</v>
@@ -63400,7 +63400,7 @@
         <v>4</v>
       </c>
       <c r="AY204" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ204" s="2">
         <v>1</v>
@@ -63535,7 +63535,7 @@
         <v>1301</v>
       </c>
       <c r="CU204" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CV204" s="1">
         <v>31</v>
@@ -63848,7 +63848,7 @@
         <v>227</v>
       </c>
       <c r="C206" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D206" s="2">
         <v>8</v>
@@ -64127,7 +64127,7 @@
         <v>240</v>
       </c>
       <c r="CU206" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CV206" s="1">
         <v>8</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -4645,295 +4645,295 @@
         <v>105</v>
       </c>
       <c r="B6" s="1">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT6" s="1">
+        <v>32</v>
+      </c>
+      <c r="CU6" s="1">
+        <v>3</v>
+      </c>
+      <c r="CV6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB6" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE6" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG6" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI6" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ6" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK6" s="2">
-        <v>0</v>
-      </c>
-      <c r="CL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM6" s="2">
-        <v>0</v>
-      </c>
-      <c r="CN6" s="2">
-        <v>0</v>
-      </c>
-      <c r="CO6" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ6" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR6" s="2">
-        <v>0</v>
-      </c>
-      <c r="CS6" s="2">
-        <v>0</v>
-      </c>
-      <c r="CT6" s="1">
-        <v>30</v>
-      </c>
-      <c r="CU6" s="1">
-        <v>1</v>
-      </c>
-      <c r="CV6" s="1">
-        <v>3</v>
-      </c>
       <c r="CW6" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:101">
@@ -5835,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -5847,7 +5847,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" s="2">
         <v>6</v>
@@ -6114,7 +6114,7 @@
         <v>1</v>
       </c>
       <c r="CV10" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CW10" s="1">
         <v>8</v>
@@ -10694,7 +10694,7 @@
         <v>3</v>
       </c>
       <c r="AS26" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT26" s="1">
         <v>0</v>
@@ -10817,7 +10817,7 @@
         <v>25</v>
       </c>
       <c r="CK26" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="CL26" s="1">
         <v>1</v>
@@ -10853,7 +10853,7 @@
         <v>33</v>
       </c>
       <c r="CW26" s="1">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:101">
@@ -13833,16 +13833,16 @@
         <v>8</v>
       </c>
       <c r="F37" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J37" s="1">
         <v>303</v>
@@ -14100,16 +14100,16 @@
         <v>0</v>
       </c>
       <c r="CT37" s="1">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="CU37" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CV37" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CW37" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:101">
@@ -14662,7 +14662,7 @@
         <v>21</v>
       </c>
       <c r="CJ39" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="CK39" s="2">
         <v>114</v>
@@ -14698,7 +14698,7 @@
         <v>184</v>
       </c>
       <c r="CV39" s="1">
-        <v>1007</v>
+        <v>990</v>
       </c>
       <c r="CW39" s="1">
         <v>1843</v>
@@ -15600,10 +15600,10 @@
         <v>188</v>
       </c>
       <c r="C43" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D43" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" s="2">
         <v>13</v>
@@ -15630,7 +15630,7 @@
         <v>57</v>
       </c>
       <c r="M43" s="2">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="N43" s="1">
         <v>1458</v>
@@ -15879,13 +15879,13 @@
         <v>43922</v>
       </c>
       <c r="CU43" s="1">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="CV43" s="1">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="CW43" s="1">
-        <v>3095</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="44" spans="1:101">
@@ -16503,7 +16503,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" s="2">
         <v>5</v>
@@ -16770,7 +16770,7 @@
         <v>0</v>
       </c>
       <c r="CV46" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW46" s="1">
         <v>6</v>
@@ -16799,7 +16799,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" s="2">
         <v>8</v>
@@ -17066,7 +17066,7 @@
         <v>0</v>
       </c>
       <c r="CV47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW47" s="1">
         <v>8</v>
@@ -17083,7 +17083,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
@@ -17362,7 +17362,7 @@
         <v>3</v>
       </c>
       <c r="CV48" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CW48" s="1">
         <v>9</v>
@@ -17373,16 +17373,16 @@
         <v>148</v>
       </c>
       <c r="B49" s="1">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="C49" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E49" s="2">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -17652,16 +17652,16 @@
         <v>0</v>
       </c>
       <c r="CT49" s="1">
-        <v>1209</v>
+        <v>1218</v>
       </c>
       <c r="CU49" s="1">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="CV49" s="1">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="CW49" s="1">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:101">
@@ -20339,7 +20339,7 @@
         <v>68</v>
       </c>
       <c r="D59" s="2">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2">
         <v>279</v>
@@ -20618,7 +20618,7 @@
         <v>101</v>
       </c>
       <c r="CV59" s="1">
-        <v>2416</v>
+        <v>2360</v>
       </c>
       <c r="CW59" s="1">
         <v>3162</v>
@@ -21174,7 +21174,7 @@
         <v>3</v>
       </c>
       <c r="CJ61" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="CK61" s="2">
         <v>59</v>
@@ -21210,7 +21210,7 @@
         <v>20</v>
       </c>
       <c r="CV61" s="1">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="CW61" s="1">
         <v>197</v>
@@ -21846,7 +21846,7 @@
         <v>49</v>
       </c>
       <c r="M64" s="2">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="N64" s="1">
         <v>0</v>
@@ -22101,7 +22101,7 @@
         <v>62</v>
       </c>
       <c r="CW64" s="1">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:101">
@@ -24265,16 +24265,16 @@
         <v>8</v>
       </c>
       <c r="AD72" s="1">
-        <v>13081</v>
+        <v>13080</v>
       </c>
       <c r="AE72" s="2">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="AF72" s="2">
-        <v>773</v>
+        <v>440</v>
       </c>
       <c r="AG72" s="2">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AH72" s="1">
         <v>0</v>
@@ -24298,7 +24298,7 @@
         <v>132</v>
       </c>
       <c r="AO72" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AP72" s="1">
         <v>0</v>
@@ -24433,7 +24433,7 @@
         <v>231</v>
       </c>
       <c r="CK72" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="CL72" s="1">
         <v>0</v>
@@ -24454,22 +24454,22 @@
         <v>1</v>
       </c>
       <c r="CR72" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CS72" s="2">
         <v>2</v>
       </c>
       <c r="CT72" s="1">
-        <v>157092</v>
+        <v>157091</v>
       </c>
       <c r="CU72" s="1">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="CV72" s="1">
-        <v>2734</v>
+        <v>2400</v>
       </c>
       <c r="CW72" s="1">
-        <v>5987</v>
+        <v>5986</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -24498,7 +24498,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J73" s="1">
         <v>0</v>
@@ -24765,7 +24765,7 @@
         <v>11</v>
       </c>
       <c r="CW73" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:101">
@@ -24818,7 +24818,7 @@
         <v>2548</v>
       </c>
       <c r="Q74" s="2">
-        <v>5275</v>
+        <v>5254</v>
       </c>
       <c r="R74" s="1">
         <v>1</v>
@@ -25061,7 +25061,7 @@
         <v>3269</v>
       </c>
       <c r="CW74" s="1">
-        <v>6913</v>
+        <v>6892</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25105,16 +25105,16 @@
         <v>254</v>
       </c>
       <c r="N75" s="1">
-        <v>318332</v>
+        <v>318327</v>
       </c>
       <c r="O75" s="2">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="P75" s="2">
-        <v>4253</v>
+        <v>4248</v>
       </c>
       <c r="Q75" s="2">
-        <v>9555</v>
+        <v>9550</v>
       </c>
       <c r="R75" s="1">
         <v>0</v>
@@ -25348,16 +25348,16 @@
         <v>6</v>
       </c>
       <c r="CT75" s="1">
-        <v>345941</v>
+        <v>345936</v>
       </c>
       <c r="CU75" s="1">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CV75" s="1">
-        <v>5033</v>
+        <v>5028</v>
       </c>
       <c r="CW75" s="1">
-        <v>11113</v>
+        <v>11108</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" s="1">
         <v>12</v>
@@ -25949,7 +25949,7 @@
         <v>106</v>
       </c>
       <c r="CW77" s="1">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:101">
@@ -26271,10 +26271,10 @@
         <v>1</v>
       </c>
       <c r="H79" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J79" s="1">
         <v>0</v>
@@ -26538,10 +26538,10 @@
         <v>3</v>
       </c>
       <c r="CV79" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CW79" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:101">
@@ -28442,7 +28442,7 @@
         <v>0</v>
       </c>
       <c r="AO86" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP86" s="1">
         <v>26</v>
@@ -28454,7 +28454,7 @@
         <v>2</v>
       </c>
       <c r="AS86" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT86" s="1">
         <v>0</v>
@@ -28577,7 +28577,7 @@
         <v>0</v>
       </c>
       <c r="CK86" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CL86" s="1">
         <v>7</v>
@@ -28613,7 +28613,7 @@
         <v>48</v>
       </c>
       <c r="CW86" s="1">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:101">
@@ -31303,7 +31303,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" s="2">
         <v>5</v>
@@ -31570,7 +31570,7 @@
         <v>1</v>
       </c>
       <c r="CV96" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW96" s="1">
         <v>5</v>
@@ -31599,7 +31599,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I97" s="2">
         <v>5</v>
@@ -31866,7 +31866,7 @@
         <v>1</v>
       </c>
       <c r="CV97" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CW97" s="1">
         <v>4</v>
@@ -33085,16 +33085,16 @@
         <v>1</v>
       </c>
       <c r="J102" s="1">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="K102" s="2">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L102" s="2">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M102" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="N102" s="1">
         <v>1315</v>
@@ -33340,16 +33340,16 @@
         <v>0</v>
       </c>
       <c r="CT102" s="1">
-        <v>6637</v>
+        <v>6650</v>
       </c>
       <c r="CU102" s="1">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="CV102" s="1">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="CW102" s="1">
-        <v>550</v>
+        <v>563</v>
       </c>
     </row>
     <row r="103" spans="1:101">
@@ -37205,16 +37205,16 @@
         <v>215</v>
       </c>
       <c r="B116" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C116" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" s="1">
         <v>28</v>
@@ -37484,16 +37484,16 @@
         <v>0</v>
       </c>
       <c r="CT116" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CU116" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV116" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CW116" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:101">
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="D119" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" s="2">
         <v>1</v>
@@ -38378,7 +38378,7 @@
         <v>1</v>
       </c>
       <c r="CV119" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW119" s="1">
         <v>5</v>
@@ -39875,7 +39875,7 @@
         <v>6</v>
       </c>
       <c r="D125" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E125" s="2">
         <v>34</v>
@@ -40154,7 +40154,7 @@
         <v>26</v>
       </c>
       <c r="CV125" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="CW125" s="1">
         <v>105</v>
@@ -40183,7 +40183,7 @@
         <v>0</v>
       </c>
       <c r="H126" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" s="2">
         <v>6</v>
@@ -40450,7 +40450,7 @@
         <v>0</v>
       </c>
       <c r="CV126" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CW126" s="1">
         <v>17</v>
@@ -41349,16 +41349,16 @@
         <v>229</v>
       </c>
       <c r="B130" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C130" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" s="1">
         <v>23</v>
@@ -41628,16 +41628,16 @@
         <v>0</v>
       </c>
       <c r="CT130" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CU130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV130" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CW130" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:101">
@@ -44315,7 +44315,7 @@
         <v>2</v>
       </c>
       <c r="D140" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E140" s="2">
         <v>11</v>
@@ -44339,7 +44339,7 @@
         <v>2</v>
       </c>
       <c r="L140" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M140" s="2">
         <v>20</v>
@@ -44594,7 +44594,7 @@
         <v>6</v>
       </c>
       <c r="CV140" s="1">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="CW140" s="1">
         <v>137</v>
@@ -45511,7 +45511,7 @@
         <v>0</v>
       </c>
       <c r="H144" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" s="2">
         <v>7</v>
@@ -45778,7 +45778,7 @@
         <v>0</v>
       </c>
       <c r="CV144" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CW144" s="1">
         <v>9</v>
@@ -49045,16 +49045,16 @@
         <v>255</v>
       </c>
       <c r="B156" s="1">
-        <v>7136</v>
+        <v>7178</v>
       </c>
       <c r="C156" s="2">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D156" s="2">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="E156" s="2">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="F156" s="1">
         <v>2</v>
@@ -49324,16 +49324,16 @@
         <v>0</v>
       </c>
       <c r="CT156" s="1">
-        <v>17864</v>
+        <v>17906</v>
       </c>
       <c r="CU156" s="1">
-        <v>672</v>
+        <v>714</v>
       </c>
       <c r="CV156" s="1">
-        <v>1075</v>
+        <v>1117</v>
       </c>
       <c r="CW156" s="1">
-        <v>1735</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="157" spans="1:101">
@@ -49359,7 +49359,7 @@
         <v>0</v>
       </c>
       <c r="H157" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I157" s="2">
         <v>8</v>
@@ -49626,7 +49626,7 @@
         <v>0</v>
       </c>
       <c r="CV157" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CW157" s="1">
         <v>8</v>
@@ -53213,16 +53213,16 @@
         <v>1</v>
       </c>
       <c r="J170" s="1">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="K170" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L170" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M170" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N170" s="1">
         <v>2580</v>
@@ -53468,16 +53468,16 @@
         <v>0</v>
       </c>
       <c r="CT170" s="1">
-        <v>5497</v>
+        <v>5505</v>
       </c>
       <c r="CU170" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="CV170" s="1">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="CW170" s="1">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="171" spans="1:101">
@@ -58535,7 +58535,7 @@
         <v>1</v>
       </c>
       <c r="H188" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" s="2">
         <v>5</v>
@@ -58802,7 +58802,7 @@
         <v>1</v>
       </c>
       <c r="CV188" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW188" s="1">
         <v>5</v>
@@ -60087,7 +60087,7 @@
         <v>0</v>
       </c>
       <c r="AF193" s="2">
-        <v>3772</v>
+        <v>3754</v>
       </c>
       <c r="AG193" s="2">
         <v>5675</v>
@@ -60282,7 +60282,7 @@
         <v>5</v>
       </c>
       <c r="CV193" s="1">
-        <v>3864</v>
+        <v>3846</v>
       </c>
       <c r="CW193" s="1">
         <v>5815</v>
@@ -60335,7 +60335,7 @@
         <v>1</v>
       </c>
       <c r="P194" s="2">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="Q194" s="2">
         <v>692</v>
@@ -60578,7 +60578,7 @@
         <v>15</v>
       </c>
       <c r="CV194" s="1">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="CW194" s="1">
         <v>808</v>
@@ -61612,7 +61612,7 @@
         <v>38</v>
       </c>
       <c r="AU198" s="2">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AV198" s="2">
         <v>38</v>
@@ -61624,7 +61624,7 @@
         <v>9</v>
       </c>
       <c r="AY198" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AZ198" s="2">
         <v>9</v>
@@ -61759,7 +61759,7 @@
         <v>14730</v>
       </c>
       <c r="CU198" s="1">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="CV198" s="1">
         <v>294</v>
@@ -63259,7 +63259,7 @@
         <v>2</v>
       </c>
       <c r="D204" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E204" s="2">
         <v>21</v>
@@ -63538,7 +63538,7 @@
         <v>5</v>
       </c>
       <c r="CV204" s="1">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="CW204" s="1">
         <v>53</v>
@@ -67148,7 +67148,7 @@
         <v>578</v>
       </c>
       <c r="D61">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E61" t="s">
         <v>709</v>
@@ -67408,7 +67408,7 @@
         <v>591</v>
       </c>
       <c r="D74">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="E74" t="s">
         <v>709</v>
@@ -69526,7 +69526,7 @@
         <v>681</v>
       </c>
       <c r="D179">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E179" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3461,16 +3461,16 @@
         <v>101</v>
       </c>
       <c r="B2" s="1">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="C2" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -3740,16 +3740,16 @@
         <v>0</v>
       </c>
       <c r="CT2" s="1">
-        <v>40008</v>
+        <v>40013</v>
       </c>
       <c r="CU2" s="1">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="CV2" s="1">
-        <v>1258</v>
+        <v>1263</v>
       </c>
       <c r="CW2" s="1">
-        <v>2763</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="3" spans="1:101">
@@ -4358,7 +4358,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>34</v>
@@ -4637,7 +4637,7 @@
         <v>4</v>
       </c>
       <c r="CW5" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:101">
@@ -5261,16 +5261,16 @@
         <v>3</v>
       </c>
       <c r="J8" s="1">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L8" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M8" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N8" s="1">
         <v>1424</v>
@@ -5516,16 +5516,16 @@
         <v>0</v>
       </c>
       <c r="CT8" s="1">
-        <v>2570</v>
+        <v>2575</v>
       </c>
       <c r="CU8" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="CV8" s="1">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="CW8" s="1">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:101">
@@ -7082,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>76</v>
@@ -7301,7 +7301,7 @@
         <v>146</v>
       </c>
       <c r="CW14" s="1">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:101">
@@ -7324,7 +7324,7 @@
         <v>45</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
@@ -7591,7 +7591,7 @@
         <v>710</v>
       </c>
       <c r="CU15" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="CV15" s="1">
         <v>36</v>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="CG33" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CH33" s="1">
         <v>177</v>
@@ -12925,7 +12925,7 @@
         <v>71</v>
       </c>
       <c r="CW33" s="1">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:101">
@@ -13851,7 +13851,7 @@
         <v>5</v>
       </c>
       <c r="L37" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M37" s="2">
         <v>17</v>
@@ -14106,7 +14106,7 @@
         <v>7</v>
       </c>
       <c r="CV37" s="1">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="CW37" s="1">
         <v>58</v>
@@ -14129,16 +14129,16 @@
         <v>6</v>
       </c>
       <c r="F38" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -14396,16 +14396,16 @@
         <v>0</v>
       </c>
       <c r="CT38" s="1">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="CU38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CW38" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:101">
@@ -18575,7 +18575,7 @@
         <v>2</v>
       </c>
       <c r="H53" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I53" s="2">
         <v>6</v>
@@ -18842,7 +18842,7 @@
         <v>3</v>
       </c>
       <c r="CV53" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CW53" s="1">
         <v>7</v>
@@ -18862,7 +18862,7 @@
         <v>29</v>
       </c>
       <c r="E54" s="2">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -19141,7 +19141,7 @@
         <v>211</v>
       </c>
       <c r="CW54" s="1">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55" spans="1:101">
@@ -19466,7 +19466,7 @@
         <v>2</v>
       </c>
       <c r="I56" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J56" s="1">
         <v>0</v>
@@ -19574,7 +19574,7 @@
         <v>0</v>
       </c>
       <c r="AS56" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT56" s="1">
         <v>0</v>
@@ -19709,7 +19709,7 @@
         <v>1</v>
       </c>
       <c r="CO56" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CP56" s="1">
         <v>0</v>
@@ -19733,7 +19733,7 @@
         <v>19</v>
       </c>
       <c r="CW56" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:101">
@@ -19864,7 +19864,7 @@
         <v>56</v>
       </c>
       <c r="AQ57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR57" s="2">
         <v>2</v>
@@ -19999,7 +19999,7 @@
         <v>52</v>
       </c>
       <c r="CM57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN57" s="2">
         <v>2</v>
@@ -20023,7 +20023,7 @@
         <v>706</v>
       </c>
       <c r="CU57" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CV57" s="1">
         <v>19</v>
@@ -20333,16 +20333,16 @@
         <v>158</v>
       </c>
       <c r="B59" s="1">
-        <v>6171</v>
+        <v>6220</v>
       </c>
       <c r="C59" s="2">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="D59" s="2">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="E59" s="2">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -20612,16 +20612,16 @@
         <v>0</v>
       </c>
       <c r="CT59" s="1">
-        <v>61699</v>
+        <v>61748</v>
       </c>
       <c r="CU59" s="1">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="CV59" s="1">
-        <v>2360</v>
+        <v>2411</v>
       </c>
       <c r="CW59" s="1">
-        <v>3162</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="60" spans="1:101">
@@ -20638,7 +20638,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F60" s="1">
         <v>24</v>
@@ -20650,7 +20650,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" s="1">
         <v>0</v>
@@ -20917,7 +20917,7 @@
         <v>0</v>
       </c>
       <c r="CW60" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:101">
@@ -21523,7 +21523,7 @@
         <v>29</v>
       </c>
       <c r="D63" s="2">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E63" s="2">
         <v>156</v>
@@ -21559,7 +21559,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="2">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="Q63" s="2">
         <v>2119</v>
@@ -21592,7 +21592,7 @@
         <v>88</v>
       </c>
       <c r="AA63" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB63" s="2">
         <v>10</v>
@@ -21799,10 +21799,10 @@
         <v>57566</v>
       </c>
       <c r="CU63" s="1">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="CV63" s="1">
-        <v>1288</v>
+        <v>1273</v>
       </c>
       <c r="CW63" s="1">
         <v>2508</v>
@@ -21819,7 +21819,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E64" s="2">
         <v>17</v>
@@ -22098,7 +22098,7 @@
         <v>18</v>
       </c>
       <c r="CV64" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CW64" s="1">
         <v>111</v>
@@ -23030,7 +23030,7 @@
         <v>3</v>
       </c>
       <c r="M68" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N68" s="1">
         <v>1175</v>
@@ -23285,7 +23285,7 @@
         <v>35</v>
       </c>
       <c r="CW68" s="1">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:101">
@@ -24226,7 +24226,7 @@
         <v>1106</v>
       </c>
       <c r="Q72" s="2">
-        <v>3159</v>
+        <v>2041</v>
       </c>
       <c r="R72" s="1">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>8</v>
       </c>
       <c r="AD72" s="1">
-        <v>13080</v>
+        <v>13073</v>
       </c>
       <c r="AE72" s="2">
-        <v>-7</v>
+        <v>-12</v>
       </c>
       <c r="AF72" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AG72" s="2">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="AH72" s="1">
         <v>0</v>
@@ -24424,16 +24424,16 @@
         <v>1</v>
       </c>
       <c r="CH72" s="1">
-        <v>15200</v>
+        <v>15201</v>
       </c>
       <c r="CI72" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="CJ72" s="2">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="CK72" s="2">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="CL72" s="1">
         <v>0</v>
@@ -24460,16 +24460,16 @@
         <v>2</v>
       </c>
       <c r="CT72" s="1">
-        <v>157091</v>
+        <v>157085</v>
       </c>
       <c r="CU72" s="1">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="CV72" s="1">
-        <v>2400</v>
+        <v>2384</v>
       </c>
       <c r="CW72" s="1">
-        <v>5986</v>
+        <v>4848</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -24489,16 +24489,16 @@
         <v>0</v>
       </c>
       <c r="F73" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G73" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H73" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I73" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J73" s="1">
         <v>0</v>
@@ -24756,16 +24756,16 @@
         <v>0</v>
       </c>
       <c r="CT73" s="1">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="CU73" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CV73" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="CW73" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:101">
@@ -24815,7 +24815,7 @@
         <v>47</v>
       </c>
       <c r="P74" s="2">
-        <v>2548</v>
+        <v>2532</v>
       </c>
       <c r="Q74" s="2">
         <v>5254</v>
@@ -25058,7 +25058,7 @@
         <v>95</v>
       </c>
       <c r="CV74" s="1">
-        <v>3269</v>
+        <v>3253</v>
       </c>
       <c r="CW74" s="1">
         <v>6892</v>
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="CH75" s="1">
-        <v>5670</v>
+        <v>5673</v>
       </c>
       <c r="CI75" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="CJ75" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="CK75" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="CL75" s="1">
         <v>97</v>
@@ -25348,16 +25348,16 @@
         <v>6</v>
       </c>
       <c r="CT75" s="1">
-        <v>345936</v>
+        <v>345939</v>
       </c>
       <c r="CU75" s="1">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="CV75" s="1">
-        <v>5028</v>
+        <v>5031</v>
       </c>
       <c r="CW75" s="1">
-        <v>11108</v>
+        <v>11111</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -25455,7 +25455,7 @@
         <v>0</v>
       </c>
       <c r="AF76" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG76" s="2">
         <v>327</v>
@@ -25650,7 +25650,7 @@
         <v>50</v>
       </c>
       <c r="CV76" s="1">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="CW76" s="1">
         <v>2245</v>
@@ -26379,10 +26379,10 @@
         <v>1</v>
       </c>
       <c r="AR79" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS79" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT79" s="1">
         <v>0</v>
@@ -26502,7 +26502,7 @@
         <v>0</v>
       </c>
       <c r="CJ79" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="CK79" s="2">
         <v>1</v>
@@ -26517,7 +26517,7 @@
         <v>2</v>
       </c>
       <c r="CO79" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CP79" s="1">
         <v>0</v>
@@ -26538,10 +26538,10 @@
         <v>3</v>
       </c>
       <c r="CV79" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="CW79" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:101">
@@ -26857,16 +26857,16 @@
         <v>0</v>
       </c>
       <c r="F81" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G81" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H81" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I81" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J81" s="1">
         <v>0</v>
@@ -27124,16 +27124,16 @@
         <v>0</v>
       </c>
       <c r="CT81" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="CU81" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CV81" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CW81" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:101">
@@ -27563,7 +27563,7 @@
         <v>0</v>
       </c>
       <c r="AR83" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS83" s="2">
         <v>3</v>
@@ -27686,7 +27686,7 @@
         <v>7</v>
       </c>
       <c r="CJ83" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="CK83" s="2">
         <v>23</v>
@@ -27722,7 +27722,7 @@
         <v>12</v>
       </c>
       <c r="CV83" s="1">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="CW83" s="1">
         <v>110</v>
@@ -30649,7 +30649,7 @@
         <v>24</v>
       </c>
       <c r="CK93" s="2">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="CL93" s="1">
         <v>16</v>
@@ -30685,7 +30685,7 @@
         <v>39</v>
       </c>
       <c r="CW93" s="1">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:101">
@@ -32215,7 +32215,7 @@
         <v>0</v>
       </c>
       <c r="P99" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q99" s="2">
         <v>525</v>
@@ -32458,7 +32458,7 @@
         <v>265</v>
       </c>
       <c r="CV99" s="1">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="CW99" s="1">
         <v>1995</v>
@@ -33357,16 +33357,16 @@
         <v>202</v>
       </c>
       <c r="B103" s="1">
-        <v>8099</v>
+        <v>8098</v>
       </c>
       <c r="C103" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D103" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E103" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F103" s="1">
         <v>0</v>
@@ -33603,7 +33603,7 @@
         <v>5567</v>
       </c>
       <c r="CI103" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CJ103" s="2">
         <v>176</v>
@@ -33636,16 +33636,16 @@
         <v>0</v>
       </c>
       <c r="CT103" s="1">
-        <v>83642</v>
+        <v>83641</v>
       </c>
       <c r="CU103" s="1">
         <v>5226</v>
       </c>
       <c r="CV103" s="1">
-        <v>11748</v>
+        <v>11747</v>
       </c>
       <c r="CW103" s="1">
-        <v>13786</v>
+        <v>13785</v>
       </c>
     </row>
     <row r="104" spans="1:101">
@@ -35456,7 +35456,7 @@
         <v>3729</v>
       </c>
       <c r="K110" s="2">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="L110" s="2">
         <v>123</v>
@@ -35675,7 +35675,7 @@
         <v>1108</v>
       </c>
       <c r="CI110" s="2">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="CJ110" s="2">
         <v>117</v>
@@ -35711,7 +35711,7 @@
         <v>140685</v>
       </c>
       <c r="CU110" s="1">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="CV110" s="1">
         <v>5291</v>
@@ -36613,16 +36613,16 @@
         <v>213</v>
       </c>
       <c r="B114" s="1">
-        <v>6920</v>
+        <v>6915</v>
       </c>
       <c r="C114" s="2">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D114" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E114" s="2">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F114" s="1">
         <v>0</v>
@@ -36892,16 +36892,16 @@
         <v>0</v>
       </c>
       <c r="CT114" s="1">
-        <v>10134</v>
+        <v>10129</v>
       </c>
       <c r="CU114" s="1">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="CV114" s="1">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="CW114" s="1">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="115" spans="1:101">
@@ -38392,7 +38392,7 @@
         <v>71</v>
       </c>
       <c r="C120" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D120" s="2">
         <v>4</v>
@@ -38671,7 +38671,7 @@
         <v>84</v>
       </c>
       <c r="CU120" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CV120" s="1">
         <v>4</v>
@@ -38880,16 +38880,16 @@
         <v>2</v>
       </c>
       <c r="BR121" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BS121" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT121" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU121" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV121" s="1">
         <v>0</v>
@@ -38964,16 +38964,16 @@
         <v>0</v>
       </c>
       <c r="CT121" s="1">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="CU121" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CV121" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CW121" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:101">
@@ -39588,7 +39588,7 @@
         <v>47</v>
       </c>
       <c r="G124" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124" s="2">
         <v>3</v>
@@ -39855,7 +39855,7 @@
         <v>547</v>
       </c>
       <c r="CU124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV124" s="1">
         <v>3</v>
@@ -39869,16 +39869,16 @@
         <v>224</v>
       </c>
       <c r="B125" s="1">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C125" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D125" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E125" s="2">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F125" s="1">
         <v>1</v>
@@ -40148,16 +40148,16 @@
         <v>0</v>
       </c>
       <c r="CT125" s="1">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="CU125" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CV125" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="CW125" s="1">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="126" spans="1:101">
@@ -40464,7 +40464,7 @@
         <v>174</v>
       </c>
       <c r="C127" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D127" s="2">
         <v>2</v>
@@ -40743,7 +40743,7 @@
         <v>2837</v>
       </c>
       <c r="CU127" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CV127" s="1">
         <v>89</v>
@@ -42330,7 +42330,7 @@
         <v>370</v>
       </c>
       <c r="AG133" s="2">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="AH133" s="1">
         <v>0</v>
@@ -42525,7 +42525,7 @@
         <v>1383</v>
       </c>
       <c r="CW133" s="1">
-        <v>2617</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="134" spans="1:101">
@@ -42578,7 +42578,7 @@
         <v>29</v>
       </c>
       <c r="Q134" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="R134" s="1">
         <v>10</v>
@@ -42821,7 +42821,7 @@
         <v>3921</v>
       </c>
       <c r="CW134" s="1">
-        <v>10338</v>
+        <v>10350</v>
       </c>
     </row>
     <row r="135" spans="1:101">
@@ -42955,10 +42955,10 @@
         <v>1</v>
       </c>
       <c r="AR135" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS135" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT135" s="1">
         <v>0</v>
@@ -43090,10 +43090,10 @@
         <v>1</v>
       </c>
       <c r="CN135" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO135" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CP135" s="1">
         <v>0</v>
@@ -43114,10 +43114,10 @@
         <v>12</v>
       </c>
       <c r="CV135" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="CW135" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="1:101">
@@ -46994,7 +46994,7 @@
         <v>4</v>
       </c>
       <c r="I149" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J149" s="1">
         <v>61</v>
@@ -47261,7 +47261,7 @@
         <v>23</v>
       </c>
       <c r="CW149" s="1">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="150" spans="1:101">
@@ -48157,16 +48157,16 @@
         <v>252</v>
       </c>
       <c r="B153" s="1">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C153" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D153" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E153" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F153" s="1">
         <v>17</v>
@@ -48436,16 +48436,16 @@
         <v>0</v>
       </c>
       <c r="CT153" s="1">
-        <v>2354</v>
+        <v>2356</v>
       </c>
       <c r="CU153" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CV153" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="CW153" s="1">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="154" spans="1:101">
@@ -48573,16 +48573,16 @@
         <v>5</v>
       </c>
       <c r="AP154" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AQ154" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR154" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS154" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT154" s="1">
         <v>2</v>
@@ -48732,16 +48732,16 @@
         <v>0</v>
       </c>
       <c r="CT154" s="1">
-        <v>64650</v>
+        <v>64651</v>
       </c>
       <c r="CU154" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="CV154" s="1">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="CW154" s="1">
-        <v>2162</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="155" spans="1:101">
@@ -49069,16 +49069,16 @@
         <v>0</v>
       </c>
       <c r="J156" s="1">
-        <v>5596</v>
+        <v>5607</v>
       </c>
       <c r="K156" s="2">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="L156" s="2">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="M156" s="2">
-        <v>859</v>
+        <v>870</v>
       </c>
       <c r="N156" s="1">
         <v>2601</v>
@@ -49324,16 +49324,16 @@
         <v>0</v>
       </c>
       <c r="CT156" s="1">
-        <v>17906</v>
+        <v>17917</v>
       </c>
       <c r="CU156" s="1">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="CV156" s="1">
-        <v>1117</v>
+        <v>1128</v>
       </c>
       <c r="CW156" s="1">
-        <v>1777</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="157" spans="1:101">
@@ -55997,16 +55997,16 @@
         <v>-6</v>
       </c>
       <c r="AX179" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY179" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ179" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA179" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB179" s="1">
         <v>4</v>
@@ -56132,16 +56132,16 @@
         <v>0</v>
       </c>
       <c r="CT179" s="1">
-        <v>42763</v>
+        <v>42764</v>
       </c>
       <c r="CU179" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="CV179" s="1">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="CW179" s="1">
-        <v>2915</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="180" spans="1:101">
@@ -56691,7 +56691,7 @@
         <v>109</v>
       </c>
       <c r="CI181" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="CJ181" s="2">
         <v>19</v>
@@ -56727,7 +56727,7 @@
         <v>201</v>
       </c>
       <c r="CU181" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CV181" s="1">
         <v>25</v>
@@ -58819,7 +58819,7 @@
         <v>0</v>
       </c>
       <c r="D189" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E189" s="2">
         <v>2</v>
@@ -58831,7 +58831,7 @@
         <v>0</v>
       </c>
       <c r="H189" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" s="2">
         <v>4</v>
@@ -59098,7 +59098,7 @@
         <v>3</v>
       </c>
       <c r="CV189" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CW189" s="1">
         <v>47</v>
@@ -59423,7 +59423,7 @@
         <v>2</v>
       </c>
       <c r="H191" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I191" s="2">
         <v>7</v>
@@ -59690,7 +59690,7 @@
         <v>2</v>
       </c>
       <c r="CV191" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="CW191" s="1">
         <v>7</v>
@@ -59701,16 +59701,16 @@
         <v>291</v>
       </c>
       <c r="B192" s="1">
-        <v>1425</v>
+        <v>1435</v>
       </c>
       <c r="C192" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D192" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E192" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F192" s="1">
         <v>0</v>
@@ -59980,16 +59980,16 @@
         <v>0</v>
       </c>
       <c r="CT192" s="1">
-        <v>28830</v>
+        <v>28840</v>
       </c>
       <c r="CU192" s="1">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="CV192" s="1">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="CW192" s="1">
-        <v>1472</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="193" spans="1:101">
@@ -60030,7 +60030,7 @@
         <v>2</v>
       </c>
       <c r="M193" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N193" s="1">
         <v>830</v>
@@ -60285,7 +60285,7 @@
         <v>3846</v>
       </c>
       <c r="CW193" s="1">
-        <v>5815</v>
+        <v>5812</v>
       </c>
     </row>
     <row r="194" spans="1:101">
@@ -61818,7 +61818,7 @@
         <v>477</v>
       </c>
       <c r="Q199" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="R199" s="1">
         <v>0</v>
@@ -62061,7 +62061,7 @@
         <v>3741</v>
       </c>
       <c r="CW199" s="1">
-        <v>6974</v>
+        <v>6976</v>
       </c>
     </row>
     <row r="200" spans="1:101">
@@ -64820,7 +64820,7 @@
         <v>2365</v>
       </c>
       <c r="AE209" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AF209" s="2">
         <v>123</v>
@@ -65015,7 +65015,7 @@
         <v>5090</v>
       </c>
       <c r="CU209" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="CV209" s="1">
         <v>231</v>
@@ -67188,7 +67188,7 @@
         <v>580</v>
       </c>
       <c r="D63">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E63" t="s">
         <v>709</v>
@@ -67448,7 +67448,7 @@
         <v>593</v>
       </c>
       <c r="D76">
-        <v>1066</v>
+        <v>1076</v>
       </c>
       <c r="E76" t="s">
         <v>709</v>
@@ -69526,7 +69526,7 @@
         <v>681</v>
       </c>
       <c r="D179">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E179" t="s">
         <v>709</v>
@@ -69826,7 +69826,7 @@
         <v>693</v>
       </c>
       <c r="D194">
-        <v>9734</v>
+        <v>9737</v>
       </c>
       <c r="E194" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -7321,16 +7321,16 @@
         <v>15</v>
       </c>
       <c r="F15" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1">
         <v>93</v>
@@ -7588,16 +7588,16 @@
         <v>0</v>
       </c>
       <c r="CT15" s="1">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="CU15" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CV15" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CW15" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:101">
@@ -7913,283 +7913,283 @@
         <v>2</v>
       </c>
       <c r="F17" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="2">
+        <v>4</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT17" s="1">
+        <v>153</v>
+      </c>
+      <c r="CU17" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV17" s="1">
         <v>3</v>
       </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17" s="2">
-        <v>0</v>
-      </c>
-      <c r="T17" s="2">
-        <v>0</v>
-      </c>
-      <c r="U17" s="2">
-        <v>0</v>
-      </c>
-      <c r="V17" s="1">
-        <v>0</v>
-      </c>
-      <c r="W17" s="2">
-        <v>0</v>
-      </c>
-      <c r="X17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY17" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ17" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA17" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB17" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC17" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD17" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE17" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF17" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG17" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH17" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI17" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ17" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK17" s="2">
-        <v>0</v>
-      </c>
-      <c r="CL17" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM17" s="2">
-        <v>0</v>
-      </c>
-      <c r="CN17" s="2">
-        <v>0</v>
-      </c>
-      <c r="CO17" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP17" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ17" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR17" s="2">
-        <v>0</v>
-      </c>
-      <c r="CS17" s="2">
-        <v>0</v>
-      </c>
-      <c r="CT17" s="1">
-        <v>152</v>
-      </c>
-      <c r="CU17" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV17" s="1">
-        <v>2</v>
-      </c>
       <c r="CW17" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:101">
@@ -14473,16 +14473,16 @@
         <v>0</v>
       </c>
       <c r="V39" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39" s="1">
         <v>95</v>
@@ -14692,16 +14692,16 @@
         <v>1</v>
       </c>
       <c r="CT39" s="1">
-        <v>51981</v>
+        <v>51982</v>
       </c>
       <c r="CU39" s="1">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CV39" s="1">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="CW39" s="1">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="40" spans="1:101">
@@ -17681,16 +17681,16 @@
         <v>3</v>
       </c>
       <c r="F50" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G50" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J50" s="1">
         <v>0</v>
@@ -17948,16 +17948,16 @@
         <v>0</v>
       </c>
       <c r="CT50" s="1">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="CU50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CV50" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CW50" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:101">
@@ -23021,16 +23021,16 @@
         <v>1</v>
       </c>
       <c r="J68" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K68" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L68" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M68" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N68" s="1">
         <v>1175</v>
@@ -23276,16 +23276,16 @@
         <v>0</v>
       </c>
       <c r="CT68" s="1">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="CU68" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CV68" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CW68" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:101">
@@ -24271,7 +24271,7 @@
         <v>-12</v>
       </c>
       <c r="AF72" s="2">
-        <v>433</v>
+        <v>331</v>
       </c>
       <c r="AG72" s="2">
         <v>1194</v>
@@ -24466,7 +24466,7 @@
         <v>239</v>
       </c>
       <c r="CV72" s="1">
-        <v>2384</v>
+        <v>2282</v>
       </c>
       <c r="CW72" s="1">
         <v>4848</v>
@@ -24815,7 +24815,7 @@
         <v>47</v>
       </c>
       <c r="P74" s="2">
-        <v>2532</v>
+        <v>2528</v>
       </c>
       <c r="Q74" s="2">
         <v>5254</v>
@@ -25058,7 +25058,7 @@
         <v>95</v>
       </c>
       <c r="CV74" s="1">
-        <v>3253</v>
+        <v>3249</v>
       </c>
       <c r="CW74" s="1">
         <v>6892</v>
@@ -25183,7 +25183,7 @@
         <v>12</v>
       </c>
       <c r="AN75" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO75" s="2">
         <v>94</v>
@@ -25195,7 +25195,7 @@
         <v>2</v>
       </c>
       <c r="AR75" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS75" s="2">
         <v>6</v>
@@ -25354,7 +25354,7 @@
         <v>218</v>
       </c>
       <c r="CV75" s="1">
-        <v>5031</v>
+        <v>5029</v>
       </c>
       <c r="CW75" s="1">
         <v>11111</v>
@@ -25769,16 +25769,16 @@
         <v>0</v>
       </c>
       <c r="AL77" s="1">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="AM77" s="2">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AN77" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AO77" s="2">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="AP77" s="1">
         <v>0</v>
@@ -25904,16 +25904,16 @@
         <v>1</v>
       </c>
       <c r="CH77" s="1">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="CI77" s="2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="CJ77" s="2">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="CK77" s="2">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="CL77" s="1">
         <v>0</v>
@@ -25940,16 +25940,16 @@
         <v>0</v>
       </c>
       <c r="CT77" s="1">
-        <v>783</v>
+        <v>854</v>
       </c>
       <c r="CU77" s="1">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="CV77" s="1">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="CW77" s="1">
-        <v>254</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:101">
@@ -25963,7 +25963,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E78" s="2">
         <v>14</v>
@@ -26242,7 +26242,7 @@
         <v>4</v>
       </c>
       <c r="CV78" s="1">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="CW78" s="1">
         <v>191</v>
@@ -26591,7 +26591,7 @@
         <v>0</v>
       </c>
       <c r="P80" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Q80" s="2">
         <v>903</v>
@@ -26690,7 +26690,7 @@
         <v>1</v>
       </c>
       <c r="AW80" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX80" s="1">
         <v>12</v>
@@ -26834,10 +26834,10 @@
         <v>1234</v>
       </c>
       <c r="CV80" s="1">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="CW80" s="1">
-        <v>33007</v>
+        <v>33005</v>
       </c>
     </row>
     <row r="81" spans="1:101">
@@ -27590,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="BA83" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BB83" s="1">
         <v>20</v>
@@ -27725,7 +27725,7 @@
         <v>58</v>
       </c>
       <c r="CW83" s="1">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:101">
@@ -30409,16 +30409,16 @@
         <v>6</v>
       </c>
       <c r="F93" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G93" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I93" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J93" s="1">
         <v>5</v>
@@ -30640,16 +30640,16 @@
         <v>0</v>
       </c>
       <c r="CH93" s="1">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="CI93" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="CJ93" s="2">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="CK93" s="2">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="CL93" s="1">
         <v>16</v>
@@ -30676,16 +30676,16 @@
         <v>0</v>
       </c>
       <c r="CT93" s="1">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="CU93" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="CV93" s="1">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="CW93" s="1">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:101">
@@ -33671,7 +33671,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" s="2">
         <v>3</v>
@@ -33938,7 +33938,7 @@
         <v>0</v>
       </c>
       <c r="CV104" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CW104" s="1">
         <v>4</v>
@@ -36317,16 +36317,16 @@
         <v>212</v>
       </c>
       <c r="B113" s="1">
-        <v>4017</v>
+        <v>4031</v>
       </c>
       <c r="C113" s="2">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D113" s="2">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E113" s="2">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F113" s="1">
         <v>0</v>
@@ -36596,16 +36596,16 @@
         <v>0</v>
       </c>
       <c r="CT113" s="1">
-        <v>18463</v>
+        <v>18477</v>
       </c>
       <c r="CU113" s="1">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="CV113" s="1">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="CW113" s="1">
-        <v>971</v>
+        <v>985</v>
       </c>
     </row>
     <row r="114" spans="1:101">
@@ -36697,16 +36697,16 @@
         <v>0</v>
       </c>
       <c r="AD114" s="1">
-        <v>285</v>
+        <v>340</v>
       </c>
       <c r="AE114" s="2">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF114" s="2">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AG114" s="2">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AH114" s="1">
         <v>0</v>
@@ -36892,16 +36892,16 @@
         <v>0</v>
       </c>
       <c r="CT114" s="1">
-        <v>10129</v>
+        <v>10184</v>
       </c>
       <c r="CU114" s="1">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="CV114" s="1">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="CW114" s="1">
-        <v>811</v>
+        <v>866</v>
       </c>
     </row>
     <row r="115" spans="1:101">
@@ -36909,16 +36909,16 @@
         <v>214</v>
       </c>
       <c r="B115" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C115" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F115" s="1">
         <v>56</v>
@@ -37188,16 +37188,16 @@
         <v>0</v>
       </c>
       <c r="CT115" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="CU115" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CV115" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CW115" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:101">
@@ -42835,7 +42835,7 @@
         <v>10</v>
       </c>
       <c r="D135" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E135" s="2">
         <v>29</v>
@@ -43114,7 +43114,7 @@
         <v>12</v>
       </c>
       <c r="CV135" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CW135" s="1">
         <v>44</v>
@@ -44842,7 +44842,7 @@
         <v>0</v>
       </c>
       <c r="CF141" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG141" s="2">
         <v>1</v>
@@ -44890,7 +44890,7 @@
         <v>3</v>
       </c>
       <c r="CV141" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CW141" s="1">
         <v>22</v>
@@ -44907,7 +44907,7 @@
         <v>2</v>
       </c>
       <c r="D142" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E142" s="2">
         <v>15</v>
@@ -45186,7 +45186,7 @@
         <v>4</v>
       </c>
       <c r="CV142" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CW142" s="1">
         <v>45</v>
@@ -49069,16 +49069,16 @@
         <v>0</v>
       </c>
       <c r="J156" s="1">
-        <v>5607</v>
+        <v>5609</v>
       </c>
       <c r="K156" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L156" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="M156" s="2">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="N156" s="1">
         <v>2601</v>
@@ -49324,16 +49324,16 @@
         <v>0</v>
       </c>
       <c r="CT156" s="1">
-        <v>17917</v>
+        <v>17919</v>
       </c>
       <c r="CU156" s="1">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="CV156" s="1">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="CW156" s="1">
-        <v>1788</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="157" spans="1:101">
@@ -51419,7 +51419,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E164" s="2">
         <v>2</v>
@@ -51698,7 +51698,7 @@
         <v>2</v>
       </c>
       <c r="CV164" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW164" s="1">
         <v>5</v>
@@ -52917,16 +52917,16 @@
         <v>0</v>
       </c>
       <c r="J169" s="1">
-        <v>5263</v>
+        <v>5262</v>
       </c>
       <c r="K169" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L169" s="2">
         <v>200</v>
       </c>
       <c r="M169" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N169" s="1">
         <v>2358</v>
@@ -53172,16 +53172,16 @@
         <v>0</v>
       </c>
       <c r="CT169" s="1">
-        <v>16089</v>
+        <v>16088</v>
       </c>
       <c r="CU169" s="1">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="CV169" s="1">
         <v>596</v>
       </c>
       <c r="CW169" s="1">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="170" spans="1:101">
@@ -56559,7 +56559,7 @@
         <v>0</v>
       </c>
       <c r="AN181" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO181" s="2">
         <v>3</v>
@@ -56694,7 +56694,7 @@
         <v>4</v>
       </c>
       <c r="CJ181" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="CK181" s="2">
         <v>30</v>
@@ -56730,7 +56730,7 @@
         <v>7</v>
       </c>
       <c r="CV181" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="CW181" s="1">
         <v>43</v>
@@ -61199,7 +61199,7 @@
         <v>0</v>
       </c>
       <c r="H197" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I197" s="2">
         <v>5</v>
@@ -61466,7 +61466,7 @@
         <v>0</v>
       </c>
       <c r="CV197" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW197" s="1">
         <v>5</v>
@@ -63549,16 +63549,16 @@
         <v>304</v>
       </c>
       <c r="B205" s="1">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C205" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D205" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E205" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F205" s="1">
         <v>1</v>
@@ -63828,16 +63828,16 @@
         <v>0</v>
       </c>
       <c r="CT205" s="1">
-        <v>12444</v>
+        <v>12443</v>
       </c>
       <c r="CU205" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="CV205" s="1">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="CW205" s="1">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="206" spans="1:101">
@@ -67188,7 +67188,7 @@
         <v>580</v>
       </c>
       <c r="D63">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E63" t="s">
         <v>709</v>
@@ -67448,7 +67448,7 @@
         <v>593</v>
       </c>
       <c r="D76">
-        <v>1076</v>
+        <v>1094</v>
       </c>
       <c r="E76" t="s">
         <v>709</v>
@@ -68797,7 +68797,7 @@
         <v>651</v>
       </c>
       <c r="D143">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E143" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -7339,7 +7339,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
         <v>9</v>
@@ -7594,7 +7594,7 @@
         <v>20</v>
       </c>
       <c r="CV15" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="CW15" s="1">
         <v>75</v>
@@ -11770,7 +11770,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" s="1">
         <v>1169</v>
@@ -12037,7 +12037,7 @@
         <v>204</v>
       </c>
       <c r="CW30" s="1">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:101">
@@ -12652,7 +12652,7 @@
         <v>50</v>
       </c>
       <c r="G33" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" s="2">
         <v>5</v>
@@ -12682,7 +12682,7 @@
         <v>25</v>
       </c>
       <c r="Q33" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R33" s="1">
         <v>1</v>
@@ -12919,13 +12919,13 @@
         <v>2159</v>
       </c>
       <c r="CU33" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="CV33" s="1">
         <v>71</v>
       </c>
       <c r="CW33" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:101">
@@ -14712,7 +14712,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D40" s="2">
         <v>4</v>
@@ -14724,7 +14724,7 @@
         <v>35</v>
       </c>
       <c r="G40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="2">
         <v>1</v>
@@ -14991,7 +14991,7 @@
         <v>467</v>
       </c>
       <c r="CU40" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV40" s="1">
         <v>44</v>
@@ -17092,7 +17092,7 @@
         <v>42</v>
       </c>
       <c r="G48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" s="2">
         <v>3</v>
@@ -17359,7 +17359,7 @@
         <v>109</v>
       </c>
       <c r="CU48" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CV48" s="1">
         <v>6</v>
@@ -19164,7 +19164,7 @@
         <v>40</v>
       </c>
       <c r="G55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="2">
         <v>2</v>
@@ -19431,7 +19431,7 @@
         <v>45</v>
       </c>
       <c r="CU55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV55" s="1">
         <v>2</v>
@@ -20336,7 +20336,7 @@
         <v>6220</v>
       </c>
       <c r="C59" s="2">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="D59" s="2">
         <v>141</v>
@@ -20369,16 +20369,16 @@
         <v>118</v>
       </c>
       <c r="N59" s="1">
-        <v>42074</v>
+        <v>42075</v>
       </c>
       <c r="O59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="Q59" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="R59" s="1">
         <v>0</v>
@@ -20612,16 +20612,16 @@
         <v>0</v>
       </c>
       <c r="CT59" s="1">
-        <v>61748</v>
+        <v>61749</v>
       </c>
       <c r="CU59" s="1">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="CV59" s="1">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="CW59" s="1">
-        <v>3211</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="60" spans="1:101">
@@ -21168,16 +21168,16 @@
         <v>1</v>
       </c>
       <c r="CH61" s="1">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="CI61" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="CJ61" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="CK61" s="2">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="CL61" s="1">
         <v>22</v>
@@ -21204,16 +21204,16 @@
         <v>0</v>
       </c>
       <c r="CT61" s="1">
-        <v>2251</v>
+        <v>2263</v>
       </c>
       <c r="CU61" s="1">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="CV61" s="1">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="CW61" s="1">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:101">
@@ -21314,7 +21314,7 @@
         <v>21</v>
       </c>
       <c r="AG62" s="2">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AH62" s="1">
         <v>0</v>
@@ -21509,7 +21509,7 @@
         <v>151</v>
       </c>
       <c r="CW62" s="1">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:101">
@@ -21520,7 +21520,7 @@
         <v>3353</v>
       </c>
       <c r="C63" s="2">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D63" s="2">
         <v>55</v>
@@ -21799,7 +21799,7 @@
         <v>57566</v>
       </c>
       <c r="CU63" s="1">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="CV63" s="1">
         <v>1273</v>
@@ -22118,7 +22118,7 @@
         <v>52</v>
       </c>
       <c r="E65" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -22397,7 +22397,7 @@
         <v>79</v>
       </c>
       <c r="CW65" s="1">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:101">
@@ -22438,7 +22438,7 @@
         <v>4</v>
       </c>
       <c r="M66" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N66" s="1">
         <v>922</v>
@@ -22693,7 +22693,7 @@
         <v>55</v>
       </c>
       <c r="CW66" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:101">
@@ -24298,7 +24298,7 @@
         <v>132</v>
       </c>
       <c r="AO72" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AP72" s="1">
         <v>0</v>
@@ -24430,10 +24430,10 @@
         <v>48</v>
       </c>
       <c r="CJ72" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="CK72" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="CL72" s="1">
         <v>0</v>
@@ -24466,7 +24466,7 @@
         <v>239</v>
       </c>
       <c r="CV72" s="1">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="CW72" s="1">
         <v>4848</v>
@@ -24815,7 +24815,7 @@
         <v>47</v>
       </c>
       <c r="P74" s="2">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="Q74" s="2">
         <v>5254</v>
@@ -25058,7 +25058,7 @@
         <v>95</v>
       </c>
       <c r="CV74" s="1">
-        <v>3249</v>
+        <v>3247</v>
       </c>
       <c r="CW74" s="1">
         <v>6892</v>
@@ -25204,7 +25204,7 @@
         <v>25</v>
       </c>
       <c r="AU75" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV75" s="2">
         <v>1</v>
@@ -25351,7 +25351,7 @@
         <v>345939</v>
       </c>
       <c r="CU75" s="1">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="CV75" s="1">
         <v>5029</v>
@@ -25966,7 +25966,7 @@
         <v>5</v>
       </c>
       <c r="E78" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F78" s="1">
         <v>4</v>
@@ -26245,7 +26245,7 @@
         <v>125</v>
       </c>
       <c r="CW78" s="1">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:101">
@@ -26594,7 +26594,7 @@
         <v>435</v>
       </c>
       <c r="Q80" s="2">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="R80" s="1">
         <v>0</v>
@@ -26633,16 +26633,16 @@
         <v>5</v>
       </c>
       <c r="AD80" s="1">
-        <v>313806</v>
+        <v>313775</v>
       </c>
       <c r="AE80" s="2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="AF80" s="2">
-        <v>616</v>
+        <v>585</v>
       </c>
       <c r="AG80" s="2">
-        <v>29652</v>
+        <v>29621</v>
       </c>
       <c r="AH80" s="1">
         <v>0</v>
@@ -26828,16 +26828,16 @@
         <v>0</v>
       </c>
       <c r="CT80" s="1">
-        <v>378899</v>
+        <v>378868</v>
       </c>
       <c r="CU80" s="1">
-        <v>1234</v>
+        <v>1203</v>
       </c>
       <c r="CV80" s="1">
-        <v>2802</v>
+        <v>2771</v>
       </c>
       <c r="CW80" s="1">
-        <v>33005</v>
+        <v>32970</v>
       </c>
     </row>
     <row r="81" spans="1:101">
@@ -27252,7 +27252,7 @@
         <v>3</v>
       </c>
       <c r="AM82" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN82" s="2">
         <v>2</v>
@@ -27264,7 +27264,7 @@
         <v>7</v>
       </c>
       <c r="AQ82" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AR82" s="2">
         <v>7</v>
@@ -27387,7 +27387,7 @@
         <v>109</v>
       </c>
       <c r="CI82" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="CJ82" s="2">
         <v>28</v>
@@ -27423,7 +27423,7 @@
         <v>206</v>
       </c>
       <c r="CU82" s="1">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="CV82" s="1">
         <v>40</v>
@@ -28642,7 +28642,7 @@
         <v>2</v>
       </c>
       <c r="I87" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J87" s="1">
         <v>0</v>
@@ -28909,7 +28909,7 @@
         <v>4</v>
       </c>
       <c r="CW87" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:101">
@@ -30412,7 +30412,7 @@
         <v>32</v>
       </c>
       <c r="G93" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93" s="2">
         <v>3</v>
@@ -30679,7 +30679,7 @@
         <v>744</v>
       </c>
       <c r="CU93" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="CV93" s="1">
         <v>55</v>
@@ -31010,7 +31010,7 @@
         <v>2</v>
       </c>
       <c r="I95" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J95" s="1">
         <v>0</v>
@@ -31277,7 +31277,7 @@
         <v>2</v>
       </c>
       <c r="CW95" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:101">
@@ -31898,7 +31898,7 @@
         <v>3</v>
       </c>
       <c r="I98" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J98" s="1">
         <v>0</v>
@@ -32165,7 +32165,7 @@
         <v>3</v>
       </c>
       <c r="CW98" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:101">
@@ -33991,7 +33991,7 @@
         <v>0</v>
       </c>
       <c r="P105" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Q105" s="2">
         <v>26</v>
@@ -34234,7 +34234,7 @@
         <v>5</v>
       </c>
       <c r="CV105" s="1">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="CW105" s="1">
         <v>72</v>
@@ -35453,16 +35453,16 @@
         <v>0</v>
       </c>
       <c r="J110" s="1">
-        <v>3729</v>
+        <v>3769</v>
       </c>
       <c r="K110" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L110" s="2">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="M110" s="2">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="N110" s="1">
         <v>6754</v>
@@ -35708,16 +35708,16 @@
         <v>0</v>
       </c>
       <c r="CT110" s="1">
-        <v>140685</v>
+        <v>140725</v>
       </c>
       <c r="CU110" s="1">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="CV110" s="1">
-        <v>5291</v>
+        <v>5331</v>
       </c>
       <c r="CW110" s="1">
-        <v>10686</v>
+        <v>10726</v>
       </c>
     </row>
     <row r="111" spans="1:101">
@@ -36649,16 +36649,16 @@
         <v>11</v>
       </c>
       <c r="N114" s="1">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="O114" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P114" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q114" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R114" s="1">
         <v>0</v>
@@ -36697,16 +36697,16 @@
         <v>0</v>
       </c>
       <c r="AD114" s="1">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="AE114" s="2">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="AF114" s="2">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="AG114" s="2">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="AH114" s="1">
         <v>0</v>
@@ -36892,16 +36892,16 @@
         <v>0</v>
       </c>
       <c r="CT114" s="1">
-        <v>10184</v>
+        <v>10213</v>
       </c>
       <c r="CU114" s="1">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="CV114" s="1">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="CW114" s="1">
-        <v>866</v>
+        <v>895</v>
       </c>
     </row>
     <row r="115" spans="1:101">
@@ -40186,7 +40186,7 @@
         <v>2</v>
       </c>
       <c r="I126" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J126" s="1">
         <v>0</v>
@@ -40453,7 +40453,7 @@
         <v>4</v>
       </c>
       <c r="CW126" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:101">
@@ -42312,7 +42312,7 @@
         <v>99</v>
       </c>
       <c r="AA133" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB133" s="2">
         <v>4</v>
@@ -42324,13 +42324,13 @@
         <v>9249</v>
       </c>
       <c r="AE133" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF133" s="2">
         <v>370</v>
       </c>
       <c r="AG133" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AH133" s="1">
         <v>0</v>
@@ -42519,13 +42519,13 @@
         <v>54442</v>
       </c>
       <c r="CU133" s="1">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="CV133" s="1">
         <v>1383</v>
       </c>
       <c r="CW133" s="1">
-        <v>2601</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="134" spans="1:101">
@@ -42536,7 +42536,7 @@
         <v>110</v>
       </c>
       <c r="C134" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D134" s="2">
         <v>4</v>
@@ -42815,7 +42815,7 @@
         <v>138006</v>
       </c>
       <c r="CU134" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CV134" s="1">
         <v>3921</v>
@@ -42949,16 +42949,16 @@
         <v>0</v>
       </c>
       <c r="AP135" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AQ135" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR135" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS135" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT135" s="1">
         <v>0</v>
@@ -43084,16 +43084,16 @@
         <v>1</v>
       </c>
       <c r="CL135" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CM135" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CN135" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CO135" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CP135" s="1">
         <v>0</v>
@@ -43108,16 +43108,16 @@
         <v>0</v>
       </c>
       <c r="CT135" s="1">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="CU135" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CV135" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CW135" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:101">
@@ -43125,28 +43125,28 @@
         <v>235</v>
       </c>
       <c r="B136" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C136" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D136" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G136" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H136" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I136" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J136" s="1">
         <v>976</v>
@@ -43404,16 +43404,16 @@
         <v>0</v>
       </c>
       <c r="CT136" s="1">
-        <v>3674</v>
+        <v>3681</v>
       </c>
       <c r="CU136" s="1">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="CV136" s="1">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="CW136" s="1">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="137" spans="1:101">
@@ -45096,16 +45096,16 @@
         <v>0</v>
       </c>
       <c r="BR142" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS142" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT142" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU142" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV142" s="1">
         <v>0</v>
@@ -45180,16 +45180,16 @@
         <v>0</v>
       </c>
       <c r="CT142" s="1">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="CU142" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CV142" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CW142" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="143" spans="1:101">
@@ -45341,16 +45341,16 @@
         <v>0</v>
       </c>
       <c r="AX143" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY143" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ143" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA143" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB143" s="1">
         <v>0</v>
@@ -45476,16 +45476,16 @@
         <v>0</v>
       </c>
       <c r="CT143" s="1">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="CU143" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CV143" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="CW143" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:101">
@@ -46088,7 +46088,7 @@
         <v>321</v>
       </c>
       <c r="C146" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D146" s="2">
         <v>4</v>
@@ -46367,7 +46367,7 @@
         <v>4859</v>
       </c>
       <c r="CU146" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="CV146" s="1">
         <v>145</v>
@@ -47006,7 +47006,7 @@
         <v>5</v>
       </c>
       <c r="M149" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N149" s="1">
         <v>0</v>
@@ -47261,7 +47261,7 @@
         <v>23</v>
       </c>
       <c r="CW149" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150" spans="1:101">
@@ -47284,7 +47284,7 @@
         <v>17</v>
       </c>
       <c r="G150" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150" s="2">
         <v>10</v>
@@ -47293,16 +47293,16 @@
         <v>10</v>
       </c>
       <c r="J150" s="1">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="K150" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L150" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M150" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N150" s="1">
         <v>105</v>
@@ -47548,16 +47548,16 @@
         <v>0</v>
       </c>
       <c r="CT150" s="1">
-        <v>2053</v>
+        <v>2062</v>
       </c>
       <c r="CU150" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="CV150" s="1">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="CW150" s="1">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:101">
@@ -51132,7 +51132,7 @@
         <v>41</v>
       </c>
       <c r="G163" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163" s="2">
         <v>2</v>
@@ -51399,7 +51399,7 @@
         <v>652</v>
       </c>
       <c r="CU163" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CV163" s="1">
         <v>20</v>
@@ -51428,7 +51428,7 @@
         <v>42</v>
       </c>
       <c r="G164" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164" s="2">
         <v>1</v>
@@ -51695,7 +51695,7 @@
         <v>59</v>
       </c>
       <c r="CU164" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CV164" s="1">
         <v>2</v>
@@ -51739,7 +51739,7 @@
         <v>19</v>
       </c>
       <c r="L165" s="2">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="M165" s="2">
         <v>137</v>
@@ -51994,7 +51994,7 @@
         <v>28</v>
       </c>
       <c r="CV165" s="1">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="CW165" s="1">
         <v>234</v>
@@ -52448,7 +52448,7 @@
         <v>5</v>
       </c>
       <c r="AY167" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ167" s="2">
         <v>2</v>
@@ -52583,7 +52583,7 @@
         <v>4589</v>
       </c>
       <c r="CU167" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="CV167" s="1">
         <v>203</v>
@@ -52600,7 +52600,7 @@
         <v>12</v>
       </c>
       <c r="C168" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D168" s="2">
         <v>1</v>
@@ -52612,7 +52612,7 @@
         <v>30</v>
       </c>
       <c r="G168" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168" s="2">
         <v>1</v>
@@ -52879,7 +52879,7 @@
         <v>202</v>
       </c>
       <c r="CU168" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="CV168" s="1">
         <v>73</v>
@@ -54200,7 +54200,7 @@
         <v>92</v>
       </c>
       <c r="AQ173" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR173" s="2">
         <v>4</v>
@@ -54335,7 +54335,7 @@
         <v>65</v>
       </c>
       <c r="CM173" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN173" s="2">
         <v>3</v>
@@ -54359,7 +54359,7 @@
         <v>396</v>
       </c>
       <c r="CU173" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CV173" s="1">
         <v>27</v>
@@ -55560,7 +55560,7 @@
         <v>34</v>
       </c>
       <c r="C178" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D178" s="2">
         <v>6</v>
@@ -55671,7 +55671,7 @@
         <v>0</v>
       </c>
       <c r="AN178" s="2">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="AO178" s="2">
         <v>252</v>
@@ -55806,7 +55806,7 @@
         <v>0</v>
       </c>
       <c r="CJ178" s="2">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="CK178" s="2">
         <v>113</v>
@@ -55839,10 +55839,10 @@
         <v>593</v>
       </c>
       <c r="CU178" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CV178" s="1">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="CW178" s="1">
         <v>381</v>
@@ -55859,10 +55859,10 @@
         <v>74</v>
       </c>
       <c r="D179" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E179" s="2">
-        <v>475</v>
+        <v>389</v>
       </c>
       <c r="F179" s="1">
         <v>1</v>
@@ -56138,10 +56138,10 @@
         <v>124</v>
       </c>
       <c r="CV179" s="1">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="CW179" s="1">
-        <v>2916</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="180" spans="1:101">
@@ -56164,7 +56164,7 @@
         <v>53</v>
       </c>
       <c r="G180" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H180" s="2">
         <v>3</v>
@@ -56431,7 +56431,7 @@
         <v>61</v>
       </c>
       <c r="CU180" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CV180" s="1">
         <v>3</v>
@@ -59815,7 +59815,7 @@
         <v>0</v>
       </c>
       <c r="AN192" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO192" s="2">
         <v>2</v>
@@ -59950,7 +59950,7 @@
         <v>5</v>
       </c>
       <c r="CJ192" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="CK192" s="2">
         <v>24</v>
@@ -59986,7 +59986,7 @@
         <v>29</v>
       </c>
       <c r="CV192" s="1">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="CW192" s="1">
         <v>1482</v>
@@ -60335,7 +60335,7 @@
         <v>1</v>
       </c>
       <c r="P194" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q194" s="2">
         <v>692</v>
@@ -60578,7 +60578,7 @@
         <v>15</v>
       </c>
       <c r="CV194" s="1">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="CW194" s="1">
         <v>808</v>
@@ -63256,7 +63256,7 @@
         <v>524</v>
       </c>
       <c r="C204" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D204" s="2">
         <v>6</v>
@@ -63535,7 +63535,7 @@
         <v>1301</v>
       </c>
       <c r="CU204" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CV204" s="1">
         <v>27</v>
@@ -63624,7 +63624,7 @@
         <v>71</v>
       </c>
       <c r="AA205" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB205" s="2">
         <v>3</v>
@@ -63831,7 +63831,7 @@
         <v>12443</v>
       </c>
       <c r="CU205" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="CV205" s="1">
         <v>172</v>
@@ -64820,7 +64820,7 @@
         <v>2365</v>
       </c>
       <c r="AE209" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF209" s="2">
         <v>123</v>
@@ -65015,7 +65015,7 @@
         <v>5090</v>
       </c>
       <c r="CU209" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CV209" s="1">
         <v>231</v>
@@ -65636,7 +65636,7 @@
         <v>53</v>
       </c>
       <c r="G212" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H212" s="2">
         <v>10</v>
@@ -65867,7 +65867,7 @@
         <v>68</v>
       </c>
       <c r="CI212" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CJ212" s="2">
         <v>9</v>
@@ -65879,7 +65879,7 @@
         <v>14</v>
       </c>
       <c r="CM212" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN212" s="2">
         <v>1</v>
@@ -65903,7 +65903,7 @@
         <v>147</v>
       </c>
       <c r="CU212" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="CV212" s="1">
         <v>23</v>
@@ -67448,7 +67448,7 @@
         <v>593</v>
       </c>
       <c r="D76">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E76" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -7333,16 +7333,16 @@
         <v>2</v>
       </c>
       <c r="J15" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N15" s="1">
         <v>219</v>
@@ -7588,16 +7588,16 @@
         <v>0</v>
       </c>
       <c r="CT15" s="1">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="CU15" s="1">
         <v>20</v>
       </c>
       <c r="CV15" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CW15" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:101">
@@ -14680,28 +14680,28 @@
         <v>0</v>
       </c>
       <c r="CP39" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CQ39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS39" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CT39" s="1">
-        <v>51982</v>
+        <v>51983</v>
       </c>
       <c r="CU39" s="1">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CV39" s="1">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="CW39" s="1">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="40" spans="1:101">
@@ -17672,7 +17672,7 @@
         <v>27</v>
       </c>
       <c r="C50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -17684,7 +17684,7 @@
         <v>26</v>
       </c>
       <c r="G50" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" s="2">
         <v>2</v>
@@ -17951,7 +17951,7 @@
         <v>174</v>
       </c>
       <c r="CU50" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CV50" s="1">
         <v>34</v>
@@ -18560,7 +18560,7 @@
         <v>134</v>
       </c>
       <c r="C53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="2">
         <v>1</v>
@@ -18572,7 +18572,7 @@
         <v>47</v>
       </c>
       <c r="G53" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H53" s="2">
         <v>2</v>
@@ -18839,7 +18839,7 @@
         <v>181</v>
       </c>
       <c r="CU53" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CV53" s="1">
         <v>3</v>
@@ -22429,16 +22429,16 @@
         <v>1</v>
       </c>
       <c r="J66" s="1">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K66" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L66" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M66" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N66" s="1">
         <v>922</v>
@@ -22684,16 +22684,16 @@
         <v>0</v>
       </c>
       <c r="CT66" s="1">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="CU66" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CV66" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="CW66" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:101">
@@ -23183,7 +23183,7 @@
         <v>9</v>
       </c>
       <c r="BO68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP68" s="2">
         <v>1</v>
@@ -23279,7 +23279,7 @@
         <v>2060</v>
       </c>
       <c r="CU68" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CV68" s="1">
         <v>36</v>
@@ -24265,16 +24265,16 @@
         <v>8</v>
       </c>
       <c r="AD72" s="1">
-        <v>13073</v>
+        <v>13015</v>
       </c>
       <c r="AE72" s="2">
-        <v>-12</v>
+        <v>-70</v>
       </c>
       <c r="AF72" s="2">
-        <v>331</v>
+        <v>273</v>
       </c>
       <c r="AG72" s="2">
-        <v>1194</v>
+        <v>1136</v>
       </c>
       <c r="AH72" s="1">
         <v>0</v>
@@ -24460,16 +24460,16 @@
         <v>2</v>
       </c>
       <c r="CT72" s="1">
-        <v>157085</v>
+        <v>157027</v>
       </c>
       <c r="CU72" s="1">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="CV72" s="1">
-        <v>2280</v>
+        <v>2222</v>
       </c>
       <c r="CW72" s="1">
-        <v>4848</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -24812,7 +24812,7 @@
         <v>107735</v>
       </c>
       <c r="O74" s="2">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="P74" s="2">
         <v>2526</v>
@@ -25055,7 +25055,7 @@
         <v>136910</v>
       </c>
       <c r="CU74" s="1">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="CV74" s="1">
         <v>3247</v>
@@ -25144,7 +25144,7 @@
         <v>108</v>
       </c>
       <c r="AA75" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB75" s="2">
         <v>4</v>
@@ -25351,7 +25351,7 @@
         <v>345939</v>
       </c>
       <c r="CU75" s="1">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="CV75" s="1">
         <v>5029</v>
@@ -25368,7 +25368,7 @@
         <v>4057</v>
       </c>
       <c r="C76" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D76" s="2">
         <v>23</v>
@@ -25647,7 +25647,7 @@
         <v>84780</v>
       </c>
       <c r="CU76" s="1">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="CV76" s="1">
         <v>1139</v>
@@ -26633,16 +26633,16 @@
         <v>5</v>
       </c>
       <c r="AD80" s="1">
-        <v>313775</v>
+        <v>313774</v>
       </c>
       <c r="AE80" s="2">
-        <v>1</v>
+        <v>-32</v>
       </c>
       <c r="AF80" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AG80" s="2">
-        <v>29621</v>
+        <v>29620</v>
       </c>
       <c r="AH80" s="1">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         <v>1152</v>
       </c>
       <c r="BO80" s="2">
-        <v>1035</v>
+        <v>0</v>
       </c>
       <c r="BP80" s="2">
         <v>1040</v>
@@ -26828,16 +26828,16 @@
         <v>0</v>
       </c>
       <c r="CT80" s="1">
-        <v>378868</v>
+        <v>378867</v>
       </c>
       <c r="CU80" s="1">
-        <v>1203</v>
+        <v>135</v>
       </c>
       <c r="CV80" s="1">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="CW80" s="1">
-        <v>32970</v>
+        <v>32969</v>
       </c>
     </row>
     <row r="81" spans="1:101">
@@ -35468,7 +35468,7 @@
         <v>6754</v>
       </c>
       <c r="O110" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P110" s="2">
         <v>233</v>
@@ -35504,7 +35504,7 @@
         <v>95</v>
       </c>
       <c r="AA110" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB110" s="2">
         <v>4</v>
@@ -35711,7 +35711,7 @@
         <v>140725</v>
       </c>
       <c r="CU110" s="1">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="CV110" s="1">
         <v>5331</v>
@@ -36796,16 +36796,16 @@
         <v>0</v>
       </c>
       <c r="BN114" s="1">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BO114" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP114" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BQ114" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BR114" s="1">
         <v>0</v>
@@ -36892,16 +36892,16 @@
         <v>0</v>
       </c>
       <c r="CT114" s="1">
-        <v>10213</v>
+        <v>10214</v>
       </c>
       <c r="CU114" s="1">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="CV114" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="CW114" s="1">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="115" spans="1:101">
@@ -36924,7 +36924,7 @@
         <v>56</v>
       </c>
       <c r="G115" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115" s="2">
         <v>2</v>
@@ -37191,7 +37191,7 @@
         <v>69</v>
       </c>
       <c r="CU115" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CV115" s="1">
         <v>3</v>
@@ -42324,7 +42324,7 @@
         <v>9249</v>
       </c>
       <c r="AE133" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF133" s="2">
         <v>370</v>
@@ -42519,7 +42519,7 @@
         <v>54442</v>
       </c>
       <c r="CU133" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="CV133" s="1">
         <v>1383</v>
@@ -44133,16 +44133,16 @@
         <v>7</v>
       </c>
       <c r="AP139" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ139" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR139" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS139" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT139" s="1">
         <v>0</v>
@@ -44268,16 +44268,16 @@
         <v>2</v>
       </c>
       <c r="CL139" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CM139" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CN139" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CO139" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CP139" s="1">
         <v>0</v>
@@ -44292,16 +44292,16 @@
         <v>0</v>
       </c>
       <c r="CT139" s="1">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="CU139" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CV139" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CW139" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="140" spans="1:101">
@@ -46088,7 +46088,7 @@
         <v>321</v>
       </c>
       <c r="C146" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D146" s="2">
         <v>4</v>
@@ -46367,7 +46367,7 @@
         <v>4859</v>
       </c>
       <c r="CU146" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CV146" s="1">
         <v>145</v>
@@ -48752,7 +48752,7 @@
         <v>4520</v>
       </c>
       <c r="C155" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D155" s="2">
         <v>108</v>
@@ -49031,7 +49031,7 @@
         <v>145498</v>
       </c>
       <c r="CU155" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="CV155" s="1">
         <v>2253</v>
@@ -49120,7 +49120,7 @@
         <v>215</v>
       </c>
       <c r="AA156" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB156" s="2">
         <v>3</v>
@@ -49327,7 +49327,7 @@
         <v>17919</v>
       </c>
       <c r="CU156" s="1">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="CV156" s="1">
         <v>1130</v>
@@ -51733,16 +51733,16 @@
         <v>1</v>
       </c>
       <c r="J165" s="1">
-        <v>1327</v>
+        <v>1341</v>
       </c>
       <c r="K165" s="2">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="L165" s="2">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="M165" s="2">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="N165" s="1">
         <v>1877</v>
@@ -51988,16 +51988,16 @@
         <v>0</v>
       </c>
       <c r="CT165" s="1">
-        <v>4228</v>
+        <v>4242</v>
       </c>
       <c r="CU165" s="1">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="CV165" s="1">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="CW165" s="1">
-        <v>234</v>
+        <v>248</v>
       </c>
     </row>
     <row r="166" spans="1:101">
@@ -54915,7 +54915,7 @@
         <v>386</v>
       </c>
       <c r="CI175" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="CJ175" s="2">
         <v>190</v>
@@ -54951,7 +54951,7 @@
         <v>730</v>
       </c>
       <c r="CU175" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="CV175" s="1">
         <v>291</v>
@@ -55853,16 +55853,16 @@
         <v>278</v>
       </c>
       <c r="B179" s="1">
-        <v>7227</v>
+        <v>7279</v>
       </c>
       <c r="C179" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="D179" s="2">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="E179" s="2">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="F179" s="1">
         <v>1</v>
@@ -56132,16 +56132,16 @@
         <v>0</v>
       </c>
       <c r="CT179" s="1">
-        <v>42764</v>
+        <v>42816</v>
       </c>
       <c r="CU179" s="1">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="CV179" s="1">
-        <v>1385</v>
+        <v>1437</v>
       </c>
       <c r="CW179" s="1">
-        <v>2830</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="180" spans="1:101">
@@ -63253,16 +63253,16 @@
         <v>303</v>
       </c>
       <c r="B204" s="1">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C204" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E204" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F204" s="1">
         <v>7</v>
@@ -63532,16 +63532,16 @@
         <v>0</v>
       </c>
       <c r="CT204" s="1">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="CU204" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CV204" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CW204" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="205" spans="1:101">
@@ -67108,7 +67108,7 @@
         <v>576</v>
       </c>
       <c r="D59">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="E59" t="s">
         <v>709</v>
@@ -67428,7 +67428,7 @@
         <v>592</v>
       </c>
       <c r="D75">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E75" t="s">
         <v>709</v>
@@ -67448,7 +67448,7 @@
         <v>593</v>
       </c>
       <c r="D76">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E76" t="s">
         <v>709</v>
@@ -68131,7 +68131,7 @@
         <v>530</v>
       </c>
       <c r="D110">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E110" t="s">
         <v>726</v>
@@ -69826,7 +69826,7 @@
         <v>693</v>
       </c>
       <c r="D194">
-        <v>9737</v>
+        <v>9739</v>
       </c>
       <c r="E194" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3766,7 +3766,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>591</v>
       </c>
       <c r="CW3" s="1">
-        <v>1231</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="4" spans="1:101">
@@ -5489,7 +5489,7 @@
         <v>5</v>
       </c>
       <c r="CK8" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CL8" s="1">
         <v>4</v>
@@ -5525,7 +5525,7 @@
         <v>65</v>
       </c>
       <c r="CW8" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:101">
@@ -5850,7 +5850,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -6117,7 +6117,7 @@
         <v>2</v>
       </c>
       <c r="CW10" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:101">
@@ -6131,7 +6131,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2">
         <v>8</v>
@@ -6410,7 +6410,7 @@
         <v>1</v>
       </c>
       <c r="CV11" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CW11" s="1">
         <v>12</v>
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N13" s="1">
         <v>88</v>
@@ -7005,7 +7005,7 @@
         <v>48</v>
       </c>
       <c r="CW13" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:101">
@@ -8804,7 +8804,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
         <v>2</v>
@@ -8903,7 +8903,7 @@
         <v>1</v>
       </c>
       <c r="AN20" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AO20" s="2">
         <v>8</v>
@@ -9038,7 +9038,7 @@
         <v>7</v>
       </c>
       <c r="CJ20" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="CK20" s="2">
         <v>42</v>
@@ -9071,10 +9071,10 @@
         <v>262</v>
       </c>
       <c r="CU20" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CV20" s="1">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="CW20" s="1">
         <v>59</v>
@@ -11776,10 +11776,10 @@
         <v>1169</v>
       </c>
       <c r="K30" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L30" s="2">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M30" s="2">
         <v>102</v>
@@ -12031,10 +12031,10 @@
         <v>4903</v>
       </c>
       <c r="CU30" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="CV30" s="1">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="CW30" s="1">
         <v>343</v>
@@ -12682,7 +12682,7 @@
         <v>25</v>
       </c>
       <c r="Q33" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R33" s="1">
         <v>1</v>
@@ -12925,7 +12925,7 @@
         <v>71</v>
       </c>
       <c r="CW33" s="1">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:101">
@@ -15624,7 +15624,7 @@
         <v>1072</v>
       </c>
       <c r="K43" s="2">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L43" s="2">
         <v>57</v>
@@ -15879,7 +15879,7 @@
         <v>43922</v>
       </c>
       <c r="CU43" s="1">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="CV43" s="1">
         <v>2116</v>
@@ -18387,7 +18387,7 @@
         <v>0</v>
       </c>
       <c r="AR52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS52" s="2">
         <v>2</v>
@@ -18522,7 +18522,7 @@
         <v>1</v>
       </c>
       <c r="CN52" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO52" s="2">
         <v>3</v>
@@ -18546,7 +18546,7 @@
         <v>1</v>
       </c>
       <c r="CV52" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="CW52" s="1">
         <v>35</v>
@@ -20955,7 +20955,7 @@
         <v>1</v>
       </c>
       <c r="L61" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M61" s="2">
         <v>17</v>
@@ -21210,7 +21210,7 @@
         <v>32</v>
       </c>
       <c r="CV61" s="1">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="CW61" s="1">
         <v>209</v>
@@ -23024,7 +23024,7 @@
         <v>236</v>
       </c>
       <c r="K68" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L68" s="2">
         <v>4</v>
@@ -23279,7 +23279,7 @@
         <v>2060</v>
       </c>
       <c r="CU68" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CV68" s="1">
         <v>36</v>
@@ -24298,7 +24298,7 @@
         <v>132</v>
       </c>
       <c r="AO72" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AP72" s="1">
         <v>0</v>
@@ -24433,7 +24433,7 @@
         <v>220</v>
       </c>
       <c r="CK72" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="CL72" s="1">
         <v>0</v>
@@ -24469,7 +24469,7 @@
         <v>2222</v>
       </c>
       <c r="CW72" s="1">
-        <v>4790</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -24818,7 +24818,7 @@
         <v>2526</v>
       </c>
       <c r="Q74" s="2">
-        <v>5254</v>
+        <v>5264</v>
       </c>
       <c r="R74" s="1">
         <v>1</v>
@@ -24866,7 +24866,7 @@
         <v>388</v>
       </c>
       <c r="AG74" s="2">
-        <v>918</v>
+        <v>776</v>
       </c>
       <c r="AH74" s="1">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>3247</v>
       </c>
       <c r="CW74" s="1">
-        <v>6892</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25183,7 +25183,7 @@
         <v>12</v>
       </c>
       <c r="AN75" s="2">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AO75" s="2">
         <v>94</v>
@@ -25318,7 +25318,7 @@
         <v>53</v>
       </c>
       <c r="CJ75" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="CK75" s="2">
         <v>467</v>
@@ -25354,7 +25354,7 @@
         <v>213</v>
       </c>
       <c r="CV75" s="1">
-        <v>5029</v>
+        <v>5016</v>
       </c>
       <c r="CW75" s="1">
         <v>11111</v>
@@ -26624,7 +26624,7 @@
         <v>93</v>
       </c>
       <c r="AA80" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB80" s="2">
         <v>2</v>
@@ -26798,7 +26798,7 @@
         <v>38</v>
       </c>
       <c r="CJ80" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="CK80" s="2">
         <v>416</v>
@@ -26831,10 +26831,10 @@
         <v>378867</v>
       </c>
       <c r="CU80" s="1">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="CV80" s="1">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="CW80" s="1">
         <v>32969</v>
@@ -28343,7 +28343,7 @@
         <v>0</v>
       </c>
       <c r="H86" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" s="2">
         <v>4</v>
@@ -28355,7 +28355,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M86" s="2">
         <v>36</v>
@@ -28583,7 +28583,7 @@
         <v>7</v>
       </c>
       <c r="CM86" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CN86" s="2">
         <v>3</v>
@@ -28607,10 +28607,10 @@
         <v>1445</v>
       </c>
       <c r="CU86" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CV86" s="1">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="CW86" s="1">
         <v>114</v>
@@ -29826,7 +29826,7 @@
         <v>2</v>
       </c>
       <c r="I91" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J91" s="1">
         <v>0</v>
@@ -30093,7 +30093,7 @@
         <v>2</v>
       </c>
       <c r="CW91" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:101">
@@ -33307,13 +33307,13 @@
         <v>210</v>
       </c>
       <c r="CI102" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CJ102" s="2">
         <v>12</v>
       </c>
       <c r="CK102" s="2">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="CL102" s="1">
         <v>25</v>
@@ -33343,13 +33343,13 @@
         <v>6650</v>
       </c>
       <c r="CU102" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="CV102" s="1">
         <v>200</v>
       </c>
       <c r="CW102" s="1">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="103" spans="1:101">
@@ -34843,7 +34843,7 @@
         <v>0</v>
       </c>
       <c r="D108" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E108" s="2">
         <v>2</v>
@@ -35122,7 +35122,7 @@
         <v>8</v>
       </c>
       <c r="CV108" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="CW108" s="1">
         <v>74</v>
@@ -35438,7 +35438,7 @@
         <v>63</v>
       </c>
       <c r="E110" s="2">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F110" s="1">
         <v>10</v>
@@ -35717,7 +35717,7 @@
         <v>5331</v>
       </c>
       <c r="CW110" s="1">
-        <v>10726</v>
+        <v>10712</v>
       </c>
     </row>
     <row r="111" spans="1:101">
@@ -36362,7 +36362,7 @@
         <v>108</v>
       </c>
       <c r="Q113" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="R113" s="1">
         <v>0</v>
@@ -36605,7 +36605,7 @@
         <v>476</v>
       </c>
       <c r="CW113" s="1">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="114" spans="1:101">
@@ -36739,7 +36739,7 @@
         <v>0</v>
       </c>
       <c r="AR114" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS114" s="2">
         <v>4</v>
@@ -36862,7 +36862,7 @@
         <v>0</v>
       </c>
       <c r="CJ114" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="CK114" s="2">
         <v>11</v>
@@ -36898,7 +36898,7 @@
         <v>179</v>
       </c>
       <c r="CV114" s="1">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="CW114" s="1">
         <v>896</v>
@@ -36930,7 +36930,7 @@
         <v>2</v>
       </c>
       <c r="I115" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J115" s="1">
         <v>0</v>
@@ -37197,7 +37197,7 @@
         <v>3</v>
       </c>
       <c r="CW115" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:101">
@@ -37519,7 +37519,7 @@
         <v>0</v>
       </c>
       <c r="H117" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" s="2">
         <v>3</v>
@@ -37786,7 +37786,7 @@
         <v>3</v>
       </c>
       <c r="CV117" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="CW117" s="1">
         <v>28</v>
@@ -38874,7 +38874,7 @@
         <v>0</v>
       </c>
       <c r="BP121" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ121" s="2">
         <v>2</v>
@@ -38970,7 +38970,7 @@
         <v>4</v>
       </c>
       <c r="CV121" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="CW121" s="1">
         <v>42</v>
@@ -42016,7 +42016,7 @@
         <v>83</v>
       </c>
       <c r="AA132" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB132" s="2">
         <v>4</v>
@@ -42058,7 +42058,7 @@
         <v>10</v>
       </c>
       <c r="AO132" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AP132" s="1">
         <v>33</v>
@@ -42193,7 +42193,7 @@
         <v>41</v>
       </c>
       <c r="CK132" s="2">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="CL132" s="1">
         <v>9</v>
@@ -42223,13 +42223,13 @@
         <v>117981</v>
       </c>
       <c r="CU132" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="CV132" s="1">
         <v>2680</v>
       </c>
       <c r="CW132" s="1">
-        <v>4988</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="133" spans="1:101">
@@ -43200,7 +43200,7 @@
         <v>68</v>
       </c>
       <c r="AA136" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB136" s="2">
         <v>3</v>
@@ -43407,7 +43407,7 @@
         <v>3681</v>
       </c>
       <c r="CU136" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="CV136" s="1">
         <v>114</v>
@@ -44127,7 +44127,7 @@
         <v>2</v>
       </c>
       <c r="AN139" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO139" s="2">
         <v>7</v>
@@ -44142,7 +44142,7 @@
         <v>1</v>
       </c>
       <c r="AS139" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT139" s="1">
         <v>0</v>
@@ -44274,10 +44274,10 @@
         <v>2</v>
       </c>
       <c r="CN139" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CO139" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CP139" s="1">
         <v>0</v>
@@ -44298,10 +44298,10 @@
         <v>6</v>
       </c>
       <c r="CV139" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="CW139" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:101">
@@ -45915,7 +45915,7 @@
         <v>1</v>
       </c>
       <c r="AR145" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS145" s="2">
         <v>7</v>
@@ -46050,7 +46050,7 @@
         <v>0</v>
       </c>
       <c r="CN145" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO145" s="2">
         <v>3</v>
@@ -46074,7 +46074,7 @@
         <v>3</v>
       </c>
       <c r="CV145" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CW145" s="1">
         <v>25</v>
@@ -46322,7 +46322,7 @@
         <v>0</v>
       </c>
       <c r="CF146" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG146" s="2">
         <v>1</v>
@@ -46370,7 +46370,7 @@
         <v>19</v>
       </c>
       <c r="CV146" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="CW146" s="1">
         <v>291</v>
@@ -48779,7 +48779,7 @@
         <v>28</v>
       </c>
       <c r="L155" s="2">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="M155" s="2">
         <v>245</v>
@@ -48866,7 +48866,7 @@
         <v>8</v>
       </c>
       <c r="AO155" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP155" s="1">
         <v>37</v>
@@ -49001,7 +49001,7 @@
         <v>74</v>
       </c>
       <c r="CK155" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="CL155" s="1">
         <v>9</v>
@@ -49034,10 +49034,10 @@
         <v>40</v>
       </c>
       <c r="CV155" s="1">
-        <v>2253</v>
+        <v>2225</v>
       </c>
       <c r="CW155" s="1">
-        <v>4269</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="156" spans="1:101">
@@ -49646,7 +49646,7 @@
         <v>0</v>
       </c>
       <c r="E158" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F158" s="1">
         <v>7</v>
@@ -49658,7 +49658,7 @@
         <v>5</v>
       </c>
       <c r="I158" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J158" s="1">
         <v>0</v>
@@ -49925,7 +49925,7 @@
         <v>5</v>
       </c>
       <c r="CW158" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:101">
@@ -50839,7 +50839,7 @@
         <v>1</v>
       </c>
       <c r="H162" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I162" s="2">
         <v>4</v>
@@ -51106,7 +51106,7 @@
         <v>0</v>
       </c>
       <c r="CV162" s="1">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="CW162" s="1">
         <v>81</v>
@@ -51784,7 +51784,7 @@
         <v>54</v>
       </c>
       <c r="AA165" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB165" s="2">
         <v>4</v>
@@ -51991,7 +51991,7 @@
         <v>4242</v>
       </c>
       <c r="CU165" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="CV165" s="1">
         <v>108</v>
@@ -52310,7 +52310,7 @@
         <v>7</v>
       </c>
       <c r="E167" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F167" s="1">
         <v>10</v>
@@ -52589,7 +52589,7 @@
         <v>203</v>
       </c>
       <c r="CW167" s="1">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="168" spans="1:101">
@@ -53198,7 +53198,7 @@
         <v>10</v>
       </c>
       <c r="E170" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F170" s="1">
         <v>12</v>
@@ -53477,7 +53477,7 @@
         <v>62</v>
       </c>
       <c r="CW170" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="171" spans="1:101">
@@ -55560,7 +55560,7 @@
         <v>34</v>
       </c>
       <c r="C178" s="2">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D178" s="2">
         <v>6</v>
@@ -55839,7 +55839,7 @@
         <v>593</v>
       </c>
       <c r="CU178" s="1">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="CV178" s="1">
         <v>33</v>
@@ -55859,7 +55859,7 @@
         <v>126</v>
       </c>
       <c r="D179" s="2">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="E179" s="2">
         <v>441</v>
@@ -56138,7 +56138,7 @@
         <v>176</v>
       </c>
       <c r="CV179" s="1">
-        <v>1437</v>
+        <v>1381</v>
       </c>
       <c r="CW179" s="1">
         <v>2882</v>
@@ -59707,7 +59707,7 @@
         <v>17</v>
       </c>
       <c r="D192" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E192" s="2">
         <v>83</v>
@@ -59818,7 +59818,7 @@
         <v>0</v>
       </c>
       <c r="AO192" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP192" s="1">
         <v>53</v>
@@ -59953,7 +59953,7 @@
         <v>11</v>
       </c>
       <c r="CK192" s="2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="CL192" s="1">
         <v>25</v>
@@ -59986,10 +59986,10 @@
         <v>29</v>
       </c>
       <c r="CV192" s="1">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="CW192" s="1">
-        <v>1482</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="193" spans="1:101">
@@ -60338,7 +60338,7 @@
         <v>316</v>
       </c>
       <c r="Q194" s="2">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="R194" s="1">
         <v>0</v>
@@ -60581,7 +60581,7 @@
         <v>397</v>
       </c>
       <c r="CW194" s="1">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="195" spans="1:101">
@@ -61199,7 +61199,7 @@
         <v>0</v>
       </c>
       <c r="H197" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" s="2">
         <v>5</v>
@@ -61466,7 +61466,7 @@
         <v>0</v>
       </c>
       <c r="CV197" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW197" s="1">
         <v>5</v>
@@ -63262,7 +63262,7 @@
         <v>7</v>
       </c>
       <c r="E204" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F204" s="1">
         <v>7</v>
@@ -63541,7 +63541,7 @@
         <v>28</v>
       </c>
       <c r="CW204" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="205" spans="1:101">

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3643,6 +3643,9 @@
       <c r="BJ2" s="1">
         <v>0</v>
       </c>
+      <c r="BK2" s="2">
+        <v>0</v>
+      </c>
       <c r="BN2" s="1">
         <v>305</v>
       </c>
@@ -3939,6 +3942,9 @@
       <c r="BJ3" s="1">
         <v>0</v>
       </c>
+      <c r="BK3" s="2">
+        <v>0</v>
+      </c>
       <c r="BN3" s="1">
         <v>98</v>
       </c>
@@ -4235,6 +4241,9 @@
       <c r="BJ4" s="1">
         <v>0</v>
       </c>
+      <c r="BK4" s="2">
+        <v>0</v>
+      </c>
       <c r="BN4" s="1">
         <v>190</v>
       </c>
@@ -4531,6 +4540,9 @@
       <c r="BJ5" s="1">
         <v>0</v>
       </c>
+      <c r="BK5" s="2">
+        <v>0</v>
+      </c>
       <c r="BN5" s="1">
         <v>0</v>
       </c>
@@ -4827,6 +4839,9 @@
       <c r="BJ6" s="1">
         <v>0</v>
       </c>
+      <c r="BK6" s="2">
+        <v>0</v>
+      </c>
       <c r="BN6" s="1">
         <v>0</v>
       </c>
@@ -5123,6 +5138,9 @@
       <c r="BJ7" s="1">
         <v>0</v>
       </c>
+      <c r="BK7" s="2">
+        <v>0</v>
+      </c>
       <c r="BN7" s="1">
         <v>0</v>
       </c>
@@ -5419,6 +5437,9 @@
       <c r="BJ8" s="1">
         <v>0</v>
       </c>
+      <c r="BK8" s="2">
+        <v>0</v>
+      </c>
       <c r="BN8" s="1">
         <v>167</v>
       </c>
@@ -5483,7 +5504,7 @@
         <v>468</v>
       </c>
       <c r="CI8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ8" s="2">
         <v>5</v>
@@ -5519,7 +5540,7 @@
         <v>2575</v>
       </c>
       <c r="CU8" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="CV8" s="1">
         <v>65</v>
@@ -5715,6 +5736,9 @@
       <c r="BJ9" s="1">
         <v>0</v>
       </c>
+      <c r="BK9" s="2">
+        <v>0</v>
+      </c>
       <c r="BN9" s="1">
         <v>0</v>
       </c>
@@ -6011,6 +6035,9 @@
       <c r="BJ10" s="1">
         <v>0</v>
       </c>
+      <c r="BK10" s="2">
+        <v>0</v>
+      </c>
       <c r="BN10" s="1">
         <v>0</v>
       </c>
@@ -6307,6 +6334,9 @@
       <c r="BJ11" s="1">
         <v>0</v>
       </c>
+      <c r="BK11" s="2">
+        <v>0</v>
+      </c>
       <c r="BN11" s="1">
         <v>0</v>
       </c>
@@ -6603,6 +6633,9 @@
       <c r="BJ12" s="1">
         <v>0</v>
       </c>
+      <c r="BK12" s="2">
+        <v>0</v>
+      </c>
       <c r="BN12" s="1">
         <v>0</v>
       </c>
@@ -6846,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT13" s="1">
         <v>0</v>
@@ -6899,6 +6932,9 @@
       <c r="BJ13" s="1">
         <v>0</v>
       </c>
+      <c r="BK13" s="2">
+        <v>0</v>
+      </c>
       <c r="BN13" s="1">
         <v>2</v>
       </c>
@@ -7005,7 +7041,7 @@
         <v>48</v>
       </c>
       <c r="CW13" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:101">
@@ -7195,6 +7231,9 @@
       <c r="BJ14" s="1">
         <v>0</v>
       </c>
+      <c r="BK14" s="2">
+        <v>0</v>
+      </c>
       <c r="BN14" s="1">
         <v>7</v>
       </c>
@@ -7491,6 +7530,9 @@
       <c r="BJ15" s="1">
         <v>0</v>
       </c>
+      <c r="BK15" s="2">
+        <v>0</v>
+      </c>
       <c r="BN15" s="1">
         <v>0</v>
       </c>
@@ -7787,6 +7829,9 @@
       <c r="BJ16" s="1">
         <v>0</v>
       </c>
+      <c r="BK16" s="2">
+        <v>0</v>
+      </c>
       <c r="BN16" s="1">
         <v>0</v>
       </c>
@@ -8083,6 +8128,9 @@
       <c r="BJ17" s="1">
         <v>0</v>
       </c>
+      <c r="BK17" s="2">
+        <v>0</v>
+      </c>
       <c r="BN17" s="1">
         <v>0</v>
       </c>
@@ -8379,6 +8427,9 @@
       <c r="BJ18" s="1">
         <v>0</v>
       </c>
+      <c r="BK18" s="2">
+        <v>0</v>
+      </c>
       <c r="BN18" s="1">
         <v>0</v>
       </c>
@@ -8675,6 +8726,9 @@
       <c r="BJ19" s="1">
         <v>0</v>
       </c>
+      <c r="BK19" s="2">
+        <v>0</v>
+      </c>
       <c r="BN19" s="1">
         <v>387</v>
       </c>
@@ -8971,6 +9025,9 @@
       <c r="BJ20" s="1">
         <v>0</v>
       </c>
+      <c r="BK20" s="2">
+        <v>0</v>
+      </c>
       <c r="BN20" s="1">
         <v>0</v>
       </c>
@@ -9267,6 +9324,9 @@
       <c r="BJ21" s="1">
         <v>0</v>
       </c>
+      <c r="BK21" s="2">
+        <v>0</v>
+      </c>
       <c r="BN21" s="1">
         <v>0</v>
       </c>
@@ -9563,6 +9623,9 @@
       <c r="BJ22" s="1">
         <v>0</v>
       </c>
+      <c r="BK22" s="2">
+        <v>0</v>
+      </c>
       <c r="BN22" s="1">
         <v>0</v>
       </c>
@@ -9859,6 +9922,9 @@
       <c r="BJ23" s="1">
         <v>0</v>
       </c>
+      <c r="BK23" s="2">
+        <v>0</v>
+      </c>
       <c r="BN23" s="1">
         <v>0</v>
       </c>
@@ -10155,6 +10221,9 @@
       <c r="BJ24" s="1">
         <v>0</v>
       </c>
+      <c r="BK24" s="2">
+        <v>0</v>
+      </c>
       <c r="BN24" s="1">
         <v>10</v>
       </c>
@@ -10451,6 +10520,9 @@
       <c r="BJ25" s="1">
         <v>0</v>
       </c>
+      <c r="BK25" s="2">
+        <v>0</v>
+      </c>
       <c r="BN25" s="1">
         <v>0</v>
       </c>
@@ -10747,6 +10819,9 @@
       <c r="BJ26" s="1">
         <v>0</v>
       </c>
+      <c r="BK26" s="2">
+        <v>0</v>
+      </c>
       <c r="BN26" s="1">
         <v>0</v>
       </c>
@@ -11043,6 +11118,9 @@
       <c r="BJ27" s="1">
         <v>0</v>
       </c>
+      <c r="BK27" s="2">
+        <v>0</v>
+      </c>
       <c r="BN27" s="1">
         <v>72</v>
       </c>
@@ -11339,6 +11417,9 @@
       <c r="BJ28" s="1">
         <v>0</v>
       </c>
+      <c r="BK28" s="2">
+        <v>0</v>
+      </c>
       <c r="BN28" s="1">
         <v>0</v>
       </c>
@@ -11635,6 +11716,9 @@
       <c r="BJ29" s="1">
         <v>0</v>
       </c>
+      <c r="BK29" s="2">
+        <v>0</v>
+      </c>
       <c r="BN29" s="1">
         <v>0</v>
       </c>
@@ -11931,6 +12015,9 @@
       <c r="BJ30" s="1">
         <v>0</v>
       </c>
+      <c r="BK30" s="2">
+        <v>0</v>
+      </c>
       <c r="BN30" s="1">
         <v>0</v>
       </c>
@@ -12227,6 +12314,9 @@
       <c r="BJ31" s="1">
         <v>0</v>
       </c>
+      <c r="BK31" s="2">
+        <v>0</v>
+      </c>
       <c r="BN31" s="1">
         <v>15</v>
       </c>
@@ -12523,6 +12613,9 @@
       <c r="BJ32" s="1">
         <v>0</v>
       </c>
+      <c r="BK32" s="2">
+        <v>0</v>
+      </c>
       <c r="BN32" s="1">
         <v>0</v>
       </c>
@@ -12819,6 +12912,9 @@
       <c r="BJ33" s="1">
         <v>0</v>
       </c>
+      <c r="BK33" s="2">
+        <v>0</v>
+      </c>
       <c r="BN33" s="1">
         <v>73</v>
       </c>
@@ -13115,6 +13211,9 @@
       <c r="BJ34" s="1">
         <v>0</v>
       </c>
+      <c r="BK34" s="2">
+        <v>0</v>
+      </c>
       <c r="BN34" s="1">
         <v>0</v>
       </c>
@@ -13411,6 +13510,9 @@
       <c r="BJ35" s="1">
         <v>0</v>
       </c>
+      <c r="BK35" s="2">
+        <v>0</v>
+      </c>
       <c r="BN35" s="1">
         <v>0</v>
       </c>
@@ -13707,6 +13809,9 @@
       <c r="BJ36" s="1">
         <v>0</v>
       </c>
+      <c r="BK36" s="2">
+        <v>0</v>
+      </c>
       <c r="BN36" s="1">
         <v>0</v>
       </c>
@@ -14003,6 +14108,9 @@
       <c r="BJ37" s="1">
         <v>0</v>
       </c>
+      <c r="BK37" s="2">
+        <v>0</v>
+      </c>
       <c r="BN37" s="1">
         <v>22</v>
       </c>
@@ -14299,6 +14407,9 @@
       <c r="BJ38" s="1">
         <v>0</v>
       </c>
+      <c r="BK38" s="2">
+        <v>0</v>
+      </c>
       <c r="BN38" s="1">
         <v>0</v>
       </c>
@@ -14595,6 +14706,9 @@
       <c r="BJ39" s="1">
         <v>0</v>
       </c>
+      <c r="BK39" s="2">
+        <v>0</v>
+      </c>
       <c r="BN39" s="1">
         <v>1601</v>
       </c>
@@ -14891,6 +15005,9 @@
       <c r="BJ40" s="1">
         <v>0</v>
       </c>
+      <c r="BK40" s="2">
+        <v>0</v>
+      </c>
       <c r="BN40" s="1">
         <v>0</v>
       </c>
@@ -15187,6 +15304,9 @@
       <c r="BJ41" s="1">
         <v>0</v>
       </c>
+      <c r="BK41" s="2">
+        <v>0</v>
+      </c>
       <c r="BN41" s="1">
         <v>0</v>
       </c>
@@ -15483,6 +15603,9 @@
       <c r="BJ42" s="1">
         <v>0</v>
       </c>
+      <c r="BK42" s="2">
+        <v>0</v>
+      </c>
       <c r="BN42" s="1">
         <v>0</v>
       </c>
@@ -15779,6 +15902,9 @@
       <c r="BJ43" s="1">
         <v>0</v>
       </c>
+      <c r="BK43" s="2">
+        <v>0</v>
+      </c>
       <c r="BN43" s="1">
         <v>25</v>
       </c>
@@ -16075,6 +16201,9 @@
       <c r="BJ44" s="1">
         <v>0</v>
       </c>
+      <c r="BK44" s="2">
+        <v>0</v>
+      </c>
       <c r="BN44" s="1">
         <v>0</v>
       </c>
@@ -16371,6 +16500,9 @@
       <c r="BJ45" s="1">
         <v>0</v>
       </c>
+      <c r="BK45" s="2">
+        <v>0</v>
+      </c>
       <c r="BN45" s="1">
         <v>0</v>
       </c>
@@ -16667,6 +16799,9 @@
       <c r="BJ46" s="1">
         <v>0</v>
       </c>
+      <c r="BK46" s="2">
+        <v>0</v>
+      </c>
       <c r="BN46" s="1">
         <v>0</v>
       </c>
@@ -16963,6 +17098,9 @@
       <c r="BJ47" s="1">
         <v>0</v>
       </c>
+      <c r="BK47" s="2">
+        <v>0</v>
+      </c>
       <c r="BN47" s="1">
         <v>0</v>
       </c>
@@ -17259,6 +17397,9 @@
       <c r="BJ48" s="1">
         <v>0</v>
       </c>
+      <c r="BK48" s="2">
+        <v>0</v>
+      </c>
       <c r="BN48" s="1">
         <v>0</v>
       </c>
@@ -17555,6 +17696,9 @@
       <c r="BJ49" s="1">
         <v>0</v>
       </c>
+      <c r="BK49" s="2">
+        <v>0</v>
+      </c>
       <c r="BN49" s="1">
         <v>0</v>
       </c>
@@ -17678,7 +17822,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F50" s="1">
         <v>26</v>
@@ -17690,7 +17834,7 @@
         <v>2</v>
       </c>
       <c r="I50" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J50" s="1">
         <v>0</v>
@@ -17851,6 +17995,9 @@
       <c r="BJ50" s="1">
         <v>0</v>
       </c>
+      <c r="BK50" s="2">
+        <v>0</v>
+      </c>
       <c r="BN50" s="1">
         <v>0</v>
       </c>
@@ -17957,7 +18104,7 @@
         <v>34</v>
       </c>
       <c r="CW50" s="1">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:101">
@@ -18147,6 +18294,9 @@
       <c r="BJ51" s="1">
         <v>0</v>
       </c>
+      <c r="BK51" s="2">
+        <v>0</v>
+      </c>
       <c r="BN51" s="1">
         <v>0</v>
       </c>
@@ -18390,7 +18540,7 @@
         <v>0</v>
       </c>
       <c r="AS52" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT52" s="1">
         <v>0</v>
@@ -18441,6 +18591,9 @@
         <v>0</v>
       </c>
       <c r="BJ52" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK52" s="2">
         <v>0</v>
       </c>
       <c r="BN52" s="1">
@@ -18513,7 +18666,7 @@
         <v>9</v>
       </c>
       <c r="CK52" s="2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="CL52" s="1">
         <v>3</v>
@@ -18549,7 +18702,7 @@
         <v>14</v>
       </c>
       <c r="CW52" s="1">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:101">
@@ -18739,6 +18892,9 @@
       <c r="BJ53" s="1">
         <v>0</v>
       </c>
+      <c r="BK53" s="2">
+        <v>0</v>
+      </c>
       <c r="BN53" s="1">
         <v>0</v>
       </c>
@@ -19035,6 +19191,9 @@
       <c r="BJ54" s="1">
         <v>0</v>
       </c>
+      <c r="BK54" s="2">
+        <v>0</v>
+      </c>
       <c r="BN54" s="1">
         <v>0</v>
       </c>
@@ -19331,6 +19490,9 @@
       <c r="BJ55" s="1">
         <v>0</v>
       </c>
+      <c r="BK55" s="2">
+        <v>0</v>
+      </c>
       <c r="BN55" s="1">
         <v>0</v>
       </c>
@@ -19627,6 +19789,9 @@
       <c r="BJ56" s="1">
         <v>0</v>
       </c>
+      <c r="BK56" s="2">
+        <v>0</v>
+      </c>
       <c r="BN56" s="1">
         <v>0</v>
       </c>
@@ -19870,7 +20035,7 @@
         <v>2</v>
       </c>
       <c r="AS57" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -19923,6 +20088,9 @@
       <c r="BJ57" s="1">
         <v>3</v>
       </c>
+      <c r="BK57" s="2">
+        <v>0</v>
+      </c>
       <c r="BN57" s="1">
         <v>28</v>
       </c>
@@ -19993,7 +20161,7 @@
         <v>0</v>
       </c>
       <c r="CK57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL57" s="1">
         <v>52</v>
@@ -20029,7 +20197,7 @@
         <v>19</v>
       </c>
       <c r="CW57" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:101">
@@ -20219,6 +20387,9 @@
       <c r="BJ58" s="1">
         <v>0</v>
       </c>
+      <c r="BK58" s="2">
+        <v>0</v>
+      </c>
       <c r="BN58" s="1">
         <v>0</v>
       </c>
@@ -20515,6 +20686,9 @@
       <c r="BJ59" s="1">
         <v>0</v>
       </c>
+      <c r="BK59" s="2">
+        <v>0</v>
+      </c>
       <c r="BN59" s="1">
         <v>335</v>
       </c>
@@ -20811,6 +20985,9 @@
       <c r="BJ60" s="1">
         <v>0</v>
       </c>
+      <c r="BK60" s="2">
+        <v>0</v>
+      </c>
       <c r="BN60" s="1">
         <v>0</v>
       </c>
@@ -21107,6 +21284,9 @@
       <c r="BJ61" s="1">
         <v>0</v>
       </c>
+      <c r="BK61" s="2">
+        <v>0</v>
+      </c>
       <c r="BN61" s="1">
         <v>28</v>
       </c>
@@ -21403,6 +21583,9 @@
       <c r="BJ62" s="1">
         <v>0</v>
       </c>
+      <c r="BK62" s="2">
+        <v>0</v>
+      </c>
       <c r="BN62" s="1">
         <v>16</v>
       </c>
@@ -21526,7 +21709,7 @@
         <v>55</v>
       </c>
       <c r="E63" s="2">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -21699,6 +21882,9 @@
       <c r="BJ63" s="1">
         <v>0</v>
       </c>
+      <c r="BK63" s="2">
+        <v>0</v>
+      </c>
       <c r="BN63" s="1">
         <v>137</v>
       </c>
@@ -21805,7 +21991,7 @@
         <v>1273</v>
       </c>
       <c r="CW63" s="1">
-        <v>2508</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="64" spans="1:101">
@@ -21995,6 +22181,9 @@
       <c r="BJ64" s="1">
         <v>0</v>
       </c>
+      <c r="BK64" s="2">
+        <v>0</v>
+      </c>
       <c r="BN64" s="1">
         <v>0</v>
       </c>
@@ -22291,6 +22480,9 @@
       <c r="BJ65" s="1">
         <v>0</v>
       </c>
+      <c r="BK65" s="2">
+        <v>0</v>
+      </c>
       <c r="BN65" s="1">
         <v>0</v>
       </c>
@@ -22587,6 +22779,9 @@
       <c r="BJ66" s="1">
         <v>0</v>
       </c>
+      <c r="BK66" s="2">
+        <v>0</v>
+      </c>
       <c r="BN66" s="1">
         <v>46</v>
       </c>
@@ -22883,6 +23078,9 @@
       <c r="BJ67" s="1">
         <v>0</v>
       </c>
+      <c r="BK67" s="2">
+        <v>0</v>
+      </c>
       <c r="BN67" s="1">
         <v>0</v>
       </c>
@@ -23179,6 +23377,9 @@
       <c r="BJ68" s="1">
         <v>0</v>
       </c>
+      <c r="BK68" s="2">
+        <v>0</v>
+      </c>
       <c r="BN68" s="1">
         <v>9</v>
       </c>
@@ -23475,6 +23676,9 @@
       <c r="BJ69" s="1">
         <v>0</v>
       </c>
+      <c r="BK69" s="2">
+        <v>0</v>
+      </c>
       <c r="BN69" s="1">
         <v>0</v>
       </c>
@@ -23771,6 +23975,9 @@
       <c r="BJ70" s="1">
         <v>1</v>
       </c>
+      <c r="BK70" s="2">
+        <v>0</v>
+      </c>
       <c r="BN70" s="1">
         <v>0</v>
       </c>
@@ -24067,6 +24274,9 @@
       <c r="BJ71" s="1">
         <v>0</v>
       </c>
+      <c r="BK71" s="2">
+        <v>0</v>
+      </c>
       <c r="BN71" s="1">
         <v>0</v>
       </c>
@@ -24363,6 +24573,9 @@
       <c r="BJ72" s="1">
         <v>0</v>
       </c>
+      <c r="BK72" s="2">
+        <v>0</v>
+      </c>
       <c r="BN72" s="1">
         <v>484</v>
       </c>
@@ -24659,6 +24872,9 @@
       <c r="BJ73" s="1">
         <v>0</v>
       </c>
+      <c r="BK73" s="2">
+        <v>0</v>
+      </c>
       <c r="BN73" s="1">
         <v>0</v>
       </c>
@@ -24866,7 +25082,7 @@
         <v>388</v>
       </c>
       <c r="AG74" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AH74" s="1">
         <v>0</v>
@@ -24955,6 +25171,9 @@
       <c r="BJ74" s="1">
         <v>0</v>
       </c>
+      <c r="BK74" s="2">
+        <v>0</v>
+      </c>
       <c r="BN74" s="1">
         <v>350</v>
       </c>
@@ -25061,7 +25280,7 @@
         <v>3247</v>
       </c>
       <c r="CW74" s="1">
-        <v>6760</v>
+        <v>6759</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25251,6 +25470,9 @@
       <c r="BJ75" s="1">
         <v>0</v>
       </c>
+      <c r="BK75" s="2">
+        <v>0</v>
+      </c>
       <c r="BN75" s="1">
         <v>1255</v>
       </c>
@@ -25321,7 +25543,7 @@
         <v>200</v>
       </c>
       <c r="CK75" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="CL75" s="1">
         <v>97</v>
@@ -25333,7 +25555,7 @@
         <v>4</v>
       </c>
       <c r="CO75" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CP75" s="1">
         <v>12</v>
@@ -25357,7 +25579,7 @@
         <v>5016</v>
       </c>
       <c r="CW75" s="1">
-        <v>11111</v>
+        <v>11109</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -25547,6 +25769,9 @@
       <c r="BJ76" s="1">
         <v>0</v>
       </c>
+      <c r="BK76" s="2">
+        <v>0</v>
+      </c>
       <c r="BN76" s="1">
         <v>1006</v>
       </c>
@@ -25843,6 +26068,9 @@
       <c r="BJ77" s="1">
         <v>0</v>
       </c>
+      <c r="BK77" s="2">
+        <v>0</v>
+      </c>
       <c r="BN77" s="1">
         <v>0</v>
       </c>
@@ -26139,6 +26367,9 @@
       <c r="BJ78" s="1">
         <v>0</v>
       </c>
+      <c r="BK78" s="2">
+        <v>0</v>
+      </c>
       <c r="BN78" s="1">
         <v>42</v>
       </c>
@@ -26435,6 +26666,9 @@
       <c r="BJ79" s="1">
         <v>0</v>
       </c>
+      <c r="BK79" s="2">
+        <v>0</v>
+      </c>
       <c r="BN79" s="1">
         <v>0</v>
       </c>
@@ -26594,7 +26828,7 @@
         <v>435</v>
       </c>
       <c r="Q80" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="R80" s="1">
         <v>0</v>
@@ -26731,6 +26965,9 @@
       <c r="BJ80" s="1">
         <v>1</v>
       </c>
+      <c r="BK80" s="2">
+        <v>0</v>
+      </c>
       <c r="BN80" s="1">
         <v>1152</v>
       </c>
@@ -26837,7 +27074,7 @@
         <v>2771</v>
       </c>
       <c r="CW80" s="1">
-        <v>32969</v>
+        <v>32970</v>
       </c>
     </row>
     <row r="81" spans="1:101">
@@ -27027,6 +27264,9 @@
       <c r="BJ81" s="1">
         <v>0</v>
       </c>
+      <c r="BK81" s="2">
+        <v>0</v>
+      </c>
       <c r="BN81" s="1">
         <v>0</v>
       </c>
@@ -27323,6 +27563,9 @@
       <c r="BJ82" s="1">
         <v>0</v>
       </c>
+      <c r="BK82" s="2">
+        <v>0</v>
+      </c>
       <c r="BN82" s="1">
         <v>0</v>
       </c>
@@ -27619,6 +27862,9 @@
       <c r="BJ83" s="1">
         <v>0</v>
       </c>
+      <c r="BK83" s="2">
+        <v>0</v>
+      </c>
       <c r="BN83" s="1">
         <v>0</v>
       </c>
@@ -27915,6 +28161,9 @@
       <c r="BJ84" s="1">
         <v>0</v>
       </c>
+      <c r="BK84" s="2">
+        <v>0</v>
+      </c>
       <c r="BN84" s="1">
         <v>0</v>
       </c>
@@ -28211,6 +28460,9 @@
       <c r="BJ85" s="1">
         <v>0</v>
       </c>
+      <c r="BK85" s="2">
+        <v>0</v>
+      </c>
       <c r="BN85" s="1">
         <v>22</v>
       </c>
@@ -28507,6 +28759,9 @@
       <c r="BJ86" s="1">
         <v>0</v>
       </c>
+      <c r="BK86" s="2">
+        <v>0</v>
+      </c>
       <c r="BN86" s="1">
         <v>1</v>
       </c>
@@ -28803,6 +29058,9 @@
       <c r="BJ87" s="1">
         <v>0</v>
       </c>
+      <c r="BK87" s="2">
+        <v>0</v>
+      </c>
       <c r="BN87" s="1">
         <v>0</v>
       </c>
@@ -29099,6 +29357,9 @@
       <c r="BJ88" s="1">
         <v>0</v>
       </c>
+      <c r="BK88" s="2">
+        <v>0</v>
+      </c>
       <c r="BN88" s="1">
         <v>7</v>
       </c>
@@ -29395,6 +29656,9 @@
       <c r="BJ89" s="1">
         <v>0</v>
       </c>
+      <c r="BK89" s="2">
+        <v>0</v>
+      </c>
       <c r="BN89" s="1">
         <v>0</v>
       </c>
@@ -29691,6 +29955,9 @@
       <c r="BJ90" s="1">
         <v>0</v>
       </c>
+      <c r="BK90" s="2">
+        <v>0</v>
+      </c>
       <c r="BN90" s="1">
         <v>11</v>
       </c>
@@ -29987,6 +30254,9 @@
       <c r="BJ91" s="1">
         <v>0</v>
       </c>
+      <c r="BK91" s="2">
+        <v>0</v>
+      </c>
       <c r="BN91" s="1">
         <v>0</v>
       </c>
@@ -30283,6 +30553,9 @@
       <c r="BJ92" s="1">
         <v>0</v>
       </c>
+      <c r="BK92" s="2">
+        <v>0</v>
+      </c>
       <c r="BN92" s="1">
         <v>0</v>
       </c>
@@ -30579,6 +30852,9 @@
       <c r="BJ93" s="1">
         <v>0</v>
       </c>
+      <c r="BK93" s="2">
+        <v>0</v>
+      </c>
       <c r="BN93" s="1">
         <v>2</v>
       </c>
@@ -30875,6 +31151,9 @@
       <c r="BJ94" s="1">
         <v>0</v>
       </c>
+      <c r="BK94" s="2">
+        <v>0</v>
+      </c>
       <c r="BN94" s="1">
         <v>0</v>
       </c>
@@ -31171,6 +31450,9 @@
       <c r="BJ95" s="1">
         <v>0</v>
       </c>
+      <c r="BK95" s="2">
+        <v>0</v>
+      </c>
       <c r="BN95" s="1">
         <v>0</v>
       </c>
@@ -31467,6 +31749,9 @@
       <c r="BJ96" s="1">
         <v>0</v>
       </c>
+      <c r="BK96" s="2">
+        <v>0</v>
+      </c>
       <c r="BN96" s="1">
         <v>0</v>
       </c>
@@ -31763,6 +32048,9 @@
       <c r="BJ97" s="1">
         <v>0</v>
       </c>
+      <c r="BK97" s="2">
+        <v>0</v>
+      </c>
       <c r="BN97" s="1">
         <v>0</v>
       </c>
@@ -32059,6 +32347,9 @@
       <c r="BJ98" s="1">
         <v>0</v>
       </c>
+      <c r="BK98" s="2">
+        <v>0</v>
+      </c>
       <c r="BN98" s="1">
         <v>0</v>
       </c>
@@ -32248,7 +32539,7 @@
         <v>105</v>
       </c>
       <c r="AA99" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB99" s="2">
         <v>3</v>
@@ -32355,6 +32646,9 @@
       <c r="BJ99" s="1">
         <v>0</v>
       </c>
+      <c r="BK99" s="2">
+        <v>0</v>
+      </c>
       <c r="BN99" s="1">
         <v>508</v>
       </c>
@@ -32455,7 +32749,7 @@
         <v>37380</v>
       </c>
       <c r="CU99" s="1">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="CV99" s="1">
         <v>1071</v>
@@ -32651,6 +32945,9 @@
       <c r="BJ100" s="1">
         <v>0</v>
       </c>
+      <c r="BK100" s="2">
+        <v>0</v>
+      </c>
       <c r="BN100" s="1">
         <v>0</v>
       </c>
@@ -32947,6 +33244,9 @@
       <c r="BJ101" s="1">
         <v>0</v>
       </c>
+      <c r="BK101" s="2">
+        <v>0</v>
+      </c>
       <c r="BN101" s="1">
         <v>0</v>
       </c>
@@ -33243,6 +33543,9 @@
       <c r="BJ102" s="1">
         <v>0</v>
       </c>
+      <c r="BK102" s="2">
+        <v>0</v>
+      </c>
       <c r="BN102" s="1">
         <v>26</v>
       </c>
@@ -33396,7 +33699,7 @@
         <v>19978</v>
       </c>
       <c r="O103" s="2">
-        <v>4980</v>
+        <v>5001</v>
       </c>
       <c r="P103" s="2">
         <v>9023</v>
@@ -33539,6 +33842,9 @@
       <c r="BJ103" s="1">
         <v>0</v>
       </c>
+      <c r="BK103" s="2">
+        <v>0</v>
+      </c>
       <c r="BN103" s="1">
         <v>274</v>
       </c>
@@ -33639,7 +33945,7 @@
         <v>83641</v>
       </c>
       <c r="CU103" s="1">
-        <v>5226</v>
+        <v>5247</v>
       </c>
       <c r="CV103" s="1">
         <v>11747</v>
@@ -33835,6 +34141,9 @@
       <c r="BJ104" s="1">
         <v>0</v>
       </c>
+      <c r="BK104" s="2">
+        <v>0</v>
+      </c>
       <c r="BN104" s="1">
         <v>0</v>
       </c>
@@ -34131,6 +34440,9 @@
       <c r="BJ105" s="1">
         <v>0</v>
       </c>
+      <c r="BK105" s="2">
+        <v>0</v>
+      </c>
       <c r="BN105" s="1">
         <v>0</v>
       </c>
@@ -34427,6 +34739,9 @@
       <c r="BJ106" s="1">
         <v>0</v>
       </c>
+      <c r="BK106" s="2">
+        <v>0</v>
+      </c>
       <c r="BN106" s="1">
         <v>0</v>
       </c>
@@ -34544,7 +34859,7 @@
         <v>2211</v>
       </c>
       <c r="C107" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D107" s="2">
         <v>48</v>
@@ -34723,6 +35038,9 @@
       <c r="BJ107" s="1">
         <v>0</v>
       </c>
+      <c r="BK107" s="2">
+        <v>0</v>
+      </c>
       <c r="BN107" s="1">
         <v>18</v>
       </c>
@@ -34823,7 +35141,7 @@
         <v>10450</v>
       </c>
       <c r="CU107" s="1">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="CV107" s="1">
         <v>407</v>
@@ -35019,6 +35337,9 @@
       <c r="BJ108" s="1">
         <v>0</v>
       </c>
+      <c r="BK108" s="2">
+        <v>0</v>
+      </c>
       <c r="BN108" s="1">
         <v>0</v>
       </c>
@@ -35315,6 +35636,9 @@
       <c r="BJ109" s="1">
         <v>0</v>
       </c>
+      <c r="BK109" s="2">
+        <v>0</v>
+      </c>
       <c r="BN109" s="1">
         <v>149</v>
       </c>
@@ -35611,6 +35935,9 @@
       <c r="BJ110" s="1">
         <v>0</v>
       </c>
+      <c r="BK110" s="2">
+        <v>0</v>
+      </c>
       <c r="BN110" s="1">
         <v>30</v>
       </c>
@@ -35681,7 +36008,7 @@
         <v>117</v>
       </c>
       <c r="CK110" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CL110" s="1">
         <v>1</v>
@@ -35717,7 +36044,7 @@
         <v>5331</v>
       </c>
       <c r="CW110" s="1">
-        <v>10712</v>
+        <v>10713</v>
       </c>
     </row>
     <row r="111" spans="1:101">
@@ -35907,6 +36234,9 @@
       <c r="BJ111" s="1">
         <v>0</v>
       </c>
+      <c r="BK111" s="2">
+        <v>0</v>
+      </c>
       <c r="BN111" s="1">
         <v>0</v>
       </c>
@@ -36203,6 +36533,9 @@
       <c r="BJ112" s="1">
         <v>0</v>
       </c>
+      <c r="BK112" s="2">
+        <v>0</v>
+      </c>
       <c r="BN112" s="1">
         <v>0</v>
       </c>
@@ -36320,7 +36653,7 @@
         <v>4031</v>
       </c>
       <c r="C113" s="2">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D113" s="2">
         <v>43</v>
@@ -36499,6 +36832,9 @@
       <c r="BJ113" s="1">
         <v>2</v>
       </c>
+      <c r="BK113" s="2">
+        <v>0</v>
+      </c>
       <c r="BN113" s="1">
         <v>924</v>
       </c>
@@ -36599,7 +36935,7 @@
         <v>18477</v>
       </c>
       <c r="CU113" s="1">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="CV113" s="1">
         <v>476</v>
@@ -36795,6 +37131,9 @@
       <c r="BJ114" s="1">
         <v>0</v>
       </c>
+      <c r="BK114" s="2">
+        <v>0</v>
+      </c>
       <c r="BN114" s="1">
         <v>174</v>
       </c>
@@ -37091,6 +37430,9 @@
       <c r="BJ115" s="1">
         <v>0</v>
       </c>
+      <c r="BK115" s="2">
+        <v>0</v>
+      </c>
       <c r="BN115" s="1">
         <v>0</v>
       </c>
@@ -37387,6 +37729,9 @@
       <c r="BJ116" s="1">
         <v>0</v>
       </c>
+      <c r="BK116" s="2">
+        <v>0</v>
+      </c>
       <c r="BN116" s="1">
         <v>0</v>
       </c>
@@ -37510,7 +37855,7 @@
         <v>2</v>
       </c>
       <c r="E117" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F117" s="1">
         <v>50</v>
@@ -37683,6 +38028,9 @@
       <c r="BJ117" s="1">
         <v>0</v>
       </c>
+      <c r="BK117" s="2">
+        <v>0</v>
+      </c>
       <c r="BN117" s="1">
         <v>7</v>
       </c>
@@ -37789,7 +38137,7 @@
         <v>15</v>
       </c>
       <c r="CW117" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" spans="1:101">
@@ -37979,6 +38327,9 @@
       <c r="BJ118" s="1">
         <v>0</v>
       </c>
+      <c r="BK118" s="2">
+        <v>0</v>
+      </c>
       <c r="BN118" s="1">
         <v>0</v>
       </c>
@@ -38275,6 +38626,9 @@
       <c r="BJ119" s="1">
         <v>0</v>
       </c>
+      <c r="BK119" s="2">
+        <v>0</v>
+      </c>
       <c r="BN119" s="1">
         <v>0</v>
       </c>
@@ -38571,6 +38925,9 @@
       <c r="BJ120" s="1">
         <v>0</v>
       </c>
+      <c r="BK120" s="2">
+        <v>0</v>
+      </c>
       <c r="BN120" s="1">
         <v>0</v>
       </c>
@@ -38867,6 +39224,9 @@
       <c r="BJ121" s="1">
         <v>0</v>
       </c>
+      <c r="BK121" s="2">
+        <v>0</v>
+      </c>
       <c r="BN121" s="1">
         <v>7</v>
       </c>
@@ -39163,6 +39523,9 @@
       <c r="BJ122" s="1">
         <v>0</v>
       </c>
+      <c r="BK122" s="2">
+        <v>0</v>
+      </c>
       <c r="BN122" s="1">
         <v>0</v>
       </c>
@@ -39459,6 +39822,9 @@
       <c r="BJ123" s="1">
         <v>0</v>
       </c>
+      <c r="BK123" s="2">
+        <v>0</v>
+      </c>
       <c r="BN123" s="1">
         <v>0</v>
       </c>
@@ -39755,6 +40121,9 @@
       <c r="BJ124" s="1">
         <v>0</v>
       </c>
+      <c r="BK124" s="2">
+        <v>0</v>
+      </c>
       <c r="BN124" s="1">
         <v>0</v>
       </c>
@@ -40051,6 +40420,9 @@
       <c r="BJ125" s="1">
         <v>0</v>
       </c>
+      <c r="BK125" s="2">
+        <v>0</v>
+      </c>
       <c r="BN125" s="1">
         <v>0</v>
       </c>
@@ -40347,6 +40719,9 @@
       <c r="BJ126" s="1">
         <v>0</v>
       </c>
+      <c r="BK126" s="2">
+        <v>0</v>
+      </c>
       <c r="BN126" s="1">
         <v>0</v>
       </c>
@@ -40643,6 +41018,9 @@
       <c r="BJ127" s="1">
         <v>0</v>
       </c>
+      <c r="BK127" s="2">
+        <v>0</v>
+      </c>
       <c r="BN127" s="1">
         <v>0</v>
       </c>
@@ -40939,6 +41317,9 @@
       <c r="BJ128" s="1">
         <v>0</v>
       </c>
+      <c r="BK128" s="2">
+        <v>0</v>
+      </c>
       <c r="BN128" s="1">
         <v>0</v>
       </c>
@@ -41235,6 +41616,9 @@
       <c r="BJ129" s="1">
         <v>0</v>
       </c>
+      <c r="BK129" s="2">
+        <v>0</v>
+      </c>
       <c r="BN129" s="1">
         <v>0</v>
       </c>
@@ -41531,6 +41915,9 @@
       <c r="BJ130" s="1">
         <v>0</v>
       </c>
+      <c r="BK130" s="2">
+        <v>0</v>
+      </c>
       <c r="BN130" s="1">
         <v>0</v>
       </c>
@@ -41827,6 +42214,9 @@
       <c r="BJ131" s="1">
         <v>0</v>
       </c>
+      <c r="BK131" s="2">
+        <v>0</v>
+      </c>
       <c r="BN131" s="1">
         <v>0</v>
       </c>
@@ -42123,6 +42513,9 @@
       <c r="BJ132" s="1">
         <v>0</v>
       </c>
+      <c r="BK132" s="2">
+        <v>0</v>
+      </c>
       <c r="BN132" s="1">
         <v>0</v>
       </c>
@@ -42419,6 +42812,9 @@
       <c r="BJ133" s="1">
         <v>1</v>
       </c>
+      <c r="BK133" s="2">
+        <v>0</v>
+      </c>
       <c r="BN133" s="1">
         <v>213</v>
       </c>
@@ -42715,6 +43111,9 @@
       <c r="BJ134" s="1">
         <v>0</v>
       </c>
+      <c r="BK134" s="2">
+        <v>0</v>
+      </c>
       <c r="BN134" s="1">
         <v>0</v>
       </c>
@@ -43011,6 +43410,9 @@
       <c r="BJ135" s="1">
         <v>0</v>
       </c>
+      <c r="BK135" s="2">
+        <v>0</v>
+      </c>
       <c r="BN135" s="1">
         <v>0</v>
       </c>
@@ -43307,6 +43709,9 @@
       <c r="BJ136" s="1">
         <v>0</v>
       </c>
+      <c r="BK136" s="2">
+        <v>0</v>
+      </c>
       <c r="BN136" s="1">
         <v>0</v>
       </c>
@@ -43603,6 +44008,9 @@
       <c r="BJ137" s="1">
         <v>0</v>
       </c>
+      <c r="BK137" s="2">
+        <v>0</v>
+      </c>
       <c r="BN137" s="1">
         <v>0</v>
       </c>
@@ -43899,6 +44307,9 @@
       <c r="BJ138" s="1">
         <v>0</v>
       </c>
+      <c r="BK138" s="2">
+        <v>0</v>
+      </c>
       <c r="BN138" s="1">
         <v>2</v>
       </c>
@@ -44124,7 +44535,7 @@
         <v>23</v>
       </c>
       <c r="AM139" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN139" s="2">
         <v>3</v>
@@ -44195,6 +44606,9 @@
       <c r="BJ139" s="1">
         <v>0</v>
       </c>
+      <c r="BK139" s="2">
+        <v>0</v>
+      </c>
       <c r="BN139" s="1">
         <v>2</v>
       </c>
@@ -44271,7 +44685,7 @@
         <v>61</v>
       </c>
       <c r="CM139" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CN139" s="2">
         <v>2</v>
@@ -44295,7 +44709,7 @@
         <v>489</v>
       </c>
       <c r="CU139" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CV139" s="1">
         <v>14</v>
@@ -44318,7 +44732,7 @@
         <v>4</v>
       </c>
       <c r="E140" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F140" s="1">
         <v>5</v>
@@ -44342,7 +44756,7 @@
         <v>6</v>
       </c>
       <c r="M140" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N140" s="1">
         <v>489</v>
@@ -44491,6 +44905,9 @@
       <c r="BJ140" s="1">
         <v>0</v>
       </c>
+      <c r="BK140" s="2">
+        <v>0</v>
+      </c>
       <c r="BN140" s="1">
         <v>60</v>
       </c>
@@ -44597,7 +45014,7 @@
         <v>48</v>
       </c>
       <c r="CW140" s="1">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141" spans="1:101">
@@ -44787,6 +45204,9 @@
       <c r="BJ141" s="1">
         <v>0</v>
       </c>
+      <c r="BK141" s="2">
+        <v>0</v>
+      </c>
       <c r="BN141" s="1">
         <v>0</v>
       </c>
@@ -45083,6 +45503,9 @@
       <c r="BJ142" s="1">
         <v>0</v>
       </c>
+      <c r="BK142" s="2">
+        <v>0</v>
+      </c>
       <c r="BN142" s="1">
         <v>3</v>
       </c>
@@ -45379,6 +45802,9 @@
       <c r="BJ143" s="1">
         <v>0</v>
       </c>
+      <c r="BK143" s="2">
+        <v>0</v>
+      </c>
       <c r="BN143" s="1">
         <v>2</v>
       </c>
@@ -45675,6 +46101,9 @@
       <c r="BJ144" s="1">
         <v>0</v>
       </c>
+      <c r="BK144" s="2">
+        <v>0</v>
+      </c>
       <c r="BN144" s="1">
         <v>0</v>
       </c>
@@ -45971,6 +46400,9 @@
       <c r="BJ145" s="1">
         <v>2</v>
       </c>
+      <c r="BK145" s="2">
+        <v>0</v>
+      </c>
       <c r="BN145" s="1">
         <v>0</v>
       </c>
@@ -46267,6 +46699,9 @@
       <c r="BJ146" s="1">
         <v>0</v>
       </c>
+      <c r="BK146" s="2">
+        <v>0</v>
+      </c>
       <c r="BN146" s="1">
         <v>0</v>
       </c>
@@ -46563,6 +46998,9 @@
       <c r="BJ147" s="1">
         <v>0</v>
       </c>
+      <c r="BK147" s="2">
+        <v>0</v>
+      </c>
       <c r="BN147" s="1">
         <v>1</v>
       </c>
@@ -46859,6 +47297,9 @@
       <c r="BJ148" s="1">
         <v>0</v>
       </c>
+      <c r="BK148" s="2">
+        <v>0</v>
+      </c>
       <c r="BN148" s="1">
         <v>0</v>
       </c>
@@ -47000,7 +47441,7 @@
         <v>61</v>
       </c>
       <c r="K149" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L149" s="2">
         <v>5</v>
@@ -47155,6 +47596,9 @@
       <c r="BJ149" s="1">
         <v>0</v>
       </c>
+      <c r="BK149" s="2">
+        <v>0</v>
+      </c>
       <c r="BN149" s="1">
         <v>7</v>
       </c>
@@ -47255,7 +47699,7 @@
         <v>355</v>
       </c>
       <c r="CU149" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CV149" s="1">
         <v>23</v>
@@ -47451,6 +47895,9 @@
       <c r="BJ150" s="1">
         <v>0</v>
       </c>
+      <c r="BK150" s="2">
+        <v>0</v>
+      </c>
       <c r="BN150" s="1">
         <v>0</v>
       </c>
@@ -47747,6 +48194,9 @@
       <c r="BJ151" s="1">
         <v>0</v>
       </c>
+      <c r="BK151" s="2">
+        <v>0</v>
+      </c>
       <c r="BN151" s="1">
         <v>0</v>
       </c>
@@ -48043,6 +48493,9 @@
       <c r="BJ152" s="1">
         <v>0</v>
       </c>
+      <c r="BK152" s="2">
+        <v>0</v>
+      </c>
       <c r="BN152" s="1">
         <v>0</v>
       </c>
@@ -48339,6 +48792,9 @@
       <c r="BJ153" s="1">
         <v>0</v>
       </c>
+      <c r="BK153" s="2">
+        <v>0</v>
+      </c>
       <c r="BN153" s="1">
         <v>88</v>
       </c>
@@ -48635,6 +49091,9 @@
       <c r="BJ154" s="1">
         <v>0</v>
       </c>
+      <c r="BK154" s="2">
+        <v>0</v>
+      </c>
       <c r="BN154" s="1">
         <v>0</v>
       </c>
@@ -48931,6 +49390,9 @@
       <c r="BJ155" s="1">
         <v>0</v>
       </c>
+      <c r="BK155" s="2">
+        <v>0</v>
+      </c>
       <c r="BN155" s="1">
         <v>101</v>
       </c>
@@ -49072,7 +49534,7 @@
         <v>5609</v>
       </c>
       <c r="K156" s="2">
-        <v>418</v>
+        <v>70</v>
       </c>
       <c r="L156" s="2">
         <v>582</v>
@@ -49156,7 +49618,7 @@
         <v>263</v>
       </c>
       <c r="AM156" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AN156" s="2">
         <v>22</v>
@@ -49168,7 +49630,7 @@
         <v>18</v>
       </c>
       <c r="AQ156" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AR156" s="2">
         <v>6</v>
@@ -49216,7 +49678,7 @@
         <v>90</v>
       </c>
       <c r="BG156" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BH156" s="2">
         <v>6</v>
@@ -49227,6 +49689,9 @@
       <c r="BJ156" s="1">
         <v>0</v>
       </c>
+      <c r="BK156" s="2">
+        <v>0</v>
+      </c>
       <c r="BN156" s="1">
         <v>103</v>
       </c>
@@ -49291,7 +49756,7 @@
         <v>1628</v>
       </c>
       <c r="CI156" s="2">
-        <v>236</v>
+        <v>52</v>
       </c>
       <c r="CJ156" s="2">
         <v>303</v>
@@ -49303,7 +49768,7 @@
         <v>15</v>
       </c>
       <c r="CM156" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CN156" s="2">
         <v>9</v>
@@ -49327,7 +49792,7 @@
         <v>17919</v>
       </c>
       <c r="CU156" s="1">
-        <v>724</v>
+        <v>165</v>
       </c>
       <c r="CV156" s="1">
         <v>1130</v>
@@ -49523,6 +49988,9 @@
       <c r="BJ157" s="1">
         <v>0</v>
       </c>
+      <c r="BK157" s="2">
+        <v>0</v>
+      </c>
       <c r="BN157" s="1">
         <v>0</v>
       </c>
@@ -49819,6 +50287,9 @@
       <c r="BJ158" s="1">
         <v>0</v>
       </c>
+      <c r="BK158" s="2">
+        <v>0</v>
+      </c>
       <c r="BN158" s="1">
         <v>0</v>
       </c>
@@ -50008,7 +50479,7 @@
         <v>96</v>
       </c>
       <c r="AA159" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB159" s="2">
         <v>4</v>
@@ -50115,6 +50586,9 @@
       <c r="BJ159" s="1">
         <v>0</v>
       </c>
+      <c r="BK159" s="2">
+        <v>0</v>
+      </c>
       <c r="BN159" s="1">
         <v>133</v>
       </c>
@@ -50215,7 +50689,7 @@
         <v>18873</v>
       </c>
       <c r="CU159" s="1">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="CV159" s="1">
         <v>637</v>
@@ -50411,6 +50885,9 @@
       <c r="BJ160" s="1">
         <v>0</v>
       </c>
+      <c r="BK160" s="2">
+        <v>0</v>
+      </c>
       <c r="BN160" s="1">
         <v>0</v>
       </c>
@@ -50707,6 +51184,9 @@
       <c r="BJ161" s="1">
         <v>0</v>
       </c>
+      <c r="BK161" s="2">
+        <v>0</v>
+      </c>
       <c r="BN161" s="1">
         <v>0</v>
       </c>
@@ -51003,6 +51483,9 @@
       <c r="BJ162" s="1">
         <v>0</v>
       </c>
+      <c r="BK162" s="2">
+        <v>0</v>
+      </c>
       <c r="BN162" s="1">
         <v>19</v>
       </c>
@@ -51299,6 +51782,9 @@
       <c r="BJ163" s="1">
         <v>0</v>
       </c>
+      <c r="BK163" s="2">
+        <v>0</v>
+      </c>
       <c r="BN163" s="1">
         <v>0</v>
       </c>
@@ -51595,6 +52081,9 @@
       <c r="BJ164" s="1">
         <v>0</v>
       </c>
+      <c r="BK164" s="2">
+        <v>0</v>
+      </c>
       <c r="BN164" s="1">
         <v>0</v>
       </c>
@@ -51891,6 +52380,9 @@
       <c r="BJ165" s="1">
         <v>0</v>
       </c>
+      <c r="BK165" s="2">
+        <v>0</v>
+      </c>
       <c r="BN165" s="1">
         <v>290</v>
       </c>
@@ -52187,6 +52679,9 @@
       <c r="BJ166" s="1">
         <v>0</v>
       </c>
+      <c r="BK166" s="2">
+        <v>0</v>
+      </c>
       <c r="BN166" s="1">
         <v>0</v>
       </c>
@@ -52483,6 +52978,9 @@
       <c r="BJ167" s="1">
         <v>0</v>
       </c>
+      <c r="BK167" s="2">
+        <v>0</v>
+      </c>
       <c r="BN167" s="1">
         <v>3</v>
       </c>
@@ -52779,6 +53277,9 @@
       <c r="BJ168" s="1">
         <v>0</v>
       </c>
+      <c r="BK168" s="2">
+        <v>0</v>
+      </c>
       <c r="BN168" s="1">
         <v>0</v>
       </c>
@@ -53075,6 +53576,9 @@
       <c r="BJ169" s="1">
         <v>0</v>
       </c>
+      <c r="BK169" s="2">
+        <v>0</v>
+      </c>
       <c r="BN169" s="1">
         <v>19</v>
       </c>
@@ -53371,6 +53875,9 @@
       <c r="BJ170" s="1">
         <v>0</v>
       </c>
+      <c r="BK170" s="2">
+        <v>0</v>
+      </c>
       <c r="BN170" s="1">
         <v>189</v>
       </c>
@@ -53667,6 +54174,9 @@
       <c r="BJ171" s="1">
         <v>0</v>
       </c>
+      <c r="BK171" s="2">
+        <v>0</v>
+      </c>
       <c r="BN171" s="1">
         <v>0</v>
       </c>
@@ -53963,6 +54473,9 @@
       <c r="BJ172" s="1">
         <v>0</v>
       </c>
+      <c r="BK172" s="2">
+        <v>0</v>
+      </c>
       <c r="BN172" s="1">
         <v>0</v>
       </c>
@@ -54259,6 +54772,9 @@
       <c r="BJ173" s="1">
         <v>0</v>
       </c>
+      <c r="BK173" s="2">
+        <v>0</v>
+      </c>
       <c r="BN173" s="1">
         <v>0</v>
       </c>
@@ -54555,6 +55071,9 @@
       <c r="BJ174" s="1">
         <v>0</v>
       </c>
+      <c r="BK174" s="2">
+        <v>0</v>
+      </c>
       <c r="BN174" s="1">
         <v>0</v>
       </c>
@@ -54851,6 +55370,9 @@
       <c r="BJ175" s="1">
         <v>0</v>
       </c>
+      <c r="BK175" s="2">
+        <v>0</v>
+      </c>
       <c r="BN175" s="1">
         <v>0</v>
       </c>
@@ -55147,6 +55669,9 @@
       <c r="BJ176" s="1">
         <v>0</v>
       </c>
+      <c r="BK176" s="2">
+        <v>0</v>
+      </c>
       <c r="BN176" s="1">
         <v>0</v>
       </c>
@@ -55443,6 +55968,9 @@
       <c r="BJ177" s="1">
         <v>0</v>
       </c>
+      <c r="BK177" s="2">
+        <v>0</v>
+      </c>
       <c r="BN177" s="1">
         <v>97</v>
       </c>
@@ -55739,6 +56267,9 @@
       <c r="BJ178" s="1">
         <v>0</v>
       </c>
+      <c r="BK178" s="2">
+        <v>0</v>
+      </c>
       <c r="BN178" s="1">
         <v>0</v>
       </c>
@@ -55856,7 +56387,7 @@
         <v>7279</v>
       </c>
       <c r="C179" s="2">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="D179" s="2">
         <v>174</v>
@@ -56035,6 +56566,9 @@
       <c r="BJ179" s="1">
         <v>0</v>
       </c>
+      <c r="BK179" s="2">
+        <v>0</v>
+      </c>
       <c r="BN179" s="1">
         <v>769</v>
       </c>
@@ -56135,7 +56669,7 @@
         <v>42816</v>
       </c>
       <c r="CU179" s="1">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="CV179" s="1">
         <v>1381</v>
@@ -56331,6 +56865,9 @@
       <c r="BJ180" s="1">
         <v>0</v>
       </c>
+      <c r="BK180" s="2">
+        <v>0</v>
+      </c>
       <c r="BN180" s="1">
         <v>0</v>
       </c>
@@ -56627,6 +57164,9 @@
       <c r="BJ181" s="1">
         <v>0</v>
       </c>
+      <c r="BK181" s="2">
+        <v>0</v>
+      </c>
       <c r="BN181" s="1">
         <v>0</v>
       </c>
@@ -56923,6 +57463,9 @@
       <c r="BJ182" s="1">
         <v>0</v>
       </c>
+      <c r="BK182" s="2">
+        <v>0</v>
+      </c>
       <c r="BN182" s="1">
         <v>41</v>
       </c>
@@ -57219,6 +57762,9 @@
       <c r="BJ183" s="1">
         <v>0</v>
       </c>
+      <c r="BK183" s="2">
+        <v>0</v>
+      </c>
       <c r="BN183" s="1">
         <v>0</v>
       </c>
@@ -57515,6 +58061,9 @@
       <c r="BJ184" s="1">
         <v>0</v>
       </c>
+      <c r="BK184" s="2">
+        <v>0</v>
+      </c>
       <c r="BN184" s="1">
         <v>0</v>
       </c>
@@ -57811,6 +58360,9 @@
       <c r="BJ185" s="1">
         <v>0</v>
       </c>
+      <c r="BK185" s="2">
+        <v>0</v>
+      </c>
       <c r="BN185" s="1">
         <v>0</v>
       </c>
@@ -58107,6 +58659,9 @@
       <c r="BJ186" s="1">
         <v>0</v>
       </c>
+      <c r="BK186" s="2">
+        <v>0</v>
+      </c>
       <c r="BN186" s="1">
         <v>0</v>
       </c>
@@ -58403,6 +58958,9 @@
       <c r="BJ187" s="1">
         <v>0</v>
       </c>
+      <c r="BK187" s="2">
+        <v>0</v>
+      </c>
       <c r="BN187" s="1">
         <v>0</v>
       </c>
@@ -58699,6 +59257,9 @@
       <c r="BJ188" s="1">
         <v>0</v>
       </c>
+      <c r="BK188" s="2">
+        <v>0</v>
+      </c>
       <c r="BN188" s="1">
         <v>0</v>
       </c>
@@ -58995,6 +59556,9 @@
       <c r="BJ189" s="1">
         <v>16</v>
       </c>
+      <c r="BK189" s="2">
+        <v>0</v>
+      </c>
       <c r="BN189" s="1">
         <v>0</v>
       </c>
@@ -59291,6 +59855,9 @@
       <c r="BJ190" s="1">
         <v>0</v>
       </c>
+      <c r="BK190" s="2">
+        <v>0</v>
+      </c>
       <c r="BN190" s="1">
         <v>0</v>
       </c>
@@ -59587,6 +60154,9 @@
       <c r="BJ191" s="1">
         <v>0</v>
       </c>
+      <c r="BK191" s="2">
+        <v>0</v>
+      </c>
       <c r="BN191" s="1">
         <v>0</v>
       </c>
@@ -59704,7 +60274,7 @@
         <v>1435</v>
       </c>
       <c r="C192" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D192" s="2">
         <v>22</v>
@@ -59883,6 +60453,9 @@
       <c r="BJ192" s="1">
         <v>0</v>
       </c>
+      <c r="BK192" s="2">
+        <v>0</v>
+      </c>
       <c r="BN192" s="1">
         <v>53</v>
       </c>
@@ -59983,7 +60556,7 @@
         <v>28840</v>
       </c>
       <c r="CU192" s="1">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="CV192" s="1">
         <v>661</v>
@@ -60179,6 +60752,9 @@
       <c r="BJ193" s="1">
         <v>0</v>
       </c>
+      <c r="BK193" s="2">
+        <v>0</v>
+      </c>
       <c r="BN193" s="1">
         <v>0</v>
       </c>
@@ -60475,6 +61051,9 @@
       <c r="BJ194" s="1">
         <v>0</v>
       </c>
+      <c r="BK194" s="2">
+        <v>0</v>
+      </c>
       <c r="BN194" s="1">
         <v>58</v>
       </c>
@@ -60771,6 +61350,9 @@
       <c r="BJ195" s="1">
         <v>0</v>
       </c>
+      <c r="BK195" s="2">
+        <v>0</v>
+      </c>
       <c r="BN195" s="1">
         <v>0</v>
       </c>
@@ -61067,6 +61649,9 @@
       <c r="BJ196" s="1">
         <v>0</v>
       </c>
+      <c r="BK196" s="2">
+        <v>0</v>
+      </c>
       <c r="BN196" s="1">
         <v>7</v>
       </c>
@@ -61363,6 +61948,9 @@
       <c r="BJ197" s="1">
         <v>0</v>
       </c>
+      <c r="BK197" s="2">
+        <v>0</v>
+      </c>
       <c r="BN197" s="1">
         <v>0</v>
       </c>
@@ -61588,7 +62176,7 @@
         <v>336</v>
       </c>
       <c r="AM198" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AN198" s="2">
         <v>6</v>
@@ -61659,6 +62247,9 @@
       <c r="BJ198" s="1">
         <v>0</v>
       </c>
+      <c r="BK198" s="2">
+        <v>0</v>
+      </c>
       <c r="BN198" s="1">
         <v>63</v>
       </c>
@@ -61759,7 +62350,7 @@
         <v>14730</v>
       </c>
       <c r="CU198" s="1">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="CV198" s="1">
         <v>294</v>
@@ -61955,6 +62546,9 @@
       <c r="BJ199" s="1">
         <v>0</v>
       </c>
+      <c r="BK199" s="2">
+        <v>0</v>
+      </c>
       <c r="BN199" s="1">
         <v>509</v>
       </c>
@@ -62251,6 +62845,9 @@
       <c r="BJ200" s="1">
         <v>0</v>
       </c>
+      <c r="BK200" s="2">
+        <v>0</v>
+      </c>
       <c r="BN200" s="1">
         <v>0</v>
       </c>
@@ -62547,6 +63144,9 @@
       <c r="BJ201" s="1">
         <v>0</v>
       </c>
+      <c r="BK201" s="2">
+        <v>0</v>
+      </c>
       <c r="BN201" s="1">
         <v>0</v>
       </c>
@@ -62843,6 +63443,9 @@
       <c r="BJ202" s="1">
         <v>0</v>
       </c>
+      <c r="BK202" s="2">
+        <v>0</v>
+      </c>
       <c r="BN202" s="1">
         <v>0</v>
       </c>
@@ -63139,6 +63742,9 @@
       <c r="BJ203" s="1">
         <v>0</v>
       </c>
+      <c r="BK203" s="2">
+        <v>0</v>
+      </c>
       <c r="BN203" s="1">
         <v>0</v>
       </c>
@@ -63435,6 +64041,9 @@
       <c r="BJ204" s="1">
         <v>0</v>
       </c>
+      <c r="BK204" s="2">
+        <v>0</v>
+      </c>
       <c r="BN204" s="1">
         <v>18</v>
       </c>
@@ -63731,6 +64340,9 @@
       <c r="BJ205" s="1">
         <v>0</v>
       </c>
+      <c r="BK205" s="2">
+        <v>0</v>
+      </c>
       <c r="BN205" s="1">
         <v>479</v>
       </c>
@@ -64027,6 +64639,9 @@
       <c r="BJ206" s="1">
         <v>0</v>
       </c>
+      <c r="BK206" s="2">
+        <v>0</v>
+      </c>
       <c r="BN206" s="1">
         <v>0</v>
       </c>
@@ -64323,6 +64938,9 @@
       <c r="BJ207" s="1">
         <v>0</v>
       </c>
+      <c r="BK207" s="2">
+        <v>0</v>
+      </c>
       <c r="BN207" s="1">
         <v>0</v>
       </c>
@@ -64619,6 +65237,9 @@
       <c r="BJ208" s="1">
         <v>0</v>
       </c>
+      <c r="BK208" s="2">
+        <v>0</v>
+      </c>
       <c r="BN208" s="1">
         <v>17</v>
       </c>
@@ -64915,6 +65536,9 @@
       <c r="BJ209" s="1">
         <v>0</v>
       </c>
+      <c r="BK209" s="2">
+        <v>0</v>
+      </c>
       <c r="BN209" s="1">
         <v>11</v>
       </c>
@@ -65211,6 +65835,9 @@
       <c r="BJ210" s="1">
         <v>0</v>
       </c>
+      <c r="BK210" s="2">
+        <v>0</v>
+      </c>
       <c r="BN210" s="1">
         <v>23</v>
       </c>
@@ -65507,6 +66134,9 @@
       <c r="BJ211" s="1">
         <v>0</v>
       </c>
+      <c r="BK211" s="2">
+        <v>0</v>
+      </c>
       <c r="BN211" s="1">
         <v>0</v>
       </c>
@@ -65801,6 +66431,9 @@
         <v>0</v>
       </c>
       <c r="BJ212" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK212" s="2">
         <v>0</v>
       </c>
       <c r="BN212" s="1">

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3701,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="CF2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG2" s="2">
         <v>1</v>
@@ -3749,7 +3749,7 @@
         <v>69</v>
       </c>
       <c r="CV2" s="1">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="CW2" s="1">
         <v>2768</v>
@@ -5267,16 +5267,16 @@
         <v>7</v>
       </c>
       <c r="F8" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1">
         <v>161</v>
@@ -5537,16 +5537,16 @@
         <v>0</v>
       </c>
       <c r="CT8" s="1">
-        <v>2575</v>
+        <v>2576</v>
       </c>
       <c r="CU8" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CV8" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CW8" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:101">
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AT13" s="1">
         <v>0</v>
@@ -7041,7 +7041,7 @@
         <v>48</v>
       </c>
       <c r="CW13" s="1">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:101">
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -7938,7 +7938,7 @@
         <v>-143</v>
       </c>
       <c r="CW16" s="1">
-        <v>-107</v>
+        <v>-108</v>
       </c>
     </row>
     <row r="17" spans="1:101">
@@ -9148,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2">
         <v>2</v>
@@ -9160,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2">
         <v>4</v>
@@ -9430,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="CV21" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CW21" s="1">
         <v>6</v>
@@ -12073,7 +12073,7 @@
         <v>0</v>
       </c>
       <c r="CF30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG30" s="2">
         <v>1</v>
@@ -12121,7 +12121,7 @@
         <v>1</v>
       </c>
       <c r="CV30" s="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="CW30" s="1">
         <v>343</v>
@@ -15744,16 +15744,16 @@
         <v>1</v>
       </c>
       <c r="J43" s="1">
-        <v>1072</v>
+        <v>1088</v>
       </c>
       <c r="K43" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L43" s="2">
         <v>57</v>
       </c>
       <c r="M43" s="2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="N43" s="1">
         <v>1458</v>
@@ -16002,16 +16002,16 @@
         <v>0</v>
       </c>
       <c r="CT43" s="1">
-        <v>43922</v>
+        <v>43938</v>
       </c>
       <c r="CU43" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="CV43" s="1">
         <v>2116</v>
       </c>
       <c r="CW43" s="1">
-        <v>3081</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="44" spans="1:101">
@@ -16617,16 +16617,16 @@
         <v>145</v>
       </c>
       <c r="B46" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="1">
         <v>36</v>
@@ -16899,16 +16899,16 @@
         <v>0</v>
       </c>
       <c r="CT46" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CU46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV46" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CW46" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:101">
@@ -16928,16 +16928,16 @@
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I47" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J47" s="1">
         <v>0</v>
@@ -17198,16 +17198,16 @@
         <v>0</v>
       </c>
       <c r="CT47" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="CU47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV47" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CW47" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:101">
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="AR66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS66" s="2">
         <v>4</v>
@@ -22849,7 +22849,7 @@
         <v>4</v>
       </c>
       <c r="CJ66" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CK66" s="2">
         <v>17</v>
@@ -22885,7 +22885,7 @@
         <v>7</v>
       </c>
       <c r="CV66" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="CW66" s="1">
         <v>96</v>
@@ -23225,7 +23225,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M68" s="2">
         <v>6</v>
@@ -23321,7 +23321,7 @@
         <v>2</v>
       </c>
       <c r="AR68" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS68" s="2">
         <v>6</v>
@@ -23459,7 +23459,7 @@
         <v>2</v>
       </c>
       <c r="CN68" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CO68" s="2">
         <v>6</v>
@@ -23483,7 +23483,7 @@
         <v>6</v>
       </c>
       <c r="CV68" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="CW68" s="1">
         <v>70</v>
@@ -25019,7 +25019,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M74" s="2">
         <v>318</v>
@@ -25277,7 +25277,7 @@
         <v>61</v>
       </c>
       <c r="CV74" s="1">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="CW74" s="1">
         <v>6759</v>
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="J75" s="1">
-        <v>4081</v>
+        <v>4080</v>
       </c>
       <c r="K75" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L75" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M75" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N75" s="1">
         <v>318327</v>
@@ -25540,10 +25540,10 @@
         <v>53</v>
       </c>
       <c r="CJ75" s="2">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="CK75" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="CL75" s="1">
         <v>97</v>
@@ -25552,7 +25552,7 @@
         <v>1</v>
       </c>
       <c r="CN75" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CO75" s="2">
         <v>4</v>
@@ -25570,16 +25570,16 @@
         <v>6</v>
       </c>
       <c r="CT75" s="1">
-        <v>345939</v>
+        <v>345938</v>
       </c>
       <c r="CU75" s="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CV75" s="1">
-        <v>5016</v>
+        <v>4981</v>
       </c>
       <c r="CW75" s="1">
-        <v>11109</v>
+        <v>11106</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -26209,16 +26209,16 @@
         <v>0</v>
       </c>
       <c r="J78" s="1">
-        <v>1206</v>
+        <v>1229</v>
       </c>
       <c r="K78" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L78" s="2">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="M78" s="2">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="N78" s="1">
         <v>3029</v>
@@ -26467,16 +26467,16 @@
         <v>0</v>
       </c>
       <c r="CT78" s="1">
-        <v>5291</v>
+        <v>5314</v>
       </c>
       <c r="CU78" s="1">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="CV78" s="1">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="CW78" s="1">
-        <v>189</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:101">
@@ -26828,7 +26828,7 @@
         <v>435</v>
       </c>
       <c r="Q80" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="R80" s="1">
         <v>0</v>
@@ -27023,7 +27023,7 @@
         <v>0</v>
       </c>
       <c r="CF80" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG80" s="2">
         <v>1</v>
@@ -27071,10 +27071,10 @@
         <v>133</v>
       </c>
       <c r="CV80" s="1">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="CW80" s="1">
-        <v>32970</v>
+        <v>32969</v>
       </c>
     </row>
     <row r="81" spans="1:101">
@@ -27701,7 +27701,7 @@
         <v>1</v>
       </c>
       <c r="I83" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J83" s="1">
         <v>102</v>
@@ -27713,7 +27713,7 @@
         <v>1</v>
       </c>
       <c r="M83" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N83" s="1">
         <v>1456</v>
@@ -27971,7 +27971,7 @@
         <v>58</v>
       </c>
       <c r="CW83" s="1">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:101">
@@ -30013,7 +30013,7 @@
         <v>0</v>
       </c>
       <c r="CF90" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG90" s="2">
         <v>1</v>
@@ -30061,7 +30061,7 @@
         <v>2</v>
       </c>
       <c r="CV90" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CW90" s="1">
         <v>66</v>
@@ -31579,286 +31579,286 @@
         <v>0</v>
       </c>
       <c r="F96" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G96" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" s="2">
+        <v>3</v>
+      </c>
+      <c r="I96" s="2">
+        <v>6</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0</v>
+      </c>
+      <c r="K96" s="2">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2">
+        <v>0</v>
+      </c>
+      <c r="M96" s="2">
+        <v>0</v>
+      </c>
+      <c r="N96" s="1">
+        <v>0</v>
+      </c>
+      <c r="O96" s="2">
+        <v>0</v>
+      </c>
+      <c r="P96" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>0</v>
+      </c>
+      <c r="R96" s="1">
+        <v>0</v>
+      </c>
+      <c r="S96" s="2">
+        <v>0</v>
+      </c>
+      <c r="T96" s="2">
+        <v>0</v>
+      </c>
+      <c r="U96" s="2">
+        <v>0</v>
+      </c>
+      <c r="V96" s="1">
+        <v>0</v>
+      </c>
+      <c r="W96" s="2">
+        <v>0</v>
+      </c>
+      <c r="X96" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ96" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA96" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB96" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC96" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD96" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE96" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF96" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG96" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH96" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI96" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ96" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK96" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN96" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO96" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP96" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ96" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR96" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS96" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT96" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU96" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV96" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW96" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX96" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY96" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ96" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA96" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB96" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC96" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD96" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE96" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF96" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG96" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH96" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI96" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ96" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK96" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL96" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM96" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN96" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO96" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP96" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ96" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR96" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS96" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT96" s="1">
+        <v>62</v>
+      </c>
+      <c r="CU96" s="1">
         <v>2</v>
       </c>
-      <c r="I96" s="2">
-        <v>5</v>
-      </c>
-      <c r="J96" s="1">
-        <v>0</v>
-      </c>
-      <c r="K96" s="2">
-        <v>0</v>
-      </c>
-      <c r="L96" s="2">
-        <v>0</v>
-      </c>
-      <c r="M96" s="2">
-        <v>0</v>
-      </c>
-      <c r="N96" s="1">
-        <v>0</v>
-      </c>
-      <c r="O96" s="2">
-        <v>0</v>
-      </c>
-      <c r="P96" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="2">
-        <v>0</v>
-      </c>
-      <c r="R96" s="1">
-        <v>0</v>
-      </c>
-      <c r="S96" s="2">
-        <v>0</v>
-      </c>
-      <c r="T96" s="2">
-        <v>0</v>
-      </c>
-      <c r="U96" s="2">
-        <v>0</v>
-      </c>
-      <c r="V96" s="1">
-        <v>0</v>
-      </c>
-      <c r="W96" s="2">
-        <v>0</v>
-      </c>
-      <c r="X96" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y96" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA96" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB96" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC96" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE96" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF96" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG96" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI96" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ96" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK96" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM96" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN96" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO96" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ96" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR96" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS96" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU96" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV96" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW96" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY96" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ96" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA96" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB96" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC96" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD96" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE96" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF96" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG96" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH96" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI96" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ96" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK96" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN96" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO96" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP96" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ96" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR96" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS96" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT96" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU96" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV96" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW96" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX96" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY96" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ96" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA96" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB96" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC96" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD96" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE96" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF96" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG96" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH96" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI96" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ96" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK96" s="2">
-        <v>0</v>
-      </c>
-      <c r="CL96" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM96" s="2">
-        <v>0</v>
-      </c>
-      <c r="CN96" s="2">
-        <v>0</v>
-      </c>
-      <c r="CO96" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP96" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ96" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR96" s="2">
-        <v>0</v>
-      </c>
-      <c r="CS96" s="2">
-        <v>0</v>
-      </c>
-      <c r="CT96" s="1">
-        <v>61</v>
-      </c>
-      <c r="CU96" s="1">
-        <v>1</v>
-      </c>
       <c r="CV96" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CW96" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:101">
@@ -32599,7 +32599,7 @@
         <v>52</v>
       </c>
       <c r="AU99" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV99" s="2">
         <v>2</v>
@@ -32749,7 +32749,7 @@
         <v>37380</v>
       </c>
       <c r="CU99" s="1">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CV99" s="1">
         <v>1071</v>
@@ -33702,7 +33702,7 @@
         <v>5001</v>
       </c>
       <c r="P103" s="2">
-        <v>9023</v>
+        <v>8779</v>
       </c>
       <c r="Q103" s="2">
         <v>9023</v>
@@ -33948,7 +33948,7 @@
         <v>5247</v>
       </c>
       <c r="CV103" s="1">
-        <v>11747</v>
+        <v>11503</v>
       </c>
       <c r="CW103" s="1">
         <v>13785</v>
@@ -34862,7 +34862,7 @@
         <v>15</v>
       </c>
       <c r="D107" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E107" s="2">
         <v>77</v>
@@ -34892,16 +34892,16 @@
         <v>250</v>
       </c>
       <c r="N107" s="1">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="O107" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P107" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q107" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R107" s="1">
         <v>0</v>
@@ -35138,16 +35138,16 @@
         <v>0</v>
       </c>
       <c r="CT107" s="1">
-        <v>10450</v>
+        <v>10449</v>
       </c>
       <c r="CU107" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CV107" s="1">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="CW107" s="1">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="108" spans="1:101">
@@ -35167,16 +35167,16 @@
         <v>2</v>
       </c>
       <c r="F108" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G108" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I108" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J108" s="1">
         <v>0</v>
@@ -35437,16 +35437,16 @@
         <v>0</v>
       </c>
       <c r="CT108" s="1">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="CU108" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CV108" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="CW108" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109" spans="1:101">
@@ -36890,7 +36890,7 @@
         <v>0</v>
       </c>
       <c r="CF113" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG113" s="2">
         <v>1</v>
@@ -36938,7 +36938,7 @@
         <v>79</v>
       </c>
       <c r="CV113" s="1">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="CW113" s="1">
         <v>987</v>
@@ -37189,7 +37189,7 @@
         <v>0</v>
       </c>
       <c r="CF114" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG114" s="2">
         <v>1</v>
@@ -37237,7 +37237,7 @@
         <v>179</v>
       </c>
       <c r="CV114" s="1">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="CW114" s="1">
         <v>896</v>
@@ -38086,7 +38086,7 @@
         <v>0</v>
       </c>
       <c r="CF117" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG117" s="2">
         <v>1</v>
@@ -38134,7 +38134,7 @@
         <v>3</v>
       </c>
       <c r="CV117" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="CW117" s="1">
         <v>27</v>
@@ -38163,7 +38163,7 @@
         <v>0</v>
       </c>
       <c r="H118" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" s="2">
         <v>5</v>
@@ -38433,7 +38433,7 @@
         <v>4</v>
       </c>
       <c r="CV118" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CW118" s="1">
         <v>10</v>
@@ -38456,286 +38456,286 @@
         <v>1</v>
       </c>
       <c r="F119" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G119" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119" s="2">
+        <v>3</v>
+      </c>
+      <c r="I119" s="2">
+        <v>5</v>
+      </c>
+      <c r="J119" s="1">
+        <v>0</v>
+      </c>
+      <c r="K119" s="2">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2">
+        <v>0</v>
+      </c>
+      <c r="M119" s="2">
+        <v>0</v>
+      </c>
+      <c r="N119" s="1">
+        <v>0</v>
+      </c>
+      <c r="O119" s="2">
+        <v>0</v>
+      </c>
+      <c r="P119" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="2">
+        <v>0</v>
+      </c>
+      <c r="R119" s="1">
+        <v>0</v>
+      </c>
+      <c r="S119" s="2">
+        <v>0</v>
+      </c>
+      <c r="T119" s="2">
+        <v>0</v>
+      </c>
+      <c r="U119" s="2">
+        <v>0</v>
+      </c>
+      <c r="V119" s="1">
+        <v>0</v>
+      </c>
+      <c r="W119" s="2">
+        <v>0</v>
+      </c>
+      <c r="X119" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y119" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z119" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA119" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB119" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC119" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD119" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE119" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF119" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG119" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH119" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI119" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ119" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK119" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL119" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM119" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN119" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO119" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP119" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ119" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR119" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS119" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT119" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU119" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV119" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW119" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX119" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY119" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ119" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA119" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB119" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC119" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD119" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE119" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF119" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG119" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH119" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI119" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ119" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK119" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN119" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO119" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP119" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ119" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR119" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS119" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT119" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU119" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV119" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW119" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX119" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY119" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ119" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA119" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB119" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC119" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD119" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE119" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF119" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG119" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH119" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI119" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ119" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK119" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL119" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM119" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN119" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO119" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP119" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ119" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR119" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS119" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT119" s="1">
+        <v>62</v>
+      </c>
+      <c r="CU119" s="1">
         <v>2</v>
       </c>
-      <c r="I119" s="2">
-        <v>4</v>
-      </c>
-      <c r="J119" s="1">
-        <v>0</v>
-      </c>
-      <c r="K119" s="2">
-        <v>0</v>
-      </c>
-      <c r="L119" s="2">
-        <v>0</v>
-      </c>
-      <c r="M119" s="2">
-        <v>0</v>
-      </c>
-      <c r="N119" s="1">
-        <v>0</v>
-      </c>
-      <c r="O119" s="2">
-        <v>0</v>
-      </c>
-      <c r="P119" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q119" s="2">
-        <v>0</v>
-      </c>
-      <c r="R119" s="1">
-        <v>0</v>
-      </c>
-      <c r="S119" s="2">
-        <v>0</v>
-      </c>
-      <c r="T119" s="2">
-        <v>0</v>
-      </c>
-      <c r="U119" s="2">
-        <v>0</v>
-      </c>
-      <c r="V119" s="1">
-        <v>0</v>
-      </c>
-      <c r="W119" s="2">
-        <v>0</v>
-      </c>
-      <c r="X119" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y119" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z119" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA119" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB119" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC119" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD119" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE119" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF119" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG119" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH119" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI119" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ119" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK119" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL119" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM119" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN119" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO119" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP119" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ119" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR119" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS119" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT119" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU119" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV119" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW119" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX119" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY119" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ119" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA119" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB119" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC119" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD119" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE119" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF119" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG119" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH119" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI119" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ119" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK119" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN119" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO119" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP119" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ119" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR119" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS119" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT119" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU119" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV119" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW119" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX119" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY119" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ119" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA119" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB119" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC119" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD119" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE119" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF119" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG119" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH119" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI119" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ119" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK119" s="2">
-        <v>0</v>
-      </c>
-      <c r="CL119" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM119" s="2">
-        <v>0</v>
-      </c>
-      <c r="CN119" s="2">
-        <v>0</v>
-      </c>
-      <c r="CO119" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP119" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ119" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR119" s="2">
-        <v>0</v>
-      </c>
-      <c r="CS119" s="2">
-        <v>0</v>
-      </c>
-      <c r="CT119" s="1">
-        <v>61</v>
-      </c>
-      <c r="CU119" s="1">
-        <v>1</v>
-      </c>
       <c r="CV119" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CW119" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:101">
@@ -39048,7 +39048,7 @@
         <v>1</v>
       </c>
       <c r="D121" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E121" s="2">
         <v>4</v>
@@ -39282,7 +39282,7 @@
         <v>0</v>
       </c>
       <c r="CF121" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG121" s="2">
         <v>1</v>
@@ -39330,7 +39330,7 @@
         <v>4</v>
       </c>
       <c r="CV121" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="CW121" s="1">
         <v>42</v>
@@ -40549,16 +40549,16 @@
         <v>0</v>
       </c>
       <c r="F126" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G126" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I126" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J126" s="1">
         <v>0</v>
@@ -40819,16 +40819,16 @@
         <v>0</v>
       </c>
       <c r="CT126" s="1">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="CU126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV126" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CW126" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:101">
@@ -40845,7 +40845,7 @@
         <v>2</v>
       </c>
       <c r="E127" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F127" s="1">
         <v>30</v>
@@ -41127,7 +41127,7 @@
         <v>89</v>
       </c>
       <c r="CW127" s="1">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="128" spans="1:101">
@@ -42272,7 +42272,7 @@
         <v>0</v>
       </c>
       <c r="CF131" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG131" s="2">
         <v>1</v>
@@ -42320,7 +42320,7 @@
         <v>1</v>
       </c>
       <c r="CV131" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW131" s="1">
         <v>7</v>
@@ -42331,16 +42331,16 @@
         <v>231</v>
       </c>
       <c r="B132" s="1">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C132" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D132" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F132" s="1">
         <v>0</v>
@@ -42613,16 +42613,16 @@
         <v>0</v>
       </c>
       <c r="CT132" s="1">
-        <v>117981</v>
+        <v>117982</v>
       </c>
       <c r="CU132" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CV132" s="1">
-        <v>2680</v>
+        <v>2681</v>
       </c>
       <c r="CW132" s="1">
-        <v>4981</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="133" spans="1:101">
@@ -42870,7 +42870,7 @@
         <v>0</v>
       </c>
       <c r="CF133" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG133" s="2">
         <v>1</v>
@@ -42918,7 +42918,7 @@
         <v>128</v>
       </c>
       <c r="CV133" s="1">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="CW133" s="1">
         <v>2602</v>
@@ -44963,7 +44963,7 @@
         <v>0</v>
       </c>
       <c r="CF140" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG140" s="2">
         <v>1</v>
@@ -45011,7 +45011,7 @@
         <v>6</v>
       </c>
       <c r="CV140" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CW140" s="1">
         <v>134</v>
@@ -45330,7 +45330,7 @@
         <v>7</v>
       </c>
       <c r="E142" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F142" s="1">
         <v>8</v>
@@ -45447,7 +45447,7 @@
         <v>0</v>
       </c>
       <c r="AR142" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS142" s="2">
         <v>4</v>
@@ -45561,7 +45561,7 @@
         <v>0</v>
       </c>
       <c r="CF142" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG142" s="2">
         <v>1</v>
@@ -45585,7 +45585,7 @@
         <v>1</v>
       </c>
       <c r="CN142" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CO142" s="2">
         <v>4</v>
@@ -45609,10 +45609,10 @@
         <v>5</v>
       </c>
       <c r="CV142" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="CW142" s="1">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="143" spans="1:101">
@@ -45773,7 +45773,7 @@
         <v>3</v>
       </c>
       <c r="BA143" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB143" s="1">
         <v>0</v>
@@ -45860,7 +45860,7 @@
         <v>0</v>
       </c>
       <c r="CF143" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG143" s="2">
         <v>1</v>
@@ -45908,10 +45908,10 @@
         <v>10</v>
       </c>
       <c r="CV143" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="CW143" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144" spans="1:101">
@@ -45931,16 +45931,16 @@
         <v>2</v>
       </c>
       <c r="F144" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G144" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H144" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I144" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J144" s="1">
         <v>0</v>
@@ -46201,16 +46201,16 @@
         <v>0</v>
       </c>
       <c r="CT144" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="CU144" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CV144" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CW144" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:101">
@@ -47953,7 +47953,7 @@
         <v>0</v>
       </c>
       <c r="CF150" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG150" s="2">
         <v>1</v>
@@ -48001,7 +48001,7 @@
         <v>20</v>
       </c>
       <c r="CV150" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CW150" s="1">
         <v>151</v>
@@ -49062,7 +49062,7 @@
         <v>1</v>
       </c>
       <c r="BA154" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB154" s="1">
         <v>1</v>
@@ -49149,7 +49149,7 @@
         <v>0</v>
       </c>
       <c r="CF154" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CG154" s="2">
         <v>7</v>
@@ -49197,10 +49197,10 @@
         <v>103</v>
       </c>
       <c r="CV154" s="1">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="CW154" s="1">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="155" spans="1:101">
@@ -49448,7 +49448,7 @@
         <v>0</v>
       </c>
       <c r="CF155" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG155" s="2">
         <v>1</v>
@@ -49496,7 +49496,7 @@
         <v>40</v>
       </c>
       <c r="CV155" s="1">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="CW155" s="1">
         <v>4263</v>
@@ -49818,16 +49818,16 @@
         <v>0</v>
       </c>
       <c r="F157" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G157" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I157" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J157" s="1">
         <v>0</v>
@@ -50088,16 +50088,16 @@
         <v>0</v>
       </c>
       <c r="CT157" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="CU157" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV157" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CW157" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:101">
@@ -51911,286 +51911,286 @@
         <v>2</v>
       </c>
       <c r="F164" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G164" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164" s="2">
+        <v>4</v>
+      </c>
+      <c r="J164" s="1">
+        <v>0</v>
+      </c>
+      <c r="K164" s="2">
+        <v>0</v>
+      </c>
+      <c r="L164" s="2">
+        <v>0</v>
+      </c>
+      <c r="M164" s="2">
+        <v>0</v>
+      </c>
+      <c r="N164" s="1">
+        <v>0</v>
+      </c>
+      <c r="O164" s="2">
+        <v>0</v>
+      </c>
+      <c r="P164" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q164" s="2">
+        <v>0</v>
+      </c>
+      <c r="R164" s="1">
+        <v>0</v>
+      </c>
+      <c r="S164" s="2">
+        <v>0</v>
+      </c>
+      <c r="T164" s="2">
+        <v>0</v>
+      </c>
+      <c r="U164" s="2">
+        <v>0</v>
+      </c>
+      <c r="V164" s="1">
+        <v>0</v>
+      </c>
+      <c r="W164" s="2">
+        <v>0</v>
+      </c>
+      <c r="X164" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y164" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z164" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD164" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH164" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL164" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP164" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT164" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX164" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB164" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF164" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ164" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN164" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR164" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV164" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ164" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD164" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH164" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL164" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP164" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT164" s="1">
+        <v>60</v>
+      </c>
+      <c r="CU164" s="1">
+        <v>2</v>
+      </c>
+      <c r="CV164" s="1">
         <v>3</v>
       </c>
-      <c r="J164" s="1">
-        <v>0</v>
-      </c>
-      <c r="K164" s="2">
-        <v>0</v>
-      </c>
-      <c r="L164" s="2">
-        <v>0</v>
-      </c>
-      <c r="M164" s="2">
-        <v>0</v>
-      </c>
-      <c r="N164" s="1">
-        <v>0</v>
-      </c>
-      <c r="O164" s="2">
-        <v>0</v>
-      </c>
-      <c r="P164" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q164" s="2">
-        <v>0</v>
-      </c>
-      <c r="R164" s="1">
-        <v>0</v>
-      </c>
-      <c r="S164" s="2">
-        <v>0</v>
-      </c>
-      <c r="T164" s="2">
-        <v>0</v>
-      </c>
-      <c r="U164" s="2">
-        <v>0</v>
-      </c>
-      <c r="V164" s="1">
-        <v>0</v>
-      </c>
-      <c r="W164" s="2">
-        <v>0</v>
-      </c>
-      <c r="X164" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y164" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z164" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD164" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH164" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL164" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP164" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT164" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX164" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB164" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF164" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ164" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN164" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR164" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV164" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ164" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD164" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH164" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CL164" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CN164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CO164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP164" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CS164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CT164" s="1">
-        <v>59</v>
-      </c>
-      <c r="CU164" s="1">
-        <v>1</v>
-      </c>
-      <c r="CV164" s="1">
-        <v>2</v>
-      </c>
       <c r="CW164" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:101">
@@ -52231,7 +52231,7 @@
         <v>56</v>
       </c>
       <c r="M165" s="2">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="N165" s="1">
         <v>1877</v>
@@ -52324,7 +52324,7 @@
         <v>2</v>
       </c>
       <c r="AR165" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS165" s="2">
         <v>6</v>
@@ -52450,7 +52450,7 @@
         <v>0</v>
       </c>
       <c r="CJ165" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CK165" s="2">
         <v>9</v>
@@ -52486,10 +52486,10 @@
         <v>40</v>
       </c>
       <c r="CV165" s="1">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="CW165" s="1">
-        <v>248</v>
+        <v>226</v>
       </c>
     </row>
     <row r="166" spans="1:101">
@@ -53400,7 +53400,7 @@
         <v>98</v>
       </c>
       <c r="D169" s="2">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="E169" s="2">
         <v>259</v>
@@ -53682,7 +53682,7 @@
         <v>177</v>
       </c>
       <c r="CV169" s="1">
-        <v>596</v>
+        <v>555</v>
       </c>
       <c r="CW169" s="1">
         <v>1224</v>
@@ -53723,7 +53723,7 @@
         <v>8</v>
       </c>
       <c r="L170" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M170" s="2">
         <v>25</v>
@@ -53981,7 +53981,7 @@
         <v>13</v>
       </c>
       <c r="CV170" s="1">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="CW170" s="1">
         <v>85</v>
@@ -55828,7 +55828,7 @@
         <v>0</v>
       </c>
       <c r="P177" s="2">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="Q177" s="2">
         <v>4163</v>
@@ -56026,7 +56026,7 @@
         <v>0</v>
       </c>
       <c r="CF177" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG177" s="2">
         <v>1</v>
@@ -56074,7 +56074,7 @@
         <v>67</v>
       </c>
       <c r="CV177" s="1">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="CW177" s="1">
         <v>4647</v>
@@ -59087,286 +59087,286 @@
         <v>0</v>
       </c>
       <c r="F188" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G188" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H188" s="2">
+        <v>3</v>
+      </c>
+      <c r="I188" s="2">
+        <v>6</v>
+      </c>
+      <c r="J188" s="1">
+        <v>0</v>
+      </c>
+      <c r="K188" s="2">
+        <v>0</v>
+      </c>
+      <c r="L188" s="2">
+        <v>0</v>
+      </c>
+      <c r="M188" s="2">
+        <v>0</v>
+      </c>
+      <c r="N188" s="1">
+        <v>0</v>
+      </c>
+      <c r="O188" s="2">
+        <v>0</v>
+      </c>
+      <c r="P188" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q188" s="2">
+        <v>0</v>
+      </c>
+      <c r="R188" s="1">
+        <v>0</v>
+      </c>
+      <c r="S188" s="2">
+        <v>0</v>
+      </c>
+      <c r="T188" s="2">
+        <v>0</v>
+      </c>
+      <c r="U188" s="2">
+        <v>0</v>
+      </c>
+      <c r="V188" s="1">
+        <v>0</v>
+      </c>
+      <c r="W188" s="2">
+        <v>0</v>
+      </c>
+      <c r="X188" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y188" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z188" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD188" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH188" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL188" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP188" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT188" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX188" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ188" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA188" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB188" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC188" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD188" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE188" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF188" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG188" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH188" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI188" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ188" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK188" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN188" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO188" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP188" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ188" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR188" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS188" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT188" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU188" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV188" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW188" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX188" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY188" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ188" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA188" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB188" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC188" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD188" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE188" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF188" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG188" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH188" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI188" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ188" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK188" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL188" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM188" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN188" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO188" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP188" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ188" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR188" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS188" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT188" s="1">
+        <v>62</v>
+      </c>
+      <c r="CU188" s="1">
         <v>2</v>
       </c>
-      <c r="I188" s="2">
-        <v>5</v>
-      </c>
-      <c r="J188" s="1">
-        <v>0</v>
-      </c>
-      <c r="K188" s="2">
-        <v>0</v>
-      </c>
-      <c r="L188" s="2">
-        <v>0</v>
-      </c>
-      <c r="M188" s="2">
-        <v>0</v>
-      </c>
-      <c r="N188" s="1">
-        <v>0</v>
-      </c>
-      <c r="O188" s="2">
-        <v>0</v>
-      </c>
-      <c r="P188" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q188" s="2">
-        <v>0</v>
-      </c>
-      <c r="R188" s="1">
-        <v>0</v>
-      </c>
-      <c r="S188" s="2">
-        <v>0</v>
-      </c>
-      <c r="T188" s="2">
-        <v>0</v>
-      </c>
-      <c r="U188" s="2">
-        <v>0</v>
-      </c>
-      <c r="V188" s="1">
-        <v>0</v>
-      </c>
-      <c r="W188" s="2">
-        <v>0</v>
-      </c>
-      <c r="X188" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y188" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z188" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA188" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB188" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC188" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD188" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE188" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF188" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG188" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH188" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI188" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ188" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK188" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL188" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM188" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN188" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO188" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP188" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ188" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR188" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS188" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT188" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU188" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV188" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW188" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX188" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY188" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ188" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA188" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB188" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC188" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD188" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE188" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF188" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG188" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH188" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI188" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ188" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK188" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN188" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO188" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP188" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ188" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR188" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS188" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT188" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU188" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV188" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW188" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX188" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY188" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ188" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA188" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB188" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC188" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD188" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE188" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF188" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG188" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH188" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI188" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ188" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK188" s="2">
-        <v>0</v>
-      </c>
-      <c r="CL188" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM188" s="2">
-        <v>0</v>
-      </c>
-      <c r="CN188" s="2">
-        <v>0</v>
-      </c>
-      <c r="CO188" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP188" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ188" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR188" s="2">
-        <v>0</v>
-      </c>
-      <c r="CS188" s="2">
-        <v>0</v>
-      </c>
-      <c r="CT188" s="1">
-        <v>61</v>
-      </c>
-      <c r="CU188" s="1">
-        <v>1</v>
-      </c>
       <c r="CV188" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CW188" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:101">
@@ -60457,16 +60457,16 @@
         <v>0</v>
       </c>
       <c r="BN192" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BO192" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP192" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ192" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BR192" s="1">
         <v>14</v>
@@ -60517,16 +60517,16 @@
         <v>1</v>
       </c>
       <c r="CH192" s="1">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="CI192" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CJ192" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CK192" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CL192" s="1">
         <v>25</v>
@@ -60553,16 +60553,16 @@
         <v>0</v>
       </c>
       <c r="CT192" s="1">
-        <v>28840</v>
+        <v>28842</v>
       </c>
       <c r="CU192" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="CV192" s="1">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="CW192" s="1">
-        <v>1478</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="193" spans="1:101">
@@ -60914,7 +60914,7 @@
         <v>316</v>
       </c>
       <c r="Q194" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="R194" s="1">
         <v>0</v>
@@ -61160,7 +61160,7 @@
         <v>397</v>
       </c>
       <c r="CW194" s="1">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="195" spans="1:101">
@@ -62604,7 +62604,7 @@
         <v>0</v>
       </c>
       <c r="CF199" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG199" s="2">
         <v>1</v>
@@ -62652,7 +62652,7 @@
         <v>91</v>
       </c>
       <c r="CV199" s="1">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="CW199" s="1">
         <v>6976</v>
@@ -64099,7 +64099,7 @@
         <v>0</v>
       </c>
       <c r="CF204" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG204" s="2">
         <v>1</v>
@@ -64147,7 +64147,7 @@
         <v>4</v>
       </c>
       <c r="CV204" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CW204" s="1">
         <v>51</v>
@@ -68081,7 +68081,7 @@
         <v>593</v>
       </c>
       <c r="D76">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E76" t="s">
         <v>709</v>
@@ -68101,7 +68101,7 @@
         <v>590</v>
       </c>
       <c r="D77">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E77" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3464,7 +3464,7 @@
         <v>1391</v>
       </c>
       <c r="C2" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2">
         <v>22</v>
@@ -3746,7 +3746,7 @@
         <v>40013</v>
       </c>
       <c r="CU2" s="1">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="CV2" s="1">
         <v>1262</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="CF3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG3" s="2">
         <v>1</v>
@@ -4048,7 +4048,7 @@
         <v>112</v>
       </c>
       <c r="CV3" s="1">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="CW3" s="1">
         <v>1209</v>
@@ -7351,7 +7351,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2">
         <v>15</v>
@@ -7633,7 +7633,7 @@
         <v>712</v>
       </c>
       <c r="CU15" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="CV15" s="1">
         <v>37</v>
@@ -9453,16 +9453,16 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J22" s="1">
         <v>3</v>
@@ -9723,16 +9723,16 @@
         <v>0</v>
       </c>
       <c r="CT22" s="1">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="CU22" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CV22" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CW22" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:101">
@@ -11866,7 +11866,7 @@
         <v>26</v>
       </c>
       <c r="M30" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="N30" s="1">
         <v>1711</v>
@@ -12124,7 +12124,7 @@
         <v>186</v>
       </c>
       <c r="CW30" s="1">
-        <v>343</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:101">
@@ -12751,7 +12751,7 @@
         <v>5</v>
       </c>
       <c r="I33" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J33" s="1">
         <v>386</v>
@@ -13021,7 +13021,7 @@
         <v>71</v>
       </c>
       <c r="CW33" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:101">
@@ -13340,16 +13340,16 @@
         <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I35" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J35" s="1">
         <v>0</v>
@@ -13610,16 +13610,16 @@
         <v>0</v>
       </c>
       <c r="CT35" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CU35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV35" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CW35" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:101">
@@ -14524,16 +14524,16 @@
         <v>138</v>
       </c>
       <c r="B39" s="1">
-        <v>12154</v>
+        <v>12273</v>
       </c>
       <c r="C39" s="2">
-        <v>115</v>
+        <v>234</v>
       </c>
       <c r="D39" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="E39" s="2">
-        <v>645</v>
+        <v>764</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -14806,16 +14806,16 @@
         <v>2</v>
       </c>
       <c r="CT39" s="1">
-        <v>51983</v>
+        <v>52102</v>
       </c>
       <c r="CU39" s="1">
-        <v>186</v>
+        <v>305</v>
       </c>
       <c r="CV39" s="1">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="CW39" s="1">
-        <v>1845</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="40" spans="1:101">
@@ -15550,7 +15550,7 @@
         <v>2</v>
       </c>
       <c r="AS42" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT42" s="1">
         <v>0</v>
@@ -15676,7 +15676,7 @@
         <v>0</v>
       </c>
       <c r="CK42" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CL42" s="1">
         <v>62</v>
@@ -15712,7 +15712,7 @@
         <v>14</v>
       </c>
       <c r="CW42" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:101">
@@ -15960,7 +15960,7 @@
         <v>0</v>
       </c>
       <c r="CF43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG43" s="2">
         <v>1</v>
@@ -16008,7 +16008,7 @@
         <v>25</v>
       </c>
       <c r="CV43" s="1">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="CW43" s="1">
         <v>3097</v>
@@ -19727,16 +19727,16 @@
         <v>8</v>
       </c>
       <c r="AP56" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS56" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT56" s="1">
         <v>0</v>
@@ -19865,16 +19865,16 @@
         <v>18</v>
       </c>
       <c r="CL56" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CM56" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CN56" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CO56" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CP56" s="1">
         <v>0</v>
@@ -19889,16 +19889,16 @@
         <v>0</v>
       </c>
       <c r="CT56" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="CU56" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CV56" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="CW56" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:101">
@@ -20744,7 +20744,7 @@
         <v>0</v>
       </c>
       <c r="CF59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG59" s="2">
         <v>1</v>
@@ -20792,7 +20792,7 @@
         <v>84</v>
       </c>
       <c r="CV59" s="1">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="CW59" s="1">
         <v>3212</v>
@@ -21443,7 +21443,7 @@
         <v>77</v>
       </c>
       <c r="P62" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q62" s="2">
         <v>150</v>
@@ -21689,7 +21689,7 @@
         <v>88</v>
       </c>
       <c r="CV62" s="1">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="CW62" s="1">
         <v>327</v>
@@ -22911,7 +22911,7 @@
         <v>53</v>
       </c>
       <c r="G67" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H67" s="2">
         <v>3</v>
@@ -23181,7 +23181,7 @@
         <v>88</v>
       </c>
       <c r="CU67" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CV67" s="1">
         <v>3</v>
@@ -24475,16 +24475,16 @@
         <v>8</v>
       </c>
       <c r="AD72" s="1">
-        <v>13015</v>
+        <v>12917</v>
       </c>
       <c r="AE72" s="2">
-        <v>-70</v>
+        <v>-168</v>
       </c>
       <c r="AF72" s="2">
-        <v>273</v>
+        <v>175</v>
       </c>
       <c r="AG72" s="2">
-        <v>1136</v>
+        <v>1038</v>
       </c>
       <c r="AH72" s="1">
         <v>0</v>
@@ -24673,16 +24673,16 @@
         <v>2</v>
       </c>
       <c r="CT72" s="1">
-        <v>157027</v>
+        <v>156929</v>
       </c>
       <c r="CU72" s="1">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="CV72" s="1">
-        <v>2222</v>
+        <v>2124</v>
       </c>
       <c r="CW72" s="1">
-        <v>4784</v>
+        <v>4686</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -25288,16 +25288,16 @@
         <v>174</v>
       </c>
       <c r="B75" s="1">
-        <v>13737</v>
+        <v>13857</v>
       </c>
       <c r="C75" s="2">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="D75" s="2">
-        <v>342</v>
+        <v>462</v>
       </c>
       <c r="E75" s="2">
-        <v>617</v>
+        <v>737</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -25402,7 +25402,7 @@
         <v>12</v>
       </c>
       <c r="AN75" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AO75" s="2">
         <v>94</v>
@@ -25540,7 +25540,7 @@
         <v>53</v>
       </c>
       <c r="CJ75" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="CK75" s="2">
         <v>464</v>
@@ -25570,16 +25570,16 @@
         <v>6</v>
       </c>
       <c r="CT75" s="1">
-        <v>345938</v>
+        <v>346058</v>
       </c>
       <c r="CU75" s="1">
-        <v>212</v>
+        <v>332</v>
       </c>
       <c r="CV75" s="1">
-        <v>4981</v>
+        <v>5092</v>
       </c>
       <c r="CW75" s="1">
-        <v>11106</v>
+        <v>11226</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -25596,7 +25596,7 @@
         <v>23</v>
       </c>
       <c r="E76" s="2">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -25827,7 +25827,7 @@
         <v>0</v>
       </c>
       <c r="CF76" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG76" s="2">
         <v>1</v>
@@ -25875,10 +25875,10 @@
         <v>43</v>
       </c>
       <c r="CV76" s="1">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="CW76" s="1">
-        <v>2245</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="77" spans="1:101">
@@ -26185,16 +26185,16 @@
         <v>177</v>
       </c>
       <c r="B78" s="1">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="C78" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E78" s="2">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F78" s="1">
         <v>4</v>
@@ -26254,7 +26254,7 @@
         <v>0</v>
       </c>
       <c r="Y78" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z78" s="1">
         <v>0</v>
@@ -26467,16 +26467,16 @@
         <v>0</v>
       </c>
       <c r="CT78" s="1">
-        <v>5314</v>
+        <v>5323</v>
       </c>
       <c r="CU78" s="1">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="CV78" s="1">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="CW78" s="1">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:101">
@@ -26499,7 +26499,7 @@
         <v>53</v>
       </c>
       <c r="G79" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" s="2">
         <v>1</v>
@@ -26607,7 +26607,7 @@
         <v>60</v>
       </c>
       <c r="AQ79" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR79" s="2">
         <v>2</v>
@@ -26745,7 +26745,7 @@
         <v>56</v>
       </c>
       <c r="CM79" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN79" s="2">
         <v>2</v>
@@ -26769,7 +26769,7 @@
         <v>257</v>
       </c>
       <c r="CU79" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CV79" s="1">
         <v>6</v>
@@ -26786,7 +26786,7 @@
         <v>2235</v>
       </c>
       <c r="C80" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D80" s="2">
         <v>82</v>
@@ -26924,7 +26924,7 @@
         <v>1</v>
       </c>
       <c r="AW80" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX80" s="1">
         <v>12</v>
@@ -27068,13 +27068,13 @@
         <v>378867</v>
       </c>
       <c r="CU80" s="1">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="CV80" s="1">
         <v>2770</v>
       </c>
       <c r="CW80" s="1">
-        <v>32969</v>
+        <v>32968</v>
       </c>
     </row>
     <row r="81" spans="1:101">
@@ -28589,28 +28589,28 @@
         <v>1</v>
       </c>
       <c r="F86" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G86" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J86" s="1">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="K86" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L86" s="2">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M86" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="N86" s="1">
         <v>31</v>
@@ -28859,16 +28859,16 @@
         <v>0</v>
       </c>
       <c r="CT86" s="1">
-        <v>1445</v>
+        <v>1457</v>
       </c>
       <c r="CU86" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="CV86" s="1">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="CW86" s="1">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:101">
@@ -32497,7 +32497,7 @@
         <v>195</v>
       </c>
       <c r="M99" s="2">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="N99" s="1">
         <v>13077</v>
@@ -32755,7 +32755,7 @@
         <v>1071</v>
       </c>
       <c r="CW99" s="1">
-        <v>1995</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="100" spans="1:101">
@@ -33391,7 +33391,7 @@
         <v>24</v>
       </c>
       <c r="L102" s="2">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M102" s="2">
         <v>87</v>
@@ -33475,7 +33475,7 @@
         <v>0</v>
       </c>
       <c r="AN102" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO102" s="2">
         <v>3</v>
@@ -33613,7 +33613,7 @@
         <v>1</v>
       </c>
       <c r="CJ102" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="CK102" s="2">
         <v>19</v>
@@ -33649,7 +33649,7 @@
         <v>64</v>
       </c>
       <c r="CV102" s="1">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="CW102" s="1">
         <v>555</v>
@@ -33693,13 +33693,13 @@
         <v>530</v>
       </c>
       <c r="M103" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="N103" s="1">
         <v>19978</v>
       </c>
       <c r="O103" s="2">
-        <v>5001</v>
+        <v>222</v>
       </c>
       <c r="P103" s="2">
         <v>8779</v>
@@ -33945,13 +33945,13 @@
         <v>83641</v>
       </c>
       <c r="CU103" s="1">
-        <v>5247</v>
+        <v>468</v>
       </c>
       <c r="CV103" s="1">
         <v>11503</v>
       </c>
       <c r="CW103" s="1">
-        <v>13785</v>
+        <v>13786</v>
       </c>
     </row>
     <row r="104" spans="1:101">
@@ -34892,16 +34892,16 @@
         <v>250</v>
       </c>
       <c r="N107" s="1">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="O107" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P107" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q107" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R107" s="1">
         <v>0</v>
@@ -35138,16 +35138,16 @@
         <v>0</v>
       </c>
       <c r="CT107" s="1">
-        <v>10449</v>
+        <v>10450</v>
       </c>
       <c r="CU107" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CV107" s="1">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="CW107" s="1">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="108" spans="1:101">
@@ -36064,16 +36064,16 @@
         <v>0</v>
       </c>
       <c r="F111" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G111" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111" s="2">
         <v>3</v>
       </c>
       <c r="I111" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J111" s="1">
         <v>0</v>
@@ -36334,16 +36334,16 @@
         <v>0</v>
       </c>
       <c r="CT111" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="CU111" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CV111" s="1">
         <v>3</v>
       </c>
       <c r="CW111" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:101">
@@ -37141,7 +37141,7 @@
         <v>1</v>
       </c>
       <c r="BP114" s="2">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="BQ114" s="2">
         <v>71</v>
@@ -37237,7 +37237,7 @@
         <v>179</v>
       </c>
       <c r="CV114" s="1">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="CW114" s="1">
         <v>896</v>
@@ -39045,7 +39045,7 @@
         <v>140</v>
       </c>
       <c r="C121" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D121" s="2">
         <v>1</v>
@@ -39327,7 +39327,7 @@
         <v>842</v>
       </c>
       <c r="CU121" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CV121" s="1">
         <v>17</v>
@@ -40241,7 +40241,7 @@
         <v>964</v>
       </c>
       <c r="C125" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D125" s="2">
         <v>17</v>
@@ -40352,10 +40352,10 @@
         <v>14</v>
       </c>
       <c r="AN125" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO125" s="2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AP125" s="1">
         <v>0</v>
@@ -40490,10 +40490,10 @@
         <v>6</v>
       </c>
       <c r="CJ125" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="CK125" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="CL125" s="1">
         <v>0</v>
@@ -40523,13 +40523,13 @@
         <v>1036</v>
       </c>
       <c r="CU125" s="1">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="CV125" s="1">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="CW125" s="1">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="126" spans="1:101">
@@ -42723,7 +42723,7 @@
         <v>370</v>
       </c>
       <c r="AG133" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AH133" s="1">
         <v>0</v>
@@ -42771,7 +42771,7 @@
         <v>1</v>
       </c>
       <c r="AW133" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX133" s="1">
         <v>3</v>
@@ -42921,7 +42921,7 @@
         <v>1382</v>
       </c>
       <c r="CW133" s="1">
-        <v>2602</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="134" spans="1:101">
@@ -43351,7 +43351,7 @@
         <v>46</v>
       </c>
       <c r="AQ135" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR135" s="2">
         <v>2</v>
@@ -43489,7 +43489,7 @@
         <v>29</v>
       </c>
       <c r="CM135" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CN135" s="2">
         <v>2</v>
@@ -43513,7 +43513,7 @@
         <v>468</v>
       </c>
       <c r="CU135" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="CV135" s="1">
         <v>27</v>
@@ -44846,7 +44846,7 @@
         <v>41</v>
       </c>
       <c r="AQ140" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR140" s="2">
         <v>2</v>
@@ -44984,7 +44984,7 @@
         <v>38</v>
       </c>
       <c r="CM140" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN140" s="2">
         <v>2</v>
@@ -45008,7 +45008,7 @@
         <v>1379</v>
       </c>
       <c r="CU140" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CV140" s="1">
         <v>47</v>
@@ -46523,7 +46523,7 @@
         <v>0</v>
       </c>
       <c r="D146" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E146" s="2">
         <v>6</v>
@@ -46805,7 +46805,7 @@
         <v>19</v>
       </c>
       <c r="CV146" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CW146" s="1">
         <v>291</v>
@@ -47355,7 +47355,7 @@
         <v>0</v>
       </c>
       <c r="CF148" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG148" s="2">
         <v>1</v>
@@ -47403,7 +47403,7 @@
         <v>2</v>
       </c>
       <c r="CV148" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CW148" s="1">
         <v>15</v>
@@ -48850,7 +48850,7 @@
         <v>0</v>
       </c>
       <c r="CF153" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG153" s="2">
         <v>1</v>
@@ -48898,7 +48898,7 @@
         <v>22</v>
       </c>
       <c r="CV153" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="CW153" s="1">
         <v>113</v>
@@ -49292,16 +49292,16 @@
         <v>6</v>
       </c>
       <c r="AD155" s="1">
-        <v>120476</v>
+        <v>120477</v>
       </c>
       <c r="AE155" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF155" s="2">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="AG155" s="2">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="AH155" s="1">
         <v>0</v>
@@ -49490,16 +49490,16 @@
         <v>0</v>
       </c>
       <c r="CT155" s="1">
-        <v>145498</v>
+        <v>145499</v>
       </c>
       <c r="CU155" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="CV155" s="1">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="CW155" s="1">
-        <v>4263</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="156" spans="1:101">
@@ -51612,28 +51612,28 @@
         <v>1</v>
       </c>
       <c r="F163" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G163" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I163" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J163" s="1">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K163" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L163" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M163" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N163" s="1">
         <v>161</v>
@@ -51882,16 +51882,16 @@
         <v>0</v>
       </c>
       <c r="CT163" s="1">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="CU163" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="CV163" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="CW163" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="164" spans="1:101">
@@ -52204,7 +52204,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E165" s="2">
         <v>11</v>
@@ -52486,7 +52486,7 @@
         <v>40</v>
       </c>
       <c r="CV165" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CW165" s="1">
         <v>226</v>
@@ -53403,7 +53403,7 @@
         <v>132</v>
       </c>
       <c r="E169" s="2">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="F169" s="1">
         <v>0</v>
@@ -53685,7 +53685,7 @@
         <v>555</v>
       </c>
       <c r="CW169" s="1">
-        <v>1224</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="170" spans="1:101">
@@ -55792,7 +55792,7 @@
         <v>33</v>
       </c>
       <c r="D177" s="2">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="E177" s="2">
         <v>187</v>
@@ -56074,7 +56074,7 @@
         <v>67</v>
       </c>
       <c r="CV177" s="1">
-        <v>2100</v>
+        <v>2065</v>
       </c>
       <c r="CW177" s="1">
         <v>4647</v>
@@ -60391,16 +60391,16 @@
         <v>1</v>
       </c>
       <c r="AP192" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AQ192" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR192" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS192" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT192" s="1">
         <v>2</v>
@@ -60553,16 +60553,16 @@
         <v>0</v>
       </c>
       <c r="CT192" s="1">
-        <v>28842</v>
+        <v>28843</v>
       </c>
       <c r="CU192" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CV192" s="1">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="CW192" s="1">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="193" spans="1:101">
@@ -60585,7 +60585,7 @@
         <v>15</v>
       </c>
       <c r="G193" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H193" s="2">
         <v>2</v>
@@ -60855,7 +60855,7 @@
         <v>57495</v>
       </c>
       <c r="CU193" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CV193" s="1">
         <v>3846</v>
@@ -60899,7 +60899,7 @@
         <v>10</v>
       </c>
       <c r="L194" s="2">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M194" s="2">
         <v>42</v>
@@ -60908,13 +60908,13 @@
         <v>2967</v>
       </c>
       <c r="O194" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P194" s="2">
         <v>316</v>
       </c>
       <c r="Q194" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="R194" s="1">
         <v>0</v>
@@ -61109,7 +61109,7 @@
         <v>0</v>
       </c>
       <c r="CF194" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG194" s="2">
         <v>1</v>
@@ -61154,13 +61154,13 @@
         <v>4766</v>
       </c>
       <c r="CU194" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CV194" s="1">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="CW194" s="1">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="195" spans="1:101">
@@ -62388,16 +62388,16 @@
         <v>0</v>
       </c>
       <c r="J199" s="1">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="K199" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L199" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M199" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N199" s="1">
         <v>22479</v>
@@ -62646,16 +62646,16 @@
         <v>0</v>
       </c>
       <c r="CT199" s="1">
-        <v>78161</v>
+        <v>78159</v>
       </c>
       <c r="CU199" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="CV199" s="1">
-        <v>3740</v>
+        <v>3738</v>
       </c>
       <c r="CW199" s="1">
-        <v>6976</v>
+        <v>6974</v>
       </c>
     </row>
     <row r="200" spans="1:101">
@@ -65301,16 +65301,16 @@
         <v>0</v>
       </c>
       <c r="CH208" s="1">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="CI208" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CJ208" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="CK208" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="CL208" s="1">
         <v>20</v>
@@ -65337,16 +65337,16 @@
         <v>0</v>
       </c>
       <c r="CT208" s="1">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="CU208" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CV208" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="CW208" s="1">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="209" spans="1:101">
@@ -65594,7 +65594,7 @@
         <v>0</v>
       </c>
       <c r="CF209" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG209" s="2">
         <v>1</v>
@@ -65642,7 +65642,7 @@
         <v>55</v>
       </c>
       <c r="CV209" s="1">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="CW209" s="1">
         <v>576</v>
@@ -67741,7 +67741,7 @@
         <v>576</v>
       </c>
       <c r="D59">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E59" t="s">
         <v>709</v>
@@ -67821,7 +67821,7 @@
         <v>580</v>
       </c>
       <c r="D63">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E63" t="s">
         <v>709</v>
@@ -70662,7 +70662,7 @@
         <v>701</v>
       </c>
       <c r="D204">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E204" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -4376,7 +4376,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="2">
         <v>5</v>
@@ -4646,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="CV5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CW5" s="1">
         <v>6</v>
@@ -4968,16 +4968,16 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -5238,16 +5238,16 @@
         <v>0</v>
       </c>
       <c r="CT7" s="1">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="CU7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CV7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CW7" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:101">
@@ -10763,7 +10763,7 @@
         <v>1</v>
       </c>
       <c r="AR26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS26" s="2">
         <v>4</v>
@@ -10889,7 +10889,7 @@
         <v>5</v>
       </c>
       <c r="CJ26" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="CK26" s="2">
         <v>40</v>
@@ -10925,7 +10925,7 @@
         <v>8</v>
       </c>
       <c r="CV26" s="1">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="CW26" s="1">
         <v>62</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="AV27" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW27" s="2">
         <v>-1</v>
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="AZ27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA27" s="2">
         <v>1</v>
@@ -12138,7 +12138,7 @@
         <v>11</v>
       </c>
       <c r="D31" s="2">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E31" s="2">
         <v>79</v>
@@ -12372,7 +12372,7 @@
         <v>0</v>
       </c>
       <c r="CF31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG31" s="2">
         <v>1</v>
@@ -12420,7 +12420,7 @@
         <v>27</v>
       </c>
       <c r="CV31" s="1">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="CW31" s="1">
         <v>546</v>
@@ -14823,16 +14823,16 @@
         <v>139</v>
       </c>
       <c r="B40" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="2">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2">
         <v>4</v>
-      </c>
-      <c r="E40" s="2">
-        <v>5</v>
       </c>
       <c r="F40" s="1">
         <v>35</v>
@@ -15105,16 +15105,16 @@
         <v>0</v>
       </c>
       <c r="CT40" s="1">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="CU40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV40" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="CW40" s="1">
-        <v>-24</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="41" spans="1:101">
@@ -15840,16 +15840,16 @@
         <v>0</v>
       </c>
       <c r="AP43" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ43" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR43" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS43" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT43" s="1">
         <v>29</v>
@@ -15966,16 +15966,16 @@
         <v>1</v>
       </c>
       <c r="CH43" s="1">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="CI43" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CJ43" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CK43" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CL43" s="1">
         <v>32</v>
@@ -16002,16 +16002,16 @@
         <v>0</v>
       </c>
       <c r="CT43" s="1">
-        <v>43938</v>
+        <v>43940</v>
       </c>
       <c r="CU43" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CV43" s="1">
-        <v>2115</v>
+        <v>2117</v>
       </c>
       <c r="CW43" s="1">
-        <v>3097</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="44" spans="1:101">
@@ -17520,7 +17520,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E49" s="2">
         <v>42</v>
@@ -17802,7 +17802,7 @@
         <v>32</v>
       </c>
       <c r="CV49" s="1">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="CW49" s="1">
         <v>232</v>
@@ -18274,7 +18274,7 @@
         <v>0</v>
       </c>
       <c r="BD51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE51" s="2">
         <v>2</v>
@@ -18400,7 +18400,7 @@
         <v>12</v>
       </c>
       <c r="CV51" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="CW51" s="1">
         <v>70</v>
@@ -19015,7 +19015,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="2">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E54" s="2">
         <v>47</v>
@@ -19297,7 +19297,7 @@
         <v>26</v>
       </c>
       <c r="CV54" s="1">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="CW54" s="1">
         <v>435</v>
@@ -20026,16 +20026,16 @@
         <v>3</v>
       </c>
       <c r="AP57" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AQ57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR57" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS57" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -20164,16 +20164,16 @@
         <v>0</v>
       </c>
       <c r="CL57" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="CM57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN57" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CO57" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CP57" s="1">
         <v>0</v>
@@ -20188,16 +20188,16 @@
         <v>0</v>
       </c>
       <c r="CT57" s="1">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="CU57" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CV57" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="CW57" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:101">
@@ -20211,7 +20211,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E58" s="2">
         <v>10</v>
@@ -20493,7 +20493,7 @@
         <v>3</v>
       </c>
       <c r="CV58" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CW58" s="1">
         <v>11</v>
@@ -21108,7 +21108,7 @@
         <v>16</v>
       </c>
       <c r="D61" s="2">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E61" s="2">
         <v>54</v>
@@ -21354,7 +21354,7 @@
         <v>15</v>
       </c>
       <c r="CJ61" s="2">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="CK61" s="2">
         <v>71</v>
@@ -21390,7 +21390,7 @@
         <v>32</v>
       </c>
       <c r="CV61" s="1">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="CW61" s="1">
         <v>209</v>
@@ -21407,7 +21407,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E62" s="2">
         <v>4</v>
@@ -21431,7 +21431,7 @@
         <v>4</v>
       </c>
       <c r="L62" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M62" s="2">
         <v>27</v>
@@ -21527,7 +21527,7 @@
         <v>1</v>
       </c>
       <c r="AR62" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS62" s="2">
         <v>5</v>
@@ -21653,7 +21653,7 @@
         <v>5</v>
       </c>
       <c r="CJ62" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="CK62" s="2">
         <v>37</v>
@@ -21689,7 +21689,7 @@
         <v>88</v>
       </c>
       <c r="CV62" s="1">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="CW62" s="1">
         <v>327</v>
@@ -21700,16 +21700,16 @@
         <v>162</v>
       </c>
       <c r="B63" s="1">
-        <v>3353</v>
+        <v>3366</v>
       </c>
       <c r="C63" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E63" s="2">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -21982,16 +21982,16 @@
         <v>0</v>
       </c>
       <c r="CT63" s="1">
-        <v>57566</v>
+        <v>57579</v>
       </c>
       <c r="CU63" s="1">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="CV63" s="1">
-        <v>1273</v>
+        <v>1286</v>
       </c>
       <c r="CW63" s="1">
-        <v>2480</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="64" spans="1:101">
@@ -22603,7 +22603,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E66" s="2">
         <v>13</v>
@@ -22627,7 +22627,7 @@
         <v>2</v>
       </c>
       <c r="L66" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M66" s="2">
         <v>13</v>
@@ -22885,7 +22885,7 @@
         <v>7</v>
       </c>
       <c r="CV66" s="1">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="CW66" s="1">
         <v>96</v>
@@ -23811,7 +23811,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I70" s="2">
         <v>4</v>
@@ -23823,7 +23823,7 @@
         <v>6</v>
       </c>
       <c r="L70" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M70" s="2">
         <v>25</v>
@@ -24081,7 +24081,7 @@
         <v>8</v>
       </c>
       <c r="CV70" s="1">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="CW70" s="1">
         <v>118</v>
@@ -24505,7 +24505,7 @@
         <v>43</v>
       </c>
       <c r="AN72" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AO72" s="2">
         <v>274</v>
@@ -24643,7 +24643,7 @@
         <v>48</v>
       </c>
       <c r="CJ72" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="CK72" s="2">
         <v>402</v>
@@ -24679,7 +24679,7 @@
         <v>83</v>
       </c>
       <c r="CV72" s="1">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="CW72" s="1">
         <v>4686</v>
@@ -24816,7 +24816,7 @@
         <v>0</v>
       </c>
       <c r="AR73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS73" s="2">
         <v>2</v>
@@ -24942,7 +24942,7 @@
         <v>2</v>
       </c>
       <c r="CJ73" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CK73" s="2">
         <v>14</v>
@@ -24978,7 +24978,7 @@
         <v>7</v>
       </c>
       <c r="CV73" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="CW73" s="1">
         <v>36</v>
@@ -25025,16 +25025,16 @@
         <v>318</v>
       </c>
       <c r="N74" s="1">
-        <v>107735</v>
+        <v>107741</v>
       </c>
       <c r="O74" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P74" s="2">
-        <v>2526</v>
+        <v>2532</v>
       </c>
       <c r="Q74" s="2">
-        <v>5264</v>
+        <v>5270</v>
       </c>
       <c r="R74" s="1">
         <v>1</v>
@@ -25271,16 +25271,16 @@
         <v>0</v>
       </c>
       <c r="CT74" s="1">
-        <v>136910</v>
+        <v>136916</v>
       </c>
       <c r="CU74" s="1">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="CV74" s="1">
-        <v>3248</v>
+        <v>3254</v>
       </c>
       <c r="CW74" s="1">
-        <v>6759</v>
+        <v>6765</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25402,7 +25402,7 @@
         <v>12</v>
       </c>
       <c r="AN75" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AO75" s="2">
         <v>94</v>
@@ -25576,7 +25576,7 @@
         <v>332</v>
       </c>
       <c r="CV75" s="1">
-        <v>5092</v>
+        <v>5083</v>
       </c>
       <c r="CW75" s="1">
         <v>11226</v>
@@ -26311,7 +26311,7 @@
         <v>0</v>
       </c>
       <c r="AR78" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS78" s="2">
         <v>3</v>
@@ -26437,7 +26437,7 @@
         <v>0</v>
       </c>
       <c r="CJ78" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CK78" s="2">
         <v>6</v>
@@ -26473,7 +26473,7 @@
         <v>34</v>
       </c>
       <c r="CV78" s="1">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="CW78" s="1">
         <v>220</v>
@@ -26783,16 +26783,16 @@
         <v>179</v>
       </c>
       <c r="B80" s="1">
-        <v>2235</v>
+        <v>2278</v>
       </c>
       <c r="C80" s="2">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D80" s="2">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="E80" s="2">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -27065,16 +27065,16 @@
         <v>0</v>
       </c>
       <c r="CT80" s="1">
-        <v>378867</v>
+        <v>378910</v>
       </c>
       <c r="CU80" s="1">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="CV80" s="1">
-        <v>2770</v>
+        <v>2813</v>
       </c>
       <c r="CW80" s="1">
-        <v>32968</v>
+        <v>33011</v>
       </c>
     </row>
     <row r="81" spans="1:101">
@@ -27692,16 +27692,16 @@
         <v>6</v>
       </c>
       <c r="F83" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G83" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J83" s="1">
         <v>102</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="BD83" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BE83" s="2">
         <v>6</v>
@@ -27962,16 +27962,16 @@
         <v>0</v>
       </c>
       <c r="CT83" s="1">
-        <v>2573</v>
+        <v>2574</v>
       </c>
       <c r="CU83" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CV83" s="1">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="CW83" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:101">
@@ -31221,7 +31221,7 @@
         <v>0</v>
       </c>
       <c r="CJ94" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CK94" s="2">
         <v>6</v>
@@ -31257,7 +31257,7 @@
         <v>1</v>
       </c>
       <c r="CV94" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="CW94" s="1">
         <v>18</v>
@@ -32605,7 +32605,7 @@
         <v>2</v>
       </c>
       <c r="AW99" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX99" s="1">
         <v>12</v>
@@ -32692,7 +32692,7 @@
         <v>0</v>
       </c>
       <c r="CB99" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC99" s="2">
         <v>1</v>
@@ -32752,10 +32752,10 @@
         <v>261</v>
       </c>
       <c r="CV99" s="1">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="CW99" s="1">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="100" spans="1:101">
@@ -33666,7 +33666,7 @@
         <v>60</v>
       </c>
       <c r="D103" s="2">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="E103" s="2">
         <v>380</v>
@@ -33786,7 +33786,7 @@
         <v>0</v>
       </c>
       <c r="AR103" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS103" s="2">
         <v>2</v>
@@ -33912,7 +33912,7 @@
         <v>28</v>
       </c>
       <c r="CJ103" s="2">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="CK103" s="2">
         <v>306</v>
@@ -33948,7 +33948,7 @@
         <v>468</v>
       </c>
       <c r="CV103" s="1">
-        <v>11503</v>
+        <v>11366</v>
       </c>
       <c r="CW103" s="1">
         <v>13786</v>
@@ -35269,7 +35269,7 @@
         <v>2</v>
       </c>
       <c r="AN108" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO108" s="2">
         <v>16</v>
@@ -35407,7 +35407,7 @@
         <v>5</v>
       </c>
       <c r="CJ108" s="2">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="CK108" s="2">
         <v>50</v>
@@ -35443,7 +35443,7 @@
         <v>9</v>
       </c>
       <c r="CV108" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="CW108" s="1">
         <v>75</v>
@@ -36973,16 +36973,16 @@
         <v>0</v>
       </c>
       <c r="J114" s="1">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K114" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L114" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M114" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N114" s="1">
         <v>2239</v>
@@ -37141,7 +37141,7 @@
         <v>1</v>
       </c>
       <c r="BP114" s="2">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="BQ114" s="2">
         <v>71</v>
@@ -37231,16 +37231,16 @@
         <v>0</v>
       </c>
       <c r="CT114" s="1">
-        <v>10214</v>
+        <v>10215</v>
       </c>
       <c r="CU114" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="CV114" s="1">
-        <v>519</v>
+        <v>460</v>
       </c>
       <c r="CW114" s="1">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="115" spans="1:101">
@@ -38157,16 +38157,16 @@
         <v>1</v>
       </c>
       <c r="F118" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G118" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I118" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J118" s="1">
         <v>0</v>
@@ -38427,16 +38427,16 @@
         <v>0</v>
       </c>
       <c r="CT118" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CU118" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CV118" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CW118" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:101">
@@ -40173,16 +40173,16 @@
         <v>0</v>
       </c>
       <c r="CD124" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE124" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF124" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG124" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH124" s="1">
         <v>33</v>
@@ -40221,16 +40221,16 @@
         <v>0</v>
       </c>
       <c r="CT124" s="1">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="CU124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV124" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CW124" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:101">
@@ -42044,16 +42044,16 @@
         <v>0</v>
       </c>
       <c r="F131" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G131" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H131" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I131" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J131" s="1">
         <v>0</v>
@@ -42314,16 +42314,16 @@
         <v>0</v>
       </c>
       <c r="CT131" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CU131" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CV131" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CW131" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:101">
@@ -42630,16 +42630,16 @@
         <v>232</v>
       </c>
       <c r="B133" s="1">
-        <v>6797</v>
+        <v>6839</v>
       </c>
       <c r="C133" s="2">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="D133" s="2">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="E133" s="2">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="F133" s="1">
         <v>0</v>
@@ -42912,16 +42912,16 @@
         <v>0</v>
       </c>
       <c r="CT133" s="1">
-        <v>54442</v>
+        <v>54484</v>
       </c>
       <c r="CU133" s="1">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="CV133" s="1">
-        <v>1382</v>
+        <v>1424</v>
       </c>
       <c r="CW133" s="1">
-        <v>2600</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="134" spans="1:101">
@@ -46517,16 +46517,16 @@
         <v>245</v>
       </c>
       <c r="B146" s="1">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C146" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D146" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E146" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F146" s="1">
         <v>4</v>
@@ -46559,7 +46559,7 @@
         <v>0</v>
       </c>
       <c r="P146" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q146" s="2">
         <v>135</v>
@@ -46799,16 +46799,16 @@
         <v>0</v>
       </c>
       <c r="CT146" s="1">
-        <v>4859</v>
+        <v>4862</v>
       </c>
       <c r="CU146" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="CV146" s="1">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="CW146" s="1">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="147" spans="1:101">
@@ -49615,16 +49615,16 @@
         <v>0</v>
       </c>
       <c r="AL156" s="1">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AM156" s="2">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AN156" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AO156" s="2">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP156" s="1">
         <v>18</v>
@@ -49789,16 +49789,16 @@
         <v>0</v>
       </c>
       <c r="CT156" s="1">
-        <v>17919</v>
+        <v>17916</v>
       </c>
       <c r="CU156" s="1">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="CV156" s="1">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="CW156" s="1">
-        <v>1790</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="157" spans="1:101">
@@ -51343,7 +51343,7 @@
         <v>-1</v>
       </c>
       <c r="P162" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Q162" s="2">
         <v>5</v>
@@ -51589,7 +51589,7 @@
         <v>0</v>
       </c>
       <c r="CV162" s="1">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="CW162" s="1">
         <v>81</v>
@@ -52276,7 +52276,7 @@
         <v>0</v>
       </c>
       <c r="AB165" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC165" s="2">
         <v>4</v>
@@ -52486,7 +52486,7 @@
         <v>40</v>
       </c>
       <c r="CV165" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="CW165" s="1">
         <v>226</v>
@@ -52904,16 +52904,16 @@
         <v>0</v>
       </c>
       <c r="AL167" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM167" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN167" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO167" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP167" s="1">
         <v>23</v>
@@ -53048,7 +53048,7 @@
         <v>10</v>
       </c>
       <c r="CJ167" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="CK167" s="2">
         <v>42</v>
@@ -53078,16 +53078,16 @@
         <v>0</v>
       </c>
       <c r="CT167" s="1">
-        <v>4589</v>
+        <v>4590</v>
       </c>
       <c r="CU167" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="CV167" s="1">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="CW167" s="1">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="168" spans="1:101">
@@ -53693,28 +53693,28 @@
         <v>269</v>
       </c>
       <c r="B170" s="1">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C170" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D170" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F170" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G170" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170" s="1">
         <v>199</v>
@@ -53975,16 +53975,16 @@
         <v>0</v>
       </c>
       <c r="CT170" s="1">
-        <v>5505</v>
+        <v>5507</v>
       </c>
       <c r="CU170" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CV170" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="CW170" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="171" spans="1:101">
@@ -53998,7 +53998,7 @@
         <v>0</v>
       </c>
       <c r="D171" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E171" s="2">
         <v>2</v>
@@ -54010,7 +54010,7 @@
         <v>0</v>
       </c>
       <c r="H171" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" s="2">
         <v>2</v>
@@ -54280,7 +54280,7 @@
         <v>0</v>
       </c>
       <c r="CV171" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CW171" s="1">
         <v>4</v>
@@ -55302,7 +55302,7 @@
         <v>2</v>
       </c>
       <c r="AN175" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AO175" s="2">
         <v>111</v>
@@ -55440,7 +55440,7 @@
         <v>6</v>
       </c>
       <c r="CJ175" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="CK175" s="2">
         <v>258</v>
@@ -55476,7 +55476,7 @@
         <v>9</v>
       </c>
       <c r="CV175" s="1">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="CW175" s="1">
         <v>413</v>
@@ -56097,16 +56097,16 @@
         <v>9</v>
       </c>
       <c r="F178" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G178" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J178" s="1">
         <v>0</v>
@@ -56199,7 +56199,7 @@
         <v>0</v>
       </c>
       <c r="AN178" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AO178" s="2">
         <v>252</v>
@@ -56337,7 +56337,7 @@
         <v>0</v>
       </c>
       <c r="CJ178" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="CK178" s="2">
         <v>113</v>
@@ -56349,7 +56349,7 @@
         <v>0</v>
       </c>
       <c r="CN178" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO178" s="2">
         <v>4</v>
@@ -56367,16 +56367,16 @@
         <v>0</v>
       </c>
       <c r="CT178" s="1">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="CU178" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CV178" s="1">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="CW178" s="1">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="179" spans="1:101">
@@ -56498,7 +56498,7 @@
         <v>4</v>
       </c>
       <c r="AN179" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AO179" s="2">
         <v>19</v>
@@ -56549,7 +56549,7 @@
         <v>0</v>
       </c>
       <c r="BE179" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF179" s="1">
         <v>0</v>
@@ -56636,7 +56636,7 @@
         <v>23</v>
       </c>
       <c r="CJ179" s="2">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="CK179" s="2">
         <v>142</v>
@@ -56672,10 +56672,10 @@
         <v>102</v>
       </c>
       <c r="CV179" s="1">
-        <v>1381</v>
+        <v>1350</v>
       </c>
       <c r="CW179" s="1">
-        <v>2882</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="180" spans="1:101">
@@ -57592,16 +57592,16 @@
         <v>2</v>
       </c>
       <c r="F183" s="1">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G183" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H183" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I183" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J183" s="1">
         <v>0</v>
@@ -57862,16 +57862,16 @@
         <v>0</v>
       </c>
       <c r="CT183" s="1">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="CU183" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CV183" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CW183" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:101">
@@ -58495,7 +58495,7 @@
         <v>1</v>
       </c>
       <c r="H186" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" s="2">
         <v>6</v>
@@ -58765,7 +58765,7 @@
         <v>1</v>
       </c>
       <c r="CV186" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW186" s="1">
         <v>6</v>
@@ -59925,7 +59925,7 @@
         <v>0</v>
       </c>
       <c r="CJ190" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CK190" s="2">
         <v>2</v>
@@ -59961,7 +59961,7 @@
         <v>1</v>
       </c>
       <c r="CV190" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="CW190" s="1">
         <v>17</v>
@@ -60869,16 +60869,16 @@
         <v>293</v>
       </c>
       <c r="B194" s="1">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C194" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D194" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E194" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F194" s="1">
         <v>2</v>
@@ -60905,16 +60905,16 @@
         <v>42</v>
       </c>
       <c r="N194" s="1">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="O194" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P194" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q194" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="R194" s="1">
         <v>0</v>
@@ -62305,7 +62305,7 @@
         <v>0</v>
       </c>
       <c r="CF198" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG198" s="2">
         <v>1</v>
@@ -62353,7 +62353,7 @@
         <v>65</v>
       </c>
       <c r="CV198" s="1">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="CW198" s="1">
         <v>538</v>
@@ -62370,7 +62370,7 @@
         <v>48</v>
       </c>
       <c r="D199" s="2">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="E199" s="2">
         <v>258</v>
@@ -62400,16 +62400,16 @@
         <v>220</v>
       </c>
       <c r="N199" s="1">
-        <v>22479</v>
+        <v>22480</v>
       </c>
       <c r="O199" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P199" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q199" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="R199" s="1">
         <v>0</v>
@@ -62646,16 +62646,16 @@
         <v>0</v>
       </c>
       <c r="CT199" s="1">
-        <v>78159</v>
+        <v>78160</v>
       </c>
       <c r="CU199" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CV199" s="1">
-        <v>3738</v>
+        <v>3711</v>
       </c>
       <c r="CW199" s="1">
-        <v>6974</v>
+        <v>6975</v>
       </c>
     </row>
     <row r="200" spans="1:101">
@@ -64164,7 +64164,7 @@
         <v>7</v>
       </c>
       <c r="D205" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E205" s="2">
         <v>43</v>
@@ -64188,7 +64188,7 @@
         <v>12</v>
       </c>
       <c r="L205" s="2">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M205" s="2">
         <v>55</v>
@@ -64446,7 +64446,7 @@
         <v>27</v>
       </c>
       <c r="CV205" s="1">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="CW205" s="1">
         <v>397</v>
@@ -68081,7 +68081,7 @@
         <v>593</v>
       </c>
       <c r="D76">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E76" t="s">
         <v>709</v>
@@ -68161,7 +68161,7 @@
         <v>541</v>
       </c>
       <c r="D80">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E80" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3536,7 +3536,7 @@
         <v>78</v>
       </c>
       <c r="AA2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="2">
         <v>3</v>
@@ -3746,7 +3746,7 @@
         <v>40013</v>
       </c>
       <c r="CU2" s="1">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="CV2" s="1">
         <v>1262</v>
@@ -4311,7 +4311,7 @@
         <v>5</v>
       </c>
       <c r="CJ4" s="2">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="CK4" s="2">
         <v>101</v>
@@ -4347,7 +4347,7 @@
         <v>370</v>
       </c>
       <c r="CV4" s="1">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="CW4" s="1">
         <v>920</v>
@@ -4660,7 +4660,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -4942,7 +4942,7 @@
         <v>32</v>
       </c>
       <c r="CU6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CV6" s="1">
         <v>5</v>
@@ -5264,7 +5264,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1">
         <v>30</v>
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="2">
         <v>4</v>
@@ -5543,10 +5543,10 @@
         <v>22</v>
       </c>
       <c r="CV8" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CW8" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:101">
@@ -6472,7 +6472,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -6742,7 +6742,7 @@
         <v>2</v>
       </c>
       <c r="CW12" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:101">
@@ -7354,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E15" s="2">
         <v>15</v>
@@ -7636,7 +7636,7 @@
         <v>19</v>
       </c>
       <c r="CV15" s="1">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="CW15" s="1">
         <v>76</v>
@@ -8664,16 +8664,16 @@
         <v>0</v>
       </c>
       <c r="AP19" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR19" s="2">
         <v>2</v>
       </c>
       <c r="AS19" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -8790,16 +8790,16 @@
         <v>0</v>
       </c>
       <c r="CH19" s="1">
-        <v>895</v>
+        <v>909</v>
       </c>
       <c r="CI19" s="2">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="CJ19" s="2">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="CK19" s="2">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="CL19" s="1">
         <v>23</v>
@@ -8826,16 +8826,16 @@
         <v>0</v>
       </c>
       <c r="CT19" s="1">
-        <v>18193</v>
+        <v>18208</v>
       </c>
       <c r="CU19" s="1">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="CV19" s="1">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="CW19" s="1">
-        <v>627</v>
+        <v>642</v>
       </c>
     </row>
     <row r="20" spans="1:101">
@@ -9603,7 +9603,7 @@
         <v>0</v>
       </c>
       <c r="BD22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE22" s="2">
         <v>6</v>
@@ -9729,7 +9729,7 @@
         <v>4</v>
       </c>
       <c r="CV22" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="CW22" s="1">
         <v>44</v>
@@ -11869,16 +11869,16 @@
         <v>82</v>
       </c>
       <c r="N30" s="1">
-        <v>1711</v>
+        <v>1721</v>
       </c>
       <c r="O30" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P30" s="2">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="2">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="R30" s="1">
         <v>1</v>
@@ -11947,7 +11947,7 @@
         <v>0</v>
       </c>
       <c r="AN30" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO30" s="2">
         <v>22</v>
@@ -12085,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="CJ30" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="CK30" s="2">
         <v>24</v>
@@ -12115,16 +12115,16 @@
         <v>0</v>
       </c>
       <c r="CT30" s="1">
-        <v>4903</v>
+        <v>4913</v>
       </c>
       <c r="CU30" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="CV30" s="1">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="CW30" s="1">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:101">
@@ -12165,7 +12165,7 @@
         <v>15</v>
       </c>
       <c r="M31" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N31" s="1">
         <v>5583</v>
@@ -12423,7 +12423,7 @@
         <v>311</v>
       </c>
       <c r="CW31" s="1">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="32" spans="1:101">
@@ -12775,7 +12775,7 @@
         <v>25</v>
       </c>
       <c r="Q33" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R33" s="1">
         <v>1</v>
@@ -13021,7 +13021,7 @@
         <v>71</v>
       </c>
       <c r="CW33" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:101">
@@ -14527,7 +14527,7 @@
         <v>12273</v>
       </c>
       <c r="C39" s="2">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="D39" s="2">
         <v>355</v>
@@ -14809,7 +14809,7 @@
         <v>52102</v>
       </c>
       <c r="CU39" s="1">
-        <v>305</v>
+        <v>187</v>
       </c>
       <c r="CV39" s="1">
         <v>1000</v>
@@ -19039,7 +19039,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="2">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="M54" s="2">
         <v>129</v>
@@ -19297,7 +19297,7 @@
         <v>26</v>
       </c>
       <c r="CV54" s="1">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="CW54" s="1">
         <v>435</v>
@@ -22029,7 +22029,7 @@
         <v>17</v>
       </c>
       <c r="L64" s="2">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M64" s="2">
         <v>94</v>
@@ -22287,7 +22287,7 @@
         <v>18</v>
       </c>
       <c r="CV64" s="1">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="CW64" s="1">
         <v>111</v>
@@ -23324,7 +23324,7 @@
         <v>3</v>
       </c>
       <c r="AS68" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT68" s="1">
         <v>0</v>
@@ -23462,7 +23462,7 @@
         <v>2</v>
       </c>
       <c r="CO68" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CP68" s="1">
         <v>0</v>
@@ -23486,7 +23486,7 @@
         <v>33</v>
       </c>
       <c r="CW68" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:101">
@@ -23919,7 +23919,7 @@
         <v>1</v>
       </c>
       <c r="AR70" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS70" s="2">
         <v>4</v>
@@ -24045,7 +24045,7 @@
         <v>1</v>
       </c>
       <c r="CJ70" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CK70" s="2">
         <v>5</v>
@@ -24081,7 +24081,7 @@
         <v>8</v>
       </c>
       <c r="CV70" s="1">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="CW70" s="1">
         <v>118</v>
@@ -24643,7 +24643,7 @@
         <v>48</v>
       </c>
       <c r="CJ72" s="2">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="CK72" s="2">
         <v>402</v>
@@ -24679,7 +24679,7 @@
         <v>83</v>
       </c>
       <c r="CV72" s="1">
-        <v>2119</v>
+        <v>2105</v>
       </c>
       <c r="CW72" s="1">
         <v>4686</v>
@@ -25025,16 +25025,16 @@
         <v>318</v>
       </c>
       <c r="N74" s="1">
-        <v>107741</v>
+        <v>107744</v>
       </c>
       <c r="O74" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P74" s="2">
-        <v>2532</v>
+        <v>2529</v>
       </c>
       <c r="Q74" s="2">
-        <v>5270</v>
+        <v>5273</v>
       </c>
       <c r="R74" s="1">
         <v>1</v>
@@ -25271,16 +25271,16 @@
         <v>0</v>
       </c>
       <c r="CT74" s="1">
-        <v>136916</v>
+        <v>136919</v>
       </c>
       <c r="CU74" s="1">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="CV74" s="1">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="CW74" s="1">
-        <v>6765</v>
+        <v>6768</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25537,19 +25537,19 @@
         <v>5673</v>
       </c>
       <c r="CI75" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="CJ75" s="2">
         <v>159</v>
       </c>
       <c r="CK75" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="CL75" s="1">
         <v>97</v>
       </c>
       <c r="CM75" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN75" s="2">
         <v>3</v>
@@ -25573,13 +25573,13 @@
         <v>346058</v>
       </c>
       <c r="CU75" s="1">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="CV75" s="1">
         <v>5083</v>
       </c>
       <c r="CW75" s="1">
-        <v>11226</v>
+        <v>11217</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -25886,28 +25886,28 @@
         <v>176</v>
       </c>
       <c r="B77" s="1">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C77" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D77" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E77" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F77" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J77" s="1">
         <v>0</v>
@@ -26168,16 +26168,16 @@
         <v>0</v>
       </c>
       <c r="CT77" s="1">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="CU77" s="1">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="CV77" s="1">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="CW77" s="1">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="78" spans="1:101">
@@ -26828,7 +26828,7 @@
         <v>435</v>
       </c>
       <c r="Q80" s="2">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="R80" s="1">
         <v>0</v>
@@ -26915,16 +26915,16 @@
         <v>0</v>
       </c>
       <c r="AT80" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AU80" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV80" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW80" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX80" s="1">
         <v>12</v>
@@ -27065,16 +27065,16 @@
         <v>0</v>
       </c>
       <c r="CT80" s="1">
-        <v>378910</v>
+        <v>378911</v>
       </c>
       <c r="CU80" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="CV80" s="1">
-        <v>2813</v>
+        <v>2814</v>
       </c>
       <c r="CW80" s="1">
-        <v>33011</v>
+        <v>33009</v>
       </c>
     </row>
     <row r="81" spans="1:101">
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="BD83" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE83" s="2">
         <v>6</v>
@@ -27968,7 +27968,7 @@
         <v>13</v>
       </c>
       <c r="CV83" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="CW83" s="1">
         <v>105</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="CF85" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG85" s="2">
         <v>1</v>
@@ -28566,7 +28566,7 @@
         <v>16</v>
       </c>
       <c r="CV85" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CW85" s="1">
         <v>347</v>
@@ -28610,7 +28610,7 @@
         <v>26</v>
       </c>
       <c r="M86" s="2">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N86" s="1">
         <v>31</v>
@@ -28868,7 +28868,7 @@
         <v>54</v>
       </c>
       <c r="CW86" s="1">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:101">
@@ -29181,7 +29181,7 @@
         <v>47</v>
       </c>
       <c r="D88" s="2">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2">
         <v>284</v>
@@ -29463,7 +29463,7 @@
         <v>135</v>
       </c>
       <c r="CV88" s="1">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="CW88" s="1">
         <v>857</v>
@@ -33484,7 +33484,7 @@
         <v>47</v>
       </c>
       <c r="AQ102" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR102" s="2">
         <v>1</v>
@@ -33646,7 +33646,7 @@
         <v>6650</v>
       </c>
       <c r="CU102" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CV102" s="1">
         <v>178</v>
@@ -35499,7 +35499,7 @@
         <v>249</v>
       </c>
       <c r="Q109" s="2">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="R109" s="1">
         <v>0</v>
@@ -35745,7 +35745,7 @@
         <v>309</v>
       </c>
       <c r="CW109" s="1">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
     <row r="110" spans="1:101">
@@ -36905,7 +36905,7 @@
         <v>36</v>
       </c>
       <c r="CK113" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CL113" s="1">
         <v>11</v>
@@ -36941,7 +36941,7 @@
         <v>475</v>
       </c>
       <c r="CW113" s="1">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="114" spans="1:101">
@@ -36979,7 +36979,7 @@
         <v>4</v>
       </c>
       <c r="L114" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M114" s="2">
         <v>12</v>
@@ -37069,16 +37069,16 @@
         <v>2</v>
       </c>
       <c r="AP114" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AQ114" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR114" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS114" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT114" s="1">
         <v>0</v>
@@ -37135,16 +37135,16 @@
         <v>0</v>
       </c>
       <c r="BN114" s="1">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="BO114" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BP114" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BQ114" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="BR114" s="1">
         <v>0</v>
@@ -37195,16 +37195,16 @@
         <v>1</v>
       </c>
       <c r="CH114" s="1">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="CI114" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CJ114" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CK114" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="CL114" s="1">
         <v>24</v>
@@ -37231,16 +37231,16 @@
         <v>0</v>
       </c>
       <c r="CT114" s="1">
-        <v>10215</v>
+        <v>10222</v>
       </c>
       <c r="CU114" s="1">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="CV114" s="1">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="CW114" s="1">
-        <v>897</v>
+        <v>904</v>
       </c>
     </row>
     <row r="115" spans="1:101">
@@ -37846,16 +37846,16 @@
         <v>216</v>
       </c>
       <c r="B117" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C117" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E117" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F117" s="1">
         <v>50</v>
@@ -38128,16 +38128,16 @@
         <v>0</v>
       </c>
       <c r="CT117" s="1">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CU117" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CV117" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CW117" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:101">
@@ -40950,10 +40950,10 @@
         <v>7</v>
       </c>
       <c r="AN127" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO127" s="2">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="AP127" s="1">
         <v>29</v>
@@ -41088,10 +41088,10 @@
         <v>0</v>
       </c>
       <c r="CJ127" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="CK127" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="CL127" s="1">
         <v>32</v>
@@ -41124,10 +41124,10 @@
         <v>9</v>
       </c>
       <c r="CV127" s="1">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="CW127" s="1">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:101">
@@ -42340,7 +42340,7 @@
         <v>11</v>
       </c>
       <c r="E132" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F132" s="1">
         <v>0</v>
@@ -42361,7 +42361,7 @@
         <v>1</v>
       </c>
       <c r="L132" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M132" s="2">
         <v>9</v>
@@ -42445,7 +42445,7 @@
         <v>3</v>
       </c>
       <c r="AN132" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AO132" s="2">
         <v>22</v>
@@ -42583,7 +42583,7 @@
         <v>3</v>
       </c>
       <c r="CJ132" s="2">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="CK132" s="2">
         <v>54</v>
@@ -42619,10 +42619,10 @@
         <v>9</v>
       </c>
       <c r="CV132" s="1">
-        <v>2681</v>
+        <v>2650</v>
       </c>
       <c r="CW132" s="1">
-        <v>4982</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="133" spans="1:101">
@@ -43181,7 +43181,7 @@
         <v>4</v>
       </c>
       <c r="CJ134" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="CK134" s="2">
         <v>22</v>
@@ -43217,7 +43217,7 @@
         <v>5</v>
       </c>
       <c r="CV134" s="1">
-        <v>3921</v>
+        <v>3917</v>
       </c>
       <c r="CW134" s="1">
         <v>10350</v>
@@ -44433,7 +44433,7 @@
         <v>1</v>
       </c>
       <c r="E139" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F139" s="1">
         <v>43</v>
@@ -44715,7 +44715,7 @@
         <v>14</v>
       </c>
       <c r="CW139" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140" spans="1:101">
@@ -45028,7 +45028,7 @@
         <v>0</v>
       </c>
       <c r="D141" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E141" s="2">
         <v>2</v>
@@ -45148,7 +45148,7 @@
         <v>1</v>
       </c>
       <c r="AR141" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS141" s="2">
         <v>6</v>
@@ -45286,7 +45286,7 @@
         <v>1</v>
       </c>
       <c r="CN141" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO141" s="2">
         <v>5</v>
@@ -45310,7 +45310,7 @@
         <v>3</v>
       </c>
       <c r="CV141" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="CW141" s="1">
         <v>22</v>
@@ -46933,7 +46933,7 @@
         <v>0</v>
       </c>
       <c r="AO147" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP147" s="1">
         <v>66</v>
@@ -47071,7 +47071,7 @@
         <v>12</v>
       </c>
       <c r="CK147" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="CL147" s="1">
         <v>33</v>
@@ -47107,7 +47107,7 @@
         <v>33</v>
       </c>
       <c r="CW147" s="1">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="148" spans="1:101">
@@ -49400,7 +49400,7 @@
         <v>0</v>
       </c>
       <c r="BP155" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BQ155" s="2">
         <v>20</v>
@@ -49496,7 +49496,7 @@
         <v>41</v>
       </c>
       <c r="CV155" s="1">
-        <v>2225</v>
+        <v>2205</v>
       </c>
       <c r="CW155" s="1">
         <v>4264</v>
@@ -49552,7 +49552,7 @@
         <v>42</v>
       </c>
       <c r="Q156" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R156" s="1">
         <v>0</v>
@@ -49798,7 +49798,7 @@
         <v>1127</v>
       </c>
       <c r="CW156" s="1">
-        <v>1787</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="157" spans="1:101">
@@ -50434,7 +50434,7 @@
         <v>29</v>
       </c>
       <c r="L159" s="2">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="M159" s="2">
         <v>207</v>
@@ -50692,7 +50692,7 @@
         <v>52</v>
       </c>
       <c r="CV159" s="1">
-        <v>637</v>
+        <v>600</v>
       </c>
       <c r="CW159" s="1">
         <v>1115</v>
@@ -51340,7 +51340,7 @@
         <v>219</v>
       </c>
       <c r="O162" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P162" s="2">
         <v>-1</v>
@@ -51586,7 +51586,7 @@
         <v>962</v>
       </c>
       <c r="CU162" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV162" s="1">
         <v>69</v>
@@ -53051,7 +53051,7 @@
         <v>14</v>
       </c>
       <c r="CK167" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="CL167" s="1">
         <v>4</v>
@@ -53087,7 +53087,7 @@
         <v>194</v>
       </c>
       <c r="CW167" s="1">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="168" spans="1:101">
@@ -53397,7 +53397,7 @@
         <v>3985</v>
       </c>
       <c r="C169" s="2">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="D169" s="2">
         <v>132</v>
@@ -53421,7 +53421,7 @@
         <v>5262</v>
       </c>
       <c r="K169" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L169" s="2">
         <v>200</v>
@@ -53679,7 +53679,7 @@
         <v>16088</v>
       </c>
       <c r="CU169" s="1">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="CV169" s="1">
         <v>555</v>
@@ -53699,7 +53699,7 @@
         <v>4</v>
       </c>
       <c r="D170" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E170" s="2">
         <v>13</v>
@@ -53981,7 +53981,7 @@
         <v>15</v>
       </c>
       <c r="CV170" s="1">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="CW170" s="1">
         <v>87</v>
@@ -56088,7 +56088,7 @@
         <v>34</v>
       </c>
       <c r="C178" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D178" s="2">
         <v>6</v>
@@ -56370,7 +56370,7 @@
         <v>594</v>
       </c>
       <c r="CU178" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV178" s="1">
         <v>7</v>
@@ -60394,7 +60394,7 @@
         <v>54</v>
       </c>
       <c r="AQ192" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR192" s="2">
         <v>3</v>
@@ -60520,7 +60520,7 @@
         <v>411</v>
       </c>
       <c r="CI192" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CJ192" s="2">
         <v>12</v>
@@ -60556,7 +60556,7 @@
         <v>28843</v>
       </c>
       <c r="CU192" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="CV192" s="1">
         <v>664</v>
@@ -60822,7 +60822,7 @@
         <v>1</v>
       </c>
       <c r="CJ193" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="CK193" s="2">
         <v>16</v>
@@ -60858,7 +60858,7 @@
         <v>4</v>
       </c>
       <c r="CV193" s="1">
-        <v>3846</v>
+        <v>3843</v>
       </c>
       <c r="CW193" s="1">
         <v>5812</v>
@@ -60911,7 +60911,7 @@
         <v>2</v>
       </c>
       <c r="P194" s="2">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="Q194" s="2">
         <v>691</v>
@@ -61157,7 +61157,7 @@
         <v>17</v>
       </c>
       <c r="CV194" s="1">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="CW194" s="1">
         <v>808</v>
@@ -62071,7 +62071,7 @@
         <v>28</v>
       </c>
       <c r="D198" s="2">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E198" s="2">
         <v>154</v>
@@ -62095,7 +62095,7 @@
         <v>24</v>
       </c>
       <c r="L198" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="M198" s="2">
         <v>134</v>
@@ -62353,7 +62353,7 @@
         <v>65</v>
       </c>
       <c r="CV198" s="1">
-        <v>293</v>
+        <v>245</v>
       </c>
       <c r="CW198" s="1">
         <v>538</v>
@@ -65384,7 +65384,7 @@
         <v>21</v>
       </c>
       <c r="L209" s="2">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M209" s="2">
         <v>84</v>
@@ -65642,7 +65642,7 @@
         <v>55</v>
       </c>
       <c r="CV209" s="1">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="CW209" s="1">
         <v>576</v>
@@ -66069,7 +66069,7 @@
         <v>3</v>
       </c>
       <c r="AO211" s="2">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="AP211" s="1">
         <v>1</v>
@@ -66207,7 +66207,7 @@
         <v>17</v>
       </c>
       <c r="CK211" s="2">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="CL211" s="1">
         <v>0</v>
@@ -66243,7 +66243,7 @@
         <v>24</v>
       </c>
       <c r="CW211" s="1">
-        <v>111</v>
+        <v>43</v>
       </c>
     </row>
     <row r="212" spans="1:101">
@@ -67821,7 +67821,7 @@
         <v>580</v>
       </c>
       <c r="D63">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E63" t="s">
         <v>709</v>
@@ -68041,7 +68041,7 @@
         <v>591</v>
       </c>
       <c r="D74">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E74" t="s">
         <v>709</v>
@@ -68061,7 +68061,7 @@
         <v>592</v>
       </c>
       <c r="D75">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E75" t="s">
         <v>709</v>
@@ -68081,7 +68081,7 @@
         <v>593</v>
       </c>
       <c r="D76">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E76" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -7650,7 +7650,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="2">
-        <v>-170</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2">
         <v>-169</v>
@@ -7932,7 +7932,7 @@
         <v>1709</v>
       </c>
       <c r="CU16" s="1">
-        <v>-161</v>
+        <v>9</v>
       </c>
       <c r="CV16" s="1">
         <v>-143</v>
@@ -10760,7 +10760,7 @@
         <v>9</v>
       </c>
       <c r="AQ26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR26" s="2">
         <v>2</v>
@@ -10886,7 +10886,7 @@
         <v>222</v>
       </c>
       <c r="CI26" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CJ26" s="2">
         <v>17</v>
@@ -10898,7 +10898,7 @@
         <v>1</v>
       </c>
       <c r="CM26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN26" s="2">
         <v>1</v>
@@ -10922,7 +10922,7 @@
         <v>362</v>
       </c>
       <c r="CU26" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="CV26" s="1">
         <v>24</v>
@@ -11869,16 +11869,16 @@
         <v>82</v>
       </c>
       <c r="N30" s="1">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="O30" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P30" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q30" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R30" s="1">
         <v>1</v>
@@ -12115,16 +12115,16 @@
         <v>0</v>
       </c>
       <c r="CT30" s="1">
-        <v>4913</v>
+        <v>4914</v>
       </c>
       <c r="CU30" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CV30" s="1">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="CW30" s="1">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:101">
@@ -14527,7 +14527,7 @@
         <v>12273</v>
       </c>
       <c r="C39" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="2">
         <v>355</v>
@@ -14809,7 +14809,7 @@
         <v>52102</v>
       </c>
       <c r="CU39" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CV39" s="1">
         <v>1000</v>
@@ -15544,7 +15544,7 @@
         <v>73</v>
       </c>
       <c r="AQ42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="2">
         <v>2</v>
@@ -15682,7 +15682,7 @@
         <v>62</v>
       </c>
       <c r="CM42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN42" s="2">
         <v>3</v>
@@ -15706,7 +15706,7 @@
         <v>455</v>
       </c>
       <c r="CU42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CV42" s="1">
         <v>14</v>
@@ -21102,16 +21102,16 @@
         <v>160</v>
       </c>
       <c r="B61" s="1">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C61" s="2">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D61" s="2">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E61" s="2">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F61" s="1">
         <v>2</v>
@@ -21351,7 +21351,7 @@
         <v>507</v>
       </c>
       <c r="CI61" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="CJ61" s="2">
         <v>31</v>
@@ -21384,16 +21384,16 @@
         <v>0</v>
       </c>
       <c r="CT61" s="1">
-        <v>2263</v>
+        <v>2273</v>
       </c>
       <c r="CU61" s="1">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="CV61" s="1">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="CW61" s="1">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:101">
@@ -21823,7 +21823,7 @@
         <v>47</v>
       </c>
       <c r="AQ63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR63" s="2">
         <v>3</v>
@@ -21922,16 +21922,16 @@
         <v>0</v>
       </c>
       <c r="BZ63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CA63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD63" s="1">
         <v>7</v>
@@ -21949,7 +21949,7 @@
         <v>1683</v>
       </c>
       <c r="CI63" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CJ63" s="2">
         <v>33</v>
@@ -21961,7 +21961,7 @@
         <v>22</v>
       </c>
       <c r="CM63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN63" s="2">
         <v>3</v>
@@ -21982,16 +21982,16 @@
         <v>0</v>
       </c>
       <c r="CT63" s="1">
-        <v>57579</v>
+        <v>57580</v>
       </c>
       <c r="CU63" s="1">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="CV63" s="1">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="CW63" s="1">
-        <v>2493</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="64" spans="1:101">
@@ -22026,7 +22026,7 @@
         <v>688</v>
       </c>
       <c r="K64" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L64" s="2">
         <v>30</v>
@@ -22284,7 +22284,7 @@
         <v>1278</v>
       </c>
       <c r="CU64" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="CV64" s="1">
         <v>42</v>
@@ -22717,16 +22717,16 @@
         <v>0</v>
       </c>
       <c r="AP66" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AQ66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS66" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT66" s="1">
         <v>0</v>
@@ -22843,16 +22843,16 @@
         <v>0</v>
       </c>
       <c r="CH66" s="1">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="CI66" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CJ66" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="CK66" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CL66" s="1">
         <v>26</v>
@@ -22879,16 +22879,16 @@
         <v>0</v>
       </c>
       <c r="CT66" s="1">
-        <v>1885</v>
+        <v>1889</v>
       </c>
       <c r="CU66" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="CV66" s="1">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="CW66" s="1">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:101">
@@ -24992,7 +24992,7 @@
         <v>4460</v>
       </c>
       <c r="C74" s="2">
-        <v>35</v>
+        <v>-2</v>
       </c>
       <c r="D74" s="2">
         <v>115</v>
@@ -25274,7 +25274,7 @@
         <v>136919</v>
       </c>
       <c r="CU74" s="1">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="CV74" s="1">
         <v>3251</v>
@@ -25396,16 +25396,16 @@
         <v>0</v>
       </c>
       <c r="AL75" s="1">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="AM75" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AN75" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO75" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AP75" s="1">
         <v>73</v>
@@ -25537,7 +25537,7 @@
         <v>5673</v>
       </c>
       <c r="CI75" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="CJ75" s="2">
         <v>159</v>
@@ -25570,16 +25570,16 @@
         <v>6</v>
       </c>
       <c r="CT75" s="1">
-        <v>346058</v>
+        <v>346060</v>
       </c>
       <c r="CU75" s="1">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="CV75" s="1">
-        <v>5083</v>
+        <v>5085</v>
       </c>
       <c r="CW75" s="1">
-        <v>11217</v>
+        <v>11219</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -25587,16 +25587,16 @@
         <v>175</v>
       </c>
       <c r="B76" s="1">
-        <v>4057</v>
+        <v>4066</v>
       </c>
       <c r="C76" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E76" s="2">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -25869,16 +25869,16 @@
         <v>0</v>
       </c>
       <c r="CT76" s="1">
-        <v>84780</v>
+        <v>84789</v>
       </c>
       <c r="CU76" s="1">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="CV76" s="1">
-        <v>1138</v>
+        <v>1147</v>
       </c>
       <c r="CW76" s="1">
-        <v>2232</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="77" spans="1:101">
@@ -26496,16 +26496,16 @@
         <v>1</v>
       </c>
       <c r="F79" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G79" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J79" s="1">
         <v>0</v>
@@ -26604,16 +26604,16 @@
         <v>0</v>
       </c>
       <c r="AP79" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ79" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR79" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS79" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT79" s="1">
         <v>0</v>
@@ -26730,16 +26730,16 @@
         <v>0</v>
       </c>
       <c r="CH79" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CI79" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ79" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CK79" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL79" s="1">
         <v>56</v>
@@ -26766,16 +26766,16 @@
         <v>0</v>
       </c>
       <c r="CT79" s="1">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="CU79" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CV79" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CW79" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:101">
@@ -27991,16 +27991,16 @@
         <v>0</v>
       </c>
       <c r="F84" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G84" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H84" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I84" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J84" s="1">
         <v>0</v>
@@ -28261,16 +28261,16 @@
         <v>0</v>
       </c>
       <c r="CT84" s="1">
-        <v>1898</v>
+        <v>1901</v>
       </c>
       <c r="CU84" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="CV84" s="1">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="CW84" s="1">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="85" spans="1:101">
@@ -31582,7 +31582,7 @@
         <v>62</v>
       </c>
       <c r="G96" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" s="2">
         <v>3</v>
@@ -31852,7 +31852,7 @@
         <v>62</v>
       </c>
       <c r="CU96" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CV96" s="1">
         <v>3</v>
@@ -33971,286 +33971,286 @@
         <v>1</v>
       </c>
       <c r="F104" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G104" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H104" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I104" s="2">
+        <v>5</v>
+      </c>
+      <c r="J104" s="1">
+        <v>0</v>
+      </c>
+      <c r="K104" s="2">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2">
+        <v>0</v>
+      </c>
+      <c r="M104" s="2">
+        <v>0</v>
+      </c>
+      <c r="N104" s="1">
+        <v>0</v>
+      </c>
+      <c r="O104" s="2">
+        <v>0</v>
+      </c>
+      <c r="P104" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>0</v>
+      </c>
+      <c r="R104" s="1">
+        <v>0</v>
+      </c>
+      <c r="S104" s="2">
+        <v>0</v>
+      </c>
+      <c r="T104" s="2">
+        <v>0</v>
+      </c>
+      <c r="U104" s="2">
+        <v>0</v>
+      </c>
+      <c r="V104" s="1">
+        <v>0</v>
+      </c>
+      <c r="W104" s="2">
+        <v>0</v>
+      </c>
+      <c r="X104" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y104" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z104" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD104" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH104" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL104" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP104" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT104" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX104" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ104" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA104" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB104" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC104" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD104" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE104" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF104" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG104" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH104" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI104" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ104" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK104" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN104" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO104" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP104" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ104" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR104" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS104" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT104" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU104" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV104" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW104" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX104" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY104" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ104" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA104" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB104" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC104" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD104" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE104" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF104" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG104" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH104" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI104" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ104" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK104" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL104" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM104" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN104" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO104" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP104" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ104" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR104" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS104" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT104" s="1">
+        <v>86</v>
+      </c>
+      <c r="CU104" s="1">
+        <v>2</v>
+      </c>
+      <c r="CV104" s="1">
         <v>3</v>
       </c>
-      <c r="J104" s="1">
-        <v>0</v>
-      </c>
-      <c r="K104" s="2">
-        <v>0</v>
-      </c>
-      <c r="L104" s="2">
-        <v>0</v>
-      </c>
-      <c r="M104" s="2">
-        <v>0</v>
-      </c>
-      <c r="N104" s="1">
-        <v>0</v>
-      </c>
-      <c r="O104" s="2">
-        <v>0</v>
-      </c>
-      <c r="P104" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="2">
-        <v>0</v>
-      </c>
-      <c r="R104" s="1">
-        <v>0</v>
-      </c>
-      <c r="S104" s="2">
-        <v>0</v>
-      </c>
-      <c r="T104" s="2">
-        <v>0</v>
-      </c>
-      <c r="U104" s="2">
-        <v>0</v>
-      </c>
-      <c r="V104" s="1">
-        <v>0</v>
-      </c>
-      <c r="W104" s="2">
-        <v>0</v>
-      </c>
-      <c r="X104" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y104" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z104" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA104" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB104" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC104" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD104" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE104" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF104" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG104" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH104" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI104" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ104" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK104" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL104" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM104" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN104" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO104" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP104" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ104" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR104" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS104" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT104" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU104" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV104" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW104" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX104" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY104" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ104" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA104" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB104" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC104" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD104" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE104" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF104" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG104" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH104" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI104" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ104" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK104" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN104" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO104" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP104" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ104" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR104" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS104" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT104" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU104" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV104" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW104" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX104" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY104" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ104" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA104" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB104" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC104" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD104" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE104" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF104" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG104" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH104" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI104" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ104" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK104" s="2">
-        <v>0</v>
-      </c>
-      <c r="CL104" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM104" s="2">
-        <v>0</v>
-      </c>
-      <c r="CN104" s="2">
-        <v>0</v>
-      </c>
-      <c r="CO104" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP104" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ104" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR104" s="2">
-        <v>0</v>
-      </c>
-      <c r="CS104" s="2">
-        <v>0</v>
-      </c>
-      <c r="CT104" s="1">
-        <v>84</v>
-      </c>
-      <c r="CU104" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV104" s="1">
-        <v>1</v>
-      </c>
       <c r="CW104" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:101">
@@ -35454,16 +35454,16 @@
         <v>208</v>
       </c>
       <c r="B109" s="1">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="C109" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E109" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F109" s="1">
         <v>0</v>
@@ -35736,16 +35736,16 @@
         <v>0</v>
       </c>
       <c r="CT109" s="1">
-        <v>6357</v>
+        <v>6365</v>
       </c>
       <c r="CU109" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="CV109" s="1">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="CW109" s="1">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="110" spans="1:101">
@@ -37135,16 +37135,16 @@
         <v>0</v>
       </c>
       <c r="BN114" s="1">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="BO114" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BP114" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BQ114" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="BR114" s="1">
         <v>0</v>
@@ -37231,16 +37231,16 @@
         <v>0</v>
       </c>
       <c r="CT114" s="1">
-        <v>10222</v>
+        <v>10227</v>
       </c>
       <c r="CU114" s="1">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="CV114" s="1">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="CW114" s="1">
-        <v>904</v>
+        <v>909</v>
       </c>
     </row>
     <row r="115" spans="1:101">
@@ -38253,155 +38253,155 @@
         <v>0</v>
       </c>
       <c r="AL118" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM118" s="2">
+        <v>6</v>
+      </c>
+      <c r="AN118" s="2">
+        <v>6</v>
+      </c>
+      <c r="AO118" s="2">
+        <v>6</v>
+      </c>
+      <c r="AP118" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ118" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR118" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS118" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT118" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU118" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV118" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW118" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX118" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY118" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ118" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA118" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB118" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC118" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD118" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE118" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF118" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG118" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH118" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI118" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ118" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK118" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN118" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO118" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP118" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ118" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR118" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS118" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT118" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU118" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV118" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW118" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX118" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY118" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ118" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA118" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB118" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC118" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD118" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE118" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF118" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG118" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH118" s="1">
         <v>3</v>
       </c>
-      <c r="AM118" s="2">
+      <c r="CI118" s="2">
         <v>3</v>
       </c>
-      <c r="AN118" s="2">
+      <c r="CJ118" s="2">
         <v>3</v>
       </c>
-      <c r="AO118" s="2">
+      <c r="CK118" s="2">
         <v>3</v>
       </c>
-      <c r="AP118" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ118" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR118" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS118" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT118" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU118" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV118" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW118" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX118" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY118" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ118" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA118" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB118" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC118" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD118" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE118" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF118" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG118" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH118" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI118" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ118" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK118" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN118" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO118" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP118" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ118" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR118" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS118" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT118" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU118" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV118" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW118" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX118" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY118" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ118" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA118" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB118" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC118" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD118" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE118" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF118" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG118" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH118" s="1">
-        <v>1</v>
-      </c>
-      <c r="CI118" s="2">
-        <v>1</v>
-      </c>
-      <c r="CJ118" s="2">
-        <v>1</v>
-      </c>
-      <c r="CK118" s="2">
-        <v>1</v>
-      </c>
       <c r="CL118" s="1">
         <v>0</v>
       </c>
@@ -38427,16 +38427,16 @@
         <v>0</v>
       </c>
       <c r="CT118" s="1">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="CU118" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CV118" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="CW118" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:101">
@@ -38459,7 +38459,7 @@
         <v>61</v>
       </c>
       <c r="G119" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H119" s="2">
         <v>3</v>
@@ -38729,7 +38729,7 @@
         <v>62</v>
       </c>
       <c r="CU119" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CV119" s="1">
         <v>3</v>
@@ -45623,7 +45623,7 @@
         <v>571</v>
       </c>
       <c r="C143" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D143" s="2">
         <v>8</v>
@@ -45647,7 +45647,7 @@
         <v>416</v>
       </c>
       <c r="K143" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L143" s="2">
         <v>16</v>
@@ -45743,7 +45743,7 @@
         <v>68</v>
       </c>
       <c r="AQ143" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR143" s="2">
         <v>2</v>
@@ -45869,7 +45869,7 @@
         <v>122</v>
       </c>
       <c r="CI143" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CJ143" s="2">
         <v>7</v>
@@ -45905,7 +45905,7 @@
         <v>2119</v>
       </c>
       <c r="CU143" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CV143" s="1">
         <v>53</v>
@@ -46338,16 +46338,16 @@
         <v>0</v>
       </c>
       <c r="AP145" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ145" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR145" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS145" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT145" s="1">
         <v>0</v>
@@ -46500,16 +46500,16 @@
         <v>0</v>
       </c>
       <c r="CT145" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="CU145" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CV145" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CW145" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146" spans="1:101">
@@ -49208,16 +49208,16 @@
         <v>254</v>
       </c>
       <c r="B155" s="1">
-        <v>4520</v>
+        <v>4550</v>
       </c>
       <c r="C155" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D155" s="2">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="E155" s="2">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="F155" s="1">
         <v>0</v>
@@ -49490,16 +49490,16 @@
         <v>0</v>
       </c>
       <c r="CT155" s="1">
-        <v>145499</v>
+        <v>145529</v>
       </c>
       <c r="CU155" s="1">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="CV155" s="1">
-        <v>2205</v>
+        <v>2235</v>
       </c>
       <c r="CW155" s="1">
-        <v>4264</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="156" spans="1:101">
@@ -49756,7 +49756,7 @@
         <v>1628</v>
       </c>
       <c r="CI156" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="CJ156" s="2">
         <v>303</v>
@@ -49792,7 +49792,7 @@
         <v>17916</v>
       </c>
       <c r="CU156" s="1">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="CV156" s="1">
         <v>1127</v>
@@ -51902,7 +51902,7 @@
         <v>17</v>
       </c>
       <c r="C164" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D164" s="2">
         <v>1</v>
@@ -52184,7 +52184,7 @@
         <v>60</v>
       </c>
       <c r="CU164" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CV164" s="1">
         <v>3</v>
@@ -55786,16 +55786,16 @@
         <v>276</v>
       </c>
       <c r="B177" s="1">
-        <v>7261</v>
+        <v>7260</v>
       </c>
       <c r="C177" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D177" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E177" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F177" s="1">
         <v>0</v>
@@ -56068,16 +56068,16 @@
         <v>0</v>
       </c>
       <c r="CT177" s="1">
-        <v>72146</v>
+        <v>72145</v>
       </c>
       <c r="CU177" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="CV177" s="1">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="CW177" s="1">
-        <v>4647</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="178" spans="1:101">
@@ -59090,7 +59090,7 @@
         <v>61</v>
       </c>
       <c r="G188" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H188" s="2">
         <v>3</v>
@@ -59360,7 +59360,7 @@
         <v>62</v>
       </c>
       <c r="CU188" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CV188" s="1">
         <v>3</v>
@@ -62137,16 +62137,16 @@
         <v>0</v>
       </c>
       <c r="Z198" s="1">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AA198" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB198" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC198" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD198" s="1">
         <v>44</v>
@@ -62347,16 +62347,16 @@
         <v>0</v>
       </c>
       <c r="CT198" s="1">
-        <v>14730</v>
+        <v>14738</v>
       </c>
       <c r="CU198" s="1">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="CV198" s="1">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="CW198" s="1">
-        <v>538</v>
+        <v>546</v>
       </c>
     </row>
     <row r="199" spans="1:101">
@@ -65474,16 +65474,16 @@
         <v>1</v>
       </c>
       <c r="AP209" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AQ209" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR209" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS209" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT209" s="1">
         <v>8</v>
@@ -65636,16 +65636,16 @@
         <v>0</v>
       </c>
       <c r="CT209" s="1">
-        <v>5090</v>
+        <v>5091</v>
       </c>
       <c r="CU209" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CV209" s="1">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="CW209" s="1">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="210" spans="1:101">
@@ -66075,7 +66075,7 @@
         <v>1</v>
       </c>
       <c r="AQ211" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR211" s="2">
         <v>1</v>
@@ -66201,7 +66201,7 @@
         <v>67</v>
       </c>
       <c r="CI211" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CJ211" s="2">
         <v>17</v>
@@ -66237,7 +66237,7 @@
         <v>156</v>
       </c>
       <c r="CU211" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CV211" s="1">
         <v>24</v>
@@ -66615,7 +66615,7 @@
         <v>530</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
         <v>709</v>
@@ -68041,7 +68041,7 @@
         <v>591</v>
       </c>
       <c r="D74">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E74" t="s">
         <v>709</v>
@@ -68121,7 +68121,7 @@
         <v>594</v>
       </c>
       <c r="D78">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E78" t="s">
         <v>709</v>
@@ -68624,7 +68624,7 @@
         <v>616</v>
       </c>
       <c r="D103">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E103" t="s">
         <v>709</v>
@@ -69753,7 +69753,7 @@
         <v>663</v>
       </c>
       <c r="D159">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E159" t="s">
         <v>709</v>
@@ -70119,7 +70119,7 @@
         <v>679</v>
       </c>
       <c r="D177">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="E177" t="s">
         <v>709</v>
@@ -70459,7 +70459,7 @@
         <v>693</v>
       </c>
       <c r="D194">
-        <v>9739</v>
+        <v>9786</v>
       </c>
       <c r="E194" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3470,7 +3470,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>3</v>
       </c>
       <c r="AS2" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -3716,7 +3716,7 @@
         <v>37</v>
       </c>
       <c r="CK2" s="2">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="CL2" s="1">
         <v>3</v>
@@ -3752,7 +3752,7 @@
         <v>1262</v>
       </c>
       <c r="CW2" s="1">
-        <v>2768</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="3" spans="1:101">
@@ -5285,7 +5285,7 @@
         <v>5</v>
       </c>
       <c r="L8" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M8" s="2">
         <v>13</v>
@@ -5507,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="CJ8" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CK8" s="2">
         <v>8</v>
@@ -5543,7 +5543,7 @@
         <v>22</v>
       </c>
       <c r="CV8" s="1">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="CW8" s="1">
         <v>102</v>
@@ -6173,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -6443,7 +6443,7 @@
         <v>5</v>
       </c>
       <c r="CW11" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:101">
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
         <v>1</v>
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="AO13" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP13" s="1">
         <v>55</v>
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>0</v>
@@ -7005,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="CK13" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="CL13" s="1">
         <v>27</v>
@@ -7017,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="CO13" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CP13" s="1">
         <v>1</v>
@@ -7041,7 +7041,7 @@
         <v>48</v>
       </c>
       <c r="CW13" s="1">
-        <v>117</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:101">
@@ -9567,7 +9567,7 @@
         <v>1</v>
       </c>
       <c r="AR22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS22" s="2">
         <v>6</v>
@@ -9693,7 +9693,7 @@
         <v>1</v>
       </c>
       <c r="CJ22" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CK22" s="2">
         <v>9</v>
@@ -9705,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="CN22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO22" s="2">
         <v>3</v>
@@ -9729,7 +9729,7 @@
         <v>4</v>
       </c>
       <c r="CV22" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="CW22" s="1">
         <v>44</v>
@@ -10951,10 +10951,10 @@
         <v>26</v>
       </c>
       <c r="G27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" s="2">
         <v>4</v>
@@ -11221,10 +11221,10 @@
         <v>22379</v>
       </c>
       <c r="CU27" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CV27" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CW27" s="1">
         <v>456</v>
@@ -11962,7 +11962,7 @@
         <v>0</v>
       </c>
       <c r="AS30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="1">
         <v>1</v>
@@ -12124,7 +12124,7 @@
         <v>195</v>
       </c>
       <c r="CW30" s="1">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:101">
@@ -12246,7 +12246,7 @@
         <v>2</v>
       </c>
       <c r="AN31" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO31" s="2">
         <v>5</v>
@@ -12384,7 +12384,7 @@
         <v>0</v>
       </c>
       <c r="CJ31" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="CK31" s="2">
         <v>17</v>
@@ -12420,7 +12420,7 @@
         <v>27</v>
       </c>
       <c r="CV31" s="1">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="CW31" s="1">
         <v>536</v>
@@ -12748,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I33" s="2">
         <v>5</v>
@@ -12847,7 +12847,7 @@
         <v>3</v>
       </c>
       <c r="AO33" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP33" s="1">
         <v>42</v>
@@ -12985,7 +12985,7 @@
         <v>18</v>
       </c>
       <c r="CK33" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CL33" s="1">
         <v>24</v>
@@ -13018,10 +13018,10 @@
         <v>13</v>
       </c>
       <c r="CV33" s="1">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="CW33" s="1">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:101">
@@ -15535,7 +15535,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO42" s="2">
         <v>2</v>
@@ -15685,7 +15685,7 @@
         <v>0</v>
       </c>
       <c r="CN42" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CO42" s="2">
         <v>4</v>
@@ -15709,7 +15709,7 @@
         <v>0</v>
       </c>
       <c r="CV42" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="CW42" s="1">
         <v>32</v>
@@ -15855,7 +15855,7 @@
         <v>29</v>
       </c>
       <c r="AU43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV43" s="2">
         <v>4</v>
@@ -16005,7 +16005,7 @@
         <v>43940</v>
       </c>
       <c r="CU43" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="CV43" s="1">
         <v>2117</v>
@@ -17374,7 +17374,7 @@
         <v>3</v>
       </c>
       <c r="BC48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD48" s="2">
         <v>3</v>
@@ -17500,7 +17500,7 @@
         <v>109</v>
       </c>
       <c r="CU48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CV48" s="1">
         <v>6</v>
@@ -19012,7 +19012,7 @@
         <v>1871</v>
       </c>
       <c r="C54" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D54" s="2">
         <v>13</v>
@@ -19084,7 +19084,7 @@
         <v>79</v>
       </c>
       <c r="AA54" s="2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AB54" s="2">
         <v>19</v>
@@ -19294,7 +19294,7 @@
         <v>6601</v>
       </c>
       <c r="CU54" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="CV54" s="1">
         <v>159</v>
@@ -20573,7 +20573,7 @@
         <v>0</v>
       </c>
       <c r="Y59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="1">
         <v>0</v>
@@ -20618,7 +20618,7 @@
         <v>3</v>
       </c>
       <c r="AN59" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO59" s="2">
         <v>9</v>
@@ -20756,7 +20756,7 @@
         <v>11</v>
       </c>
       <c r="CJ59" s="2">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="CK59" s="2">
         <v>143</v>
@@ -20792,10 +20792,10 @@
         <v>84</v>
       </c>
       <c r="CV59" s="1">
-        <v>2411</v>
+        <v>2385</v>
       </c>
       <c r="CW59" s="1">
-        <v>3212</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="60" spans="1:101">
@@ -21814,7 +21814,7 @@
         <v>0</v>
       </c>
       <c r="AN63" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO63" s="2">
         <v>3</v>
@@ -21826,7 +21826,7 @@
         <v>0</v>
       </c>
       <c r="AR63" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS63" s="2">
         <v>6</v>
@@ -21952,7 +21952,7 @@
         <v>0</v>
       </c>
       <c r="CJ63" s="2">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="CK63" s="2">
         <v>54</v>
@@ -21964,7 +21964,7 @@
         <v>0</v>
       </c>
       <c r="CN63" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CO63" s="2">
         <v>4</v>
@@ -21988,7 +21988,7 @@
         <v>28</v>
       </c>
       <c r="CV63" s="1">
-        <v>1287</v>
+        <v>1271</v>
       </c>
       <c r="CW63" s="1">
         <v>2494</v>
@@ -22606,7 +22606,7 @@
         <v>2</v>
       </c>
       <c r="E66" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F66" s="1">
         <v>16</v>
@@ -22888,7 +22888,7 @@
         <v>49</v>
       </c>
       <c r="CW66" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:101">
@@ -22911,7 +22911,7 @@
         <v>53</v>
       </c>
       <c r="G67" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" s="2">
         <v>3</v>
@@ -23181,7 +23181,7 @@
         <v>88</v>
       </c>
       <c r="CU67" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CV67" s="1">
         <v>3</v>
@@ -24101,7 +24101,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F71" s="1">
         <v>40</v>
@@ -24209,7 +24209,7 @@
         <v>2</v>
       </c>
       <c r="AO71" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP71" s="1">
         <v>11</v>
@@ -24347,7 +24347,7 @@
         <v>24</v>
       </c>
       <c r="CK71" s="2">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="CL71" s="1">
         <v>5</v>
@@ -24383,7 +24383,7 @@
         <v>30</v>
       </c>
       <c r="CW71" s="1">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:101">
@@ -24397,7 +24397,7 @@
         <v>80</v>
       </c>
       <c r="D72" s="2">
-        <v>249</v>
+        <v>168</v>
       </c>
       <c r="E72" s="2">
         <v>477</v>
@@ -24421,7 +24421,7 @@
         <v>78</v>
       </c>
       <c r="L72" s="2">
-        <v>226</v>
+        <v>161</v>
       </c>
       <c r="M72" s="2">
         <v>429</v>
@@ -24526,7 +24526,7 @@
         <v>43</v>
       </c>
       <c r="AU72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV72" s="2">
         <v>1</v>
@@ -24643,10 +24643,10 @@
         <v>48</v>
       </c>
       <c r="CJ72" s="2">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="CK72" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="CL72" s="1">
         <v>0</v>
@@ -24676,13 +24676,13 @@
         <v>156929</v>
       </c>
       <c r="CU72" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="CV72" s="1">
-        <v>2105</v>
+        <v>1947</v>
       </c>
       <c r="CW72" s="1">
-        <v>4686</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -25034,7 +25034,7 @@
         <v>2529</v>
       </c>
       <c r="Q74" s="2">
-        <v>5273</v>
+        <v>4581</v>
       </c>
       <c r="R74" s="1">
         <v>1</v>
@@ -25112,10 +25112,10 @@
         <v>35</v>
       </c>
       <c r="AQ74" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR74" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS74" s="2">
         <v>2</v>
@@ -25238,10 +25238,10 @@
         <v>1969</v>
       </c>
       <c r="CI74" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="CJ74" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="CK74" s="2">
         <v>126</v>
@@ -25274,13 +25274,13 @@
         <v>136919</v>
       </c>
       <c r="CU74" s="1">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="CV74" s="1">
-        <v>3251</v>
+        <v>3239</v>
       </c>
       <c r="CW74" s="1">
-        <v>6768</v>
+        <v>6076</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25294,7 +25294,7 @@
         <v>236</v>
       </c>
       <c r="D75" s="2">
-        <v>462</v>
+        <v>337</v>
       </c>
       <c r="E75" s="2">
         <v>737</v>
@@ -25315,10 +25315,10 @@
         <v>4080</v>
       </c>
       <c r="K75" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L75" s="2">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="M75" s="2">
         <v>253</v>
@@ -25399,10 +25399,10 @@
         <v>1640</v>
       </c>
       <c r="AM75" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AN75" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AO75" s="2">
         <v>96</v>
@@ -25540,7 +25540,7 @@
         <v>37</v>
       </c>
       <c r="CJ75" s="2">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="CK75" s="2">
         <v>455</v>
@@ -25573,10 +25573,10 @@
         <v>346060</v>
       </c>
       <c r="CU75" s="1">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="CV75" s="1">
-        <v>5085</v>
+        <v>4869</v>
       </c>
       <c r="CW75" s="1">
         <v>11219</v>
@@ -25617,7 +25617,7 @@
         <v>37</v>
       </c>
       <c r="L76" s="2">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="M76" s="2">
         <v>296</v>
@@ -25626,7 +25626,7 @@
         <v>65751</v>
       </c>
       <c r="O76" s="2">
-        <v>-18</v>
+        <v>-1</v>
       </c>
       <c r="P76" s="2">
         <v>695</v>
@@ -25872,10 +25872,10 @@
         <v>84789</v>
       </c>
       <c r="CU76" s="1">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="CV76" s="1">
-        <v>1147</v>
+        <v>1095</v>
       </c>
       <c r="CW76" s="1">
         <v>2241</v>
@@ -26000,7 +26000,7 @@
         <v>42</v>
       </c>
       <c r="AN77" s="2">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="AO77" s="2">
         <v>155</v>
@@ -26138,7 +26138,7 @@
         <v>29</v>
       </c>
       <c r="CJ77" s="2">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="CK77" s="2">
         <v>166</v>
@@ -26174,7 +26174,7 @@
         <v>77</v>
       </c>
       <c r="CV77" s="1">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="CW77" s="1">
         <v>331</v>
@@ -26813,7 +26813,7 @@
         <v>100</v>
       </c>
       <c r="L80" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M80" s="2">
         <v>656</v>
@@ -26828,7 +26828,7 @@
         <v>435</v>
       </c>
       <c r="Q80" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="R80" s="1">
         <v>0</v>
@@ -27071,10 +27071,10 @@
         <v>152</v>
       </c>
       <c r="CV80" s="1">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="CW80" s="1">
-        <v>33009</v>
+        <v>33010</v>
       </c>
     </row>
     <row r="81" spans="1:101">
@@ -27725,7 +27725,7 @@
         <v>34</v>
       </c>
       <c r="Q83" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R83" s="1">
         <v>0</v>
@@ -27971,7 +27971,7 @@
         <v>53</v>
       </c>
       <c r="CW83" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:101">
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="H85" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" s="2">
         <v>3</v>
@@ -28308,7 +28308,7 @@
         <v>5</v>
       </c>
       <c r="L85" s="2">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M85" s="2">
         <v>45</v>
@@ -28404,10 +28404,10 @@
         <v>1</v>
       </c>
       <c r="AR85" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS85" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT85" s="1">
         <v>0</v>
@@ -28530,10 +28530,10 @@
         <v>8</v>
       </c>
       <c r="CJ85" s="2">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="CK85" s="2">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="CL85" s="1">
         <v>21</v>
@@ -28566,10 +28566,10 @@
         <v>16</v>
       </c>
       <c r="CV85" s="1">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="CW85" s="1">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="86" spans="1:101">
@@ -29489,13 +29489,13 @@
         <v>12</v>
       </c>
       <c r="G89" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" s="2">
         <v>1</v>
       </c>
       <c r="I89" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J89" s="1">
         <v>141</v>
@@ -29507,7 +29507,7 @@
         <v>7</v>
       </c>
       <c r="M89" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N89" s="1">
         <v>1627</v>
@@ -29621,7 +29621,7 @@
         <v>2</v>
       </c>
       <c r="AY89" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ89" s="2">
         <v>1</v>
@@ -29759,13 +29759,13 @@
         <v>3469</v>
       </c>
       <c r="CU89" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CV89" s="1">
         <v>90</v>
       </c>
       <c r="CW89" s="1">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:101">
@@ -32578,10 +32578,10 @@
         <v>0</v>
       </c>
       <c r="AN99" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO99" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP99" s="1">
         <v>30</v>
@@ -32716,10 +32716,10 @@
         <v>10</v>
       </c>
       <c r="CJ99" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="CK99" s="2">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="CL99" s="1">
         <v>9</v>
@@ -32752,10 +32752,10 @@
         <v>261</v>
       </c>
       <c r="CV99" s="1">
-        <v>1070</v>
+        <v>1046</v>
       </c>
       <c r="CW99" s="1">
-        <v>1947</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="100" spans="1:101">
@@ -33388,7 +33388,7 @@
         <v>821</v>
       </c>
       <c r="K102" s="2">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L102" s="2">
         <v>34</v>
@@ -33646,7 +33646,7 @@
         <v>6650</v>
       </c>
       <c r="CU102" s="1">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="CV102" s="1">
         <v>178</v>
@@ -33687,7 +33687,7 @@
         <v>7896</v>
       </c>
       <c r="K103" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L103" s="2">
         <v>530</v>
@@ -33945,7 +33945,7 @@
         <v>83641</v>
       </c>
       <c r="CU103" s="1">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="CV103" s="1">
         <v>11366</v>
@@ -35499,7 +35499,7 @@
         <v>249</v>
       </c>
       <c r="Q109" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R109" s="1">
         <v>0</v>
@@ -35745,7 +35745,7 @@
         <v>317</v>
       </c>
       <c r="CW109" s="1">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="110" spans="1:101">
@@ -36067,13 +36067,13 @@
         <v>49</v>
       </c>
       <c r="G111" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H111" s="2">
         <v>3</v>
       </c>
       <c r="I111" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J111" s="1">
         <v>0</v>
@@ -36337,13 +36337,13 @@
         <v>155</v>
       </c>
       <c r="CU111" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CV111" s="1">
         <v>3</v>
       </c>
       <c r="CW111" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:101">
@@ -36683,7 +36683,7 @@
         <v>144</v>
       </c>
       <c r="M113" s="2">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N113" s="1">
         <v>3882</v>
@@ -36941,7 +36941,7 @@
         <v>475</v>
       </c>
       <c r="CW113" s="1">
-        <v>989</v>
+        <v>963</v>
       </c>
     </row>
     <row r="114" spans="1:101">
@@ -37849,7 +37849,7 @@
         <v>59</v>
       </c>
       <c r="C117" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117" s="2">
         <v>3</v>
@@ -38131,7 +38131,7 @@
         <v>760</v>
       </c>
       <c r="CU117" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CV117" s="1">
         <v>15</v>
@@ -38256,7 +38256,7 @@
         <v>6</v>
       </c>
       <c r="AM118" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AN118" s="2">
         <v>6</v>
@@ -38394,7 +38394,7 @@
         <v>3</v>
       </c>
       <c r="CI118" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CJ118" s="2">
         <v>3</v>
@@ -38430,7 +38430,7 @@
         <v>134</v>
       </c>
       <c r="CU118" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="CV118" s="1">
         <v>12</v>
@@ -39237,7 +39237,7 @@
         <v>0</v>
       </c>
       <c r="BQ121" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BR121" s="1">
         <v>34</v>
@@ -39333,7 +39333,7 @@
         <v>17</v>
       </c>
       <c r="CW121" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:101">
@@ -42720,10 +42720,10 @@
         <v>1</v>
       </c>
       <c r="AF133" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG133" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AH133" s="1">
         <v>0</v>
@@ -42918,10 +42918,10 @@
         <v>170</v>
       </c>
       <c r="CV133" s="1">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="CW133" s="1">
-        <v>2642</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="134" spans="1:101">
@@ -43557,7 +43557,7 @@
         <v>12</v>
       </c>
       <c r="L136" s="2">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M136" s="2">
         <v>80</v>
@@ -43815,7 +43815,7 @@
         <v>24</v>
       </c>
       <c r="CV136" s="1">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="CW136" s="1">
         <v>231</v>
@@ -44430,7 +44430,7 @@
         <v>0</v>
       </c>
       <c r="D139" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E139" s="2">
         <v>1</v>
@@ -44712,7 +44712,7 @@
         <v>3</v>
       </c>
       <c r="CV139" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CW139" s="1">
         <v>27</v>
@@ -45327,7 +45327,7 @@
         <v>2</v>
       </c>
       <c r="D142" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E142" s="2">
         <v>11</v>
@@ -45432,7 +45432,7 @@
         <v>31</v>
       </c>
       <c r="AM142" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN142" s="2">
         <v>1</v>
@@ -45582,7 +45582,7 @@
         <v>55</v>
       </c>
       <c r="CM142" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN142" s="2">
         <v>2</v>
@@ -45606,10 +45606,10 @@
         <v>1002</v>
       </c>
       <c r="CU142" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CV142" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CW142" s="1">
         <v>42</v>
@@ -45626,7 +45626,7 @@
         <v>0</v>
       </c>
       <c r="D143" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E143" s="2">
         <v>27</v>
@@ -45650,7 +45650,7 @@
         <v>0</v>
       </c>
       <c r="L143" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M143" s="2">
         <v>51</v>
@@ -45746,7 +45746,7 @@
         <v>0</v>
       </c>
       <c r="AR143" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS143" s="2">
         <v>4</v>
@@ -45872,7 +45872,7 @@
         <v>0</v>
       </c>
       <c r="CJ143" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CK143" s="2">
         <v>11</v>
@@ -45908,7 +45908,7 @@
         <v>1</v>
       </c>
       <c r="CV143" s="1">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="CW143" s="1">
         <v>139</v>
@@ -46547,7 +46547,7 @@
         <v>5</v>
       </c>
       <c r="L146" s="2">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M146" s="2">
         <v>61</v>
@@ -46643,7 +46643,7 @@
         <v>0</v>
       </c>
       <c r="AR146" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS146" s="2">
         <v>1</v>
@@ -46769,7 +46769,7 @@
         <v>7</v>
       </c>
       <c r="CJ146" s="2">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="CK146" s="2">
         <v>61</v>
@@ -46805,7 +46805,7 @@
         <v>22</v>
       </c>
       <c r="CV146" s="1">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="CW146" s="1">
         <v>294</v>
@@ -47241,7 +47241,7 @@
         <v>1</v>
       </c>
       <c r="AR148" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS148" s="2">
         <v>6</v>
@@ -47367,7 +47367,7 @@
         <v>1</v>
       </c>
       <c r="CJ148" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CK148" s="2">
         <v>7</v>
@@ -47403,7 +47403,7 @@
         <v>2</v>
       </c>
       <c r="CV148" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="CW148" s="1">
         <v>15</v>
@@ -48939,7 +48939,7 @@
         <v>33</v>
       </c>
       <c r="L154" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="M154" s="2">
         <v>190</v>
@@ -49035,7 +49035,7 @@
         <v>2</v>
       </c>
       <c r="AR154" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS154" s="2">
         <v>4</v>
@@ -49161,7 +49161,7 @@
         <v>6</v>
       </c>
       <c r="CJ154" s="2">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="CK154" s="2">
         <v>71</v>
@@ -49197,7 +49197,7 @@
         <v>103</v>
       </c>
       <c r="CV154" s="1">
-        <v>1035</v>
+        <v>994</v>
       </c>
       <c r="CW154" s="1">
         <v>2162</v>
@@ -50518,10 +50518,10 @@
         <v>2</v>
       </c>
       <c r="AN159" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO159" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP159" s="1">
         <v>30</v>
@@ -50548,16 +50548,16 @@
         <v>0</v>
       </c>
       <c r="AX159" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY159" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ159" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA159" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB159" s="1">
         <v>3</v>
@@ -50656,10 +50656,10 @@
         <v>4</v>
       </c>
       <c r="CJ159" s="2">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="CK159" s="2">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="CL159" s="1">
         <v>14</v>
@@ -50686,16 +50686,16 @@
         <v>0</v>
       </c>
       <c r="CT159" s="1">
-        <v>18873</v>
+        <v>18874</v>
       </c>
       <c r="CU159" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="CV159" s="1">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="CW159" s="1">
-        <v>1115</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="160" spans="1:101">
@@ -51553,7 +51553,7 @@
         <v>0</v>
       </c>
       <c r="CJ162" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CK162" s="2">
         <v>3</v>
@@ -51589,7 +51589,7 @@
         <v>1</v>
       </c>
       <c r="CV162" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="CW162" s="1">
         <v>81</v>
@@ -52201,7 +52201,7 @@
         <v>357</v>
       </c>
       <c r="C165" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D165" s="2">
         <v>3</v>
@@ -52321,7 +52321,7 @@
         <v>67</v>
       </c>
       <c r="AQ165" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR165" s="2">
         <v>2</v>
@@ -52459,7 +52459,7 @@
         <v>28</v>
       </c>
       <c r="CM165" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CN165" s="2">
         <v>2</v>
@@ -52483,7 +52483,7 @@
         <v>4242</v>
       </c>
       <c r="CU165" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="CV165" s="1">
         <v>101</v>
@@ -53942,7 +53942,7 @@
         <v>769</v>
       </c>
       <c r="CI170" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CJ170" s="2">
         <v>11</v>
@@ -53978,7 +53978,7 @@
         <v>5507</v>
       </c>
       <c r="CU170" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="CV170" s="1">
         <v>55</v>
@@ -59401,7 +59401,7 @@
         <v>39</v>
       </c>
       <c r="K189" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L189" s="2">
         <v>6</v>
@@ -59659,7 +59659,7 @@
         <v>586</v>
       </c>
       <c r="CU189" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CV189" s="1">
         <v>42</v>
@@ -60902,7 +60902,7 @@
         <v>14</v>
       </c>
       <c r="M194" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N194" s="1">
         <v>2966</v>
@@ -61160,7 +61160,7 @@
         <v>348</v>
       </c>
       <c r="CW194" s="1">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="195" spans="1:101">
@@ -62110,7 +62110,7 @@
         <v>27</v>
       </c>
       <c r="Q198" s="2">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R198" s="1">
         <v>0</v>
@@ -62356,7 +62356,7 @@
         <v>253</v>
       </c>
       <c r="CW198" s="1">
-        <v>546</v>
+        <v>537</v>
       </c>
     </row>
     <row r="199" spans="1:101">
@@ -65178,7 +65178,7 @@
         <v>36</v>
       </c>
       <c r="AQ208" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR208" s="2">
         <v>2</v>
@@ -65304,7 +65304,7 @@
         <v>354</v>
       </c>
       <c r="CI208" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CJ208" s="2">
         <v>13</v>
@@ -65340,7 +65340,7 @@
         <v>751</v>
       </c>
       <c r="CU208" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="CV208" s="1">
         <v>24</v>
@@ -65360,7 +65360,7 @@
         <v>2</v>
       </c>
       <c r="D209" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E209" s="2">
         <v>15</v>
@@ -65642,7 +65642,7 @@
         <v>56</v>
       </c>
       <c r="CV209" s="1">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="CW209" s="1">
         <v>577</v>
@@ -66066,7 +66066,7 @@
         <v>0</v>
       </c>
       <c r="AN211" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO211" s="2">
         <v>8</v>
@@ -66204,7 +66204,7 @@
         <v>0</v>
       </c>
       <c r="CJ211" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="CK211" s="2">
         <v>28</v>
@@ -66240,7 +66240,7 @@
         <v>0</v>
       </c>
       <c r="CV211" s="1">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="CW211" s="1">
         <v>43</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -6783,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N13" s="1">
         <v>88</v>
@@ -7041,7 +7041,7 @@
         <v>48</v>
       </c>
       <c r="CW13" s="1">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:101">
@@ -7298,7 +7298,7 @@
         <v>328</v>
       </c>
       <c r="CI14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CJ14" s="2">
         <v>5</v>
@@ -7334,7 +7334,7 @@
         <v>2992</v>
       </c>
       <c r="CU14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CV14" s="1">
         <v>146</v>
@@ -7477,7 +7477,7 @@
         <v>2</v>
       </c>
       <c r="AS15" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
@@ -7603,7 +7603,7 @@
         <v>2</v>
       </c>
       <c r="CK15" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="CL15" s="1">
         <v>23</v>
@@ -7639,7 +7639,7 @@
         <v>24</v>
       </c>
       <c r="CW15" s="1">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:101">
@@ -9570,7 +9570,7 @@
         <v>2</v>
       </c>
       <c r="AS22" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT22" s="1">
         <v>0</v>
@@ -9708,7 +9708,7 @@
         <v>0</v>
       </c>
       <c r="CO22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CP22" s="1">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>12</v>
       </c>
       <c r="CW22" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:101">
@@ -14533,7 +14533,7 @@
         <v>355</v>
       </c>
       <c r="E39" s="2">
-        <v>764</v>
+        <v>666</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -14815,7 +14815,7 @@
         <v>1000</v>
       </c>
       <c r="CW39" s="1">
-        <v>1964</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="40" spans="1:101">
@@ -19628,7 +19628,7 @@
         <v>2</v>
       </c>
       <c r="I56" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J56" s="1">
         <v>0</v>
@@ -19736,7 +19736,7 @@
         <v>1</v>
       </c>
       <c r="AS56" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT56" s="1">
         <v>0</v>
@@ -19862,7 +19862,7 @@
         <v>13</v>
       </c>
       <c r="CK56" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="CL56" s="1">
         <v>8</v>
@@ -19898,7 +19898,7 @@
         <v>21</v>
       </c>
       <c r="CW56" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:101">
@@ -20214,7 +20214,7 @@
         <v>5</v>
       </c>
       <c r="E58" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58" s="1">
         <v>4</v>
@@ -20496,7 +20496,7 @@
         <v>5</v>
       </c>
       <c r="CW58" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:101">
@@ -21656,7 +21656,7 @@
         <v>10</v>
       </c>
       <c r="CK62" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="CL62" s="1">
         <v>10</v>
@@ -21692,7 +21692,7 @@
         <v>128</v>
       </c>
       <c r="CW62" s="1">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:101">
@@ -21733,7 +21733,7 @@
         <v>61</v>
       </c>
       <c r="M63" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="N63" s="1">
         <v>50397</v>
@@ -21991,7 +21991,7 @@
         <v>1271</v>
       </c>
       <c r="CW63" s="1">
-        <v>2494</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="64" spans="1:101">
@@ -24646,7 +24646,7 @@
         <v>191</v>
       </c>
       <c r="CK72" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="CL72" s="1">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>1947</v>
       </c>
       <c r="CW72" s="1">
-        <v>4685</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -25399,7 +25399,7 @@
         <v>1640</v>
       </c>
       <c r="AM75" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN75" s="2">
         <v>30</v>
@@ -25411,7 +25411,7 @@
         <v>73</v>
       </c>
       <c r="AQ75" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR75" s="2">
         <v>3</v>
@@ -25543,7 +25543,7 @@
         <v>127</v>
       </c>
       <c r="CK75" s="2">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="CL75" s="1">
         <v>97</v>
@@ -25573,13 +25573,13 @@
         <v>346060</v>
       </c>
       <c r="CU75" s="1">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="CV75" s="1">
         <v>4869</v>
       </c>
       <c r="CW75" s="1">
-        <v>11219</v>
+        <v>11198</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -26003,7 +26003,7 @@
         <v>62</v>
       </c>
       <c r="AO77" s="2">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="AP77" s="1">
         <v>0</v>
@@ -26129,7 +26129,7 @@
         <v>0</v>
       </c>
       <c r="CG77" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH77" s="1">
         <v>384</v>
@@ -26141,7 +26141,7 @@
         <v>59</v>
       </c>
       <c r="CK77" s="2">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="CL77" s="1">
         <v>0</v>
@@ -26177,7 +26177,7 @@
         <v>127</v>
       </c>
       <c r="CW77" s="1">
-        <v>331</v>
+        <v>296</v>
       </c>
     </row>
     <row r="78" spans="1:101">
@@ -26338,7 +26338,7 @@
         <v>0</v>
       </c>
       <c r="BA78" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BB78" s="1">
         <v>0</v>
@@ -26416,7 +26416,7 @@
         <v>0</v>
       </c>
       <c r="CC78" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CD78" s="1">
         <v>0</v>
@@ -26476,7 +26476,7 @@
         <v>155</v>
       </c>
       <c r="CW78" s="1">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:101">
@@ -27707,7 +27707,7 @@
         <v>102</v>
       </c>
       <c r="K83" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83" s="2">
         <v>1</v>
@@ -27965,7 +27965,7 @@
         <v>2574</v>
       </c>
       <c r="CU83" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CV83" s="1">
         <v>53</v>
@@ -29890,7 +29890,7 @@
         <v>1</v>
       </c>
       <c r="AO90" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP90" s="1">
         <v>29</v>
@@ -30040,7 +30040,7 @@
         <v>2</v>
       </c>
       <c r="CO90" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CP90" s="1">
         <v>0</v>
@@ -30064,7 +30064,7 @@
         <v>37</v>
       </c>
       <c r="CW90" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:101">
@@ -33400,7 +33400,7 @@
         <v>1315</v>
       </c>
       <c r="O102" s="2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="P102" s="2">
         <v>37</v>
@@ -33610,7 +33610,7 @@
         <v>210</v>
       </c>
       <c r="CI102" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ102" s="2">
         <v>6</v>
@@ -33646,7 +33646,7 @@
         <v>6650</v>
       </c>
       <c r="CU102" s="1">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="CV102" s="1">
         <v>178</v>
@@ -34375,7 +34375,7 @@
         <v>4</v>
       </c>
       <c r="AO105" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP105" s="1">
         <v>13</v>
@@ -34513,7 +34513,7 @@
         <v>15</v>
       </c>
       <c r="CK105" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CL105" s="1">
         <v>7</v>
@@ -34549,7 +34549,7 @@
         <v>46</v>
       </c>
       <c r="CW105" s="1">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:101">
@@ -36767,7 +36767,7 @@
         <v>14</v>
       </c>
       <c r="AO113" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AP113" s="1">
         <v>26</v>
@@ -36785,7 +36785,7 @@
         <v>50</v>
       </c>
       <c r="AU113" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV113" s="2">
         <v>1</v>
@@ -36905,7 +36905,7 @@
         <v>36</v>
       </c>
       <c r="CK113" s="2">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="CL113" s="1">
         <v>11</v>
@@ -36935,13 +36935,13 @@
         <v>18477</v>
       </c>
       <c r="CU113" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="CV113" s="1">
         <v>475</v>
       </c>
       <c r="CW113" s="1">
-        <v>963</v>
+        <v>952</v>
       </c>
     </row>
     <row r="114" spans="1:101">
@@ -37144,7 +37144,7 @@
         <v>11</v>
       </c>
       <c r="BQ114" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="BR114" s="1">
         <v>0</v>
@@ -37240,7 +37240,7 @@
         <v>470</v>
       </c>
       <c r="CW114" s="1">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="115" spans="1:101">
@@ -42442,7 +42442,7 @@
         <v>1271</v>
       </c>
       <c r="AM132" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN132" s="2">
         <v>5</v>
@@ -42580,7 +42580,7 @@
         <v>2525</v>
       </c>
       <c r="CI132" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CJ132" s="2">
         <v>18</v>
@@ -42616,7 +42616,7 @@
         <v>117982</v>
       </c>
       <c r="CU132" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="CV132" s="1">
         <v>2650</v>
@@ -42675,7 +42675,7 @@
         <v>564</v>
       </c>
       <c r="Q133" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="R133" s="1">
         <v>0</v>
@@ -42921,7 +42921,7 @@
         <v>1423</v>
       </c>
       <c r="CW133" s="1">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="134" spans="1:101">
@@ -43184,7 +43184,7 @@
         <v>6</v>
       </c>
       <c r="CK134" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CL134" s="1">
         <v>13</v>
@@ -43220,7 +43220,7 @@
         <v>3917</v>
       </c>
       <c r="CW134" s="1">
-        <v>10350</v>
+        <v>10348</v>
       </c>
     </row>
     <row r="135" spans="1:101">
@@ -45629,7 +45629,7 @@
         <v>6</v>
       </c>
       <c r="E143" s="2">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F143" s="1">
         <v>1</v>
@@ -45653,7 +45653,7 @@
         <v>8</v>
       </c>
       <c r="M143" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="N143" s="1">
         <v>719</v>
@@ -45749,7 +45749,7 @@
         <v>1</v>
       </c>
       <c r="AS143" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT143" s="1">
         <v>0</v>
@@ -45773,7 +45773,7 @@
         <v>3</v>
       </c>
       <c r="BA143" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB143" s="1">
         <v>0</v>
@@ -45875,7 +45875,7 @@
         <v>6</v>
       </c>
       <c r="CK143" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CL143" s="1">
         <v>32</v>
@@ -45911,7 +45911,7 @@
         <v>41</v>
       </c>
       <c r="CW143" s="1">
-        <v>139</v>
+        <v>114</v>
       </c>
     </row>
     <row r="144" spans="1:101">
@@ -46341,7 +46341,7 @@
         <v>29</v>
       </c>
       <c r="AQ145" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR145" s="2">
         <v>3</v>
@@ -46467,7 +46467,7 @@
         <v>16</v>
       </c>
       <c r="CI145" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ145" s="2">
         <v>3</v>
@@ -46503,7 +46503,7 @@
         <v>124</v>
       </c>
       <c r="CU145" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CV145" s="1">
         <v>11</v>
@@ -46939,7 +46939,7 @@
         <v>66</v>
       </c>
       <c r="AQ147" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR147" s="2">
         <v>5</v>
@@ -47065,7 +47065,7 @@
         <v>141</v>
       </c>
       <c r="CI147" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CJ147" s="2">
         <v>12</v>
@@ -47101,7 +47101,7 @@
         <v>756</v>
       </c>
       <c r="CU147" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CV147" s="1">
         <v>33</v>
@@ -47842,7 +47842,7 @@
         <v>3</v>
       </c>
       <c r="AS150" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT150" s="1">
         <v>0</v>
@@ -47968,7 +47968,7 @@
         <v>12</v>
       </c>
       <c r="CK150" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="CL150" s="1">
         <v>9</v>
@@ -48004,7 +48004,7 @@
         <v>111</v>
       </c>
       <c r="CW150" s="1">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151" spans="1:101">
@@ -49552,7 +49552,7 @@
         <v>42</v>
       </c>
       <c r="Q156" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R156" s="1">
         <v>0</v>
@@ -49798,7 +49798,7 @@
         <v>1127</v>
       </c>
       <c r="CW156" s="1">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="157" spans="1:101">
@@ -52225,7 +52225,7 @@
         <v>1341</v>
       </c>
       <c r="K165" s="2">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="L165" s="2">
         <v>56</v>
@@ -52327,7 +52327,7 @@
         <v>2</v>
       </c>
       <c r="AS165" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT165" s="1">
         <v>0</v>
@@ -52453,7 +52453,7 @@
         <v>0</v>
       </c>
       <c r="CK165" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="CL165" s="1">
         <v>28</v>
@@ -52483,13 +52483,13 @@
         <v>4242</v>
       </c>
       <c r="CU165" s="1">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="CV165" s="1">
         <v>101</v>
       </c>
       <c r="CW165" s="1">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="166" spans="1:101">
@@ -52829,7 +52829,7 @@
         <v>64</v>
       </c>
       <c r="M167" s="2">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="N167" s="1">
         <v>320</v>
@@ -52943,7 +52943,7 @@
         <v>5</v>
       </c>
       <c r="AY167" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ167" s="2">
         <v>2</v>
@@ -53081,13 +53081,13 @@
         <v>4590</v>
       </c>
       <c r="CU167" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="CV167" s="1">
         <v>194</v>
       </c>
       <c r="CW167" s="1">
-        <v>352</v>
+        <v>334</v>
       </c>
     </row>
     <row r="168" spans="1:101">
@@ -56202,7 +56202,7 @@
         <v>0</v>
       </c>
       <c r="AO178" s="2">
-        <v>252</v>
+        <v>176</v>
       </c>
       <c r="AP178" s="1">
         <v>4</v>
@@ -56340,7 +56340,7 @@
         <v>0</v>
       </c>
       <c r="CK178" s="2">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="CL178" s="1">
         <v>7</v>
@@ -56352,7 +56352,7 @@
         <v>0</v>
       </c>
       <c r="CO178" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CP178" s="1">
         <v>0</v>
@@ -56376,7 +56376,7 @@
         <v>7</v>
       </c>
       <c r="CW178" s="1">
-        <v>382</v>
+        <v>261</v>
       </c>
     </row>
     <row r="179" spans="1:101">
@@ -56417,7 +56417,7 @@
         <v>58</v>
       </c>
       <c r="M179" s="2">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="N179" s="1">
         <v>30628</v>
@@ -56675,7 +56675,7 @@
         <v>1350</v>
       </c>
       <c r="CW179" s="1">
-        <v>2881</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="180" spans="1:101">
@@ -59987,7 +59987,7 @@
         <v>21</v>
       </c>
       <c r="G191" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H191" s="2">
         <v>3</v>
@@ -60257,7 +60257,7 @@
         <v>21</v>
       </c>
       <c r="CU191" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CV191" s="1">
         <v>3</v>
@@ -60825,7 +60825,7 @@
         <v>8</v>
       </c>
       <c r="CK193" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="CL193" s="1">
         <v>9</v>
@@ -60861,7 +60861,7 @@
         <v>3843</v>
       </c>
       <c r="CW193" s="1">
-        <v>5812</v>
+        <v>5811</v>
       </c>
     </row>
     <row r="194" spans="1:101">
@@ -60908,7 +60908,7 @@
         <v>2966</v>
       </c>
       <c r="O194" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P194" s="2">
         <v>276</v>
@@ -61154,7 +61154,7 @@
         <v>4766</v>
       </c>
       <c r="CU194" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="CV194" s="1">
         <v>348</v>
@@ -62373,7 +62373,7 @@
         <v>112</v>
       </c>
       <c r="E199" s="2">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="F199" s="1">
         <v>0</v>
@@ -62409,7 +62409,7 @@
         <v>478</v>
       </c>
       <c r="Q199" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="R199" s="1">
         <v>0</v>
@@ -62655,7 +62655,7 @@
         <v>3711</v>
       </c>
       <c r="CW199" s="1">
-        <v>6975</v>
+        <v>6925</v>
       </c>
     </row>
     <row r="200" spans="1:101">
@@ -63988,7 +63988,7 @@
         <v>2</v>
       </c>
       <c r="AS204" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT204" s="1">
         <v>0</v>
@@ -64114,7 +64114,7 @@
         <v>12</v>
       </c>
       <c r="CK204" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="CL204" s="1">
         <v>29</v>
@@ -64150,7 +64150,7 @@
         <v>27</v>
       </c>
       <c r="CW204" s="1">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="205" spans="1:101">
@@ -65387,7 +65387,7 @@
         <v>35</v>
       </c>
       <c r="M209" s="2">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="N209" s="1">
         <v>701</v>
@@ -65645,7 +65645,7 @@
         <v>220</v>
       </c>
       <c r="CW209" s="1">
-        <v>577</v>
+        <v>562</v>
       </c>
     </row>
     <row r="210" spans="1:101">

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -4077,10 +4077,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1">
         <v>871</v>
@@ -4089,10 +4089,10 @@
         <v>15</v>
       </c>
       <c r="L4" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="N4" s="1">
         <v>2857</v>
@@ -4347,10 +4347,10 @@
         <v>370</v>
       </c>
       <c r="CV4" s="1">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="CW4" s="1">
-        <v>920</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -7761,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="AN16" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AO16" s="2">
         <v>20</v>
@@ -7899,7 +7899,7 @@
         <v>8</v>
       </c>
       <c r="CJ16" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="CK16" s="2">
         <v>34</v>
@@ -7935,7 +7935,7 @@
         <v>9</v>
       </c>
       <c r="CV16" s="1">
-        <v>-143</v>
+        <v>-155</v>
       </c>
       <c r="CW16" s="1">
         <v>-108</v>
@@ -8673,7 +8673,7 @@
         <v>2</v>
       </c>
       <c r="AS19" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT19" s="1">
         <v>0</v>
@@ -8799,7 +8799,7 @@
         <v>53</v>
       </c>
       <c r="CK19" s="2">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="CL19" s="1">
         <v>23</v>
@@ -8835,7 +8835,7 @@
         <v>362</v>
       </c>
       <c r="CW19" s="1">
-        <v>642</v>
+        <v>627</v>
       </c>
     </row>
     <row r="20" spans="1:101">
@@ -8852,7 +8852,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="1">
         <v>11</v>
@@ -9134,7 +9134,7 @@
         <v>22</v>
       </c>
       <c r="CW20" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:101">
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AN27" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO27" s="2">
         <v>5</v>
@@ -11062,7 +11062,7 @@
         <v>1</v>
       </c>
       <c r="AR27" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS27" s="2">
         <v>6</v>
@@ -11188,7 +11188,7 @@
         <v>1</v>
       </c>
       <c r="CJ27" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="CK27" s="2">
         <v>21</v>
@@ -11224,7 +11224,7 @@
         <v>9</v>
       </c>
       <c r="CV27" s="1">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="CW27" s="1">
         <v>456</v>
@@ -11869,16 +11869,16 @@
         <v>82</v>
       </c>
       <c r="N30" s="1">
-        <v>1722</v>
+        <v>1727</v>
       </c>
       <c r="O30" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P30" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="Q30" s="2">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="R30" s="1">
         <v>1</v>
@@ -12115,16 +12115,16 @@
         <v>0</v>
       </c>
       <c r="CT30" s="1">
-        <v>4914</v>
+        <v>4919</v>
       </c>
       <c r="CU30" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="CV30" s="1">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="CW30" s="1">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:101">
@@ -12141,7 +12141,7 @@
         <v>25</v>
       </c>
       <c r="E31" s="2">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -12156,16 +12156,16 @@
         <v>0</v>
       </c>
       <c r="J31" s="1">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="K31" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="L31" s="2">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M31" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N31" s="1">
         <v>5583</v>
@@ -12249,7 +12249,7 @@
         <v>2</v>
       </c>
       <c r="AO31" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP31" s="1">
         <v>35</v>
@@ -12387,7 +12387,7 @@
         <v>3</v>
       </c>
       <c r="CK31" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="CL31" s="1">
         <v>24</v>
@@ -12414,16 +12414,16 @@
         <v>0</v>
       </c>
       <c r="CT31" s="1">
-        <v>9444</v>
+        <v>9455</v>
       </c>
       <c r="CU31" s="1">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="CV31" s="1">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="CW31" s="1">
-        <v>536</v>
+        <v>523</v>
       </c>
     </row>
     <row r="32" spans="1:101">
@@ -13950,16 +13950,16 @@
         <v>3</v>
       </c>
       <c r="J37" s="1">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K37" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L37" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M37" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N37" s="1">
         <v>737</v>
@@ -14208,16 +14208,16 @@
         <v>0</v>
       </c>
       <c r="CT37" s="1">
-        <v>1655</v>
+        <v>1660</v>
       </c>
       <c r="CU37" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="CV37" s="1">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="CW37" s="1">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:101">
@@ -14342,7 +14342,7 @@
         <v>2</v>
       </c>
       <c r="AO38" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP38" s="1">
         <v>6</v>
@@ -14480,7 +14480,7 @@
         <v>29</v>
       </c>
       <c r="CK38" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="CL38" s="1">
         <v>2</v>
@@ -14516,7 +14516,7 @@
         <v>37</v>
       </c>
       <c r="CW38" s="1">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:101">
@@ -14530,7 +14530,7 @@
         <v>117</v>
       </c>
       <c r="D39" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E39" s="2">
         <v>666</v>
@@ -14779,7 +14779,7 @@
         <v>63</v>
       </c>
       <c r="CK39" s="2">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="CL39" s="1">
         <v>13</v>
@@ -14812,10 +14812,10 @@
         <v>188</v>
       </c>
       <c r="CV39" s="1">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="CW39" s="1">
-        <v>1866</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="40" spans="1:101">
@@ -15846,10 +15846,10 @@
         <v>2</v>
       </c>
       <c r="AR43" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS43" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT43" s="1">
         <v>29</v>
@@ -15972,7 +15972,7 @@
         <v>3</v>
       </c>
       <c r="CJ43" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="CK43" s="2">
         <v>16</v>
@@ -15987,7 +15987,7 @@
         <v>0</v>
       </c>
       <c r="CO43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP43" s="1">
         <v>0</v>
@@ -16008,10 +16008,10 @@
         <v>26</v>
       </c>
       <c r="CV43" s="1">
-        <v>2117</v>
+        <v>2113</v>
       </c>
       <c r="CW43" s="1">
-        <v>3099</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="44" spans="1:101">
@@ -20633,7 +20633,7 @@
         <v>0</v>
       </c>
       <c r="AS59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT59" s="1">
         <v>0</v>
@@ -20759,7 +20759,7 @@
         <v>38</v>
       </c>
       <c r="CK59" s="2">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="CL59" s="1">
         <v>7</v>
@@ -20795,7 +20795,7 @@
         <v>2385</v>
       </c>
       <c r="CW59" s="1">
-        <v>3211</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="60" spans="1:101">
@@ -21530,7 +21530,7 @@
         <v>1</v>
       </c>
       <c r="AS62" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>
@@ -21656,7 +21656,7 @@
         <v>10</v>
       </c>
       <c r="CK62" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="CL62" s="1">
         <v>10</v>
@@ -21692,7 +21692,7 @@
         <v>128</v>
       </c>
       <c r="CW62" s="1">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:101">
@@ -21730,7 +21730,7 @@
         <v>13</v>
       </c>
       <c r="L63" s="2">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="M63" s="2">
         <v>103</v>
@@ -21988,7 +21988,7 @@
         <v>28</v>
       </c>
       <c r="CV63" s="1">
-        <v>1271</v>
+        <v>1241</v>
       </c>
       <c r="CW63" s="1">
         <v>2464</v>
@@ -22621,16 +22621,16 @@
         <v>1</v>
       </c>
       <c r="J66" s="1">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K66" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L66" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M66" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N66" s="1">
         <v>922</v>
@@ -22879,16 +22879,16 @@
         <v>0</v>
       </c>
       <c r="CT66" s="1">
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c r="CU66" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CV66" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="CW66" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:101">
@@ -24424,7 +24424,7 @@
         <v>161</v>
       </c>
       <c r="M72" s="2">
-        <v>429</v>
+        <v>360</v>
       </c>
       <c r="N72" s="1">
         <v>71851</v>
@@ -24499,16 +24499,16 @@
         <v>0</v>
       </c>
       <c r="AL72" s="1">
-        <v>35275</v>
+        <v>35285</v>
       </c>
       <c r="AM72" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AN72" s="2">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AO72" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="AP72" s="1">
         <v>0</v>
@@ -24637,16 +24637,16 @@
         <v>1</v>
       </c>
       <c r="CH72" s="1">
-        <v>15201</v>
+        <v>15195</v>
       </c>
       <c r="CI72" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="CJ72" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="CK72" s="2">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="CL72" s="1">
         <v>0</v>
@@ -24673,16 +24673,16 @@
         <v>2</v>
       </c>
       <c r="CT72" s="1">
-        <v>156929</v>
+        <v>156933</v>
       </c>
       <c r="CU72" s="1">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="CV72" s="1">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="CW72" s="1">
-        <v>4679</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -24995,7 +24995,7 @@
         <v>-2</v>
       </c>
       <c r="D74" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="E74" s="2">
         <v>219</v>
@@ -25106,7 +25106,7 @@
         <v>2</v>
       </c>
       <c r="AO74" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP74" s="1">
         <v>35</v>
@@ -25244,7 +25244,7 @@
         <v>40</v>
       </c>
       <c r="CK74" s="2">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="CL74" s="1">
         <v>7</v>
@@ -25277,10 +25277,10 @@
         <v>20</v>
       </c>
       <c r="CV74" s="1">
-        <v>3239</v>
+        <v>3207</v>
       </c>
       <c r="CW74" s="1">
-        <v>6076</v>
+        <v>6055</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25297,7 +25297,7 @@
         <v>337</v>
       </c>
       <c r="E75" s="2">
-        <v>737</v>
+        <v>645</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>34</v>
       </c>
       <c r="L75" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M75" s="2">
         <v>253</v>
@@ -25396,16 +25396,16 @@
         <v>0</v>
       </c>
       <c r="AL75" s="1">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="AM75" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN75" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AO75" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AP75" s="1">
         <v>73</v>
@@ -25543,7 +25543,7 @@
         <v>127</v>
       </c>
       <c r="CK75" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="CL75" s="1">
         <v>97</v>
@@ -25570,16 +25570,16 @@
         <v>6</v>
       </c>
       <c r="CT75" s="1">
-        <v>346060</v>
+        <v>346061</v>
       </c>
       <c r="CU75" s="1">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="CV75" s="1">
-        <v>4869</v>
+        <v>4872</v>
       </c>
       <c r="CW75" s="1">
-        <v>11198</v>
+        <v>11104</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -26828,7 +26828,7 @@
         <v>435</v>
       </c>
       <c r="Q80" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="R80" s="1">
         <v>0</v>
@@ -26867,16 +26867,16 @@
         <v>5</v>
       </c>
       <c r="AD80" s="1">
-        <v>313774</v>
+        <v>313785</v>
       </c>
       <c r="AE80" s="2">
-        <v>-32</v>
+        <v>-21</v>
       </c>
       <c r="AF80" s="2">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="AG80" s="2">
-        <v>29620</v>
+        <v>29631</v>
       </c>
       <c r="AH80" s="1">
         <v>0</v>
@@ -26900,7 +26900,7 @@
         <v>3</v>
       </c>
       <c r="AO80" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AP80" s="1">
         <v>0</v>
@@ -27038,7 +27038,7 @@
         <v>181</v>
       </c>
       <c r="CK80" s="2">
-        <v>416</v>
+        <v>367</v>
       </c>
       <c r="CL80" s="1">
         <v>0</v>
@@ -27065,16 +27065,16 @@
         <v>0</v>
       </c>
       <c r="CT80" s="1">
-        <v>378911</v>
+        <v>378922</v>
       </c>
       <c r="CU80" s="1">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="CV80" s="1">
-        <v>2815</v>
+        <v>2826</v>
       </c>
       <c r="CW80" s="1">
-        <v>33010</v>
+        <v>32966</v>
       </c>
     </row>
     <row r="81" spans="1:101">
@@ -27402,7 +27402,7 @@
         <v>1</v>
       </c>
       <c r="I82" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J82" s="1">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>40</v>
       </c>
       <c r="CW82" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:101">
@@ -27800,16 +27800,16 @@
         <v>2</v>
       </c>
       <c r="AP83" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AQ83" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR83" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS83" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT83" s="1">
         <v>0</v>
@@ -27926,16 +27926,16 @@
         <v>1</v>
       </c>
       <c r="CH83" s="1">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="CI83" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CJ83" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CK83" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CL83" s="1">
         <v>35</v>
@@ -27962,16 +27962,16 @@
         <v>0</v>
       </c>
       <c r="CT83" s="1">
-        <v>2574</v>
+        <v>2577</v>
       </c>
       <c r="CU83" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="CV83" s="1">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="CW83" s="1">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:101">
@@ -28096,7 +28096,7 @@
         <v>30</v>
       </c>
       <c r="AO84" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AP84" s="1">
         <v>24</v>
@@ -28234,7 +28234,7 @@
         <v>150</v>
       </c>
       <c r="CK84" s="2">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="CL84" s="1">
         <v>15</v>
@@ -28270,7 +28270,7 @@
         <v>183</v>
       </c>
       <c r="CW84" s="1">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="85" spans="1:101">
@@ -29181,7 +29181,7 @@
         <v>47</v>
       </c>
       <c r="D88" s="2">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="E88" s="2">
         <v>284</v>
@@ -29292,7 +29292,7 @@
         <v>5</v>
       </c>
       <c r="AO88" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP88" s="1">
         <v>22</v>
@@ -29430,7 +29430,7 @@
         <v>74</v>
       </c>
       <c r="CK88" s="2">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="CL88" s="1">
         <v>5</v>
@@ -29463,10 +29463,10 @@
         <v>135</v>
       </c>
       <c r="CV88" s="1">
-        <v>404</v>
+        <v>373</v>
       </c>
       <c r="CW88" s="1">
-        <v>857</v>
+        <v>835</v>
       </c>
     </row>
     <row r="89" spans="1:101">
@@ -33669,7 +33669,7 @@
         <v>104</v>
       </c>
       <c r="E103" s="2">
-        <v>380</v>
+        <v>319</v>
       </c>
       <c r="F103" s="1">
         <v>0</v>
@@ -33777,7 +33777,7 @@
         <v>0</v>
       </c>
       <c r="AO103" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP103" s="1">
         <v>7</v>
@@ -33915,7 +33915,7 @@
         <v>105</v>
       </c>
       <c r="CK103" s="2">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="CL103" s="1">
         <v>0</v>
@@ -33951,7 +33951,7 @@
         <v>11366</v>
       </c>
       <c r="CW103" s="1">
-        <v>13786</v>
+        <v>13686</v>
       </c>
     </row>
     <row r="104" spans="1:101">
@@ -34510,7 +34510,7 @@
         <v>3</v>
       </c>
       <c r="CJ105" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="CK105" s="2">
         <v>29</v>
@@ -34546,7 +34546,7 @@
         <v>5</v>
       </c>
       <c r="CV105" s="1">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="CW105" s="1">
         <v>70</v>
@@ -35284,7 +35284,7 @@
         <v>0</v>
       </c>
       <c r="AS108" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT108" s="1">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>29</v>
       </c>
       <c r="CK108" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CL108" s="1">
         <v>26</v>
@@ -35446,7 +35446,7 @@
         <v>40</v>
       </c>
       <c r="CW108" s="1">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:101">
@@ -35574,16 +35574,16 @@
         <v>2</v>
       </c>
       <c r="AP109" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ109" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR109" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS109" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT109" s="1">
         <v>0</v>
@@ -35700,16 +35700,16 @@
         <v>0</v>
       </c>
       <c r="CH109" s="1">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="CI109" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="CJ109" s="2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="CK109" s="2">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="CL109" s="1">
         <v>25</v>
@@ -35736,16 +35736,16 @@
         <v>0</v>
       </c>
       <c r="CT109" s="1">
-        <v>6365</v>
+        <v>6377</v>
       </c>
       <c r="CU109" s="1">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="CV109" s="1">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="CW109" s="1">
-        <v>646</v>
+        <v>658</v>
       </c>
     </row>
     <row r="110" spans="1:101">
@@ -39960,7 +39960,7 @@
         <v>3</v>
       </c>
       <c r="I124" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J124" s="1">
         <v>0</v>
@@ -40230,7 +40230,7 @@
         <v>4</v>
       </c>
       <c r="CW124" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:101">
@@ -41252,7 +41252,7 @@
         <v>17</v>
       </c>
       <c r="AO128" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AP128" s="1">
         <v>0</v>
@@ -41390,7 +41390,7 @@
         <v>28</v>
       </c>
       <c r="CK128" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="CL128" s="1">
         <v>0</v>
@@ -41426,7 +41426,7 @@
         <v>96</v>
       </c>
       <c r="CW128" s="1">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="129" spans="1:101">
@@ -42053,7 +42053,7 @@
         <v>3</v>
       </c>
       <c r="I131" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J131" s="1">
         <v>0</v>
@@ -42323,7 +42323,7 @@
         <v>3</v>
       </c>
       <c r="CW131" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:101">
@@ -42337,7 +42337,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E132" s="2">
         <v>19</v>
@@ -42619,7 +42619,7 @@
         <v>3</v>
       </c>
       <c r="CV132" s="1">
-        <v>2650</v>
+        <v>2648</v>
       </c>
       <c r="CW132" s="1">
         <v>4979</v>
@@ -42636,10 +42636,10 @@
         <v>96</v>
       </c>
       <c r="D133" s="2">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="E133" s="2">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="F133" s="1">
         <v>0</v>
@@ -42660,7 +42660,7 @@
         <v>59</v>
       </c>
       <c r="L133" s="2">
-        <v>211</v>
+        <v>120</v>
       </c>
       <c r="M133" s="2">
         <v>454</v>
@@ -42747,7 +42747,7 @@
         <v>6</v>
       </c>
       <c r="AO133" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP133" s="1">
         <v>23</v>
@@ -42885,7 +42885,7 @@
         <v>41</v>
       </c>
       <c r="CK133" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="CL133" s="1">
         <v>13</v>
@@ -42918,10 +42918,10 @@
         <v>170</v>
       </c>
       <c r="CV133" s="1">
-        <v>1423</v>
+        <v>1268</v>
       </c>
       <c r="CW133" s="1">
-        <v>2639</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="134" spans="1:101">
@@ -44852,7 +44852,7 @@
         <v>2</v>
       </c>
       <c r="AS140" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT140" s="1">
         <v>0</v>
@@ -44978,7 +44978,7 @@
         <v>3</v>
       </c>
       <c r="CK140" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CL140" s="1">
         <v>38</v>
@@ -45014,7 +45014,7 @@
         <v>47</v>
       </c>
       <c r="CW140" s="1">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="141" spans="1:101">
@@ -46476,40 +46476,40 @@
         <v>4</v>
       </c>
       <c r="CL145" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CM145" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN145" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO145" s="2">
+        <v>4</v>
+      </c>
+      <c r="CP145" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ145" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR145" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS145" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT145" s="1">
+        <v>125</v>
+      </c>
+      <c r="CU145" s="1">
         <v>3</v>
       </c>
-      <c r="CP145" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ145" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR145" s="2">
-        <v>0</v>
-      </c>
-      <c r="CS145" s="2">
-        <v>0</v>
-      </c>
-      <c r="CT145" s="1">
-        <v>124</v>
-      </c>
-      <c r="CU145" s="1">
-        <v>2</v>
-      </c>
       <c r="CV145" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CW145" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="146" spans="1:101">
@@ -47244,7 +47244,7 @@
         <v>2</v>
       </c>
       <c r="AS148" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT148" s="1">
         <v>0</v>
@@ -47382,7 +47382,7 @@
         <v>0</v>
       </c>
       <c r="CO148" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP148" s="1">
         <v>0</v>
@@ -47406,7 +47406,7 @@
         <v>4</v>
       </c>
       <c r="CW148" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:101">
@@ -47540,7 +47540,7 @@
         <v>1</v>
       </c>
       <c r="AR149" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS149" s="2">
         <v>4</v>
@@ -47666,7 +47666,7 @@
         <v>1</v>
       </c>
       <c r="CJ149" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="CK149" s="2">
         <v>19</v>
@@ -47702,7 +47702,7 @@
         <v>3</v>
       </c>
       <c r="CV149" s="1">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="CW149" s="1">
         <v>37</v>
@@ -47833,16 +47833,16 @@
         <v>0</v>
       </c>
       <c r="AP150" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AQ150" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR150" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS150" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT150" s="1">
         <v>0</v>
@@ -47959,16 +47959,16 @@
         <v>1</v>
       </c>
       <c r="CH150" s="1">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="CI150" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CJ150" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="CK150" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="CL150" s="1">
         <v>9</v>
@@ -47995,16 +47995,16 @@
         <v>0</v>
       </c>
       <c r="CT150" s="1">
-        <v>2062</v>
+        <v>2068</v>
       </c>
       <c r="CU150" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="CV150" s="1">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="CW150" s="1">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="151" spans="1:101">
@@ -48640,7 +48640,7 @@
         <v>3</v>
       </c>
       <c r="L153" s="2">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M153" s="2">
         <v>41</v>
@@ -48898,7 +48898,7 @@
         <v>22</v>
       </c>
       <c r="CV153" s="1">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="CW153" s="1">
         <v>113</v>
@@ -49537,7 +49537,7 @@
         <v>70</v>
       </c>
       <c r="L156" s="2">
-        <v>582</v>
+        <v>491</v>
       </c>
       <c r="M156" s="2">
         <v>872</v>
@@ -49762,7 +49762,7 @@
         <v>303</v>
       </c>
       <c r="CK156" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="CL156" s="1">
         <v>15</v>
@@ -49795,10 +49795,10 @@
         <v>161</v>
       </c>
       <c r="CV156" s="1">
-        <v>1127</v>
+        <v>1036</v>
       </c>
       <c r="CW156" s="1">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="157" spans="1:101">
@@ -51418,7 +51418,7 @@
         <v>0</v>
       </c>
       <c r="AO162" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP162" s="1">
         <v>128</v>
@@ -51592,7 +51592,7 @@
         <v>68</v>
       </c>
       <c r="CW162" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="163" spans="1:101">
@@ -52207,7 +52207,7 @@
         <v>3</v>
       </c>
       <c r="E165" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F165" s="1">
         <v>6</v>
@@ -52489,7 +52489,7 @@
         <v>101</v>
       </c>
       <c r="CW165" s="1">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="166" spans="1:101">
@@ -52820,16 +52820,16 @@
         <v>2</v>
       </c>
       <c r="J167" s="1">
-        <v>926</v>
+        <v>973</v>
       </c>
       <c r="K167" s="2">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="L167" s="2">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="M167" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="N167" s="1">
         <v>320</v>
@@ -53078,16 +53078,16 @@
         <v>0</v>
       </c>
       <c r="CT167" s="1">
-        <v>4590</v>
+        <v>4637</v>
       </c>
       <c r="CU167" s="1">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="CV167" s="1">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="CW167" s="1">
-        <v>334</v>
+        <v>381</v>
       </c>
     </row>
     <row r="168" spans="1:101">
@@ -53107,16 +53107,16 @@
         <v>1</v>
       </c>
       <c r="F168" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G168" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J168" s="1">
         <v>0</v>
@@ -53377,16 +53377,16 @@
         <v>0</v>
       </c>
       <c r="CT168" s="1">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CU168" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CV168" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="CW168" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="169" spans="1:101">
@@ -55305,7 +55305,7 @@
         <v>81</v>
       </c>
       <c r="AO175" s="2">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="AP175" s="1">
         <v>0</v>
@@ -55443,7 +55443,7 @@
         <v>184</v>
       </c>
       <c r="CK175" s="2">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="CL175" s="1">
         <v>0</v>
@@ -55479,7 +55479,7 @@
         <v>281</v>
       </c>
       <c r="CW175" s="1">
-        <v>413</v>
+        <v>367</v>
       </c>
     </row>
     <row r="176" spans="1:101">
@@ -55786,16 +55786,16 @@
         <v>276</v>
       </c>
       <c r="B177" s="1">
-        <v>7260</v>
+        <v>7284</v>
       </c>
       <c r="C177" s="2">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D177" s="2">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="E177" s="2">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="F177" s="1">
         <v>0</v>
@@ -55903,7 +55903,7 @@
         <v>9</v>
       </c>
       <c r="AO177" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AP177" s="1">
         <v>30</v>
@@ -56041,7 +56041,7 @@
         <v>69</v>
       </c>
       <c r="CK177" s="2">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="CL177" s="1">
         <v>7</v>
@@ -56068,16 +56068,16 @@
         <v>0</v>
       </c>
       <c r="CT177" s="1">
-        <v>72145</v>
+        <v>72169</v>
       </c>
       <c r="CU177" s="1">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="CV177" s="1">
-        <v>2064</v>
+        <v>2088</v>
       </c>
       <c r="CW177" s="1">
-        <v>4646</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="178" spans="1:101">
@@ -56414,7 +56414,7 @@
         <v>22</v>
       </c>
       <c r="L179" s="2">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="M179" s="2">
         <v>98</v>
@@ -56672,7 +56672,7 @@
         <v>102</v>
       </c>
       <c r="CV179" s="1">
-        <v>1350</v>
+        <v>1337</v>
       </c>
       <c r="CW179" s="1">
         <v>2862</v>
@@ -57900,7 +57900,7 @@
         <v>3</v>
       </c>
       <c r="I184" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J184" s="1">
         <v>0</v>
@@ -58170,7 +58170,7 @@
         <v>6</v>
       </c>
       <c r="CW184" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185" spans="1:101">
@@ -61778,16 +61778,16 @@
         <v>0</v>
       </c>
       <c r="F197" s="1">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G197" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H197" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I197" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J197" s="1">
         <v>0</v>
@@ -62048,16 +62048,16 @@
         <v>0</v>
       </c>
       <c r="CT197" s="1">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="CU197" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CV197" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CW197" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198" spans="1:101">
@@ -62179,7 +62179,7 @@
         <v>1</v>
       </c>
       <c r="AN198" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO198" s="2">
         <v>10</v>
@@ -62317,7 +62317,7 @@
         <v>12</v>
       </c>
       <c r="CJ198" s="2">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="CK198" s="2">
         <v>114</v>
@@ -62353,7 +62353,7 @@
         <v>73</v>
       </c>
       <c r="CV198" s="1">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="CW198" s="1">
         <v>537</v>
@@ -62777,7 +62777,7 @@
         <v>7</v>
       </c>
       <c r="AN200" s="2">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AO200" s="2">
         <v>71</v>
@@ -62915,7 +62915,7 @@
         <v>8</v>
       </c>
       <c r="CJ200" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CK200" s="2">
         <v>76</v>
@@ -62951,7 +62951,7 @@
         <v>15</v>
       </c>
       <c r="CV200" s="1">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="CW200" s="1">
         <v>155</v>
@@ -63859,16 +63859,16 @@
         <v>303</v>
       </c>
       <c r="B204" s="1">
-        <v>525</v>
+        <v>232</v>
       </c>
       <c r="C204" s="2">
-        <v>1</v>
+        <v>-292</v>
       </c>
       <c r="D204" s="2">
-        <v>7</v>
+        <v>-286</v>
       </c>
       <c r="E204" s="2">
-        <v>19</v>
+        <v>-274</v>
       </c>
       <c r="F204" s="1">
         <v>7</v>
@@ -64141,16 +64141,16 @@
         <v>0</v>
       </c>
       <c r="CT204" s="1">
-        <v>1302</v>
+        <v>1009</v>
       </c>
       <c r="CU204" s="1">
-        <v>4</v>
+        <v>-289</v>
       </c>
       <c r="CV204" s="1">
-        <v>27</v>
+        <v>-266</v>
       </c>
       <c r="CW204" s="1">
-        <v>48</v>
+        <v>-245</v>
       </c>
     </row>
     <row r="205" spans="1:101">
@@ -64284,7 +64284,7 @@
         <v>1</v>
       </c>
       <c r="AR205" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS205" s="2">
         <v>5</v>
@@ -64410,7 +64410,7 @@
         <v>5</v>
       </c>
       <c r="CJ205" s="2">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="CK205" s="2">
         <v>104</v>
@@ -64446,7 +64446,7 @@
         <v>27</v>
       </c>
       <c r="CV205" s="1">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="CW205" s="1">
         <v>397</v>
@@ -64466,7 +64466,7 @@
         <v>8</v>
       </c>
       <c r="E206" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F206" s="1">
         <v>13</v>
@@ -64748,7 +64748,7 @@
         <v>8</v>
       </c>
       <c r="CW206" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:101">
@@ -65438,16 +65438,16 @@
         <v>0</v>
       </c>
       <c r="AD209" s="1">
-        <v>2365</v>
+        <v>2391</v>
       </c>
       <c r="AE209" s="2">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="AF209" s="2">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="AG209" s="2">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="AH209" s="1">
         <v>3</v>
@@ -65636,16 +65636,16 @@
         <v>0</v>
       </c>
       <c r="CT209" s="1">
-        <v>5091</v>
+        <v>5117</v>
       </c>
       <c r="CU209" s="1">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="CV209" s="1">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="CW209" s="1">
-        <v>562</v>
+        <v>588</v>
       </c>
     </row>
     <row r="210" spans="1:101">
@@ -68041,7 +68041,7 @@
         <v>591</v>
       </c>
       <c r="D74">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E74" t="s">
         <v>709</v>
@@ -69653,7 +69653,7 @@
         <v>659</v>
       </c>
       <c r="D154">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E154" t="s">
         <v>709</v>
@@ -70459,7 +70459,7 @@
         <v>693</v>
       </c>
       <c r="D194">
-        <v>9786</v>
+        <v>9796</v>
       </c>
       <c r="E194" t="s">
         <v>709</v>
@@ -70662,7 +70662,7 @@
         <v>701</v>
       </c>
       <c r="D204">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E204" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -1778,7 +1778,7 @@
     <t>atip-aiprp@destinationcanada.com</t>
   </si>
   <si>
-    <t>CWAatip-AECaiprp@ec.gc.ca</t>
+    <t>atip-aiprp@cwa-aec.gc.ca</t>
   </si>
   <si>
     <t>ATIP-AIPRP@DCC-CDC.gc.ca</t>
@@ -3584,7 +3584,7 @@
         <v>60</v>
       </c>
       <c r="AQ2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR2" s="2">
         <v>3</v>
@@ -3710,7 +3710,7 @@
         <v>1768</v>
       </c>
       <c r="CI2" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CJ2" s="2">
         <v>37</v>
@@ -3746,7 +3746,7 @@
         <v>40013</v>
       </c>
       <c r="CU2" s="1">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="CV2" s="1">
         <v>1262</v>
@@ -3793,7 +3793,7 @@
         <v>249</v>
       </c>
       <c r="M3" s="2">
-        <v>537</v>
+        <v>451</v>
       </c>
       <c r="N3" s="1">
         <v>8678</v>
@@ -3877,7 +3877,7 @@
         <v>8</v>
       </c>
       <c r="AO3" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP3" s="1">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>75</v>
       </c>
       <c r="CK3" s="2">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="CL3" s="1">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>590</v>
       </c>
       <c r="CW3" s="1">
-        <v>1209</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="4" spans="1:101">
@@ -4176,7 +4176,7 @@
         <v>2</v>
       </c>
       <c r="AO4" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP4" s="1">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>22</v>
       </c>
       <c r="CK4" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="CL4" s="1">
         <v>0</v>
@@ -4350,7 +4350,7 @@
         <v>425</v>
       </c>
       <c r="CW4" s="1">
-        <v>900</v>
+        <v>877</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -7459,7 +7459,7 @@
         <v>6</v>
       </c>
       <c r="AM15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="2">
         <v>1</v>
@@ -7471,7 +7471,7 @@
         <v>52</v>
       </c>
       <c r="AQ15" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR15" s="2">
         <v>2</v>
@@ -7597,7 +7597,7 @@
         <v>154</v>
       </c>
       <c r="CI15" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CJ15" s="2">
         <v>2</v>
@@ -7609,7 +7609,7 @@
         <v>23</v>
       </c>
       <c r="CM15" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CN15" s="2">
         <v>2</v>
@@ -7633,7 +7633,7 @@
         <v>712</v>
       </c>
       <c r="CU15" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="CV15" s="1">
         <v>24</v>
@@ -7659,16 +7659,16 @@
         <v>-168</v>
       </c>
       <c r="F16" s="1">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="I16" s="2">
-        <v>2</v>
+        <v>-28</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -7764,7 +7764,7 @@
         <v>3</v>
       </c>
       <c r="AO16" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AP16" s="1">
         <v>25</v>
@@ -7914,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="CO16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CP16" s="1">
         <v>0</v>
@@ -7929,16 +7929,16 @@
         <v>0</v>
       </c>
       <c r="CT16" s="1">
-        <v>1709</v>
+        <v>1679</v>
       </c>
       <c r="CU16" s="1">
-        <v>9</v>
+        <v>-21</v>
       </c>
       <c r="CV16" s="1">
-        <v>-155</v>
+        <v>-185</v>
       </c>
       <c r="CW16" s="1">
-        <v>-108</v>
+        <v>-142</v>
       </c>
     </row>
     <row r="17" spans="1:101">
@@ -8960,7 +8960,7 @@
         <v>2</v>
       </c>
       <c r="AO20" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP20" s="1">
         <v>7</v>
@@ -9098,7 +9098,7 @@
         <v>17</v>
       </c>
       <c r="CK20" s="2">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="CL20" s="1">
         <v>1</v>
@@ -9134,7 +9134,7 @@
         <v>22</v>
       </c>
       <c r="CW20" s="1">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:101">
@@ -10347,7 +10347,7 @@
         <v>4</v>
       </c>
       <c r="E25" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F25" s="1">
         <v>33</v>
@@ -10629,7 +10629,7 @@
         <v>4</v>
       </c>
       <c r="CW25" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:101">
@@ -10945,7 +10945,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1">
         <v>26</v>
@@ -10969,7 +10969,7 @@
         <v>17</v>
       </c>
       <c r="M27" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="N27" s="1">
         <v>1968</v>
@@ -11065,7 +11065,7 @@
         <v>2</v>
       </c>
       <c r="AS27" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT27" s="1">
         <v>1</v>
@@ -11191,7 +11191,7 @@
         <v>5</v>
       </c>
       <c r="CK27" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="CL27" s="1">
         <v>20</v>
@@ -11227,7 +11227,7 @@
         <v>198</v>
       </c>
       <c r="CW27" s="1">
-        <v>456</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28" spans="1:101">
@@ -11256,7 +11256,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -11526,7 +11526,7 @@
         <v>2</v>
       </c>
       <c r="CW28" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:101">
@@ -11555,7 +11555,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -11825,7 +11825,7 @@
         <v>2</v>
       </c>
       <c r="CW29" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:101">
@@ -11869,16 +11869,16 @@
         <v>82</v>
       </c>
       <c r="N30" s="1">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="O30" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P30" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q30" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R30" s="1">
         <v>1</v>
@@ -12079,16 +12079,16 @@
         <v>1</v>
       </c>
       <c r="CH30" s="1">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="CI30" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CJ30" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CK30" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CL30" s="1">
         <v>19</v>
@@ -12115,16 +12115,16 @@
         <v>0</v>
       </c>
       <c r="CT30" s="1">
-        <v>4919</v>
+        <v>4920</v>
       </c>
       <c r="CU30" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CV30" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="CW30" s="1">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:101">
@@ -12207,7 +12207,7 @@
         <v>93</v>
       </c>
       <c r="AA31" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="2">
         <v>6</v>
@@ -12417,7 +12417,7 @@
         <v>9455</v>
       </c>
       <c r="CU31" s="1">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="CV31" s="1">
         <v>314</v>
@@ -13050,7 +13050,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
@@ -13320,7 +13320,7 @@
         <v>2</v>
       </c>
       <c r="CW34" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:101">
@@ -13648,7 +13648,7 @@
         <v>2</v>
       </c>
       <c r="I36" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
@@ -13918,7 +13918,7 @@
         <v>2</v>
       </c>
       <c r="CW36" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:101">
@@ -14557,7 +14557,7 @@
         <v>122</v>
       </c>
       <c r="M39" s="2">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="N39" s="1">
         <v>15005</v>
@@ -14815,7 +14815,7 @@
         <v>1001</v>
       </c>
       <c r="CW39" s="1">
-        <v>1854</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="40" spans="1:101">
@@ -14835,16 +14835,16 @@
         <v>4</v>
       </c>
       <c r="F40" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J40" s="1">
         <v>0</v>
@@ -15069,16 +15069,16 @@
         <v>0</v>
       </c>
       <c r="CH40" s="1">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="CI40" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="CJ40" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="CK40" s="2">
-        <v>-46</v>
+        <v>-24</v>
       </c>
       <c r="CL40" s="1">
         <v>4</v>
@@ -15105,16 +15105,16 @@
         <v>0</v>
       </c>
       <c r="CT40" s="1">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="CU40" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="CV40" s="1">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="CW40" s="1">
-        <v>-25</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="41" spans="1:101">
@@ -15143,7 +15143,7 @@
         <v>2</v>
       </c>
       <c r="I41" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J41" s="1">
         <v>0</v>
@@ -15413,7 +15413,7 @@
         <v>2</v>
       </c>
       <c r="CW41" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:101">
@@ -15541,16 +15541,16 @@
         <v>2</v>
       </c>
       <c r="AP42" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AQ42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR42" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS42" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT42" s="1">
         <v>0</v>
@@ -15679,40 +15679,40 @@
         <v>1</v>
       </c>
       <c r="CL42" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CM42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN42" s="2">
+        <v>3</v>
+      </c>
+      <c r="CO42" s="2">
+        <v>5</v>
+      </c>
+      <c r="CP42" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ42" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR42" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS42" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT42" s="1">
+        <v>457</v>
+      </c>
+      <c r="CU42" s="1">
         <v>2</v>
       </c>
-      <c r="CO42" s="2">
-        <v>4</v>
-      </c>
-      <c r="CP42" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ42" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR42" s="2">
-        <v>0</v>
-      </c>
-      <c r="CS42" s="2">
-        <v>0</v>
-      </c>
-      <c r="CT42" s="1">
-        <v>455</v>
-      </c>
-      <c r="CU42" s="1">
-        <v>0</v>
-      </c>
       <c r="CV42" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CW42" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:101">
@@ -15843,7 +15843,7 @@
         <v>52</v>
       </c>
       <c r="AQ43" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR43" s="2">
         <v>3</v>
@@ -15969,7 +15969,7 @@
         <v>810</v>
       </c>
       <c r="CI43" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CJ43" s="2">
         <v>10</v>
@@ -16005,7 +16005,7 @@
         <v>43940</v>
       </c>
       <c r="CU43" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="CV43" s="1">
         <v>2113</v>
@@ -17924,7 +17924,7 @@
         <v>67</v>
       </c>
       <c r="AM50" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN50" s="2">
         <v>19</v>
@@ -18098,7 +18098,7 @@
         <v>174</v>
       </c>
       <c r="CU50" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CV50" s="1">
         <v>34</v>
@@ -18519,16 +18519,16 @@
         <v>0</v>
       </c>
       <c r="AL52" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AM52" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN52" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AO52" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AP52" s="1">
         <v>6</v>
@@ -18657,16 +18657,16 @@
         <v>0</v>
       </c>
       <c r="CH52" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="CI52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ52" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CK52" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CL52" s="1">
         <v>3</v>
@@ -18693,16 +18693,16 @@
         <v>0</v>
       </c>
       <c r="CT52" s="1">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="CU52" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CV52" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="CW52" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:101">
@@ -19018,7 +19018,7 @@
         <v>13</v>
       </c>
       <c r="E54" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -19264,7 +19264,7 @@
         <v>16</v>
       </c>
       <c r="CK54" s="2">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="CL54" s="1">
         <v>2</v>
@@ -19300,7 +19300,7 @@
         <v>159</v>
       </c>
       <c r="CW54" s="1">
-        <v>435</v>
+        <v>420</v>
       </c>
     </row>
     <row r="55" spans="1:101">
@@ -20537,7 +20537,7 @@
         <v>58</v>
       </c>
       <c r="M59" s="2">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="N59" s="1">
         <v>42075</v>
@@ -20795,7 +20795,7 @@
         <v>2385</v>
       </c>
       <c r="CW59" s="1">
-        <v>3200</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="60" spans="1:101">
@@ -21111,7 +21111,7 @@
         <v>38</v>
       </c>
       <c r="E61" s="2">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F61" s="1">
         <v>2</v>
@@ -21126,16 +21126,16 @@
         <v>0</v>
       </c>
       <c r="J61" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K61" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L61" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M61" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N61" s="1">
         <v>908</v>
@@ -21231,7 +21231,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -21357,7 +21357,7 @@
         <v>31</v>
       </c>
       <c r="CK61" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="CL61" s="1">
         <v>22</v>
@@ -21384,16 +21384,16 @@
         <v>0</v>
       </c>
       <c r="CT61" s="1">
-        <v>2273</v>
+        <v>2276</v>
       </c>
       <c r="CU61" s="1">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="CV61" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="CW61" s="1">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:101">
@@ -21820,13 +21820,13 @@
         <v>3</v>
       </c>
       <c r="AP63" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AQ63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR63" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS63" s="2">
         <v>6</v>
@@ -21862,7 +21862,7 @@
         <v>0</v>
       </c>
       <c r="BD63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE63" s="2">
         <v>4</v>
@@ -21946,28 +21946,28 @@
         <v>1</v>
       </c>
       <c r="CH63" s="1">
-        <v>1683</v>
+        <v>1694</v>
       </c>
       <c r="CI63" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="CJ63" s="2">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="CK63" s="2">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="CL63" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CM63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN63" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CO63" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CP63" s="1">
         <v>0</v>
@@ -21982,16 +21982,16 @@
         <v>0</v>
       </c>
       <c r="CT63" s="1">
-        <v>57580</v>
+        <v>57593</v>
       </c>
       <c r="CU63" s="1">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="CV63" s="1">
-        <v>1241</v>
+        <v>1253</v>
       </c>
       <c r="CW63" s="1">
-        <v>2464</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="64" spans="1:101">
@@ -22597,16 +22597,16 @@
         <v>165</v>
       </c>
       <c r="B66" s="1">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C66" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D66" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E66" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F66" s="1">
         <v>16</v>
@@ -22726,7 +22726,7 @@
         <v>1</v>
       </c>
       <c r="AS66" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT66" s="1">
         <v>0</v>
@@ -22846,7 +22846,7 @@
         <v>161</v>
       </c>
       <c r="CI66" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="CJ66" s="2">
         <v>13</v>
@@ -22864,7 +22864,7 @@
         <v>1</v>
       </c>
       <c r="CO66" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CP66" s="1">
         <v>0</v>
@@ -22879,13 +22879,13 @@
         <v>0</v>
       </c>
       <c r="CT66" s="1">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="CU66" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="CV66" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="CW66" s="1">
         <v>100</v>
@@ -23234,7 +23234,7 @@
         <v>1175</v>
       </c>
       <c r="O68" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P68" s="2">
         <v>15</v>
@@ -23318,7 +23318,7 @@
         <v>64</v>
       </c>
       <c r="AQ68" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR68" s="2">
         <v>3</v>
@@ -23456,7 +23456,7 @@
         <v>36</v>
       </c>
       <c r="CM68" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CN68" s="2">
         <v>2</v>
@@ -23480,7 +23480,7 @@
         <v>2060</v>
       </c>
       <c r="CU68" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CV68" s="1">
         <v>33</v>
@@ -23494,16 +23494,16 @@
         <v>168</v>
       </c>
       <c r="B69" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="1">
         <v>56</v>
@@ -23776,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="CT69" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="CU69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV69" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CW69" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:101">
@@ -23805,16 +23805,16 @@
         <v>0</v>
       </c>
       <c r="F70" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I70" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J70" s="1">
         <v>25</v>
@@ -23913,142 +23913,142 @@
         <v>0</v>
       </c>
       <c r="AP70" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ70" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR70" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS70" s="2">
+        <v>5</v>
+      </c>
+      <c r="AT70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ70" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA70" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB70" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC70" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD70" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE70" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF70" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG70" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH70" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI70" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ70" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK70" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN70" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO70" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP70" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ70" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR70" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS70" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT70" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU70" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV70" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW70" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX70" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY70" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ70" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA70" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB70" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC70" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD70" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE70" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF70" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG70" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH70" s="1">
+        <v>6</v>
+      </c>
+      <c r="CI70" s="2">
+        <v>2</v>
+      </c>
+      <c r="CJ70" s="2">
         <v>4</v>
       </c>
-      <c r="AQ70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR70" s="2">
-        <v>2</v>
-      </c>
-      <c r="AS70" s="2">
-        <v>4</v>
-      </c>
-      <c r="AT70" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU70" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV70" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW70" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX70" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY70" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ70" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA70" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB70" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC70" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD70" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE70" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF70" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG70" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH70" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI70" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ70" s="1">
-        <v>1</v>
-      </c>
-      <c r="BK70" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN70" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO70" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP70" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ70" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR70" s="1">
-        <v>1</v>
-      </c>
-      <c r="BS70" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT70" s="2">
-        <v>1</v>
-      </c>
-      <c r="BU70" s="2">
-        <v>1</v>
-      </c>
-      <c r="BV70" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW70" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX70" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY70" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ70" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA70" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB70" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC70" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD70" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE70" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF70" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG70" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH70" s="1">
-        <v>5</v>
-      </c>
-      <c r="CI70" s="2">
-        <v>1</v>
-      </c>
-      <c r="CJ70" s="2">
-        <v>3</v>
-      </c>
       <c r="CK70" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CL70" s="1">
         <v>0</v>
@@ -24075,16 +24075,16 @@
         <v>0</v>
       </c>
       <c r="CT70" s="1">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="CU70" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="CV70" s="1">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="CW70" s="1">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:101">
@@ -24391,16 +24391,16 @@
         <v>171</v>
       </c>
       <c r="B72" s="1">
-        <v>11410</v>
+        <v>11467</v>
       </c>
       <c r="C72" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="D72" s="2">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="E72" s="2">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -24541,7 +24541,7 @@
         <v>0</v>
       </c>
       <c r="AZ72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA72" s="2">
         <v>1</v>
@@ -24640,7 +24640,7 @@
         <v>15195</v>
       </c>
       <c r="CI72" s="2">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="CJ72" s="2">
         <v>185</v>
@@ -24673,16 +24673,16 @@
         <v>2</v>
       </c>
       <c r="CT72" s="1">
-        <v>156933</v>
+        <v>156990</v>
       </c>
       <c r="CU72" s="1">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="CV72" s="1">
-        <v>1951</v>
+        <v>2007</v>
       </c>
       <c r="CW72" s="1">
-        <v>4609</v>
+        <v>4666</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -24807,7 +24807,7 @@
         <v>3</v>
       </c>
       <c r="AO73" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AP73" s="1">
         <v>3</v>
@@ -24945,7 +24945,7 @@
         <v>5</v>
       </c>
       <c r="CK73" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="CL73" s="1">
         <v>3</v>
@@ -24981,7 +24981,7 @@
         <v>11</v>
       </c>
       <c r="CW73" s="1">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:101">
@@ -24998,7 +24998,7 @@
         <v>83</v>
       </c>
       <c r="E74" s="2">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -25022,7 +25022,7 @@
         <v>134</v>
       </c>
       <c r="M74" s="2">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="N74" s="1">
         <v>107744</v>
@@ -25130,7 +25130,7 @@
         <v>1</v>
       </c>
       <c r="AW74" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX74" s="1">
         <v>6</v>
@@ -25280,7 +25280,7 @@
         <v>3207</v>
       </c>
       <c r="CW74" s="1">
-        <v>6055</v>
+        <v>5976</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="J75" s="1">
-        <v>4080</v>
+        <v>4117</v>
       </c>
       <c r="K75" s="2">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="L75" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="M75" s="2">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="N75" s="1">
         <v>318327</v>
@@ -25396,16 +25396,16 @@
         <v>0</v>
       </c>
       <c r="AL75" s="1">
-        <v>1641</v>
+        <v>1654</v>
       </c>
       <c r="AM75" s="2">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AN75" s="2">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="AO75" s="2">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AP75" s="1">
         <v>73</v>
@@ -25417,7 +25417,7 @@
         <v>3</v>
       </c>
       <c r="AS75" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT75" s="1">
         <v>25</v>
@@ -25543,7 +25543,7 @@
         <v>127</v>
       </c>
       <c r="CK75" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="CL75" s="1">
         <v>97</v>
@@ -25570,16 +25570,16 @@
         <v>6</v>
       </c>
       <c r="CT75" s="1">
-        <v>346061</v>
+        <v>346111</v>
       </c>
       <c r="CU75" s="1">
-        <v>311</v>
+        <v>361</v>
       </c>
       <c r="CV75" s="1">
-        <v>4872</v>
+        <v>4922</v>
       </c>
       <c r="CW75" s="1">
-        <v>11104</v>
+        <v>11096</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -25716,7 +25716,7 @@
         <v>1</v>
       </c>
       <c r="AS76" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT76" s="1">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>60</v>
       </c>
       <c r="CK76" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="CL76" s="1">
         <v>2</v>
@@ -25878,7 +25878,7 @@
         <v>1095</v>
       </c>
       <c r="CW76" s="1">
-        <v>2241</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="77" spans="1:101">
@@ -26296,7 +26296,7 @@
         <v>30</v>
       </c>
       <c r="AM78" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN78" s="2">
         <v>2</v>
@@ -26446,13 +26446,13 @@
         <v>27</v>
       </c>
       <c r="CM78" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN78" s="2">
         <v>1</v>
       </c>
       <c r="CO78" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CP78" s="1">
         <v>0</v>
@@ -26470,13 +26470,13 @@
         <v>5323</v>
       </c>
       <c r="CU78" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="CV78" s="1">
         <v>155</v>
       </c>
       <c r="CW78" s="1">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:101">
@@ -27719,7 +27719,7 @@
         <v>1456</v>
       </c>
       <c r="O83" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P83" s="2">
         <v>34</v>
@@ -27791,7 +27791,7 @@
         <v>192</v>
       </c>
       <c r="AM83" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN83" s="2">
         <v>1</v>
@@ -27929,13 +27929,13 @@
         <v>578</v>
       </c>
       <c r="CI83" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="CJ83" s="2">
         <v>12</v>
       </c>
       <c r="CK83" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="CL83" s="1">
         <v>35</v>
@@ -27965,13 +27965,13 @@
         <v>2577</v>
       </c>
       <c r="CU83" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="CV83" s="1">
         <v>56</v>
       </c>
       <c r="CW83" s="1">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:101">
@@ -29729,7 +29729,7 @@
         <v>8</v>
       </c>
       <c r="CK89" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="CL89" s="1">
         <v>24</v>
@@ -29765,7 +29765,7 @@
         <v>90</v>
       </c>
       <c r="CW89" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:101">
@@ -32572,16 +32572,16 @@
         <v>0</v>
       </c>
       <c r="AL99" s="1">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AM99" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN99" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO99" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP99" s="1">
         <v>30</v>
@@ -32710,16 +32710,16 @@
         <v>0</v>
       </c>
       <c r="CH99" s="1">
-        <v>1478</v>
+        <v>1523</v>
       </c>
       <c r="CI99" s="2">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="CJ99" s="2">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="CK99" s="2">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="CL99" s="1">
         <v>9</v>
@@ -32746,16 +32746,16 @@
         <v>0</v>
       </c>
       <c r="CT99" s="1">
-        <v>37380</v>
+        <v>37427</v>
       </c>
       <c r="CU99" s="1">
-        <v>261</v>
+        <v>308</v>
       </c>
       <c r="CV99" s="1">
-        <v>1046</v>
+        <v>1093</v>
       </c>
       <c r="CW99" s="1">
-        <v>1928</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="100" spans="1:101">
@@ -33660,16 +33660,16 @@
         <v>202</v>
       </c>
       <c r="B103" s="1">
-        <v>8098</v>
+        <v>8165</v>
       </c>
       <c r="C103" s="2">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="D103" s="2">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="E103" s="2">
-        <v>319</v>
+        <v>386</v>
       </c>
       <c r="F103" s="1">
         <v>0</v>
@@ -33693,13 +33693,13 @@
         <v>530</v>
       </c>
       <c r="M103" s="2">
-        <v>920</v>
+        <v>830</v>
       </c>
       <c r="N103" s="1">
         <v>19978</v>
       </c>
       <c r="O103" s="2">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="P103" s="2">
         <v>8779</v>
@@ -33942,16 +33942,16 @@
         <v>0</v>
       </c>
       <c r="CT103" s="1">
-        <v>83641</v>
+        <v>83708</v>
       </c>
       <c r="CU103" s="1">
-        <v>469</v>
+        <v>555</v>
       </c>
       <c r="CV103" s="1">
-        <v>11366</v>
+        <v>11433</v>
       </c>
       <c r="CW103" s="1">
-        <v>13686</v>
+        <v>13663</v>
       </c>
     </row>
     <row r="104" spans="1:101">
@@ -34889,7 +34889,7 @@
         <v>118</v>
       </c>
       <c r="M107" s="2">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="N107" s="1">
         <v>1099</v>
@@ -35111,7 +35111,7 @@
         <v>73</v>
       </c>
       <c r="CK107" s="2">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="CL107" s="1">
         <v>0</v>
@@ -35147,7 +35147,7 @@
         <v>397</v>
       </c>
       <c r="CW107" s="1">
-        <v>757</v>
+        <v>693</v>
       </c>
     </row>
     <row r="108" spans="1:101">
@@ -35487,7 +35487,7 @@
         <v>31</v>
       </c>
       <c r="M109" s="2">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="N109" s="1">
         <v>4185</v>
@@ -35583,7 +35583,7 @@
         <v>4</v>
       </c>
       <c r="AS109" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT109" s="1">
         <v>0</v>
@@ -35721,7 +35721,7 @@
         <v>0</v>
       </c>
       <c r="CO109" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP109" s="1">
         <v>0</v>
@@ -35745,7 +35745,7 @@
         <v>329</v>
       </c>
       <c r="CW109" s="1">
-        <v>658</v>
+        <v>647</v>
       </c>
     </row>
     <row r="110" spans="1:101">
@@ -36008,7 +36008,7 @@
         <v>117</v>
       </c>
       <c r="CK110" s="2">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="CL110" s="1">
         <v>1</v>
@@ -36044,7 +36044,7 @@
         <v>5331</v>
       </c>
       <c r="CW110" s="1">
-        <v>10713</v>
+        <v>10698</v>
       </c>
     </row>
     <row r="111" spans="1:101">
@@ -36677,7 +36677,7 @@
         <v>4166</v>
       </c>
       <c r="K113" s="2">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="L113" s="2">
         <v>144</v>
@@ -36767,7 +36767,7 @@
         <v>14</v>
       </c>
       <c r="AO113" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP113" s="1">
         <v>26</v>
@@ -36782,16 +36782,16 @@
         <v>0</v>
       </c>
       <c r="AT113" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AU113" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV113" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW113" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AX113" s="1">
         <v>3</v>
@@ -36932,13 +36932,13 @@
         <v>0</v>
       </c>
       <c r="CT113" s="1">
-        <v>18477</v>
+        <v>18478</v>
       </c>
       <c r="CU113" s="1">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="CV113" s="1">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="CW113" s="1">
         <v>952</v>
@@ -36949,16 +36949,16 @@
         <v>213</v>
       </c>
       <c r="B114" s="1">
-        <v>6915</v>
+        <v>7007</v>
       </c>
       <c r="C114" s="2">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="D114" s="2">
-        <v>290</v>
+        <v>382</v>
       </c>
       <c r="E114" s="2">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="F114" s="1">
         <v>0</v>
@@ -37231,16 +37231,16 @@
         <v>0</v>
       </c>
       <c r="CT114" s="1">
-        <v>10227</v>
+        <v>10319</v>
       </c>
       <c r="CU114" s="1">
-        <v>192</v>
+        <v>284</v>
       </c>
       <c r="CV114" s="1">
-        <v>470</v>
+        <v>562</v>
       </c>
       <c r="CW114" s="1">
-        <v>906</v>
+        <v>887</v>
       </c>
     </row>
     <row r="115" spans="1:101">
@@ -39951,16 +39951,16 @@
         <v>1</v>
       </c>
       <c r="F124" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G124" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I124" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J124" s="1">
         <v>0</v>
@@ -40221,16 +40221,16 @@
         <v>0</v>
       </c>
       <c r="CT124" s="1">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="CU124" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CV124" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CW124" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:101">
@@ -40965,7 +40965,7 @@
         <v>0</v>
       </c>
       <c r="AS127" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT127" s="1">
         <v>0</v>
@@ -41091,7 +41091,7 @@
         <v>9</v>
       </c>
       <c r="CK127" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="CL127" s="1">
         <v>32</v>
@@ -41127,7 +41127,7 @@
         <v>85</v>
       </c>
       <c r="CW127" s="1">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:101">
@@ -42334,7 +42334,7 @@
         <v>247</v>
       </c>
       <c r="C132" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132" s="2">
         <v>9</v>
@@ -42616,7 +42616,7 @@
         <v>117982</v>
       </c>
       <c r="CU132" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CV132" s="1">
         <v>2648</v>
@@ -42663,7 +42663,7 @@
         <v>120</v>
       </c>
       <c r="M133" s="2">
-        <v>454</v>
+        <v>390</v>
       </c>
       <c r="N133" s="1">
         <v>29067</v>
@@ -42921,7 +42921,7 @@
         <v>1268</v>
       </c>
       <c r="CW133" s="1">
-        <v>2560</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="134" spans="1:101">
@@ -43228,16 +43228,16 @@
         <v>234</v>
       </c>
       <c r="B135" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C135" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D135" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E135" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F135" s="1">
         <v>19</v>
@@ -43510,16 +43510,16 @@
         <v>0</v>
       </c>
       <c r="CT135" s="1">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="CU135" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CV135" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CW135" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" spans="1:101">
@@ -43560,7 +43560,7 @@
         <v>19</v>
       </c>
       <c r="M136" s="2">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="N136" s="1">
         <v>1886</v>
@@ -43638,7 +43638,7 @@
         <v>188</v>
       </c>
       <c r="AM136" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN136" s="2">
         <v>9</v>
@@ -43647,16 +43647,16 @@
         <v>16</v>
       </c>
       <c r="AP136" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ136" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR136" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS136" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT136" s="1">
         <v>0</v>
@@ -43773,16 +43773,16 @@
         <v>0</v>
       </c>
       <c r="CH136" s="1">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="CI136" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CJ136" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="CK136" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="CL136" s="1">
         <v>2</v>
@@ -43809,16 +43809,16 @@
         <v>0</v>
       </c>
       <c r="CT136" s="1">
-        <v>3681</v>
+        <v>3687</v>
       </c>
       <c r="CU136" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CV136" s="1">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="CW136" s="1">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="137" spans="1:101">
@@ -44843,16 +44843,16 @@
         <v>6</v>
       </c>
       <c r="AP140" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AQ140" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR140" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS140" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT140" s="1">
         <v>0</v>
@@ -44969,16 +44969,16 @@
         <v>1</v>
       </c>
       <c r="CH140" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="CI140" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ140" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CK140" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CL140" s="1">
         <v>38</v>
@@ -45005,16 +45005,16 @@
         <v>0</v>
       </c>
       <c r="CT140" s="1">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="CU140" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CV140" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="CW140" s="1">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="141" spans="1:101">
@@ -45043,7 +45043,7 @@
         <v>1</v>
       </c>
       <c r="I141" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J141" s="1">
         <v>0</v>
@@ -45151,7 +45151,7 @@
         <v>2</v>
       </c>
       <c r="AS141" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT141" s="1">
         <v>0</v>
@@ -45289,7 +45289,7 @@
         <v>1</v>
       </c>
       <c r="CO141" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CP141" s="1">
         <v>0</v>
@@ -45313,7 +45313,7 @@
         <v>8</v>
       </c>
       <c r="CW141" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:101">
@@ -46347,7 +46347,7 @@
         <v>3</v>
       </c>
       <c r="AS145" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AT145" s="1">
         <v>0</v>
@@ -46509,7 +46509,7 @@
         <v>12</v>
       </c>
       <c r="CW145" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:101">
@@ -46526,7 +46526,7 @@
         <v>6</v>
       </c>
       <c r="E146" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F146" s="1">
         <v>4</v>
@@ -46550,7 +46550,7 @@
         <v>13</v>
       </c>
       <c r="M146" s="2">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="N146" s="1">
         <v>2882</v>
@@ -46634,7 +46634,7 @@
         <v>11</v>
       </c>
       <c r="AO146" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP146" s="1">
         <v>26</v>
@@ -46772,7 +46772,7 @@
         <v>19</v>
       </c>
       <c r="CK146" s="2">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="CL146" s="1">
         <v>16</v>
@@ -46808,7 +46808,7 @@
         <v>119</v>
       </c>
       <c r="CW146" s="1">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="147" spans="1:101">
@@ -47543,7 +47543,7 @@
         <v>1</v>
       </c>
       <c r="AS149" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT149" s="1">
         <v>0</v>
@@ -47669,7 +47669,7 @@
         <v>7</v>
       </c>
       <c r="CK149" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="CL149" s="1">
         <v>24</v>
@@ -47705,7 +47705,7 @@
         <v>18</v>
       </c>
       <c r="CW149" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150" spans="1:101">
@@ -48643,7 +48643,7 @@
         <v>13</v>
       </c>
       <c r="M153" s="2">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N153" s="1">
         <v>1134</v>
@@ -48901,7 +48901,7 @@
         <v>47</v>
       </c>
       <c r="CW153" s="1">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="154" spans="1:101">
@@ -48942,7 +48942,7 @@
         <v>60</v>
       </c>
       <c r="M154" s="2">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="N154" s="1">
         <v>55935</v>
@@ -49026,7 +49026,7 @@
         <v>0</v>
       </c>
       <c r="AO154" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP154" s="1">
         <v>44</v>
@@ -49164,7 +49164,7 @@
         <v>16</v>
       </c>
       <c r="CK154" s="2">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="CL154" s="1">
         <v>13</v>
@@ -49200,7 +49200,7 @@
         <v>994</v>
       </c>
       <c r="CW154" s="1">
-        <v>2162</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="155" spans="1:101">
@@ -49349,7 +49349,7 @@
         <v>1</v>
       </c>
       <c r="AW155" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX155" s="1">
         <v>4</v>
@@ -49499,7 +49499,7 @@
         <v>2235</v>
       </c>
       <c r="CW155" s="1">
-        <v>4294</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="156" spans="1:101">
@@ -49507,16 +49507,16 @@
         <v>255</v>
       </c>
       <c r="B156" s="1">
-        <v>7178</v>
+        <v>7179</v>
       </c>
       <c r="C156" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D156" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E156" s="2">
-        <v>338</v>
+        <v>249</v>
       </c>
       <c r="F156" s="1">
         <v>2</v>
@@ -49540,7 +49540,7 @@
         <v>491</v>
       </c>
       <c r="M156" s="2">
-        <v>872</v>
+        <v>800</v>
       </c>
       <c r="N156" s="1">
         <v>2601</v>
@@ -49624,7 +49624,7 @@
         <v>19</v>
       </c>
       <c r="AO156" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP156" s="1">
         <v>18</v>
@@ -49762,7 +49762,7 @@
         <v>303</v>
       </c>
       <c r="CK156" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="CL156" s="1">
         <v>15</v>
@@ -49789,16 +49789,16 @@
         <v>0</v>
       </c>
       <c r="CT156" s="1">
-        <v>17916</v>
+        <v>17917</v>
       </c>
       <c r="CU156" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="CV156" s="1">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="CW156" s="1">
-        <v>1787</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="157" spans="1:101">
@@ -50120,7 +50120,7 @@
         <v>7</v>
       </c>
       <c r="G158" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H158" s="2">
         <v>5</v>
@@ -50390,7 +50390,7 @@
         <v>31</v>
       </c>
       <c r="CU158" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CV158" s="1">
         <v>5</v>
@@ -50437,7 +50437,7 @@
         <v>61</v>
       </c>
       <c r="M159" s="2">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="N159" s="1">
         <v>8663</v>
@@ -50524,16 +50524,16 @@
         <v>6</v>
       </c>
       <c r="AP159" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AQ159" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR159" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS159" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT159" s="1">
         <v>6</v>
@@ -50686,16 +50686,16 @@
         <v>0</v>
       </c>
       <c r="CT159" s="1">
-        <v>18874</v>
+        <v>18875</v>
       </c>
       <c r="CU159" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="CV159" s="1">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="CW159" s="1">
-        <v>1104</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="160" spans="1:101">
@@ -51257,7 +51257,7 @@
         <v>264</v>
       </c>
       <c r="CK161" s="2">
-        <v>554</v>
+        <v>452</v>
       </c>
       <c r="CL161" s="1">
         <v>3</v>
@@ -51293,7 +51293,7 @@
         <v>266</v>
       </c>
       <c r="CW161" s="1">
-        <v>558</v>
+        <v>456</v>
       </c>
     </row>
     <row r="162" spans="1:101">
@@ -52823,7 +52823,7 @@
         <v>973</v>
       </c>
       <c r="K167" s="2">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="L167" s="2">
         <v>111</v>
@@ -53081,7 +53081,7 @@
         <v>4637</v>
       </c>
       <c r="CU167" s="1">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="CV167" s="1">
         <v>241</v>
@@ -53212,7 +53212,7 @@
         <v>32</v>
       </c>
       <c r="AO168" s="2">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AP168" s="1">
         <v>0</v>
@@ -53386,7 +53386,7 @@
         <v>74</v>
       </c>
       <c r="CW168" s="1">
-        <v>117</v>
+        <v>78</v>
       </c>
     </row>
     <row r="169" spans="1:101">
@@ -53427,7 +53427,7 @@
         <v>200</v>
       </c>
       <c r="M169" s="2">
-        <v>508</v>
+        <v>377</v>
       </c>
       <c r="N169" s="1">
         <v>2358</v>
@@ -53511,7 +53511,7 @@
         <v>9</v>
       </c>
       <c r="AO169" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP169" s="1">
         <v>34</v>
@@ -53649,7 +53649,7 @@
         <v>71</v>
       </c>
       <c r="CK169" s="2">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="CL169" s="1">
         <v>17</v>
@@ -53685,7 +53685,7 @@
         <v>555</v>
       </c>
       <c r="CW169" s="1">
-        <v>1193</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="170" spans="1:101">
@@ -55795,7 +55795,7 @@
         <v>94</v>
       </c>
       <c r="E177" s="2">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="F177" s="1">
         <v>0</v>
@@ -55819,7 +55819,7 @@
         <v>49</v>
       </c>
       <c r="M177" s="2">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="N177" s="1">
         <v>61850</v>
@@ -56077,7 +56077,7 @@
         <v>2088</v>
       </c>
       <c r="CW177" s="1">
-        <v>4655</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="178" spans="1:101">
@@ -56193,28 +56193,28 @@
         <v>0</v>
       </c>
       <c r="AL178" s="1">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="AM178" s="2">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AN178" s="2">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AO178" s="2">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="AP178" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ178" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR178" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS178" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT178" s="1">
         <v>0</v>
@@ -56367,16 +56367,16 @@
         <v>0</v>
       </c>
       <c r="CT178" s="1">
-        <v>594</v>
+        <v>631</v>
       </c>
       <c r="CU178" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="CV178" s="1">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="CW178" s="1">
-        <v>261</v>
+        <v>298</v>
       </c>
     </row>
     <row r="179" spans="1:101">
@@ -56393,7 +56393,7 @@
         <v>174</v>
       </c>
       <c r="E179" s="2">
-        <v>441</v>
+        <v>377</v>
       </c>
       <c r="F179" s="1">
         <v>1</v>
@@ -56501,7 +56501,7 @@
         <v>7</v>
       </c>
       <c r="AO179" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AP179" s="1">
         <v>6</v>
@@ -56639,7 +56639,7 @@
         <v>56</v>
       </c>
       <c r="CK179" s="2">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="CL179" s="1">
         <v>3</v>
@@ -56675,7 +56675,7 @@
         <v>1337</v>
       </c>
       <c r="CW179" s="1">
-        <v>2862</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="180" spans="1:101">
@@ -58498,7 +58498,7 @@
         <v>2</v>
       </c>
       <c r="I186" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J186" s="1">
         <v>0</v>
@@ -58768,7 +58768,7 @@
         <v>2</v>
       </c>
       <c r="CW186" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:101">
@@ -60280,7 +60280,7 @@
         <v>22</v>
       </c>
       <c r="E192" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="F192" s="1">
         <v>0</v>
@@ -60304,7 +60304,7 @@
         <v>26</v>
       </c>
       <c r="M192" s="2">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N192" s="1">
         <v>25661</v>
@@ -60562,7 +60562,7 @@
         <v>664</v>
       </c>
       <c r="CW192" s="1">
-        <v>1481</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="193" spans="1:101">
@@ -60914,7 +60914,7 @@
         <v>276</v>
       </c>
       <c r="Q194" s="2">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="R194" s="1">
         <v>0</v>
@@ -60998,7 +60998,7 @@
         <v>0</v>
       </c>
       <c r="AS194" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT194" s="1">
         <v>0</v>
@@ -61124,7 +61124,7 @@
         <v>17</v>
       </c>
       <c r="CK194" s="2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="CL194" s="1">
         <v>1</v>
@@ -61160,7 +61160,7 @@
         <v>348</v>
       </c>
       <c r="CW194" s="1">
-        <v>810</v>
+        <v>785</v>
       </c>
     </row>
     <row r="195" spans="1:101">
@@ -62074,7 +62074,7 @@
         <v>60</v>
       </c>
       <c r="E198" s="2">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="F198" s="1">
         <v>0</v>
@@ -62098,7 +62098,7 @@
         <v>45</v>
       </c>
       <c r="M198" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="N198" s="1">
         <v>7756</v>
@@ -62194,7 +62194,7 @@
         <v>0</v>
       </c>
       <c r="AS198" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT198" s="1">
         <v>38</v>
@@ -62320,7 +62320,7 @@
         <v>26</v>
       </c>
       <c r="CK198" s="2">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="CL198" s="1">
         <v>9</v>
@@ -62356,7 +62356,7 @@
         <v>234</v>
       </c>
       <c r="CW198" s="1">
-        <v>537</v>
+        <v>472</v>
       </c>
     </row>
     <row r="199" spans="1:101">
@@ -62397,7 +62397,7 @@
         <v>104</v>
       </c>
       <c r="M199" s="2">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="N199" s="1">
         <v>22480</v>
@@ -62481,7 +62481,7 @@
         <v>5</v>
       </c>
       <c r="AO199" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AP199" s="1">
         <v>20</v>
@@ -62619,7 +62619,7 @@
         <v>51</v>
       </c>
       <c r="CK199" s="2">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="CL199" s="1">
         <v>5</v>
@@ -62655,7 +62655,7 @@
         <v>3711</v>
       </c>
       <c r="CW199" s="1">
-        <v>6925</v>
+        <v>6859</v>
       </c>
     </row>
     <row r="200" spans="1:101">
@@ -62663,16 +62663,16 @@
         <v>299</v>
       </c>
       <c r="B200" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C200" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D200" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E200" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F200" s="1">
         <v>15</v>
@@ -62780,7 +62780,7 @@
         <v>32</v>
       </c>
       <c r="AO200" s="2">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AP200" s="1">
         <v>0</v>
@@ -62918,7 +62918,7 @@
         <v>43</v>
       </c>
       <c r="CK200" s="2">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="CL200" s="1">
         <v>0</v>
@@ -62945,16 +62945,16 @@
         <v>0</v>
       </c>
       <c r="CT200" s="1">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="CU200" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CV200" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="CW200" s="1">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="201" spans="1:101">
@@ -63282,7 +63282,7 @@
         <v>2</v>
       </c>
       <c r="I202" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J202" s="1">
         <v>0</v>
@@ -63552,7 +63552,7 @@
         <v>2</v>
       </c>
       <c r="CW202" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:101">
@@ -63581,7 +63581,7 @@
         <v>0</v>
       </c>
       <c r="I203" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J203" s="1">
         <v>0</v>
@@ -63851,7 +63851,7 @@
         <v>0</v>
       </c>
       <c r="CW203" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:101">
@@ -64191,7 +64191,7 @@
         <v>19</v>
       </c>
       <c r="M205" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N205" s="1">
         <v>4801</v>
@@ -64287,7 +64287,7 @@
         <v>1</v>
       </c>
       <c r="AS205" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT205" s="1">
         <v>0</v>
@@ -64413,7 +64413,7 @@
         <v>16</v>
       </c>
       <c r="CK205" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="CL205" s="1">
         <v>12</v>
@@ -64449,7 +64449,7 @@
         <v>132</v>
       </c>
       <c r="CW205" s="1">
-        <v>397</v>
+        <v>368</v>
       </c>
     </row>
     <row r="206" spans="1:101">
@@ -65363,7 +65363,7 @@
         <v>4</v>
       </c>
       <c r="E209" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F209" s="1">
         <v>8</v>
@@ -65438,16 +65438,16 @@
         <v>0</v>
       </c>
       <c r="AD209" s="1">
-        <v>2391</v>
+        <v>2367</v>
       </c>
       <c r="AE209" s="2">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="AF209" s="2">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="AG209" s="2">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="AH209" s="1">
         <v>3</v>
@@ -65636,16 +65636,16 @@
         <v>0</v>
       </c>
       <c r="CT209" s="1">
-        <v>5117</v>
+        <v>5093</v>
       </c>
       <c r="CU209" s="1">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="CV209" s="1">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="CW209" s="1">
-        <v>588</v>
+        <v>559</v>
       </c>
     </row>
     <row r="210" spans="1:101">
@@ -68827,7 +68827,7 @@
         <v>623</v>
       </c>
       <c r="D113">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E113" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -4006,16 +4006,16 @@
         <v>1</v>
       </c>
       <c r="CH3" s="1">
-        <v>1758</v>
+        <v>1785</v>
       </c>
       <c r="CI3" s="2">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="CJ3" s="2">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="CK3" s="2">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="CL3" s="1">
         <v>0</v>
@@ -4042,16 +4042,16 @@
         <v>0</v>
       </c>
       <c r="CT3" s="1">
-        <v>39089</v>
+        <v>39116</v>
       </c>
       <c r="CU3" s="1">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="CV3" s="1">
-        <v>590</v>
+        <v>617</v>
       </c>
       <c r="CW3" s="1">
-        <v>1084</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="4" spans="1:101">
@@ -10745,16 +10745,16 @@
         <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="AM26" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN26" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AO26" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AP26" s="1">
         <v>9</v>
@@ -10883,16 +10883,16 @@
         <v>1</v>
       </c>
       <c r="CH26" s="1">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="CI26" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CJ26" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="CK26" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CL26" s="1">
         <v>1</v>
@@ -10919,16 +10919,16 @@
         <v>0</v>
       </c>
       <c r="CT26" s="1">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="CU26" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="CV26" s="1">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="CW26" s="1">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:101">
@@ -11857,16 +11857,16 @@
         <v>2</v>
       </c>
       <c r="J30" s="1">
-        <v>1169</v>
+        <v>1187</v>
       </c>
       <c r="K30" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L30" s="2">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M30" s="2">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="N30" s="1">
         <v>1726</v>
@@ -12115,16 +12115,16 @@
         <v>0</v>
       </c>
       <c r="CT30" s="1">
-        <v>4920</v>
+        <v>4938</v>
       </c>
       <c r="CU30" s="1">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="CV30" s="1">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="CW30" s="1">
-        <v>339</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:101">
@@ -12730,28 +12730,28 @@
         <v>132</v>
       </c>
       <c r="B33" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J33" s="1">
         <v>386</v>
@@ -13012,16 +13012,16 @@
         <v>0</v>
       </c>
       <c r="CT33" s="1">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="CU33" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CV33" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="CW33" s="1">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:101">
@@ -19255,16 +19255,16 @@
         <v>0</v>
       </c>
       <c r="CH54" s="1">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="CI54" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CJ54" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="CK54" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="CL54" s="1">
         <v>2</v>
@@ -19291,16 +19291,16 @@
         <v>0</v>
       </c>
       <c r="CT54" s="1">
-        <v>6601</v>
+        <v>6606</v>
       </c>
       <c r="CU54" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CV54" s="1">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="CW54" s="1">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55" spans="1:101">
@@ -20217,286 +20217,286 @@
         <v>9</v>
       </c>
       <c r="F58" s="1">
+        <v>5</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2">
+        <v>1</v>
+      </c>
+      <c r="I58" s="2">
+        <v>2</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <v>0</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2">
+        <v>0</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>0</v>
+      </c>
+      <c r="R58" s="1">
+        <v>0</v>
+      </c>
+      <c r="S58" s="2">
+        <v>0</v>
+      </c>
+      <c r="T58" s="2">
+        <v>0</v>
+      </c>
+      <c r="U58" s="2">
+        <v>0</v>
+      </c>
+      <c r="V58" s="1">
+        <v>0</v>
+      </c>
+      <c r="W58" s="2">
+        <v>0</v>
+      </c>
+      <c r="X58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB58" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF58" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ58" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN58" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR58" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV58" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY58" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ58" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD58" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH58" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL58" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP58" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT58" s="1">
+        <v>150</v>
+      </c>
+      <c r="CU58" s="1">
         <v>4</v>
       </c>
-      <c r="G58" s="2">
-        <v>0</v>
-      </c>
-      <c r="H58" s="2">
-        <v>0</v>
-      </c>
-      <c r="I58" s="2">
-        <v>1</v>
-      </c>
-      <c r="J58" s="1">
-        <v>0</v>
-      </c>
-      <c r="K58" s="2">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2">
-        <v>0</v>
-      </c>
-      <c r="M58" s="2">
-        <v>0</v>
-      </c>
-      <c r="N58" s="1">
-        <v>0</v>
-      </c>
-      <c r="O58" s="2">
-        <v>0</v>
-      </c>
-      <c r="P58" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>0</v>
-      </c>
-      <c r="R58" s="1">
-        <v>0</v>
-      </c>
-      <c r="S58" s="2">
-        <v>0</v>
-      </c>
-      <c r="T58" s="2">
-        <v>0</v>
-      </c>
-      <c r="U58" s="2">
-        <v>0</v>
-      </c>
-      <c r="V58" s="1">
-        <v>0</v>
-      </c>
-      <c r="W58" s="2">
-        <v>0</v>
-      </c>
-      <c r="X58" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC58" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE58" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF58" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG58" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI58" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ58" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK58" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM58" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN58" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO58" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ58" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR58" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS58" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU58" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV58" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW58" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY58" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB58" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF58" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ58" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN58" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR58" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV58" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ58" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA58" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB58" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC58" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD58" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE58" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF58" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG58" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH58" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI58" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ58" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK58" s="2">
-        <v>0</v>
-      </c>
-      <c r="CL58" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM58" s="2">
-        <v>0</v>
-      </c>
-      <c r="CN58" s="2">
-        <v>0</v>
-      </c>
-      <c r="CO58" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP58" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ58" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR58" s="2">
-        <v>0</v>
-      </c>
-      <c r="CS58" s="2">
-        <v>0</v>
-      </c>
-      <c r="CT58" s="1">
-        <v>149</v>
-      </c>
-      <c r="CU58" s="1">
-        <v>3</v>
-      </c>
       <c r="CV58" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CW58" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:101">
@@ -21724,16 +21724,16 @@
         <v>0</v>
       </c>
       <c r="J63" s="1">
-        <v>1440</v>
+        <v>1467</v>
       </c>
       <c r="K63" s="2">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="L63" s="2">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="M63" s="2">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="N63" s="1">
         <v>50397</v>
@@ -21982,16 +21982,16 @@
         <v>0</v>
       </c>
       <c r="CT63" s="1">
-        <v>57593</v>
+        <v>57620</v>
       </c>
       <c r="CU63" s="1">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="CV63" s="1">
-        <v>1253</v>
+        <v>1280</v>
       </c>
       <c r="CW63" s="1">
-        <v>2471</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="64" spans="1:101">
@@ -21999,16 +21999,16 @@
         <v>163</v>
       </c>
       <c r="B64" s="1">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="C64" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D64" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E64" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F64" s="1">
         <v>12</v>
@@ -22281,16 +22281,16 @@
         <v>0</v>
       </c>
       <c r="CT64" s="1">
-        <v>1278</v>
+        <v>1282</v>
       </c>
       <c r="CU64" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CV64" s="1">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="CW64" s="1">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:101">
@@ -24505,7 +24505,7 @@
         <v>53</v>
       </c>
       <c r="AN72" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AO72" s="2">
         <v>284</v>
@@ -24679,7 +24679,7 @@
         <v>137</v>
       </c>
       <c r="CV72" s="1">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="CW72" s="1">
         <v>4666</v>
@@ -24989,16 +24989,16 @@
         <v>173</v>
       </c>
       <c r="B74" s="1">
-        <v>4460</v>
+        <v>4503</v>
       </c>
       <c r="C74" s="2">
-        <v>-2</v>
+        <v>41</v>
       </c>
       <c r="D74" s="2">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="E74" s="2">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -25271,16 +25271,16 @@
         <v>0</v>
       </c>
       <c r="CT74" s="1">
-        <v>136919</v>
+        <v>136962</v>
       </c>
       <c r="CU74" s="1">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="CV74" s="1">
-        <v>3207</v>
+        <v>3250</v>
       </c>
       <c r="CW74" s="1">
-        <v>5976</v>
+        <v>6019</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25396,16 +25396,16 @@
         <v>0</v>
       </c>
       <c r="AL75" s="1">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="AM75" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN75" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AO75" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AP75" s="1">
         <v>73</v>
@@ -25534,16 +25534,16 @@
         <v>0</v>
       </c>
       <c r="CH75" s="1">
-        <v>5673</v>
+        <v>5690</v>
       </c>
       <c r="CI75" s="2">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="CJ75" s="2">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="CK75" s="2">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="CL75" s="1">
         <v>97</v>
@@ -25570,16 +25570,16 @@
         <v>6</v>
       </c>
       <c r="CT75" s="1">
-        <v>346111</v>
+        <v>346129</v>
       </c>
       <c r="CU75" s="1">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="CV75" s="1">
-        <v>4922</v>
+        <v>4940</v>
       </c>
       <c r="CW75" s="1">
-        <v>11096</v>
+        <v>11114</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -26924,7 +26924,7 @@
         <v>2</v>
       </c>
       <c r="AW80" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX80" s="1">
         <v>12</v>
@@ -27074,7 +27074,7 @@
         <v>2826</v>
       </c>
       <c r="CW80" s="1">
-        <v>32966</v>
+        <v>32964</v>
       </c>
     </row>
     <row r="81" spans="1:101">
@@ -32605,7 +32605,7 @@
         <v>2</v>
       </c>
       <c r="AW99" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX99" s="1">
         <v>12</v>
@@ -32617,7 +32617,7 @@
         <v>0</v>
       </c>
       <c r="BA99" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB99" s="1">
         <v>5</v>
@@ -32755,7 +32755,7 @@
         <v>1093</v>
       </c>
       <c r="CW99" s="1">
-        <v>1975</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="100" spans="1:101">
@@ -33696,16 +33696,16 @@
         <v>830</v>
       </c>
       <c r="N103" s="1">
-        <v>19978</v>
+        <v>20001</v>
       </c>
       <c r="O103" s="2">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="P103" s="2">
-        <v>8779</v>
+        <v>8802</v>
       </c>
       <c r="Q103" s="2">
-        <v>9023</v>
+        <v>9046</v>
       </c>
       <c r="R103" s="1">
         <v>0</v>
@@ -33942,16 +33942,16 @@
         <v>0</v>
       </c>
       <c r="CT103" s="1">
-        <v>83708</v>
+        <v>83731</v>
       </c>
       <c r="CU103" s="1">
-        <v>555</v>
+        <v>578</v>
       </c>
       <c r="CV103" s="1">
-        <v>11433</v>
+        <v>11456</v>
       </c>
       <c r="CW103" s="1">
-        <v>13663</v>
+        <v>13686</v>
       </c>
     </row>
     <row r="104" spans="1:101">
@@ -34366,16 +34366,16 @@
         <v>0</v>
       </c>
       <c r="AL105" s="1">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AM105" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN105" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AO105" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AP105" s="1">
         <v>13</v>
@@ -34504,16 +34504,16 @@
         <v>0</v>
       </c>
       <c r="CH105" s="1">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="CI105" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="CJ105" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="CK105" s="2">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="CL105" s="1">
         <v>7</v>
@@ -34540,16 +34540,16 @@
         <v>0</v>
       </c>
       <c r="CT105" s="1">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="CU105" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CV105" s="1">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="CW105" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:101">
@@ -34964,16 +34964,16 @@
         <v>0</v>
       </c>
       <c r="AL107" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM107" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN107" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO107" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP107" s="1">
         <v>0</v>
@@ -35102,16 +35102,16 @@
         <v>1</v>
       </c>
       <c r="CH107" s="1">
-        <v>1507</v>
+        <v>1522</v>
       </c>
       <c r="CI107" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="CJ107" s="2">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="CK107" s="2">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="CL107" s="1">
         <v>0</v>
@@ -35138,16 +35138,16 @@
         <v>0</v>
       </c>
       <c r="CT107" s="1">
-        <v>10450</v>
+        <v>10466</v>
       </c>
       <c r="CU107" s="1">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="CV107" s="1">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="CW107" s="1">
-        <v>693</v>
+        <v>709</v>
       </c>
     </row>
     <row r="108" spans="1:101">
@@ -35999,16 +35999,16 @@
         <v>0</v>
       </c>
       <c r="CH110" s="1">
-        <v>1108</v>
+        <v>1119</v>
       </c>
       <c r="CI110" s="2">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="CJ110" s="2">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="CK110" s="2">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="CL110" s="1">
         <v>1</v>
@@ -36035,16 +36035,16 @@
         <v>0</v>
       </c>
       <c r="CT110" s="1">
-        <v>140725</v>
+        <v>140736</v>
       </c>
       <c r="CU110" s="1">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="CV110" s="1">
-        <v>5331</v>
+        <v>5342</v>
       </c>
       <c r="CW110" s="1">
-        <v>10698</v>
+        <v>10709</v>
       </c>
     </row>
     <row r="111" spans="1:101">
@@ -37135,16 +37135,16 @@
         <v>0</v>
       </c>
       <c r="BN114" s="1">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BO114" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BP114" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BQ114" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BR114" s="1">
         <v>0</v>
@@ -37231,16 +37231,16 @@
         <v>0</v>
       </c>
       <c r="CT114" s="1">
-        <v>10319</v>
+        <v>10320</v>
       </c>
       <c r="CU114" s="1">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="CV114" s="1">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="CW114" s="1">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="115" spans="1:101">
@@ -42714,16 +42714,16 @@
         <v>8</v>
       </c>
       <c r="AD133" s="1">
-        <v>9249</v>
+        <v>9247</v>
       </c>
       <c r="AE133" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF133" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AG133" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AH133" s="1">
         <v>0</v>
@@ -42912,16 +42912,16 @@
         <v>0</v>
       </c>
       <c r="CT133" s="1">
-        <v>54484</v>
+        <v>54482</v>
       </c>
       <c r="CU133" s="1">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="CV133" s="1">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="CW133" s="1">
-        <v>2496</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="134" spans="1:101">
@@ -44448,16 +44448,16 @@
         <v>5</v>
       </c>
       <c r="J139" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K139" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L139" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M139" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N139" s="1">
         <v>156</v>
@@ -44706,16 +44706,16 @@
         <v>0</v>
       </c>
       <c r="CT139" s="1">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="CU139" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CV139" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CW139" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:101">
@@ -45441,16 +45441,16 @@
         <v>1</v>
       </c>
       <c r="AP142" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AQ142" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR142" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS142" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT142" s="1">
         <v>0</v>
@@ -45579,16 +45579,16 @@
         <v>2</v>
       </c>
       <c r="CL142" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CM142" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN142" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CO142" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CP142" s="1">
         <v>0</v>
@@ -45603,16 +45603,16 @@
         <v>0</v>
       </c>
       <c r="CT142" s="1">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="CU142" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CV142" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="CW142" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="143" spans="1:101">
@@ -46670,7 +46670,7 @@
         <v>1</v>
       </c>
       <c r="BA146" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB146" s="1">
         <v>13</v>
@@ -46808,7 +46808,7 @@
         <v>119</v>
       </c>
       <c r="CW146" s="1">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="147" spans="1:101">
@@ -48763,7 +48763,7 @@
         <v>0</v>
       </c>
       <c r="BA153" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB153" s="1">
         <v>2</v>
@@ -48901,7 +48901,7 @@
         <v>47</v>
       </c>
       <c r="CW153" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="154" spans="1:101">
@@ -49232,16 +49232,16 @@
         <v>0</v>
       </c>
       <c r="J155" s="1">
-        <v>2769</v>
+        <v>2803</v>
       </c>
       <c r="K155" s="2">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="L155" s="2">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="M155" s="2">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="N155" s="1">
         <v>11311</v>
@@ -49490,16 +49490,16 @@
         <v>0</v>
       </c>
       <c r="CT155" s="1">
-        <v>145529</v>
+        <v>145563</v>
       </c>
       <c r="CU155" s="1">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="CV155" s="1">
-        <v>2235</v>
+        <v>2269</v>
       </c>
       <c r="CW155" s="1">
-        <v>4293</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="156" spans="1:101">
@@ -50650,16 +50650,16 @@
         <v>1</v>
       </c>
       <c r="CH159" s="1">
-        <v>685</v>
+        <v>702</v>
       </c>
       <c r="CI159" s="2">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="CJ159" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="CK159" s="2">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="CL159" s="1">
         <v>14</v>
@@ -50686,16 +50686,16 @@
         <v>0</v>
       </c>
       <c r="CT159" s="1">
-        <v>18875</v>
+        <v>18892</v>
       </c>
       <c r="CU159" s="1">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="CV159" s="1">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="CW159" s="1">
-        <v>1078</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="160" spans="1:101">
@@ -56492,16 +56492,16 @@
         <v>0</v>
       </c>
       <c r="AL179" s="1">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="AM179" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AN179" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AO179" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AP179" s="1">
         <v>6</v>
@@ -56630,16 +56630,16 @@
         <v>1</v>
       </c>
       <c r="CH179" s="1">
-        <v>1687</v>
+        <v>1706</v>
       </c>
       <c r="CI179" s="2">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="CJ179" s="2">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="CK179" s="2">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="CL179" s="1">
         <v>3</v>
@@ -56666,16 +56666,16 @@
         <v>0</v>
       </c>
       <c r="CT179" s="1">
-        <v>42816</v>
+        <v>42840</v>
       </c>
       <c r="CU179" s="1">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="CV179" s="1">
-        <v>1337</v>
+        <v>1361</v>
       </c>
       <c r="CW179" s="1">
-        <v>2782</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="180" spans="1:101">
@@ -60893,16 +60893,16 @@
         <v>1</v>
       </c>
       <c r="J194" s="1">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="K194" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L194" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M194" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N194" s="1">
         <v>2966</v>
@@ -61151,16 +61151,16 @@
         <v>0</v>
       </c>
       <c r="CT194" s="1">
-        <v>4766</v>
+        <v>4769</v>
       </c>
       <c r="CU194" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CV194" s="1">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="CW194" s="1">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="195" spans="1:101">
@@ -62173,16 +62173,16 @@
         <v>1</v>
       </c>
       <c r="AL198" s="1">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AM198" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN198" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AO198" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AP198" s="1">
         <v>24</v>
@@ -62311,16 +62311,16 @@
         <v>1</v>
       </c>
       <c r="CH198" s="1">
-        <v>792</v>
+        <v>807</v>
       </c>
       <c r="CI198" s="2">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="CJ198" s="2">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="CK198" s="2">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="CL198" s="1">
         <v>9</v>
@@ -62347,16 +62347,16 @@
         <v>0</v>
       </c>
       <c r="CT198" s="1">
-        <v>14738</v>
+        <v>14756</v>
       </c>
       <c r="CU198" s="1">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="CV198" s="1">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="CW198" s="1">
-        <v>472</v>
+        <v>490</v>
       </c>
     </row>
     <row r="199" spans="1:101">
@@ -64182,16 +64182,16 @@
         <v>0</v>
       </c>
       <c r="J205" s="1">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K205" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L205" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M205" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N205" s="1">
         <v>4801</v>
@@ -64440,16 +64440,16 @@
         <v>0</v>
       </c>
       <c r="CT205" s="1">
-        <v>12443</v>
+        <v>12442</v>
       </c>
       <c r="CU205" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="CV205" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="CW205" s="1">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="206" spans="1:101">
@@ -70459,7 +70459,7 @@
         <v>693</v>
       </c>
       <c r="D194">
-        <v>9796</v>
+        <v>9817</v>
       </c>
       <c r="E194" t="s">
         <v>709</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -4039,7 +4039,7 @@
         <v>31</v>
       </c>
       <c r="CK3" s="2">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="CL3" s="1">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>556</v>
       </c>
       <c r="CW3" s="1">
-        <v>1441</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="4" spans="1:101">
@@ -4299,16 +4299,16 @@
         <v>2</v>
       </c>
       <c r="BV4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ4" s="1">
         <v>3</v>
@@ -4371,16 +4371,16 @@
         <v>0</v>
       </c>
       <c r="CT4" s="1">
-        <v>36980</v>
+        <v>36981</v>
       </c>
       <c r="CU4" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="CV4" s="1">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="CW4" s="1">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>26</v>
@@ -7122,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="CV13" s="1">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="CW13" s="1">
         <v>162</v>
@@ -7391,10 +7391,10 @@
         <v>0</v>
       </c>
       <c r="CJ14" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="CK14" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="CL14" s="1">
         <v>2</v>
@@ -7427,10 +7427,10 @@
         <v>1</v>
       </c>
       <c r="CV14" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CW14" s="1">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:101">
@@ -7860,7 +7860,7 @@
         <v>9</v>
       </c>
       <c r="AO16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP16" s="1">
         <v>26</v>
@@ -8004,7 +8004,7 @@
         <v>24</v>
       </c>
       <c r="CK16" s="2">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="CL16" s="1">
         <v>27</v>
@@ -8040,7 +8040,7 @@
         <v>38</v>
       </c>
       <c r="CW16" s="1">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:101">
@@ -9639,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="2">
         <v>1</v>
@@ -9702,7 +9702,7 @@
         <v>3</v>
       </c>
       <c r="AS22" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT22" s="1">
         <v>0</v>
@@ -9846,7 +9846,7 @@
         <v>1</v>
       </c>
       <c r="CO22" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CP22" s="1">
         <v>0</v>
@@ -9867,10 +9867,10 @@
         <v>4</v>
       </c>
       <c r="CV22" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CW22" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:101">
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
@@ -10785,7 +10785,7 @@
         <v>1</v>
       </c>
       <c r="CW25" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:101">
@@ -10910,7 +10910,7 @@
         <v>10</v>
       </c>
       <c r="AO26" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AP26" s="1">
         <v>11</v>
@@ -11054,7 +11054,7 @@
         <v>23</v>
       </c>
       <c r="CK26" s="2">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="CL26" s="1">
         <v>1</v>
@@ -11090,7 +11090,7 @@
         <v>37</v>
       </c>
       <c r="CW26" s="1">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:101">
@@ -11110,16 +11110,16 @@
         <v>6</v>
       </c>
       <c r="F27" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" s="1">
         <v>791</v>
@@ -11131,7 +11131,7 @@
         <v>31</v>
       </c>
       <c r="M27" s="2">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="N27" s="1">
         <v>1988</v>
@@ -11386,16 +11386,16 @@
         <v>0</v>
       </c>
       <c r="CT27" s="1">
-        <v>22864</v>
+        <v>22865</v>
       </c>
       <c r="CU27" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CV27" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="CW27" s="1">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="28" spans="1:101">
@@ -11424,7 +11424,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -11700,7 +11700,7 @@
         <v>2</v>
       </c>
       <c r="CW28" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:101">
@@ -11729,7 +11729,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -12005,7 +12005,7 @@
         <v>2</v>
       </c>
       <c r="CW29" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:101">
@@ -12046,7 +12046,7 @@
         <v>34</v>
       </c>
       <c r="M30" s="2">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="N30" s="1">
         <v>1856</v>
@@ -12058,7 +12058,7 @@
         <v>43</v>
       </c>
       <c r="Q30" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R30" s="1">
         <v>1</v>
@@ -12310,7 +12310,7 @@
         <v>144</v>
       </c>
       <c r="CW30" s="1">
-        <v>392</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:101">
@@ -12327,7 +12327,7 @@
         <v>44</v>
       </c>
       <c r="E31" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -12342,16 +12342,16 @@
         <v>0</v>
       </c>
       <c r="J31" s="1">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="K31" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L31" s="2">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M31" s="2">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="N31" s="1">
         <v>5913</v>
@@ -12606,16 +12606,16 @@
         <v>0</v>
       </c>
       <c r="CT31" s="1">
-        <v>9983</v>
+        <v>9992</v>
       </c>
       <c r="CU31" s="1">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="CV31" s="1">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="CW31" s="1">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="32" spans="1:101">
@@ -12937,7 +12937,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" s="1">
         <v>54</v>
@@ -12949,7 +12949,7 @@
         <v>2</v>
       </c>
       <c r="I33" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J33" s="1">
         <v>413</v>
@@ -12970,7 +12970,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q33" s="2">
         <v>65</v>
@@ -13045,7 +13045,7 @@
         <v>2</v>
       </c>
       <c r="AO33" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AP33" s="1">
         <v>43</v>
@@ -13189,7 +13189,7 @@
         <v>3</v>
       </c>
       <c r="CK33" s="2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="CL33" s="1">
         <v>24</v>
@@ -13222,10 +13222,10 @@
         <v>11</v>
       </c>
       <c r="CV33" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="CW33" s="1">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:101">
@@ -13254,7 +13254,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
@@ -13530,7 +13530,7 @@
         <v>2</v>
       </c>
       <c r="CW34" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:101">
@@ -13864,7 +13864,7 @@
         <v>2</v>
       </c>
       <c r="I36" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
@@ -14140,7 +14140,7 @@
         <v>2</v>
       </c>
       <c r="CW36" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:101">
@@ -14409,19 +14409,19 @@
         <v>1</v>
       </c>
       <c r="CK37" s="2">
+        <v>2</v>
+      </c>
+      <c r="CL37" s="1">
+        <v>21</v>
+      </c>
+      <c r="CM37" s="2">
         <v>3</v>
       </c>
-      <c r="CL37" s="1">
-        <v>20</v>
-      </c>
-      <c r="CM37" s="2">
-        <v>2</v>
-      </c>
       <c r="CN37" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CO37" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CP37" s="1">
         <v>0</v>
@@ -14436,13 +14436,13 @@
         <v>0</v>
       </c>
       <c r="CT37" s="1">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="CU37" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CV37" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CW37" s="1">
         <v>70</v>
@@ -14453,16 +14453,16 @@
         <v>137</v>
       </c>
       <c r="B38" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38" s="1">
         <v>29</v>
@@ -14714,7 +14714,7 @@
         <v>68</v>
       </c>
       <c r="CK38" s="2">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="CL38" s="1">
         <v>2</v>
@@ -14741,16 +14741,16 @@
         <v>0</v>
       </c>
       <c r="CT38" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="CU38" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CV38" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CW38" s="1">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:101">
@@ -14758,16 +14758,16 @@
         <v>138</v>
       </c>
       <c r="B39" s="1">
-        <v>12684</v>
+        <v>12756</v>
       </c>
       <c r="C39" s="2">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D39" s="2">
-        <v>223</v>
+        <v>295</v>
       </c>
       <c r="E39" s="2">
-        <v>411</v>
+        <v>483</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -15046,16 +15046,16 @@
         <v>0</v>
       </c>
       <c r="CT39" s="1">
-        <v>54339</v>
+        <v>54411</v>
       </c>
       <c r="CU39" s="1">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="CV39" s="1">
-        <v>675</v>
+        <v>747</v>
       </c>
       <c r="CW39" s="1">
-        <v>2237</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="40" spans="1:101">
@@ -15389,7 +15389,7 @@
         <v>2</v>
       </c>
       <c r="I41" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J41" s="1">
         <v>0</v>
@@ -15665,7 +15665,7 @@
         <v>2</v>
       </c>
       <c r="CW41" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:101">
@@ -17925,7 +17925,7 @@
         <v>2</v>
       </c>
       <c r="AO49" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP49" s="1">
         <v>0</v>
@@ -18069,7 +18069,7 @@
         <v>78</v>
       </c>
       <c r="CK49" s="2">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="CL49" s="1">
         <v>0</v>
@@ -18105,7 +18105,7 @@
         <v>89</v>
       </c>
       <c r="CW49" s="1">
-        <v>205</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:101">
@@ -18131,7 +18131,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" s="2">
         <v>3</v>
@@ -18227,10 +18227,10 @@
         <v>0</v>
       </c>
       <c r="AN50" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AO50" s="2">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AP50" s="1">
         <v>0</v>
@@ -18371,7 +18371,7 @@
         <v>0</v>
       </c>
       <c r="CJ50" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="CK50" s="2">
         <v>21</v>
@@ -18407,10 +18407,10 @@
         <v>0</v>
       </c>
       <c r="CV50" s="1">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="CW50" s="1">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:101">
@@ -18843,16 +18843,16 @@
         <v>7</v>
       </c>
       <c r="AP52" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ52" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR52" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS52" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT52" s="1">
         <v>0</v>
@@ -18987,16 +18987,16 @@
         <v>20</v>
       </c>
       <c r="CL52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CM52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO52" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CP52" s="1">
         <v>0</v>
@@ -19011,16 +19011,16 @@
         <v>0</v>
       </c>
       <c r="CT52" s="1">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="CU52" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CV52" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CW52" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:101">
@@ -19040,292 +19040,292 @@
         <v>4</v>
       </c>
       <c r="F53" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I53" s="2">
+        <v>6</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0</v>
+      </c>
+      <c r="O53" s="2">
+        <v>0</v>
+      </c>
+      <c r="P53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>0</v>
+      </c>
+      <c r="R53" s="1">
+        <v>0</v>
+      </c>
+      <c r="S53" s="2">
+        <v>0</v>
+      </c>
+      <c r="T53" s="2">
+        <v>0</v>
+      </c>
+      <c r="U53" s="2">
+        <v>0</v>
+      </c>
+      <c r="V53" s="1">
+        <v>0</v>
+      </c>
+      <c r="W53" s="2">
+        <v>0</v>
+      </c>
+      <c r="X53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB53" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF53" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ53" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN53" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR53" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV53" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ53" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA53" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB53" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC53" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD53" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE53" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF53" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG53" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH53" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI53" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ53" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK53" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL53" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM53" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN53" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO53" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP53" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ53" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR53" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS53" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT53" s="1">
+        <v>191</v>
+      </c>
+      <c r="CU53" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV53" s="1">
         <v>5</v>
       </c>
-      <c r="J53" s="1">
-        <v>0</v>
-      </c>
-      <c r="K53" s="2">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2">
-        <v>0</v>
-      </c>
-      <c r="M53" s="2">
-        <v>0</v>
-      </c>
-      <c r="N53" s="1">
-        <v>0</v>
-      </c>
-      <c r="O53" s="2">
-        <v>0</v>
-      </c>
-      <c r="P53" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="2">
-        <v>0</v>
-      </c>
-      <c r="R53" s="1">
-        <v>0</v>
-      </c>
-      <c r="S53" s="2">
-        <v>0</v>
-      </c>
-      <c r="T53" s="2">
-        <v>0</v>
-      </c>
-      <c r="U53" s="2">
-        <v>0</v>
-      </c>
-      <c r="V53" s="1">
-        <v>0</v>
-      </c>
-      <c r="W53" s="2">
-        <v>0</v>
-      </c>
-      <c r="X53" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ53" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA53" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB53" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC53" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD53" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE53" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF53" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG53" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH53" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI53" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ53" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK53" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL53" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM53" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN53" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO53" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP53" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ53" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR53" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS53" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT53" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU53" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV53" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW53" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX53" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY53" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ53" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA53" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB53" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC53" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD53" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE53" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF53" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG53" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH53" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI53" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ53" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK53" s="2">
-        <v>0</v>
-      </c>
-      <c r="CL53" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM53" s="2">
-        <v>0</v>
-      </c>
-      <c r="CN53" s="2">
-        <v>0</v>
-      </c>
-      <c r="CO53" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP53" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ53" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR53" s="2">
-        <v>0</v>
-      </c>
-      <c r="CS53" s="2">
-        <v>0</v>
-      </c>
-      <c r="CT53" s="1">
-        <v>190</v>
-      </c>
-      <c r="CU53" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV53" s="1">
-        <v>4</v>
-      </c>
       <c r="CW53" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:101">
@@ -19363,7 +19363,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="2">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="M54" s="2">
         <v>126</v>
@@ -19588,13 +19588,13 @@
         <v>478</v>
       </c>
       <c r="CI54" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CJ54" s="2">
         <v>10</v>
       </c>
       <c r="CK54" s="2">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="CL54" s="1">
         <v>2</v>
@@ -19624,13 +19624,13 @@
         <v>7042</v>
       </c>
       <c r="CU54" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="CV54" s="1">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="CW54" s="1">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="55" spans="1:101">
@@ -20371,7 +20371,7 @@
         <v>62</v>
       </c>
       <c r="AQ57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR57" s="2">
         <v>2</v>
@@ -20515,7 +20515,7 @@
         <v>58</v>
       </c>
       <c r="CM57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN57" s="2">
         <v>2</v>
@@ -20539,7 +20539,7 @@
         <v>743</v>
       </c>
       <c r="CU57" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CV57" s="1">
         <v>13</v>
@@ -20574,7 +20574,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" s="1">
         <v>0</v>
@@ -20850,7 +20850,7 @@
         <v>10</v>
       </c>
       <c r="CW58" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:101">
@@ -20867,7 +20867,7 @@
         <v>54</v>
       </c>
       <c r="E59" s="2">
-        <v>-97</v>
+        <v>-96</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -20975,7 +20975,7 @@
         <v>1</v>
       </c>
       <c r="AO59" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AP59" s="1">
         <v>30</v>
@@ -21119,7 +21119,7 @@
         <v>47</v>
       </c>
       <c r="CK59" s="2">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="CL59" s="1">
         <v>7</v>
@@ -21155,7 +21155,7 @@
         <v>341</v>
       </c>
       <c r="CW59" s="1">
-        <v>859</v>
+        <v>824</v>
       </c>
     </row>
     <row r="60" spans="1:101">
@@ -21178,7 +21178,7 @@
         <v>33</v>
       </c>
       <c r="G60" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H60" s="2">
         <v>2</v>
@@ -21454,7 +21454,7 @@
         <v>48</v>
       </c>
       <c r="CU60" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CV60" s="1">
         <v>3</v>
@@ -21468,16 +21468,16 @@
         <v>160</v>
       </c>
       <c r="B61" s="1">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C61" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D61" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E61" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F61" s="1">
         <v>2</v>
@@ -21756,16 +21756,16 @@
         <v>0</v>
       </c>
       <c r="CT61" s="1">
-        <v>2497</v>
+        <v>2501</v>
       </c>
       <c r="CU61" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="CV61" s="1">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="CW61" s="1">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:101">
@@ -22111,7 +22111,7 @@
         <v>64</v>
       </c>
       <c r="M63" s="2">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="N63" s="1">
         <v>53047</v>
@@ -22204,7 +22204,7 @@
         <v>1</v>
       </c>
       <c r="AR63" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS63" s="2">
         <v>5</v>
@@ -22336,7 +22336,7 @@
         <v>17</v>
       </c>
       <c r="CJ63" s="2">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="CK63" s="2">
         <v>56</v>
@@ -22348,7 +22348,7 @@
         <v>1</v>
       </c>
       <c r="CN63" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CO63" s="2">
         <v>4</v>
@@ -22372,10 +22372,10 @@
         <v>48</v>
       </c>
       <c r="CV63" s="1">
-        <v>1488</v>
+        <v>1473</v>
       </c>
       <c r="CW63" s="1">
-        <v>3004</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="64" spans="1:101">
@@ -22392,7 +22392,7 @@
         <v>16</v>
       </c>
       <c r="E64" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F64" s="1">
         <v>12</v>
@@ -22680,7 +22680,7 @@
         <v>60</v>
       </c>
       <c r="CW64" s="1">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:101">
@@ -23020,7 +23020,7 @@
         <v>291</v>
       </c>
       <c r="K66" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L66" s="2">
         <v>10</v>
@@ -23284,7 +23284,7 @@
         <v>1993</v>
       </c>
       <c r="CU66" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CV66" s="1">
         <v>39</v>
@@ -23723,16 +23723,16 @@
         <v>0</v>
       </c>
       <c r="AP68" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AQ68" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR68" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS68" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT68" s="1">
         <v>0</v>
@@ -23867,16 +23867,16 @@
         <v>5</v>
       </c>
       <c r="CL68" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CM68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO68" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CP68" s="1">
         <v>0</v>
@@ -23891,16 +23891,16 @@
         <v>0</v>
       </c>
       <c r="CT68" s="1">
-        <v>2122</v>
+        <v>2124</v>
       </c>
       <c r="CU68" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CV68" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CW68" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:101">
@@ -24219,7 +24219,7 @@
         <v>0</v>
       </c>
       <c r="D70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" s="2">
         <v>1</v>
@@ -24237,16 +24237,16 @@
         <v>4</v>
       </c>
       <c r="J70" s="1">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K70" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L70" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M70" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N70" s="1">
         <v>36</v>
@@ -24333,16 +24333,16 @@
         <v>0</v>
       </c>
       <c r="AP70" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ70" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR70" s="2">
         <v>3</v>
       </c>
       <c r="AS70" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT70" s="1">
         <v>0</v>
@@ -24465,16 +24465,16 @@
         <v>0</v>
       </c>
       <c r="CH70" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CI70" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CJ70" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CK70" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CL70" s="1">
         <v>0</v>
@@ -24501,16 +24501,16 @@
         <v>0</v>
       </c>
       <c r="CT70" s="1">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="CU70" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="CV70" s="1">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="CW70" s="1">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:101">
@@ -24527,7 +24527,7 @@
         <v>2</v>
       </c>
       <c r="E71" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F71" s="1">
         <v>42</v>
@@ -24635,7 +24635,7 @@
         <v>6</v>
       </c>
       <c r="AO71" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP71" s="1">
         <v>11</v>
@@ -24779,7 +24779,7 @@
         <v>46</v>
       </c>
       <c r="CK71" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="CL71" s="1">
         <v>5</v>
@@ -24815,7 +24815,7 @@
         <v>54</v>
       </c>
       <c r="CW71" s="1">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:101">
@@ -24823,16 +24823,16 @@
         <v>171</v>
       </c>
       <c r="B72" s="1">
-        <v>11841</v>
+        <v>11912</v>
       </c>
       <c r="C72" s="2">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="D72" s="2">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="E72" s="2">
-        <v>374</v>
+        <v>445</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>43</v>
       </c>
       <c r="AN72" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AO72" s="2">
         <v>390</v>
@@ -25075,16 +25075,16 @@
         <v>0</v>
       </c>
       <c r="CH72" s="1">
-        <v>15499</v>
+        <v>15503</v>
       </c>
       <c r="CI72" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="CJ72" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="CK72" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="CL72" s="1">
         <v>0</v>
@@ -25111,16 +25111,16 @@
         <v>1</v>
       </c>
       <c r="CT72" s="1">
-        <v>162574</v>
+        <v>162649</v>
       </c>
       <c r="CU72" s="1">
-        <v>277</v>
+        <v>352</v>
       </c>
       <c r="CV72" s="1">
-        <v>3110</v>
+        <v>3180</v>
       </c>
       <c r="CW72" s="1">
-        <v>5584</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -25236,16 +25236,16 @@
         <v>0</v>
       </c>
       <c r="AL73" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM73" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN73" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO73" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP73" s="1">
         <v>5</v>
@@ -25416,16 +25416,16 @@
         <v>0</v>
       </c>
       <c r="CT73" s="1">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="CU73" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CV73" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CW73" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:101">
@@ -25442,7 +25442,7 @@
         <v>121</v>
       </c>
       <c r="E74" s="2">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -25469,16 +25469,16 @@
         <v>410</v>
       </c>
       <c r="N74" s="1">
-        <v>111951</v>
+        <v>111845</v>
       </c>
       <c r="O74" s="2">
-        <v>13</v>
+        <v>-93</v>
       </c>
       <c r="P74" s="2">
-        <v>1302</v>
+        <v>1196</v>
       </c>
       <c r="Q74" s="2">
-        <v>4207</v>
+        <v>4101</v>
       </c>
       <c r="R74" s="1">
         <v>1</v>
@@ -25562,7 +25562,7 @@
         <v>2</v>
       </c>
       <c r="AS74" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT74" s="1">
         <v>21</v>
@@ -25694,7 +25694,7 @@
         <v>65</v>
       </c>
       <c r="CK74" s="2">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="CL74" s="1">
         <v>7</v>
@@ -25721,16 +25721,16 @@
         <v>0</v>
       </c>
       <c r="CT74" s="1">
-        <v>142909</v>
+        <v>142803</v>
       </c>
       <c r="CU74" s="1">
-        <v>244</v>
+        <v>138</v>
       </c>
       <c r="CV74" s="1">
-        <v>2001</v>
+        <v>1895</v>
       </c>
       <c r="CW74" s="1">
-        <v>5990</v>
+        <v>5825</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25855,7 +25855,7 @@
         <v>37</v>
       </c>
       <c r="AO75" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AP75" s="1">
         <v>74</v>
@@ -25999,7 +25999,7 @@
         <v>231</v>
       </c>
       <c r="CK75" s="2">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="CL75" s="1">
         <v>100</v>
@@ -26035,7 +26035,7 @@
         <v>6241</v>
       </c>
       <c r="CW75" s="1">
-        <v>13191</v>
+        <v>13154</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -26767,7 +26767,7 @@
         <v>27</v>
       </c>
       <c r="AN78" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AO78" s="2">
         <v>215</v>
@@ -26911,7 +26911,7 @@
         <v>35</v>
       </c>
       <c r="CJ78" s="2">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="CK78" s="2">
         <v>173</v>
@@ -26947,7 +26947,7 @@
         <v>63</v>
       </c>
       <c r="CV78" s="1">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="CW78" s="1">
         <v>397</v>
@@ -26982,16 +26982,16 @@
         <v>1</v>
       </c>
       <c r="J79" s="1">
-        <v>1336</v>
+        <v>1357</v>
       </c>
       <c r="K79" s="2">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="L79" s="2">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="M79" s="2">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="N79" s="1">
         <v>3265</v>
@@ -27069,7 +27069,7 @@
         <v>35</v>
       </c>
       <c r="AM79" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN79" s="2">
         <v>5</v>
@@ -27213,7 +27213,7 @@
         <v>134</v>
       </c>
       <c r="CI79" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CJ79" s="2">
         <v>7</v>
@@ -27246,16 +27246,16 @@
         <v>0</v>
       </c>
       <c r="CT79" s="1">
-        <v>5737</v>
+        <v>5758</v>
       </c>
       <c r="CU79" s="1">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="CV79" s="1">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="CW79" s="1">
-        <v>414</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80" spans="1:101">
@@ -27275,16 +27275,16 @@
         <v>0</v>
       </c>
       <c r="F80" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I80" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J80" s="1">
         <v>0</v>
@@ -27383,16 +27383,16 @@
         <v>0</v>
       </c>
       <c r="AP80" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AQ80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR80" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS80" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT80" s="1">
         <v>0</v>
@@ -27515,16 +27515,16 @@
         <v>0</v>
       </c>
       <c r="CH80" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="CI80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK80" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL80" s="1">
         <v>60</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="CT80" s="1">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="CU80" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CV80" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="CW80" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:101">
@@ -27607,7 +27607,7 @@
         <v>38407</v>
       </c>
       <c r="O81" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P81" s="2">
         <v>353</v>
@@ -27829,7 +27829,7 @@
         <v>68</v>
       </c>
       <c r="CK81" s="2">
-        <v>259</v>
+        <v>198</v>
       </c>
       <c r="CL81" s="1">
         <v>0</v>
@@ -27859,13 +27859,13 @@
         <v>385047</v>
       </c>
       <c r="CU81" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CV81" s="1">
         <v>943</v>
       </c>
       <c r="CW81" s="1">
-        <v>6125</v>
+        <v>6064</v>
       </c>
     </row>
     <row r="82" spans="1:101">
@@ -28436,7 +28436,7 @@
         <v>12</v>
       </c>
       <c r="CJ83" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="CK83" s="2">
         <v>63</v>
@@ -28472,7 +28472,7 @@
         <v>20</v>
       </c>
       <c r="CV83" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="CW83" s="1">
         <v>75</v>
@@ -28902,10 +28902,10 @@
         <v>12</v>
       </c>
       <c r="AN85" s="2">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="AO85" s="2">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="AP85" s="1">
         <v>24</v>
@@ -29046,10 +29046,10 @@
         <v>35</v>
       </c>
       <c r="CJ85" s="2">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="CK85" s="2">
-        <v>437</v>
+        <v>351</v>
       </c>
       <c r="CL85" s="1">
         <v>15</v>
@@ -29082,10 +29082,10 @@
         <v>47</v>
       </c>
       <c r="CV85" s="1">
-        <v>258</v>
+        <v>171</v>
       </c>
       <c r="CW85" s="1">
-        <v>539</v>
+        <v>436</v>
       </c>
     </row>
     <row r="86" spans="1:101">
@@ -29422,16 +29422,16 @@
         <v>4</v>
       </c>
       <c r="J87" s="1">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K87" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M87" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N87" s="1">
         <v>33</v>
@@ -29464,7 +29464,7 @@
         <v>0</v>
       </c>
       <c r="X87" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y87" s="2">
         <v>2</v>
@@ -29686,16 +29686,16 @@
         <v>0</v>
       </c>
       <c r="CT87" s="1">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="CU87" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CV87" s="1">
         <v>22</v>
       </c>
       <c r="CW87" s="1">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:101">
@@ -30316,7 +30316,7 @@
         <v>235</v>
       </c>
       <c r="C90" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" s="2">
         <v>6</v>
@@ -30340,7 +30340,7 @@
         <v>160</v>
       </c>
       <c r="K90" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L90" s="2">
         <v>9</v>
@@ -30604,7 +30604,7 @@
         <v>3607</v>
       </c>
       <c r="CU90" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="CV90" s="1">
         <v>60</v>
@@ -30944,7 +30944,7 @@
         <v>3</v>
       </c>
       <c r="I92" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J92" s="1">
         <v>0</v>
@@ -31220,7 +31220,7 @@
         <v>3</v>
       </c>
       <c r="CW92" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:101">
@@ -31581,16 +31581,16 @@
         <v>0</v>
       </c>
       <c r="R94" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S94" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T94" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U94" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V94" s="1">
         <v>7</v>
@@ -31629,16 +31629,16 @@
         <v>0</v>
       </c>
       <c r="AH94" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI94" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ94" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK94" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL94" s="1">
         <v>92</v>
@@ -31653,16 +31653,16 @@
         <v>5</v>
       </c>
       <c r="AP94" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AQ94" s="2">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AR94" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS94" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT94" s="1">
         <v>0</v>
@@ -31737,16 +31737,16 @@
         <v>3</v>
       </c>
       <c r="BR94" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BS94" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT94" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BU94" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BV94" s="1">
         <v>0</v>
@@ -31821,13 +31821,13 @@
         <v>0</v>
       </c>
       <c r="CT94" s="1">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="CU94" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="CV94" s="1">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="CW94" s="1">
         <v>94</v>
@@ -31850,16 +31850,16 @@
         <v>0</v>
       </c>
       <c r="F95" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G95" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I95" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J95" s="1">
         <v>0</v>
@@ -31967,7 +31967,7 @@
         <v>1</v>
       </c>
       <c r="AS95" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT95" s="1">
         <v>0</v>
@@ -32099,7 +32099,7 @@
         <v>2</v>
       </c>
       <c r="CK95" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CL95" s="1">
         <v>31</v>
@@ -32126,16 +32126,16 @@
         <v>0</v>
       </c>
       <c r="CT95" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CU95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV95" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CW95" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:101">
@@ -33477,7 +33477,7 @@
         <v>11</v>
       </c>
       <c r="AN100" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO100" s="2">
         <v>15</v>
@@ -33579,16 +33579,16 @@
         <v>0</v>
       </c>
       <c r="BV100" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BW100" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX100" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BY100" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BZ100" s="1">
         <v>3</v>
@@ -33621,7 +33621,7 @@
         <v>21</v>
       </c>
       <c r="CJ100" s="2">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="CK100" s="2">
         <v>99</v>
@@ -33651,16 +33651,16 @@
         <v>0</v>
       </c>
       <c r="CT100" s="1">
-        <v>39561</v>
+        <v>39563</v>
       </c>
       <c r="CU100" s="1">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="CV100" s="1">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="CW100" s="1">
-        <v>2134</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="101" spans="1:101">
@@ -34278,16 +34278,16 @@
         <v>202</v>
       </c>
       <c r="B103" s="1">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="C103" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E103" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F103" s="1">
         <v>4</v>
@@ -34368,7 +34368,7 @@
         <v>0</v>
       </c>
       <c r="AF103" s="2">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="AG103" s="2">
         <v>212</v>
@@ -34398,13 +34398,13 @@
         <v>1</v>
       </c>
       <c r="AP103" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AQ103" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR103" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS103" s="2">
         <v>5</v>
@@ -34533,7 +34533,7 @@
         <v>237</v>
       </c>
       <c r="CI103" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CJ103" s="2">
         <v>14</v>
@@ -34566,16 +34566,16 @@
         <v>0</v>
       </c>
       <c r="CT103" s="1">
-        <v>7059</v>
+        <v>7069</v>
       </c>
       <c r="CU103" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="CV103" s="1">
-        <v>354</v>
+        <v>252</v>
       </c>
       <c r="CW103" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="104" spans="1:101">
@@ -34616,19 +34616,19 @@
         <v>520</v>
       </c>
       <c r="M104" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="N104" s="1">
-        <v>21652</v>
+        <v>21782</v>
       </c>
       <c r="O104" s="2">
-        <v>712</v>
+        <v>842</v>
       </c>
       <c r="P104" s="2">
-        <v>1113</v>
+        <v>1243</v>
       </c>
       <c r="Q104" s="2">
-        <v>1674</v>
+        <v>1781</v>
       </c>
       <c r="R104" s="1">
         <v>0</v>
@@ -34712,7 +34712,7 @@
         <v>0</v>
       </c>
       <c r="AS104" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT104" s="1">
         <v>0</v>
@@ -34844,7 +34844,7 @@
         <v>68</v>
       </c>
       <c r="CK104" s="2">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="CL104" s="1">
         <v>0</v>
@@ -34871,16 +34871,16 @@
         <v>0</v>
       </c>
       <c r="CT104" s="1">
-        <v>87307</v>
+        <v>87437</v>
       </c>
       <c r="CU104" s="1">
-        <v>1026</v>
+        <v>1156</v>
       </c>
       <c r="CV104" s="1">
-        <v>1890</v>
+        <v>2020</v>
       </c>
       <c r="CW104" s="1">
-        <v>3599</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="105" spans="1:101">
@@ -35310,7 +35310,7 @@
         <v>2</v>
       </c>
       <c r="AO106" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AP106" s="1">
         <v>13</v>
@@ -35454,7 +35454,7 @@
         <v>10</v>
       </c>
       <c r="CK106" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="CL106" s="1">
         <v>7</v>
@@ -35490,7 +35490,7 @@
         <v>29</v>
       </c>
       <c r="CW106" s="1">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:101">
@@ -35920,7 +35920,7 @@
         <v>6</v>
       </c>
       <c r="AO108" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP108" s="1">
         <v>0</v>
@@ -36064,7 +36064,7 @@
         <v>31</v>
       </c>
       <c r="CK108" s="2">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="CL108" s="1">
         <v>0</v>
@@ -36100,7 +36100,7 @@
         <v>347</v>
       </c>
       <c r="CW108" s="1">
-        <v>1017</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="109" spans="1:101">
@@ -36369,7 +36369,7 @@
         <v>30</v>
       </c>
       <c r="CK109" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="CL109" s="1">
         <v>26</v>
@@ -36405,7 +36405,7 @@
         <v>41</v>
       </c>
       <c r="CW109" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110" spans="1:101">
@@ -36605,16 +36605,16 @@
         <v>0</v>
       </c>
       <c r="BN110" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BO110" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP110" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ110" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BR110" s="1">
         <v>6</v>
@@ -36701,16 +36701,16 @@
         <v>0</v>
       </c>
       <c r="CT110" s="1">
-        <v>7023</v>
+        <v>7024</v>
       </c>
       <c r="CU110" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CV110" s="1">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="CW110" s="1">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="111" spans="1:101">
@@ -36979,7 +36979,7 @@
         <v>57</v>
       </c>
       <c r="CK111" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="CL111" s="1">
         <v>1</v>
@@ -37015,7 +37015,7 @@
         <v>4109</v>
       </c>
       <c r="CW111" s="1">
-        <v>13904</v>
+        <v>13893</v>
       </c>
     </row>
     <row r="112" spans="1:101">
@@ -37639,7 +37639,7 @@
         <v>14</v>
       </c>
       <c r="D114" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E114" s="2">
         <v>101</v>
@@ -37927,7 +37927,7 @@
         <v>70</v>
       </c>
       <c r="CV114" s="1">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="CW114" s="1">
         <v>1300</v>
@@ -38139,7 +38139,7 @@
         <v>0</v>
       </c>
       <c r="BQ115" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BR115" s="1">
         <v>0</v>
@@ -38235,7 +38235,7 @@
         <v>379</v>
       </c>
       <c r="CW115" s="1">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="116" spans="1:101">
@@ -41401,16 +41401,16 @@
         <v>0</v>
       </c>
       <c r="AL126" s="1">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM126" s="2">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AN126" s="2">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AO126" s="2">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="AP126" s="1">
         <v>0</v>
@@ -41545,16 +41545,16 @@
         <v>0</v>
       </c>
       <c r="CH126" s="1">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="CI126" s="2">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="CJ126" s="2">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="CK126" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="CL126" s="1">
         <v>0</v>
@@ -41581,16 +41581,16 @@
         <v>0</v>
       </c>
       <c r="CT126" s="1">
-        <v>1169</v>
+        <v>1226</v>
       </c>
       <c r="CU126" s="1">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="CV126" s="1">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="CW126" s="1">
-        <v>133</v>
+        <v>190</v>
       </c>
     </row>
     <row r="127" spans="1:101">
@@ -42325,7 +42325,7 @@
         <v>20</v>
       </c>
       <c r="AO129" s="2">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="AP129" s="1">
         <v>0</v>
@@ -42469,7 +42469,7 @@
         <v>24</v>
       </c>
       <c r="CK129" s="2">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="CL129" s="1">
         <v>0</v>
@@ -42505,7 +42505,7 @@
         <v>131</v>
       </c>
       <c r="CW129" s="1">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="130" spans="1:101">
@@ -43545,7 +43545,7 @@
         <v>11</v>
       </c>
       <c r="AO133" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AP133" s="1">
         <v>34</v>
@@ -43689,7 +43689,7 @@
         <v>51</v>
       </c>
       <c r="CK133" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="CL133" s="1">
         <v>9</v>
@@ -43725,7 +43725,7 @@
         <v>2380</v>
       </c>
       <c r="CW133" s="1">
-        <v>5138</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="134" spans="1:101">
@@ -43766,7 +43766,7 @@
         <v>214</v>
       </c>
       <c r="M134" s="2">
-        <v>343</v>
+        <v>270</v>
       </c>
       <c r="N134" s="1">
         <v>30126</v>
@@ -43817,16 +43817,16 @@
         <v>10</v>
       </c>
       <c r="AD134" s="1">
-        <v>10269</v>
+        <v>10270</v>
       </c>
       <c r="AE134" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF134" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG134" s="2">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="AH134" s="1">
         <v>0</v>
@@ -43850,7 +43850,7 @@
         <v>5</v>
       </c>
       <c r="AO134" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP134" s="1">
         <v>23</v>
@@ -43994,7 +43994,7 @@
         <v>43</v>
       </c>
       <c r="CK134" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="CL134" s="1">
         <v>13</v>
@@ -44021,16 +44021,16 @@
         <v>0</v>
       </c>
       <c r="CT134" s="1">
-        <v>57249</v>
+        <v>57250</v>
       </c>
       <c r="CU134" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="CV134" s="1">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="CW134" s="1">
-        <v>2765</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="135" spans="1:101">
@@ -44038,16 +44038,16 @@
         <v>234</v>
       </c>
       <c r="B135" s="1">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C135" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D135" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E135" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F135" s="1">
         <v>14</v>
@@ -44326,16 +44326,16 @@
         <v>0</v>
       </c>
       <c r="CT135" s="1">
-        <v>143555</v>
+        <v>143558</v>
       </c>
       <c r="CU135" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CV135" s="1">
-        <v>4232</v>
+        <v>4235</v>
       </c>
       <c r="CW135" s="1">
-        <v>5549</v>
+        <v>5552</v>
       </c>
     </row>
     <row r="136" spans="1:101">
@@ -44463,16 +44463,16 @@
         <v>0</v>
       </c>
       <c r="AP136" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ136" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR136" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS136" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT136" s="1">
         <v>0</v>
@@ -44607,16 +44607,16 @@
         <v>1</v>
       </c>
       <c r="CL136" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CM136" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN136" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CO136" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CP136" s="1">
         <v>0</v>
@@ -44631,16 +44631,16 @@
         <v>0</v>
       </c>
       <c r="CT136" s="1">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="CU136" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CV136" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CW136" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="137" spans="1:101">
@@ -45596,7 +45596,7 @@
         <v>0</v>
       </c>
       <c r="M140" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N140" s="1">
         <v>163</v>
@@ -45860,7 +45860,7 @@
         <v>14</v>
       </c>
       <c r="CW140" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141" spans="1:101">
@@ -46601,13 +46601,13 @@
         <v>52</v>
       </c>
       <c r="AQ143" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR143" s="2">
         <v>2</v>
       </c>
       <c r="AS143" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT143" s="1">
         <v>0</v>
@@ -46733,7 +46733,7 @@
         <v>19</v>
       </c>
       <c r="CI143" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ143" s="2">
         <v>1</v>
@@ -46751,7 +46751,7 @@
         <v>2</v>
       </c>
       <c r="CO143" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CP143" s="1">
         <v>0</v>
@@ -46769,13 +46769,13 @@
         <v>1034</v>
       </c>
       <c r="CU143" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CV143" s="1">
         <v>18</v>
       </c>
       <c r="CW143" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144" spans="1:101">
@@ -48437,7 +48437,7 @@
         <v>3</v>
       </c>
       <c r="AS149" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT149" s="1">
         <v>0</v>
@@ -48581,7 +48581,7 @@
         <v>0</v>
       </c>
       <c r="CO149" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CP149" s="1">
         <v>0</v>
@@ -48605,7 +48605,7 @@
         <v>6</v>
       </c>
       <c r="CW149" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:101">
@@ -48942,16 +48942,16 @@
         <v>3</v>
       </c>
       <c r="J151" s="1">
-        <v>509</v>
+        <v>704</v>
       </c>
       <c r="K151" s="2">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="L151" s="2">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="M151" s="2">
-        <v>118</v>
+        <v>313</v>
       </c>
       <c r="N151" s="1">
         <v>130</v>
@@ -49206,16 +49206,16 @@
         <v>0</v>
       </c>
       <c r="CT151" s="1">
-        <v>2343</v>
+        <v>2538</v>
       </c>
       <c r="CU151" s="1">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="CV151" s="1">
-        <v>36</v>
+        <v>231</v>
       </c>
       <c r="CW151" s="1">
-        <v>275</v>
+        <v>470</v>
       </c>
     </row>
     <row r="152" spans="1:101">
@@ -49866,7 +49866,7 @@
         <v>17</v>
       </c>
       <c r="M154" s="2">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N154" s="1">
         <v>1173</v>
@@ -50130,7 +50130,7 @@
         <v>47</v>
       </c>
       <c r="CW154" s="1">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="155" spans="1:101">
@@ -50171,7 +50171,7 @@
         <v>59</v>
       </c>
       <c r="M155" s="2">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="N155" s="1">
         <v>57482</v>
@@ -50435,7 +50435,7 @@
         <v>839</v>
       </c>
       <c r="CW155" s="1">
-        <v>2166</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="156" spans="1:101">
@@ -50476,7 +50476,7 @@
         <v>84</v>
       </c>
       <c r="M156" s="2">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="N156" s="1">
         <v>11535</v>
@@ -50740,7 +50740,7 @@
         <v>6120</v>
       </c>
       <c r="CW156" s="1">
-        <v>8520</v>
+        <v>8486</v>
       </c>
     </row>
     <row r="157" spans="1:101">
@@ -50940,16 +50940,16 @@
         <v>0</v>
       </c>
       <c r="BN157" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BO157" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP157" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BQ157" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BR157" s="1">
         <v>33</v>
@@ -51036,16 +51036,16 @@
         <v>0</v>
       </c>
       <c r="CT157" s="1">
-        <v>22307</v>
+        <v>22308</v>
       </c>
       <c r="CU157" s="1">
-        <v>3253</v>
+        <v>3254</v>
       </c>
       <c r="CV157" s="1">
-        <v>3730</v>
+        <v>3731</v>
       </c>
       <c r="CW157" s="1">
-        <v>4390</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="158" spans="1:101">
@@ -51702,7 +51702,7 @@
         <v>9072</v>
       </c>
       <c r="O160" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P160" s="2">
         <v>137</v>
@@ -51777,7 +51777,7 @@
         <v>9</v>
       </c>
       <c r="AN160" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO160" s="2">
         <v>16</v>
@@ -51921,10 +51921,10 @@
         <v>8</v>
       </c>
       <c r="CJ160" s="2">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="CK160" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="CL160" s="1">
         <v>14</v>
@@ -51954,13 +51954,13 @@
         <v>20200</v>
       </c>
       <c r="CU160" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CV160" s="1">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="CW160" s="1">
-        <v>1325</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="161" spans="1:101">
@@ -52608,7 +52608,7 @@
         <v>0</v>
       </c>
       <c r="L163" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M163" s="2">
         <v>3</v>
@@ -52872,7 +52872,7 @@
         <v>-2</v>
       </c>
       <c r="CV163" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="CW163" s="1">
         <v>150</v>
@@ -53194,7 +53194,7 @@
         <v>6</v>
       </c>
       <c r="D165" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E165" s="2">
         <v>19</v>
@@ -53212,16 +53212,16 @@
         <v>0</v>
       </c>
       <c r="J165" s="1">
-        <v>1452</v>
+        <v>1479</v>
       </c>
       <c r="K165" s="2">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L165" s="2">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="M165" s="2">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="N165" s="1">
         <v>2000</v>
@@ -53314,7 +53314,7 @@
         <v>0</v>
       </c>
       <c r="AR165" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS165" s="2">
         <v>5</v>
@@ -53446,7 +53446,7 @@
         <v>1</v>
       </c>
       <c r="CJ165" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CK165" s="2">
         <v>5</v>
@@ -53476,16 +53476,16 @@
         <v>0</v>
       </c>
       <c r="CT165" s="1">
-        <v>4512</v>
+        <v>4539</v>
       </c>
       <c r="CU165" s="1">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="CV165" s="1">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="CW165" s="1">
-        <v>270</v>
+        <v>297</v>
       </c>
     </row>
     <row r="166" spans="1:101">
@@ -53918,16 +53918,16 @@
         <v>2</v>
       </c>
       <c r="AP167" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ167" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR167" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS167" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT167" s="1">
         <v>0</v>
@@ -54050,16 +54050,16 @@
         <v>0</v>
       </c>
       <c r="CH167" s="1">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="CI167" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CJ167" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CK167" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="CL167" s="1">
         <v>4</v>
@@ -54086,16 +54086,16 @@
         <v>0</v>
       </c>
       <c r="CT167" s="1">
-        <v>5008</v>
+        <v>5011</v>
       </c>
       <c r="CU167" s="1">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="CV167" s="1">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="CW167" s="1">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="168" spans="1:101">
@@ -54746,7 +54746,7 @@
         <v>11</v>
       </c>
       <c r="M170" s="2">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N170" s="1">
         <v>2610</v>
@@ -54785,16 +54785,16 @@
         <v>0</v>
       </c>
       <c r="Z170" s="1">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA170" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB170" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC170" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AD170" s="1">
         <v>0</v>
@@ -54965,16 +54965,16 @@
         <v>0</v>
       </c>
       <c r="CH170" s="1">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="CI170" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CJ170" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="CK170" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="CL170" s="1">
         <v>6</v>
@@ -55001,16 +55001,16 @@
         <v>0</v>
       </c>
       <c r="CT170" s="1">
-        <v>5618</v>
+        <v>5623</v>
       </c>
       <c r="CU170" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="CV170" s="1">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="CW170" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="171" spans="1:101">
@@ -55649,7 +55649,7 @@
         <v>3</v>
       </c>
       <c r="I173" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J173" s="1">
         <v>0</v>
@@ -55667,7 +55667,7 @@
         <v>175</v>
       </c>
       <c r="O173" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P173" s="2">
         <v>8</v>
@@ -55901,7 +55901,7 @@
         <v>3</v>
       </c>
       <c r="CO173" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CP173" s="1">
         <v>0</v>
@@ -55919,7 +55919,7 @@
         <v>422</v>
       </c>
       <c r="CU173" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CV173" s="1">
         <v>16</v>
@@ -56256,7 +56256,7 @@
         <v>1</v>
       </c>
       <c r="H175" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" s="2">
         <v>6</v>
@@ -56355,7 +56355,7 @@
         <v>29</v>
       </c>
       <c r="AO175" s="2">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="AP175" s="1">
         <v>0</v>
@@ -56499,7 +56499,7 @@
         <v>64</v>
       </c>
       <c r="CK175" s="2">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="CL175" s="1">
         <v>0</v>
@@ -56532,10 +56532,10 @@
         <v>1</v>
       </c>
       <c r="CV175" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CW175" s="1">
-        <v>169</v>
+        <v>141</v>
       </c>
     </row>
     <row r="176" spans="1:101">
@@ -56881,7 +56881,7 @@
         <v>47</v>
       </c>
       <c r="M177" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="N177" s="1">
         <v>65222</v>
@@ -56965,7 +56965,7 @@
         <v>11</v>
       </c>
       <c r="AO177" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP177" s="1">
         <v>30</v>
@@ -57109,7 +57109,7 @@
         <v>36</v>
       </c>
       <c r="CK177" s="2">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="CL177" s="1">
         <v>7</v>
@@ -57145,7 +57145,7 @@
         <v>1915</v>
       </c>
       <c r="CW177" s="1">
-        <v>3795</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="178" spans="1:101">
@@ -57485,13 +57485,13 @@
         <v>1168</v>
       </c>
       <c r="K179" s="2">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="L179" s="2">
         <v>95</v>
       </c>
       <c r="M179" s="2">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="N179" s="1">
         <v>32745</v>
@@ -57575,7 +57575,7 @@
         <v>11</v>
       </c>
       <c r="AO179" s="2">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AP179" s="1">
         <v>6</v>
@@ -57719,7 +57719,7 @@
         <v>50</v>
       </c>
       <c r="CK179" s="2">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="CL179" s="1">
         <v>3</v>
@@ -57749,13 +57749,13 @@
         <v>45683</v>
       </c>
       <c r="CU179" s="1">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="CV179" s="1">
         <v>1280</v>
       </c>
       <c r="CW179" s="1">
-        <v>2867</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="180" spans="1:101">
@@ -59253,7 +59253,7 @@
         <v>0</v>
       </c>
       <c r="CN184" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CO184" s="2">
         <v>6</v>
@@ -59277,7 +59277,7 @@
         <v>15</v>
       </c>
       <c r="CV184" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="CW184" s="1">
         <v>28</v>
@@ -60538,7 +60538,7 @@
         <v>0</v>
       </c>
       <c r="L189" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M189" s="2">
         <v>3</v>
@@ -60802,7 +60802,7 @@
         <v>2</v>
       </c>
       <c r="CV189" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="CW189" s="1">
         <v>20</v>
@@ -60825,16 +60825,16 @@
         <v>0</v>
       </c>
       <c r="F190" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G190" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I190" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J190" s="1">
         <v>0</v>
@@ -60942,7 +60942,7 @@
         <v>2</v>
       </c>
       <c r="AS190" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT190" s="1">
         <v>0</v>
@@ -61086,7 +61086,7 @@
         <v>0</v>
       </c>
       <c r="CO190" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CP190" s="1">
         <v>0</v>
@@ -61101,16 +61101,16 @@
         <v>0</v>
       </c>
       <c r="CT190" s="1">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="CU190" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV190" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CW190" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="191" spans="1:101">
@@ -62063,10 +62063,10 @@
         <v>7</v>
       </c>
       <c r="L194" s="2">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M194" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N194" s="1">
         <v>3150</v>
@@ -62159,7 +62159,7 @@
         <v>0</v>
       </c>
       <c r="AR194" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS194" s="2">
         <v>1</v>
@@ -62303,7 +62303,7 @@
         <v>0</v>
       </c>
       <c r="CN194" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO194" s="2">
         <v>1</v>
@@ -62327,10 +62327,10 @@
         <v>15</v>
       </c>
       <c r="CV194" s="1">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="CW194" s="1">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="195" spans="1:101">
@@ -63325,16 +63325,16 @@
         <v>1</v>
       </c>
       <c r="Z198" s="1">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AA198" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB198" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AC198" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AD198" s="1">
         <v>46</v>
@@ -63367,10 +63367,10 @@
         <v>7</v>
       </c>
       <c r="AN198" s="2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AO198" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AP198" s="1">
         <v>24</v>
@@ -63505,16 +63505,16 @@
         <v>0</v>
       </c>
       <c r="CH198" s="1">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="CI198" s="2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="CJ198" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CK198" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="CL198" s="1">
         <v>9</v>
@@ -63541,16 +63541,16 @@
         <v>0</v>
       </c>
       <c r="CT198" s="1">
-        <v>15286</v>
+        <v>15298</v>
       </c>
       <c r="CU198" s="1">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="CV198" s="1">
         <v>262</v>
       </c>
       <c r="CW198" s="1">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="199" spans="1:101">
@@ -63600,7 +63600,7 @@
         <v>0</v>
       </c>
       <c r="P199" s="2">
-        <v>-16</v>
+        <v>-96</v>
       </c>
       <c r="Q199" s="2">
         <v>-618</v>
@@ -63852,7 +63852,7 @@
         <v>104</v>
       </c>
       <c r="CV199" s="1">
-        <v>1266</v>
+        <v>1186</v>
       </c>
       <c r="CW199" s="1">
         <v>3995</v>
@@ -64494,7 +64494,7 @@
         <v>2</v>
       </c>
       <c r="I202" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J202" s="1">
         <v>0</v>
@@ -64770,7 +64770,7 @@
         <v>2</v>
       </c>
       <c r="CW202" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:101">
@@ -64799,7 +64799,7 @@
         <v>1</v>
       </c>
       <c r="I203" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J203" s="1">
         <v>0</v>
@@ -65075,7 +65075,7 @@
         <v>4</v>
       </c>
       <c r="CW203" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204" spans="1:101">
@@ -65388,40 +65388,40 @@
         <v>304</v>
       </c>
       <c r="B205" s="1">
-        <v>1279</v>
+        <v>1283</v>
       </c>
       <c r="C205" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D205" s="2">
+        <v>24</v>
+      </c>
+      <c r="E205" s="2">
+        <v>40</v>
+      </c>
+      <c r="F205" s="1">
+        <v>1</v>
+      </c>
+      <c r="G205" s="2">
+        <v>0</v>
+      </c>
+      <c r="H205" s="2">
+        <v>0</v>
+      </c>
+      <c r="I205" s="2">
+        <v>0</v>
+      </c>
+      <c r="J205" s="1">
+        <v>497</v>
+      </c>
+      <c r="K205" s="2">
         <v>20</v>
       </c>
-      <c r="E205" s="2">
-        <v>36</v>
-      </c>
-      <c r="F205" s="1">
-        <v>1</v>
-      </c>
-      <c r="G205" s="2">
-        <v>0</v>
-      </c>
-      <c r="H205" s="2">
-        <v>0</v>
-      </c>
-      <c r="I205" s="2">
-        <v>0</v>
-      </c>
-      <c r="J205" s="1">
-        <v>492</v>
-      </c>
-      <c r="K205" s="2">
-        <v>15</v>
-      </c>
       <c r="L205" s="2">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M205" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N205" s="1">
         <v>4918</v>
@@ -65676,16 +65676,16 @@
         <v>0</v>
       </c>
       <c r="CT205" s="1">
-        <v>13025</v>
+        <v>13034</v>
       </c>
       <c r="CU205" s="1">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="CV205" s="1">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="CW205" s="1">
-        <v>582</v>
+        <v>592</v>
       </c>
     </row>
     <row r="206" spans="1:101">
@@ -66737,7 +66737,7 @@
         <v>2</v>
       </c>
       <c r="AS209" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT209" s="1">
         <v>8</v>
@@ -66869,7 +66869,7 @@
         <v>1</v>
       </c>
       <c r="CK209" s="2">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="CL209" s="1">
         <v>13</v>
@@ -66905,7 +66905,7 @@
         <v>89</v>
       </c>
       <c r="CW209" s="1">
-        <v>296</v>
+        <v>279</v>
       </c>
     </row>
     <row r="210" spans="1:101">
@@ -67335,7 +67335,7 @@
         <v>12</v>
       </c>
       <c r="AO211" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP211" s="1">
         <v>1</v>
@@ -67479,7 +67479,7 @@
         <v>9</v>
       </c>
       <c r="CK211" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="CL211" s="1">
         <v>0</v>
@@ -67515,7 +67515,7 @@
         <v>23</v>
       </c>
       <c r="CW211" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="212" spans="1:101">
@@ -67873,7 +67873,7 @@
         <v>529</v>
       </c>
       <c r="D2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E2" t="s">
         <v>712</v>
@@ -68916,7 +68916,7 @@
         <v>571</v>
       </c>
       <c r="D54">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54" t="s">
         <v>712</v>
@@ -70528,7 +70528,7 @@
         <v>644</v>
       </c>
       <c r="D134">
-        <v>10172</v>
+        <v>10173</v>
       </c>
       <c r="E134" t="s">
         <v>712</v>
@@ -70668,7 +70668,7 @@
         <v>651</v>
       </c>
       <c r="D141">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
         <v>712</v>
@@ -70951,7 +70951,7 @@
         <v>662</v>
       </c>
       <c r="D155">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E155" t="s">
         <v>712</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3476,7 +3476,7 @@
         <v>1442</v>
       </c>
       <c r="C2" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
         <v>20</v>
@@ -3506,7 +3506,7 @@
         <v>115</v>
       </c>
       <c r="M2" s="2">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N2" s="1">
         <v>18042</v>
@@ -3560,7 +3560,7 @@
         <v>16585</v>
       </c>
       <c r="AE2" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="2">
         <v>620</v>
@@ -3593,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="AP2" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AQ2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR2" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS2" s="2">
         <v>6</v>
@@ -3725,16 +3725,16 @@
         <v>0</v>
       </c>
       <c r="CH2" s="1">
-        <v>1864</v>
+        <v>1872</v>
       </c>
       <c r="CI2" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="CJ2" s="2">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="CK2" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="CL2" s="1">
         <v>3</v>
@@ -3761,16 +3761,16 @@
         <v>0</v>
       </c>
       <c r="CT2" s="1">
-        <v>42442</v>
+        <v>42451</v>
       </c>
       <c r="CU2" s="1">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="CV2" s="1">
-        <v>1223</v>
+        <v>1232</v>
       </c>
       <c r="CW2" s="1">
-        <v>2429</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="3" spans="1:101">
@@ -3811,7 +3811,7 @@
         <v>135</v>
       </c>
       <c r="M3" s="2">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="N3" s="1">
         <v>8901</v>
@@ -4075,7 +4075,7 @@
         <v>556</v>
       </c>
       <c r="CW3" s="1">
-        <v>1414</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="4" spans="1:101">
@@ -4341,7 +4341,7 @@
         <v>18</v>
       </c>
       <c r="CJ4" s="2">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="CK4" s="2">
         <v>91</v>
@@ -4377,7 +4377,7 @@
         <v>31</v>
       </c>
       <c r="CV4" s="1">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="CW4" s="1">
         <v>781</v>
@@ -4499,7 +4499,7 @@
         <v>236</v>
       </c>
       <c r="AM5" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AN5" s="2">
         <v>45</v>
@@ -4643,7 +4643,7 @@
         <v>1360</v>
       </c>
       <c r="CI5" s="2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="CJ5" s="2">
         <v>172</v>
@@ -4679,7 +4679,7 @@
         <v>1989</v>
       </c>
       <c r="CU5" s="1">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="CV5" s="1">
         <v>221</v>
@@ -7244,7 +7244,7 @@
         <v>119</v>
       </c>
       <c r="AM14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="2">
         <v>1</v>
@@ -7424,7 +7424,7 @@
         <v>3140</v>
       </c>
       <c r="CU14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV14" s="1">
         <v>45</v>
@@ -9588,7 +9588,7 @@
         <v>54</v>
       </c>
       <c r="G22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2">
         <v>3</v>
@@ -9864,7 +9864,7 @@
         <v>641</v>
       </c>
       <c r="CU22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CV22" s="1">
         <v>22</v>
@@ -10907,7 +10907,7 @@
         <v>2</v>
       </c>
       <c r="AN26" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AO26" s="2">
         <v>11</v>
@@ -11051,7 +11051,7 @@
         <v>2</v>
       </c>
       <c r="CJ26" s="2">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="CK26" s="2">
         <v>35</v>
@@ -11087,7 +11087,7 @@
         <v>5</v>
       </c>
       <c r="CV26" s="1">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="CW26" s="1">
         <v>54</v>
@@ -11107,7 +11107,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" s="1">
         <v>28</v>
@@ -11227,7 +11227,7 @@
         <v>5</v>
       </c>
       <c r="AS27" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT27" s="1">
         <v>1</v>
@@ -11359,7 +11359,7 @@
         <v>17</v>
       </c>
       <c r="CK27" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="CL27" s="1">
         <v>20</v>
@@ -11395,7 +11395,7 @@
         <v>117</v>
       </c>
       <c r="CW27" s="1">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28" spans="1:101">
@@ -12040,7 +12040,7 @@
         <v>1256</v>
       </c>
       <c r="K30" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L30" s="2">
         <v>34</v>
@@ -12058,7 +12058,7 @@
         <v>43</v>
       </c>
       <c r="Q30" s="2">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="R30" s="1">
         <v>1</v>
@@ -12304,13 +12304,13 @@
         <v>5312</v>
       </c>
       <c r="CU30" s="1">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="CV30" s="1">
         <v>144</v>
       </c>
       <c r="CW30" s="1">
-        <v>375</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" spans="1:101">
@@ -12318,16 +12318,16 @@
         <v>130</v>
       </c>
       <c r="B31" s="1">
-        <v>2386</v>
+        <v>2397</v>
       </c>
       <c r="C31" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D31" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E31" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -12345,7 +12345,7 @@
         <v>675</v>
       </c>
       <c r="K31" s="2">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="L31" s="2">
         <v>38</v>
@@ -12447,7 +12447,7 @@
         <v>1</v>
       </c>
       <c r="AS31" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT31" s="1">
         <v>0</v>
@@ -12579,7 +12579,7 @@
         <v>9</v>
       </c>
       <c r="CK31" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="CL31" s="1">
         <v>24</v>
@@ -12606,16 +12606,16 @@
         <v>0</v>
       </c>
       <c r="CT31" s="1">
-        <v>9992</v>
+        <v>10003</v>
       </c>
       <c r="CU31" s="1">
         <v>39</v>
       </c>
       <c r="CV31" s="1">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="CW31" s="1">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="32" spans="1:101">
@@ -12928,16 +12928,16 @@
         <v>132</v>
       </c>
       <c r="B33" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C33" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D33" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E33" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F33" s="1">
         <v>54</v>
@@ -13126,7 +13126,7 @@
         <v>0</v>
       </c>
       <c r="BP33" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BQ33" s="2">
         <v>6</v>
@@ -13216,16 +13216,16 @@
         <v>0</v>
       </c>
       <c r="CT33" s="1">
-        <v>2299</v>
+        <v>2301</v>
       </c>
       <c r="CU33" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CV33" s="1">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="CW33" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:101">
@@ -14764,7 +14764,7 @@
         <v>72</v>
       </c>
       <c r="D39" s="2">
-        <v>295</v>
+        <v>227</v>
       </c>
       <c r="E39" s="2">
         <v>483</v>
@@ -15052,7 +15052,7 @@
         <v>128</v>
       </c>
       <c r="CV39" s="1">
-        <v>747</v>
+        <v>679</v>
       </c>
       <c r="CW39" s="1">
         <v>2309</v>
@@ -18532,7 +18532,7 @@
         <v>3</v>
       </c>
       <c r="AN51" s="2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AO51" s="2">
         <v>23</v>
@@ -18664,7 +18664,7 @@
         <v>0</v>
       </c>
       <c r="CF51" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CG51" s="2">
         <v>2</v>
@@ -18676,7 +18676,7 @@
         <v>6</v>
       </c>
       <c r="CJ51" s="2">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="CK51" s="2">
         <v>36</v>
@@ -18712,7 +18712,7 @@
         <v>10</v>
       </c>
       <c r="CV51" s="1">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="CW51" s="1">
         <v>67</v>
@@ -18846,7 +18846,7 @@
         <v>9</v>
       </c>
       <c r="AQ52" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR52" s="2">
         <v>2</v>
@@ -18978,7 +18978,7 @@
         <v>93</v>
       </c>
       <c r="CI52" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CJ52" s="2">
         <v>17</v>
@@ -19014,7 +19014,7 @@
         <v>202</v>
       </c>
       <c r="CU52" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CV52" s="1">
         <v>23</v>
@@ -19958,7 +19958,7 @@
         <v>27</v>
       </c>
       <c r="G56" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H56" s="2">
         <v>3</v>
@@ -20234,7 +20234,7 @@
         <v>112</v>
       </c>
       <c r="CU56" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CV56" s="1">
         <v>13</v>
@@ -20891,7 +20891,7 @@
         <v>52</v>
       </c>
       <c r="M59" s="2">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="N59" s="1">
         <v>42602</v>
@@ -21155,7 +21155,7 @@
         <v>341</v>
       </c>
       <c r="CW59" s="1">
-        <v>824</v>
+        <v>805</v>
       </c>
     </row>
     <row r="60" spans="1:101">
@@ -21782,7 +21782,7 @@
         <v>3</v>
       </c>
       <c r="E62" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F62" s="1">
         <v>14</v>
@@ -21806,7 +21806,7 @@
         <v>15</v>
       </c>
       <c r="M62" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N62" s="1">
         <v>3944</v>
@@ -21902,7 +21902,7 @@
         <v>1</v>
       </c>
       <c r="AS62" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT62" s="1">
         <v>0</v>
@@ -22034,7 +22034,7 @@
         <v>14</v>
       </c>
       <c r="CK62" s="2">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="CL62" s="1">
         <v>10</v>
@@ -22070,7 +22070,7 @@
         <v>292</v>
       </c>
       <c r="CW62" s="1">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="63" spans="1:101">
@@ -23119,7 +23119,7 @@
         <v>1</v>
       </c>
       <c r="AR66" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS66" s="2">
         <v>5</v>
@@ -23251,7 +23251,7 @@
         <v>1</v>
       </c>
       <c r="CJ66" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="CK66" s="2">
         <v>16</v>
@@ -23287,7 +23287,7 @@
         <v>3</v>
       </c>
       <c r="CV66" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="CW66" s="1">
         <v>100</v>
@@ -24228,7 +24228,7 @@
         <v>9</v>
       </c>
       <c r="G70" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" s="2">
         <v>2</v>
@@ -24240,13 +24240,13 @@
         <v>47</v>
       </c>
       <c r="K70" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L70" s="2">
         <v>13</v>
       </c>
       <c r="M70" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N70" s="1">
         <v>36</v>
@@ -24336,7 +24336,7 @@
         <v>11</v>
       </c>
       <c r="AQ70" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR70" s="2">
         <v>3</v>
@@ -24468,7 +24468,7 @@
         <v>15</v>
       </c>
       <c r="CI70" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CJ70" s="2">
         <v>5</v>
@@ -24504,13 +24504,13 @@
         <v>262</v>
       </c>
       <c r="CU70" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="CV70" s="1">
         <v>38</v>
       </c>
       <c r="CW70" s="1">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:101">
@@ -24826,7 +24826,7 @@
         <v>11912</v>
       </c>
       <c r="C72" s="2">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="D72" s="2">
         <v>216</v>
@@ -24853,10 +24853,10 @@
         <v>47</v>
       </c>
       <c r="L72" s="2">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="M72" s="2">
-        <v>312</v>
+        <v>228</v>
       </c>
       <c r="N72" s="1">
         <v>74375</v>
@@ -24937,7 +24937,7 @@
         <v>43</v>
       </c>
       <c r="AN72" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO72" s="2">
         <v>390</v>
@@ -25084,7 +25084,7 @@
         <v>103</v>
       </c>
       <c r="CK72" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="CL72" s="1">
         <v>0</v>
@@ -25114,13 +25114,13 @@
         <v>162649</v>
       </c>
       <c r="CU72" s="1">
-        <v>352</v>
+        <v>272</v>
       </c>
       <c r="CV72" s="1">
-        <v>3180</v>
+        <v>3154</v>
       </c>
       <c r="CW72" s="1">
-        <v>5659</v>
+        <v>5574</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -25254,7 +25254,7 @@
         <v>0</v>
       </c>
       <c r="AR73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS73" s="2">
         <v>2</v>
@@ -25386,7 +25386,7 @@
         <v>3</v>
       </c>
       <c r="CJ73" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="CK73" s="2">
         <v>27</v>
@@ -25422,7 +25422,7 @@
         <v>5</v>
       </c>
       <c r="CV73" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="CW73" s="1">
         <v>48</v>
@@ -25466,7 +25466,7 @@
         <v>258</v>
       </c>
       <c r="M74" s="2">
-        <v>410</v>
+        <v>354</v>
       </c>
       <c r="N74" s="1">
         <v>111845</v>
@@ -25634,7 +25634,7 @@
         <v>11</v>
       </c>
       <c r="BQ74" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BR74" s="1">
         <v>3</v>
@@ -25730,7 +25730,7 @@
         <v>1895</v>
       </c>
       <c r="CW74" s="1">
-        <v>5825</v>
+        <v>5767</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25771,7 +25771,7 @@
         <v>116</v>
       </c>
       <c r="M75" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N75" s="1">
         <v>329987</v>
@@ -25849,7 +25849,7 @@
         <v>1747</v>
       </c>
       <c r="AM75" s="2">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="AN75" s="2">
         <v>37</v>
@@ -25993,13 +25993,13 @@
         <v>6170</v>
       </c>
       <c r="CI75" s="2">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="CJ75" s="2">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="CK75" s="2">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="CL75" s="1">
         <v>100</v>
@@ -26029,13 +26029,13 @@
         <v>359302</v>
       </c>
       <c r="CU75" s="1">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="CV75" s="1">
-        <v>6241</v>
+        <v>6209</v>
       </c>
       <c r="CW75" s="1">
-        <v>13154</v>
+        <v>13137</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -26055,16 +26055,16 @@
         <v>0</v>
       </c>
       <c r="F76" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I76" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J76" s="1">
         <v>0</v>
@@ -26331,16 +26331,16 @@
         <v>0</v>
       </c>
       <c r="CT76" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CU76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV76" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CW76" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:101">
@@ -27066,16 +27066,16 @@
         <v>0</v>
       </c>
       <c r="AL79" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AM79" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN79" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO79" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP79" s="1">
         <v>51</v>
@@ -27087,7 +27087,7 @@
         <v>0</v>
       </c>
       <c r="AS79" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT79" s="1">
         <v>5</v>
@@ -27210,16 +27210,16 @@
         <v>0</v>
       </c>
       <c r="CH79" s="1">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="CI79" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CJ79" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="CK79" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CL79" s="1">
         <v>28</v>
@@ -27246,16 +27246,16 @@
         <v>0</v>
       </c>
       <c r="CT79" s="1">
-        <v>5758</v>
+        <v>5762</v>
       </c>
       <c r="CU79" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="CV79" s="1">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="CW79" s="1">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="80" spans="1:101">
@@ -27592,16 +27592,16 @@
         <v>0</v>
       </c>
       <c r="J81" s="1">
-        <v>7691</v>
+        <v>7757</v>
       </c>
       <c r="K81" s="2">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="L81" s="2">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="M81" s="2">
-        <v>445</v>
+        <v>511</v>
       </c>
       <c r="N81" s="1">
         <v>38407</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="AN81" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AO81" s="2">
         <v>7</v>
@@ -27826,7 +27826,7 @@
         <v>28</v>
       </c>
       <c r="CJ81" s="2">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="CK81" s="2">
         <v>198</v>
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="CT81" s="1">
-        <v>385047</v>
+        <v>385113</v>
       </c>
       <c r="CU81" s="1">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="CV81" s="1">
-        <v>943</v>
+        <v>989</v>
       </c>
       <c r="CW81" s="1">
-        <v>6064</v>
+        <v>6130</v>
       </c>
     </row>
     <row r="82" spans="1:101">
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="2">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F83" s="1">
         <v>61</v>
@@ -28199,7 +28199,7 @@
         <v>3</v>
       </c>
       <c r="I83" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J83" s="1">
         <v>0</v>
@@ -28475,7 +28475,7 @@
         <v>40</v>
       </c>
       <c r="CW83" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:101">
@@ -28501,7 +28501,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" s="2">
         <v>3</v>
@@ -28594,7 +28594,7 @@
         <v>196</v>
       </c>
       <c r="AM84" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN84" s="2">
         <v>2</v>
@@ -28738,10 +28738,10 @@
         <v>598</v>
       </c>
       <c r="CI84" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CJ84" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="CK84" s="2">
         <v>20</v>
@@ -28774,10 +28774,10 @@
         <v>2668</v>
       </c>
       <c r="CU84" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="CV84" s="1">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="CW84" s="1">
         <v>91</v>
@@ -29102,7 +29102,7 @@
         <v>3</v>
       </c>
       <c r="E86" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F86" s="1">
         <v>12</v>
@@ -29126,7 +29126,7 @@
         <v>20</v>
       </c>
       <c r="M86" s="2">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N86" s="1">
         <v>1011</v>
@@ -29222,7 +29222,7 @@
         <v>3</v>
       </c>
       <c r="AS86" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT86" s="1">
         <v>0</v>
@@ -29354,7 +29354,7 @@
         <v>11</v>
       </c>
       <c r="CK86" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="CL86" s="1">
         <v>21</v>
@@ -29390,7 +29390,7 @@
         <v>69</v>
       </c>
       <c r="CW86" s="1">
-        <v>249</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:101">
@@ -29653,7 +29653,7 @@
         <v>58</v>
       </c>
       <c r="CI87" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ87" s="2">
         <v>3</v>
@@ -29689,7 +29689,7 @@
         <v>1636</v>
       </c>
       <c r="CU87" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CV87" s="1">
         <v>22</v>
@@ -30137,7 +30137,7 @@
         <v>1</v>
       </c>
       <c r="AS89" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT89" s="1">
         <v>0</v>
@@ -30269,7 +30269,7 @@
         <v>40</v>
       </c>
       <c r="CK89" s="2">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="CL89" s="1">
         <v>5</v>
@@ -30305,7 +30305,7 @@
         <v>407</v>
       </c>
       <c r="CW89" s="1">
-        <v>834</v>
+        <v>817</v>
       </c>
     </row>
     <row r="90" spans="1:101">
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="P91" s="2">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="Q91" s="2">
         <v>40</v>
@@ -30672,7 +30672,7 @@
         <v>0</v>
       </c>
       <c r="T91" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U91" s="2">
         <v>2</v>
@@ -30684,7 +30684,7 @@
         <v>0</v>
       </c>
       <c r="X91" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y91" s="2">
         <v>1</v>
@@ -30744,7 +30744,7 @@
         <v>1</v>
       </c>
       <c r="AR91" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS91" s="2">
         <v>5</v>
@@ -30888,7 +30888,7 @@
         <v>0</v>
       </c>
       <c r="CN91" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO91" s="2">
         <v>3</v>
@@ -30912,7 +30912,7 @@
         <v>5</v>
       </c>
       <c r="CV91" s="1">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="CW91" s="1">
         <v>62</v>
@@ -31958,148 +31958,148 @@
         <v>1</v>
       </c>
       <c r="AP95" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AQ95" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR95" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS95" s="2">
+        <v>4</v>
+      </c>
+      <c r="AT95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB95" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF95" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ95" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN95" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR95" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV95" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ95" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA95" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB95" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC95" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD95" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE95" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF95" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG95" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH95" s="1">
+        <v>32</v>
+      </c>
+      <c r="CI95" s="2">
+        <v>1</v>
+      </c>
+      <c r="CJ95" s="2">
         <v>3</v>
       </c>
-      <c r="AT95" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU95" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV95" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW95" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX95" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY95" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ95" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA95" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB95" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC95" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD95" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE95" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF95" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG95" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH95" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI95" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ95" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK95" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL95" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM95" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN95" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO95" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP95" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ95" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR95" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS95" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT95" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU95" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV95" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW95" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX95" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY95" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ95" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA95" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB95" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC95" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD95" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE95" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF95" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG95" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH95" s="1">
-        <v>31</v>
-      </c>
-      <c r="CI95" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ95" s="2">
-        <v>2</v>
-      </c>
       <c r="CK95" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CL95" s="1">
         <v>31</v>
@@ -32126,16 +32126,16 @@
         <v>0</v>
       </c>
       <c r="CT95" s="1">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CU95" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CV95" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CW95" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:101">
@@ -33396,7 +33396,7 @@
         <v>187</v>
       </c>
       <c r="M100" s="2">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="N100" s="1">
         <v>13618</v>
@@ -33474,7 +33474,7 @@
         <v>226</v>
       </c>
       <c r="AM100" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AN100" s="2">
         <v>12</v>
@@ -33618,7 +33618,7 @@
         <v>1622</v>
       </c>
       <c r="CI100" s="2">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="CJ100" s="2">
         <v>31</v>
@@ -33654,13 +33654,13 @@
         <v>39563</v>
       </c>
       <c r="CU100" s="1">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="CV100" s="1">
         <v>937</v>
       </c>
       <c r="CW100" s="1">
-        <v>2136</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="101" spans="1:101">
@@ -34583,16 +34583,16 @@
         <v>203</v>
       </c>
       <c r="B104" s="1">
-        <v>8563</v>
+        <v>8602</v>
       </c>
       <c r="C104" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="D104" s="2">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="E104" s="2">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="F104" s="1">
         <v>0</v>
@@ -34628,7 +34628,7 @@
         <v>1243</v>
       </c>
       <c r="Q104" s="2">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="R104" s="1">
         <v>0</v>
@@ -34871,16 +34871,16 @@
         <v>0</v>
       </c>
       <c r="CT104" s="1">
-        <v>87437</v>
+        <v>87476</v>
       </c>
       <c r="CU104" s="1">
-        <v>1156</v>
+        <v>1195</v>
       </c>
       <c r="CV104" s="1">
-        <v>2020</v>
+        <v>2059</v>
       </c>
       <c r="CW104" s="1">
-        <v>3636</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="105" spans="1:101">
@@ -35836,7 +35836,7 @@
         <v>181</v>
       </c>
       <c r="M108" s="2">
-        <v>348</v>
+        <v>285</v>
       </c>
       <c r="N108" s="1">
         <v>1175</v>
@@ -35878,7 +35878,7 @@
         <v>115</v>
       </c>
       <c r="AA108" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB108" s="2">
         <v>4</v>
@@ -36094,13 +36094,13 @@
         <v>11467</v>
       </c>
       <c r="CU108" s="1">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="CV108" s="1">
         <v>347</v>
       </c>
       <c r="CW108" s="1">
-        <v>1001</v>
+        <v>938</v>
       </c>
     </row>
     <row r="109" spans="1:101">
@@ -36222,10 +36222,10 @@
         <v>2</v>
       </c>
       <c r="AN109" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO109" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AP109" s="1">
         <v>41</v>
@@ -36366,7 +36366,7 @@
         <v>16</v>
       </c>
       <c r="CJ109" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="CK109" s="2">
         <v>52</v>
@@ -36402,10 +36402,10 @@
         <v>19</v>
       </c>
       <c r="CV109" s="1">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="CW109" s="1">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110" spans="1:101">
@@ -36413,16 +36413,16 @@
         <v>209</v>
       </c>
       <c r="B110" s="1">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="C110" s="2">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D110" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E110" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F110" s="1">
         <v>0</v>
@@ -36701,16 +36701,16 @@
         <v>0</v>
       </c>
       <c r="CT110" s="1">
-        <v>7024</v>
+        <v>7034</v>
       </c>
       <c r="CU110" s="1">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="CV110" s="1">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="CW110" s="1">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="111" spans="1:101">
@@ -37038,7 +37038,7 @@
         <v>54</v>
       </c>
       <c r="G112" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112" s="2">
         <v>2</v>
@@ -37314,7 +37314,7 @@
         <v>160</v>
       </c>
       <c r="CU112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV112" s="1">
         <v>2</v>
@@ -37666,7 +37666,7 @@
         <v>121</v>
       </c>
       <c r="M114" s="2">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="N114" s="1">
         <v>4122</v>
@@ -37750,7 +37750,7 @@
         <v>5</v>
       </c>
       <c r="AO114" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP114" s="1">
         <v>26</v>
@@ -37894,7 +37894,7 @@
         <v>15</v>
       </c>
       <c r="CK114" s="2">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="CL114" s="1">
         <v>11</v>
@@ -37930,7 +37930,7 @@
         <v>323</v>
       </c>
       <c r="CW114" s="1">
-        <v>1300</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="115" spans="1:101">
@@ -37941,7 +37941,7 @@
         <v>7590</v>
       </c>
       <c r="C115" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D115" s="2">
         <v>301</v>
@@ -38229,7 +38229,7 @@
         <v>11091</v>
       </c>
       <c r="CU115" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="CV115" s="1">
         <v>379</v>
@@ -41401,16 +41401,16 @@
         <v>0</v>
       </c>
       <c r="AL126" s="1">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AM126" s="2">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="AN126" s="2">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="AO126" s="2">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="AP126" s="1">
         <v>0</v>
@@ -41545,16 +41545,16 @@
         <v>0</v>
       </c>
       <c r="CH126" s="1">
-        <v>111</v>
+        <v>231</v>
       </c>
       <c r="CI126" s="2">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="CJ126" s="2">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="CK126" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="CL126" s="1">
         <v>0</v>
@@ -41581,16 +41581,16 @@
         <v>0</v>
       </c>
       <c r="CT126" s="1">
-        <v>1226</v>
+        <v>1365</v>
       </c>
       <c r="CU126" s="1">
-        <v>87</v>
+        <v>226</v>
       </c>
       <c r="CV126" s="1">
-        <v>124</v>
+        <v>263</v>
       </c>
       <c r="CW126" s="1">
-        <v>190</v>
+        <v>310</v>
       </c>
     </row>
     <row r="127" spans="1:101">
@@ -42220,16 +42220,16 @@
         <v>1</v>
       </c>
       <c r="F129" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G129" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H129" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I129" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J129" s="1">
         <v>0</v>
@@ -42322,7 +42322,7 @@
         <v>2</v>
       </c>
       <c r="AN129" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AO129" s="2">
         <v>27</v>
@@ -42466,7 +42466,7 @@
         <v>2</v>
       </c>
       <c r="CJ129" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="CK129" s="2">
         <v>33</v>
@@ -42496,16 +42496,16 @@
         <v>0</v>
       </c>
       <c r="CT129" s="1">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="CU129" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CV129" s="1">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="CW129" s="1">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="130" spans="1:101">
@@ -43539,10 +43539,10 @@
         <v>1292</v>
       </c>
       <c r="AM133" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN133" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AO133" s="2">
         <v>15</v>
@@ -43680,16 +43680,16 @@
         <v>0</v>
       </c>
       <c r="CH133" s="1">
-        <v>2601</v>
+        <v>2608</v>
       </c>
       <c r="CI133" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CJ133" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="CK133" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="CL133" s="1">
         <v>9</v>
@@ -43716,16 +43716,16 @@
         <v>0</v>
       </c>
       <c r="CT133" s="1">
-        <v>123120</v>
+        <v>123127</v>
       </c>
       <c r="CU133" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="CV133" s="1">
-        <v>2380</v>
+        <v>2366</v>
       </c>
       <c r="CW133" s="1">
-        <v>5129</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="134" spans="1:101">
@@ -43820,7 +43820,7 @@
         <v>10270</v>
       </c>
       <c r="AE134" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF134" s="2">
         <v>166</v>
@@ -43865,13 +43865,13 @@
         <v>0</v>
       </c>
       <c r="AT134" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU134" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV134" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW134" s="2">
         <v>1</v>
@@ -44021,13 +44021,13 @@
         <v>0</v>
       </c>
       <c r="CT134" s="1">
-        <v>57250</v>
+        <v>57251</v>
       </c>
       <c r="CU134" s="1">
         <v>159</v>
       </c>
       <c r="CV134" s="1">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="CW134" s="1">
         <v>2666</v>
@@ -44299,7 +44299,7 @@
         <v>7</v>
       </c>
       <c r="CK135" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="CL135" s="1">
         <v>13</v>
@@ -44335,7 +44335,7 @@
         <v>4235</v>
       </c>
       <c r="CW135" s="1">
-        <v>5552</v>
+        <v>5551</v>
       </c>
     </row>
     <row r="136" spans="1:101">
@@ -44675,7 +44675,7 @@
         <v>1059</v>
       </c>
       <c r="K137" s="2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L137" s="2">
         <v>46</v>
@@ -44939,7 +44939,7 @@
         <v>3880</v>
       </c>
       <c r="CU137" s="1">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="CV137" s="1">
         <v>96</v>
@@ -45830,7 +45830,7 @@
         <v>66</v>
       </c>
       <c r="CM140" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CN140" s="2">
         <v>3</v>
@@ -45854,7 +45854,7 @@
         <v>517</v>
       </c>
       <c r="CU140" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CV140" s="1">
         <v>14</v>
@@ -45886,7 +45886,7 @@
         <v>0</v>
       </c>
       <c r="H141" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" s="2">
         <v>4</v>
@@ -45898,7 +45898,7 @@
         <v>2</v>
       </c>
       <c r="L141" s="2">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="M141" s="2">
         <v>26</v>
@@ -46000,16 +46000,16 @@
         <v>3</v>
       </c>
       <c r="AT141" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU141" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV141" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW141" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX141" s="1">
         <v>4</v>
@@ -46156,16 +46156,16 @@
         <v>0</v>
       </c>
       <c r="CT141" s="1">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="CU141" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CV141" s="1">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="CW141" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="142" spans="1:101">
@@ -46487,7 +46487,7 @@
         <v>1</v>
       </c>
       <c r="E143" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F143" s="1">
         <v>12</v>
@@ -46775,7 +46775,7 @@
         <v>18</v>
       </c>
       <c r="CW143" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144" spans="1:101">
@@ -47516,7 +47516,7 @@
         <v>33</v>
       </c>
       <c r="AQ146" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR146" s="2">
         <v>2</v>
@@ -47660,7 +47660,7 @@
         <v>20</v>
       </c>
       <c r="CM146" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN146" s="2">
         <v>1</v>
@@ -47684,7 +47684,7 @@
         <v>147</v>
       </c>
       <c r="CU146" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CV146" s="1">
         <v>9</v>
@@ -47704,7 +47704,7 @@
         <v>0</v>
       </c>
       <c r="D147" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E147" s="2">
         <v>4</v>
@@ -47992,7 +47992,7 @@
         <v>28</v>
       </c>
       <c r="CV147" s="1">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="CW147" s="1">
         <v>294</v>
@@ -48742,7 +48742,7 @@
         <v>0</v>
       </c>
       <c r="AS150" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT150" s="1">
         <v>0</v>
@@ -48874,7 +48874,7 @@
         <v>9</v>
       </c>
       <c r="CK150" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="CL150" s="1">
         <v>24</v>
@@ -48910,7 +48910,7 @@
         <v>21</v>
       </c>
       <c r="CW150" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="151" spans="1:101">
@@ -48942,16 +48942,16 @@
         <v>3</v>
       </c>
       <c r="J151" s="1">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="K151" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="L151" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M151" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="N151" s="1">
         <v>130</v>
@@ -49044,7 +49044,7 @@
         <v>2</v>
       </c>
       <c r="AR151" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS151" s="2">
         <v>5</v>
@@ -49176,7 +49176,7 @@
         <v>3</v>
       </c>
       <c r="CJ151" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="CK151" s="2">
         <v>20</v>
@@ -49206,16 +49206,16 @@
         <v>0</v>
       </c>
       <c r="CT151" s="1">
-        <v>2538</v>
+        <v>2544</v>
       </c>
       <c r="CU151" s="1">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="CV151" s="1">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="CW151" s="1">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
     <row r="152" spans="1:101">
@@ -50449,7 +50449,7 @@
         <v>39</v>
       </c>
       <c r="D156" s="2">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E156" s="2">
         <v>121</v>
@@ -50470,10 +50470,10 @@
         <v>2945</v>
       </c>
       <c r="K156" s="2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="L156" s="2">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="M156" s="2">
         <v>142</v>
@@ -50734,10 +50734,10 @@
         <v>154049</v>
       </c>
       <c r="CU156" s="1">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="CV156" s="1">
-        <v>6120</v>
+        <v>6071</v>
       </c>
       <c r="CW156" s="1">
         <v>8486</v>
@@ -50757,7 +50757,7 @@
         <v>164</v>
       </c>
       <c r="E157" s="2">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="F157" s="1">
         <v>2</v>
@@ -50781,7 +50781,7 @@
         <v>303</v>
       </c>
       <c r="M157" s="2">
-        <v>566</v>
+        <v>452</v>
       </c>
       <c r="N157" s="1">
         <v>2747</v>
@@ -51045,7 +51045,7 @@
         <v>3731</v>
       </c>
       <c r="CW157" s="1">
-        <v>4391</v>
+        <v>4229</v>
       </c>
     </row>
     <row r="158" spans="1:101">
@@ -51774,7 +51774,7 @@
         <v>146</v>
       </c>
       <c r="AM160" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AN160" s="2">
         <v>10</v>
@@ -51918,7 +51918,7 @@
         <v>744</v>
       </c>
       <c r="CI160" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="CJ160" s="2">
         <v>19</v>
@@ -51954,7 +51954,7 @@
         <v>20200</v>
       </c>
       <c r="CU160" s="1">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="CV160" s="1">
         <v>351</v>
@@ -53227,7 +53227,7 @@
         <v>2000</v>
       </c>
       <c r="O165" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P165" s="2">
         <v>1</v>
@@ -53308,16 +53308,16 @@
         <v>0</v>
       </c>
       <c r="AP165" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ165" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR165" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS165" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT165" s="1">
         <v>0</v>
@@ -53428,16 +53428,16 @@
         <v>0</v>
       </c>
       <c r="CD165" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CE165" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF165" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG165" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH165" s="1">
         <v>176</v>
@@ -53452,17 +53452,17 @@
         <v>5</v>
       </c>
       <c r="CL165" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="CM165" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN165" s="2">
+        <v>1</v>
+      </c>
+      <c r="CO165" s="2">
         <v>2</v>
       </c>
-      <c r="CO165" s="2">
-        <v>3</v>
-      </c>
       <c r="CP165" s="1">
         <v>0</v>
       </c>
@@ -53476,16 +53476,16 @@
         <v>0</v>
       </c>
       <c r="CT165" s="1">
-        <v>4539</v>
+        <v>4540</v>
       </c>
       <c r="CU165" s="1">
         <v>36</v>
       </c>
       <c r="CV165" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="CW165" s="1">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="166" spans="1:101">
@@ -53825,10 +53825,10 @@
         <v>1045</v>
       </c>
       <c r="K167" s="2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L167" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="M167" s="2">
         <v>72</v>
@@ -54089,10 +54089,10 @@
         <v>5011</v>
       </c>
       <c r="CU167" s="1">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="CV167" s="1">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="CW167" s="1">
         <v>374</v>
@@ -54438,7 +54438,7 @@
         <v>68</v>
       </c>
       <c r="L169" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M169" s="2">
         <v>382</v>
@@ -54702,7 +54702,7 @@
         <v>137</v>
       </c>
       <c r="CV169" s="1">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="CW169" s="1">
         <v>1241</v>
@@ -55640,16 +55640,16 @@
         <v>0</v>
       </c>
       <c r="F173" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G173" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I173" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J173" s="1">
         <v>0</v>
@@ -55748,16 +55748,16 @@
         <v>0</v>
       </c>
       <c r="AP173" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AQ173" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR173" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS173" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT173" s="1">
         <v>0</v>
@@ -55892,40 +55892,40 @@
         <v>0</v>
       </c>
       <c r="CL173" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="CM173" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN173" s="2">
+        <v>4</v>
+      </c>
+      <c r="CO173" s="2">
+        <v>8</v>
+      </c>
+      <c r="CP173" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ173" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR173" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS173" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT173" s="1">
+        <v>425</v>
+      </c>
+      <c r="CU173" s="1">
         <v>3</v>
       </c>
-      <c r="CO173" s="2">
-        <v>7</v>
-      </c>
-      <c r="CP173" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ173" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR173" s="2">
-        <v>0</v>
-      </c>
-      <c r="CS173" s="2">
-        <v>0</v>
-      </c>
-      <c r="CT173" s="1">
-        <v>422</v>
-      </c>
-      <c r="CU173" s="1">
-        <v>0</v>
-      </c>
       <c r="CV173" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="CW173" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="174" spans="1:101">
@@ -57713,7 +57713,7 @@
         <v>1832</v>
       </c>
       <c r="CI179" s="2">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="CJ179" s="2">
         <v>50</v>
@@ -57749,7 +57749,7 @@
         <v>45683</v>
       </c>
       <c r="CU179" s="1">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="CV179" s="1">
         <v>1280</v>
@@ -58992,7 +58992,7 @@
         <v>0</v>
       </c>
       <c r="E184" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F184" s="1">
         <v>63</v>
@@ -59280,7 +59280,7 @@
         <v>19</v>
       </c>
       <c r="CW184" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="185" spans="1:101">
@@ -60933,16 +60933,16 @@
         <v>2</v>
       </c>
       <c r="AP190" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AQ190" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR190" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS190" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT190" s="1">
         <v>0</v>
@@ -61065,16 +61065,16 @@
         <v>0</v>
       </c>
       <c r="CH190" s="1">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="CI190" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CJ190" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CK190" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CL190" s="1">
         <v>37</v>
@@ -61101,16 +61101,16 @@
         <v>0</v>
       </c>
       <c r="CT190" s="1">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="CU190" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CV190" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="CW190" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="191" spans="1:101">
@@ -61456,7 +61456,7 @@
         <v>47</v>
       </c>
       <c r="M192" s="2">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N192" s="1">
         <v>27001</v>
@@ -61468,7 +61468,7 @@
         <v>452</v>
       </c>
       <c r="Q192" s="2">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="R192" s="1">
         <v>0</v>
@@ -61720,7 +61720,7 @@
         <v>566</v>
       </c>
       <c r="CW192" s="1">
-        <v>1544</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="193" spans="1:101">
@@ -61989,7 +61989,7 @@
         <v>28</v>
       </c>
       <c r="CK193" s="2">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="CL193" s="1">
         <v>9</v>
@@ -62025,7 +62025,7 @@
         <v>2970</v>
       </c>
       <c r="CW193" s="1">
-        <v>4958</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="194" spans="1:101">
@@ -62294,7 +62294,7 @@
         <v>5</v>
       </c>
       <c r="CK194" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CL194" s="1">
         <v>2</v>
@@ -62330,7 +62330,7 @@
         <v>108</v>
       </c>
       <c r="CW194" s="1">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="195" spans="1:101">
@@ -63262,7 +63262,7 @@
         <v>85</v>
       </c>
       <c r="E198" s="2">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="F198" s="1">
         <v>0</v>
@@ -63286,7 +63286,7 @@
         <v>51</v>
       </c>
       <c r="M198" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="N198" s="1">
         <v>7841</v>
@@ -63364,7 +63364,7 @@
         <v>367</v>
       </c>
       <c r="AM198" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AN198" s="2">
         <v>11</v>
@@ -63508,7 +63508,7 @@
         <v>881</v>
       </c>
       <c r="CI198" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="CJ198" s="2">
         <v>27</v>
@@ -63544,13 +63544,13 @@
         <v>15298</v>
       </c>
       <c r="CU198" s="1">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="CV198" s="1">
         <v>262</v>
       </c>
       <c r="CW198" s="1">
-        <v>542</v>
+        <v>491</v>
       </c>
     </row>
     <row r="199" spans="1:101">
@@ -63591,7 +63591,7 @@
         <v>111</v>
       </c>
       <c r="M199" s="2">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="N199" s="1">
         <v>21862</v>
@@ -63600,7 +63600,7 @@
         <v>0</v>
       </c>
       <c r="P199" s="2">
-        <v>-96</v>
+        <v>252</v>
       </c>
       <c r="Q199" s="2">
         <v>-618</v>
@@ -63852,10 +63852,10 @@
         <v>104</v>
       </c>
       <c r="CV199" s="1">
-        <v>1186</v>
+        <v>1534</v>
       </c>
       <c r="CW199" s="1">
-        <v>3995</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="200" spans="1:101">
@@ -65083,16 +65083,16 @@
         <v>303</v>
       </c>
       <c r="B204" s="1">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C204" s="2">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D204" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E204" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F204" s="1">
         <v>8</v>
@@ -65212,7 +65212,7 @@
         <v>1</v>
       </c>
       <c r="AS204" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT204" s="1">
         <v>0</v>
@@ -65356,7 +65356,7 @@
         <v>0</v>
       </c>
       <c r="CO204" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CP204" s="1">
         <v>0</v>
@@ -65371,13 +65371,13 @@
         <v>0</v>
       </c>
       <c r="CT204" s="1">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="CU204" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CV204" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CW204" s="1">
         <v>35</v>
@@ -65397,7 +65397,7 @@
         <v>24</v>
       </c>
       <c r="E205" s="2">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F205" s="1">
         <v>1</v>
@@ -65421,7 +65421,7 @@
         <v>39</v>
       </c>
       <c r="M205" s="2">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="N205" s="1">
         <v>4918</v>
@@ -65517,7 +65517,7 @@
         <v>3</v>
       </c>
       <c r="AS205" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT205" s="1">
         <v>0</v>
@@ -65649,7 +65649,7 @@
         <v>26</v>
       </c>
       <c r="CK205" s="2">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="CL205" s="1">
         <v>12</v>
@@ -65685,7 +65685,7 @@
         <v>276</v>
       </c>
       <c r="CW205" s="1">
-        <v>592</v>
+        <v>555</v>
       </c>
     </row>
     <row r="206" spans="1:101">
@@ -66007,7 +66007,7 @@
         <v>13</v>
       </c>
       <c r="E207" s="2">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F207" s="1">
         <v>0</v>
@@ -66106,16 +66106,16 @@
         <v>0</v>
       </c>
       <c r="AL207" s="1">
+        <v>9</v>
+      </c>
+      <c r="AM207" s="2">
+        <v>4</v>
+      </c>
+      <c r="AN207" s="2">
         <v>5</v>
       </c>
-      <c r="AM207" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN207" s="2">
-        <v>1</v>
-      </c>
       <c r="AO207" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AP207" s="1">
         <v>0</v>
@@ -66286,16 +66286,16 @@
         <v>0</v>
       </c>
       <c r="CT207" s="1">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="CU207" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="CV207" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="CW207" s="1">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="208" spans="1:101">
@@ -66629,13 +66629,13 @@
         <v>3</v>
       </c>
       <c r="I209" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J209" s="1">
         <v>1127</v>
       </c>
       <c r="K209" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L209" s="2">
         <v>29</v>
@@ -66899,13 +66899,13 @@
         <v>5389</v>
       </c>
       <c r="CU209" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="CV209" s="1">
         <v>89</v>
       </c>
       <c r="CW209" s="1">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="210" spans="1:101">
@@ -69845,7 +69845,7 @@
         <v>614</v>
       </c>
       <c r="D100">
-        <v>2961</v>
+        <v>2962</v>
       </c>
       <c r="E100" t="s">
         <v>712</v>
@@ -71737,7 +71737,7 @@
         <v>696</v>
       </c>
       <c r="D194">
-        <v>9969</v>
+        <v>9970</v>
       </c>
       <c r="E194" t="s">
         <v>712</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3808,7 +3808,7 @@
         <v>8</v>
       </c>
       <c r="L3" s="2">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="M3" s="2">
         <v>219</v>
@@ -4072,7 +4072,7 @@
         <v>30</v>
       </c>
       <c r="CV3" s="1">
-        <v>556</v>
+        <v>518</v>
       </c>
       <c r="CW3" s="1">
         <v>1332</v>
@@ -5465,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE8" s="2">
         <v>3</v>
@@ -5597,7 +5597,7 @@
         <v>4</v>
       </c>
       <c r="CV8" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CW8" s="1">
         <v>107</v>
@@ -7385,16 +7385,16 @@
         <v>0</v>
       </c>
       <c r="CH14" s="1">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="CI14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CJ14" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CK14" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CL14" s="1">
         <v>2</v>
@@ -7421,16 +7421,16 @@
         <v>0</v>
       </c>
       <c r="CT14" s="1">
-        <v>3140</v>
+        <v>3142</v>
       </c>
       <c r="CU14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CV14" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="CW14" s="1">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:101">
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="AR19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS19" s="2">
         <v>4</v>
@@ -8916,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="CJ19" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CK19" s="2">
         <v>29</v>
@@ -8952,7 +8952,7 @@
         <v>48</v>
       </c>
       <c r="CV19" s="1">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="CW19" s="1">
         <v>858</v>
@@ -9693,16 +9693,16 @@
         <v>0</v>
       </c>
       <c r="AP22" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS22" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT22" s="1">
         <v>0</v>
@@ -9837,16 +9837,16 @@
         <v>7</v>
       </c>
       <c r="CL22" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CM22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CN22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CO22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CP22" s="1">
         <v>0</v>
@@ -9861,16 +9861,16 @@
         <v>0</v>
       </c>
       <c r="CT22" s="1">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="CU22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CV22" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="CW22" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:101">
@@ -11218,16 +11218,16 @@
         <v>0</v>
       </c>
       <c r="AP27" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR27" s="2">
         <v>5</v>
       </c>
       <c r="AS27" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT27" s="1">
         <v>1</v>
@@ -11350,16 +11350,16 @@
         <v>0</v>
       </c>
       <c r="CH27" s="1">
-        <v>2955</v>
+        <v>2956</v>
       </c>
       <c r="CI27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ27" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="CK27" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CL27" s="1">
         <v>20</v>
@@ -11386,16 +11386,16 @@
         <v>0</v>
       </c>
       <c r="CT27" s="1">
-        <v>22865</v>
+        <v>22867</v>
       </c>
       <c r="CU27" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CV27" s="1">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="CW27" s="1">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="28" spans="1:101">
@@ -12121,16 +12121,16 @@
         <v>0</v>
       </c>
       <c r="AL30" s="1">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM30" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN30" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO30" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP30" s="1">
         <v>18</v>
@@ -12229,16 +12229,16 @@
         <v>0</v>
       </c>
       <c r="BV30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BW30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ30" s="1">
         <v>2</v>
@@ -12265,16 +12265,16 @@
         <v>0</v>
       </c>
       <c r="CH30" s="1">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="CI30" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CJ30" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CK30" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CL30" s="1">
         <v>19</v>
@@ -12301,16 +12301,16 @@
         <v>0</v>
       </c>
       <c r="CT30" s="1">
-        <v>5312</v>
+        <v>5315</v>
       </c>
       <c r="CU30" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="CV30" s="1">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="CW30" s="1">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:101">
@@ -12324,7 +12324,7 @@
         <v>20</v>
       </c>
       <c r="D31" s="2">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E31" s="2">
         <v>92</v>
@@ -12612,7 +12612,7 @@
         <v>39</v>
       </c>
       <c r="CV31" s="1">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="CW31" s="1">
         <v>528</v>
@@ -12623,28 +12623,28 @@
         <v>131</v>
       </c>
       <c r="B32" s="1">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D32" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E32" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F32" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -12911,16 +12911,16 @@
         <v>0</v>
       </c>
       <c r="CT32" s="1">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="CU32" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CV32" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CW32" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:101">
@@ -16098,16 +16098,16 @@
         <v>1</v>
       </c>
       <c r="AP43" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AQ43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR43" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS43" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT43" s="1">
         <v>30</v>
@@ -16230,16 +16230,16 @@
         <v>0</v>
       </c>
       <c r="CH43" s="1">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="CI43" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="CJ43" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="CK43" s="2">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="CL43" s="1">
         <v>32</v>
@@ -16266,16 +16266,16 @@
         <v>0</v>
       </c>
       <c r="CT43" s="1">
-        <v>46337</v>
+        <v>46344</v>
       </c>
       <c r="CU43" s="1">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="CV43" s="1">
-        <v>1809</v>
+        <v>1816</v>
       </c>
       <c r="CW43" s="1">
-        <v>2397</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="44" spans="1:101">
@@ -18837,7 +18837,7 @@
         <v>0</v>
       </c>
       <c r="AN52" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO52" s="2">
         <v>7</v>
@@ -18981,7 +18981,7 @@
         <v>0</v>
       </c>
       <c r="CJ52" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="CK52" s="2">
         <v>20</v>
@@ -19017,7 +19017,7 @@
         <v>2</v>
       </c>
       <c r="CV52" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="CW52" s="1">
         <v>32</v>
@@ -20368,16 +20368,16 @@
         <v>0</v>
       </c>
       <c r="AP57" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AQ57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR57" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS57" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT57" s="1">
         <v>0</v>
@@ -20512,16 +20512,16 @@
         <v>0</v>
       </c>
       <c r="CL57" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="CM57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN57" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CO57" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CP57" s="1">
         <v>0</v>
@@ -20536,16 +20536,16 @@
         <v>0</v>
       </c>
       <c r="CT57" s="1">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="CU57" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CV57" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CW57" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:101">
@@ -21857,16 +21857,16 @@
         <v>6</v>
       </c>
       <c r="AD62" s="1">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="AE62" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AF62" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AG62" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AH62" s="1">
         <v>0</v>
@@ -21977,16 +21977,16 @@
         <v>0</v>
       </c>
       <c r="BR62" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU62" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BV62" s="1">
         <v>0</v>
@@ -22061,16 +22061,16 @@
         <v>0</v>
       </c>
       <c r="CT62" s="1">
-        <v>7154</v>
+        <v>7158</v>
       </c>
       <c r="CU62" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="CV62" s="1">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="CW62" s="1">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="63" spans="1:101">
@@ -22413,7 +22413,7 @@
         <v>12</v>
       </c>
       <c r="L64" s="2">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M64" s="2">
         <v>92</v>
@@ -22677,7 +22677,7 @@
         <v>18</v>
       </c>
       <c r="CV64" s="1">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="CW64" s="1">
         <v>128</v>
@@ -22999,7 +22999,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" s="2">
         <v>3</v>
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M66" s="2">
         <v>12</v>
@@ -23287,7 +23287,7 @@
         <v>3</v>
       </c>
       <c r="CV66" s="1">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="CW66" s="1">
         <v>100</v>
@@ -24237,16 +24237,16 @@
         <v>4</v>
       </c>
       <c r="J70" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K70" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L70" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M70" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N70" s="1">
         <v>36</v>
@@ -24501,16 +24501,16 @@
         <v>0</v>
       </c>
       <c r="CT70" s="1">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CU70" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CV70" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CW70" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:101">
@@ -24937,10 +24937,10 @@
         <v>43</v>
       </c>
       <c r="AN72" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AO72" s="2">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="AP72" s="1">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>103</v>
       </c>
       <c r="CK72" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="CL72" s="1">
         <v>0</v>
@@ -25117,10 +25117,10 @@
         <v>272</v>
       </c>
       <c r="CV72" s="1">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="CW72" s="1">
-        <v>5574</v>
+        <v>5532</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -25463,22 +25463,22 @@
         <v>157</v>
       </c>
       <c r="L74" s="2">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="M74" s="2">
         <v>354</v>
       </c>
       <c r="N74" s="1">
-        <v>111845</v>
+        <v>111832</v>
       </c>
       <c r="O74" s="2">
-        <v>-93</v>
+        <v>-106</v>
       </c>
       <c r="P74" s="2">
-        <v>1196</v>
+        <v>1183</v>
       </c>
       <c r="Q74" s="2">
-        <v>4101</v>
+        <v>4088</v>
       </c>
       <c r="R74" s="1">
         <v>1</v>
@@ -25721,16 +25721,16 @@
         <v>0</v>
       </c>
       <c r="CT74" s="1">
-        <v>142803</v>
+        <v>142790</v>
       </c>
       <c r="CU74" s="1">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="CV74" s="1">
-        <v>1895</v>
+        <v>1837</v>
       </c>
       <c r="CW74" s="1">
-        <v>5767</v>
+        <v>5754</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25846,16 +25846,16 @@
         <v>0</v>
       </c>
       <c r="AL75" s="1">
-        <v>1747</v>
+        <v>1754</v>
       </c>
       <c r="AM75" s="2">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="AN75" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AO75" s="2">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AP75" s="1">
         <v>74</v>
@@ -26026,16 +26026,16 @@
         <v>1</v>
       </c>
       <c r="CT75" s="1">
-        <v>359302</v>
+        <v>359309</v>
       </c>
       <c r="CU75" s="1">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="CV75" s="1">
-        <v>6209</v>
+        <v>6216</v>
       </c>
       <c r="CW75" s="1">
-        <v>13137</v>
+        <v>13144</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -26474,7 +26474,7 @@
         <v>1</v>
       </c>
       <c r="AR77" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS77" s="2">
         <v>5</v>
@@ -26606,7 +26606,7 @@
         <v>10</v>
       </c>
       <c r="CJ77" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="CK77" s="2">
         <v>79</v>
@@ -26642,7 +26642,7 @@
         <v>721</v>
       </c>
       <c r="CV77" s="1">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="CW77" s="1">
         <v>2135</v>
@@ -27598,7 +27598,7 @@
         <v>130</v>
       </c>
       <c r="L81" s="2">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="M81" s="2">
         <v>511</v>
@@ -27676,16 +27676,16 @@
         <v>0</v>
       </c>
       <c r="AL81" s="1">
-        <v>3361</v>
+        <v>3365</v>
       </c>
       <c r="AM81" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN81" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AO81" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AP81" s="1">
         <v>0</v>
@@ -27820,16 +27820,16 @@
         <v>0</v>
       </c>
       <c r="CH81" s="1">
-        <v>13234</v>
+        <v>13265</v>
       </c>
       <c r="CI81" s="2">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="CJ81" s="2">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="CK81" s="2">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="CL81" s="1">
         <v>0</v>
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="CT81" s="1">
-        <v>385113</v>
+        <v>385148</v>
       </c>
       <c r="CU81" s="1">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="CV81" s="1">
-        <v>989</v>
+        <v>964</v>
       </c>
       <c r="CW81" s="1">
-        <v>6130</v>
+        <v>6165</v>
       </c>
     </row>
     <row r="82" spans="1:101">
@@ -28729,7 +28729,7 @@
         <v>0</v>
       </c>
       <c r="CF84" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG84" s="2">
         <v>1</v>
@@ -28777,7 +28777,7 @@
         <v>2</v>
       </c>
       <c r="CV84" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="CW84" s="1">
         <v>91</v>
@@ -30041,7 +30041,7 @@
         <v>223</v>
       </c>
       <c r="M89" s="2">
-        <v>397</v>
+        <v>321</v>
       </c>
       <c r="N89" s="1">
         <v>4297</v>
@@ -30305,7 +30305,7 @@
         <v>407</v>
       </c>
       <c r="CW89" s="1">
-        <v>817</v>
+        <v>741</v>
       </c>
     </row>
     <row r="90" spans="1:101">
@@ -34494,16 +34494,16 @@
         <v>2</v>
       </c>
       <c r="BV103" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BW103" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX103" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY103" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ103" s="1">
         <v>1</v>
@@ -34566,16 +34566,16 @@
         <v>0</v>
       </c>
       <c r="CT103" s="1">
-        <v>7069</v>
+        <v>7070</v>
       </c>
       <c r="CU103" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CV103" s="1">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="CW103" s="1">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="104" spans="1:101">
@@ -34697,7 +34697,7 @@
         <v>5</v>
       </c>
       <c r="AN104" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO104" s="2">
         <v>24</v>
@@ -34841,7 +34841,7 @@
         <v>41</v>
       </c>
       <c r="CJ104" s="2">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="CK104" s="2">
         <v>183</v>
@@ -34877,7 +34877,7 @@
         <v>1195</v>
       </c>
       <c r="CV104" s="1">
-        <v>2059</v>
+        <v>2041</v>
       </c>
       <c r="CW104" s="1">
         <v>3677</v>
@@ -35193,16 +35193,16 @@
         <v>205</v>
       </c>
       <c r="B106" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C106" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F106" s="1">
         <v>29</v>
@@ -35481,16 +35481,16 @@
         <v>0</v>
       </c>
       <c r="CT106" s="1">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CU106" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CV106" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CW106" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107" spans="1:101">
@@ -36443,7 +36443,7 @@
         <v>13</v>
       </c>
       <c r="L110" s="2">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M110" s="2">
         <v>88</v>
@@ -36707,7 +36707,7 @@
         <v>27</v>
       </c>
       <c r="CV110" s="1">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="CW110" s="1">
         <v>650</v>
@@ -36724,7 +36724,7 @@
         <v>10</v>
       </c>
       <c r="D111" s="2">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E111" s="2">
         <v>177</v>
@@ -37012,7 +37012,7 @@
         <v>73</v>
       </c>
       <c r="CV111" s="1">
-        <v>4109</v>
+        <v>4090</v>
       </c>
       <c r="CW111" s="1">
         <v>13893</v>
@@ -37819,7 +37819,7 @@
         <v>0</v>
       </c>
       <c r="BL114" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM114" s="2">
         <v>1</v>
@@ -37927,7 +37927,7 @@
         <v>70</v>
       </c>
       <c r="CV114" s="1">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="CW114" s="1">
         <v>1228</v>
@@ -37944,7 +37944,7 @@
         <v>102</v>
       </c>
       <c r="D115" s="2">
-        <v>301</v>
+        <v>190</v>
       </c>
       <c r="E115" s="2">
         <v>583</v>
@@ -38232,7 +38232,7 @@
         <v>108</v>
       </c>
       <c r="CV115" s="1">
-        <v>379</v>
+        <v>268</v>
       </c>
       <c r="CW115" s="1">
         <v>770</v>
@@ -41006,7 +41006,7 @@
         <v>0</v>
       </c>
       <c r="H125" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" s="2">
         <v>5</v>
@@ -41282,7 +41282,7 @@
         <v>0</v>
       </c>
       <c r="CV125" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CW125" s="1">
         <v>184</v>
@@ -41401,16 +41401,16 @@
         <v>0</v>
       </c>
       <c r="AL126" s="1">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="AM126" s="2">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="AN126" s="2">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="AO126" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="AP126" s="1">
         <v>0</v>
@@ -41545,16 +41545,16 @@
         <v>0</v>
       </c>
       <c r="CH126" s="1">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="CI126" s="2">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="CJ126" s="2">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="CK126" s="2">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="CL126" s="1">
         <v>0</v>
@@ -41581,16 +41581,16 @@
         <v>0</v>
       </c>
       <c r="CT126" s="1">
-        <v>1365</v>
+        <v>1419</v>
       </c>
       <c r="CU126" s="1">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="CV126" s="1">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="CW126" s="1">
-        <v>310</v>
+        <v>364</v>
       </c>
     </row>
     <row r="127" spans="1:101">
@@ -43434,7 +43434,7 @@
         <v>1</v>
       </c>
       <c r="D133" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E133" s="2">
         <v>18</v>
@@ -43722,7 +43722,7 @@
         <v>7</v>
       </c>
       <c r="CV133" s="1">
-        <v>2366</v>
+        <v>2363</v>
       </c>
       <c r="CW133" s="1">
         <v>5135</v>
@@ -43817,16 +43817,16 @@
         <v>10</v>
       </c>
       <c r="AD134" s="1">
-        <v>10270</v>
+        <v>10271</v>
       </c>
       <c r="AE134" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF134" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG134" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="AH134" s="1">
         <v>0</v>
@@ -44021,16 +44021,16 @@
         <v>0</v>
       </c>
       <c r="CT134" s="1">
-        <v>57251</v>
+        <v>57252</v>
       </c>
       <c r="CU134" s="1">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="CV134" s="1">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="CW134" s="1">
-        <v>2666</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="135" spans="1:101">
@@ -44888,16 +44888,16 @@
         <v>0</v>
       </c>
       <c r="CD137" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE137" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF137" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG137" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH137" s="1">
         <v>260</v>
@@ -44936,16 +44936,16 @@
         <v>0</v>
       </c>
       <c r="CT137" s="1">
-        <v>3880</v>
+        <v>3881</v>
       </c>
       <c r="CU137" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CV137" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="CW137" s="1">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="138" spans="1:101">
@@ -47579,7 +47579,7 @@
         <v>0</v>
       </c>
       <c r="BL146" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM146" s="2">
         <v>1</v>
@@ -47687,7 +47687,7 @@
         <v>1</v>
       </c>
       <c r="CV146" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CW146" s="1">
         <v>22</v>
@@ -49857,16 +49857,16 @@
         <v>5</v>
       </c>
       <c r="J154" s="1">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="K154" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L154" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M154" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N154" s="1">
         <v>1173</v>
@@ -50121,16 +50121,16 @@
         <v>0</v>
       </c>
       <c r="CT154" s="1">
-        <v>2479</v>
+        <v>2484</v>
       </c>
       <c r="CU154" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="CV154" s="1">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="CW154" s="1">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="155" spans="1:101">
@@ -53188,16 +53188,16 @@
         <v>264</v>
       </c>
       <c r="B165" s="1">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C165" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E165" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F165" s="1">
         <v>6</v>
@@ -53476,16 +53476,16 @@
         <v>0</v>
       </c>
       <c r="CT165" s="1">
-        <v>4540</v>
+        <v>4543</v>
       </c>
       <c r="CU165" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="CV165" s="1">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="CW165" s="1">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="166" spans="1:101">
@@ -53822,16 +53822,16 @@
         <v>3</v>
       </c>
       <c r="J167" s="1">
-        <v>1045</v>
+        <v>1065</v>
       </c>
       <c r="K167" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L167" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="M167" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="N167" s="1">
         <v>344</v>
@@ -54086,16 +54086,16 @@
         <v>0</v>
       </c>
       <c r="CT167" s="1">
-        <v>5011</v>
+        <v>5031</v>
       </c>
       <c r="CU167" s="1">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="CV167" s="1">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="CW167" s="1">
-        <v>374</v>
+        <v>394</v>
       </c>
     </row>
     <row r="168" spans="1:101">
@@ -54438,7 +54438,7 @@
         <v>68</v>
       </c>
       <c r="L169" s="2">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="M169" s="2">
         <v>382</v>
@@ -54702,7 +54702,7 @@
         <v>137</v>
       </c>
       <c r="CV169" s="1">
-        <v>484</v>
+        <v>423</v>
       </c>
       <c r="CW169" s="1">
         <v>1241</v>
@@ -56352,7 +56352,7 @@
         <v>0</v>
       </c>
       <c r="AN175" s="2">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AO175" s="2">
         <v>47</v>
@@ -56496,7 +56496,7 @@
         <v>0</v>
       </c>
       <c r="CJ175" s="2">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="CK175" s="2">
         <v>86</v>
@@ -56532,7 +56532,7 @@
         <v>1</v>
       </c>
       <c r="CV175" s="1">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="CW175" s="1">
         <v>141</v>
@@ -56962,7 +56962,7 @@
         <v>0</v>
       </c>
       <c r="AN177" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AO177" s="2">
         <v>17</v>
@@ -57106,7 +57106,7 @@
         <v>10</v>
       </c>
       <c r="CJ177" s="2">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="CK177" s="2">
         <v>92</v>
@@ -57142,7 +57142,7 @@
         <v>22</v>
       </c>
       <c r="CV177" s="1">
-        <v>1915</v>
+        <v>1899</v>
       </c>
       <c r="CW177" s="1">
         <v>3754</v>
@@ -63558,16 +63558,16 @@
         <v>298</v>
       </c>
       <c r="B199" s="1">
-        <v>8129</v>
+        <v>8168</v>
       </c>
       <c r="C199" s="2">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="D199" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="E199" s="2">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="F199" s="1">
         <v>0</v>
@@ -63675,7 +63675,7 @@
         <v>6</v>
       </c>
       <c r="AO199" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP199" s="1">
         <v>21</v>
@@ -63819,7 +63819,7 @@
         <v>52</v>
       </c>
       <c r="CK199" s="2">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="CL199" s="1">
         <v>5</v>
@@ -63846,16 +63846,16 @@
         <v>0</v>
       </c>
       <c r="CT199" s="1">
-        <v>82155</v>
+        <v>82194</v>
       </c>
       <c r="CU199" s="1">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="CV199" s="1">
-        <v>1534</v>
+        <v>1573</v>
       </c>
       <c r="CW199" s="1">
-        <v>3953</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="200" spans="1:101">
@@ -65394,7 +65394,7 @@
         <v>8</v>
       </c>
       <c r="D205" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E205" s="2">
         <v>33</v>
@@ -65418,7 +65418,7 @@
         <v>20</v>
       </c>
       <c r="L205" s="2">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M205" s="2">
         <v>63</v>
@@ -65682,7 +65682,7 @@
         <v>38</v>
       </c>
       <c r="CV205" s="1">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="CW205" s="1">
         <v>555</v>
@@ -68436,7 +68436,7 @@
         <v>554</v>
       </c>
       <c r="D30">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E30" t="s">
         <v>712</v>
@@ -69399,7 +69399,7 @@
         <v>590</v>
       </c>
       <c r="D78">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
         <v>712</v>
@@ -69905,7 +69905,7 @@
         <v>617</v>
       </c>
       <c r="D103">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E103" t="s">
         <v>712</v>
@@ -71737,7 +71737,7 @@
         <v>696</v>
       </c>
       <c r="D194">
-        <v>9970</v>
+        <v>9971</v>
       </c>
       <c r="E194" t="s">
         <v>712</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -4033,7 +4033,7 @@
         <v>1927</v>
       </c>
       <c r="CI3" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CJ3" s="2">
         <v>38</v>
@@ -4069,7 +4069,7 @@
         <v>40946</v>
       </c>
       <c r="CU3" s="1">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="CV3" s="1">
         <v>450</v>
@@ -5510,7 +5510,7 @@
         <v>1</v>
       </c>
       <c r="BS8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT8" s="2">
         <v>1</v>
@@ -5594,7 +5594,7 @@
         <v>2721</v>
       </c>
       <c r="CU8" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="CV8" s="1">
         <v>42</v>
@@ -9271,7 +9271,7 @@
         <v>126</v>
       </c>
       <c r="C21" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2">
         <v>2</v>
@@ -9283,7 +9283,7 @@
         <v>51</v>
       </c>
       <c r="G21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2">
         <v>1</v>
@@ -9559,7 +9559,7 @@
         <v>177</v>
       </c>
       <c r="CU21" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CV21" s="1">
         <v>3</v>
@@ -12040,7 +12040,7 @@
         <v>1272</v>
       </c>
       <c r="K30" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L30" s="2">
         <v>35</v>
@@ -12304,7 +12304,7 @@
         <v>5386</v>
       </c>
       <c r="CU30" s="1">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="CV30" s="1">
         <v>112</v>
@@ -15993,7 +15993,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2">
         <v>1</v>
@@ -16008,7 +16008,7 @@
         <v>23</v>
       </c>
       <c r="L43" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="M43" s="2">
         <v>90</v>
@@ -16269,10 +16269,10 @@
         <v>47182</v>
       </c>
       <c r="CU43" s="1">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="CV43" s="1">
-        <v>885</v>
+        <v>869</v>
       </c>
       <c r="CW43" s="1">
         <v>2669</v>
@@ -17808,16 +17808,16 @@
         <v>148</v>
       </c>
       <c r="B49" s="1">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="C49" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D49" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E49" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
@@ -18096,16 +18096,16 @@
         <v>0</v>
       </c>
       <c r="CT49" s="1">
-        <v>1436</v>
+        <v>1442</v>
       </c>
       <c r="CU49" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CV49" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="CW49" s="1">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:101">
@@ -18128,7 +18128,7 @@
         <v>31</v>
       </c>
       <c r="G50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="2">
         <v>2</v>
@@ -18404,7 +18404,7 @@
         <v>243</v>
       </c>
       <c r="CU50" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CV50" s="1">
         <v>18</v>
@@ -21468,16 +21468,16 @@
         <v>160</v>
       </c>
       <c r="B61" s="1">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="C61" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E61" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F61" s="1">
         <v>2</v>
@@ -21708,16 +21708,16 @@
         <v>0</v>
       </c>
       <c r="CD61" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CE61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH61" s="1">
         <v>582</v>
@@ -21756,16 +21756,16 @@
         <v>0</v>
       </c>
       <c r="CT61" s="1">
-        <v>2546</v>
+        <v>2555</v>
       </c>
       <c r="CU61" s="1">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="CV61" s="1">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="CW61" s="1">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:101">
@@ -21980,7 +21980,7 @@
         <v>20</v>
       </c>
       <c r="BS62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT62" s="2">
         <v>2</v>
@@ -22064,7 +22064,7 @@
         <v>7346</v>
       </c>
       <c r="CU62" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="CV62" s="1">
         <v>218</v>
@@ -22996,7 +22996,7 @@
         <v>246</v>
       </c>
       <c r="C66" s="2">
-        <v>-27</v>
+        <v>1</v>
       </c>
       <c r="D66" s="2">
         <v>-25</v>
@@ -23284,7 +23284,7 @@
         <v>1998</v>
       </c>
       <c r="CU66" s="1">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="CV66" s="1">
         <v>10</v>
@@ -31958,16 +31958,16 @@
         <v>1</v>
       </c>
       <c r="AP95" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ95" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR95" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS95" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT95" s="1">
         <v>0</v>
@@ -32090,16 +32090,16 @@
         <v>0</v>
       </c>
       <c r="CH95" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CI95" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ95" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CK95" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CL95" s="1">
         <v>32</v>
@@ -32126,16 +32126,16 @@
         <v>0</v>
       </c>
       <c r="CT95" s="1">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="CU95" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CV95" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CW95" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:101">
@@ -32861,161 +32861,161 @@
         <v>0</v>
       </c>
       <c r="AL98" s="1">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AM98" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AN98" s="2">
+        <v>16</v>
+      </c>
+      <c r="AO98" s="2">
+        <v>32</v>
+      </c>
+      <c r="AP98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ98" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR98" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS98" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU98" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV98" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW98" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY98" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ98" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA98" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB98" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC98" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD98" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE98" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF98" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG98" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH98" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI98" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ98" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK98" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL98" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM98" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN98" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO98" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP98" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ98" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR98" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS98" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT98" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU98" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV98" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW98" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX98" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY98" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ98" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA98" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB98" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC98" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD98" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE98" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF98" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG98" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH98" s="1">
+        <v>13</v>
+      </c>
+      <c r="CI98" s="2">
+        <v>1</v>
+      </c>
+      <c r="CJ98" s="2">
+        <v>2</v>
+      </c>
+      <c r="CK98" s="2">
         <v>8</v>
       </c>
-      <c r="AO98" s="2">
-        <v>24</v>
-      </c>
-      <c r="AP98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ98" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR98" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS98" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU98" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV98" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW98" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY98" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ98" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA98" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB98" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC98" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD98" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE98" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF98" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG98" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH98" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI98" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ98" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK98" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL98" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM98" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN98" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO98" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP98" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ98" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR98" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS98" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT98" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU98" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV98" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW98" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX98" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY98" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ98" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA98" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB98" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC98" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD98" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE98" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF98" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG98" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH98" s="1">
-        <v>12</v>
-      </c>
-      <c r="CI98" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ98" s="2">
-        <v>1</v>
-      </c>
-      <c r="CK98" s="2">
-        <v>7</v>
-      </c>
       <c r="CL98" s="1">
         <v>0</v>
       </c>
@@ -33041,16 +33041,16 @@
         <v>0</v>
       </c>
       <c r="CT98" s="1">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="CU98" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CV98" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="CW98" s="1">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:101">
@@ -33435,16 +33435,16 @@
         <v>0</v>
       </c>
       <c r="Z100" s="1">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AA100" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB100" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC100" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AD100" s="1">
         <v>2061</v>
@@ -33651,16 +33651,16 @@
         <v>0</v>
       </c>
       <c r="CT100" s="1">
-        <v>40162</v>
+        <v>40165</v>
       </c>
       <c r="CU100" s="1">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="CV100" s="1">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="CW100" s="1">
-        <v>2043</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="101" spans="1:101">
@@ -34778,7 +34778,7 @@
         <v>286</v>
       </c>
       <c r="BO104" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BP104" s="2">
         <v>2</v>
@@ -34874,7 +34874,7 @@
         <v>88432</v>
       </c>
       <c r="CU104" s="1">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="CV104" s="1">
         <v>3865</v>
@@ -38061,7 +38061,7 @@
         <v>56</v>
       </c>
       <c r="AQ115" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR115" s="2">
         <v>3</v>
@@ -38193,7 +38193,7 @@
         <v>140</v>
       </c>
       <c r="CI115" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ115" s="2">
         <v>2</v>
@@ -38229,7 +38229,7 @@
         <v>11375</v>
       </c>
       <c r="CU115" s="1">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="CV115" s="1">
         <v>391</v>
@@ -43500,16 +43500,16 @@
         <v>1</v>
       </c>
       <c r="Z133" s="1">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AA133" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB133" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC133" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AD133" s="1">
         <v>74118</v>
@@ -43716,16 +43716,16 @@
         <v>0</v>
       </c>
       <c r="CT133" s="1">
-        <v>126043</v>
+        <v>126046</v>
       </c>
       <c r="CU133" s="1">
-        <v>2911</v>
+        <v>2914</v>
       </c>
       <c r="CV133" s="1">
-        <v>2936</v>
+        <v>2939</v>
       </c>
       <c r="CW133" s="1">
-        <v>6272</v>
+        <v>6275</v>
       </c>
     </row>
     <row r="134" spans="1:101">
@@ -43817,16 +43817,16 @@
         <v>10</v>
       </c>
       <c r="AD134" s="1">
-        <v>10582</v>
+        <v>10590</v>
       </c>
       <c r="AE134" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AF134" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="AG134" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="AH134" s="1">
         <v>0</v>
@@ -44021,16 +44021,16 @@
         <v>0</v>
       </c>
       <c r="CT134" s="1">
-        <v>58310</v>
+        <v>58318</v>
       </c>
       <c r="CU134" s="1">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="CV134" s="1">
-        <v>1219</v>
+        <v>1227</v>
       </c>
       <c r="CW134" s="1">
-        <v>2733</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="135" spans="1:101">
@@ -44720,16 +44720,16 @@
         <v>1</v>
       </c>
       <c r="Z137" s="1">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AA137" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB137" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC137" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AD137" s="1">
         <v>0</v>
@@ -44936,16 +44936,16 @@
         <v>0</v>
       </c>
       <c r="CT137" s="1">
-        <v>3971</v>
+        <v>3974</v>
       </c>
       <c r="CU137" s="1">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="CV137" s="1">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="CW137" s="1">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="138" spans="1:101">
@@ -46598,16 +46598,16 @@
         <v>2</v>
       </c>
       <c r="AP143" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ143" s="2">
         <v>1</v>
       </c>
       <c r="AR143" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS143" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT143" s="1">
         <v>0</v>
@@ -46721,7 +46721,7 @@
         <v>8</v>
       </c>
       <c r="CE143" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF143" s="2">
         <v>1</v>
@@ -46742,16 +46742,16 @@
         <v>2</v>
       </c>
       <c r="CL143" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CM143" s="2">
         <v>1</v>
       </c>
       <c r="CN143" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CO143" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CP143" s="1">
         <v>0</v>
@@ -46766,16 +46766,16 @@
         <v>0</v>
       </c>
       <c r="CT143" s="1">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="CU143" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CV143" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CW143" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144" spans="1:101">
@@ -47857,7 +47857,7 @@
         <v>15</v>
       </c>
       <c r="BC147" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD147" s="2">
         <v>2</v>
@@ -47989,7 +47989,7 @@
         <v>5215</v>
       </c>
       <c r="CU147" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="CV147" s="1">
         <v>87</v>
@@ -50378,16 +50378,16 @@
         <v>0</v>
       </c>
       <c r="CD155" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CE155" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF155" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG155" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH155" s="1">
         <v>2646</v>
@@ -50426,16 +50426,16 @@
         <v>0</v>
       </c>
       <c r="CT155" s="1">
-        <v>67831</v>
+        <v>67832</v>
       </c>
       <c r="CU155" s="1">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="CV155" s="1">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="CW155" s="1">
-        <v>2797</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="156" spans="1:101">
@@ -51735,16 +51735,16 @@
         <v>0</v>
       </c>
       <c r="Z160" s="1">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AA160" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB160" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC160" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AD160" s="1">
         <v>5079</v>
@@ -51951,16 +51951,16 @@
         <v>0</v>
       </c>
       <c r="CT160" s="1">
-        <v>20515</v>
+        <v>20519</v>
       </c>
       <c r="CU160" s="1">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="CV160" s="1">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="CW160" s="1">
-        <v>998</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="161" spans="1:101">
@@ -52895,292 +52895,292 @@
         <v>1</v>
       </c>
       <c r="F164" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G164" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I164" s="2">
+        <v>5</v>
+      </c>
+      <c r="J164" s="1">
+        <v>0</v>
+      </c>
+      <c r="K164" s="2">
+        <v>0</v>
+      </c>
+      <c r="L164" s="2">
+        <v>0</v>
+      </c>
+      <c r="M164" s="2">
+        <v>0</v>
+      </c>
+      <c r="N164" s="1">
+        <v>0</v>
+      </c>
+      <c r="O164" s="2">
+        <v>0</v>
+      </c>
+      <c r="P164" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q164" s="2">
+        <v>0</v>
+      </c>
+      <c r="R164" s="1">
+        <v>0</v>
+      </c>
+      <c r="S164" s="2">
+        <v>0</v>
+      </c>
+      <c r="T164" s="2">
+        <v>0</v>
+      </c>
+      <c r="U164" s="2">
+        <v>0</v>
+      </c>
+      <c r="V164" s="1">
+        <v>0</v>
+      </c>
+      <c r="W164" s="2">
+        <v>0</v>
+      </c>
+      <c r="X164" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y164" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z164" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD164" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH164" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL164" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP164" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT164" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX164" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB164" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF164" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ164" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN164" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR164" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV164" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ164" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD164" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH164" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL164" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP164" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS164" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT164" s="1">
+        <v>68</v>
+      </c>
+      <c r="CU164" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV164" s="1">
         <v>4</v>
       </c>
-      <c r="J164" s="1">
-        <v>0</v>
-      </c>
-      <c r="K164" s="2">
-        <v>0</v>
-      </c>
-      <c r="L164" s="2">
-        <v>0</v>
-      </c>
-      <c r="M164" s="2">
-        <v>0</v>
-      </c>
-      <c r="N164" s="1">
-        <v>0</v>
-      </c>
-      <c r="O164" s="2">
-        <v>0</v>
-      </c>
-      <c r="P164" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q164" s="2">
-        <v>0</v>
-      </c>
-      <c r="R164" s="1">
-        <v>0</v>
-      </c>
-      <c r="S164" s="2">
-        <v>0</v>
-      </c>
-      <c r="T164" s="2">
-        <v>0</v>
-      </c>
-      <c r="U164" s="2">
-        <v>0</v>
-      </c>
-      <c r="V164" s="1">
-        <v>0</v>
-      </c>
-      <c r="W164" s="2">
-        <v>0</v>
-      </c>
-      <c r="X164" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y164" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z164" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD164" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH164" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL164" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP164" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT164" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX164" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY164" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB164" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF164" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ164" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN164" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR164" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV164" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY164" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ164" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD164" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH164" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CJ164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CL164" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CN164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CO164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CP164" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CR164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CS164" s="2">
-        <v>0</v>
-      </c>
-      <c r="CT164" s="1">
-        <v>67</v>
-      </c>
-      <c r="CU164" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV164" s="1">
-        <v>3</v>
-      </c>
       <c r="CW164" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:101">
@@ -53957,7 +53957,7 @@
         <v>2</v>
       </c>
       <c r="BC167" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD167" s="2">
         <v>2</v>
@@ -54089,7 +54089,7 @@
         <v>5114</v>
       </c>
       <c r="CU167" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="CV167" s="1">
         <v>143</v>
@@ -54118,7 +54118,7 @@
         <v>38</v>
       </c>
       <c r="G168" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168" s="2">
         <v>2</v>
@@ -54394,7 +54394,7 @@
         <v>260</v>
       </c>
       <c r="CU168" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV168" s="1">
         <v>2</v>
@@ -58083,7 +58083,7 @@
         <v>46</v>
       </c>
       <c r="G181" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H181" s="2">
         <v>3</v>
@@ -58359,7 +58359,7 @@
         <v>259</v>
       </c>
       <c r="CU181" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="CV181" s="1">
         <v>36</v>
@@ -60921,16 +60921,16 @@
         <v>0</v>
       </c>
       <c r="AL190" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM190" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN190" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO190" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AP190" s="1">
         <v>49</v>
@@ -61065,16 +61065,16 @@
         <v>0</v>
       </c>
       <c r="CH190" s="1">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="CI190" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="CJ190" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="CK190" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="CL190" s="1">
         <v>37</v>
@@ -61101,16 +61101,16 @@
         <v>0</v>
       </c>
       <c r="CT190" s="1">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="CU190" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="CV190" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="CW190" s="1">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="191" spans="1:101">
@@ -61459,16 +61459,16 @@
         <v>88</v>
       </c>
       <c r="N192" s="1">
-        <v>27465</v>
+        <v>27460</v>
       </c>
       <c r="O192" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="P192" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="Q192" s="2">
-        <v>1804</v>
+        <v>1799</v>
       </c>
       <c r="R192" s="1">
         <v>0</v>
@@ -61711,16 +61711,16 @@
         <v>0</v>
       </c>
       <c r="CT192" s="1">
-        <v>30898</v>
+        <v>30893</v>
       </c>
       <c r="CU192" s="1">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="CV192" s="1">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="CW192" s="1">
-        <v>2004</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="193" spans="1:101">
@@ -63798,16 +63798,16 @@
         <v>0</v>
       </c>
       <c r="CD199" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CE199" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF199" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG199" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH199" s="1">
         <v>3379</v>
@@ -63846,16 +63846,16 @@
         <v>0</v>
       </c>
       <c r="CT199" s="1">
-        <v>83691</v>
+        <v>83692</v>
       </c>
       <c r="CU199" s="1">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="CV199" s="1">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="CW199" s="1">
-        <v>2292</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="200" spans="1:101">
@@ -64793,7 +64793,7 @@
         <v>23</v>
       </c>
       <c r="G203" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H203" s="2">
         <v>4</v>
@@ -65069,7 +65069,7 @@
         <v>50</v>
       </c>
       <c r="CU203" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CV203" s="1">
         <v>7</v>
@@ -65460,16 +65460,16 @@
         <v>1</v>
       </c>
       <c r="Z205" s="1">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AA205" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB205" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC205" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD205" s="1">
         <v>1987</v>
@@ -65676,16 +65676,16 @@
         <v>0</v>
       </c>
       <c r="CT205" s="1">
-        <v>13180</v>
+        <v>13183</v>
       </c>
       <c r="CU205" s="1">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="CV205" s="1">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="CW205" s="1">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="206" spans="1:101">
@@ -67535,16 +67535,16 @@
         <v>0</v>
       </c>
       <c r="F212" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G212" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H212" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I212" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J212" s="1">
         <v>0</v>
@@ -67811,16 +67811,16 @@
         <v>0</v>
       </c>
       <c r="CT212" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="CU212" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CV212" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CW212" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -67996,7 +67996,7 @@
         <v>535</v>
       </c>
       <c r="D8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
         <v>712</v>
@@ -68373,7 +68373,7 @@
         <v>552</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
         <v>712</v>
@@ -69099,7 +69099,7 @@
         <v>580</v>
       </c>
       <c r="D63">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E63" t="s">
         <v>712</v>
@@ -69645,7 +69645,7 @@
         <v>605</v>
       </c>
       <c r="D90">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E90" t="s">
         <v>712</v>
@@ -71717,7 +71717,7 @@
         <v>695</v>
       </c>
       <c r="D193">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
         <v>712</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -5312,7 +5312,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1">
         <v>33</v>
@@ -5330,7 +5330,7 @@
         <v>197</v>
       </c>
       <c r="K8" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L8" s="2">
         <v>11</v>
@@ -5594,13 +5594,13 @@
         <v>2721</v>
       </c>
       <c r="CU8" s="1">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="CV8" s="1">
         <v>42</v>
       </c>
       <c r="CW8" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:101">
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="AS26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT26" s="1">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>11</v>
       </c>
       <c r="BC26" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD26" s="2">
         <v>3</v>
@@ -11054,7 +11054,7 @@
         <v>3</v>
       </c>
       <c r="CK26" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="CL26" s="1">
         <v>1</v>
@@ -11084,13 +11084,13 @@
         <v>434</v>
       </c>
       <c r="CU26" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CV26" s="1">
         <v>14</v>
       </c>
       <c r="CW26" s="1">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:101">
@@ -12046,7 +12046,7 @@
         <v>35</v>
       </c>
       <c r="M30" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N30" s="1">
         <v>1881</v>
@@ -12310,7 +12310,7 @@
         <v>112</v>
       </c>
       <c r="CW30" s="1">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:101">
@@ -12357,7 +12357,7 @@
         <v>6023</v>
       </c>
       <c r="O31" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P31" s="2">
         <v>110</v>
@@ -12609,7 +12609,7 @@
         <v>10152</v>
       </c>
       <c r="CU31" s="1">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="CV31" s="1">
         <v>199</v>
@@ -12973,7 +12973,7 @@
         <v>34</v>
       </c>
       <c r="Q33" s="2">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="R33" s="1">
         <v>1</v>
@@ -12997,7 +12997,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="1">
         <v>44</v>
@@ -13225,7 +13225,7 @@
         <v>66</v>
       </c>
       <c r="CW33" s="1">
-        <v>160</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:101">
@@ -21172,7 +21172,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" s="1">
         <v>33</v>
@@ -21460,7 +21460,7 @@
         <v>3</v>
       </c>
       <c r="CW60" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:101">
@@ -22237,7 +22237,7 @@
         <v>9</v>
       </c>
       <c r="BC63" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD63" s="2">
         <v>2</v>
@@ -22369,7 +22369,7 @@
         <v>60694</v>
       </c>
       <c r="CU63" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="CV63" s="1">
         <v>160</v>
@@ -25078,7 +25078,7 @@
         <v>15526</v>
       </c>
       <c r="CI72" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CJ72" s="2">
         <v>55</v>
@@ -25114,7 +25114,7 @@
         <v>164094</v>
       </c>
       <c r="CU72" s="1">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="CV72" s="1">
         <v>1797</v>
@@ -25999,7 +25999,7 @@
         <v>210</v>
       </c>
       <c r="CK75" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="CL75" s="1">
         <v>101</v>
@@ -26035,7 +26035,7 @@
         <v>6570</v>
       </c>
       <c r="CW75" s="1">
-        <v>19134</v>
+        <v>19127</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -26902,7 +26902,7 @@
         <v>0</v>
       </c>
       <c r="CG78" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH78" s="1">
         <v>579</v>
@@ -26950,7 +26950,7 @@
         <v>117</v>
       </c>
       <c r="CW78" s="1">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="79" spans="1:101">
@@ -27278,7 +27278,7 @@
         <v>61</v>
       </c>
       <c r="G80" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" s="2">
         <v>2</v>
@@ -27386,7 +27386,7 @@
         <v>68</v>
       </c>
       <c r="AQ80" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR80" s="2">
         <v>2</v>
@@ -27530,7 +27530,7 @@
         <v>61</v>
       </c>
       <c r="CM80" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN80" s="2">
         <v>1</v>
@@ -27554,7 +27554,7 @@
         <v>285</v>
       </c>
       <c r="CU80" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CV80" s="1">
         <v>7</v>
@@ -28744,7 +28744,7 @@
         <v>12</v>
       </c>
       <c r="CK84" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CL84" s="1">
         <v>35</v>
@@ -28780,7 +28780,7 @@
         <v>38</v>
       </c>
       <c r="CW84" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:101">
@@ -30077,7 +30077,7 @@
         <v>0</v>
       </c>
       <c r="Y89" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z89" s="1">
         <v>85</v>
@@ -30305,7 +30305,7 @@
         <v>471</v>
       </c>
       <c r="CW89" s="1">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="90" spans="1:101">
@@ -31644,7 +31644,7 @@
         <v>94</v>
       </c>
       <c r="AM94" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN94" s="2">
         <v>2</v>
@@ -31824,7 +31824,7 @@
         <v>864</v>
       </c>
       <c r="CU94" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="CV94" s="1">
         <v>39</v>
@@ -34311,7 +34311,7 @@
         <v>22</v>
       </c>
       <c r="M103" s="2">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N103" s="1">
         <v>1396</v>
@@ -34575,7 +34575,7 @@
         <v>71</v>
       </c>
       <c r="CW103" s="1">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="104" spans="1:101">
@@ -34622,7 +34622,7 @@
         <v>22164</v>
       </c>
       <c r="O104" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P104" s="2">
         <v>2938</v>
@@ -34874,7 +34874,7 @@
         <v>88432</v>
       </c>
       <c r="CU104" s="1">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CV104" s="1">
         <v>3865</v>
@@ -38892,7 +38892,7 @@
         <v>274</v>
       </c>
       <c r="O118" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P118" s="2">
         <v>6</v>
@@ -39144,7 +39144,7 @@
         <v>798</v>
       </c>
       <c r="CU118" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="CV118" s="1">
         <v>18</v>
@@ -44472,7 +44472,7 @@
         <v>3</v>
       </c>
       <c r="AS136" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT136" s="1">
         <v>0</v>
@@ -44616,7 +44616,7 @@
         <v>2</v>
       </c>
       <c r="CO136" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CP136" s="1">
         <v>0</v>
@@ -44640,7 +44640,7 @@
         <v>25</v>
       </c>
       <c r="CW136" s="1">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:101">
@@ -44717,7 +44717,7 @@
         <v>0</v>
       </c>
       <c r="Y137" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z137" s="1">
         <v>77</v>
@@ -44945,7 +44945,7 @@
         <v>119</v>
       </c>
       <c r="CW137" s="1">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="138" spans="1:101">
@@ -45303,7 +45303,7 @@
         <v>0</v>
       </c>
       <c r="Q139" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="R139" s="1">
         <v>3</v>
@@ -45555,7 +45555,7 @@
         <v>21</v>
       </c>
       <c r="CW139" s="1">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="140" spans="1:101">
@@ -47719,7 +47719,7 @@
         <v>2</v>
       </c>
       <c r="I147" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J147" s="1">
         <v>1170</v>
@@ -47995,7 +47995,7 @@
         <v>87</v>
       </c>
       <c r="CW147" s="1">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="148" spans="1:101">
@@ -48628,7 +48628,7 @@
         <v>58</v>
       </c>
       <c r="G150" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H150" s="2">
         <v>2</v>
@@ -48904,7 +48904,7 @@
         <v>397</v>
       </c>
       <c r="CU150" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CV150" s="1">
         <v>21</v>
@@ -53197,7 +53197,7 @@
         <v>12</v>
       </c>
       <c r="E165" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F165" s="1">
         <v>6</v>
@@ -53485,7 +53485,7 @@
         <v>101</v>
       </c>
       <c r="CW165" s="1">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="166" spans="1:101">
@@ -53957,7 +53957,7 @@
         <v>2</v>
       </c>
       <c r="BC167" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD167" s="2">
         <v>2</v>
@@ -54089,7 +54089,7 @@
         <v>5114</v>
       </c>
       <c r="CU167" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="CV167" s="1">
         <v>143</v>
@@ -57581,7 +57581,7 @@
         <v>7</v>
       </c>
       <c r="AQ179" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR179" s="2">
         <v>1</v>
@@ -57713,7 +57713,7 @@
         <v>1860</v>
       </c>
       <c r="CI179" s="2">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="CJ179" s="2">
         <v>61</v>
@@ -57749,7 +57749,7 @@
         <v>46852</v>
       </c>
       <c r="CU179" s="1">
-        <v>1158</v>
+        <v>1129</v>
       </c>
       <c r="CV179" s="1">
         <v>1351</v>
@@ -58227,7 +58227,7 @@
         <v>10</v>
       </c>
       <c r="BC181" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD181" s="2">
         <v>3</v>
@@ -58359,7 +58359,7 @@
         <v>259</v>
       </c>
       <c r="CU181" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CV181" s="1">
         <v>36</v>
@@ -62078,7 +62078,7 @@
         <v>59</v>
       </c>
       <c r="Q194" s="2">
-        <v>246</v>
+        <v>114</v>
       </c>
       <c r="R194" s="1">
         <v>0</v>
@@ -62102,7 +62102,7 @@
         <v>0</v>
       </c>
       <c r="Y194" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z194" s="1">
         <v>92</v>
@@ -62330,7 +62330,7 @@
         <v>100</v>
       </c>
       <c r="CW194" s="1">
-        <v>343</v>
+        <v>210</v>
       </c>
     </row>
     <row r="195" spans="1:101">
@@ -63472,7 +63472,7 @@
         <v>5</v>
       </c>
       <c r="BW198" s="2">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="BX198" s="2">
         <v>-8</v>
@@ -63484,7 +63484,7 @@
         <v>8</v>
       </c>
       <c r="CA198" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CB198" s="2">
         <v>8</v>
@@ -63753,7 +63753,7 @@
         <v>513</v>
       </c>
       <c r="BO199" s="2">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="BP199" s="2">
         <v>4</v>
@@ -63849,7 +63849,7 @@
         <v>83692</v>
       </c>
       <c r="CU199" s="1">
-        <v>1463</v>
+        <v>1456</v>
       </c>
       <c r="CV199" s="1">
         <v>1648</v>
@@ -65092,7 +65092,7 @@
         <v>5</v>
       </c>
       <c r="E204" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F204" s="1">
         <v>8</v>
@@ -65206,7 +65206,7 @@
         <v>74</v>
       </c>
       <c r="AQ204" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR204" s="2">
         <v>2</v>
@@ -65350,7 +65350,7 @@
         <v>32</v>
       </c>
       <c r="CM204" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN204" s="2">
         <v>1</v>
@@ -65374,13 +65374,13 @@
         <v>1142</v>
       </c>
       <c r="CU204" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CV204" s="1">
         <v>100</v>
       </c>
       <c r="CW204" s="1">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="205" spans="1:101">
@@ -67538,7 +67538,7 @@
         <v>61</v>
       </c>
       <c r="G212" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H212" s="2">
         <v>3</v>
@@ -67814,7 +67814,7 @@
         <v>155</v>
       </c>
       <c r="CU212" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CV212" s="1">
         <v>3</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3500,7 +3500,7 @@
         <v>3809</v>
       </c>
       <c r="K2" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L2" s="2">
         <v>125</v>
@@ -3764,7 +3764,7 @@
         <v>43478</v>
       </c>
       <c r="CU2" s="1">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="CV2" s="1">
         <v>1094</v>
@@ -3850,16 +3850,16 @@
         <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AA3" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB3" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC3" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AD3" s="1">
         <v>20951</v>
@@ -4066,16 +4066,16 @@
         <v>0</v>
       </c>
       <c r="CT3" s="1">
-        <v>40946</v>
+        <v>40950</v>
       </c>
       <c r="CU3" s="1">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CV3" s="1">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="CW3" s="1">
-        <v>1024</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="4" spans="1:101">
@@ -4122,7 +4122,7 @@
         <v>2894</v>
       </c>
       <c r="O4" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P4" s="2">
         <v>10</v>
@@ -4374,7 +4374,7 @@
         <v>37399</v>
       </c>
       <c r="CU4" s="1">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="CV4" s="1">
         <v>449</v>
@@ -4496,16 +4496,16 @@
         <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AM5" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AN5" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AO5" s="2">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="AP5" s="1">
         <v>1</v>
@@ -4676,16 +4676,16 @@
         <v>0</v>
       </c>
       <c r="CT5" s="1">
-        <v>2063</v>
+        <v>2069</v>
       </c>
       <c r="CU5" s="1">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="CV5" s="1">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="CW5" s="1">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:101">
@@ -8981,7 +8981,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2">
         <v>4</v>
@@ -9257,7 +9257,7 @@
         <v>9</v>
       </c>
       <c r="CV20" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="CW20" s="1">
         <v>60</v>
@@ -12037,16 +12037,16 @@
         <v>2</v>
       </c>
       <c r="J30" s="1">
-        <v>1272</v>
+        <v>1286</v>
       </c>
       <c r="K30" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L30" s="2">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="M30" s="2">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="N30" s="1">
         <v>1881</v>
@@ -12301,16 +12301,16 @@
         <v>0</v>
       </c>
       <c r="CT30" s="1">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="CU30" s="1">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="CV30" s="1">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="CW30" s="1">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:101">
@@ -12967,7 +12967,7 @@
         <v>1349</v>
       </c>
       <c r="O33" s="2">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="P33" s="2">
         <v>34</v>
@@ -13219,7 +13219,7 @@
         <v>2354</v>
       </c>
       <c r="CU33" s="1">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="CV33" s="1">
         <v>66</v>
@@ -14271,7 +14271,7 @@
         <v>31</v>
       </c>
       <c r="AQ37" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AR37" s="2">
         <v>6</v>
@@ -14439,7 +14439,7 @@
         <v>1751</v>
       </c>
       <c r="CU37" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="CV37" s="1">
         <v>28</v>
@@ -14758,16 +14758,16 @@
         <v>138</v>
       </c>
       <c r="B39" s="1">
-        <v>12843</v>
+        <v>12926</v>
       </c>
       <c r="C39" s="2">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="D39" s="2">
-        <v>243</v>
+        <v>326</v>
       </c>
       <c r="E39" s="2">
-        <v>382</v>
+        <v>465</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -15046,16 +15046,16 @@
         <v>0</v>
       </c>
       <c r="CT39" s="1">
-        <v>54782</v>
+        <v>54865</v>
       </c>
       <c r="CU39" s="1">
-        <v>306</v>
+        <v>389</v>
       </c>
       <c r="CV39" s="1">
-        <v>583</v>
+        <v>666</v>
       </c>
       <c r="CW39" s="1">
-        <v>1435</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="40" spans="1:101">
@@ -15799,7 +15799,7 @@
         <v>1</v>
       </c>
       <c r="AR42" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS42" s="2">
         <v>4</v>
@@ -15943,7 +15943,7 @@
         <v>1</v>
       </c>
       <c r="CN42" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CO42" s="2">
         <v>5</v>
@@ -15967,7 +15967,7 @@
         <v>22</v>
       </c>
       <c r="CV42" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="CW42" s="1">
         <v>53</v>
@@ -18535,7 +18535,7 @@
         <v>4</v>
       </c>
       <c r="AO51" s="2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AP51" s="1">
         <v>1</v>
@@ -18679,7 +18679,7 @@
         <v>6</v>
       </c>
       <c r="CK51" s="2">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="CL51" s="1">
         <v>1</v>
@@ -18715,7 +18715,7 @@
         <v>13</v>
       </c>
       <c r="CW51" s="1">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:101">
@@ -20900,7 +20900,7 @@
         <v>139</v>
       </c>
       <c r="P59" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q59" s="2">
         <v>666</v>
@@ -21152,7 +21152,7 @@
         <v>180</v>
       </c>
       <c r="CV59" s="1">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="CW59" s="1">
         <v>858</v>
@@ -21588,16 +21588,16 @@
         <v>1</v>
       </c>
       <c r="AP61" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AQ61" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR61" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS61" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT61" s="1">
         <v>0</v>
@@ -21720,16 +21720,16 @@
         <v>1</v>
       </c>
       <c r="CH61" s="1">
-        <v>582</v>
+        <v>608</v>
       </c>
       <c r="CI61" s="2">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="CJ61" s="2">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="CK61" s="2">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="CL61" s="1">
         <v>22</v>
@@ -21756,16 +21756,16 @@
         <v>0</v>
       </c>
       <c r="CT61" s="1">
-        <v>2555</v>
+        <v>2582</v>
       </c>
       <c r="CU61" s="1">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="CV61" s="1">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="CW61" s="1">
-        <v>204</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:101">
@@ -21860,7 +21860,7 @@
         <v>1779</v>
       </c>
       <c r="AE62" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AF62" s="2">
         <v>107</v>
@@ -22064,7 +22064,7 @@
         <v>7346</v>
       </c>
       <c r="CU62" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="CV62" s="1">
         <v>217</v>
@@ -22081,7 +22081,7 @@
         <v>3504</v>
       </c>
       <c r="C63" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D63" s="2">
         <v>22</v>
@@ -22369,7 +22369,7 @@
         <v>60694</v>
       </c>
       <c r="CU63" s="1">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="CV63" s="1">
         <v>145</v>
@@ -23200,7 +23200,7 @@
         <v>21</v>
       </c>
       <c r="BS66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT66" s="2">
         <v>1</v>
@@ -23284,7 +23284,7 @@
         <v>1998</v>
       </c>
       <c r="CU66" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="CV66" s="1">
         <v>10</v>
@@ -23316,10 +23316,10 @@
         <v>1</v>
       </c>
       <c r="H67" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I67" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J67" s="1">
         <v>0</v>
@@ -23592,10 +23592,10 @@
         <v>1</v>
       </c>
       <c r="CV67" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CW67" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:101">
@@ -24342,7 +24342,7 @@
         <v>3</v>
       </c>
       <c r="AS70" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT70" s="1">
         <v>0</v>
@@ -24474,7 +24474,7 @@
         <v>6</v>
       </c>
       <c r="CK70" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CL70" s="1">
         <v>0</v>
@@ -24510,7 +24510,7 @@
         <v>50</v>
       </c>
       <c r="CW70" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:101">
@@ -25469,16 +25469,16 @@
         <v>399</v>
       </c>
       <c r="N74" s="1">
-        <v>113646</v>
+        <v>113772</v>
       </c>
       <c r="O74" s="2">
-        <v>1826</v>
+        <v>1952</v>
       </c>
       <c r="P74" s="2">
-        <v>1708</v>
+        <v>1834</v>
       </c>
       <c r="Q74" s="2">
-        <v>3005</v>
+        <v>3131</v>
       </c>
       <c r="R74" s="1">
         <v>1</v>
@@ -25721,16 +25721,16 @@
         <v>0</v>
       </c>
       <c r="CT74" s="1">
-        <v>145154</v>
+        <v>145280</v>
       </c>
       <c r="CU74" s="1">
-        <v>2227</v>
+        <v>2353</v>
       </c>
       <c r="CV74" s="1">
-        <v>2489</v>
+        <v>2615</v>
       </c>
       <c r="CW74" s="1">
-        <v>4348</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25846,16 +25846,16 @@
         <v>0</v>
       </c>
       <c r="AL75" s="1">
-        <v>1770</v>
+        <v>1777</v>
       </c>
       <c r="AM75" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AN75" s="2">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="AO75" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AP75" s="1">
         <v>74</v>
@@ -25993,13 +25993,13 @@
         <v>6312</v>
       </c>
       <c r="CI75" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="CJ75" s="2">
         <v>210</v>
       </c>
       <c r="CK75" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="CL75" s="1">
         <v>101</v>
@@ -26026,16 +26026,16 @@
         <v>1</v>
       </c>
       <c r="CT75" s="1">
-        <v>365640</v>
+        <v>365647</v>
       </c>
       <c r="CU75" s="1">
-        <v>6098</v>
+        <v>6097</v>
       </c>
       <c r="CV75" s="1">
-        <v>6569</v>
+        <v>6576</v>
       </c>
       <c r="CW75" s="1">
-        <v>18999</v>
+        <v>19005</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -26154,7 +26154,7 @@
         <v>7</v>
       </c>
       <c r="AM76" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AN76" s="2">
         <v>7</v>
@@ -26298,7 +26298,7 @@
         <v>9</v>
       </c>
       <c r="CI76" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CJ76" s="2">
         <v>9</v>
@@ -26334,7 +26334,7 @@
         <v>35</v>
       </c>
       <c r="CU76" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="CV76" s="1">
         <v>19</v>
@@ -26348,16 +26348,16 @@
         <v>176</v>
       </c>
       <c r="B77" s="1">
-        <v>4144</v>
+        <v>4150</v>
       </c>
       <c r="C77" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D77" s="2">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E77" s="2">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -26636,16 +26636,16 @@
         <v>1</v>
       </c>
       <c r="CT77" s="1">
-        <v>87652</v>
+        <v>87658</v>
       </c>
       <c r="CU77" s="1">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="CV77" s="1">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="CW77" s="1">
-        <v>2245</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="78" spans="1:101">
@@ -26961,7 +26961,7 @@
         <v>813</v>
       </c>
       <c r="C79" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D79" s="2">
         <v>14</v>
@@ -27249,7 +27249,7 @@
         <v>5841</v>
       </c>
       <c r="CU79" s="1">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="CV79" s="1">
         <v>131</v>
@@ -27571,7 +27571,7 @@
         <v>2437</v>
       </c>
       <c r="C81" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D81" s="2">
         <v>27</v>
@@ -27601,7 +27601,7 @@
         <v>201</v>
       </c>
       <c r="M81" s="2">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="N81" s="1">
         <v>38736</v>
@@ -27655,7 +27655,7 @@
         <v>349128</v>
       </c>
       <c r="AE81" s="2">
-        <v>31288</v>
+        <v>31309</v>
       </c>
       <c r="AF81" s="2">
         <v>31287</v>
@@ -27859,13 +27859,13 @@
         <v>416893</v>
       </c>
       <c r="CU81" s="1">
-        <v>31748</v>
+        <v>31764</v>
       </c>
       <c r="CV81" s="1">
         <v>31965</v>
       </c>
       <c r="CW81" s="1">
-        <v>33657</v>
+        <v>33620</v>
       </c>
     </row>
     <row r="82" spans="1:101">
@@ -34592,7 +34592,7 @@
         <v>169</v>
       </c>
       <c r="E104" s="2">
-        <v>405</v>
+        <v>312</v>
       </c>
       <c r="F104" s="1">
         <v>0</v>
@@ -34610,7 +34610,7 @@
         <v>9133</v>
       </c>
       <c r="K104" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L104" s="2">
         <v>525</v>
@@ -34625,7 +34625,7 @@
         <v>183</v>
       </c>
       <c r="P104" s="2">
-        <v>2938</v>
+        <v>1224</v>
       </c>
       <c r="Q104" s="2">
         <v>1950</v>
@@ -34874,13 +34874,13 @@
         <v>88432</v>
       </c>
       <c r="CU104" s="1">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="CV104" s="1">
-        <v>3865</v>
+        <v>2151</v>
       </c>
       <c r="CW104" s="1">
-        <v>3638</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="105" spans="1:101">
@@ -34891,7 +34891,7 @@
         <v>33</v>
       </c>
       <c r="C105" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D105" s="2">
         <v>2</v>
@@ -35179,7 +35179,7 @@
         <v>94</v>
       </c>
       <c r="CU105" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CV105" s="1">
         <v>4</v>
@@ -36790,16 +36790,16 @@
         <v>0</v>
       </c>
       <c r="Z111" s="1">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AA111" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB111" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC111" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AD111" s="1">
         <v>143740</v>
@@ -37006,16 +37006,16 @@
         <v>0</v>
       </c>
       <c r="CT111" s="1">
-        <v>159026</v>
+        <v>159030</v>
       </c>
       <c r="CU111" s="1">
-        <v>4325</v>
+        <v>4329</v>
       </c>
       <c r="CV111" s="1">
-        <v>4470</v>
+        <v>4474</v>
       </c>
       <c r="CW111" s="1">
-        <v>8579</v>
+        <v>8583</v>
       </c>
     </row>
     <row r="112" spans="1:101">
@@ -37828,7 +37828,7 @@
         <v>926</v>
       </c>
       <c r="BO114" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BP114" s="2">
         <v>2</v>
@@ -37924,7 +37924,7 @@
         <v>20063</v>
       </c>
       <c r="CU114" s="1">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="CV114" s="1">
         <v>355</v>
@@ -38566,7 +38566,7 @@
         <v>1</v>
       </c>
       <c r="H117" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" s="2">
         <v>5</v>
@@ -38842,7 +38842,7 @@
         <v>1</v>
       </c>
       <c r="CV117" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CW117" s="1">
         <v>6</v>
@@ -38859,7 +38859,7 @@
         <v>2</v>
       </c>
       <c r="D118" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E118" s="2">
         <v>5</v>
@@ -39147,7 +39147,7 @@
         <v>6</v>
       </c>
       <c r="CV118" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="CW118" s="1">
         <v>33</v>
@@ -39272,10 +39272,10 @@
         <v>5</v>
       </c>
       <c r="AN119" s="2">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="AO119" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AP119" s="1">
         <v>0</v>
@@ -39416,7 +39416,7 @@
         <v>4</v>
       </c>
       <c r="CJ119" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="CK119" s="2">
         <v>27</v>
@@ -39452,10 +39452,10 @@
         <v>10</v>
       </c>
       <c r="CV119" s="1">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="CW119" s="1">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="120" spans="1:101">
@@ -40199,7 +40199,7 @@
         <v>0</v>
       </c>
       <c r="AR122" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS122" s="2">
         <v>5</v>
@@ -40343,7 +40343,7 @@
         <v>0</v>
       </c>
       <c r="CN122" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CO122" s="2">
         <v>5</v>
@@ -40367,7 +40367,7 @@
         <v>9</v>
       </c>
       <c r="CV122" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="CW122" s="1">
         <v>32</v>
@@ -41296,10 +41296,10 @@
         <v>1013</v>
       </c>
       <c r="C126" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D126" s="2">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E126" s="2">
         <v>42</v>
@@ -41584,10 +41584,10 @@
         <v>2421</v>
       </c>
       <c r="CU126" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="CV126" s="1">
-        <v>1299</v>
+        <v>1282</v>
       </c>
       <c r="CW126" s="1">
         <v>1348</v>
@@ -42029,7 +42029,7 @@
         <v>0</v>
       </c>
       <c r="AR128" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS128" s="2">
         <v>2</v>
@@ -42161,7 +42161,7 @@
         <v>0</v>
       </c>
       <c r="CJ128" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK128" s="2">
         <v>8</v>
@@ -42197,7 +42197,7 @@
         <v>30</v>
       </c>
       <c r="CV128" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="CW128" s="1">
         <v>130</v>
@@ -43431,7 +43431,7 @@
         <v>269</v>
       </c>
       <c r="C133" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D133" s="2">
         <v>5</v>
@@ -43518,7 +43518,7 @@
         <v>2072</v>
       </c>
       <c r="AF133" s="2">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="AG133" s="2">
         <v>3627</v>
@@ -43719,10 +43719,10 @@
         <v>126046</v>
       </c>
       <c r="CU133" s="1">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="CV133" s="1">
-        <v>2939</v>
+        <v>2940</v>
       </c>
       <c r="CW133" s="1">
         <v>6275</v>
@@ -43769,16 +43769,16 @@
         <v>387</v>
       </c>
       <c r="N134" s="1">
-        <v>30575</v>
+        <v>30574</v>
       </c>
       <c r="O134" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P134" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Q134" s="2">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="R134" s="1">
         <v>0</v>
@@ -44021,16 +44021,16 @@
         <v>0</v>
       </c>
       <c r="CT134" s="1">
-        <v>58318</v>
+        <v>58317</v>
       </c>
       <c r="CU134" s="1">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="CV134" s="1">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="CW134" s="1">
-        <v>2741</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="135" spans="1:101">
@@ -46191,10 +46191,10 @@
         <v>0</v>
       </c>
       <c r="H142" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J142" s="1">
         <v>0</v>
@@ -46299,10 +46299,10 @@
         <v>1</v>
       </c>
       <c r="AR142" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS142" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT142" s="1">
         <v>0</v>
@@ -46443,10 +46443,10 @@
         <v>0</v>
       </c>
       <c r="CN142" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO142" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CP142" s="1">
         <v>0</v>
@@ -46467,10 +46467,10 @@
         <v>5</v>
       </c>
       <c r="CV142" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="CW142" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:101">
@@ -46595,7 +46595,7 @@
         <v>0</v>
       </c>
       <c r="AO143" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP143" s="1">
         <v>55</v>
@@ -46751,7 +46751,7 @@
         <v>2</v>
       </c>
       <c r="CO143" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CP143" s="1">
         <v>0</v>
@@ -46775,7 +46775,7 @@
         <v>20</v>
       </c>
       <c r="CW143" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="144" spans="1:101">
@@ -46783,16 +46783,16 @@
         <v>243</v>
       </c>
       <c r="B144" s="1">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C144" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D144" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E144" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F144" s="1">
         <v>1</v>
@@ -47071,16 +47071,16 @@
         <v>0</v>
       </c>
       <c r="CT144" s="1">
-        <v>2268</v>
+        <v>2274</v>
       </c>
       <c r="CU144" s="1">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="CV144" s="1">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="CW144" s="1">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="145" spans="1:101">
@@ -49041,7 +49041,7 @@
         <v>40</v>
       </c>
       <c r="AQ151" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR151" s="2">
         <v>3</v>
@@ -49209,7 +49209,7 @@
         <v>2596</v>
       </c>
       <c r="CU151" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CV151" s="1">
         <v>260</v>
@@ -51379,7 +51379,7 @@
         <v>4</v>
       </c>
       <c r="I159" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J159" s="1">
         <v>0</v>
@@ -51655,7 +51655,7 @@
         <v>11</v>
       </c>
       <c r="CW159" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:101">
@@ -52387,7 +52387,7 @@
         <v>0</v>
       </c>
       <c r="AN162" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO162" s="2">
         <v>2</v>
@@ -52528,10 +52528,10 @@
         <v>133</v>
       </c>
       <c r="CI162" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ162" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CK162" s="2">
         <v>7</v>
@@ -52564,10 +52564,10 @@
         <v>1044</v>
       </c>
       <c r="CU162" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CV162" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="CW162" s="1">
         <v>73</v>
@@ -53831,7 +53831,7 @@
         <v>61</v>
       </c>
       <c r="M167" s="2">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N167" s="1">
         <v>344</v>
@@ -54095,7 +54095,7 @@
         <v>143</v>
       </c>
       <c r="CW167" s="1">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="168" spans="1:101">
@@ -54435,7 +54435,7 @@
         <v>5747</v>
       </c>
       <c r="K169" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L169" s="2">
         <v>171</v>
@@ -54447,7 +54447,7 @@
         <v>2571</v>
       </c>
       <c r="O169" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P169" s="2">
         <v>51</v>
@@ -54699,7 +54699,7 @@
         <v>17604</v>
       </c>
       <c r="CU169" s="1">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CV169" s="1">
         <v>412</v>
@@ -56352,7 +56352,7 @@
         <v>0</v>
       </c>
       <c r="AN175" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AO175" s="2">
         <v>49</v>
@@ -56496,7 +56496,7 @@
         <v>0</v>
       </c>
       <c r="CJ175" s="2">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="CK175" s="2">
         <v>102</v>
@@ -56532,7 +56532,7 @@
         <v>1</v>
       </c>
       <c r="CV175" s="1">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="CW175" s="1">
         <v>159</v>
@@ -57578,16 +57578,16 @@
         <v>14</v>
       </c>
       <c r="AP179" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ179" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR179" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS179" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT179" s="1">
         <v>0</v>
@@ -57746,16 +57746,16 @@
         <v>0</v>
       </c>
       <c r="CT179" s="1">
-        <v>46852</v>
+        <v>46853</v>
       </c>
       <c r="CU179" s="1">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="CV179" s="1">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="CW179" s="1">
-        <v>3712</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="180" spans="1:101">
@@ -63627,7 +63627,7 @@
         <v>0</v>
       </c>
       <c r="Y199" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z199" s="1">
         <v>80</v>
@@ -63855,7 +63855,7 @@
         <v>1648</v>
       </c>
       <c r="CW199" s="1">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="200" spans="1:101">
@@ -65092,7 +65092,7 @@
         <v>5</v>
       </c>
       <c r="E204" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F204" s="1">
         <v>8</v>
@@ -65380,7 +65380,7 @@
         <v>100</v>
       </c>
       <c r="CW204" s="1">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="205" spans="1:101">
@@ -65427,7 +65427,7 @@
         <v>4951</v>
       </c>
       <c r="O205" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P205" s="2">
         <v>34</v>
@@ -65679,7 +65679,7 @@
         <v>13183</v>
       </c>
       <c r="CU205" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="CV205" s="1">
         <v>188</v>
@@ -66734,7 +66734,7 @@
         <v>2</v>
       </c>
       <c r="AR209" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS209" s="2">
         <v>4</v>
@@ -66866,7 +66866,7 @@
         <v>4</v>
       </c>
       <c r="CJ209" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CK209" s="2">
         <v>28</v>
@@ -66902,7 +66902,7 @@
         <v>64</v>
       </c>
       <c r="CV209" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="CW209" s="1">
         <v>227</v>
@@ -69319,7 +69319,7 @@
         <v>591</v>
       </c>
       <c r="D74">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E74" t="s">
         <v>712</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -8700,7 +8700,7 @@
         <v>142</v>
       </c>
       <c r="P19" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="2">
         <v>681</v>
@@ -8952,7 +8952,7 @@
         <v>186</v>
       </c>
       <c r="CV19" s="1">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="CW19" s="1">
         <v>992</v>
@@ -11224,7 +11224,7 @@
         <v>1</v>
       </c>
       <c r="AR27" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS27" s="2">
         <v>8</v>
@@ -11356,7 +11356,7 @@
         <v>4</v>
       </c>
       <c r="CJ27" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="CK27" s="2">
         <v>24</v>
@@ -11392,7 +11392,7 @@
         <v>156</v>
       </c>
       <c r="CV27" s="1">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="CW27" s="1">
         <v>303</v>
@@ -14268,16 +14268,16 @@
         <v>0</v>
       </c>
       <c r="AP37" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AQ37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR37" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS37" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT37" s="1">
         <v>0</v>
@@ -14412,16 +14412,16 @@
         <v>2</v>
       </c>
       <c r="CL37" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CM37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN37" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CO37" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CP37" s="1">
         <v>0</v>
@@ -14436,16 +14436,16 @@
         <v>0</v>
       </c>
       <c r="CT37" s="1">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="CU37" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CV37" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="CW37" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:101">
@@ -18227,7 +18227,7 @@
         <v>3</v>
       </c>
       <c r="AN50" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO50" s="2">
         <v>20</v>
@@ -18407,7 +18407,7 @@
         <v>8</v>
       </c>
       <c r="CV50" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="CW50" s="1">
         <v>45</v>
@@ -19955,268 +19955,268 @@
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G56" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" s="2">
+        <v>6</v>
+      </c>
+      <c r="I56" s="2">
+        <v>8</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
+      <c r="O56" s="2">
+        <v>0</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>0</v>
+      </c>
+      <c r="R56" s="1">
+        <v>0</v>
+      </c>
+      <c r="S56" s="2">
+        <v>0</v>
+      </c>
+      <c r="T56" s="2">
+        <v>0</v>
+      </c>
+      <c r="U56" s="2">
+        <v>0</v>
+      </c>
+      <c r="V56" s="1">
+        <v>0</v>
+      </c>
+      <c r="W56" s="2">
+        <v>0</v>
+      </c>
+      <c r="X56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="1">
+        <v>17</v>
+      </c>
+      <c r="AM56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO56" s="2">
+        <v>3</v>
+      </c>
+      <c r="AP56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AQ56" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR56" s="2">
+        <v>4</v>
+      </c>
+      <c r="AS56" s="2">
         <v>5</v>
       </c>
-      <c r="I56" s="2">
-        <v>7</v>
-      </c>
-      <c r="J56" s="1">
-        <v>0</v>
-      </c>
-      <c r="K56" s="2">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2">
-        <v>0</v>
-      </c>
-      <c r="M56" s="2">
-        <v>0</v>
-      </c>
-      <c r="N56" s="1">
-        <v>0</v>
-      </c>
-      <c r="O56" s="2">
-        <v>0</v>
-      </c>
-      <c r="P56" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>0</v>
-      </c>
-      <c r="R56" s="1">
-        <v>0</v>
-      </c>
-      <c r="S56" s="2">
-        <v>0</v>
-      </c>
-      <c r="T56" s="2">
-        <v>0</v>
-      </c>
-      <c r="U56" s="2">
-        <v>0</v>
-      </c>
-      <c r="V56" s="1">
-        <v>0</v>
-      </c>
-      <c r="W56" s="2">
-        <v>0</v>
-      </c>
-      <c r="X56" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB56" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD56" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE56" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF56" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG56" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH56" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI56" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ56" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK56" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL56" s="1">
-        <v>16</v>
-      </c>
-      <c r="AM56" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN56" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO56" s="2">
+      <c r="AT56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB56" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF56" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ56" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN56" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR56" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV56" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ56" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA56" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB56" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC56" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD56" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE56" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF56" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG56" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH56" s="1">
+        <v>52</v>
+      </c>
+      <c r="CI56" s="2">
+        <v>4</v>
+      </c>
+      <c r="CJ56" s="2">
+        <v>5</v>
+      </c>
+      <c r="CK56" s="2">
+        <v>24</v>
+      </c>
+      <c r="CL56" s="1">
+        <v>13</v>
+      </c>
+      <c r="CM56" s="2">
         <v>2</v>
       </c>
-      <c r="AP56" s="1">
-        <v>14</v>
-      </c>
-      <c r="AQ56" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR56" s="2">
-        <v>3</v>
-      </c>
-      <c r="AS56" s="2">
+      <c r="CN56" s="2">
         <v>4</v>
       </c>
-      <c r="AT56" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU56" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV56" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW56" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX56" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY56" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB56" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF56" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ56" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN56" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR56" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BT56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BU56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV56" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY56" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ56" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA56" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB56" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC56" s="2">
-        <v>0</v>
-      </c>
-      <c r="CD56" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE56" s="2">
-        <v>0</v>
-      </c>
-      <c r="CF56" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG56" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH56" s="1">
-        <v>49</v>
-      </c>
-      <c r="CI56" s="2">
-        <v>1</v>
-      </c>
-      <c r="CJ56" s="2">
-        <v>2</v>
-      </c>
-      <c r="CK56" s="2">
-        <v>21</v>
-      </c>
-      <c r="CL56" s="1">
-        <v>12</v>
-      </c>
-      <c r="CM56" s="2">
-        <v>1</v>
-      </c>
-      <c r="CN56" s="2">
-        <v>3</v>
-      </c>
       <c r="CO56" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CP56" s="1">
         <v>0</v>
@@ -20231,16 +20231,16 @@
         <v>0</v>
       </c>
       <c r="CT56" s="1">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="CU56" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="CV56" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="CW56" s="1">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:101">
@@ -22078,16 +22078,16 @@
         <v>162</v>
       </c>
       <c r="B63" s="1">
-        <v>3504</v>
+        <v>3528</v>
       </c>
       <c r="C63" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D63" s="2">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E63" s="2">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -22366,16 +22366,16 @@
         <v>0</v>
       </c>
       <c r="CT63" s="1">
-        <v>60694</v>
+        <v>60718</v>
       </c>
       <c r="CU63" s="1">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="CV63" s="1">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="CW63" s="1">
-        <v>1645</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="64" spans="1:101">
@@ -23005,16 +23005,16 @@
         <v>-23</v>
       </c>
       <c r="F66" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" s="1">
         <v>293</v>
@@ -23281,16 +23281,16 @@
         <v>0</v>
       </c>
       <c r="CT66" s="1">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="CU66" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CV66" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CW66" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:101">
@@ -23633,7 +23633,7 @@
         <v>3</v>
       </c>
       <c r="L68" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M68" s="2">
         <v>9</v>
@@ -23897,7 +23897,7 @@
         <v>15</v>
       </c>
       <c r="CV68" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="CW68" s="1">
         <v>50</v>
@@ -24524,7 +24524,7 @@
         <v>2</v>
       </c>
       <c r="D71" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E71" s="2">
         <v>9</v>
@@ -24632,7 +24632,7 @@
         <v>3</v>
       </c>
       <c r="AN71" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO71" s="2">
         <v>9</v>
@@ -24776,7 +24776,7 @@
         <v>10</v>
       </c>
       <c r="CJ71" s="2">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="CK71" s="2">
         <v>64</v>
@@ -24812,7 +24812,7 @@
         <v>15</v>
       </c>
       <c r="CV71" s="1">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="CW71" s="1">
         <v>84</v>
@@ -25469,16 +25469,16 @@
         <v>399</v>
       </c>
       <c r="N74" s="1">
-        <v>113772</v>
+        <v>113834</v>
       </c>
       <c r="O74" s="2">
-        <v>1952</v>
+        <v>2014</v>
       </c>
       <c r="P74" s="2">
-        <v>1834</v>
+        <v>1896</v>
       </c>
       <c r="Q74" s="2">
-        <v>3131</v>
+        <v>3193</v>
       </c>
       <c r="R74" s="1">
         <v>1</v>
@@ -25721,16 +25721,16 @@
         <v>0</v>
       </c>
       <c r="CT74" s="1">
-        <v>145280</v>
+        <v>145342</v>
       </c>
       <c r="CU74" s="1">
-        <v>2353</v>
+        <v>2415</v>
       </c>
       <c r="CV74" s="1">
-        <v>2615</v>
+        <v>2677</v>
       </c>
       <c r="CW74" s="1">
-        <v>4474</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25852,7 +25852,7 @@
         <v>16</v>
       </c>
       <c r="AN75" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AO75" s="2">
         <v>89</v>
@@ -25990,16 +25990,16 @@
         <v>1</v>
       </c>
       <c r="CH75" s="1">
-        <v>6312</v>
+        <v>6315</v>
       </c>
       <c r="CI75" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="CJ75" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="CK75" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="CL75" s="1">
         <v>101</v>
@@ -26026,16 +26026,16 @@
         <v>1</v>
       </c>
       <c r="CT75" s="1">
-        <v>365647</v>
+        <v>365650</v>
       </c>
       <c r="CU75" s="1">
-        <v>6097</v>
+        <v>6100</v>
       </c>
       <c r="CV75" s="1">
-        <v>6576</v>
+        <v>6578</v>
       </c>
       <c r="CW75" s="1">
-        <v>19005</v>
+        <v>19008</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -26354,7 +26354,7 @@
         <v>6</v>
       </c>
       <c r="D77" s="2">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E77" s="2">
         <v>65</v>
@@ -26642,7 +26642,7 @@
         <v>701</v>
       </c>
       <c r="CV77" s="1">
-        <v>1470</v>
+        <v>1455</v>
       </c>
       <c r="CW77" s="1">
         <v>2251</v>
@@ -30038,7 +30038,7 @@
         <v>85</v>
       </c>
       <c r="L89" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M89" s="2">
         <v>433</v>
@@ -30302,7 +30302,7 @@
         <v>184</v>
       </c>
       <c r="CV89" s="1">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="CW89" s="1">
         <v>874</v>
@@ -33076,7 +33076,7 @@
         <v>1</v>
       </c>
       <c r="H99" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I99" s="2">
         <v>5</v>
@@ -33352,7 +33352,7 @@
         <v>2</v>
       </c>
       <c r="CV99" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CW99" s="1">
         <v>6</v>
@@ -36126,7 +36126,7 @@
         <v>1</v>
       </c>
       <c r="H109" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I109" s="2">
         <v>6</v>
@@ -36402,7 +36402,7 @@
         <v>6</v>
       </c>
       <c r="CV109" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="CW109" s="1">
         <v>56</v>
@@ -41006,7 +41006,7 @@
         <v>1</v>
       </c>
       <c r="H125" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" s="2">
         <v>6</v>
@@ -41282,7 +41282,7 @@
         <v>22</v>
       </c>
       <c r="CV125" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CW125" s="1">
         <v>240</v>
@@ -43817,16 +43817,16 @@
         <v>10</v>
       </c>
       <c r="AD134" s="1">
-        <v>10590</v>
+        <v>10589</v>
       </c>
       <c r="AE134" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF134" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AG134" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AH134" s="1">
         <v>0</v>
@@ -44021,16 +44021,16 @@
         <v>0</v>
       </c>
       <c r="CT134" s="1">
-        <v>58317</v>
+        <v>58316</v>
       </c>
       <c r="CU134" s="1">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="CV134" s="1">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="CW134" s="1">
-        <v>2740</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="135" spans="1:101">
@@ -46108,16 +46108,16 @@
         <v>0</v>
       </c>
       <c r="CD141" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CE141" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF141" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG141" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH141" s="1">
         <v>106</v>
@@ -46156,16 +46156,16 @@
         <v>0</v>
       </c>
       <c r="CT141" s="1">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="CU141" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CV141" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CW141" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="142" spans="1:101">
@@ -50772,16 +50772,16 @@
         <v>0</v>
       </c>
       <c r="J157" s="1">
-        <v>6351</v>
+        <v>6352</v>
       </c>
       <c r="K157" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L157" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M157" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N157" s="1">
         <v>2804</v>
@@ -51036,16 +51036,16 @@
         <v>0</v>
       </c>
       <c r="CT157" s="1">
-        <v>22726</v>
+        <v>22727</v>
       </c>
       <c r="CU157" s="1">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="CV157" s="1">
-        <v>3672</v>
+        <v>3673</v>
       </c>
       <c r="CW157" s="1">
-        <v>4370</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="158" spans="1:101">
@@ -51358,28 +51358,28 @@
         <v>258</v>
       </c>
       <c r="B159" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C159" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E159" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F159" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G159" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I159" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J159" s="1">
         <v>0</v>
@@ -51646,16 +51646,16 @@
         <v>0</v>
       </c>
       <c r="CT159" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="CU159" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CV159" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CW159" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:101">
@@ -51705,7 +51705,7 @@
         <v>176</v>
       </c>
       <c r="P160" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q160" s="2">
         <v>585</v>
@@ -51957,7 +51957,7 @@
         <v>267</v>
       </c>
       <c r="CV160" s="1">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="CW160" s="1">
         <v>993</v>
@@ -53218,7 +53218,7 @@
         <v>0</v>
       </c>
       <c r="L165" s="2">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="M165" s="2">
         <v>98</v>
@@ -53482,7 +53482,7 @@
         <v>23</v>
       </c>
       <c r="CV165" s="1">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="CW165" s="1">
         <v>276</v>
@@ -57710,16 +57710,16 @@
         <v>1</v>
       </c>
       <c r="CH179" s="1">
-        <v>1860</v>
+        <v>1886</v>
       </c>
       <c r="CI179" s="2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="CJ179" s="2">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="CK179" s="2">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="CL179" s="1">
         <v>3</v>
@@ -57746,16 +57746,16 @@
         <v>0</v>
       </c>
       <c r="CT179" s="1">
-        <v>46853</v>
+        <v>46879</v>
       </c>
       <c r="CU179" s="1">
-        <v>1130</v>
+        <v>1156</v>
       </c>
       <c r="CV179" s="1">
-        <v>1281</v>
+        <v>1307</v>
       </c>
       <c r="CW179" s="1">
-        <v>3713</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="180" spans="1:101">
@@ -63361,16 +63361,16 @@
         <v>2</v>
       </c>
       <c r="AL198" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AM198" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN198" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO198" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP198" s="1">
         <v>24</v>
@@ -63541,16 +63541,16 @@
         <v>0</v>
       </c>
       <c r="CT198" s="1">
-        <v>15461</v>
+        <v>15463</v>
       </c>
       <c r="CU198" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="CV198" s="1">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CW198" s="1">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="199" spans="1:101">
@@ -63672,7 +63672,7 @@
         <v>4</v>
       </c>
       <c r="AN199" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO199" s="2">
         <v>15</v>
@@ -63816,7 +63816,7 @@
         <v>63</v>
       </c>
       <c r="CJ199" s="2">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="CK199" s="2">
         <v>164</v>
@@ -63852,7 +63852,7 @@
         <v>1459</v>
       </c>
       <c r="CV199" s="1">
-        <v>1648</v>
+        <v>1641</v>
       </c>
       <c r="CW199" s="1">
         <v>1854</v>
@@ -65430,7 +65430,7 @@
         <v>32</v>
       </c>
       <c r="P205" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q205" s="2">
         <v>150</v>
@@ -65682,7 +65682,7 @@
         <v>136</v>
       </c>
       <c r="CV205" s="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="CW205" s="1">
         <v>526</v>
@@ -69019,7 +69019,7 @@
         <v>576</v>
       </c>
       <c r="D59">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="E59" t="s">
         <v>712</v>
@@ -69279,7 +69279,7 @@
         <v>589</v>
       </c>
       <c r="D72">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="E72" t="s">
         <v>712</v>
@@ -69319,7 +69319,7 @@
         <v>591</v>
       </c>
       <c r="D74">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="E74" t="s">
         <v>712</v>
@@ -70145,7 +70145,7 @@
         <v>627</v>
       </c>
       <c r="D115">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E115" t="s">
         <v>712</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3476,7 +3476,7 @@
         <v>1447</v>
       </c>
       <c r="C2" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
         <v>13</v>
@@ -3668,7 +3668,7 @@
         <v>338</v>
       </c>
       <c r="BO2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BP2" s="2">
         <v>3</v>
@@ -3764,7 +3764,7 @@
         <v>43478</v>
       </c>
       <c r="CU2" s="1">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="CV2" s="1">
         <v>1094</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="Y4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>0</v>
@@ -4242,7 +4242,7 @@
         <v>24</v>
       </c>
       <c r="BC4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD4" s="2">
         <v>4</v>
@@ -4374,13 +4374,13 @@
         <v>37399</v>
       </c>
       <c r="CU4" s="1">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CV4" s="1">
         <v>449</v>
       </c>
       <c r="CW4" s="1">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -4998,28 +4998,28 @@
         <v>106</v>
       </c>
       <c r="B7" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -5286,16 +5286,16 @@
         <v>0</v>
       </c>
       <c r="CT7" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="CU7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CV7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CW7" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:101">
@@ -9588,7 +9588,7 @@
         <v>56</v>
       </c>
       <c r="G22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2">
         <v>4</v>
@@ -9816,7 +9816,7 @@
         <v>9</v>
       </c>
       <c r="CE22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF22" s="2">
         <v>1</v>
@@ -9864,7 +9864,7 @@
         <v>658</v>
       </c>
       <c r="CU22" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="CV22" s="1">
         <v>21</v>
@@ -10904,7 +10904,7 @@
         <v>60</v>
       </c>
       <c r="AM26" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN26" s="2">
         <v>4</v>
@@ -11048,7 +11048,7 @@
         <v>262</v>
       </c>
       <c r="CI26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ26" s="2">
         <v>3</v>
@@ -11084,7 +11084,7 @@
         <v>434</v>
       </c>
       <c r="CU26" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CV26" s="1">
         <v>14</v>
@@ -11137,7 +11137,7 @@
         <v>1994</v>
       </c>
       <c r="O27" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P27" s="2">
         <v>6</v>
@@ -11389,7 +11389,7 @@
         <v>23036</v>
       </c>
       <c r="CU27" s="1">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="CV27" s="1">
         <v>183</v>
@@ -12052,13 +12052,13 @@
         <v>1881</v>
       </c>
       <c r="O30" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P30" s="2">
         <v>25</v>
       </c>
       <c r="Q30" s="2">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="R30" s="1">
         <v>1</v>
@@ -12304,13 +12304,13 @@
         <v>5400</v>
       </c>
       <c r="CU30" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="CV30" s="1">
         <v>126</v>
       </c>
       <c r="CW30" s="1">
-        <v>315</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:101">
@@ -12351,7 +12351,7 @@
         <v>20</v>
       </c>
       <c r="M31" s="2">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N31" s="1">
         <v>6023</v>
@@ -12615,7 +12615,7 @@
         <v>203</v>
       </c>
       <c r="CW31" s="1">
-        <v>639</v>
+        <v>630</v>
       </c>
     </row>
     <row r="32" spans="1:101">
@@ -14582,7 +14582,7 @@
         <v>1</v>
       </c>
       <c r="AS38" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT38" s="1">
         <v>0</v>
@@ -14750,7 +14750,7 @@
         <v>47</v>
       </c>
       <c r="CW38" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:101">
@@ -14761,10 +14761,10 @@
         <v>12926</v>
       </c>
       <c r="C39" s="2">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="D39" s="2">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="E39" s="2">
         <v>465</v>
@@ -14803,7 +14803,7 @@
         <v>177</v>
       </c>
       <c r="Q39" s="2">
-        <v>687</v>
+        <v>402</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
@@ -15049,13 +15049,13 @@
         <v>54865</v>
       </c>
       <c r="CU39" s="1">
-        <v>389</v>
+        <v>302</v>
       </c>
       <c r="CV39" s="1">
-        <v>666</v>
+        <v>582</v>
       </c>
       <c r="CW39" s="1">
-        <v>1518</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="40" spans="1:101">
@@ -15793,16 +15793,16 @@
         <v>1</v>
       </c>
       <c r="AP42" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AQ42" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR42" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS42" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT42" s="1">
         <v>0</v>
@@ -15937,16 +15937,16 @@
         <v>0</v>
       </c>
       <c r="CL42" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="CM42" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CN42" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CO42" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CP42" s="1">
         <v>0</v>
@@ -15961,16 +15961,16 @@
         <v>0</v>
       </c>
       <c r="CT42" s="1">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="CU42" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="CV42" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CW42" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:101">
@@ -16107,7 +16107,7 @@
         <v>1</v>
       </c>
       <c r="AS43" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT43" s="1">
         <v>30</v>
@@ -16239,7 +16239,7 @@
         <v>10</v>
       </c>
       <c r="CK43" s="2">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="CL43" s="1">
         <v>32</v>
@@ -16275,7 +16275,7 @@
         <v>869</v>
       </c>
       <c r="CW43" s="1">
-        <v>2669</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="44" spans="1:101">
@@ -17916,16 +17916,16 @@
         <v>0</v>
       </c>
       <c r="AL49" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AM49" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN49" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO49" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AP49" s="1">
         <v>0</v>
@@ -18060,16 +18060,16 @@
         <v>0</v>
       </c>
       <c r="CH49" s="1">
-        <v>762</v>
+        <v>807</v>
       </c>
       <c r="CI49" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="CJ49" s="2">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="CK49" s="2">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="CL49" s="1">
         <v>0</v>
@@ -18096,16 +18096,16 @@
         <v>0</v>
       </c>
       <c r="CT49" s="1">
-        <v>1442</v>
+        <v>1491</v>
       </c>
       <c r="CU49" s="1">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="CV49" s="1">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="CW49" s="1">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:101">
@@ -18230,7 +18230,7 @@
         <v>6</v>
       </c>
       <c r="AO50" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AP50" s="1">
         <v>0</v>
@@ -18374,7 +18374,7 @@
         <v>8</v>
       </c>
       <c r="CK50" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="CL50" s="1">
         <v>0</v>
@@ -18410,7 +18410,7 @@
         <v>17</v>
       </c>
       <c r="CW50" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:101">
@@ -18846,7 +18846,7 @@
         <v>10</v>
       </c>
       <c r="AQ52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR52" s="2">
         <v>3</v>
@@ -18978,7 +18978,7 @@
         <v>95</v>
       </c>
       <c r="CI52" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CJ52" s="2">
         <v>4</v>
@@ -19014,7 +19014,7 @@
         <v>205</v>
       </c>
       <c r="CU52" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CV52" s="1">
         <v>8</v>
@@ -19591,7 +19591,7 @@
         <v>3</v>
       </c>
       <c r="CJ54" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="CK54" s="2">
         <v>20</v>
@@ -19627,7 +19627,7 @@
         <v>95</v>
       </c>
       <c r="CV54" s="1">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="CW54" s="1">
         <v>513</v>
@@ -19958,7 +19958,7 @@
         <v>30</v>
       </c>
       <c r="G56" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" s="2">
         <v>6</v>
@@ -20066,7 +20066,7 @@
         <v>15</v>
       </c>
       <c r="AQ56" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR56" s="2">
         <v>4</v>
@@ -20198,7 +20198,7 @@
         <v>52</v>
       </c>
       <c r="CI56" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CJ56" s="2">
         <v>5</v>
@@ -20210,7 +20210,7 @@
         <v>13</v>
       </c>
       <c r="CM56" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CN56" s="2">
         <v>4</v>
@@ -20234,7 +20234,7 @@
         <v>127</v>
       </c>
       <c r="CU56" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="CV56" s="1">
         <v>20</v>
@@ -20374,7 +20374,7 @@
         <v>1</v>
       </c>
       <c r="AR57" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS57" s="2">
         <v>7</v>
@@ -20518,7 +20518,7 @@
         <v>1</v>
       </c>
       <c r="CN57" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CO57" s="2">
         <v>7</v>
@@ -20542,7 +20542,7 @@
         <v>27</v>
       </c>
       <c r="CV57" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="CW57" s="1">
         <v>54</v>
@@ -20562,7 +20562,7 @@
         <v>5</v>
       </c>
       <c r="E58" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F58" s="1">
         <v>5</v>
@@ -20850,7 +20850,7 @@
         <v>5</v>
       </c>
       <c r="CW58" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:101">
@@ -20903,7 +20903,7 @@
         <v>139</v>
       </c>
       <c r="Q59" s="2">
-        <v>666</v>
+        <v>320</v>
       </c>
       <c r="R59" s="1">
         <v>0</v>
@@ -21155,7 +21155,7 @@
         <v>279</v>
       </c>
       <c r="CW59" s="1">
-        <v>858</v>
+        <v>512</v>
       </c>
     </row>
     <row r="60" spans="1:101">
@@ -21181,7 +21181,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I60" s="2">
         <v>2</v>
@@ -21457,7 +21457,7 @@
         <v>0</v>
       </c>
       <c r="CV60" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CW60" s="1">
         <v>3</v>
@@ -21495,7 +21495,7 @@
         <v>301</v>
       </c>
       <c r="K61" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L61" s="2">
         <v>11</v>
@@ -21507,7 +21507,7 @@
         <v>1022</v>
       </c>
       <c r="O61" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P61" s="2">
         <v>30</v>
@@ -21591,7 +21591,7 @@
         <v>57</v>
       </c>
       <c r="AQ61" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR61" s="2">
         <v>11</v>
@@ -21723,7 +21723,7 @@
         <v>608</v>
       </c>
       <c r="CI61" s="2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="CJ61" s="2">
         <v>35</v>
@@ -21759,7 +21759,7 @@
         <v>2582</v>
       </c>
       <c r="CU61" s="1">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="CV61" s="1">
         <v>107</v>
@@ -21860,7 +21860,7 @@
         <v>1779</v>
       </c>
       <c r="AE62" s="2">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="AF62" s="2">
         <v>107</v>
@@ -22064,7 +22064,7 @@
         <v>7346</v>
       </c>
       <c r="CU62" s="1">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="CV62" s="1">
         <v>217</v>
@@ -22153,7 +22153,7 @@
         <v>99</v>
       </c>
       <c r="AA63" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB63" s="2">
         <v>4</v>
@@ -22369,7 +22369,7 @@
         <v>60718</v>
       </c>
       <c r="CU63" s="1">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="CV63" s="1">
         <v>169</v>
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M66" s="2">
         <v>12</v>
@@ -23287,7 +23287,7 @@
         <v>29</v>
       </c>
       <c r="CV66" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="CW66" s="1">
         <v>99</v>
@@ -23726,13 +23726,13 @@
         <v>71</v>
       </c>
       <c r="AQ68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR68" s="2">
         <v>3</v>
       </c>
       <c r="AS68" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT68" s="1">
         <v>0</v>
@@ -23870,13 +23870,13 @@
         <v>39</v>
       </c>
       <c r="CM68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN68" s="2">
         <v>2</v>
       </c>
       <c r="CO68" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CP68" s="1">
         <v>0</v>
@@ -23894,13 +23894,13 @@
         <v>2142</v>
       </c>
       <c r="CU68" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="CV68" s="1">
         <v>24</v>
       </c>
       <c r="CW68" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:101">
@@ -24979,16 +24979,16 @@
         <v>0</v>
       </c>
       <c r="BB72" s="1">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BC72" s="2">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="BD72" s="2">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="BE72" s="2">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="BF72" s="1">
         <v>305</v>
@@ -25078,7 +25078,7 @@
         <v>15526</v>
       </c>
       <c r="CI72" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CJ72" s="2">
         <v>55</v>
@@ -25111,16 +25111,16 @@
         <v>1</v>
       </c>
       <c r="CT72" s="1">
-        <v>164094</v>
+        <v>164089</v>
       </c>
       <c r="CU72" s="1">
-        <v>1359</v>
+        <v>1349</v>
       </c>
       <c r="CV72" s="1">
-        <v>1797</v>
+        <v>1792</v>
       </c>
       <c r="CW72" s="1">
-        <v>6267</v>
+        <v>6262</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -25242,7 +25242,7 @@
         <v>1</v>
       </c>
       <c r="AN73" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO73" s="2">
         <v>4</v>
@@ -25422,7 +25422,7 @@
         <v>2</v>
       </c>
       <c r="CV73" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="CW73" s="1">
         <v>34</v>
@@ -25469,16 +25469,16 @@
         <v>399</v>
       </c>
       <c r="N74" s="1">
-        <v>113834</v>
+        <v>113850</v>
       </c>
       <c r="O74" s="2">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="P74" s="2">
-        <v>1896</v>
+        <v>1912</v>
       </c>
       <c r="Q74" s="2">
-        <v>3193</v>
+        <v>3211</v>
       </c>
       <c r="R74" s="1">
         <v>1</v>
@@ -25721,16 +25721,16 @@
         <v>0</v>
       </c>
       <c r="CT74" s="1">
-        <v>145342</v>
+        <v>145358</v>
       </c>
       <c r="CU74" s="1">
-        <v>2415</v>
+        <v>2417</v>
       </c>
       <c r="CV74" s="1">
-        <v>2677</v>
+        <v>2693</v>
       </c>
       <c r="CW74" s="1">
-        <v>4536</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25738,16 +25738,16 @@
         <v>174</v>
       </c>
       <c r="B75" s="1">
-        <v>14675</v>
+        <v>14674</v>
       </c>
       <c r="C75" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D75" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E75" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -25846,16 +25846,16 @@
         <v>0</v>
       </c>
       <c r="AL75" s="1">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="AM75" s="2">
         <v>16</v>
       </c>
       <c r="AN75" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO75" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AP75" s="1">
         <v>74</v>
@@ -25990,16 +25990,16 @@
         <v>1</v>
       </c>
       <c r="CH75" s="1">
-        <v>6315</v>
+        <v>6333</v>
       </c>
       <c r="CI75" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="CJ75" s="2">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="CK75" s="2">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="CL75" s="1">
         <v>101</v>
@@ -26026,16 +26026,16 @@
         <v>1</v>
       </c>
       <c r="CT75" s="1">
-        <v>365650</v>
+        <v>365669</v>
       </c>
       <c r="CU75" s="1">
-        <v>6100</v>
+        <v>6117</v>
       </c>
       <c r="CV75" s="1">
-        <v>6578</v>
+        <v>6597</v>
       </c>
       <c r="CW75" s="1">
-        <v>19008</v>
+        <v>19031</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -26633,7 +26633,7 @@
         <v>0</v>
       </c>
       <c r="CS77" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT77" s="1">
         <v>87658</v>
@@ -26645,7 +26645,7 @@
         <v>1455</v>
       </c>
       <c r="CW77" s="1">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="78" spans="1:101">
@@ -27072,7 +27072,7 @@
         <v>0</v>
       </c>
       <c r="AN79" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO79" s="2">
         <v>6</v>
@@ -27081,7 +27081,7 @@
         <v>52</v>
       </c>
       <c r="AQ79" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR79" s="2">
         <v>1</v>
@@ -27171,7 +27171,7 @@
         <v>1</v>
       </c>
       <c r="BU79" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BV79" s="1">
         <v>0</v>
@@ -27213,10 +27213,10 @@
         <v>138</v>
       </c>
       <c r="CI79" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ79" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CK79" s="2">
         <v>12</v>
@@ -27249,13 +27249,13 @@
         <v>5841</v>
       </c>
       <c r="CU79" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="CV79" s="1">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="CW79" s="1">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="80" spans="1:101">
@@ -27275,16 +27275,16 @@
         <v>0</v>
       </c>
       <c r="F80" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I80" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J80" s="1">
         <v>0</v>
@@ -27383,16 +27383,16 @@
         <v>0</v>
       </c>
       <c r="AP80" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AQ80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR80" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS80" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT80" s="1">
         <v>0</v>
@@ -27527,16 +27527,16 @@
         <v>2</v>
       </c>
       <c r="CL80" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CM80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN80" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CO80" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CP80" s="1">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="CT80" s="1">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="CU80" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CV80" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="CW80" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:101">
@@ -27568,16 +27568,16 @@
         <v>180</v>
       </c>
       <c r="B81" s="1">
-        <v>2437</v>
+        <v>2472</v>
       </c>
       <c r="C81" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D81" s="2">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E81" s="2">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -27610,7 +27610,7 @@
         <v>331</v>
       </c>
       <c r="P81" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q81" s="2">
         <v>1433</v>
@@ -27739,7 +27739,7 @@
         <v>674</v>
       </c>
       <c r="BG81" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH81" s="2">
         <v>0</v>
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="CT81" s="1">
-        <v>416893</v>
+        <v>416928</v>
       </c>
       <c r="CU81" s="1">
-        <v>31764</v>
+        <v>31798</v>
       </c>
       <c r="CV81" s="1">
-        <v>31965</v>
+        <v>31999</v>
       </c>
       <c r="CW81" s="1">
-        <v>33620</v>
+        <v>33655</v>
       </c>
     </row>
     <row r="82" spans="1:101">
@@ -28433,7 +28433,7 @@
         <v>197</v>
       </c>
       <c r="CI83" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="CJ83" s="2">
         <v>37</v>
@@ -28469,7 +28469,7 @@
         <v>310</v>
       </c>
       <c r="CU83" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="CV83" s="1">
         <v>49</v>
@@ -28738,7 +28738,7 @@
         <v>605</v>
       </c>
       <c r="CI84" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ84" s="2">
         <v>12</v>
@@ -28774,7 +28774,7 @@
         <v>2698</v>
       </c>
       <c r="CU84" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="CV84" s="1">
         <v>38</v>
@@ -29407,7 +29407,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" s="1">
         <v>33</v>
@@ -29695,7 +29695,7 @@
         <v>37</v>
       </c>
       <c r="CW87" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:101">
@@ -30319,7 +30319,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E90" s="2">
         <v>12</v>
@@ -30343,7 +30343,7 @@
         <v>0</v>
       </c>
       <c r="L90" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M90" s="2">
         <v>13</v>
@@ -30607,7 +30607,7 @@
         <v>26</v>
       </c>
       <c r="CV90" s="1">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="CW90" s="1">
         <v>146</v>
@@ -30726,16 +30726,16 @@
         <v>0</v>
       </c>
       <c r="AL91" s="1">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AM91" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN91" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AO91" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AP91" s="1">
         <v>34</v>
@@ -30870,16 +30870,16 @@
         <v>0</v>
       </c>
       <c r="CH91" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CI91" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ91" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CK91" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CL91" s="1">
         <v>34</v>
@@ -30906,16 +30906,16 @@
         <v>0</v>
       </c>
       <c r="CT91" s="1">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="CU91" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="CV91" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="CW91" s="1">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:101">
@@ -31961,7 +31961,7 @@
         <v>52</v>
       </c>
       <c r="AQ95" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR95" s="2">
         <v>3</v>
@@ -32105,7 +32105,7 @@
         <v>32</v>
       </c>
       <c r="CM95" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN95" s="2">
         <v>1</v>
@@ -32129,7 +32129,7 @@
         <v>195</v>
       </c>
       <c r="CU95" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CV95" s="1">
         <v>12</v>
@@ -33450,7 +33450,7 @@
         <v>2061</v>
       </c>
       <c r="AE100" s="2">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AF100" s="2">
         <v>48</v>
@@ -33603,16 +33603,16 @@
         <v>0</v>
       </c>
       <c r="CD100" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CE100" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF100" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG100" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH100" s="1">
         <v>1629</v>
@@ -33651,16 +33651,16 @@
         <v>0</v>
       </c>
       <c r="CT100" s="1">
-        <v>40165</v>
+        <v>40166</v>
       </c>
       <c r="CU100" s="1">
-        <v>432</v>
+        <v>385</v>
       </c>
       <c r="CV100" s="1">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="CW100" s="1">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="101" spans="1:101">
@@ -34281,7 +34281,7 @@
         <v>484</v>
       </c>
       <c r="C103" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D103" s="2">
         <v>11</v>
@@ -34536,7 +34536,7 @@
         <v>3</v>
       </c>
       <c r="CJ103" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="CK103" s="2">
         <v>25</v>
@@ -34569,10 +34569,10 @@
         <v>7115</v>
       </c>
       <c r="CU103" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="CV103" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="CW103" s="1">
         <v>417</v>
@@ -34586,7 +34586,7 @@
         <v>8672</v>
       </c>
       <c r="C104" s="2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D104" s="2">
         <v>169</v>
@@ -34610,7 +34610,7 @@
         <v>9133</v>
       </c>
       <c r="K104" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L104" s="2">
         <v>525</v>
@@ -34622,7 +34622,7 @@
         <v>22164</v>
       </c>
       <c r="O104" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="P104" s="2">
         <v>1224</v>
@@ -34658,7 +34658,7 @@
         <v>90</v>
       </c>
       <c r="AA104" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AB104" s="2">
         <v>12</v>
@@ -34874,7 +34874,7 @@
         <v>88432</v>
       </c>
       <c r="CU104" s="1">
-        <v>542</v>
+        <v>468</v>
       </c>
       <c r="CV104" s="1">
         <v>2151</v>
@@ -35205,16 +35205,16 @@
         <v>3</v>
       </c>
       <c r="F106" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G106" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J106" s="1">
         <v>0</v>
@@ -35481,16 +35481,16 @@
         <v>0</v>
       </c>
       <c r="CT106" s="1">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="CU106" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CV106" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CW106" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="1:101">
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="J110" s="1">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="K110" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L110" s="2">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M110" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N110" s="1">
         <v>4844</v>
@@ -36701,16 +36701,16 @@
         <v>0</v>
       </c>
       <c r="CT110" s="1">
-        <v>7251</v>
+        <v>7256</v>
       </c>
       <c r="CU110" s="1">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="CV110" s="1">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="CW110" s="1">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="111" spans="1:101">
@@ -37678,7 +37678,7 @@
         <v>92</v>
       </c>
       <c r="Q114" s="2">
-        <v>333</v>
+        <v>189</v>
       </c>
       <c r="R114" s="1">
         <v>0</v>
@@ -37702,7 +37702,7 @@
         <v>0</v>
       </c>
       <c r="Y114" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z114" s="1">
         <v>91</v>
@@ -37930,7 +37930,7 @@
         <v>355</v>
       </c>
       <c r="CW114" s="1">
-        <v>802</v>
+        <v>657</v>
       </c>
     </row>
     <row r="115" spans="1:101">
@@ -37962,16 +37962,16 @@
         <v>0</v>
       </c>
       <c r="J115" s="1">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K115" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L115" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M115" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N115" s="1">
         <v>2381</v>
@@ -38094,16 +38094,16 @@
         <v>0</v>
       </c>
       <c r="BB115" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BC115" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BD115" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE115" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF115" s="1">
         <v>0</v>
@@ -38226,16 +38226,16 @@
         <v>0</v>
       </c>
       <c r="CT115" s="1">
-        <v>11375</v>
+        <v>11381</v>
       </c>
       <c r="CU115" s="1">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="CV115" s="1">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="CW115" s="1">
-        <v>780</v>
+        <v>786</v>
       </c>
     </row>
     <row r="116" spans="1:101">
@@ -39266,16 +39266,16 @@
         <v>0</v>
       </c>
       <c r="AL119" s="1">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM119" s="2">
         <v>5</v>
       </c>
       <c r="AN119" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AO119" s="2">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AP119" s="1">
         <v>0</v>
@@ -39410,16 +39410,16 @@
         <v>0</v>
       </c>
       <c r="CH119" s="1">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="CI119" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="CJ119" s="2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="CK119" s="2">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="CL119" s="1">
         <v>0</v>
@@ -39446,16 +39446,16 @@
         <v>0</v>
       </c>
       <c r="CT119" s="1">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="CU119" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="CV119" s="1">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="CW119" s="1">
-        <v>66</v>
+        <v>89</v>
       </c>
     </row>
     <row r="120" spans="1:101">
@@ -40193,16 +40193,16 @@
         <v>0</v>
       </c>
       <c r="AP122" s="1">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AQ122" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR122" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS122" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT122" s="1">
         <v>0</v>
@@ -40337,16 +40337,16 @@
         <v>0</v>
       </c>
       <c r="CL122" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CM122" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN122" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CO122" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CP122" s="1">
         <v>0</v>
@@ -40361,16 +40361,16 @@
         <v>0</v>
       </c>
       <c r="CT122" s="1">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="CU122" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CV122" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="CW122" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123" spans="1:101">
@@ -41721,7 +41721,7 @@
         <v>62</v>
       </c>
       <c r="AQ127" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR127" s="2">
         <v>2</v>
@@ -41865,7 +41865,7 @@
         <v>56</v>
       </c>
       <c r="CM127" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CN127" s="2">
         <v>2</v>
@@ -41889,7 +41889,7 @@
         <v>267</v>
       </c>
       <c r="CU127" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CV127" s="1">
         <v>7</v>
@@ -42247,7 +42247,7 @@
         <v>377</v>
       </c>
       <c r="O129" s="2">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="P129" s="2">
         <v>43</v>
@@ -42499,7 +42499,7 @@
         <v>765</v>
       </c>
       <c r="CU129" s="1">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="CV129" s="1">
         <v>80</v>
@@ -43132,7 +43132,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" s="1">
         <v>65</v>
@@ -43420,7 +43420,7 @@
         <v>4</v>
       </c>
       <c r="CW132" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:101">
@@ -43742,7 +43742,7 @@
         <v>138</v>
       </c>
       <c r="E134" s="2">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="F134" s="1">
         <v>0</v>
@@ -43928,7 +43928,7 @@
         <v>230</v>
       </c>
       <c r="BO134" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BP134" s="2">
         <v>6</v>
@@ -44024,13 +44024,13 @@
         <v>58316</v>
       </c>
       <c r="CU134" s="1">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="CV134" s="1">
         <v>1225</v>
       </c>
       <c r="CW134" s="1">
-        <v>2739</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="135" spans="1:101">
@@ -44463,16 +44463,16 @@
         <v>0</v>
       </c>
       <c r="AP136" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AQ136" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR136" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS136" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT136" s="1">
         <v>0</v>
@@ -44607,16 +44607,16 @@
         <v>1</v>
       </c>
       <c r="CL136" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CM136" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN136" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CO136" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CP136" s="1">
         <v>0</v>
@@ -44631,16 +44631,16 @@
         <v>0</v>
       </c>
       <c r="CT136" s="1">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="CU136" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CV136" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CW136" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="137" spans="1:101">
@@ -46604,7 +46604,7 @@
         <v>1</v>
       </c>
       <c r="AR143" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS143" s="2">
         <v>5</v>
@@ -46736,7 +46736,7 @@
         <v>0</v>
       </c>
       <c r="CJ143" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CK143" s="2">
         <v>2</v>
@@ -46772,7 +46772,7 @@
         <v>7</v>
       </c>
       <c r="CV143" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="CW143" s="1">
         <v>32</v>
@@ -47432,7 +47432,7 @@
         <v>12</v>
       </c>
       <c r="O146" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P146" s="2">
         <v>2</v>
@@ -47513,16 +47513,16 @@
         <v>0</v>
       </c>
       <c r="AP146" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AQ146" s="2">
         <v>1</v>
       </c>
       <c r="AR146" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS146" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT146" s="1">
         <v>0</v>
@@ -47600,7 +47600,7 @@
         <v>13</v>
       </c>
       <c r="BS146" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT146" s="2">
         <v>1</v>
@@ -47636,7 +47636,7 @@
         <v>2</v>
       </c>
       <c r="CE146" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF146" s="2">
         <v>1</v>
@@ -47648,7 +47648,7 @@
         <v>22</v>
       </c>
       <c r="CI146" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ146" s="2">
         <v>2</v>
@@ -47681,16 +47681,16 @@
         <v>0</v>
       </c>
       <c r="CT146" s="1">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="CU146" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="CV146" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CW146" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="147" spans="1:101">
@@ -48736,7 +48736,7 @@
         <v>55</v>
       </c>
       <c r="AQ150" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR150" s="2">
         <v>2</v>
@@ -48868,7 +48868,7 @@
         <v>117</v>
       </c>
       <c r="CI150" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CJ150" s="2">
         <v>5</v>
@@ -48904,7 +48904,7 @@
         <v>397</v>
       </c>
       <c r="CU150" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CV150" s="1">
         <v>19</v>
@@ -49235,16 +49235,16 @@
         <v>0</v>
       </c>
       <c r="F152" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G152" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H152" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I152" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J152" s="1">
         <v>0</v>
@@ -49511,16 +49511,16 @@
         <v>0</v>
       </c>
       <c r="CT152" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="CU152" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CV152" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CW152" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" spans="1:101">
@@ -49902,7 +49902,7 @@
         <v>0</v>
       </c>
       <c r="Y154" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z154" s="1">
         <v>0</v>
@@ -50130,7 +50130,7 @@
         <v>45</v>
       </c>
       <c r="CW154" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="155" spans="1:101">
@@ -50991,7 +50991,7 @@
         <v>6</v>
       </c>
       <c r="CE157" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF157" s="2">
         <v>1</v>
@@ -51039,7 +51039,7 @@
         <v>22727</v>
       </c>
       <c r="CU157" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CV157" s="1">
         <v>3673</v>
@@ -51705,7 +51705,7 @@
         <v>176</v>
       </c>
       <c r="P160" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q160" s="2">
         <v>585</v>
@@ -51957,7 +51957,7 @@
         <v>267</v>
       </c>
       <c r="CV160" s="1">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="CW160" s="1">
         <v>993</v>
@@ -53227,7 +53227,7 @@
         <v>2017</v>
       </c>
       <c r="O165" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P165" s="2">
         <v>18</v>
@@ -53479,7 +53479,7 @@
         <v>4570</v>
       </c>
       <c r="CU165" s="1">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="CV165" s="1">
         <v>67</v>
@@ -54115,16 +54115,16 @@
         <v>0</v>
       </c>
       <c r="F168" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G168" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I168" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J168" s="1">
         <v>0</v>
@@ -54391,16 +54391,16 @@
         <v>0</v>
       </c>
       <c r="CT168" s="1">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="CU168" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV168" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CW168" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="169" spans="1:101">
@@ -54740,7 +54740,7 @@
         <v>257</v>
       </c>
       <c r="K170" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L170" s="2">
         <v>27</v>
@@ -55004,7 +55004,7 @@
         <v>5689</v>
       </c>
       <c r="CU170" s="1">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="CV170" s="1">
         <v>80</v>
@@ -55670,7 +55670,7 @@
         <v>5</v>
       </c>
       <c r="P173" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q173" s="2">
         <v>13</v>
@@ -55922,7 +55922,7 @@
         <v>7</v>
       </c>
       <c r="CV173" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="CW173" s="1">
         <v>26</v>
@@ -56848,16 +56848,16 @@
         <v>276</v>
       </c>
       <c r="B177" s="1">
-        <v>7514</v>
+        <v>7513</v>
       </c>
       <c r="C177" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D177" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E177" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F177" s="1">
         <v>0</v>
@@ -56917,7 +56917,7 @@
         <v>0</v>
       </c>
       <c r="Y177" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z177" s="1">
         <v>113</v>
@@ -56965,7 +56965,7 @@
         <v>10</v>
       </c>
       <c r="AO177" s="2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AP177" s="1">
         <v>30</v>
@@ -57136,16 +57136,16 @@
         <v>0</v>
       </c>
       <c r="CT177" s="1">
-        <v>77815</v>
+        <v>77814</v>
       </c>
       <c r="CU177" s="1">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="CV177" s="1">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="CW177" s="1">
-        <v>5481</v>
+        <v>5476</v>
       </c>
     </row>
     <row r="178" spans="1:101">
@@ -57461,7 +57461,7 @@
         <v>7661</v>
       </c>
       <c r="C179" s="2">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D179" s="2">
         <v>102</v>
@@ -57488,7 +57488,7 @@
         <v>23</v>
       </c>
       <c r="L179" s="2">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="M179" s="2">
         <v>142</v>
@@ -57545,7 +57545,7 @@
         <v>367</v>
       </c>
       <c r="AE179" s="2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AF179" s="2">
         <v>23</v>
@@ -57749,10 +57749,10 @@
         <v>46879</v>
       </c>
       <c r="CU179" s="1">
-        <v>1156</v>
+        <v>1074</v>
       </c>
       <c r="CV179" s="1">
-        <v>1307</v>
+        <v>1275</v>
       </c>
       <c r="CW179" s="1">
         <v>3739</v>
@@ -59250,7 +59250,7 @@
         <v>15</v>
       </c>
       <c r="CM184" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CN184" s="2">
         <v>2</v>
@@ -59274,7 +59274,7 @@
         <v>122</v>
       </c>
       <c r="CU184" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CV184" s="1">
         <v>21</v>
@@ -60924,7 +60924,7 @@
         <v>24</v>
       </c>
       <c r="AM190" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AN190" s="2">
         <v>7</v>
@@ -61068,7 +61068,7 @@
         <v>382</v>
       </c>
       <c r="CI190" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="CJ190" s="2">
         <v>12</v>
@@ -61104,7 +61104,7 @@
         <v>567</v>
       </c>
       <c r="CU190" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="CV190" s="1">
         <v>26</v>
@@ -62108,7 +62108,7 @@
         <v>92</v>
       </c>
       <c r="AA194" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB194" s="2">
         <v>4</v>
@@ -62324,7 +62324,7 @@
         <v>5129</v>
       </c>
       <c r="CU194" s="1">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="CV194" s="1">
         <v>100</v>
@@ -63370,7 +63370,7 @@
         <v>9</v>
       </c>
       <c r="AO198" s="2">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AP198" s="1">
         <v>24</v>
@@ -63388,7 +63388,7 @@
         <v>41</v>
       </c>
       <c r="AU198" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV198" s="2">
         <v>1</v>
@@ -63514,7 +63514,7 @@
         <v>26</v>
       </c>
       <c r="CK198" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="CL198" s="1">
         <v>9</v>
@@ -63544,13 +63544,13 @@
         <v>15463</v>
       </c>
       <c r="CU198" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="CV198" s="1">
         <v>252</v>
       </c>
       <c r="CW198" s="1">
-        <v>552</v>
+        <v>533</v>
       </c>
     </row>
     <row r="199" spans="1:101">
@@ -65119,16 +65119,16 @@
         <v>0</v>
       </c>
       <c r="N204" s="1">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="O204" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P204" s="2">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="Q204" s="2">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="R204" s="1">
         <v>0</v>
@@ -65371,16 +65371,16 @@
         <v>0</v>
       </c>
       <c r="CT204" s="1">
-        <v>1142</v>
+        <v>1158</v>
       </c>
       <c r="CU204" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="CV204" s="1">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="CW204" s="1">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="205" spans="1:101">
@@ -65511,7 +65511,7 @@
         <v>56</v>
       </c>
       <c r="AQ205" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR205" s="2">
         <v>3</v>
@@ -65643,7 +65643,7 @@
         <v>3087</v>
       </c>
       <c r="CI205" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CJ205" s="2">
         <v>25</v>
@@ -65679,7 +65679,7 @@
         <v>13183</v>
       </c>
       <c r="CU205" s="1">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="CV205" s="1">
         <v>187</v>
@@ -66728,16 +66728,16 @@
         <v>0</v>
       </c>
       <c r="AP209" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AQ209" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR209" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS209" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT209" s="1">
         <v>8</v>
@@ -66860,16 +66860,16 @@
         <v>1</v>
       </c>
       <c r="CH209" s="1">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="CI209" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="CJ209" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="CK209" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="CL209" s="1">
         <v>15</v>
@@ -66896,16 +66896,16 @@
         <v>0</v>
       </c>
       <c r="CT209" s="1">
-        <v>5463</v>
+        <v>5469</v>
       </c>
       <c r="CU209" s="1">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="CV209" s="1">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="CW209" s="1">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="210" spans="1:101">
@@ -67227,7 +67227,7 @@
         <v>1</v>
       </c>
       <c r="E211" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F211" s="1">
         <v>36</v>
@@ -67239,7 +67239,7 @@
         <v>2</v>
       </c>
       <c r="I211" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J211" s="1">
         <v>0</v>
@@ -67515,7 +67515,7 @@
         <v>34</v>
       </c>
       <c r="CW211" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="212" spans="1:101">
@@ -69379,7 +69379,7 @@
         <v>594</v>
       </c>
       <c r="D77">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E77" t="s">
         <v>712</v>
@@ -71051,7 +71051,7 @@
         <v>666</v>
       </c>
       <c r="D160">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E160" t="s">
         <v>712</v>

--- a/PD_CHANGES_RPT/PD_Activity.xlsx
+++ b/PD_CHANGES_RPT/PD_Activity.xlsx
@@ -3476,10 +3476,10 @@
         <v>1447</v>
       </c>
       <c r="C2" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2">
         <v>44</v>
@@ -3563,7 +3563,7 @@
         <v>552</v>
       </c>
       <c r="AF2" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AG2" s="2">
         <v>1172</v>
@@ -3764,10 +3764,10 @@
         <v>43478</v>
       </c>
       <c r="CU2" s="1">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="CV2" s="1">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="CW2" s="1">
         <v>2995</v>
@@ -4502,7 +4502,7 @@
         <v>6</v>
       </c>
       <c r="AN5" s="2">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AO5" s="2">
         <v>58</v>
@@ -4646,7 +4646,7 @@
         <v>42</v>
       </c>
       <c r="CJ5" s="2">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="CK5" s="2">
         <v>238</v>
@@ -4682,7 +4682,7 @@
         <v>49</v>
       </c>
       <c r="CV5" s="1">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="CW5" s="1">
         <v>304</v>
@@ -7247,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="AN14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="2">
         <v>1</v>
@@ -7427,7 +7427,7 @@
         <v>3</v>
       </c>
       <c r="CV14" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="CW14" s="1">
         <v>79</v>
@@ -9591,7 +9591,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22" s="2">
         <v>6</v>
@@ -9867,7 +9867,7 @@
         <v>13</v>
       </c>
       <c r="CV22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="CW22" s="1">
         <v>51</v>
@@ -11167,7 +11167,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="1">
         <v>0</v>
@@ -11323,7 +11323,7 @@
         <v>1</v>
       </c>
       <c r="BY27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BZ27" s="1">
         <v>1</v>
@@ -11395,7 +11395,7 @@
         <v>183</v>
       </c>
       <c r="CW27" s="1">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:101">
@@ -12043,7 +12043,7 @@
         <v>14</v>
       </c>
       <c r="L30" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M30" s="2">
         <v>74</v>
@@ -12082,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="1">
         <v>0</v>
@@ -12130,7 +12130,7 @@
         <v>18</v>
       </c>
       <c r="AO30" s="2">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP30" s="1">
         <v>18</v>
@@ -12274,7 +12274,7 @@
         <v>17</v>
       </c>
       <c r="CK30" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="CL30" s="1">
         <v>19</v>
@@ -12307,10 +12307,10 @@
         <v>70</v>
       </c>
       <c r="CV30" s="1">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="CW30" s="1">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:101">
@@ -12348,7 +12348,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="2">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M31" s="2">
         <v>48</v>
@@ -12612,7 +12612,7 @@
         <v>154</v>
       </c>
       <c r="CV31" s="1">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="CW31" s="1">
         <v>630</v>
@@ -14187,13 +14187,13 @@
         <v>774</v>
       </c>
       <c r="O37" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P37" s="2">
         <v>8</v>
       </c>
       <c r="Q37" s="2">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="R37" s="1">
         <v>0</v>
@@ -14217,7 +14217,7 @@
         <v>0</v>
       </c>
       <c r="Y37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="1">
         <v>0</v>
@@ -14439,13 +14439,13 @@
         <v>1753</v>
       </c>
       <c r="CU37" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="CV37" s="1">
         <v>30</v>
       </c>
       <c r="CW37" s="1">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:101">
@@ -16221,7 +16221,7 @@
         <v>15</v>
       </c>
       <c r="CE43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF43" s="2">
         <v>1</v>
@@ -16269,7 +16269,7 @@
         <v>47182</v>
       </c>
       <c r="CU43" s="1">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="CV43" s="1">
         <v>869</v>
@@ -18529,7 +18529,7 @@
         <v>76</v>
       </c>
       <c r="AM51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN51" s="2">
         <v>4</v>
@@ -18709,7 +18709,7 @@
         <v>258</v>
       </c>
       <c r="CU51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CV51" s="1">
         <v>13</v>
@@ -18849,7 +18849,7 @@
         <v>0</v>
       </c>
       <c r="AR52" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS52" s="2">
         <v>4</v>
@@ -18981,7 +18981,7 @@
         <v>0</v>
       </c>
       <c r="CJ52" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CK52" s="2">
         <v>19</v>
@@ -19017,7 +19017,7 @@
         <v>0</v>
       </c>
       <c r="CV52" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="CW52" s="1">
         <v>28</v>
@@ -19378,7 +19378,7 @@
         <v>48</v>
       </c>
       <c r="Q54" s="2">
-        <v>223</v>
+        <v>90</v>
       </c>
       <c r="R54" s="1">
         <v>0</v>
@@ -19630,7 +19630,7 @@
         <v>157</v>
       </c>
       <c r="CW54" s="1">
-        <v>513</v>
+        <v>380</v>
       </c>
     </row>
     <row r="55" spans="1:101">
@@ -19961,7 +19961,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I56" s="2">
         <v>8</v>
@@ -20237,7 +20237,7 @@
         <v>7</v>
       </c>
       <c r="CV56" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="CW56" s="1">
         <v>44</v>
@@ -21860,7 +21860,7 @@
         <v>1779</v>
       </c>
       <c r="AE62" s="2">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="AF62" s="2">
         <v>107</v>
@@ -22064,7 +22064,7 @@
         <v>7346</v>
       </c>
       <c r="CU62" s="1">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="CV62" s="1">
         <v>217</v>
@@ -22111,7 +22111,7 @@
         <v>57</v>
       </c>
       <c r="M63" s="2">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="N63" s="1">
         <v>53048</v>
@@ -22375,7 +22375,7 @@
         <v>169</v>
       </c>
       <c r="CW63" s="1">
-        <v>1669</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="64" spans="1:101">
@@ -23002,7 +23002,7 @@
         <v>-25</v>
       </c>
       <c r="E66" s="2">
-        <v>-23</v>
+        <v>-24</v>
       </c>
       <c r="F66" s="1">
         <v>18</v>
@@ -23290,7 +23290,7 @@
         <v>9</v>
       </c>
       <c r="CW66" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:101">
@@ -23642,7 +23642,7 @@
         <v>1213</v>
       </c>
       <c r="O68" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P68" s="2">
         <v>7</v>
@@ -23894,7 +23894,7 @@
         <v>2142</v>
       </c>
       <c r="CU68" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="CV68" s="1">
         <v>24</v>
@@ -24231,7 +24231,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" s="2">
         <v>3</v>
@@ -24243,7 +24243,7 @@
         <v>2</v>
       </c>
       <c r="L70" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M70" s="2">
         <v>16</v>
@@ -24339,7 +24339,7 @@
         <v>1</v>
       </c>
       <c r="AR70" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS70" s="2">
         <v>5</v>
@@ -24471,7 +24471,7 @@
         <v>2</v>
       </c>
       <c r="CJ70" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CK70" s="2">
         <v>8</v>
@@ -24507,7 +24507,7 @@
         <v>34</v>
       </c>
       <c r="CV70" s="1">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="CW70" s="1">
         <v>76</v>
@@ -24527,7 +24527,7 @@
         <v>6</v>
       </c>
       <c r="E71" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F71" s="1">
         <v>42</v>
@@ -24779,7 +24779,7 @@
         <v>20</v>
       </c>
       <c r="CK71" s="2">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="CL71" s="1">
         <v>5</v>
@@ -24815,7 +24815,7 @@
         <v>30</v>
       </c>
       <c r="CW71" s="1">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:101">
@@ -24829,7 +24829,7 @@
         <v>54</v>
       </c>
       <c r="D72" s="2">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="E72" s="2">
         <v>384</v>
@@ -24856,7 +24856,7 @@
         <v>150</v>
       </c>
       <c r="M72" s="2">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="N72" s="1">
         <v>75466</v>
@@ -25117,10 +25117,10 @@
         <v>1349</v>
       </c>
       <c r="CV72" s="1">
-        <v>1792</v>
+        <v>1712</v>
       </c>
       <c r="CW72" s="1">
-        <v>6262</v>
+        <v>6235</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -25502,7 +25502,7 @@
         <v>0</v>
       </c>
       <c r="Y74" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z74" s="1">
         <v>91</v>
@@ -25730,7 +25730,7 @@
         <v>2693</v>
       </c>
       <c r="CW74" s="1">
-        <v>4554</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="75" spans="1:101">
@@ -25747,7 +25747,7 @@
         <v>333</v>
       </c>
       <c r="E75" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -25852,10 +25852,10 @@
         <v>16</v>
       </c>
       <c r="AN75" s="2">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO75" s="2">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AP75" s="1">
         <v>74</v>
@@ -25996,10 +25996,10 @@
         <v>102</v>
       </c>
       <c r="CJ75" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="CK75" s="2">
-        <v>502</v>
+        <v>458</v>
       </c>
       <c r="CL75" s="1">
         <v>101</v>
@@ -26032,10 +26032,10 @@
         <v>6117</v>
       </c>
       <c r="CV75" s="1">
-        <v>6597</v>
+        <v>6588</v>
       </c>
       <c r="CW75" s="1">
-        <v>19031</v>
+        <v>18983</v>
       </c>
     </row>
     <row r="76" spans="1:101">
@@ -26058,7 +26058,7 @@
         <v>19</v>
       </c>
       <c r="G76" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76" s="2">
         <v>3</v>
@@ -26334,7 +26334,7 @@
         <v>35</v>
       </c>
       <c r="CU76" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CV76" s="1">
         <v>19</v>
@@ -26991,7 +26991,7 @@
         <v>51</v>
       </c>
       <c r="M79" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="N79" s="1">
         <v>3319</v>
@@ -27255,7 +27255,7 @@
         <v>127</v>
       </c>
       <c r="CW79" s="1">
-        <v>466</v>
+        <v>424</v>
       </c>
     </row>
     <row r="80" spans="1:101">
@@ -27314,7 +27314,7 @@
         <v>8</v>
       </c>
       <c r="S80" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T80" s="2">
         <v>1</v>
@@ -27554,7 +27554,7 @@
         <v>288</v>
       </c>
       <c r="CU80" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CV80" s="1">
         <v>10</v>
@@ -28522,7 +28522,7 @@
         <v>1530</v>
       </c>
       <c r="O84" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P84" s="2">
         <v>18</v>
@@ -28597,7 +28597,7 @@
         <v>0</v>
       </c>
       <c r="AN84" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO84" s="2">
         <v>3</v>
@@ -28741,7 +28741,7 @@
         <v>0</v>
       </c>
       <c r="CJ84" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="CK84" s="2">
         <v>20</v>
@@ -28774,10 +28774,10 @@
         <v>2698</v>
       </c>
       <c r="CU84" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="CV84" s="1">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="CW84" s="1">
         <v>107</v>
@@ -29521,7 +29521,7 @@
         <v>33</v>
       </c>
       <c r="AQ87" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR87" s="2">
         <v>2</v>
@@ -29653,10 +29653,10 @@
         <v>62</v>
       </c>
       <c r="CI87" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ87" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CK87" s="2">
         <v>8</v>
@@ -29689,10 +29689,10 @@
         <v>1670</v>
       </c>
       <c r="CU87" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CV87" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="CW87" s="1">
         <v>78</v>
@@ -30125,7 +30125,7 @@
         <v>10</v>
       </c>
       <c r="AO89" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP89" s="1">
         <v>24</v>
@@ -30269,7 +30269,7 @@
         <v>60</v>
       </c>
       <c r="CK89" s="2">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="CL89" s="1">
         <v>5</v>
@@ -30305,7 +30305,7 @@
         <v>472</v>
       </c>
       <c r="CW89" s="1">
-        <v>874</v>
+        <v>864</v>
       </c>
     </row>
     <row r="90" spans="1:101">
@@ -30825,7 +30825,7 @@
         <v>23</v>
       </c>
       <c r="BS91" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT91" s="2">
         <v>1</v>
@@ -30909,7 +30909,7 @@
         <v>1076</v>
       </c>
       <c r="CU91" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="CV91" s="1">
         <v>34</v>
@@ -33073,7 +33073,7 @@
         <v>65</v>
       </c>
       <c r="G99" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" s="2">
         <v>2</v>
@@ -33349,7 +33349,7 @@
         <v>84</v>
       </c>
       <c r="CU99" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CV99" s="1">
         <v>3</v>
@@ -33474,10 +33474,10 @@
         <v>228</v>
       </c>
       <c r="AM100" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN100" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AO100" s="2">
         <v>15</v>
@@ -33618,10 +33618,10 @@
         <v>1629</v>
       </c>
       <c r="CI100" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CJ100" s="2">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="CK100" s="2">
         <v>48</v>
@@ -33654,10 +33654,10 @@
         <v>40166</v>
       </c>
       <c r="CU100" s="1">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="CV100" s="1">
-        <v>837</v>
+        <v>816</v>
       </c>
       <c r="CW100" s="1">
         <v>2035</v>
@@ -34622,7 +34622,7 @@
         <v>22164</v>
       </c>
       <c r="O104" s="2">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="P104" s="2">
         <v>1224</v>
@@ -34874,7 +34874,7 @@
         <v>88432</v>
       </c>
       <c r="CU104" s="1">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="CV104" s="1">
         <v>2151</v>
@@ -35830,7 +35830,7 @@
         <v>4239</v>
       </c>
       <c r="K108" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L108" s="2">
         <v>201</v>
@@ -35881,7 +35881,7 @@
         <v>4</v>
       </c>
       <c r="AB108" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AC108" s="2">
         <v>8</v>
@@ -36094,10 +36094,10 @@
         <v>11732</v>
       </c>
       <c r="CU108" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="CV108" s="1">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="CW108" s="1">
         <v>722</v>
@@ -36419,7 +36419,7 @@
         <v>0</v>
       </c>
       <c r="D110" s="2">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E110" s="2">
         <v>49</v>
@@ -36707,7 +36707,7 @@
         <v>199</v>
       </c>
       <c r="CV110" s="1">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="CW110" s="1">
         <v>495</v>
@@ -36751,7 +36751,7 @@
         <v>136</v>
       </c>
       <c r="M111" s="2">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="N111" s="1">
         <v>7411</v>
@@ -37015,7 +37015,7 @@
         <v>4474</v>
       </c>
       <c r="CW111" s="1">
-        <v>8583</v>
+        <v>8548</v>
       </c>
     </row>
     <row r="112" spans="1:101">
@@ -37041,7 +37041,7 @@
         <v>0</v>
       </c>
       <c r="H112" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" s="2">
         <v>5</v>
@@ -37317,7 +37317,7 @@
         <v>1</v>
       </c>
       <c r="CV112" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW112" s="1">
         <v>6</v>
@@ -37944,7 +37944,7 @@
         <v>109</v>
       </c>
       <c r="D115" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E115" s="2">
         <v>654</v>
@@ -38232,7 +38232,7 @@
         <v>150</v>
       </c>
       <c r="CV115" s="1">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="CW115" s="1">
         <v>786</v>
@@ -38856,7 +38856,7 @@
         <v>64</v>
       </c>
       <c r="C118" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D118" s="2">
         <v>3</v>
@@ -39144,7 +39144,7 @@
         <v>799</v>
       </c>
       <c r="CU118" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CV118" s="1">
         <v>17</v>
@@ -43542,7 +43542,7 @@
         <v>2</v>
       </c>
       <c r="AN133" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AO133" s="2">
         <v>15</v>
@@ -43557,7 +43557,7 @@
         <v>0</v>
       </c>
       <c r="AS133" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT133" s="1">
         <v>0</v>
@@ -43686,10 +43686,10 @@
         <v>10</v>
       </c>
       <c r="CJ133" s="2">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="CK133" s="2">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="CL133" s="1">
         <v>9</v>
@@ -43722,10 +43722,10 @@
         <v>2913</v>
       </c>
       <c r="CV133" s="1">
-        <v>2940</v>
+        <v>2926</v>
       </c>
       <c r="CW133" s="1">
-        <v>6275</v>
+        <v>6267</v>
       </c>
     </row>
     <row r="134" spans="1:101">
@@ -43802,7 +43802,7 @@
         <v>0</v>
       </c>
       <c r="Y134" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z134" s="1">
         <v>113</v>
@@ -43823,7 +43823,7 @@
         <v>317</v>
       </c>
       <c r="AF134" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG134" s="2">
         <v>485</v>
@@ -44027,10 +44027,10 @@
         <v>940</v>
       </c>
       <c r="CV134" s="1">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="CW134" s="1">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="135" spans="1:101">
@@ -44299,7 +44299,7 @@
         <v>6</v>
       </c>
       <c r="CK135" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="CL135" s="1">
         <v>13</v>
@@ -44335,7 +44335,7 @@
         <v>6784</v>
       </c>
       <c r="CW135" s="1">
-        <v>11060</v>
+        <v>11057</v>
       </c>
     </row>
     <row r="136" spans="1:101">
@@ -44657,7 +44657,7 @@
         <v>0</v>
       </c>
       <c r="E137" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F137" s="1">
         <v>9</v>
@@ -44669,7 +44669,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J137" s="1">
         <v>1088</v>
@@ -44678,7 +44678,7 @@
         <v>17</v>
       </c>
       <c r="L137" s="2">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="M137" s="2">
         <v>83</v>
@@ -44942,10 +44942,10 @@
         <v>79</v>
       </c>
       <c r="CV137" s="1">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="CW137" s="1">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="138" spans="1:101">
@@ -45291,7 +45291,7 @@
         <v>7</v>
       </c>
       <c r="M139" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N139" s="1">
         <v>88</v>
@@ -45387,7 +45387,7 @@
         <v>3</v>
       </c>
       <c r="AS139" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT139" s="1">
         <v>0</v>
@@ -45519,7 +45519,7 @@
         <v>4</v>
       </c>
       <c r="CK139" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="CL139" s="1">
         <v>6</v>
@@ -45555,7 +45555,7 @@
         <v>21</v>
       </c>
       <c r="CW139" s="1">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="140" spans="1:101">
@@ -45833,7 +45833,7 @@
         <v>0</v>
       </c>
       <c r="CN140" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CO140" s="2">
         <v>5</v>
@@ -45857,7 +45857,7 @@
         <v>3</v>
       </c>
       <c r="CV140" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CW140" s="1">
         <v>25</v>
@@ -45889,7 +45889,7 @@
         <v>1</v>
       </c>
       <c r="I141" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J141" s="1">
         <v>386</v>
@@ -45937,7 +45937,7 @@
         <v>0</v>
       </c>
       <c r="Y141" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z141" s="1">
         <v>0</v>
@@ -46165,7 +46165,7 @@
         <v>46</v>
       </c>
       <c r="CW141" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="142" spans="1:101">
@@ -47450,7 +47450,7 @@
         <v>0</v>
       </c>
       <c r="U146" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V146" s="1">
         <v>0</v>
@@ -47519,10 +47519,10 @@
         <v>1</v>
       </c>
       <c r="AR146" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS146" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT146" s="1">
         <v>0</v>
@@ -47663,10 +47663,10 @@
         <v>0</v>
       </c>
       <c r="CN146" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO146" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CP146" s="1">
         <v>0</v>
@@ -47687,10 +47687,10 @@
         <v>16</v>
       </c>
       <c r="CV146" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="CW146" s="1">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="147" spans="1:101">
@@ -49860,7 +49860,7 @@
         <v>500</v>
       </c>
       <c r="K154" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L154" s="2">
         <v>17</v>
@@ -50124,7 +50124,7 @@
         <v>2505</v>
       </c>
       <c r="CU154" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="CV154" s="1">
         <v>45</v>
@@ -50473,7 +50473,7 @@
         <v>14</v>
       </c>
       <c r="L156" s="2">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="M156" s="2">
         <v>141</v>
@@ -50737,7 +50737,7 @@
         <v>1231</v>
       </c>
       <c r="CV156" s="1">
-        <v>1380</v>
+        <v>1357</v>
       </c>
       <c r="CW156" s="1">
         <v>7561</v>
@@ -51774,10 +51774,10 @@
         <v>147</v>
       </c>
       <c r="AM160" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN160" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AO160" s="2">
         <v>12</v>
@@ -51918,10 +51918,10 @@
         <v>746</v>
       </c>
       <c r="CI160" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CJ160" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CK160" s="2">
         <v>31</v>
@@ -51954,10 +51954,10 @@
         <v>20519</v>
       </c>
       <c r="CU160" s="1">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="CV160" s="1">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="CW160" s="1">
         <v>993</v>
@@ -53230,7 +53230,7 @@
         <v>0</v>
       </c>
       <c r="P165" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q165" s="2">
         <v>140</v>
@@ -53482,7 +53482,7 @@
         <v>6</v>
       </c>
       <c r="CV165" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="CW165" s="1">
         <v>276</v>
@@ -53828,7 +53828,7 @@
         <v>19</v>
       </c>
       <c r="L167" s="2">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="M167" s="2">
         <v>92</v>
@@ -54092,7 +54092,7 @@
         <v>78</v>
       </c>
       <c r="CV167" s="1">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="CW167" s="1">
         <v>238</v>
@@ -54435,7 +54435,7 @@
         <v>5747</v>
       </c>
       <c r="K169" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L169" s="2">
         <v>171</v>
@@ -54699,7 +54699,7 @@
         <v>17604</v>
       </c>
       <c r="CU169" s="1">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CV169" s="1">
         <v>412</v>
@@ -56959,7 +56959,7 @@
         <v>126</v>
       </c>
       <c r="AM177" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AN177" s="2">
         <v>10</v>
@@ -57139,7 +57139,7 @@
         <v>77814</v>
       </c>
       <c r="CU177" s="1">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="CV177" s="1">
         <v>1872</v>
@@ -57491,7 +57491,7 @@
         <v>34</v>
       </c>
       <c r="M179" s="2">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="N179" s="1">
         <v>33745</v>
@@ -57503,7 +57503,7 @@
         <v>1000</v>
       </c>
       <c r="Q179" s="2">
-        <v>3117</v>
+        <v>1929</v>
       </c>
       <c r="R179" s="1">
         <v>0</v>
@@ -57527,7 +57527,7 @@
         <v>0</v>
       </c>
       <c r="Y179" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z179" s="1">
         <v>106</v>
@@ -57716,7 +57716,7 @@
         <v>26</v>
       </c>
       <c r="CJ179" s="2">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="CK179" s="2">
         <v>122</v>
@@ -57752,10 +57752,10 @@
         <v>1074</v>
       </c>
       <c r="CV179" s="1">
-        <v>1275</v>
+        <v>1255</v>
       </c>
       <c r="CW179" s="1">
-        <v>3739</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="180" spans="1:101">
@@ -58077,7 +58077,7 @@
         <v>0</v>
       </c>
       <c r="E181" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F181" s="1">
         <v>46</v>
@@ -58089,7 +58089,7 @@
         <v>3</v>
       </c>
       <c r="I181" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J181" s="1">
         <v>0</v>
@@ -58365,7 +58365,7 @@
         <v>36</v>
       </c>
       <c r="CW181" s="1">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="182" spans="1:101">
@@ -61989,7 +61989,7 @@
         <v>8</v>
       </c>
       <c r="CK193" s="2">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="CL193" s="1">
         <v>9</v>
@@ -62025,7 +62025,7 @@
         <v>2438</v>
       </c>
       <c r="CW193" s="1">
-        <v>5443</v>
+        <v>5437</v>
       </c>
     </row>
     <row r="194" spans="1:101">
@@ -63367,7 +63367,7 @@
         <v>2</v>
       </c>
       <c r="AN198" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AO198" s="2">
         <v>18</v>
@@ -63511,7 +63511,7 @@
         <v>8</v>
       </c>
       <c r="CJ198" s="2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="CK198" s="2">
         <v>41</v>
@@ -63547,7 +63547,7 @@
         <v>98</v>
       </c>
       <c r="CV198" s="1">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="CW198" s="1">
         <v>533</v>
@@ -63567,7 +63567,7 @@
         <v>131</v>
       </c>
       <c r="E199" s="2">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="F199" s="1">
         <v>0</v>
@@ -63687,7 +63687,7 @@
         <v>0</v>
       </c>
       <c r="AS199" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT199" s="1">
         <v>0</v>
@@ -63819,7 +63819,7 @@
         <v>87</v>
       </c>
       <c r="CK199" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="CL199" s="1">
         <v>5</v>
@@ -63855,7 +63855,7 @@
         <v>1641</v>
       </c>
       <c r="CW199" s="1">
-        <v>1854</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="200" spans="1:101">
@@ -65089,7 +65089,7 @@
         <v>3</v>
       </c>
       <c r="D204" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E204" s="2">
         <v>12</v>
@@ -65377,7 +65377,7 @@
         <v>20</v>
       </c>
       <c r="CV204" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="CW204" s="1">
         <v>140</v>
@@ -66638,10 +66638,10 @@
         <v>14</v>
       </c>
       <c r="L209" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M209" s="2">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N209" s="1">
         <v>765</v>
@@ -66869,7 +66869,7 @@
         <v>9</v>
       </c>
       <c r="CK209" s="2">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="CL209" s="1">
         <v>15</v>
@@ -66902,10 +66902,10 @@
         <v>70</v>
       </c>
       <c r="CV209" s="1">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="CW209" s="1">
-        <v>233</v>
+        <v>205</v>
       </c>
     </row>
     <row r="210" spans="1:101">
